--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="232">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 15 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 16 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 16 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1246,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1047"/>
+  <dimension ref="A1:J1059"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1028" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1039" sqref="C1039"/>
+    <sheetView tabSelected="1" topLeftCell="A1040" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1051" sqref="A1051:F1059"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16666,105 +16672,238 @@
         <v>-0.45</v>
       </c>
     </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1051" s="6"/>
+      <c r="B1051" s="6"/>
+      <c r="C1051" s="6"/>
+      <c r="D1051" s="6"/>
+      <c r="E1051" s="6"/>
+      <c r="F1051" s="6"/>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1052" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1052" s="53"/>
+      <c r="C1052" s="53"/>
+      <c r="D1052" s="53"/>
+      <c r="E1052" s="53"/>
+      <c r="F1052" s="53"/>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1053" s="1"/>
+      <c r="B1053" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1053" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1053" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1053" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1053" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1054" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1054" s="51">
+        <v>26360</v>
+      </c>
+      <c r="C1054" s="52">
+        <v>26623</v>
+      </c>
+      <c r="D1054">
+        <v>32</v>
+      </c>
+      <c r="E1054" s="52">
+        <v>27120</v>
+      </c>
+      <c r="F1054" s="9">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1055" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1055" s="51">
+        <v>31350</v>
+      </c>
+      <c r="C1055" s="52">
+        <v>31663</v>
+      </c>
+      <c r="D1055">
+        <v>248</v>
+      </c>
+      <c r="E1055" s="52">
+        <v>32297</v>
+      </c>
+      <c r="F1055" s="9">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1056" s="53"/>
+      <c r="C1056" s="53"/>
+      <c r="D1056" s="53"/>
+      <c r="E1056" s="53"/>
+      <c r="F1056" s="50"/>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1057" s="1"/>
+      <c r="B1057" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1057" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1057" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1057" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1058" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1058" s="51">
+        <v>26384</v>
+      </c>
+      <c r="C1058" s="4">
+        <v>25</v>
+      </c>
+      <c r="D1058" s="51">
+        <v>7781600</v>
+      </c>
+      <c r="E1058" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1059" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1059" s="51">
+        <v>31111</v>
+      </c>
+      <c r="C1059" s="4">
+        <v>26</v>
+      </c>
+      <c r="D1059" s="51">
+        <v>1167200</v>
+      </c>
+      <c r="E1059" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="214">
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
+  <mergeCells count="216">
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A158:E158"/>
     <mergeCell ref="A370:F370"/>
     <mergeCell ref="A374:E374"/>
     <mergeCell ref="A365:E365"/>
@@ -16789,99 +16928,103 @@
     <mergeCell ref="A590:E590"/>
     <mergeCell ref="A500:E500"/>
     <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A940:E940"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\den\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07250151-1B1D-4BE3-A1E4-E257DA892357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="234">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -720,12 +721,18 @@
   </si>
   <si>
     <t>بازار ارز متشکل 16 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 17 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 17 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1251,24 +1258,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1059"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1040" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1051" sqref="A1051:F1059"/>
+    <sheetView tabSelected="1" topLeftCell="A1049" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1071" sqref="E1071"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1284,7 @@
       <c r="D1" s="53"/>
       <c r="E1" s="53"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1292,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
         <v>8</v>
       </c>
@@ -1336,7 +1343,7 @@
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1351,7 +1358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1368,7 +1375,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1385,8 +1392,8 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1402,7 @@
       <c r="D10" s="53"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -1408,7 +1415,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1423,7 +1430,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1438,7 +1445,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1454,7 @@
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -1462,7 +1469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1479,7 +1486,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1496,8 +1503,8 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="53" t="s">
         <v>23</v>
       </c>
@@ -1507,7 +1514,7 @@
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -1525,7 +1532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1572,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="53" t="s">
         <v>24</v>
       </c>
@@ -1574,7 +1581,7 @@
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -1589,7 +1596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +1613,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1623,8 +1630,8 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="53" t="s">
         <v>25</v>
       </c>
@@ -1634,7 +1641,7 @@
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1652,7 +1659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +1679,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +1699,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="53" t="s">
         <v>26</v>
       </c>
@@ -1701,7 +1708,7 @@
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -1716,7 +1723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1750,8 +1757,8 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
         <v>28</v>
       </c>
@@ -1761,7 +1768,7 @@
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -1779,7 +1786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1819,7 +1826,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="53" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +1835,7 @@
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -1843,7 +1850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1860,7 +1867,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -1877,8 +1884,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="53" t="s">
         <v>31</v>
       </c>
@@ -1888,7 +1895,7 @@
       <c r="E46" s="53"/>
       <c r="F46" s="53"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>14</v>
@@ -1906,7 +1913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -1946,7 +1953,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="53" t="s">
         <v>30</v>
       </c>
@@ -1955,7 +1962,7 @@
       <c r="D50" s="53"/>
       <c r="E50" s="53"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>16</v>
@@ -1970,7 +1977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -2004,8 +2011,8 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="53" t="s">
         <v>32</v>
       </c>
@@ -2015,7 +2022,7 @@
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>14</v>
@@ -2033,7 +2040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2060,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -2073,7 +2080,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="53" t="s">
         <v>33</v>
       </c>
@@ -2082,7 +2089,7 @@
       <c r="D59" s="53"/>
       <c r="E59" s="53"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>16</v>
@@ -2097,7 +2104,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -2114,7 +2121,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -2131,8 +2138,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="53" t="s">
         <v>34</v>
       </c>
@@ -2142,7 +2149,7 @@
       <c r="E64" s="53"/>
       <c r="F64" s="53"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>14</v>
@@ -2160,7 +2167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -2184,7 +2191,7 @@
         <v>2.4563480319621189E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -2208,7 +2215,7 @@
         <v>4.260961810466761E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="53" t="s">
         <v>35</v>
       </c>
@@ -2217,7 +2224,7 @@
       <c r="D68" s="53"/>
       <c r="E68" s="53"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>16</v>
@@ -2232,7 +2239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -2249,7 +2256,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -2266,8 +2273,8 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="53" t="s">
         <v>36</v>
       </c>
@@ -2277,7 +2284,7 @@
       <c r="E73" s="53"/>
       <c r="F73" s="53"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>14</v>
@@ -2295,7 +2302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -2319,7 +2326,7 @@
         <v>2.7493307270641226E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -2343,7 +2350,7 @@
         <v>4.582743988684583E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="53" t="s">
         <v>37</v>
       </c>
@@ -2352,7 +2359,7 @@
       <c r="D77" s="53"/>
       <c r="E77" s="53"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
@@ -2367,7 +2374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -2384,7 +2391,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2401,8 +2408,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="53" t="s">
         <v>38</v>
       </c>
@@ -2412,7 +2419,7 @@
       <c r="E82" s="53"/>
       <c r="F82" s="53"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>14</v>
@@ -2430,7 +2437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>1.6347141389934955E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
@@ -2478,7 +2485,7 @@
         <v>2.4877578010508633E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="53" t="s">
         <v>39</v>
       </c>
@@ -2487,7 +2494,7 @@
       <c r="D86" s="53"/>
       <c r="E86" s="53"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="2" t="s">
         <v>16</v>
@@ -2502,7 +2509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -2519,7 +2526,7 @@
         <v>-0.56999999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -2536,8 +2543,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="53" t="s">
         <v>40</v>
       </c>
@@ -2547,7 +2554,7 @@
       <c r="E91" s="53"/>
       <c r="F91" s="53"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="2" t="s">
         <v>14</v>
@@ -2565,7 +2572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -2589,7 +2596,7 @@
         <v>2.7921494847564888E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -2610,7 +2617,7 @@
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="53" t="s">
         <v>41</v>
       </c>
@@ -2619,7 +2626,7 @@
       <c r="D95" s="53"/>
       <c r="E95" s="53"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="2" t="s">
         <v>16</v>
@@ -2638,7 +2645,7 @@
         <v>3.5987420484597243E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -2672,8 +2679,8 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="53" t="s">
         <v>42</v>
       </c>
@@ -2683,7 +2690,7 @@
       <c r="E100" s="53"/>
       <c r="F100" s="53"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="2" t="s">
         <v>14</v>
@@ -2701,7 +2708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -2725,7 +2732,7 @@
         <v>2.0547945205479451E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -2746,7 +2753,7 @@
       </c>
       <c r="G103" s="10"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="53" t="s">
         <v>43</v>
       </c>
@@ -2755,7 +2762,7 @@
       <c r="D104" s="53"/>
       <c r="E104" s="53"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="2" t="s">
         <v>16</v>
@@ -2770,7 +2777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -2791,7 +2798,7 @@
         <v>2.6812242706282442E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -2808,8 +2815,8 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="53" t="s">
         <v>44</v>
       </c>
@@ -2819,7 +2826,7 @@
       <c r="E109" s="53"/>
       <c r="F109" s="53"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="2" t="s">
         <v>14</v>
@@ -2837,7 +2844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -2861,7 +2868,7 @@
         <v>1.9211843737965854E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
@@ -2882,7 +2889,7 @@
       </c>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="53" t="s">
         <v>45</v>
       </c>
@@ -2891,7 +2898,7 @@
       <c r="D113" s="53"/>
       <c r="E113" s="53"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
@@ -2907,7 +2914,7 @@
       </c>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -2929,7 +2936,7 @@
         <v>2.8919711160363196E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -2946,8 +2953,8 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="53" t="s">
         <v>46</v>
       </c>
@@ -2957,7 +2964,7 @@
       <c r="E118" s="53"/>
       <c r="F118" s="53"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>14</v>
@@ -2975,7 +2982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -2999,7 +3006,7 @@
         <v>2.1263851452530697E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -3020,7 +3027,7 @@
       </c>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="53" t="s">
         <v>47</v>
       </c>
@@ -3029,7 +3036,7 @@
       <c r="D122" s="53"/>
       <c r="E122" s="53"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="2" t="s">
         <v>16</v>
@@ -3045,7 +3052,7 @@
       </c>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -3067,7 +3074,7 @@
         <v>3.0525074168066626E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -3084,8 +3091,8 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="53" t="s">
         <v>48</v>
       </c>
@@ -3095,7 +3102,7 @@
       <c r="E127" s="53"/>
       <c r="F127" s="53"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="2" t="s">
         <v>14</v>
@@ -3117,7 +3124,7 @@
         <v>1.4604810996563574E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -3138,7 +3145,7 @@
       </c>
       <c r="G129" s="10"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -3159,7 +3166,7 @@
       </c>
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="53" t="s">
         <v>49</v>
       </c>
@@ -3169,7 +3176,7 @@
       <c r="E131" s="53"/>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>16</v>
@@ -3185,7 +3192,7 @@
       </c>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -3207,7 +3214,7 @@
         <v>2.8913760941311522E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
@@ -3225,8 +3232,8 @@
       </c>
       <c r="J134" s="10"/>
     </row>
-    <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="53" t="s">
         <v>50</v>
       </c>
@@ -3236,7 +3243,7 @@
       <c r="E136" s="53"/>
       <c r="F136" s="53"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="2" t="s">
         <v>14</v>
@@ -3258,7 +3265,7 @@
         <v>1.8916595012897677E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -3279,7 +3286,7 @@
       </c>
       <c r="G138" s="10"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3307,7 @@
       </c>
       <c r="G139" s="10"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="53" t="s">
         <v>51</v>
       </c>
@@ -3310,7 +3317,7 @@
       <c r="E140" s="53"/>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>16</v>
@@ -3330,7 +3337,7 @@
       </c>
       <c r="G141" s="10"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -3349,7 +3356,7 @@
       <c r="F142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
@@ -3367,8 +3374,8 @@
       </c>
       <c r="J143" s="10"/>
     </row>
-    <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="53" t="s">
         <v>52</v>
       </c>
@@ -3378,7 +3385,7 @@
       <c r="E145" s="53"/>
       <c r="F145" s="53"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>14</v>
@@ -3400,7 +3407,7 @@
         <v>1.6723270710631528E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -3421,7 +3428,7 @@
       </c>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>2</v>
       </c>
@@ -3442,7 +3449,7 @@
       </c>
       <c r="G148" s="10"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="53" t="s">
         <v>53</v>
       </c>
@@ -3456,7 +3463,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>16</v>
@@ -3472,7 +3479,7 @@
       </c>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -3494,7 +3501,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>2</v>
       </c>
@@ -3516,8 +3523,8 @@
       </c>
       <c r="J152" s="10"/>
     </row>
-    <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="53" t="s">
         <v>54</v>
       </c>
@@ -3527,7 +3534,7 @@
       <c r="E154" s="53"/>
       <c r="F154" s="53"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
@@ -3549,7 +3556,7 @@
         <v>1.0318142734307825E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -3573,7 +3580,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>2</v>
       </c>
@@ -3594,7 +3601,7 @@
       </c>
       <c r="G157" s="10"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="53" t="s">
         <v>55</v>
       </c>
@@ -3608,7 +3615,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="2" t="s">
         <v>16</v>
@@ -3624,7 +3631,7 @@
       </c>
       <c r="G159" s="10"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
@@ -3647,7 +3654,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
@@ -3666,8 +3673,8 @@
       <c r="H161" s="10"/>
       <c r="J161" s="10"/>
     </row>
-    <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="53" t="s">
         <v>56</v>
       </c>
@@ -3677,7 +3684,7 @@
       <c r="E163" s="53"/>
       <c r="F163" s="53"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="2" t="s">
         <v>14</v>
@@ -3699,7 +3706,7 @@
         <v>3.1867987951281268E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -3721,7 +3728,7 @@
       <c r="G165" s="10"/>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -3742,7 +3749,7 @@
       </c>
       <c r="G166" s="10"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="53" t="s">
         <v>57</v>
       </c>
@@ -3752,7 +3759,7 @@
       <c r="E167" s="53"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="2" t="s">
         <v>16</v>
@@ -3772,7 +3779,7 @@
         <v>1.6155264013878349E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>1</v>
       </c>
@@ -3792,7 +3799,7 @@
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>2</v>
       </c>
@@ -3815,8 +3822,8 @@
       <c r="H170" s="10"/>
       <c r="J170" s="10"/>
     </row>
-    <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="53" t="s">
         <v>58</v>
       </c>
@@ -3826,7 +3833,7 @@
       <c r="E172" s="53"/>
       <c r="F172" s="53"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="2" t="s">
         <v>14</v>
@@ -3848,7 +3855,7 @@
         <v>5.814219658471822E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -3873,7 +3880,7 @@
         <v>-1010</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
@@ -3895,7 +3902,7 @@
       </c>
       <c r="G175" s="10"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="53" t="s">
         <v>59</v>
       </c>
@@ -3905,7 +3912,7 @@
       <c r="E176" s="53"/>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="2" t="s">
         <v>16</v>
@@ -3925,7 +3932,7 @@
         <v>1.9689625371059255E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>-979</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
@@ -3968,8 +3975,8 @@
       <c r="H179" s="10"/>
       <c r="J179" s="10"/>
     </row>
-    <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="53" t="s">
         <v>60</v>
       </c>
@@ -3979,7 +3986,7 @@
       <c r="E181" s="53"/>
       <c r="F181" s="53"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="2" t="s">
         <v>14</v>
@@ -3997,7 +4004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -4023,7 +4030,7 @@
       </c>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
@@ -4044,7 +4051,7 @@
       </c>
       <c r="G184" s="10"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="53" t="s">
         <v>61</v>
       </c>
@@ -4058,7 +4065,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="2" t="s">
         <v>16</v>
@@ -4077,7 +4084,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -4097,7 +4104,7 @@
       <c r="H187" s="10"/>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
@@ -4117,8 +4124,8 @@
       <c r="H188" s="10"/>
       <c r="J188" s="10"/>
     </row>
-    <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="53" t="s">
         <v>62</v>
       </c>
@@ -4128,7 +4135,7 @@
       <c r="E190" s="53"/>
       <c r="F190" s="53"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="2" t="s">
         <v>14</v>
@@ -4150,7 +4157,7 @@
         <v>8.3469250695577084E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -4175,7 +4182,7 @@
         <v>-980</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
@@ -4196,7 +4203,7 @@
       </c>
       <c r="G193" s="10"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="53" t="s">
         <v>63</v>
       </c>
@@ -4213,7 +4220,7 @@
         <v>-862</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="2" t="s">
         <v>16</v>
@@ -4229,7 +4236,7 @@
       </c>
       <c r="G195" s="10"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -4249,7 +4256,7 @@
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
@@ -4269,8 +4276,8 @@
       <c r="H197" s="10"/>
       <c r="J197" s="10"/>
     </row>
-    <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="53" t="s">
         <v>64</v>
       </c>
@@ -4280,7 +4287,7 @@
       <c r="E199" s="53"/>
       <c r="F199" s="53"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
@@ -4302,7 +4309,7 @@
         <v>2.0032904287235073E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -4324,7 +4331,7 @@
       <c r="G201" s="10"/>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>2</v>
       </c>
@@ -4348,7 +4355,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="53" t="s">
         <v>65</v>
       </c>
@@ -4358,7 +4365,7 @@
       <c r="E203" s="53"/>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="2" t="s">
         <v>16</v>
@@ -4374,7 +4381,7 @@
       </c>
       <c r="G204" s="10"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -4396,7 +4403,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
@@ -4416,8 +4423,8 @@
       <c r="H206" s="10"/>
       <c r="J206" s="10"/>
     </row>
-    <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="53" t="s">
         <v>66</v>
       </c>
@@ -4427,7 +4434,7 @@
       <c r="E208" s="53"/>
       <c r="F208" s="53"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="2" t="s">
         <v>14</v>
@@ -4449,7 +4456,7 @@
         <v>3.6279428791972212E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -4474,7 +4481,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A211" s="1" t="s">
         <v>2</v>
       </c>
@@ -4500,7 +4507,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="53" t="s">
         <v>67</v>
       </c>
@@ -4514,7 +4521,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="2" t="s">
         <v>16</v>
@@ -4530,7 +4537,7 @@
       </c>
       <c r="G213" s="10"/>
     </row>
-    <row r="214" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
@@ -4550,7 +4557,7 @@
       <c r="H214" s="10"/>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -4570,8 +4577,8 @@
       <c r="H215" s="10"/>
       <c r="J215" s="10"/>
     </row>
-    <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="53" t="s">
         <v>68</v>
       </c>
@@ -4581,7 +4588,7 @@
       <c r="E217" s="53"/>
       <c r="F217" s="53"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="2" t="s">
         <v>14</v>
@@ -4603,7 +4610,7 @@
         <v>9.5799557848194553E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A219" s="1" t="s">
         <v>1</v>
       </c>
@@ -4628,7 +4635,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
@@ -4653,7 +4660,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="53" t="s">
         <v>69</v>
       </c>
@@ -4667,7 +4674,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="2" t="s">
         <v>16</v>
@@ -4683,7 +4690,7 @@
       </c>
       <c r="G222" s="10"/>
     </row>
-    <row r="223" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
@@ -4703,7 +4710,7 @@
       <c r="H223" s="10"/>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
@@ -4723,8 +4730,8 @@
       <c r="H224" s="10"/>
       <c r="J224" s="10"/>
     </row>
-    <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="53" t="s">
         <v>70</v>
       </c>
@@ -4734,7 +4741,7 @@
       <c r="E226" s="53"/>
       <c r="F226" s="53"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="2" t="s">
         <v>14</v>
@@ -4756,7 +4763,7 @@
         <v>1.7531176576902223E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A228" s="1" t="s">
         <v>1</v>
       </c>
@@ -4781,7 +4788,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A229" s="1" t="s">
         <v>2</v>
       </c>
@@ -4804,7 +4811,7 @@
       <c r="H229" s="10"/>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="53" t="s">
         <v>71</v>
       </c>
@@ -4818,7 +4825,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="2" t="s">
         <v>16</v>
@@ -4837,7 +4844,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
@@ -4857,7 +4864,7 @@
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A233" s="1" t="s">
         <v>2</v>
       </c>
@@ -4877,8 +4884,8 @@
       <c r="H233" s="10"/>
       <c r="J233" s="10"/>
     </row>
-    <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="53" t="s">
         <v>72</v>
       </c>
@@ -4888,7 +4895,7 @@
       <c r="E235" s="53"/>
       <c r="F235" s="53"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="2" t="s">
         <v>14</v>
@@ -4910,7 +4917,7 @@
         <v>8.2526013634732689E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A237" s="1" t="s">
         <v>1</v>
       </c>
@@ -4933,7 +4940,7 @@
       <c r="H237" s="13"/>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
@@ -4959,7 +4966,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="53" t="s">
         <v>73</v>
       </c>
@@ -4969,7 +4976,7 @@
       <c r="E239" s="53"/>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="2" t="s">
         <v>16</v>
@@ -4989,7 +4996,7 @@
       </c>
       <c r="G240" s="10"/>
     </row>
-    <row r="241" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -5012,7 +5019,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
@@ -5032,8 +5039,8 @@
       <c r="H242" s="10"/>
       <c r="J242" s="10"/>
     </row>
-    <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="53" t="s">
         <v>74</v>
       </c>
@@ -5043,7 +5050,7 @@
       <c r="E244" s="53"/>
       <c r="F244" s="53"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="2" t="s">
         <v>14</v>
@@ -5065,7 +5072,7 @@
         <v>2.0225523536781816E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A246" s="1" t="s">
         <v>1</v>
       </c>
@@ -5090,7 +5097,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
@@ -5115,7 +5122,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="53" t="s">
         <v>75</v>
       </c>
@@ -5129,7 +5136,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="2" t="s">
         <v>16</v>
@@ -5145,7 +5152,7 @@
       </c>
       <c r="G249" s="10"/>
     </row>
-    <row r="250" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A250" s="1" t="s">
         <v>1</v>
       </c>
@@ -5165,7 +5172,7 @@
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -5185,8 +5192,8 @@
       <c r="H251" s="10"/>
       <c r="J251" s="10"/>
     </row>
-    <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="53" t="s">
         <v>76</v>
       </c>
@@ -5196,7 +5203,7 @@
       <c r="E253" s="53"/>
       <c r="F253" s="53"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="2" t="s">
         <v>14</v>
@@ -5221,7 +5228,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A255" s="1" t="s">
         <v>1</v>
       </c>
@@ -5244,7 +5251,7 @@
       <c r="H255" s="13"/>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A256" s="1" t="s">
         <v>2</v>
       </c>
@@ -5269,7 +5276,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="53" t="s">
         <v>77</v>
       </c>
@@ -5279,7 +5286,7 @@
       <c r="E257" s="53"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="2" t="s">
         <v>16</v>
@@ -5299,7 +5306,7 @@
       </c>
       <c r="G258" s="10"/>
     </row>
-    <row r="259" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A259" s="1" t="s">
         <v>1</v>
       </c>
@@ -5319,7 +5326,7 @@
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A260" s="1" t="s">
         <v>2</v>
       </c>
@@ -5339,8 +5346,8 @@
       <c r="H260" s="10"/>
       <c r="J260" s="10"/>
     </row>
-    <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="53" t="s">
         <v>78</v>
       </c>
@@ -5350,7 +5357,7 @@
       <c r="E262" s="53"/>
       <c r="F262" s="53"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="2" t="s">
         <v>14</v>
@@ -5376,7 +5383,7 @@
         <v>-390</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A264" s="1" t="s">
         <v>1</v>
       </c>
@@ -5399,7 +5406,7 @@
       <c r="H264" s="13"/>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A265" s="1" t="s">
         <v>2</v>
       </c>
@@ -5422,7 +5429,7 @@
       <c r="H265" s="10"/>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="53" t="s">
         <v>79</v>
       </c>
@@ -5440,7 +5447,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="2" t="s">
         <v>16</v>
@@ -5456,7 +5463,7 @@
       </c>
       <c r="G267" s="10"/>
     </row>
-    <row r="268" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A268" s="1" t="s">
         <v>1</v>
       </c>
@@ -5476,7 +5483,7 @@
       <c r="H268" s="10"/>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A269" s="1" t="s">
         <v>2</v>
       </c>
@@ -5496,8 +5503,8 @@
       <c r="H269" s="10"/>
       <c r="J269" s="10"/>
     </row>
-    <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="53" t="s">
         <v>80</v>
       </c>
@@ -5507,7 +5514,7 @@
       <c r="E271" s="53"/>
       <c r="F271" s="53"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="2" t="s">
         <v>14</v>
@@ -5529,7 +5536,7 @@
         <v>2.4131060438344034E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A273" s="1" t="s">
         <v>1</v>
       </c>
@@ -5555,7 +5562,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
@@ -5580,7 +5587,7 @@
       </c>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="53" t="s">
         <v>81</v>
       </c>
@@ -5594,7 +5601,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="2" t="s">
         <v>16</v>
@@ -5610,7 +5617,7 @@
       </c>
       <c r="G276" s="10"/>
     </row>
-    <row r="277" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A277" s="1" t="s">
         <v>1</v>
       </c>
@@ -5630,7 +5637,7 @@
       <c r="H277" s="10"/>
       <c r="I277" s="10"/>
     </row>
-    <row r="278" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A278" s="1" t="s">
         <v>2</v>
       </c>
@@ -5650,8 +5657,8 @@
       <c r="H278" s="10"/>
       <c r="J278" s="10"/>
     </row>
-    <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="53" t="s">
         <v>82</v>
       </c>
@@ -5661,7 +5668,7 @@
       <c r="E280" s="53"/>
       <c r="F280" s="53"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="2" t="s">
         <v>14</v>
@@ -5687,7 +5694,7 @@
         <v>-530</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A282" s="1" t="s">
         <v>1</v>
       </c>
@@ -5710,7 +5717,7 @@
       <c r="H282" s="13"/>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A283" s="1" t="s">
         <v>2</v>
       </c>
@@ -5733,7 +5740,7 @@
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="53" t="s">
         <v>83</v>
       </c>
@@ -5751,7 +5758,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="2" t="s">
         <v>16</v>
@@ -5767,7 +5774,7 @@
       </c>
       <c r="G285" s="10"/>
     </row>
-    <row r="286" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A286" s="1" t="s">
         <v>1</v>
       </c>
@@ -5787,7 +5794,7 @@
       <c r="H286" s="10"/>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
@@ -5807,8 +5814,8 @@
       <c r="H287" s="10"/>
       <c r="J287" s="10"/>
     </row>
-    <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="53" t="s">
         <v>84</v>
       </c>
@@ -5818,7 +5825,7 @@
       <c r="E289" s="53"/>
       <c r="F289" s="53"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="2" t="s">
         <v>14</v>
@@ -5840,7 +5847,7 @@
         <v>2.888410477215644E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A291" s="1" t="s">
         <v>1</v>
       </c>
@@ -5865,7 +5872,7 @@
       </c>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A292" s="1" t="s">
         <v>2</v>
       </c>
@@ -5890,7 +5897,7 @@
       </c>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="53" t="s">
         <v>85</v>
       </c>
@@ -5904,7 +5911,7 @@
       </c>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="2" t="s">
         <v>16</v>
@@ -5920,7 +5927,7 @@
       </c>
       <c r="G294" s="10"/>
     </row>
-    <row r="295" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A295" s="1" t="s">
         <v>1</v>
       </c>
@@ -5940,7 +5947,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A296" s="1" t="s">
         <v>2</v>
       </c>
@@ -5960,8 +5967,8 @@
       <c r="H296" s="10"/>
       <c r="J296" s="10"/>
     </row>
-    <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="53" t="s">
         <v>86</v>
       </c>
@@ -5971,7 +5978,7 @@
       <c r="E298" s="53"/>
       <c r="F298" s="53"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="2" t="s">
         <v>14</v>
@@ -5993,7 +6000,7 @@
         <v>2.2706955122474521E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A300" s="1" t="s">
         <v>1</v>
       </c>
@@ -6019,7 +6026,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A301" s="1" t="s">
         <v>2</v>
       </c>
@@ -6042,7 +6049,7 @@
       <c r="H301" s="10"/>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="53" t="s">
         <v>87</v>
       </c>
@@ -6060,7 +6067,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="2" t="s">
         <v>16</v>
@@ -6076,7 +6083,7 @@
       </c>
       <c r="G303" s="10"/>
     </row>
-    <row r="304" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A304" s="1" t="s">
         <v>1</v>
       </c>
@@ -6096,7 +6103,7 @@
       <c r="H304" s="10"/>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A305" s="1" t="s">
         <v>2</v>
       </c>
@@ -6116,8 +6123,8 @@
       <c r="H305" s="10"/>
       <c r="J305" s="10"/>
     </row>
-    <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="53" t="s">
         <v>89</v>
       </c>
@@ -6127,7 +6134,7 @@
       <c r="E307" s="53"/>
       <c r="F307" s="53"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="2" t="s">
         <v>14</v>
@@ -6149,7 +6156,7 @@
         <v>2.284898250624777E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A309" s="1" t="s">
         <v>1</v>
       </c>
@@ -6175,7 +6182,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A310" s="1" t="s">
         <v>2</v>
       </c>
@@ -6201,7 +6208,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="53" t="s">
         <v>88</v>
       </c>
@@ -6215,7 +6222,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="2" t="s">
         <v>16</v>
@@ -6231,7 +6238,7 @@
       </c>
       <c r="G312" s="10"/>
     </row>
-    <row r="313" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A313" s="1" t="s">
         <v>1</v>
       </c>
@@ -6251,7 +6258,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A314" s="1" t="s">
         <v>2</v>
       </c>
@@ -6271,8 +6278,8 @@
       <c r="H314" s="10"/>
       <c r="J314" s="10"/>
     </row>
-    <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="53" t="s">
         <v>90</v>
       </c>
@@ -6282,7 +6289,7 @@
       <c r="E316" s="53"/>
       <c r="F316" s="53"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="2" t="s">
         <v>14</v>
@@ -6304,7 +6311,7 @@
         <v>3.5097890558801234E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A318" s="1" t="s">
         <v>1</v>
       </c>
@@ -6330,7 +6337,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A319" s="1" t="s">
         <v>2</v>
       </c>
@@ -6353,7 +6360,7 @@
       <c r="H319" s="10"/>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="53" t="s">
         <v>91</v>
       </c>
@@ -6370,7 +6377,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="2" t="s">
         <v>16</v>
@@ -6386,7 +6393,7 @@
       </c>
       <c r="G321" s="10"/>
     </row>
-    <row r="322" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A322" s="1" t="s">
         <v>1</v>
       </c>
@@ -6406,7 +6413,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A323" s="1" t="s">
         <v>2</v>
       </c>
@@ -6426,8 +6433,8 @@
       <c r="H323" s="10"/>
       <c r="J323" s="10"/>
     </row>
-    <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="53" t="s">
         <v>92</v>
       </c>
@@ -6441,7 +6448,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="2" t="s">
         <v>14</v>
@@ -6463,7 +6470,7 @@
         <v>2.4383720411893194E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A327" s="1" t="s">
         <v>1</v>
       </c>
@@ -6486,7 +6493,7 @@
       <c r="H327" s="13"/>
       <c r="I327" s="10"/>
     </row>
-    <row r="328" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A328" s="1" t="s">
         <v>2</v>
       </c>
@@ -6512,7 +6519,7 @@
       </c>
       <c r="I328" s="10"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="53" t="s">
         <v>93</v>
       </c>
@@ -6526,7 +6533,7 @@
       </c>
       <c r="I329" s="10"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="2" t="s">
         <v>16</v>
@@ -6542,7 +6549,7 @@
       </c>
       <c r="G330" s="10"/>
     </row>
-    <row r="331" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A331" s="1" t="s">
         <v>1</v>
       </c>
@@ -6562,7 +6569,7 @@
       <c r="H331" s="10"/>
       <c r="I331" s="10"/>
     </row>
-    <row r="332" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A332" s="1" t="s">
         <v>2</v>
       </c>
@@ -6582,8 +6589,8 @@
       <c r="H332" s="10"/>
       <c r="J332" s="10"/>
     </row>
-    <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="53" t="s">
         <v>94</v>
       </c>
@@ -6593,7 +6600,7 @@
       <c r="E334" s="53"/>
       <c r="F334" s="53"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="2" t="s">
         <v>14</v>
@@ -6615,7 +6622,7 @@
         <v>3.5830040403143457E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A336" s="1" t="s">
         <v>1</v>
       </c>
@@ -6641,7 +6648,7 @@
       </c>
       <c r="I336" s="10"/>
     </row>
-    <row r="337" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A337" s="1" t="s">
         <v>2</v>
       </c>
@@ -6664,7 +6671,7 @@
       <c r="H337" s="10"/>
       <c r="I337" s="10"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="53" t="s">
         <v>95</v>
       </c>
@@ -6678,7 +6685,7 @@
       </c>
       <c r="I338" s="10"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="2" t="s">
         <v>16</v>
@@ -6698,7 +6705,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A340" s="1" t="s">
         <v>1</v>
       </c>
@@ -6718,7 +6725,7 @@
       <c r="H340" s="10"/>
       <c r="I340" s="10"/>
     </row>
-    <row r="341" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A341" s="1" t="s">
         <v>2</v>
       </c>
@@ -6738,8 +6745,8 @@
       <c r="H341" s="10"/>
       <c r="J341" s="10"/>
     </row>
-    <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="53" t="s">
         <v>96</v>
       </c>
@@ -6749,7 +6756,7 @@
       <c r="E343" s="53"/>
       <c r="F343" s="53"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="2" t="s">
         <v>14</v>
@@ -6771,7 +6778,7 @@
         <v>2.3243505491112777E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A345" s="1" t="s">
         <v>1</v>
       </c>
@@ -6797,7 +6804,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A346" s="1" t="s">
         <v>2</v>
       </c>
@@ -6824,7 +6831,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="53" t="s">
         <v>97</v>
       </c>
@@ -6838,7 +6845,7 @@
       </c>
       <c r="I347" s="10"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="2" t="s">
         <v>16</v>
@@ -6854,7 +6861,7 @@
       </c>
       <c r="G348" s="10"/>
     </row>
-    <row r="349" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A349" s="1" t="s">
         <v>1</v>
       </c>
@@ -6874,7 +6881,7 @@
       <c r="H349" s="10"/>
       <c r="I349" s="10"/>
     </row>
-    <row r="350" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A350" s="1" t="s">
         <v>2</v>
       </c>
@@ -6894,8 +6901,8 @@
       <c r="H350" s="10"/>
       <c r="J350" s="10"/>
     </row>
-    <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="53" t="s">
         <v>98</v>
       </c>
@@ -6909,7 +6916,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="2" t="s">
         <v>14</v>
@@ -6931,7 +6938,7 @@
         <v>2.0843101317079407E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A354" s="1" t="s">
         <v>1</v>
       </c>
@@ -6954,7 +6961,7 @@
       <c r="H354" s="13"/>
       <c r="I354" s="10"/>
     </row>
-    <row r="355" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A355" s="1" t="s">
         <v>2</v>
       </c>
@@ -6977,7 +6984,7 @@
       <c r="H355" s="10"/>
       <c r="I355" s="10"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="53" t="s">
         <v>99</v>
       </c>
@@ -6991,7 +6998,7 @@
       </c>
       <c r="I356" s="10"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2" t="s">
         <v>16</v>
@@ -7007,7 +7014,7 @@
       </c>
       <c r="G357" s="10"/>
     </row>
-    <row r="358" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A358" s="1" t="s">
         <v>1</v>
       </c>
@@ -7030,7 +7037,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A359" s="1" t="s">
         <v>2</v>
       </c>
@@ -7050,8 +7057,8 @@
       <c r="H359" s="10"/>
       <c r="J359" s="10"/>
     </row>
-    <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="53" t="s">
         <v>100</v>
       </c>
@@ -7061,7 +7068,7 @@
       <c r="E361" s="53"/>
       <c r="F361" s="53"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="2" t="s">
         <v>14</v>
@@ -7083,7 +7090,7 @@
         <v>4.1835472728048106E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A363" s="1" t="s">
         <v>1</v>
       </c>
@@ -7109,7 +7116,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A364" s="1" t="s">
         <v>2</v>
       </c>
@@ -7132,7 +7139,7 @@
       <c r="H364" s="10"/>
       <c r="I364" s="10"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="53" t="s">
         <v>99</v>
       </c>
@@ -7142,7 +7149,7 @@
       <c r="E365" s="53"/>
       <c r="I365" s="10"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="2" t="s">
         <v>16</v>
@@ -7162,7 +7169,7 @@
       </c>
       <c r="G366" s="10"/>
     </row>
-    <row r="367" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A367" s="1" t="s">
         <v>1</v>
       </c>
@@ -7182,7 +7189,7 @@
       <c r="H367" s="10"/>
       <c r="I367" s="10"/>
     </row>
-    <row r="368" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A368" s="1" t="s">
         <v>2</v>
       </c>
@@ -7206,8 +7213,8 @@
       </c>
       <c r="J368" s="10"/>
     </row>
-    <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="53" t="s">
         <v>101</v>
       </c>
@@ -7217,7 +7224,7 @@
       <c r="E370" s="53"/>
       <c r="F370" s="53"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="2" t="s">
         <v>14</v>
@@ -7239,7 +7246,7 @@
         <v>1.4783797641428816E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A372" s="1" t="s">
         <v>1</v>
       </c>
@@ -7265,7 +7272,7 @@
       </c>
       <c r="I372" s="10"/>
     </row>
-    <row r="373" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A373" s="1" t="s">
         <v>2</v>
       </c>
@@ -7288,7 +7295,7 @@
       <c r="H373" s="10"/>
       <c r="I373" s="10"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="53" t="s">
         <v>102</v>
       </c>
@@ -7302,7 +7309,7 @@
       </c>
       <c r="I374" s="10"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="2" t="s">
         <v>16</v>
@@ -7322,7 +7329,7 @@
         <v>-961</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A376" s="1" t="s">
         <v>1</v>
       </c>
@@ -7342,7 +7349,7 @@
       <c r="H376" s="10"/>
       <c r="I376" s="10"/>
     </row>
-    <row r="377" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A377" s="1" t="s">
         <v>2</v>
       </c>
@@ -7362,8 +7369,8 @@
       <c r="H377" s="10"/>
       <c r="J377" s="10"/>
     </row>
-    <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="53" t="s">
         <v>103</v>
       </c>
@@ -7377,7 +7384,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="2" t="s">
         <v>14</v>
@@ -7399,7 +7406,7 @@
         <v>2.0599250936329586E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A381" s="1" t="s">
         <v>1</v>
       </c>
@@ -7422,7 +7429,7 @@
       <c r="H381" s="13"/>
       <c r="I381" s="10"/>
     </row>
-    <row r="382" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A382" s="1" t="s">
         <v>2</v>
       </c>
@@ -7445,7 +7452,7 @@
       <c r="H382" s="10"/>
       <c r="I382" s="10"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="53" t="s">
         <v>104</v>
       </c>
@@ -7459,7 +7466,7 @@
       </c>
       <c r="I383" s="10"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="2" t="s">
         <v>16</v>
@@ -7479,7 +7486,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A385" s="1" t="s">
         <v>1</v>
       </c>
@@ -7499,7 +7506,7 @@
       <c r="H385" s="10"/>
       <c r="I385" s="10"/>
     </row>
-    <row r="386" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A386" s="1" t="s">
         <v>2</v>
       </c>
@@ -7519,8 +7526,8 @@
       <c r="H386" s="10"/>
       <c r="J386" s="10"/>
     </row>
-    <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="53" t="s">
         <v>105</v>
       </c>
@@ -7530,7 +7537,7 @@
       <c r="E388" s="53"/>
       <c r="F388" s="53"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="2" t="s">
         <v>14</v>
@@ -7556,7 +7563,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A390" s="1" t="s">
         <v>1</v>
       </c>
@@ -7579,7 +7586,7 @@
       <c r="H390" s="13"/>
       <c r="I390" s="10"/>
     </row>
-    <row r="391" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A391" s="1" t="s">
         <v>2</v>
       </c>
@@ -7602,7 +7609,7 @@
       <c r="H391" s="10"/>
       <c r="I391" s="10"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="53" t="s">
         <v>106</v>
       </c>
@@ -7620,7 +7627,7 @@
       </c>
       <c r="I392" s="10"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="2" t="s">
         <v>16</v>
@@ -7636,7 +7643,7 @@
       </c>
       <c r="G393" s="10"/>
     </row>
-    <row r="394" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A394" s="1" t="s">
         <v>1</v>
       </c>
@@ -7656,7 +7663,7 @@
       <c r="H394" s="10"/>
       <c r="I394" s="10"/>
     </row>
-    <row r="395" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A395" s="1" t="s">
         <v>2</v>
       </c>
@@ -7676,8 +7683,8 @@
       <c r="H395" s="10"/>
       <c r="J395" s="10"/>
     </row>
-    <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="53" t="s">
         <v>107</v>
       </c>
@@ -7691,7 +7698,7 @@
         <v>1.6681599044327831E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="2" t="s">
         <v>14</v>
@@ -7712,7 +7719,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A399" s="1" t="s">
         <v>1</v>
       </c>
@@ -7738,7 +7745,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A400" s="1" t="s">
         <v>2</v>
       </c>
@@ -7761,7 +7768,7 @@
       <c r="H400" s="10"/>
       <c r="I400" s="10"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="53" t="s">
         <v>108</v>
       </c>
@@ -7775,7 +7782,7 @@
       </c>
       <c r="I401" s="10"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="2" t="s">
         <v>16</v>
@@ -7791,7 +7798,7 @@
       </c>
       <c r="G402" s="10"/>
     </row>
-    <row r="403" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A403" s="1" t="s">
         <v>1</v>
       </c>
@@ -7811,7 +7818,7 @@
       <c r="H403" s="10"/>
       <c r="I403" s="10"/>
     </row>
-    <row r="404" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A404" s="1" t="s">
         <v>2</v>
       </c>
@@ -7831,8 +7838,8 @@
       <c r="H404" s="10"/>
       <c r="J404" s="10"/>
     </row>
-    <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="53" t="s">
         <v>109</v>
       </c>
@@ -7846,7 +7853,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="2" t="s">
         <v>14</v>
@@ -7868,7 +7875,7 @@
         <v>1.6791044776119403E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A408" s="1" t="s">
         <v>1</v>
       </c>
@@ -7891,7 +7898,7 @@
       <c r="H408" s="13"/>
       <c r="I408" s="10"/>
     </row>
-    <row r="409" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A409" s="1" t="s">
         <v>2</v>
       </c>
@@ -7914,7 +7921,7 @@
       <c r="H409" s="10"/>
       <c r="I409" s="10"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="53" t="s">
         <v>110</v>
       </c>
@@ -7928,7 +7935,7 @@
       </c>
       <c r="I410" s="10"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2" t="s">
         <v>16</v>
@@ -7948,7 +7955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A412" s="1" t="s">
         <v>1</v>
       </c>
@@ -7968,7 +7975,7 @@
       <c r="H412" s="10"/>
       <c r="I412" s="10"/>
     </row>
-    <row r="413" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A413" s="1" t="s">
         <v>2</v>
       </c>
@@ -7988,8 +7995,8 @@
       <c r="H413" s="10"/>
       <c r="J413" s="10"/>
     </row>
-    <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="53" t="s">
         <v>111</v>
       </c>
@@ -8003,7 +8010,7 @@
         <v>1.4874628134296642E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="2" t="s">
         <v>14</v>
@@ -8025,7 +8032,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A417" s="1" t="s">
         <v>1</v>
       </c>
@@ -8048,7 +8055,7 @@
       <c r="H417" s="13"/>
       <c r="I417" s="10"/>
     </row>
-    <row r="418" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A418" s="1" t="s">
         <v>2</v>
       </c>
@@ -8074,7 +8081,7 @@
       </c>
       <c r="I418" s="10"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="53" t="s">
         <v>112</v>
       </c>
@@ -8088,7 +8095,7 @@
       </c>
       <c r="I419" s="10"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="2" t="s">
         <v>16</v>
@@ -8104,7 +8111,7 @@
       </c>
       <c r="G420" s="10"/>
     </row>
-    <row r="421" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A421" s="1" t="s">
         <v>1</v>
       </c>
@@ -8124,7 +8131,7 @@
       <c r="H421" s="10"/>
       <c r="I421" s="10"/>
     </row>
-    <row r="422" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A422" s="1" t="s">
         <v>2</v>
       </c>
@@ -8144,8 +8151,8 @@
       <c r="H422" s="10"/>
       <c r="J422" s="10"/>
     </row>
-    <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="53" t="s">
         <v>113</v>
       </c>
@@ -8159,7 +8166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2" t="s">
         <v>14</v>
@@ -8181,7 +8188,7 @@
         <v>2.5662778366914104E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A426" s="1" t="s">
         <v>1</v>
       </c>
@@ -8204,7 +8211,7 @@
       <c r="H426" s="13"/>
       <c r="I426" s="10"/>
     </row>
-    <row r="427" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A427" s="1" t="s">
         <v>2</v>
       </c>
@@ -8227,7 +8234,7 @@
       <c r="H427" s="10"/>
       <c r="I427" s="10"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="53" t="s">
         <v>114</v>
       </c>
@@ -8237,7 +8244,7 @@
       <c r="E428" s="53"/>
       <c r="I428" s="10"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="2" t="s">
         <v>16</v>
@@ -8257,7 +8264,7 @@
         <v>1.994153267905617E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A430" s="1" t="s">
         <v>1</v>
       </c>
@@ -8280,7 +8287,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A431" s="1" t="s">
         <v>2</v>
       </c>
@@ -8300,8 +8307,8 @@
       <c r="H431" s="10"/>
       <c r="J431" s="10"/>
     </row>
-    <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="53" t="s">
         <v>115</v>
       </c>
@@ -8315,7 +8322,7 @@
         <v>1.7408615358549706E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="2" t="s">
         <v>14</v>
@@ -8337,7 +8344,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A435" s="1" t="s">
         <v>1</v>
       </c>
@@ -8360,7 +8367,7 @@
       <c r="H435" s="13"/>
       <c r="I435" s="10"/>
     </row>
-    <row r="436" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A436" s="1" t="s">
         <v>2</v>
       </c>
@@ -8383,7 +8390,7 @@
       <c r="H436" s="10"/>
       <c r="I436" s="10"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="53" t="s">
         <v>116</v>
       </c>
@@ -8397,7 +8404,7 @@
       </c>
       <c r="I437" s="10"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="2" t="s">
         <v>16</v>
@@ -8417,7 +8424,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A439" s="1" t="s">
         <v>1</v>
       </c>
@@ -8437,7 +8444,7 @@
       <c r="H439" s="10"/>
       <c r="I439" s="10"/>
     </row>
-    <row r="440" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A440" s="1" t="s">
         <v>2</v>
       </c>
@@ -8457,8 +8464,8 @@
       <c r="H440" s="10"/>
       <c r="J440" s="10"/>
     </row>
-    <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="53" t="s">
         <v>117</v>
       </c>
@@ -8472,7 +8479,7 @@
         <v>1.0817975798520545E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="2" t="s">
         <v>14</v>
@@ -8494,7 +8501,7 @@
         <v>-380</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A444" s="1" t="s">
         <v>1</v>
       </c>
@@ -8518,7 +8525,7 @@
       <c r="H444" s="13"/>
       <c r="I444" s="10"/>
     </row>
-    <row r="445" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A445" s="1" t="s">
         <v>2</v>
       </c>
@@ -8545,7 +8552,7 @@
       </c>
       <c r="I445" s="10"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="53" t="s">
         <v>118</v>
       </c>
@@ -8559,7 +8566,7 @@
       </c>
       <c r="I446" s="10"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="2" t="s">
         <v>16</v>
@@ -8575,7 +8582,7 @@
       </c>
       <c r="G447" s="10"/>
     </row>
-    <row r="448" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A448" s="1" t="s">
         <v>1</v>
       </c>
@@ -8595,7 +8602,7 @@
       <c r="H448" s="10"/>
       <c r="I448" s="10"/>
     </row>
-    <row r="449" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A449" s="1" t="s">
         <v>2</v>
       </c>
@@ -8615,8 +8622,8 @@
       <c r="H449" s="10"/>
       <c r="J449" s="10"/>
     </row>
-    <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="53" t="s">
         <v>119</v>
       </c>
@@ -8634,7 +8641,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="2" t="s">
         <v>14</v>
@@ -8652,7 +8659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A453" s="1" t="s">
         <v>1</v>
       </c>
@@ -8675,7 +8682,7 @@
       <c r="H453" s="13"/>
       <c r="I453" s="10"/>
     </row>
-    <row r="454" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A454" s="1" t="s">
         <v>2</v>
       </c>
@@ -8698,7 +8705,7 @@
       <c r="H454" s="10"/>
       <c r="I454" s="10"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="53" t="s">
         <v>120</v>
       </c>
@@ -8712,7 +8719,7 @@
       </c>
       <c r="I455" s="10"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="2" t="s">
         <v>16</v>
@@ -8728,7 +8735,7 @@
       </c>
       <c r="G456" s="10"/>
     </row>
-    <row r="457" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A457" s="1" t="s">
         <v>1</v>
       </c>
@@ -8751,7 +8758,7 @@
       </c>
       <c r="I457" s="10"/>
     </row>
-    <row r="458" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A458" s="1" t="s">
         <v>2</v>
       </c>
@@ -8771,8 +8778,8 @@
       <c r="H458" s="10"/>
       <c r="J458" s="10"/>
     </row>
-    <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="53" t="s">
         <v>121</v>
       </c>
@@ -8786,7 +8793,7 @@
         <v>1.5754384474924624E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="2" t="s">
         <v>14</v>
@@ -8808,7 +8815,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A462" s="1" t="s">
         <v>1</v>
       </c>
@@ -8831,7 +8838,7 @@
       <c r="H462" s="13"/>
       <c r="I462" s="10"/>
     </row>
-    <row r="463" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A463" s="1" t="s">
         <v>2</v>
       </c>
@@ -8854,7 +8861,7 @@
       <c r="H463" s="10"/>
       <c r="I463" s="10"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="53" t="s">
         <v>122</v>
       </c>
@@ -8868,7 +8875,7 @@
       </c>
       <c r="I464" s="10"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="2" t="s">
         <v>16</v>
@@ -8888,7 +8895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A466" s="1" t="s">
         <v>1</v>
       </c>
@@ -8908,7 +8915,7 @@
       <c r="H466" s="10"/>
       <c r="I466" s="10"/>
     </row>
-    <row r="467" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A467" s="1" t="s">
         <v>2</v>
       </c>
@@ -8928,8 +8935,8 @@
       <c r="H467" s="10"/>
       <c r="J467" s="10"/>
     </row>
-    <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="53" t="s">
         <v>123</v>
       </c>
@@ -8943,7 +8950,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2" t="s">
         <v>14</v>
@@ -8965,7 +8972,7 @@
         <v>1.9594537280515734E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A471" s="1" t="s">
         <v>1</v>
       </c>
@@ -8988,7 +8995,7 @@
       <c r="H471" s="13"/>
       <c r="I471" s="10"/>
     </row>
-    <row r="472" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A472" s="1" t="s">
         <v>2</v>
       </c>
@@ -9011,7 +9018,7 @@
       <c r="H472" s="10"/>
       <c r="I472" s="10"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="53" t="s">
         <v>124</v>
       </c>
@@ -9025,7 +9032,7 @@
       </c>
       <c r="I473" s="10"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="2" t="s">
         <v>16</v>
@@ -9045,7 +9052,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A475" s="1" t="s">
         <v>1</v>
       </c>
@@ -9065,7 +9072,7 @@
       <c r="H475" s="10"/>
       <c r="I475" s="10"/>
     </row>
-    <row r="476" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A476" s="1" t="s">
         <v>2</v>
       </c>
@@ -9085,8 +9092,8 @@
       <c r="H476" s="10"/>
       <c r="J476" s="10"/>
     </row>
-    <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="53" t="s">
         <v>125</v>
       </c>
@@ -9100,7 +9107,7 @@
         <v>2.2910479422995334E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="2" t="s">
         <v>14</v>
@@ -9122,7 +9129,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A480" s="1" t="s">
         <v>1</v>
       </c>
@@ -9145,7 +9152,7 @@
       <c r="H480" s="13"/>
       <c r="I480" s="10"/>
     </row>
-    <row r="481" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A481" s="1" t="s">
         <v>2</v>
       </c>
@@ -9168,7 +9175,7 @@
       <c r="H481" s="10"/>
       <c r="I481" s="10"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="53" t="s">
         <v>126</v>
       </c>
@@ -9183,7 +9190,7 @@
       </c>
       <c r="I482" s="10"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="2" t="s">
         <v>16</v>
@@ -9204,7 +9211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A484" s="1" t="s">
         <v>1</v>
       </c>
@@ -9224,7 +9231,7 @@
       <c r="H484" s="10"/>
       <c r="I484" s="10"/>
     </row>
-    <row r="485" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A485" s="1" t="s">
         <v>2</v>
       </c>
@@ -9245,8 +9252,8 @@
       <c r="H485" s="10"/>
       <c r="J485" s="10"/>
     </row>
-    <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="53" t="s">
         <v>127</v>
       </c>
@@ -9260,7 +9267,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="2" t="s">
         <v>14</v>
@@ -9282,7 +9289,7 @@
         <v>2.6571067060312106E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A489" s="1" t="s">
         <v>1</v>
       </c>
@@ -9305,7 +9312,7 @@
       <c r="H489" s="13"/>
       <c r="I489" s="10"/>
     </row>
-    <row r="490" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A490" s="1" t="s">
         <v>2</v>
       </c>
@@ -9328,7 +9335,7 @@
       <c r="H490" s="10"/>
       <c r="I490" s="10"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="53" t="s">
         <v>130</v>
       </c>
@@ -9343,7 +9350,7 @@
       </c>
       <c r="I491" s="10"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="2" t="s">
         <v>16</v>
@@ -9360,7 +9367,7 @@
       <c r="F492" s="35"/>
       <c r="G492" s="10"/>
     </row>
-    <row r="493" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A493" s="1" t="s">
         <v>1</v>
       </c>
@@ -9383,7 +9390,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A494" s="1" t="s">
         <v>2</v>
       </c>
@@ -9404,8 +9411,8 @@
       <c r="H494" s="10"/>
       <c r="J494" s="10"/>
     </row>
-    <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="53" t="s">
         <v>128</v>
       </c>
@@ -9415,7 +9422,7 @@
       <c r="E496" s="53"/>
       <c r="F496" s="53"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="2" t="s">
         <v>14</v>
@@ -9441,7 +9448,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A498" s="1" t="s">
         <v>1</v>
       </c>
@@ -9464,7 +9471,7 @@
       <c r="H498" s="13"/>
       <c r="I498" s="10"/>
     </row>
-    <row r="499" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A499" s="1" t="s">
         <v>2</v>
       </c>
@@ -9487,7 +9494,7 @@
       <c r="H499" s="10"/>
       <c r="I499" s="10"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="53" t="s">
         <v>129</v>
       </c>
@@ -9502,7 +9509,7 @@
       </c>
       <c r="I500" s="10"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="2" t="s">
         <v>16</v>
@@ -9523,7 +9530,7 @@
         <v>-351</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A502" s="1" t="s">
         <v>1</v>
       </c>
@@ -9543,7 +9550,7 @@
       <c r="H502" s="10"/>
       <c r="I502" s="10"/>
     </row>
-    <row r="503" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A503" s="1" t="s">
         <v>2</v>
       </c>
@@ -9564,8 +9571,8 @@
       <c r="H503" s="10"/>
       <c r="J503" s="10"/>
     </row>
-    <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="53" t="s">
         <v>131</v>
       </c>
@@ -9583,7 +9590,7 @@
         <v>-460</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="2" t="s">
         <v>14</v>
@@ -9601,7 +9608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A507" s="1" t="s">
         <v>1</v>
       </c>
@@ -9624,7 +9631,7 @@
       <c r="H507" s="13"/>
       <c r="I507" s="10"/>
     </row>
-    <row r="508" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A508" s="1" t="s">
         <v>2</v>
       </c>
@@ -9648,7 +9655,7 @@
       <c r="H508" s="10"/>
       <c r="I508" s="10"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="53" t="s">
         <v>133</v>
       </c>
@@ -9663,7 +9670,7 @@
       </c>
       <c r="I509" s="10"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="2" t="s">
         <v>16</v>
@@ -9680,7 +9687,7 @@
       <c r="F510" s="35"/>
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A511" s="1" t="s">
         <v>1</v>
       </c>
@@ -9707,7 +9714,7 @@
         <v>-3.2072596287060127E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A512" s="1" t="s">
         <v>2</v>
       </c>
@@ -9728,8 +9735,8 @@
       <c r="H512" s="10"/>
       <c r="J512" s="10"/>
     </row>
-    <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="53" t="s">
         <v>132</v>
       </c>
@@ -9739,7 +9746,7 @@
       <c r="E514" s="53"/>
       <c r="F514" s="53"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="2" t="s">
         <v>14</v>
@@ -9761,7 +9768,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A516" s="1" t="s">
         <v>1</v>
       </c>
@@ -9784,7 +9791,7 @@
       <c r="H516" s="13"/>
       <c r="I516" s="10"/>
     </row>
-    <row r="517" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A517" s="1" t="s">
         <v>2</v>
       </c>
@@ -9807,7 +9814,7 @@
       <c r="H517" s="10"/>
       <c r="I517" s="10"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="53" t="s">
         <v>134</v>
       </c>
@@ -9818,7 +9825,7 @@
       <c r="F518" s="34"/>
       <c r="I518" s="10"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="2" t="s">
         <v>16</v>
@@ -9835,7 +9842,7 @@
       <c r="F519" s="35"/>
       <c r="G519" s="10"/>
     </row>
-    <row r="520" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A520" s="1" t="s">
         <v>1</v>
       </c>
@@ -9858,7 +9865,7 @@
       </c>
       <c r="I520" s="10"/>
     </row>
-    <row r="521" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A521" s="1" t="s">
         <v>2</v>
       </c>
@@ -9879,8 +9886,8 @@
       <c r="H521" s="10"/>
       <c r="J521" s="10"/>
     </row>
-    <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="53" t="s">
         <v>135</v>
       </c>
@@ -9890,7 +9897,7 @@
       <c r="E523" s="53"/>
       <c r="F523" s="53"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="2" t="s">
         <v>14</v>
@@ -9908,7 +9915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A525" s="1" t="s">
         <v>1</v>
       </c>
@@ -9931,7 +9938,7 @@
       <c r="H525" s="13"/>
       <c r="I525" s="10"/>
     </row>
-    <row r="526" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A526" s="1" t="s">
         <v>2</v>
       </c>
@@ -9955,7 +9962,7 @@
       <c r="H526" s="10"/>
       <c r="I526" s="10"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="53" t="s">
         <v>136</v>
       </c>
@@ -9966,7 +9973,7 @@
       <c r="F527" s="34"/>
       <c r="I527" s="10"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="2" t="s">
         <v>16</v>
@@ -9983,7 +9990,7 @@
       <c r="F528" s="35"/>
       <c r="G528" s="10"/>
     </row>
-    <row r="529" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A529" s="1" t="s">
         <v>1</v>
       </c>
@@ -10003,7 +10010,7 @@
       <c r="H529" s="10"/>
       <c r="I529" s="10"/>
     </row>
-    <row r="530" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A530" s="1" t="s">
         <v>2</v>
       </c>
@@ -10024,8 +10031,8 @@
       <c r="H530" s="10"/>
       <c r="J530" s="10"/>
     </row>
-    <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="53" t="s">
         <v>137</v>
       </c>
@@ -10035,7 +10042,7 @@
       <c r="E534" s="53"/>
       <c r="F534" s="53"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="2" t="s">
         <v>14</v>
@@ -10053,7 +10060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A536" s="1" t="s">
         <v>1</v>
       </c>
@@ -10065,7 +10072,7 @@
       <c r="H536" s="13"/>
       <c r="I536" s="10"/>
     </row>
-    <row r="537" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A537" s="1" t="s">
         <v>2</v>
       </c>
@@ -10077,7 +10084,7 @@
       <c r="H537" s="10"/>
       <c r="I537" s="10"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="53" t="s">
         <v>138</v>
       </c>
@@ -10088,7 +10095,7 @@
       <c r="F538" s="34"/>
       <c r="I538" s="10"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="2" t="s">
         <v>16</v>
@@ -10105,7 +10112,7 @@
       <c r="F539" s="35"/>
       <c r="G539" s="10"/>
     </row>
-    <row r="540" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A540" s="1" t="s">
         <v>1</v>
       </c>
@@ -10117,7 +10124,7 @@
       <c r="H540" s="10"/>
       <c r="I540" s="10"/>
     </row>
-    <row r="541" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A541" s="1" t="s">
         <v>2</v>
       </c>
@@ -10130,8 +10137,8 @@
       <c r="H541" s="10"/>
       <c r="J541" s="10"/>
     </row>
-    <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="53" t="s">
         <v>139</v>
       </c>
@@ -10141,7 +10148,7 @@
       <c r="E545" s="53"/>
       <c r="F545" s="53"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="2" t="s">
         <v>14</v>
@@ -10159,7 +10166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A547" s="1" t="s">
         <v>1</v>
       </c>
@@ -10178,7 +10185,7 @@
       <c r="H547" s="13"/>
       <c r="I547" s="10"/>
     </row>
-    <row r="548" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A548" s="1" t="s">
         <v>2</v>
       </c>
@@ -10194,7 +10201,7 @@
       <c r="H548" s="10"/>
       <c r="I548" s="10"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="53" t="s">
         <v>140</v>
       </c>
@@ -10205,7 +10212,7 @@
       <c r="F549" s="34"/>
       <c r="I549" s="10"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="2" t="s">
         <v>16</v>
@@ -10222,7 +10229,7 @@
       <c r="F550" s="35"/>
       <c r="G550" s="10"/>
     </row>
-    <row r="551" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A551" s="1" t="s">
         <v>1</v>
       </c>
@@ -10238,7 +10245,7 @@
       <c r="H551" s="10"/>
       <c r="I551" s="10"/>
     </row>
-    <row r="552" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A552" s="1" t="s">
         <v>2</v>
       </c>
@@ -10255,8 +10262,8 @@
       <c r="H552" s="10"/>
       <c r="J552" s="10"/>
     </row>
-    <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="53" t="s">
         <v>141</v>
       </c>
@@ -10266,7 +10273,7 @@
       <c r="E556" s="53"/>
       <c r="F556" s="53"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="2" t="s">
         <v>14</v>
@@ -10292,7 +10299,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A558" s="1" t="s">
         <v>1</v>
       </c>
@@ -10315,7 +10322,7 @@
       <c r="H558" s="13"/>
       <c r="I558" s="10"/>
     </row>
-    <row r="559" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A559" s="1" t="s">
         <v>2</v>
       </c>
@@ -10339,7 +10346,7 @@
       <c r="H559" s="10"/>
       <c r="I559" s="10"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="53" t="s">
         <v>142</v>
       </c>
@@ -10350,7 +10357,7 @@
       <c r="F560" s="34"/>
       <c r="I560" s="10"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2" t="s">
         <v>16</v>
@@ -10367,7 +10374,7 @@
       <c r="F561" s="35"/>
       <c r="G561" s="10"/>
     </row>
-    <row r="562" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A562" s="1" t="s">
         <v>1</v>
       </c>
@@ -10387,7 +10394,7 @@
       <c r="H562" s="10"/>
       <c r="I562" s="10"/>
     </row>
-    <row r="563" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A563" s="1" t="s">
         <v>2</v>
       </c>
@@ -10408,8 +10415,8 @@
       <c r="H563" s="10"/>
       <c r="J563" s="10"/>
     </row>
-    <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="53" t="s">
         <v>143</v>
       </c>
@@ -10419,7 +10426,7 @@
       <c r="E566" s="53"/>
       <c r="F566" s="53"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="2" t="s">
         <v>14</v>
@@ -10437,7 +10444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A568" s="1" t="s">
         <v>1</v>
       </c>
@@ -10460,7 +10467,7 @@
       <c r="H568" s="13"/>
       <c r="I568" s="10"/>
     </row>
-    <row r="569" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A569" s="1" t="s">
         <v>2</v>
       </c>
@@ -10483,7 +10490,7 @@
       <c r="H569" s="10"/>
       <c r="I569" s="10"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="53" t="s">
         <v>144</v>
       </c>
@@ -10494,7 +10501,7 @@
       <c r="F570" s="34"/>
       <c r="I570" s="10"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="2" t="s">
         <v>16</v>
@@ -10511,7 +10518,7 @@
       <c r="F571" s="35"/>
       <c r="G571" s="10"/>
     </row>
-    <row r="572" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A572" s="1" t="s">
         <v>1</v>
       </c>
@@ -10531,7 +10538,7 @@
       <c r="H572" s="10"/>
       <c r="I572" s="10"/>
     </row>
-    <row r="573" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A573" s="1" t="s">
         <v>2</v>
       </c>
@@ -10552,8 +10559,8 @@
       <c r="H573" s="10"/>
       <c r="J573" s="10"/>
     </row>
-    <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="53" t="s">
         <v>145</v>
       </c>
@@ -10563,7 +10570,7 @@
       <c r="E576" s="53"/>
       <c r="F576" s="53"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="2" t="s">
         <v>14</v>
@@ -10581,7 +10588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A578" s="1" t="s">
         <v>1</v>
       </c>
@@ -10604,7 +10611,7 @@
       <c r="H578" s="13"/>
       <c r="I578" s="10"/>
     </row>
-    <row r="579" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A579" s="1" t="s">
         <v>2</v>
       </c>
@@ -10627,7 +10634,7 @@
       <c r="H579" s="10"/>
       <c r="I579" s="10"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="53" t="s">
         <v>146</v>
       </c>
@@ -10638,7 +10645,7 @@
       <c r="F580" s="34"/>
       <c r="I580" s="10"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="2" t="s">
         <v>16</v>
@@ -10655,7 +10662,7 @@
       <c r="F581" s="35"/>
       <c r="G581" s="10"/>
     </row>
-    <row r="582" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A582" s="1" t="s">
         <v>1</v>
       </c>
@@ -10675,7 +10682,7 @@
       <c r="H582" s="10"/>
       <c r="I582" s="10"/>
     </row>
-    <row r="583" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A583" s="1" t="s">
         <v>2</v>
       </c>
@@ -10696,8 +10703,8 @@
       <c r="H583" s="10"/>
       <c r="J583" s="10"/>
     </row>
-    <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="53" t="s">
         <v>147</v>
       </c>
@@ -10707,7 +10714,7 @@
       <c r="E586" s="53"/>
       <c r="F586" s="53"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="2" t="s">
         <v>14</v>
@@ -10725,7 +10732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A588" s="1" t="s">
         <v>1</v>
       </c>
@@ -10748,7 +10755,7 @@
       <c r="H588" s="13"/>
       <c r="I588" s="10"/>
     </row>
-    <row r="589" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A589" s="1" t="s">
         <v>2</v>
       </c>
@@ -10771,7 +10778,7 @@
       <c r="H589" s="10"/>
       <c r="I589" s="10"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="53" t="s">
         <v>148</v>
       </c>
@@ -10782,7 +10789,7 @@
       <c r="F590" s="34"/>
       <c r="I590" s="10"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="2" t="s">
         <v>16</v>
@@ -10799,7 +10806,7 @@
       <c r="F591" s="35"/>
       <c r="G591" s="10"/>
     </row>
-    <row r="592" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A592" s="1" t="s">
         <v>1</v>
       </c>
@@ -10819,7 +10826,7 @@
       <c r="H592" s="10"/>
       <c r="I592" s="10"/>
     </row>
-    <row r="593" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A593" s="1" t="s">
         <v>2</v>
       </c>
@@ -10840,8 +10847,8 @@
       <c r="H593" s="10"/>
       <c r="J593" s="10"/>
     </row>
-    <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="53" t="s">
         <v>149</v>
       </c>
@@ -10855,7 +10862,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="2" t="s">
         <v>14</v>
@@ -10877,7 +10884,7 @@
         <v>1.0597880423915218E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A598" s="1" t="s">
         <v>1</v>
       </c>
@@ -10900,7 +10907,7 @@
       <c r="H598" s="13"/>
       <c r="I598" s="10"/>
     </row>
-    <row r="599" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A599" s="1" t="s">
         <v>2</v>
       </c>
@@ -10923,7 +10930,7 @@
       <c r="H599" s="10"/>
       <c r="I599" s="10"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="53" t="s">
         <v>150</v>
       </c>
@@ -10941,7 +10948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="2" t="s">
         <v>16</v>
@@ -10958,7 +10965,7 @@
       <c r="F601" s="35"/>
       <c r="G601" s="10"/>
     </row>
-    <row r="602" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A602" s="1" t="s">
         <v>1</v>
       </c>
@@ -10978,7 +10985,7 @@
       <c r="H602" s="10"/>
       <c r="I602" s="10"/>
     </row>
-    <row r="603" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A603" s="1" t="s">
         <v>2</v>
       </c>
@@ -10999,8 +11006,8 @@
       <c r="H603" s="10"/>
       <c r="J603" s="10"/>
     </row>
-    <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" s="53" t="s">
         <v>151</v>
       </c>
@@ -11010,7 +11017,7 @@
       <c r="E606" s="53"/>
       <c r="F606" s="53"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="2" t="s">
         <v>14</v>
@@ -11028,7 +11035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A608" s="1" t="s">
         <v>1</v>
       </c>
@@ -11051,7 +11058,7 @@
       <c r="H608" s="13"/>
       <c r="I608" s="10"/>
     </row>
-    <row r="609" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A609" s="1" t="s">
         <v>2</v>
       </c>
@@ -11074,7 +11081,7 @@
       <c r="H609" s="10"/>
       <c r="I609" s="10"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" s="53" t="s">
         <v>152</v>
       </c>
@@ -11085,7 +11092,7 @@
       <c r="F610" s="34"/>
       <c r="I610" s="10"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="2" t="s">
         <v>16</v>
@@ -11102,7 +11109,7 @@
       <c r="F611" s="35"/>
       <c r="G611" s="10"/>
     </row>
-    <row r="612" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A612" s="1" t="s">
         <v>1</v>
       </c>
@@ -11122,7 +11129,7 @@
       <c r="H612" s="10"/>
       <c r="I612" s="10"/>
     </row>
-    <row r="613" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A613" s="1" t="s">
         <v>2</v>
       </c>
@@ -11143,8 +11150,8 @@
       <c r="H613" s="10"/>
       <c r="J613" s="10"/>
     </row>
-    <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" s="53" t="s">
         <v>153</v>
       </c>
@@ -11154,7 +11161,7 @@
       <c r="E616" s="53"/>
       <c r="F616" s="53"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="2" t="s">
         <v>14</v>
@@ -11172,7 +11179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A618" s="1" t="s">
         <v>1</v>
       </c>
@@ -11195,7 +11202,7 @@
       <c r="H618" s="13"/>
       <c r="I618" s="10"/>
     </row>
-    <row r="619" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A619" s="1" t="s">
         <v>2</v>
       </c>
@@ -11218,7 +11225,7 @@
       <c r="H619" s="10"/>
       <c r="I619" s="10"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" s="53" t="s">
         <v>154</v>
       </c>
@@ -11229,7 +11236,7 @@
       <c r="F620" s="34"/>
       <c r="I620" s="10"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="2" t="s">
         <v>16</v>
@@ -11246,7 +11253,7 @@
       <c r="F621" s="35"/>
       <c r="G621" s="10"/>
     </row>
-    <row r="622" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A622" s="1" t="s">
         <v>1</v>
       </c>
@@ -11266,7 +11273,7 @@
       <c r="H622" s="10"/>
       <c r="I622" s="10"/>
     </row>
-    <row r="623" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A623" s="1" t="s">
         <v>2</v>
       </c>
@@ -11287,8 +11294,8 @@
       <c r="H623" s="10"/>
       <c r="J623" s="10"/>
     </row>
-    <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" s="53" t="s">
         <v>155</v>
       </c>
@@ -11298,7 +11305,7 @@
       <c r="E626" s="53"/>
       <c r="F626" s="53"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="2" t="s">
         <v>14</v>
@@ -11316,7 +11323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A628" s="1" t="s">
         <v>1</v>
       </c>
@@ -11339,7 +11346,7 @@
       <c r="H628" s="13"/>
       <c r="I628" s="10"/>
     </row>
-    <row r="629" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A629" s="1" t="s">
         <v>2</v>
       </c>
@@ -11362,7 +11369,7 @@
       <c r="H629" s="10"/>
       <c r="I629" s="10"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" s="53" t="s">
         <v>156</v>
       </c>
@@ -11373,7 +11380,7 @@
       <c r="F630" s="34"/>
       <c r="I630" s="10"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="2" t="s">
         <v>16</v>
@@ -11390,7 +11397,7 @@
       <c r="F631" s="35"/>
       <c r="G631" s="10"/>
     </row>
-    <row r="632" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A632" s="1" t="s">
         <v>1</v>
       </c>
@@ -11410,7 +11417,7 @@
       <c r="H632" s="10"/>
       <c r="I632" s="10"/>
     </row>
-    <row r="633" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A633" s="1" t="s">
         <v>2</v>
       </c>
@@ -11431,8 +11438,8 @@
       <c r="H633" s="10"/>
       <c r="J633" s="10"/>
     </row>
-    <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" s="53" t="s">
         <v>157</v>
       </c>
@@ -11442,7 +11449,7 @@
       <c r="E636" s="53"/>
       <c r="F636" s="53"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="2" t="s">
         <v>14</v>
@@ -11460,7 +11467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A638" s="1" t="s">
         <v>1</v>
       </c>
@@ -11483,7 +11490,7 @@
       <c r="H638" s="13"/>
       <c r="I638" s="10"/>
     </row>
-    <row r="639" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A639" s="1" t="s">
         <v>2</v>
       </c>
@@ -11506,7 +11513,7 @@
       <c r="H639" s="10"/>
       <c r="I639" s="10"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" s="53" t="s">
         <v>158</v>
       </c>
@@ -11517,7 +11524,7 @@
       <c r="F640" s="34"/>
       <c r="I640" s="10"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="2" t="s">
         <v>16</v>
@@ -11534,7 +11541,7 @@
       <c r="F641" s="35"/>
       <c r="G641" s="10"/>
     </row>
-    <row r="642" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A642" s="1" t="s">
         <v>1</v>
       </c>
@@ -11554,7 +11561,7 @@
       <c r="H642" s="10"/>
       <c r="I642" s="10"/>
     </row>
-    <row r="643" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A643" s="1" t="s">
         <v>2</v>
       </c>
@@ -11575,8 +11582,8 @@
       <c r="H643" s="10"/>
       <c r="J643" s="10"/>
     </row>
-    <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" s="53" t="s">
         <v>159</v>
       </c>
@@ -11586,7 +11593,7 @@
       <c r="E646" s="53"/>
       <c r="F646" s="53"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="2" t="s">
         <v>14</v>
@@ -11604,7 +11611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A648" s="1" t="s">
         <v>1</v>
       </c>
@@ -11627,7 +11634,7 @@
       <c r="H648" s="13"/>
       <c r="I648" s="10"/>
     </row>
-    <row r="649" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A649" s="1" t="s">
         <v>2</v>
       </c>
@@ -11650,7 +11657,7 @@
       <c r="H649" s="10"/>
       <c r="I649" s="10"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" s="53" t="s">
         <v>160</v>
       </c>
@@ -11661,7 +11668,7 @@
       <c r="F650" s="34"/>
       <c r="I650" s="10"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="2" t="s">
         <v>16</v>
@@ -11678,7 +11685,7 @@
       <c r="F651" s="35"/>
       <c r="G651" s="10"/>
     </row>
-    <row r="652" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A652" s="1" t="s">
         <v>1</v>
       </c>
@@ -11698,7 +11705,7 @@
       <c r="H652" s="10"/>
       <c r="I652" s="10"/>
     </row>
-    <row r="653" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A653" s="1" t="s">
         <v>2</v>
       </c>
@@ -11719,8 +11726,8 @@
       <c r="H653" s="10"/>
       <c r="J653" s="10"/>
     </row>
-    <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="53" t="s">
         <v>161</v>
       </c>
@@ -11730,7 +11737,7 @@
       <c r="E656" s="53"/>
       <c r="F656" s="53"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="2" t="s">
         <v>14</v>
@@ -11748,7 +11755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A658" s="1" t="s">
         <v>1</v>
       </c>
@@ -11771,7 +11778,7 @@
       <c r="H658" s="13"/>
       <c r="I658" s="10"/>
     </row>
-    <row r="659" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A659" s="1" t="s">
         <v>2</v>
       </c>
@@ -11794,7 +11801,7 @@
       <c r="H659" s="10"/>
       <c r="I659" s="10"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="53" t="s">
         <v>162</v>
       </c>
@@ -11805,7 +11812,7 @@
       <c r="F660" s="34"/>
       <c r="I660" s="10"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="2" t="s">
         <v>16</v>
@@ -11822,7 +11829,7 @@
       <c r="F661" s="35"/>
       <c r="G661" s="10"/>
     </row>
-    <row r="662" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A662" s="1" t="s">
         <v>1</v>
       </c>
@@ -11842,7 +11849,7 @@
       <c r="H662" s="10"/>
       <c r="I662" s="10"/>
     </row>
-    <row r="663" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A663" s="1" t="s">
         <v>2</v>
       </c>
@@ -11863,7 +11870,7 @@
       <c r="H663" s="10"/>
       <c r="J663" s="10"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -11871,7 +11878,7 @@
       <c r="E665" s="6"/>
       <c r="F665" s="6"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="53" t="s">
         <v>163</v>
       </c>
@@ -11881,7 +11888,7 @@
       <c r="E666" s="53"/>
       <c r="F666" s="53"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="2" t="s">
         <v>14</v>
@@ -11899,7 +11906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A668" s="1" t="s">
         <v>1</v>
       </c>
@@ -11919,7 +11926,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A669" s="1" t="s">
         <v>2</v>
       </c>
@@ -11939,7 +11946,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="53" t="s">
         <v>164</v>
       </c>
@@ -11949,7 +11956,7 @@
       <c r="E670" s="53"/>
       <c r="F670" s="34"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="2" t="s">
         <v>16</v>
@@ -11965,7 +11972,7 @@
       </c>
       <c r="F671" s="35"/>
     </row>
-    <row r="672" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A672" s="1" t="s">
         <v>1</v>
       </c>
@@ -11983,7 +11990,7 @@
       </c>
       <c r="F672" s="35"/>
     </row>
-    <row r="673" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A673" s="1" t="s">
         <v>2</v>
       </c>
@@ -12001,7 +12008,7 @@
       </c>
       <c r="F673" s="35"/>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
@@ -12009,7 +12016,7 @@
       <c r="E675" s="6"/>
       <c r="F675" s="6"/>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="53" t="s">
         <v>165</v>
       </c>
@@ -12019,7 +12026,7 @@
       <c r="E676" s="53"/>
       <c r="F676" s="53"/>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="2" t="s">
         <v>14</v>
@@ -12037,7 +12044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A678" s="1" t="s">
         <v>1</v>
       </c>
@@ -12058,7 +12065,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A679" s="1" t="s">
         <v>2</v>
       </c>
@@ -12078,7 +12085,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="53" t="s">
         <v>166</v>
       </c>
@@ -12088,7 +12095,7 @@
       <c r="E680" s="53"/>
       <c r="F680" s="34"/>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="2" t="s">
         <v>16</v>
@@ -12104,7 +12111,7 @@
       </c>
       <c r="F681" s="35"/>
     </row>
-    <row r="682" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A682" s="1" t="s">
         <v>1</v>
       </c>
@@ -12126,7 +12133,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A683" s="1" t="s">
         <v>2</v>
       </c>
@@ -12144,7 +12151,7 @@
       </c>
       <c r="F683" s="35"/>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
@@ -12152,7 +12159,7 @@
       <c r="E685" s="6"/>
       <c r="F685" s="6"/>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="53" t="s">
         <v>167</v>
       </c>
@@ -12162,7 +12169,7 @@
       <c r="E686" s="53"/>
       <c r="F686" s="53"/>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="2" t="s">
         <v>14</v>
@@ -12180,7 +12187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A688" s="1" t="s">
         <v>1</v>
       </c>
@@ -12200,7 +12207,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A689" s="1" t="s">
         <v>2</v>
       </c>
@@ -12220,7 +12227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" s="53" t="s">
         <v>168</v>
       </c>
@@ -12230,7 +12237,7 @@
       <c r="E690" s="53"/>
       <c r="F690" s="34"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="2" t="s">
         <v>16</v>
@@ -12246,7 +12253,7 @@
       </c>
       <c r="F691" s="35"/>
     </row>
-    <row r="692" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A692" s="1" t="s">
         <v>1</v>
       </c>
@@ -12264,7 +12271,7 @@
       </c>
       <c r="F692" s="35"/>
     </row>
-    <row r="693" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A693" s="1" t="s">
         <v>2</v>
       </c>
@@ -12282,7 +12289,7 @@
       </c>
       <c r="F693" s="35"/>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
@@ -12290,7 +12297,7 @@
       <c r="E695" s="6"/>
       <c r="F695" s="6"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" s="53" t="s">
         <v>169</v>
       </c>
@@ -12300,7 +12307,7 @@
       <c r="E696" s="53"/>
       <c r="F696" s="53"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="2" t="s">
         <v>14</v>
@@ -12318,7 +12325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A698" s="1" t="s">
         <v>1</v>
       </c>
@@ -12338,7 +12345,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A699" s="1" t="s">
         <v>2</v>
       </c>
@@ -12358,7 +12365,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" s="53" t="s">
         <v>170</v>
       </c>
@@ -12368,7 +12375,7 @@
       <c r="E700" s="53"/>
       <c r="F700" s="34"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="2" t="s">
         <v>16</v>
@@ -12384,7 +12391,7 @@
       </c>
       <c r="F701" s="35"/>
     </row>
-    <row r="702" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A702" s="1" t="s">
         <v>1</v>
       </c>
@@ -12402,7 +12409,7 @@
       </c>
       <c r="F702" s="35"/>
     </row>
-    <row r="703" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A703" s="1" t="s">
         <v>2</v>
       </c>
@@ -12424,7 +12431,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -12432,7 +12439,7 @@
       <c r="E705" s="6"/>
       <c r="F705" s="6"/>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706" s="53" t="s">
         <v>171</v>
       </c>
@@ -12442,7 +12449,7 @@
       <c r="E706" s="53"/>
       <c r="F706" s="53"/>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="2" t="s">
         <v>14</v>
@@ -12460,7 +12467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A708" s="1" t="s">
         <v>1</v>
       </c>
@@ -12480,7 +12487,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A709" s="1" t="s">
         <v>2</v>
       </c>
@@ -12500,7 +12507,7 @@
         <v>-117</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" s="53" t="s">
         <v>172</v>
       </c>
@@ -12510,7 +12517,7 @@
       <c r="E710" s="53"/>
       <c r="F710" s="34"/>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="2" t="s">
         <v>16</v>
@@ -12526,7 +12533,7 @@
       </c>
       <c r="F711" s="35"/>
     </row>
-    <row r="712" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A712" s="1" t="s">
         <v>1</v>
       </c>
@@ -12544,7 +12551,7 @@
       </c>
       <c r="F712" s="35"/>
     </row>
-    <row r="713" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A713" s="1" t="s">
         <v>2</v>
       </c>
@@ -12562,7 +12569,7 @@
       </c>
       <c r="F713" s="35"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -12570,7 +12577,7 @@
       <c r="E715" s="6"/>
       <c r="F715" s="6"/>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716" s="53" t="s">
         <v>173</v>
       </c>
@@ -12580,7 +12587,7 @@
       <c r="E716" s="53"/>
       <c r="F716" s="53"/>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="2" t="s">
         <v>14</v>
@@ -12598,7 +12605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A718" s="1" t="s">
         <v>1</v>
       </c>
@@ -12618,7 +12625,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A719" s="1" t="s">
         <v>2</v>
       </c>
@@ -12638,7 +12645,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720" s="53" t="s">
         <v>172</v>
       </c>
@@ -12648,7 +12655,7 @@
       <c r="E720" s="53"/>
       <c r="F720" s="34"/>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="2" t="s">
         <v>16</v>
@@ -12664,7 +12671,7 @@
       </c>
       <c r="F721" s="35"/>
     </row>
-    <row r="722" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A722" s="1" t="s">
         <v>1</v>
       </c>
@@ -12682,7 +12689,7 @@
       </c>
       <c r="F722" s="35"/>
     </row>
-    <row r="723" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A723" s="1" t="s">
         <v>2</v>
       </c>
@@ -12700,7 +12707,7 @@
       </c>
       <c r="F723" s="35"/>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -12708,7 +12715,7 @@
       <c r="E725" s="6"/>
       <c r="F725" s="6"/>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A726" s="53" t="s">
         <v>174</v>
       </c>
@@ -12718,7 +12725,7 @@
       <c r="E726" s="53"/>
       <c r="F726" s="53"/>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="2" t="s">
         <v>14</v>
@@ -12736,7 +12743,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A728" s="1" t="s">
         <v>1</v>
       </c>
@@ -12756,7 +12763,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A729" s="1" t="s">
         <v>2</v>
       </c>
@@ -12776,7 +12783,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A730" s="53" t="s">
         <v>175</v>
       </c>
@@ -12786,7 +12793,7 @@
       <c r="E730" s="53"/>
       <c r="F730" s="34"/>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="2" t="s">
         <v>16</v>
@@ -12802,7 +12809,7 @@
       </c>
       <c r="F731" s="35"/>
     </row>
-    <row r="732" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A732" s="1" t="s">
         <v>1</v>
       </c>
@@ -12820,7 +12827,7 @@
       </c>
       <c r="F732" s="35"/>
     </row>
-    <row r="733" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A733" s="1" t="s">
         <v>2</v>
       </c>
@@ -12838,7 +12845,7 @@
       </c>
       <c r="F733" s="35"/>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -12846,7 +12853,7 @@
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A736" s="53" t="s">
         <v>176</v>
       </c>
@@ -12856,7 +12863,7 @@
       <c r="E736" s="53"/>
       <c r="F736" s="53"/>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="2" t="s">
         <v>14</v>
@@ -12874,7 +12881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A738" s="1" t="s">
         <v>1</v>
       </c>
@@ -12894,7 +12901,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A739" s="1" t="s">
         <v>2</v>
       </c>
@@ -12914,7 +12921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A740" s="53" t="s">
         <v>177</v>
       </c>
@@ -12924,7 +12931,7 @@
       <c r="E740" s="53"/>
       <c r="F740" s="34"/>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="2" t="s">
         <v>16</v>
@@ -12940,7 +12947,7 @@
       </c>
       <c r="F741" s="35"/>
     </row>
-    <row r="742" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A742" s="1" t="s">
         <v>1</v>
       </c>
@@ -12958,7 +12965,7 @@
       </c>
       <c r="F742" s="35"/>
     </row>
-    <row r="743" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A743" s="1" t="s">
         <v>2</v>
       </c>
@@ -12976,7 +12983,7 @@
       </c>
       <c r="F743" s="35"/>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -12984,7 +12991,7 @@
       <c r="E747" s="6"/>
       <c r="F747" s="6"/>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A748" s="53" t="s">
         <v>178</v>
       </c>
@@ -12994,7 +13001,7 @@
       <c r="E748" s="53"/>
       <c r="F748" s="53"/>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="2" t="s">
         <v>14</v>
@@ -13012,7 +13019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A750" s="1" t="s">
         <v>1</v>
       </c>
@@ -13032,7 +13039,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A751" s="1" t="s">
         <v>2</v>
       </c>
@@ -13052,7 +13059,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A752" s="53" t="s">
         <v>179</v>
       </c>
@@ -13062,7 +13069,7 @@
       <c r="E752" s="53"/>
       <c r="F752" s="34"/>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="2" t="s">
         <v>16</v>
@@ -13078,7 +13085,7 @@
       </c>
       <c r="F753" s="35"/>
     </row>
-    <row r="754" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A754" s="1" t="s">
         <v>1</v>
       </c>
@@ -13096,7 +13103,7 @@
       </c>
       <c r="F754" s="35"/>
     </row>
-    <row r="755" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A755" s="1" t="s">
         <v>2</v>
       </c>
@@ -13114,7 +13121,7 @@
       </c>
       <c r="F755" s="35"/>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -13122,7 +13129,7 @@
       <c r="E758" s="6"/>
       <c r="F758" s="6"/>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759" s="53" t="s">
         <v>180</v>
       </c>
@@ -13132,7 +13139,7 @@
       <c r="E759" s="53"/>
       <c r="F759" s="53"/>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="2" t="s">
         <v>14</v>
@@ -13150,7 +13157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A761" s="1" t="s">
         <v>1</v>
       </c>
@@ -13170,7 +13177,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A762" s="1" t="s">
         <v>2</v>
       </c>
@@ -13190,7 +13197,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763" s="53" t="s">
         <v>181</v>
       </c>
@@ -13200,7 +13207,7 @@
       <c r="E763" s="53"/>
       <c r="F763" s="34"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="2" t="s">
         <v>16</v>
@@ -13216,7 +13223,7 @@
       </c>
       <c r="F764" s="35"/>
     </row>
-    <row r="765" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A765" s="1" t="s">
         <v>1</v>
       </c>
@@ -13234,7 +13241,7 @@
       </c>
       <c r="F765" s="35"/>
     </row>
-    <row r="766" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A766" s="1" t="s">
         <v>2</v>
       </c>
@@ -13252,7 +13259,7 @@
       </c>
       <c r="F766" s="35"/>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
@@ -13260,7 +13267,7 @@
       <c r="E769" s="6"/>
       <c r="F769" s="6"/>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" s="53" t="s">
         <v>182</v>
       </c>
@@ -13270,7 +13277,7 @@
       <c r="E770" s="53"/>
       <c r="F770" s="53"/>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="2" t="s">
         <v>14</v>
@@ -13288,7 +13295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A772" s="1" t="s">
         <v>1</v>
       </c>
@@ -13308,7 +13315,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A773" s="1" t="s">
         <v>2</v>
       </c>
@@ -13328,7 +13335,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774" s="53" t="s">
         <v>183</v>
       </c>
@@ -13338,7 +13345,7 @@
       <c r="E774" s="53"/>
       <c r="F774" s="34"/>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="2" t="s">
         <v>16</v>
@@ -13354,7 +13361,7 @@
       </c>
       <c r="F775" s="35"/>
     </row>
-    <row r="776" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A776" s="1" t="s">
         <v>1</v>
       </c>
@@ -13372,7 +13379,7 @@
       </c>
       <c r="F776" s="35"/>
     </row>
-    <row r="777" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A777" s="1" t="s">
         <v>2</v>
       </c>
@@ -13390,7 +13397,7 @@
       </c>
       <c r="F777" s="35"/>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
@@ -13398,7 +13405,7 @@
       <c r="E780" s="6"/>
       <c r="F780" s="6"/>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781" s="53" t="s">
         <v>184</v>
       </c>
@@ -13408,7 +13415,7 @@
       <c r="E781" s="53"/>
       <c r="F781" s="53"/>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="2" t="s">
         <v>14</v>
@@ -13426,7 +13433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A783" s="1" t="s">
         <v>1</v>
       </c>
@@ -13446,7 +13453,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A784" s="1" t="s">
         <v>2</v>
       </c>
@@ -13466,7 +13473,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A785" s="53" t="s">
         <v>185</v>
       </c>
@@ -13476,7 +13483,7 @@
       <c r="E785" s="53"/>
       <c r="F785" s="34"/>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="2" t="s">
         <v>16</v>
@@ -13492,7 +13499,7 @@
       </c>
       <c r="F786" s="35"/>
     </row>
-    <row r="787" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A787" s="1" t="s">
         <v>1</v>
       </c>
@@ -13510,7 +13517,7 @@
       </c>
       <c r="F787" s="35"/>
     </row>
-    <row r="788" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A788" s="1" t="s">
         <v>2</v>
       </c>
@@ -13528,7 +13535,7 @@
       </c>
       <c r="F788" s="35"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -13536,7 +13543,7 @@
       <c r="E791" s="6"/>
       <c r="F791" s="6"/>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A792" s="53" t="s">
         <v>186</v>
       </c>
@@ -13546,7 +13553,7 @@
       <c r="E792" s="53"/>
       <c r="F792" s="53"/>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="2" t="s">
         <v>14</v>
@@ -13564,7 +13571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A794" s="1" t="s">
         <v>1</v>
       </c>
@@ -13584,7 +13591,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A795" s="1" t="s">
         <v>2</v>
       </c>
@@ -13604,7 +13611,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A796" s="53" t="s">
         <v>187</v>
       </c>
@@ -13614,7 +13621,7 @@
       <c r="E796" s="53"/>
       <c r="F796" s="34"/>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="2" t="s">
         <v>16</v>
@@ -13630,7 +13637,7 @@
       </c>
       <c r="F797" s="35"/>
     </row>
-    <row r="798" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A798" s="1" t="s">
         <v>1</v>
       </c>
@@ -13648,7 +13655,7 @@
       </c>
       <c r="F798" s="35"/>
     </row>
-    <row r="799" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A799" s="1" t="s">
         <v>2</v>
       </c>
@@ -13666,13 +13673,13 @@
       </c>
       <c r="F799" s="35"/>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G801">
         <f>E795-E784</f>
         <v>95</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -13680,7 +13687,7 @@
       <c r="E802" s="6"/>
       <c r="F802" s="6"/>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" s="53" t="s">
         <v>188</v>
       </c>
@@ -13690,7 +13697,7 @@
       <c r="E803" s="53"/>
       <c r="F803" s="53"/>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="2" t="s">
         <v>14</v>
@@ -13708,7 +13715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A805" s="1" t="s">
         <v>1</v>
       </c>
@@ -13728,7 +13735,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A806" s="1" t="s">
         <v>2</v>
       </c>
@@ -13748,7 +13755,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" s="53" t="s">
         <v>187</v>
       </c>
@@ -13758,7 +13765,7 @@
       <c r="E807" s="53"/>
       <c r="F807" s="34"/>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="2" t="s">
         <v>16</v>
@@ -13774,7 +13781,7 @@
       </c>
       <c r="F808" s="35"/>
     </row>
-    <row r="809" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A809" s="1" t="s">
         <v>1</v>
       </c>
@@ -13796,7 +13803,7 @@
         <v>-269</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A810" s="1" t="s">
         <v>2</v>
       </c>
@@ -13814,7 +13821,7 @@
       </c>
       <c r="F810" s="35"/>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -13822,7 +13829,7 @@
       <c r="E813" s="6"/>
       <c r="F813" s="6"/>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" s="53" t="s">
         <v>189</v>
       </c>
@@ -13832,7 +13839,7 @@
       <c r="E814" s="53"/>
       <c r="F814" s="53"/>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="2" t="s">
         <v>14</v>
@@ -13850,7 +13857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A816" s="1" t="s">
         <v>1</v>
       </c>
@@ -13870,7 +13877,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A817" s="1" t="s">
         <v>2</v>
       </c>
@@ -13890,7 +13897,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A818" s="53" t="s">
         <v>190</v>
       </c>
@@ -13900,7 +13907,7 @@
       <c r="E818" s="53"/>
       <c r="F818" s="34"/>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="2" t="s">
         <v>16</v>
@@ -13916,7 +13923,7 @@
       </c>
       <c r="F819" s="35"/>
     </row>
-    <row r="820" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A820" s="1" t="s">
         <v>1</v>
       </c>
@@ -13934,7 +13941,7 @@
       </c>
       <c r="F820" s="35"/>
     </row>
-    <row r="821" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A821" s="1" t="s">
         <v>2</v>
       </c>
@@ -13952,7 +13959,7 @@
       </c>
       <c r="F821" s="35"/>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -13960,7 +13967,7 @@
       <c r="E824" s="6"/>
       <c r="F824" s="6"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825" s="53" t="s">
         <v>191</v>
       </c>
@@ -13970,7 +13977,7 @@
       <c r="E825" s="53"/>
       <c r="F825" s="53"/>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="2" t="s">
         <v>14</v>
@@ -13988,7 +13995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A827" s="1" t="s">
         <v>1</v>
       </c>
@@ -14008,7 +14015,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A828" s="1" t="s">
         <v>2</v>
       </c>
@@ -14028,7 +14035,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829" s="53" t="s">
         <v>192</v>
       </c>
@@ -14038,7 +14045,7 @@
       <c r="E829" s="53"/>
       <c r="F829" s="34"/>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="2" t="s">
         <v>16</v>
@@ -14054,7 +14061,7 @@
       </c>
       <c r="F830" s="35"/>
     </row>
-    <row r="831" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A831" s="1" t="s">
         <v>1</v>
       </c>
@@ -14072,7 +14079,7 @@
       </c>
       <c r="F831" s="35"/>
     </row>
-    <row r="832" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A832" s="1" t="s">
         <v>2</v>
       </c>
@@ -14090,7 +14097,7 @@
       </c>
       <c r="F832" s="35"/>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -14098,7 +14105,7 @@
       <c r="E835" s="6"/>
       <c r="F835" s="6"/>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836" s="53" t="s">
         <v>193</v>
       </c>
@@ -14108,7 +14115,7 @@
       <c r="E836" s="53"/>
       <c r="F836" s="53"/>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="2" t="s">
         <v>14</v>
@@ -14126,7 +14133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A838" s="1" t="s">
         <v>1</v>
       </c>
@@ -14146,7 +14153,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A839" s="1" t="s">
         <v>2</v>
       </c>
@@ -14166,7 +14173,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840" s="53" t="s">
         <v>194</v>
       </c>
@@ -14176,7 +14183,7 @@
       <c r="E840" s="53"/>
       <c r="F840" s="34"/>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="2" t="s">
         <v>16</v>
@@ -14192,7 +14199,7 @@
       </c>
       <c r="F841" s="35"/>
     </row>
-    <row r="842" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A842" s="1" t="s">
         <v>1</v>
       </c>
@@ -14210,7 +14217,7 @@
       </c>
       <c r="F842" s="35"/>
     </row>
-    <row r="843" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A843" s="1" t="s">
         <v>2</v>
       </c>
@@ -14228,7 +14235,7 @@
       </c>
       <c r="F843" s="35"/>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -14236,7 +14243,7 @@
       <c r="E846" s="6"/>
       <c r="F846" s="6"/>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847" s="53" t="s">
         <v>195</v>
       </c>
@@ -14246,7 +14253,7 @@
       <c r="E847" s="53"/>
       <c r="F847" s="53"/>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="2" t="s">
         <v>14</v>
@@ -14264,7 +14271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A849" s="1" t="s">
         <v>1</v>
       </c>
@@ -14284,7 +14291,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A850" s="1" t="s">
         <v>2</v>
       </c>
@@ -14304,7 +14311,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851" s="53" t="s">
         <v>194</v>
       </c>
@@ -14314,7 +14321,7 @@
       <c r="E851" s="53"/>
       <c r="F851" s="34"/>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="2" t="s">
         <v>16</v>
@@ -14330,7 +14337,7 @@
       </c>
       <c r="F852" s="35"/>
     </row>
-    <row r="853" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A853" s="1" t="s">
         <v>1</v>
       </c>
@@ -14348,7 +14355,7 @@
       </c>
       <c r="F853" s="35"/>
     </row>
-    <row r="854" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A854" s="1" t="s">
         <v>2</v>
       </c>
@@ -14366,7 +14373,7 @@
       </c>
       <c r="F854" s="35"/>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -14374,7 +14381,7 @@
       <c r="E857" s="6"/>
       <c r="F857" s="6"/>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A858" s="53" t="s">
         <v>196</v>
       </c>
@@ -14384,7 +14391,7 @@
       <c r="E858" s="53"/>
       <c r="F858" s="53"/>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="2" t="s">
         <v>14</v>
@@ -14402,7 +14409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A860" s="1" t="s">
         <v>1</v>
       </c>
@@ -14422,7 +14429,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A861" s="1" t="s">
         <v>2</v>
       </c>
@@ -14442,7 +14449,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A862" s="53" t="s">
         <v>197</v>
       </c>
@@ -14452,7 +14459,7 @@
       <c r="E862" s="53"/>
       <c r="F862" s="34"/>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="2" t="s">
         <v>16</v>
@@ -14468,7 +14475,7 @@
       </c>
       <c r="F863" s="35"/>
     </row>
-    <row r="864" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A864" s="1" t="s">
         <v>1</v>
       </c>
@@ -14486,7 +14493,7 @@
       </c>
       <c r="F864" s="35"/>
     </row>
-    <row r="865" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A865" s="1" t="s">
         <v>2</v>
       </c>
@@ -14504,7 +14511,7 @@
       </c>
       <c r="F865" s="35"/>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -14512,7 +14519,7 @@
       <c r="E868" s="6"/>
       <c r="F868" s="6"/>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A869" s="53" t="s">
         <v>199</v>
       </c>
@@ -14522,7 +14529,7 @@
       <c r="E869" s="53"/>
       <c r="F869" s="53"/>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="2" t="s">
         <v>14</v>
@@ -14540,7 +14547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A871" s="1" t="s">
         <v>1</v>
       </c>
@@ -14560,7 +14567,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A872" s="1" t="s">
         <v>2</v>
       </c>
@@ -14580,7 +14587,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A873" s="53" t="s">
         <v>198</v>
       </c>
@@ -14590,7 +14597,7 @@
       <c r="E873" s="53"/>
       <c r="F873" s="50"/>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="2" t="s">
         <v>16</v>
@@ -14605,7 +14612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="875" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A875" s="1" t="s">
         <v>1</v>
       </c>
@@ -14622,7 +14629,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A876" s="1" t="s">
         <v>2</v>
       </c>
@@ -14639,7 +14646,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -14647,7 +14654,7 @@
       <c r="E879" s="6"/>
       <c r="F879" s="6"/>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A880" s="53" t="s">
         <v>200</v>
       </c>
@@ -14657,7 +14664,7 @@
       <c r="E880" s="53"/>
       <c r="F880" s="53"/>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="2" t="s">
         <v>14</v>
@@ -14675,7 +14682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A882" s="1" t="s">
         <v>1</v>
       </c>
@@ -14695,7 +14702,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A883" s="1" t="s">
         <v>2</v>
       </c>
@@ -14715,7 +14722,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A884" s="53" t="s">
         <v>201</v>
       </c>
@@ -14725,7 +14732,7 @@
       <c r="E884" s="53"/>
       <c r="F884" s="50"/>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="2" t="s">
         <v>16</v>
@@ -14740,7 +14747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A886" s="1" t="s">
         <v>1</v>
       </c>
@@ -14757,7 +14764,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A887" s="1" t="s">
         <v>2</v>
       </c>
@@ -14774,7 +14781,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
@@ -14782,7 +14789,7 @@
       <c r="E890" s="6"/>
       <c r="F890" s="6"/>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A891" s="53" t="s">
         <v>202</v>
       </c>
@@ -14792,7 +14799,7 @@
       <c r="E891" s="53"/>
       <c r="F891" s="53"/>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="2" t="s">
         <v>14</v>
@@ -14810,7 +14817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A893" s="1" t="s">
         <v>1</v>
       </c>
@@ -14830,7 +14837,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="894" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A894" s="1" t="s">
         <v>2</v>
       </c>
@@ -14850,7 +14857,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895" s="53" t="s">
         <v>203</v>
       </c>
@@ -14860,7 +14867,7 @@
       <c r="E895" s="53"/>
       <c r="F895" s="50"/>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="2" t="s">
         <v>16</v>
@@ -14875,7 +14882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A897" s="1" t="s">
         <v>1</v>
       </c>
@@ -14892,7 +14899,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A898" s="1" t="s">
         <v>2</v>
       </c>
@@ -14909,7 +14916,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
@@ -14917,7 +14924,7 @@
       <c r="E901" s="6"/>
       <c r="F901" s="6"/>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A902" s="53" t="s">
         <v>204</v>
       </c>
@@ -14927,7 +14934,7 @@
       <c r="E902" s="53"/>
       <c r="F902" s="53"/>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="2" t="s">
         <v>14</v>
@@ -14945,7 +14952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A904" s="1" t="s">
         <v>1</v>
       </c>
@@ -14965,7 +14972,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A905" s="1" t="s">
         <v>2</v>
       </c>
@@ -14985,7 +14992,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A906" s="53" t="s">
         <v>205</v>
       </c>
@@ -14995,7 +15002,7 @@
       <c r="E906" s="53"/>
       <c r="F906" s="50"/>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="2" t="s">
         <v>16</v>
@@ -15010,7 +15017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A908" s="1" t="s">
         <v>1</v>
       </c>
@@ -15027,7 +15034,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A909" s="1" t="s">
         <v>2</v>
       </c>
@@ -15044,7 +15051,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
@@ -15052,7 +15059,7 @@
       <c r="E912" s="6"/>
       <c r="F912" s="6"/>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913" s="53" t="s">
         <v>206</v>
       </c>
@@ -15062,7 +15069,7 @@
       <c r="E913" s="53"/>
       <c r="F913" s="53"/>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="2" t="s">
         <v>14</v>
@@ -15080,7 +15087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A915" s="1" t="s">
         <v>1</v>
       </c>
@@ -15100,7 +15107,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A916" s="1" t="s">
         <v>2</v>
       </c>
@@ -15120,7 +15127,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A917" s="53" t="s">
         <v>207</v>
       </c>
@@ -15130,7 +15137,7 @@
       <c r="E917" s="53"/>
       <c r="F917" s="50"/>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="2" t="s">
         <v>16</v>
@@ -15145,7 +15152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A919" s="1" t="s">
         <v>1</v>
       </c>
@@ -15162,7 +15169,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A920" s="1" t="s">
         <v>2</v>
       </c>
@@ -15179,7 +15186,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
@@ -15187,7 +15194,7 @@
       <c r="E924" s="6"/>
       <c r="F924" s="6"/>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A925" s="53" t="s">
         <v>208</v>
       </c>
@@ -15197,7 +15204,7 @@
       <c r="E925" s="53"/>
       <c r="F925" s="53"/>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="2" t="s">
         <v>14</v>
@@ -15215,7 +15222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A927" s="1" t="s">
         <v>1</v>
       </c>
@@ -15235,7 +15242,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A928" s="1" t="s">
         <v>2</v>
       </c>
@@ -15255,7 +15262,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" s="53" t="s">
         <v>209</v>
       </c>
@@ -15265,7 +15272,7 @@
       <c r="E929" s="53"/>
       <c r="F929" s="50"/>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="2" t="s">
         <v>16</v>
@@ -15280,7 +15287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="931" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A931" s="1" t="s">
         <v>1</v>
       </c>
@@ -15297,7 +15304,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="932" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A932" s="1" t="s">
         <v>2</v>
       </c>
@@ -15314,7 +15321,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
@@ -15322,7 +15329,7 @@
       <c r="E935" s="6"/>
       <c r="F935" s="6"/>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" s="53" t="s">
         <v>210</v>
       </c>
@@ -15332,7 +15339,7 @@
       <c r="E936" s="53"/>
       <c r="F936" s="53"/>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="2" t="s">
         <v>14</v>
@@ -15350,7 +15357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="938" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A938" s="1" t="s">
         <v>1</v>
       </c>
@@ -15370,7 +15377,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="939" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A939" s="1" t="s">
         <v>2</v>
       </c>
@@ -15390,7 +15397,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" s="53" t="s">
         <v>211</v>
       </c>
@@ -15400,7 +15407,7 @@
       <c r="E940" s="53"/>
       <c r="F940" s="50"/>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="2" t="s">
         <v>16</v>
@@ -15415,7 +15422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="942" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A942" s="1" t="s">
         <v>1</v>
       </c>
@@ -15432,7 +15439,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="943" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A943" s="1" t="s">
         <v>2</v>
       </c>
@@ -15453,7 +15460,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
@@ -15461,7 +15468,7 @@
       <c r="E946" s="6"/>
       <c r="F946" s="6"/>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A947" s="53" t="s">
         <v>212</v>
       </c>
@@ -15471,7 +15478,7 @@
       <c r="E947" s="53"/>
       <c r="F947" s="53"/>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="2" t="s">
         <v>14</v>
@@ -15489,7 +15496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="949" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A949" s="1" t="s">
         <v>1</v>
       </c>
@@ -15509,7 +15516,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="950" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A950" s="1" t="s">
         <v>2</v>
       </c>
@@ -15529,7 +15536,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A951" s="53" t="s">
         <v>213</v>
       </c>
@@ -15539,7 +15546,7 @@
       <c r="E951" s="53"/>
       <c r="F951" s="50"/>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="2" t="s">
         <v>16</v>
@@ -15554,7 +15561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="953" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A953" s="1" t="s">
         <v>1</v>
       </c>
@@ -15571,7 +15578,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A954" s="1" t="s">
         <v>2</v>
       </c>
@@ -15588,7 +15595,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
@@ -15596,7 +15603,7 @@
       <c r="E958" s="6"/>
       <c r="F958" s="6"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A959" s="53" t="s">
         <v>214</v>
       </c>
@@ -15606,7 +15613,7 @@
       <c r="E959" s="53"/>
       <c r="F959" s="53"/>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="2" t="s">
         <v>14</v>
@@ -15624,7 +15631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="961" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A961" s="1" t="s">
         <v>1</v>
       </c>
@@ -15644,7 +15651,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="962" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A962" s="1" t="s">
         <v>2</v>
       </c>
@@ -15664,7 +15671,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A963" s="53" t="s">
         <v>215</v>
       </c>
@@ -15674,7 +15681,7 @@
       <c r="E963" s="53"/>
       <c r="F963" s="50"/>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="2" t="s">
         <v>16</v>
@@ -15689,7 +15696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A965" s="1" t="s">
         <v>1</v>
       </c>
@@ -15706,7 +15713,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A966" s="1" t="s">
         <v>2</v>
       </c>
@@ -15723,7 +15730,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
       <c r="C969" s="6"/>
@@ -15731,7 +15738,7 @@
       <c r="E969" s="6"/>
       <c r="F969" s="6"/>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A970" s="53" t="s">
         <v>216</v>
       </c>
@@ -15741,7 +15748,7 @@
       <c r="E970" s="53"/>
       <c r="F970" s="53"/>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="2" t="s">
         <v>14</v>
@@ -15759,7 +15766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="972" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A972" s="1" t="s">
         <v>1</v>
       </c>
@@ -15779,7 +15786,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="973" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A973" s="1" t="s">
         <v>2</v>
       </c>
@@ -15799,7 +15806,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A974" s="53" t="s">
         <v>217</v>
       </c>
@@ -15809,7 +15816,7 @@
       <c r="E974" s="53"/>
       <c r="F974" s="50"/>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="2" t="s">
         <v>16</v>
@@ -15824,7 +15831,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A976" s="1" t="s">
         <v>1</v>
       </c>
@@ -15841,7 +15848,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="977" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A977" s="1" t="s">
         <v>2</v>
       </c>
@@ -15858,7 +15865,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
       <c r="C981" s="6"/>
@@ -15866,7 +15873,7 @@
       <c r="E981" s="6"/>
       <c r="F981" s="6"/>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A982" s="53" t="s">
         <v>218</v>
       </c>
@@ -15876,7 +15883,7 @@
       <c r="E982" s="53"/>
       <c r="F982" s="53"/>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="2" t="s">
         <v>14</v>
@@ -15894,7 +15901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="984" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A984" s="1" t="s">
         <v>1</v>
       </c>
@@ -15914,7 +15921,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="985" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A985" s="1" t="s">
         <v>2</v>
       </c>
@@ -15934,7 +15941,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A986" s="53" t="s">
         <v>219</v>
       </c>
@@ -15944,7 +15951,7 @@
       <c r="E986" s="53"/>
       <c r="F986" s="50"/>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="2" t="s">
         <v>16</v>
@@ -15959,7 +15966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="988" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A988" s="1" t="s">
         <v>1</v>
       </c>
@@ -15976,7 +15983,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="989" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A989" s="1" t="s">
         <v>2</v>
       </c>
@@ -15993,7 +16000,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
       <c r="C993" s="6"/>
@@ -16001,7 +16008,7 @@
       <c r="E993" s="6"/>
       <c r="F993" s="6"/>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A994" s="53" t="s">
         <v>220</v>
       </c>
@@ -16011,7 +16018,7 @@
       <c r="E994" s="53"/>
       <c r="F994" s="53"/>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="2" t="s">
         <v>14</v>
@@ -16029,7 +16036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="996" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A996" s="1" t="s">
         <v>1</v>
       </c>
@@ -16049,7 +16056,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="997" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A997" s="1" t="s">
         <v>2</v>
       </c>
@@ -16069,7 +16076,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A998" s="53" t="s">
         <v>221</v>
       </c>
@@ -16079,7 +16086,7 @@
       <c r="E998" s="53"/>
       <c r="F998" s="50"/>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="B999" s="2" t="s">
         <v>16</v>
@@ -16094,7 +16101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1000" s="1" t="s">
         <v>1</v>
       </c>
@@ -16111,7 +16118,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1001" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1001" s="1" t="s">
         <v>2</v>
       </c>
@@ -16128,7 +16135,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1005" s="6"/>
       <c r="B1005" s="6"/>
       <c r="C1005" s="6"/>
@@ -16136,7 +16143,7 @@
       <c r="E1005" s="6"/>
       <c r="F1005" s="6"/>
     </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1006" s="53" t="s">
         <v>222</v>
       </c>
@@ -16146,7 +16153,7 @@
       <c r="E1006" s="53"/>
       <c r="F1006" s="53"/>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1007" s="1"/>
       <c r="B1007" s="2" t="s">
         <v>14</v>
@@ -16164,7 +16171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1008" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1008" s="1" t="s">
         <v>1</v>
       </c>
@@ -16184,7 +16191,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1009" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1009" s="1" t="s">
         <v>2</v>
       </c>
@@ -16204,7 +16211,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1010" s="53" t="s">
         <v>223</v>
       </c>
@@ -16214,7 +16221,7 @@
       <c r="E1010" s="53"/>
       <c r="F1010" s="50"/>
     </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1011" s="1"/>
       <c r="B1011" s="2" t="s">
         <v>16</v>
@@ -16229,7 +16236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1012" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1012" s="1" t="s">
         <v>1</v>
       </c>
@@ -16246,7 +16253,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1013" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1013" s="1" t="s">
         <v>2</v>
       </c>
@@ -16263,7 +16270,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1016" s="6"/>
       <c r="B1016" s="6"/>
       <c r="C1016" s="6"/>
@@ -16271,7 +16278,7 @@
       <c r="E1016" s="6"/>
       <c r="F1016" s="6"/>
     </row>
-    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1017" s="53" t="s">
         <v>224</v>
       </c>
@@ -16281,7 +16288,7 @@
       <c r="E1017" s="53"/>
       <c r="F1017" s="53"/>
     </row>
-    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1018" s="1"/>
       <c r="B1018" s="2" t="s">
         <v>14</v>
@@ -16299,7 +16306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1019" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1019" s="1" t="s">
         <v>1</v>
       </c>
@@ -16319,7 +16326,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1020" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1020" s="1" t="s">
         <v>2</v>
       </c>
@@ -16339,7 +16346,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1021" s="53" t="s">
         <v>225</v>
       </c>
@@ -16349,7 +16356,7 @@
       <c r="E1021" s="53"/>
       <c r="F1021" s="50"/>
     </row>
-    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1022" s="1"/>
       <c r="B1022" s="2" t="s">
         <v>16</v>
@@ -16364,7 +16371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1023" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1023" s="1" t="s">
         <v>1</v>
       </c>
@@ -16381,7 +16388,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1024" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1024" s="1" t="s">
         <v>2</v>
       </c>
@@ -16398,7 +16405,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1027" s="6"/>
       <c r="B1027" s="6"/>
       <c r="C1027" s="6"/>
@@ -16406,7 +16413,7 @@
       <c r="E1027" s="6"/>
       <c r="F1027" s="6"/>
     </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1028" s="53" t="s">
         <v>226</v>
       </c>
@@ -16416,7 +16423,7 @@
       <c r="E1028" s="53"/>
       <c r="F1028" s="53"/>
     </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029" s="1"/>
       <c r="B1029" s="2" t="s">
         <v>14</v>
@@ -16434,7 +16441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1030" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1030" s="1" t="s">
         <v>1</v>
       </c>
@@ -16454,7 +16461,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1031" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1031" s="1" t="s">
         <v>2</v>
       </c>
@@ -16478,7 +16485,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1032" s="53" t="s">
         <v>227</v>
       </c>
@@ -16488,7 +16495,7 @@
       <c r="E1032" s="53"/>
       <c r="F1032" s="50"/>
     </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1033" s="1"/>
       <c r="B1033" s="2" t="s">
         <v>16</v>
@@ -16503,7 +16510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1034" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1034" s="1" t="s">
         <v>1</v>
       </c>
@@ -16520,7 +16527,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1035" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1035" s="1" t="s">
         <v>2</v>
       </c>
@@ -16537,7 +16544,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1039" s="6"/>
       <c r="B1039" s="6"/>
       <c r="C1039" s="6"/>
@@ -16545,7 +16552,7 @@
       <c r="E1039" s="6"/>
       <c r="F1039" s="6"/>
     </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1040" s="53" t="s">
         <v>228</v>
       </c>
@@ -16555,7 +16562,7 @@
       <c r="E1040" s="53"/>
       <c r="F1040" s="53"/>
     </row>
-    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1041" s="1"/>
       <c r="B1041" s="2" t="s">
         <v>14</v>
@@ -16573,7 +16580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1042" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1042" s="1" t="s">
         <v>1</v>
       </c>
@@ -16593,7 +16600,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1043" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1043" s="1" t="s">
         <v>2</v>
       </c>
@@ -16613,7 +16620,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1044" s="53" t="s">
         <v>229</v>
       </c>
@@ -16623,7 +16630,7 @@
       <c r="E1044" s="53"/>
       <c r="F1044" s="50"/>
     </row>
-    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1045" s="1"/>
       <c r="B1045" s="2" t="s">
         <v>16</v>
@@ -16638,7 +16645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1046" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1046" s="1" t="s">
         <v>1</v>
       </c>
@@ -16655,7 +16662,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1047" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1047" s="1" t="s">
         <v>2</v>
       </c>
@@ -16672,7 +16679,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1051" s="6"/>
       <c r="B1051" s="6"/>
       <c r="C1051" s="6"/>
@@ -16680,7 +16687,7 @@
       <c r="E1051" s="6"/>
       <c r="F1051" s="6"/>
     </row>
-    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1052" s="53" t="s">
         <v>230</v>
       </c>
@@ -16690,7 +16697,7 @@
       <c r="E1052" s="53"/>
       <c r="F1052" s="53"/>
     </row>
-    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1053" s="1"/>
       <c r="B1053" s="2" t="s">
         <v>14</v>
@@ -16708,7 +16715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1054" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1054" s="1" t="s">
         <v>1</v>
       </c>
@@ -16728,7 +16735,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1055" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1055" s="1" t="s">
         <v>2</v>
       </c>
@@ -16748,7 +16755,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1056" s="53" t="s">
         <v>231</v>
       </c>
@@ -16758,7 +16765,7 @@
       <c r="E1056" s="53"/>
       <c r="F1056" s="50"/>
     </row>
-    <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1057" s="1"/>
       <c r="B1057" s="2" t="s">
         <v>16</v>
@@ -16773,7 +16780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1058" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1058" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1058" s="1" t="s">
         <v>1</v>
       </c>
@@ -16790,7 +16797,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="1059" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1059" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1059" s="1" t="s">
         <v>2</v>
       </c>
@@ -16807,8 +16814,337 @@
         <v>0.66</v>
       </c>
     </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1062" s="6"/>
+      <c r="B1062" s="6"/>
+      <c r="C1062" s="6"/>
+      <c r="D1062" s="6"/>
+      <c r="E1062" s="6"/>
+      <c r="F1062" s="6"/>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1063" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1063" s="53"/>
+      <c r="C1063" s="53"/>
+      <c r="D1063" s="53"/>
+      <c r="E1063" s="53"/>
+      <c r="F1063" s="53"/>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1064" s="1"/>
+      <c r="B1064" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1064" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1064" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1064" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1065" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1065" s="51">
+        <v>26582</v>
+      </c>
+      <c r="C1065" s="52">
+        <v>26852</v>
+      </c>
+      <c r="D1065">
+        <v>229</v>
+      </c>
+      <c r="E1065" s="52">
+        <v>27530</v>
+      </c>
+      <c r="F1065" s="9">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1066" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1066" s="51">
+        <v>31217</v>
+      </c>
+      <c r="C1066" s="52">
+        <v>31530</v>
+      </c>
+      <c r="D1066">
+        <v>-133</v>
+      </c>
+      <c r="E1066" s="52">
+        <v>32539</v>
+      </c>
+      <c r="F1066" s="9">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1067" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1067" s="53"/>
+      <c r="C1067" s="53"/>
+      <c r="D1067" s="53"/>
+      <c r="E1067" s="53"/>
+      <c r="F1067" s="50"/>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1068" s="1"/>
+      <c r="B1068" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1068" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1068" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1068" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1069" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1069" s="51">
+        <v>26514</v>
+      </c>
+      <c r="C1069" s="4">
+        <v>130</v>
+      </c>
+      <c r="D1069" s="51">
+        <v>10053900</v>
+      </c>
+      <c r="E1069" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1070" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1070" s="51">
+        <v>31159</v>
+      </c>
+      <c r="C1070" s="4">
+        <v>48</v>
+      </c>
+      <c r="D1070" s="51">
+        <v>1549100</v>
+      </c>
+      <c r="E1070" s="5">
+        <v>0.33</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="216">
+  <mergeCells count="218">
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A370:F370"/>
     <mergeCell ref="A302:E302"/>
     <mergeCell ref="A325:F325"/>
     <mergeCell ref="A352:F352"/>
@@ -16833,198 +17169,6 @@
     <mergeCell ref="A361:F361"/>
     <mergeCell ref="A970:F970"/>
     <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A940:E940"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07250151-1B1D-4BE3-A1E4-E257DA892357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C129F62-35C4-4ACA-9922-68A2C821A26A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="236">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -727,6 +727,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 17 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 18 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 18 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1070"/>
+  <dimension ref="A1:J1082"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1049" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1071" sqref="E1071"/>
+    <sheetView tabSelected="1" topLeftCell="A1064" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1079" sqref="F1079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16949,106 +16955,241 @@
         <v>0.33</v>
       </c>
     </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1074" s="6"/>
+      <c r="B1074" s="6"/>
+      <c r="C1074" s="6"/>
+      <c r="D1074" s="6"/>
+      <c r="E1074" s="6"/>
+      <c r="F1074" s="6"/>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1075" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1075" s="53"/>
+      <c r="C1075" s="53"/>
+      <c r="D1075" s="53"/>
+      <c r="E1075" s="53"/>
+      <c r="F1075" s="53"/>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1076" s="1"/>
+      <c r="B1076" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1076" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1076" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1076" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1076" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1077" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1077" s="51">
+        <v>26624</v>
+      </c>
+      <c r="C1077" s="52">
+        <v>26936</v>
+      </c>
+      <c r="D1077">
+        <v>84</v>
+      </c>
+      <c r="E1077" s="52">
+        <v>27820</v>
+      </c>
+      <c r="F1077" s="9">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1078" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1078" s="51">
+        <v>31234</v>
+      </c>
+      <c r="C1078" s="52">
+        <v>31623</v>
+      </c>
+      <c r="D1078">
+        <v>93</v>
+      </c>
+      <c r="E1078" s="52">
+        <v>32652</v>
+      </c>
+      <c r="F1078" s="9">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1079" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1079" s="53"/>
+      <c r="C1079" s="53"/>
+      <c r="D1079" s="53"/>
+      <c r="E1079" s="53"/>
+      <c r="F1079" s="50"/>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1080" s="1"/>
+      <c r="B1080" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1080" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1080" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1080" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1081" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1081" s="51">
+        <v>26589</v>
+      </c>
+      <c r="C1081" s="4">
+        <v>75</v>
+      </c>
+      <c r="D1081" s="51">
+        <v>6494700</v>
+      </c>
+      <c r="E1081" s="5">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1082" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1082" s="51">
+        <v>31217</v>
+      </c>
+      <c r="C1082" s="4">
+        <v>58</v>
+      </c>
+      <c r="D1082" s="51">
+        <v>1009100</v>
+      </c>
+      <c r="E1082" s="5">
+        <v>-0.35</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="218">
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
+  <mergeCells count="220">
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A374:E374"/>
     <mergeCell ref="A365:E365"/>
     <mergeCell ref="A392:E392"/>
@@ -17073,102 +17214,104 @@
     <mergeCell ref="A500:E500"/>
     <mergeCell ref="A523:F523"/>
     <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="240">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -738,6 +738,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 20 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 21 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 21 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1271,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1094"/>
+  <dimension ref="A1:J1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1076" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1093" sqref="F1093"/>
+    <sheetView tabSelected="1" topLeftCell="A1088" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1097" sqref="C1097"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17231,8 +17237,343 @@
         <v>0.21</v>
       </c>
     </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1098" s="6"/>
+      <c r="B1098" s="6"/>
+      <c r="C1098" s="6"/>
+      <c r="D1098" s="6"/>
+      <c r="E1098" s="6"/>
+      <c r="F1098" s="6"/>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1099" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1099" s="54"/>
+      <c r="C1099" s="54"/>
+      <c r="D1099" s="54"/>
+      <c r="E1099" s="54"/>
+      <c r="F1099" s="54"/>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1100" s="1"/>
+      <c r="B1100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1100" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1100" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1101" s="30">
+        <v>26502</v>
+      </c>
+      <c r="C1101" s="53">
+        <v>26767</v>
+      </c>
+      <c r="D1101">
+        <v>-349</v>
+      </c>
+      <c r="E1101" s="53">
+        <v>27500</v>
+      </c>
+      <c r="F1101" s="9">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1102" s="30">
+        <v>31242</v>
+      </c>
+      <c r="C1102" s="53">
+        <v>31554</v>
+      </c>
+      <c r="D1102">
+        <v>-148</v>
+      </c>
+      <c r="E1102" s="53">
+        <v>32552</v>
+      </c>
+      <c r="F1102" s="9">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1103" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1103" s="54"/>
+      <c r="C1103" s="54"/>
+      <c r="D1103" s="54"/>
+      <c r="E1103" s="54"/>
+      <c r="F1103" s="50"/>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1104" s="1"/>
+      <c r="B1104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1105" s="30">
+        <v>26580</v>
+      </c>
+      <c r="C1105" s="4">
+        <v>-162</v>
+      </c>
+      <c r="D1105" s="30">
+        <v>8758100</v>
+      </c>
+      <c r="E1105" s="5">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1106" s="30">
+        <v>31328</v>
+      </c>
+      <c r="C1106" s="4">
+        <v>-31</v>
+      </c>
+      <c r="D1106" s="30">
+        <v>962100</v>
+      </c>
+      <c r="E1106" s="5">
+        <v>-0.21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="224">
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
     <mergeCell ref="A352:F352"/>
     <mergeCell ref="A356:E356"/>
     <mergeCell ref="A1052:F1052"/>
@@ -17257,204 +17598,6 @@
     <mergeCell ref="A307:F307"/>
     <mergeCell ref="A311:E311"/>
     <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="242">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -744,6 +744,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 21 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 22 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 22 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1277,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1106"/>
+  <dimension ref="A1:J1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1088" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1097" sqref="C1097"/>
+    <sheetView tabSelected="1" topLeftCell="A1097" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1106" sqref="B1106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17338,7 +17344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1105" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1105" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A1105" s="1" t="s">
         <v>1</v>
       </c>
@@ -17355,7 +17361,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="1106" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1106" spans="1:7" ht="18" x14ac:dyDescent="0.4">
       <c r="A1106" s="1" t="s">
         <v>2</v>
       </c>
@@ -17372,111 +17378,240 @@
         <v>-0.21</v>
       </c>
     </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1109" s="6"/>
+      <c r="B1109" s="6"/>
+      <c r="C1109" s="6"/>
+      <c r="D1109" s="6"/>
+      <c r="E1109" s="6"/>
+      <c r="F1109" s="6"/>
+    </row>
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1110" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1110" s="54"/>
+      <c r="C1110" s="54"/>
+      <c r="D1110" s="54"/>
+      <c r="E1110" s="54"/>
+      <c r="F1110" s="54"/>
+    </row>
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1111" s="1"/>
+      <c r="B1111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1111" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1111" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1112" s="30">
+        <v>26313</v>
+      </c>
+      <c r="C1112" s="53">
+        <v>26577</v>
+      </c>
+      <c r="D1112">
+        <v>-190</v>
+      </c>
+      <c r="E1112" s="53">
+        <v>27100</v>
+      </c>
+      <c r="F1112" s="9">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1113" s="30">
+        <v>31378</v>
+      </c>
+      <c r="C1113" s="53">
+        <v>31692</v>
+      </c>
+      <c r="D1113">
+        <v>138</v>
+      </c>
+      <c r="E1113" s="53">
+        <v>31782</v>
+      </c>
+      <c r="F1113" s="9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1114" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1114" s="54"/>
+      <c r="C1114" s="54"/>
+      <c r="D1114" s="54"/>
+      <c r="E1114" s="54"/>
+      <c r="F1114" s="50"/>
+    </row>
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1115" s="1"/>
+      <c r="B1115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1115">
+        <f>E1113-E1102</f>
+        <v>-770</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1116" s="30">
+        <v>26204</v>
+      </c>
+      <c r="C1116" s="4">
+        <v>-376</v>
+      </c>
+      <c r="D1116" s="30">
+        <v>8019300</v>
+      </c>
+      <c r="E1116" s="5">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1117" s="30">
+        <v>31080</v>
+      </c>
+      <c r="C1117" s="4">
+        <v>-248</v>
+      </c>
+      <c r="D1117" s="30">
+        <v>573100</v>
+      </c>
+      <c r="E1117" s="5">
+        <v>-0.4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="224">
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
+  <mergeCells count="226">
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
@@ -17501,103 +17636,115 @@
     <mergeCell ref="A600:E600"/>
     <mergeCell ref="A646:F646"/>
     <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
     <mergeCell ref="A1052:F1052"/>
     <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
     <mergeCell ref="A1028:F1028"/>
     <mergeCell ref="A1032:E1032"/>
     <mergeCell ref="A1017:F1017"/>
     <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="244">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -750,6 +750,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 22 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 23 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 23 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1117"/>
+  <dimension ref="A1:J1128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1097" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1106" sqref="B1106"/>
+    <sheetView tabSelected="1" topLeftCell="A1112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1120" sqref="A1120:F1128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17517,53 +17523,299 @@
         <v>-0.4</v>
       </c>
     </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1120" s="6"/>
+      <c r="B1120" s="6"/>
+      <c r="C1120" s="6"/>
+      <c r="D1120" s="6"/>
+      <c r="E1120" s="6"/>
+      <c r="F1120" s="6"/>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1121" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1121" s="54"/>
+      <c r="C1121" s="54"/>
+      <c r="D1121" s="54"/>
+      <c r="E1121" s="54"/>
+      <c r="F1121" s="54"/>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1122" s="1"/>
+      <c r="B1122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1122" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1122" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1123" s="30">
+        <v>26516</v>
+      </c>
+      <c r="C1123" s="53">
+        <v>26781</v>
+      </c>
+      <c r="D1123">
+        <v>204</v>
+      </c>
+      <c r="E1123" s="53">
+        <v>27370</v>
+      </c>
+      <c r="F1123" s="9">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1124" s="30">
+        <v>31373</v>
+      </c>
+      <c r="C1124" s="53">
+        <v>31687</v>
+      </c>
+      <c r="D1124">
+        <v>-5</v>
+      </c>
+      <c r="E1124" s="53">
+        <v>32420</v>
+      </c>
+      <c r="F1124" s="9">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1125" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1125" s="54"/>
+      <c r="C1125" s="54"/>
+      <c r="D1125" s="54"/>
+      <c r="E1125" s="54"/>
+      <c r="F1125" s="50"/>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1126" s="1"/>
+      <c r="B1126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1127" s="30">
+        <v>26379</v>
+      </c>
+      <c r="C1127" s="4">
+        <v>175</v>
+      </c>
+      <c r="D1127" s="30">
+        <v>9028800</v>
+      </c>
+      <c r="E1127" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1128" s="30">
+        <v>31146</v>
+      </c>
+      <c r="C1128" s="4">
+        <v>66</v>
+      </c>
+      <c r="D1128" s="30">
+        <v>1286100</v>
+      </c>
+      <c r="E1128" s="5">
+        <v>1.24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="226">
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
+  <mergeCells count="228">
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
     <mergeCell ref="A109:F109"/>
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A271:F271"/>
@@ -17588,163 +17840,54 @@
     <mergeCell ref="A208:F208"/>
     <mergeCell ref="A212:E212"/>
     <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="246">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -756,6 +756,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 23 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 24 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 24 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1289,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1128"/>
+  <dimension ref="A1:J1140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1120" sqref="A1120:F1128"/>
+    <sheetView tabSelected="1" topLeftCell="A1121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1140" sqref="B1140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17658,18 +17664,341 @@
         <v>1.24</v>
       </c>
     </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1132" s="6"/>
+      <c r="B1132" s="6"/>
+      <c r="C1132" s="6"/>
+      <c r="D1132" s="6"/>
+      <c r="E1132" s="6"/>
+      <c r="F1132" s="6"/>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1133" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1133" s="54"/>
+      <c r="C1133" s="54"/>
+      <c r="D1133" s="54"/>
+      <c r="E1133" s="54"/>
+      <c r="F1133" s="54"/>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1134" s="1"/>
+      <c r="B1134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1134" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1134" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1135" s="30">
+        <v>26372</v>
+      </c>
+      <c r="C1135" s="53">
+        <v>26636</v>
+      </c>
+      <c r="D1135">
+        <v>-145</v>
+      </c>
+      <c r="E1135" s="53">
+        <v>27320</v>
+      </c>
+      <c r="F1135" s="9">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1136" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1136" s="30">
+        <v>31224</v>
+      </c>
+      <c r="C1136" s="53">
+        <v>31537</v>
+      </c>
+      <c r="D1136">
+        <v>-150</v>
+      </c>
+      <c r="E1136" s="53">
+        <v>32233</v>
+      </c>
+      <c r="F1136" s="9">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1137" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1137" s="54"/>
+      <c r="C1137" s="54"/>
+      <c r="D1137" s="54"/>
+      <c r="E1137" s="54"/>
+      <c r="F1137" s="50"/>
+    </row>
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1138" s="1"/>
+      <c r="B1138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1138">
+        <f>E1136-E1124</f>
+        <v>-187</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1139" s="30">
+        <v>26372</v>
+      </c>
+      <c r="C1139" s="4">
+        <v>-7</v>
+      </c>
+      <c r="D1139" s="30">
+        <v>9040900</v>
+      </c>
+      <c r="E1139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1140" s="30">
+        <v>31330</v>
+      </c>
+      <c r="C1140" s="4">
+        <v>184</v>
+      </c>
+      <c r="D1140" s="30">
+        <v>722300</v>
+      </c>
+      <c r="E1140" s="5">
+        <v>-0.44</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="228">
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1044:E1044"/>
+  <mergeCells count="230">
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
     <mergeCell ref="A1006:F1006"/>
     <mergeCell ref="A1010:E1010"/>
     <mergeCell ref="A1075:F1075"/>
@@ -17694,200 +18023,18 @@
     <mergeCell ref="A925:F925"/>
     <mergeCell ref="A929:E929"/>
     <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1044:E1044"/>
     <mergeCell ref="A1110:F1110"/>
     <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\den\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BA3916-B703-4E65-984D-B9059B2267DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="1032" yWindow="1248" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="248">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -762,13 +763,19 @@
   </si>
   <si>
     <t>بازار ارز متشکل 24 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 25 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 25 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,8 +802,14 @@
       <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="B Mitra"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,6 +924,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -957,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1015,6 +1034,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,24 +1315,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1140" sqref="B1140"/>
+    <sheetView tabSelected="1" topLeftCell="D1133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1150" sqref="F1150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1341,7 @@
       <c r="D1" s="54"/>
       <c r="E1" s="54"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1335,7 +1356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1373,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1400,7 @@
       <c r="D5" s="54"/>
       <c r="E5" s="54"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1394,7 +1415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1432,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1428,8 +1449,8 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>12</v>
       </c>
@@ -1438,7 +1459,7 @@
       <c r="D10" s="54"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -1451,7 +1472,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1466,7 +1487,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1502,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
         <v>13</v>
       </c>
@@ -1490,7 +1511,7 @@
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -1505,7 +1526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1522,7 +1543,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1539,8 +1560,8 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="54" t="s">
         <v>23</v>
       </c>
@@ -1550,7 +1571,7 @@
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -1568,7 +1589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +1609,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1629,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="54" t="s">
         <v>24</v>
       </c>
@@ -1617,7 +1638,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -1632,7 +1653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1670,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1666,8 +1687,8 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="54" t="s">
         <v>25</v>
       </c>
@@ -1677,7 +1698,7 @@
       <c r="E28" s="54"/>
       <c r="F28" s="54"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1695,7 +1716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1715,7 +1736,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1735,7 +1756,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="54" t="s">
         <v>26</v>
       </c>
@@ -1744,7 +1765,7 @@
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -1759,7 +1780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1776,7 +1797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1793,8 +1814,8 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
         <v>28</v>
       </c>
@@ -1804,7 +1825,7 @@
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -1822,7 +1843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1842,7 +1863,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1883,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
         <v>29</v>
       </c>
@@ -1871,7 +1892,7 @@
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -1886,7 +1907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1903,7 +1924,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -1920,8 +1941,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="54" t="s">
         <v>31</v>
       </c>
@@ -1931,7 +1952,7 @@
       <c r="E46" s="54"/>
       <c r="F46" s="54"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>14</v>
@@ -1949,7 +1970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1969,7 +1990,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -1989,7 +2010,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="54" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +2019,7 @@
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>16</v>
@@ -2013,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -2030,7 +2051,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -2047,8 +2068,8 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="54" t="s">
         <v>32</v>
       </c>
@@ -2058,7 +2079,7 @@
       <c r="E55" s="54"/>
       <c r="F55" s="54"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>14</v>
@@ -2076,7 +2097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +2117,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +2137,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="54" t="s">
         <v>33</v>
       </c>
@@ -2125,7 +2146,7 @@
       <c r="D59" s="54"/>
       <c r="E59" s="54"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>16</v>
@@ -2140,7 +2161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -2157,7 +2178,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -2174,8 +2195,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="54" t="s">
         <v>34</v>
       </c>
@@ -2185,7 +2206,7 @@
       <c r="E64" s="54"/>
       <c r="F64" s="54"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>14</v>
@@ -2203,7 +2224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -2227,7 +2248,7 @@
         <v>2.4563480319621189E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2272,7 @@
         <v>4.260961810466761E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="54" t="s">
         <v>35</v>
       </c>
@@ -2260,7 +2281,7 @@
       <c r="D68" s="54"/>
       <c r="E68" s="54"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>16</v>
@@ -2275,7 +2296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -2292,7 +2313,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -2309,8 +2330,8 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="54" t="s">
         <v>36</v>
       </c>
@@ -2320,7 +2341,7 @@
       <c r="E73" s="54"/>
       <c r="F73" s="54"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>14</v>
@@ -2338,7 +2359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -2362,7 +2383,7 @@
         <v>2.7493307270641226E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -2386,7 +2407,7 @@
         <v>4.582743988684583E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="54" t="s">
         <v>37</v>
       </c>
@@ -2395,7 +2416,7 @@
       <c r="D77" s="54"/>
       <c r="E77" s="54"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
@@ -2410,7 +2431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -2427,7 +2448,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2444,8 +2465,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="54" t="s">
         <v>38</v>
       </c>
@@ -2455,7 +2476,7 @@
       <c r="E82" s="54"/>
       <c r="F82" s="54"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>14</v>
@@ -2473,7 +2494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2497,7 +2518,7 @@
         <v>1.6347141389934955E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
@@ -2521,7 +2542,7 @@
         <v>2.4877578010508633E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="54" t="s">
         <v>39</v>
       </c>
@@ -2530,7 +2551,7 @@
       <c r="D86" s="54"/>
       <c r="E86" s="54"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="2" t="s">
         <v>16</v>
@@ -2545,7 +2566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -2562,7 +2583,7 @@
         <v>-0.56999999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -2579,8 +2600,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="54" t="s">
         <v>40</v>
       </c>
@@ -2590,7 +2611,7 @@
       <c r="E91" s="54"/>
       <c r="F91" s="54"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="2" t="s">
         <v>14</v>
@@ -2608,7 +2629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +2653,7 @@
         <v>2.7921494847564888E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -2653,7 +2674,7 @@
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="54" t="s">
         <v>41</v>
       </c>
@@ -2662,7 +2683,7 @@
       <c r="D95" s="54"/>
       <c r="E95" s="54"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="2" t="s">
         <v>16</v>
@@ -2681,7 +2702,7 @@
         <v>3.5987420484597243E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -2698,7 +2719,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -2715,8 +2736,8 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="54" t="s">
         <v>42</v>
       </c>
@@ -2726,7 +2747,7 @@
       <c r="E100" s="54"/>
       <c r="F100" s="54"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="2" t="s">
         <v>14</v>
@@ -2744,7 +2765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -2768,7 +2789,7 @@
         <v>2.0547945205479451E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2810,7 @@
       </c>
       <c r="G103" s="10"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="54" t="s">
         <v>43</v>
       </c>
@@ -2798,7 +2819,7 @@
       <c r="D104" s="54"/>
       <c r="E104" s="54"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="2" t="s">
         <v>16</v>
@@ -2813,7 +2834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -2834,7 +2855,7 @@
         <v>2.6812242706282442E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -2851,8 +2872,8 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="54" t="s">
         <v>44</v>
       </c>
@@ -2862,7 +2883,7 @@
       <c r="E109" s="54"/>
       <c r="F109" s="54"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="2" t="s">
         <v>14</v>
@@ -2880,7 +2901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -2904,7 +2925,7 @@
         <v>1.9211843737965854E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
@@ -2925,7 +2946,7 @@
       </c>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="54" t="s">
         <v>45</v>
       </c>
@@ -2934,7 +2955,7 @@
       <c r="D113" s="54"/>
       <c r="E113" s="54"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
@@ -2950,7 +2971,7 @@
       </c>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -2972,7 +2993,7 @@
         <v>2.8919711160363196E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -2989,8 +3010,8 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="54" t="s">
         <v>46</v>
       </c>
@@ -3000,7 +3021,7 @@
       <c r="E118" s="54"/>
       <c r="F118" s="54"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>14</v>
@@ -3018,7 +3039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -3042,7 +3063,7 @@
         <v>2.1263851452530697E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -3063,7 +3084,7 @@
       </c>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="54" t="s">
         <v>47</v>
       </c>
@@ -3072,7 +3093,7 @@
       <c r="D122" s="54"/>
       <c r="E122" s="54"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="2" t="s">
         <v>16</v>
@@ -3088,7 +3109,7 @@
       </c>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -3110,7 +3131,7 @@
         <v>3.0525074168066626E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -3127,8 +3148,8 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="54" t="s">
         <v>48</v>
       </c>
@@ -3138,7 +3159,7 @@
       <c r="E127" s="54"/>
       <c r="F127" s="54"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="2" t="s">
         <v>14</v>
@@ -3160,7 +3181,7 @@
         <v>1.4604810996563574E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -3181,7 +3202,7 @@
       </c>
       <c r="G129" s="10"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -3202,7 +3223,7 @@
       </c>
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="54" t="s">
         <v>49</v>
       </c>
@@ -3212,7 +3233,7 @@
       <c r="E131" s="54"/>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>16</v>
@@ -3228,7 +3249,7 @@
       </c>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -3250,7 +3271,7 @@
         <v>2.8913760941311522E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
@@ -3268,8 +3289,8 @@
       </c>
       <c r="J134" s="10"/>
     </row>
-    <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="54" t="s">
         <v>50</v>
       </c>
@@ -3279,7 +3300,7 @@
       <c r="E136" s="54"/>
       <c r="F136" s="54"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="2" t="s">
         <v>14</v>
@@ -3301,7 +3322,7 @@
         <v>1.8916595012897677E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -3322,7 +3343,7 @@
       </c>
       <c r="G138" s="10"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
@@ -3343,7 +3364,7 @@
       </c>
       <c r="G139" s="10"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="54" t="s">
         <v>51</v>
       </c>
@@ -3353,7 +3374,7 @@
       <c r="E140" s="54"/>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>16</v>
@@ -3373,7 +3394,7 @@
       </c>
       <c r="G141" s="10"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -3392,7 +3413,7 @@
       <c r="F142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
@@ -3410,8 +3431,8 @@
       </c>
       <c r="J143" s="10"/>
     </row>
-    <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="54" t="s">
         <v>52</v>
       </c>
@@ -3421,7 +3442,7 @@
       <c r="E145" s="54"/>
       <c r="F145" s="54"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>14</v>
@@ -3443,7 +3464,7 @@
         <v>1.6723270710631528E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -3464,7 +3485,7 @@
       </c>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3506,7 @@
       </c>
       <c r="G148" s="10"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="54" t="s">
         <v>53</v>
       </c>
@@ -3499,7 +3520,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>16</v>
@@ -3515,7 +3536,7 @@
       </c>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -3537,7 +3558,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>2</v>
       </c>
@@ -3559,8 +3580,8 @@
       </c>
       <c r="J152" s="10"/>
     </row>
-    <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="54" t="s">
         <v>54</v>
       </c>
@@ -3570,7 +3591,7 @@
       <c r="E154" s="54"/>
       <c r="F154" s="54"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
@@ -3592,7 +3613,7 @@
         <v>1.0318142734307825E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -3616,7 +3637,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>2</v>
       </c>
@@ -3637,7 +3658,7 @@
       </c>
       <c r="G157" s="10"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="54" t="s">
         <v>55</v>
       </c>
@@ -3651,7 +3672,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="2" t="s">
         <v>16</v>
@@ -3667,7 +3688,7 @@
       </c>
       <c r="G159" s="10"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
@@ -3690,7 +3711,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
@@ -3709,8 +3730,8 @@
       <c r="H161" s="10"/>
       <c r="J161" s="10"/>
     </row>
-    <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="54" t="s">
         <v>56</v>
       </c>
@@ -3720,7 +3741,7 @@
       <c r="E163" s="54"/>
       <c r="F163" s="54"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="2" t="s">
         <v>14</v>
@@ -3742,7 +3763,7 @@
         <v>3.1867987951281268E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -3764,7 +3785,7 @@
       <c r="G165" s="10"/>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -3785,7 +3806,7 @@
       </c>
       <c r="G166" s="10"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="54" t="s">
         <v>57</v>
       </c>
@@ -3795,7 +3816,7 @@
       <c r="E167" s="54"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="2" t="s">
         <v>16</v>
@@ -3815,7 +3836,7 @@
         <v>1.6155264013878349E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>1</v>
       </c>
@@ -3835,7 +3856,7 @@
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>2</v>
       </c>
@@ -3858,8 +3879,8 @@
       <c r="H170" s="10"/>
       <c r="J170" s="10"/>
     </row>
-    <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="54" t="s">
         <v>58</v>
       </c>
@@ -3869,7 +3890,7 @@
       <c r="E172" s="54"/>
       <c r="F172" s="54"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="2" t="s">
         <v>14</v>
@@ -3891,7 +3912,7 @@
         <v>5.814219658471822E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -3916,7 +3937,7 @@
         <v>-1010</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
@@ -3938,7 +3959,7 @@
       </c>
       <c r="G175" s="10"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="54" t="s">
         <v>59</v>
       </c>
@@ -3948,7 +3969,7 @@
       <c r="E176" s="54"/>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="2" t="s">
         <v>16</v>
@@ -3968,7 +3989,7 @@
         <v>1.9689625371059255E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -3991,7 +4012,7 @@
         <v>-979</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
@@ -4011,8 +4032,8 @@
       <c r="H179" s="10"/>
       <c r="J179" s="10"/>
     </row>
-    <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="54" t="s">
         <v>60</v>
       </c>
@@ -4022,7 +4043,7 @@
       <c r="E181" s="54"/>
       <c r="F181" s="54"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="2" t="s">
         <v>14</v>
@@ -4040,7 +4061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -4066,7 +4087,7 @@
       </c>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
@@ -4087,7 +4108,7 @@
       </c>
       <c r="G184" s="10"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="54" t="s">
         <v>61</v>
       </c>
@@ -4101,7 +4122,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="2" t="s">
         <v>16</v>
@@ -4120,7 +4141,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -4140,7 +4161,7 @@
       <c r="H187" s="10"/>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
@@ -4160,8 +4181,8 @@
       <c r="H188" s="10"/>
       <c r="J188" s="10"/>
     </row>
-    <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="54" t="s">
         <v>62</v>
       </c>
@@ -4171,7 +4192,7 @@
       <c r="E190" s="54"/>
       <c r="F190" s="54"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="2" t="s">
         <v>14</v>
@@ -4193,7 +4214,7 @@
         <v>8.3469250695577084E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -4218,7 +4239,7 @@
         <v>-980</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
@@ -4239,7 +4260,7 @@
       </c>
       <c r="G193" s="10"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="54" t="s">
         <v>63</v>
       </c>
@@ -4256,7 +4277,7 @@
         <v>-862</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="2" t="s">
         <v>16</v>
@@ -4272,7 +4293,7 @@
       </c>
       <c r="G195" s="10"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -4292,7 +4313,7 @@
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
@@ -4312,8 +4333,8 @@
       <c r="H197" s="10"/>
       <c r="J197" s="10"/>
     </row>
-    <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="54" t="s">
         <v>64</v>
       </c>
@@ -4323,7 +4344,7 @@
       <c r="E199" s="54"/>
       <c r="F199" s="54"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
@@ -4345,7 +4366,7 @@
         <v>2.0032904287235073E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -4367,7 +4388,7 @@
       <c r="G201" s="10"/>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>2</v>
       </c>
@@ -4391,7 +4412,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="54" t="s">
         <v>65</v>
       </c>
@@ -4401,7 +4422,7 @@
       <c r="E203" s="54"/>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="2" t="s">
         <v>16</v>
@@ -4417,7 +4438,7 @@
       </c>
       <c r="G204" s="10"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -4439,7 +4460,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
@@ -4459,8 +4480,8 @@
       <c r="H206" s="10"/>
       <c r="J206" s="10"/>
     </row>
-    <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="54" t="s">
         <v>66</v>
       </c>
@@ -4470,7 +4491,7 @@
       <c r="E208" s="54"/>
       <c r="F208" s="54"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="2" t="s">
         <v>14</v>
@@ -4492,7 +4513,7 @@
         <v>3.6279428791972212E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -4517,7 +4538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A211" s="1" t="s">
         <v>2</v>
       </c>
@@ -4543,7 +4564,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="54" t="s">
         <v>67</v>
       </c>
@@ -4557,7 +4578,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="2" t="s">
         <v>16</v>
@@ -4573,7 +4594,7 @@
       </c>
       <c r="G213" s="10"/>
     </row>
-    <row r="214" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
@@ -4593,7 +4614,7 @@
       <c r="H214" s="10"/>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -4613,8 +4634,8 @@
       <c r="H215" s="10"/>
       <c r="J215" s="10"/>
     </row>
-    <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="54" t="s">
         <v>68</v>
       </c>
@@ -4624,7 +4645,7 @@
       <c r="E217" s="54"/>
       <c r="F217" s="54"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="2" t="s">
         <v>14</v>
@@ -4646,7 +4667,7 @@
         <v>9.5799557848194553E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A219" s="1" t="s">
         <v>1</v>
       </c>
@@ -4671,7 +4692,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
@@ -4696,7 +4717,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="54" t="s">
         <v>69</v>
       </c>
@@ -4710,7 +4731,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="2" t="s">
         <v>16</v>
@@ -4726,7 +4747,7 @@
       </c>
       <c r="G222" s="10"/>
     </row>
-    <row r="223" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
@@ -4746,7 +4767,7 @@
       <c r="H223" s="10"/>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
@@ -4766,8 +4787,8 @@
       <c r="H224" s="10"/>
       <c r="J224" s="10"/>
     </row>
-    <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="54" t="s">
         <v>70</v>
       </c>
@@ -4777,7 +4798,7 @@
       <c r="E226" s="54"/>
       <c r="F226" s="54"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="2" t="s">
         <v>14</v>
@@ -4799,7 +4820,7 @@
         <v>1.7531176576902223E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A228" s="1" t="s">
         <v>1</v>
       </c>
@@ -4824,7 +4845,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A229" s="1" t="s">
         <v>2</v>
       </c>
@@ -4847,7 +4868,7 @@
       <c r="H229" s="10"/>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="54" t="s">
         <v>71</v>
       </c>
@@ -4861,7 +4882,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="2" t="s">
         <v>16</v>
@@ -4880,7 +4901,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
@@ -4900,7 +4921,7 @@
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A233" s="1" t="s">
         <v>2</v>
       </c>
@@ -4920,8 +4941,8 @@
       <c r="H233" s="10"/>
       <c r="J233" s="10"/>
     </row>
-    <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="54" t="s">
         <v>72</v>
       </c>
@@ -4931,7 +4952,7 @@
       <c r="E235" s="54"/>
       <c r="F235" s="54"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="2" t="s">
         <v>14</v>
@@ -4953,7 +4974,7 @@
         <v>8.2526013634732689E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A237" s="1" t="s">
         <v>1</v>
       </c>
@@ -4976,7 +4997,7 @@
       <c r="H237" s="13"/>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
@@ -5002,7 +5023,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="54" t="s">
         <v>73</v>
       </c>
@@ -5012,7 +5033,7 @@
       <c r="E239" s="54"/>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="2" t="s">
         <v>16</v>
@@ -5032,7 +5053,7 @@
       </c>
       <c r="G240" s="10"/>
     </row>
-    <row r="241" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -5055,7 +5076,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
@@ -5075,8 +5096,8 @@
       <c r="H242" s="10"/>
       <c r="J242" s="10"/>
     </row>
-    <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="54" t="s">
         <v>74</v>
       </c>
@@ -5086,7 +5107,7 @@
       <c r="E244" s="54"/>
       <c r="F244" s="54"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="2" t="s">
         <v>14</v>
@@ -5108,7 +5129,7 @@
         <v>2.0225523536781816E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A246" s="1" t="s">
         <v>1</v>
       </c>
@@ -5133,7 +5154,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
@@ -5158,7 +5179,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="54" t="s">
         <v>75</v>
       </c>
@@ -5172,7 +5193,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="2" t="s">
         <v>16</v>
@@ -5188,7 +5209,7 @@
       </c>
       <c r="G249" s="10"/>
     </row>
-    <row r="250" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A250" s="1" t="s">
         <v>1</v>
       </c>
@@ -5208,7 +5229,7 @@
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -5228,8 +5249,8 @@
       <c r="H251" s="10"/>
       <c r="J251" s="10"/>
     </row>
-    <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="54" t="s">
         <v>76</v>
       </c>
@@ -5239,7 +5260,7 @@
       <c r="E253" s="54"/>
       <c r="F253" s="54"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="2" t="s">
         <v>14</v>
@@ -5264,7 +5285,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A255" s="1" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +5308,7 @@
       <c r="H255" s="13"/>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A256" s="1" t="s">
         <v>2</v>
       </c>
@@ -5312,7 +5333,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="54" t="s">
         <v>77</v>
       </c>
@@ -5322,7 +5343,7 @@
       <c r="E257" s="54"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="2" t="s">
         <v>16</v>
@@ -5342,7 +5363,7 @@
       </c>
       <c r="G258" s="10"/>
     </row>
-    <row r="259" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A259" s="1" t="s">
         <v>1</v>
       </c>
@@ -5362,7 +5383,7 @@
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A260" s="1" t="s">
         <v>2</v>
       </c>
@@ -5382,8 +5403,8 @@
       <c r="H260" s="10"/>
       <c r="J260" s="10"/>
     </row>
-    <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="54" t="s">
         <v>78</v>
       </c>
@@ -5393,7 +5414,7 @@
       <c r="E262" s="54"/>
       <c r="F262" s="54"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="2" t="s">
         <v>14</v>
@@ -5419,7 +5440,7 @@
         <v>-390</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A264" s="1" t="s">
         <v>1</v>
       </c>
@@ -5442,7 +5463,7 @@
       <c r="H264" s="13"/>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A265" s="1" t="s">
         <v>2</v>
       </c>
@@ -5465,7 +5486,7 @@
       <c r="H265" s="10"/>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="54" t="s">
         <v>79</v>
       </c>
@@ -5483,7 +5504,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="2" t="s">
         <v>16</v>
@@ -5499,7 +5520,7 @@
       </c>
       <c r="G267" s="10"/>
     </row>
-    <row r="268" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A268" s="1" t="s">
         <v>1</v>
       </c>
@@ -5519,7 +5540,7 @@
       <c r="H268" s="10"/>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A269" s="1" t="s">
         <v>2</v>
       </c>
@@ -5539,8 +5560,8 @@
       <c r="H269" s="10"/>
       <c r="J269" s="10"/>
     </row>
-    <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="54" t="s">
         <v>80</v>
       </c>
@@ -5550,7 +5571,7 @@
       <c r="E271" s="54"/>
       <c r="F271" s="54"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="2" t="s">
         <v>14</v>
@@ -5572,7 +5593,7 @@
         <v>2.4131060438344034E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A273" s="1" t="s">
         <v>1</v>
       </c>
@@ -5598,7 +5619,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
@@ -5623,7 +5644,7 @@
       </c>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="54" t="s">
         <v>81</v>
       </c>
@@ -5637,7 +5658,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="2" t="s">
         <v>16</v>
@@ -5653,7 +5674,7 @@
       </c>
       <c r="G276" s="10"/>
     </row>
-    <row r="277" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A277" s="1" t="s">
         <v>1</v>
       </c>
@@ -5673,7 +5694,7 @@
       <c r="H277" s="10"/>
       <c r="I277" s="10"/>
     </row>
-    <row r="278" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A278" s="1" t="s">
         <v>2</v>
       </c>
@@ -5693,8 +5714,8 @@
       <c r="H278" s="10"/>
       <c r="J278" s="10"/>
     </row>
-    <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="54" t="s">
         <v>82</v>
       </c>
@@ -5704,7 +5725,7 @@
       <c r="E280" s="54"/>
       <c r="F280" s="54"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="2" t="s">
         <v>14</v>
@@ -5730,7 +5751,7 @@
         <v>-530</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A282" s="1" t="s">
         <v>1</v>
       </c>
@@ -5753,7 +5774,7 @@
       <c r="H282" s="13"/>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A283" s="1" t="s">
         <v>2</v>
       </c>
@@ -5776,7 +5797,7 @@
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="54" t="s">
         <v>83</v>
       </c>
@@ -5794,7 +5815,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="2" t="s">
         <v>16</v>
@@ -5810,7 +5831,7 @@
       </c>
       <c r="G285" s="10"/>
     </row>
-    <row r="286" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A286" s="1" t="s">
         <v>1</v>
       </c>
@@ -5830,7 +5851,7 @@
       <c r="H286" s="10"/>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
@@ -5850,8 +5871,8 @@
       <c r="H287" s="10"/>
       <c r="J287" s="10"/>
     </row>
-    <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="54" t="s">
         <v>84</v>
       </c>
@@ -5861,7 +5882,7 @@
       <c r="E289" s="54"/>
       <c r="F289" s="54"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="2" t="s">
         <v>14</v>
@@ -5883,7 +5904,7 @@
         <v>2.888410477215644E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A291" s="1" t="s">
         <v>1</v>
       </c>
@@ -5908,7 +5929,7 @@
       </c>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A292" s="1" t="s">
         <v>2</v>
       </c>
@@ -5933,7 +5954,7 @@
       </c>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="54" t="s">
         <v>85</v>
       </c>
@@ -5947,7 +5968,7 @@
       </c>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="2" t="s">
         <v>16</v>
@@ -5963,7 +5984,7 @@
       </c>
       <c r="G294" s="10"/>
     </row>
-    <row r="295" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A295" s="1" t="s">
         <v>1</v>
       </c>
@@ -5983,7 +6004,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A296" s="1" t="s">
         <v>2</v>
       </c>
@@ -6003,8 +6024,8 @@
       <c r="H296" s="10"/>
       <c r="J296" s="10"/>
     </row>
-    <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="54" t="s">
         <v>86</v>
       </c>
@@ -6014,7 +6035,7 @@
       <c r="E298" s="54"/>
       <c r="F298" s="54"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="2" t="s">
         <v>14</v>
@@ -6036,7 +6057,7 @@
         <v>2.2706955122474521E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A300" s="1" t="s">
         <v>1</v>
       </c>
@@ -6062,7 +6083,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A301" s="1" t="s">
         <v>2</v>
       </c>
@@ -6085,7 +6106,7 @@
       <c r="H301" s="10"/>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="54" t="s">
         <v>87</v>
       </c>
@@ -6103,7 +6124,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="2" t="s">
         <v>16</v>
@@ -6119,7 +6140,7 @@
       </c>
       <c r="G303" s="10"/>
     </row>
-    <row r="304" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A304" s="1" t="s">
         <v>1</v>
       </c>
@@ -6139,7 +6160,7 @@
       <c r="H304" s="10"/>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A305" s="1" t="s">
         <v>2</v>
       </c>
@@ -6159,8 +6180,8 @@
       <c r="H305" s="10"/>
       <c r="J305" s="10"/>
     </row>
-    <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="54" t="s">
         <v>89</v>
       </c>
@@ -6170,7 +6191,7 @@
       <c r="E307" s="54"/>
       <c r="F307" s="54"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="2" t="s">
         <v>14</v>
@@ -6192,7 +6213,7 @@
         <v>2.284898250624777E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A309" s="1" t="s">
         <v>1</v>
       </c>
@@ -6218,7 +6239,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A310" s="1" t="s">
         <v>2</v>
       </c>
@@ -6244,7 +6265,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="54" t="s">
         <v>88</v>
       </c>
@@ -6258,7 +6279,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="2" t="s">
         <v>16</v>
@@ -6274,7 +6295,7 @@
       </c>
       <c r="G312" s="10"/>
     </row>
-    <row r="313" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A313" s="1" t="s">
         <v>1</v>
       </c>
@@ -6294,7 +6315,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A314" s="1" t="s">
         <v>2</v>
       </c>
@@ -6314,8 +6335,8 @@
       <c r="H314" s="10"/>
       <c r="J314" s="10"/>
     </row>
-    <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="54" t="s">
         <v>90</v>
       </c>
@@ -6325,7 +6346,7 @@
       <c r="E316" s="54"/>
       <c r="F316" s="54"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="2" t="s">
         <v>14</v>
@@ -6347,7 +6368,7 @@
         <v>3.5097890558801234E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A318" s="1" t="s">
         <v>1</v>
       </c>
@@ -6373,7 +6394,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A319" s="1" t="s">
         <v>2</v>
       </c>
@@ -6396,7 +6417,7 @@
       <c r="H319" s="10"/>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="54" t="s">
         <v>91</v>
       </c>
@@ -6413,7 +6434,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="2" t="s">
         <v>16</v>
@@ -6429,7 +6450,7 @@
       </c>
       <c r="G321" s="10"/>
     </row>
-    <row r="322" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A322" s="1" t="s">
         <v>1</v>
       </c>
@@ -6449,7 +6470,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A323" s="1" t="s">
         <v>2</v>
       </c>
@@ -6469,8 +6490,8 @@
       <c r="H323" s="10"/>
       <c r="J323" s="10"/>
     </row>
-    <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="54" t="s">
         <v>92</v>
       </c>
@@ -6484,7 +6505,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="2" t="s">
         <v>14</v>
@@ -6506,7 +6527,7 @@
         <v>2.4383720411893194E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A327" s="1" t="s">
         <v>1</v>
       </c>
@@ -6529,7 +6550,7 @@
       <c r="H327" s="13"/>
       <c r="I327" s="10"/>
     </row>
-    <row r="328" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A328" s="1" t="s">
         <v>2</v>
       </c>
@@ -6555,7 +6576,7 @@
       </c>
       <c r="I328" s="10"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="54" t="s">
         <v>93</v>
       </c>
@@ -6569,7 +6590,7 @@
       </c>
       <c r="I329" s="10"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="2" t="s">
         <v>16</v>
@@ -6585,7 +6606,7 @@
       </c>
       <c r="G330" s="10"/>
     </row>
-    <row r="331" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A331" s="1" t="s">
         <v>1</v>
       </c>
@@ -6605,7 +6626,7 @@
       <c r="H331" s="10"/>
       <c r="I331" s="10"/>
     </row>
-    <row r="332" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A332" s="1" t="s">
         <v>2</v>
       </c>
@@ -6625,8 +6646,8 @@
       <c r="H332" s="10"/>
       <c r="J332" s="10"/>
     </row>
-    <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="54" t="s">
         <v>94</v>
       </c>
@@ -6636,7 +6657,7 @@
       <c r="E334" s="54"/>
       <c r="F334" s="54"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="2" t="s">
         <v>14</v>
@@ -6658,7 +6679,7 @@
         <v>3.5830040403143457E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A336" s="1" t="s">
         <v>1</v>
       </c>
@@ -6684,7 +6705,7 @@
       </c>
       <c r="I336" s="10"/>
     </row>
-    <row r="337" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A337" s="1" t="s">
         <v>2</v>
       </c>
@@ -6707,7 +6728,7 @@
       <c r="H337" s="10"/>
       <c r="I337" s="10"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="54" t="s">
         <v>95</v>
       </c>
@@ -6721,7 +6742,7 @@
       </c>
       <c r="I338" s="10"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="2" t="s">
         <v>16</v>
@@ -6741,7 +6762,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A340" s="1" t="s">
         <v>1</v>
       </c>
@@ -6761,7 +6782,7 @@
       <c r="H340" s="10"/>
       <c r="I340" s="10"/>
     </row>
-    <row r="341" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A341" s="1" t="s">
         <v>2</v>
       </c>
@@ -6781,8 +6802,8 @@
       <c r="H341" s="10"/>
       <c r="J341" s="10"/>
     </row>
-    <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="54" t="s">
         <v>96</v>
       </c>
@@ -6792,7 +6813,7 @@
       <c r="E343" s="54"/>
       <c r="F343" s="54"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="2" t="s">
         <v>14</v>
@@ -6814,7 +6835,7 @@
         <v>2.3243505491112777E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A345" s="1" t="s">
         <v>1</v>
       </c>
@@ -6840,7 +6861,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A346" s="1" t="s">
         <v>2</v>
       </c>
@@ -6867,7 +6888,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="54" t="s">
         <v>97</v>
       </c>
@@ -6881,7 +6902,7 @@
       </c>
       <c r="I347" s="10"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="2" t="s">
         <v>16</v>
@@ -6897,7 +6918,7 @@
       </c>
       <c r="G348" s="10"/>
     </row>
-    <row r="349" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A349" s="1" t="s">
         <v>1</v>
       </c>
@@ -6917,7 +6938,7 @@
       <c r="H349" s="10"/>
       <c r="I349" s="10"/>
     </row>
-    <row r="350" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A350" s="1" t="s">
         <v>2</v>
       </c>
@@ -6937,8 +6958,8 @@
       <c r="H350" s="10"/>
       <c r="J350" s="10"/>
     </row>
-    <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="54" t="s">
         <v>98</v>
       </c>
@@ -6952,7 +6973,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="2" t="s">
         <v>14</v>
@@ -6974,7 +6995,7 @@
         <v>2.0843101317079407E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A354" s="1" t="s">
         <v>1</v>
       </c>
@@ -6997,7 +7018,7 @@
       <c r="H354" s="13"/>
       <c r="I354" s="10"/>
     </row>
-    <row r="355" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A355" s="1" t="s">
         <v>2</v>
       </c>
@@ -7020,7 +7041,7 @@
       <c r="H355" s="10"/>
       <c r="I355" s="10"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="54" t="s">
         <v>99</v>
       </c>
@@ -7034,7 +7055,7 @@
       </c>
       <c r="I356" s="10"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2" t="s">
         <v>16</v>
@@ -7050,7 +7071,7 @@
       </c>
       <c r="G357" s="10"/>
     </row>
-    <row r="358" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A358" s="1" t="s">
         <v>1</v>
       </c>
@@ -7073,7 +7094,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A359" s="1" t="s">
         <v>2</v>
       </c>
@@ -7093,8 +7114,8 @@
       <c r="H359" s="10"/>
       <c r="J359" s="10"/>
     </row>
-    <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="54" t="s">
         <v>100</v>
       </c>
@@ -7104,7 +7125,7 @@
       <c r="E361" s="54"/>
       <c r="F361" s="54"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="2" t="s">
         <v>14</v>
@@ -7126,7 +7147,7 @@
         <v>4.1835472728048106E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A363" s="1" t="s">
         <v>1</v>
       </c>
@@ -7152,7 +7173,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A364" s="1" t="s">
         <v>2</v>
       </c>
@@ -7175,7 +7196,7 @@
       <c r="H364" s="10"/>
       <c r="I364" s="10"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="54" t="s">
         <v>99</v>
       </c>
@@ -7185,7 +7206,7 @@
       <c r="E365" s="54"/>
       <c r="I365" s="10"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="2" t="s">
         <v>16</v>
@@ -7205,7 +7226,7 @@
       </c>
       <c r="G366" s="10"/>
     </row>
-    <row r="367" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A367" s="1" t="s">
         <v>1</v>
       </c>
@@ -7225,7 +7246,7 @@
       <c r="H367" s="10"/>
       <c r="I367" s="10"/>
     </row>
-    <row r="368" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A368" s="1" t="s">
         <v>2</v>
       </c>
@@ -7249,8 +7270,8 @@
       </c>
       <c r="J368" s="10"/>
     </row>
-    <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="54" t="s">
         <v>101</v>
       </c>
@@ -7260,7 +7281,7 @@
       <c r="E370" s="54"/>
       <c r="F370" s="54"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="2" t="s">
         <v>14</v>
@@ -7282,7 +7303,7 @@
         <v>1.4783797641428816E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A372" s="1" t="s">
         <v>1</v>
       </c>
@@ -7308,7 +7329,7 @@
       </c>
       <c r="I372" s="10"/>
     </row>
-    <row r="373" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A373" s="1" t="s">
         <v>2</v>
       </c>
@@ -7331,7 +7352,7 @@
       <c r="H373" s="10"/>
       <c r="I373" s="10"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="54" t="s">
         <v>102</v>
       </c>
@@ -7345,7 +7366,7 @@
       </c>
       <c r="I374" s="10"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="2" t="s">
         <v>16</v>
@@ -7365,7 +7386,7 @@
         <v>-961</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A376" s="1" t="s">
         <v>1</v>
       </c>
@@ -7385,7 +7406,7 @@
       <c r="H376" s="10"/>
       <c r="I376" s="10"/>
     </row>
-    <row r="377" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A377" s="1" t="s">
         <v>2</v>
       </c>
@@ -7405,8 +7426,8 @@
       <c r="H377" s="10"/>
       <c r="J377" s="10"/>
     </row>
-    <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="54" t="s">
         <v>103</v>
       </c>
@@ -7420,7 +7441,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="2" t="s">
         <v>14</v>
@@ -7442,7 +7463,7 @@
         <v>2.0599250936329586E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A381" s="1" t="s">
         <v>1</v>
       </c>
@@ -7465,7 +7486,7 @@
       <c r="H381" s="13"/>
       <c r="I381" s="10"/>
     </row>
-    <row r="382" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A382" s="1" t="s">
         <v>2</v>
       </c>
@@ -7488,7 +7509,7 @@
       <c r="H382" s="10"/>
       <c r="I382" s="10"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="54" t="s">
         <v>104</v>
       </c>
@@ -7502,7 +7523,7 @@
       </c>
       <c r="I383" s="10"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="2" t="s">
         <v>16</v>
@@ -7522,7 +7543,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A385" s="1" t="s">
         <v>1</v>
       </c>
@@ -7542,7 +7563,7 @@
       <c r="H385" s="10"/>
       <c r="I385" s="10"/>
     </row>
-    <row r="386" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A386" s="1" t="s">
         <v>2</v>
       </c>
@@ -7562,8 +7583,8 @@
       <c r="H386" s="10"/>
       <c r="J386" s="10"/>
     </row>
-    <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="54" t="s">
         <v>105</v>
       </c>
@@ -7573,7 +7594,7 @@
       <c r="E388" s="54"/>
       <c r="F388" s="54"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="2" t="s">
         <v>14</v>
@@ -7599,7 +7620,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A390" s="1" t="s">
         <v>1</v>
       </c>
@@ -7622,7 +7643,7 @@
       <c r="H390" s="13"/>
       <c r="I390" s="10"/>
     </row>
-    <row r="391" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A391" s="1" t="s">
         <v>2</v>
       </c>
@@ -7645,7 +7666,7 @@
       <c r="H391" s="10"/>
       <c r="I391" s="10"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="54" t="s">
         <v>106</v>
       </c>
@@ -7663,7 +7684,7 @@
       </c>
       <c r="I392" s="10"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="2" t="s">
         <v>16</v>
@@ -7679,7 +7700,7 @@
       </c>
       <c r="G393" s="10"/>
     </row>
-    <row r="394" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A394" s="1" t="s">
         <v>1</v>
       </c>
@@ -7699,7 +7720,7 @@
       <c r="H394" s="10"/>
       <c r="I394" s="10"/>
     </row>
-    <row r="395" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A395" s="1" t="s">
         <v>2</v>
       </c>
@@ -7719,8 +7740,8 @@
       <c r="H395" s="10"/>
       <c r="J395" s="10"/>
     </row>
-    <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="54" t="s">
         <v>107</v>
       </c>
@@ -7734,7 +7755,7 @@
         <v>1.6681599044327831E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="2" t="s">
         <v>14</v>
@@ -7755,7 +7776,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A399" s="1" t="s">
         <v>1</v>
       </c>
@@ -7781,7 +7802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A400" s="1" t="s">
         <v>2</v>
       </c>
@@ -7804,7 +7825,7 @@
       <c r="H400" s="10"/>
       <c r="I400" s="10"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="54" t="s">
         <v>108</v>
       </c>
@@ -7818,7 +7839,7 @@
       </c>
       <c r="I401" s="10"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="2" t="s">
         <v>16</v>
@@ -7834,7 +7855,7 @@
       </c>
       <c r="G402" s="10"/>
     </row>
-    <row r="403" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A403" s="1" t="s">
         <v>1</v>
       </c>
@@ -7854,7 +7875,7 @@
       <c r="H403" s="10"/>
       <c r="I403" s="10"/>
     </row>
-    <row r="404" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A404" s="1" t="s">
         <v>2</v>
       </c>
@@ -7874,8 +7895,8 @@
       <c r="H404" s="10"/>
       <c r="J404" s="10"/>
     </row>
-    <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="54" t="s">
         <v>109</v>
       </c>
@@ -7889,7 +7910,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="2" t="s">
         <v>14</v>
@@ -7911,7 +7932,7 @@
         <v>1.6791044776119403E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A408" s="1" t="s">
         <v>1</v>
       </c>
@@ -7934,7 +7955,7 @@
       <c r="H408" s="13"/>
       <c r="I408" s="10"/>
     </row>
-    <row r="409" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A409" s="1" t="s">
         <v>2</v>
       </c>
@@ -7957,7 +7978,7 @@
       <c r="H409" s="10"/>
       <c r="I409" s="10"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="54" t="s">
         <v>110</v>
       </c>
@@ -7971,7 +7992,7 @@
       </c>
       <c r="I410" s="10"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2" t="s">
         <v>16</v>
@@ -7991,7 +8012,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A412" s="1" t="s">
         <v>1</v>
       </c>
@@ -8011,7 +8032,7 @@
       <c r="H412" s="10"/>
       <c r="I412" s="10"/>
     </row>
-    <row r="413" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A413" s="1" t="s">
         <v>2</v>
       </c>
@@ -8031,8 +8052,8 @@
       <c r="H413" s="10"/>
       <c r="J413" s="10"/>
     </row>
-    <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="54" t="s">
         <v>111</v>
       </c>
@@ -8046,7 +8067,7 @@
         <v>1.4874628134296642E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="2" t="s">
         <v>14</v>
@@ -8068,7 +8089,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A417" s="1" t="s">
         <v>1</v>
       </c>
@@ -8091,7 +8112,7 @@
       <c r="H417" s="13"/>
       <c r="I417" s="10"/>
     </row>
-    <row r="418" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A418" s="1" t="s">
         <v>2</v>
       </c>
@@ -8117,7 +8138,7 @@
       </c>
       <c r="I418" s="10"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="54" t="s">
         <v>112</v>
       </c>
@@ -8131,7 +8152,7 @@
       </c>
       <c r="I419" s="10"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="2" t="s">
         <v>16</v>
@@ -8147,7 +8168,7 @@
       </c>
       <c r="G420" s="10"/>
     </row>
-    <row r="421" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A421" s="1" t="s">
         <v>1</v>
       </c>
@@ -8167,7 +8188,7 @@
       <c r="H421" s="10"/>
       <c r="I421" s="10"/>
     </row>
-    <row r="422" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A422" s="1" t="s">
         <v>2</v>
       </c>
@@ -8187,8 +8208,8 @@
       <c r="H422" s="10"/>
       <c r="J422" s="10"/>
     </row>
-    <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="54" t="s">
         <v>113</v>
       </c>
@@ -8202,7 +8223,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2" t="s">
         <v>14</v>
@@ -8224,7 +8245,7 @@
         <v>2.5662778366914104E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A426" s="1" t="s">
         <v>1</v>
       </c>
@@ -8247,7 +8268,7 @@
       <c r="H426" s="13"/>
       <c r="I426" s="10"/>
     </row>
-    <row r="427" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A427" s="1" t="s">
         <v>2</v>
       </c>
@@ -8270,7 +8291,7 @@
       <c r="H427" s="10"/>
       <c r="I427" s="10"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="54" t="s">
         <v>114</v>
       </c>
@@ -8280,7 +8301,7 @@
       <c r="E428" s="54"/>
       <c r="I428" s="10"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="2" t="s">
         <v>16</v>
@@ -8300,7 +8321,7 @@
         <v>1.994153267905617E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A430" s="1" t="s">
         <v>1</v>
       </c>
@@ -8323,7 +8344,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A431" s="1" t="s">
         <v>2</v>
       </c>
@@ -8343,8 +8364,8 @@
       <c r="H431" s="10"/>
       <c r="J431" s="10"/>
     </row>
-    <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="54" t="s">
         <v>115</v>
       </c>
@@ -8358,7 +8379,7 @@
         <v>1.7408615358549706E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="2" t="s">
         <v>14</v>
@@ -8380,7 +8401,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A435" s="1" t="s">
         <v>1</v>
       </c>
@@ -8403,7 +8424,7 @@
       <c r="H435" s="13"/>
       <c r="I435" s="10"/>
     </row>
-    <row r="436" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A436" s="1" t="s">
         <v>2</v>
       </c>
@@ -8426,7 +8447,7 @@
       <c r="H436" s="10"/>
       <c r="I436" s="10"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="54" t="s">
         <v>116</v>
       </c>
@@ -8440,7 +8461,7 @@
       </c>
       <c r="I437" s="10"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="2" t="s">
         <v>16</v>
@@ -8460,7 +8481,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A439" s="1" t="s">
         <v>1</v>
       </c>
@@ -8480,7 +8501,7 @@
       <c r="H439" s="10"/>
       <c r="I439" s="10"/>
     </row>
-    <row r="440" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A440" s="1" t="s">
         <v>2</v>
       </c>
@@ -8500,8 +8521,8 @@
       <c r="H440" s="10"/>
       <c r="J440" s="10"/>
     </row>
-    <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="54" t="s">
         <v>117</v>
       </c>
@@ -8515,7 +8536,7 @@
         <v>1.0817975798520545E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="2" t="s">
         <v>14</v>
@@ -8537,7 +8558,7 @@
         <v>-380</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A444" s="1" t="s">
         <v>1</v>
       </c>
@@ -8561,7 +8582,7 @@
       <c r="H444" s="13"/>
       <c r="I444" s="10"/>
     </row>
-    <row r="445" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A445" s="1" t="s">
         <v>2</v>
       </c>
@@ -8588,7 +8609,7 @@
       </c>
       <c r="I445" s="10"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="54" t="s">
         <v>118</v>
       </c>
@@ -8602,7 +8623,7 @@
       </c>
       <c r="I446" s="10"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="2" t="s">
         <v>16</v>
@@ -8618,7 +8639,7 @@
       </c>
       <c r="G447" s="10"/>
     </row>
-    <row r="448" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A448" s="1" t="s">
         <v>1</v>
       </c>
@@ -8638,7 +8659,7 @@
       <c r="H448" s="10"/>
       <c r="I448" s="10"/>
     </row>
-    <row r="449" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A449" s="1" t="s">
         <v>2</v>
       </c>
@@ -8658,8 +8679,8 @@
       <c r="H449" s="10"/>
       <c r="J449" s="10"/>
     </row>
-    <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="54" t="s">
         <v>119</v>
       </c>
@@ -8677,7 +8698,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="2" t="s">
         <v>14</v>
@@ -8695,7 +8716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A453" s="1" t="s">
         <v>1</v>
       </c>
@@ -8718,7 +8739,7 @@
       <c r="H453" s="13"/>
       <c r="I453" s="10"/>
     </row>
-    <row r="454" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A454" s="1" t="s">
         <v>2</v>
       </c>
@@ -8741,7 +8762,7 @@
       <c r="H454" s="10"/>
       <c r="I454" s="10"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="54" t="s">
         <v>120</v>
       </c>
@@ -8755,7 +8776,7 @@
       </c>
       <c r="I455" s="10"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="2" t="s">
         <v>16</v>
@@ -8771,7 +8792,7 @@
       </c>
       <c r="G456" s="10"/>
     </row>
-    <row r="457" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A457" s="1" t="s">
         <v>1</v>
       </c>
@@ -8794,7 +8815,7 @@
       </c>
       <c r="I457" s="10"/>
     </row>
-    <row r="458" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A458" s="1" t="s">
         <v>2</v>
       </c>
@@ -8814,8 +8835,8 @@
       <c r="H458" s="10"/>
       <c r="J458" s="10"/>
     </row>
-    <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="54" t="s">
         <v>121</v>
       </c>
@@ -8829,7 +8850,7 @@
         <v>1.5754384474924624E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="2" t="s">
         <v>14</v>
@@ -8851,7 +8872,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A462" s="1" t="s">
         <v>1</v>
       </c>
@@ -8874,7 +8895,7 @@
       <c r="H462" s="13"/>
       <c r="I462" s="10"/>
     </row>
-    <row r="463" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A463" s="1" t="s">
         <v>2</v>
       </c>
@@ -8897,7 +8918,7 @@
       <c r="H463" s="10"/>
       <c r="I463" s="10"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="54" t="s">
         <v>122</v>
       </c>
@@ -8911,7 +8932,7 @@
       </c>
       <c r="I464" s="10"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="2" t="s">
         <v>16</v>
@@ -8931,7 +8952,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A466" s="1" t="s">
         <v>1</v>
       </c>
@@ -8951,7 +8972,7 @@
       <c r="H466" s="10"/>
       <c r="I466" s="10"/>
     </row>
-    <row r="467" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A467" s="1" t="s">
         <v>2</v>
       </c>
@@ -8971,8 +8992,8 @@
       <c r="H467" s="10"/>
       <c r="J467" s="10"/>
     </row>
-    <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="54" t="s">
         <v>123</v>
       </c>
@@ -8986,7 +9007,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2" t="s">
         <v>14</v>
@@ -9008,7 +9029,7 @@
         <v>1.9594537280515734E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A471" s="1" t="s">
         <v>1</v>
       </c>
@@ -9031,7 +9052,7 @@
       <c r="H471" s="13"/>
       <c r="I471" s="10"/>
     </row>
-    <row r="472" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A472" s="1" t="s">
         <v>2</v>
       </c>
@@ -9054,7 +9075,7 @@
       <c r="H472" s="10"/>
       <c r="I472" s="10"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="54" t="s">
         <v>124</v>
       </c>
@@ -9068,7 +9089,7 @@
       </c>
       <c r="I473" s="10"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="2" t="s">
         <v>16</v>
@@ -9088,7 +9109,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A475" s="1" t="s">
         <v>1</v>
       </c>
@@ -9108,7 +9129,7 @@
       <c r="H475" s="10"/>
       <c r="I475" s="10"/>
     </row>
-    <row r="476" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A476" s="1" t="s">
         <v>2</v>
       </c>
@@ -9128,8 +9149,8 @@
       <c r="H476" s="10"/>
       <c r="J476" s="10"/>
     </row>
-    <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="54" t="s">
         <v>125</v>
       </c>
@@ -9143,7 +9164,7 @@
         <v>2.2910479422995334E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="2" t="s">
         <v>14</v>
@@ -9165,7 +9186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A480" s="1" t="s">
         <v>1</v>
       </c>
@@ -9188,7 +9209,7 @@
       <c r="H480" s="13"/>
       <c r="I480" s="10"/>
     </row>
-    <row r="481" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A481" s="1" t="s">
         <v>2</v>
       </c>
@@ -9211,7 +9232,7 @@
       <c r="H481" s="10"/>
       <c r="I481" s="10"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="54" t="s">
         <v>126</v>
       </c>
@@ -9226,7 +9247,7 @@
       </c>
       <c r="I482" s="10"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="2" t="s">
         <v>16</v>
@@ -9247,7 +9268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A484" s="1" t="s">
         <v>1</v>
       </c>
@@ -9267,7 +9288,7 @@
       <c r="H484" s="10"/>
       <c r="I484" s="10"/>
     </row>
-    <row r="485" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A485" s="1" t="s">
         <v>2</v>
       </c>
@@ -9288,8 +9309,8 @@
       <c r="H485" s="10"/>
       <c r="J485" s="10"/>
     </row>
-    <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="54" t="s">
         <v>127</v>
       </c>
@@ -9303,7 +9324,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="2" t="s">
         <v>14</v>
@@ -9325,7 +9346,7 @@
         <v>2.6571067060312106E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A489" s="1" t="s">
         <v>1</v>
       </c>
@@ -9348,7 +9369,7 @@
       <c r="H489" s="13"/>
       <c r="I489" s="10"/>
     </row>
-    <row r="490" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A490" s="1" t="s">
         <v>2</v>
       </c>
@@ -9371,7 +9392,7 @@
       <c r="H490" s="10"/>
       <c r="I490" s="10"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="54" t="s">
         <v>130</v>
       </c>
@@ -9386,7 +9407,7 @@
       </c>
       <c r="I491" s="10"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="2" t="s">
         <v>16</v>
@@ -9403,7 +9424,7 @@
       <c r="F492" s="35"/>
       <c r="G492" s="10"/>
     </row>
-    <row r="493" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A493" s="1" t="s">
         <v>1</v>
       </c>
@@ -9426,7 +9447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A494" s="1" t="s">
         <v>2</v>
       </c>
@@ -9447,8 +9468,8 @@
       <c r="H494" s="10"/>
       <c r="J494" s="10"/>
     </row>
-    <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="54" t="s">
         <v>128</v>
       </c>
@@ -9458,7 +9479,7 @@
       <c r="E496" s="54"/>
       <c r="F496" s="54"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="2" t="s">
         <v>14</v>
@@ -9484,7 +9505,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A498" s="1" t="s">
         <v>1</v>
       </c>
@@ -9507,7 +9528,7 @@
       <c r="H498" s="13"/>
       <c r="I498" s="10"/>
     </row>
-    <row r="499" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A499" s="1" t="s">
         <v>2</v>
       </c>
@@ -9530,7 +9551,7 @@
       <c r="H499" s="10"/>
       <c r="I499" s="10"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="54" t="s">
         <v>129</v>
       </c>
@@ -9545,7 +9566,7 @@
       </c>
       <c r="I500" s="10"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="2" t="s">
         <v>16</v>
@@ -9566,7 +9587,7 @@
         <v>-351</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A502" s="1" t="s">
         <v>1</v>
       </c>
@@ -9586,7 +9607,7 @@
       <c r="H502" s="10"/>
       <c r="I502" s="10"/>
     </row>
-    <row r="503" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A503" s="1" t="s">
         <v>2</v>
       </c>
@@ -9607,8 +9628,8 @@
       <c r="H503" s="10"/>
       <c r="J503" s="10"/>
     </row>
-    <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="54" t="s">
         <v>131</v>
       </c>
@@ -9626,7 +9647,7 @@
         <v>-460</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="2" t="s">
         <v>14</v>
@@ -9644,7 +9665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A507" s="1" t="s">
         <v>1</v>
       </c>
@@ -9667,7 +9688,7 @@
       <c r="H507" s="13"/>
       <c r="I507" s="10"/>
     </row>
-    <row r="508" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A508" s="1" t="s">
         <v>2</v>
       </c>
@@ -9691,7 +9712,7 @@
       <c r="H508" s="10"/>
       <c r="I508" s="10"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="54" t="s">
         <v>133</v>
       </c>
@@ -9706,7 +9727,7 @@
       </c>
       <c r="I509" s="10"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="2" t="s">
         <v>16</v>
@@ -9723,7 +9744,7 @@
       <c r="F510" s="35"/>
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A511" s="1" t="s">
         <v>1</v>
       </c>
@@ -9750,7 +9771,7 @@
         <v>-3.2072596287060127E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A512" s="1" t="s">
         <v>2</v>
       </c>
@@ -9771,8 +9792,8 @@
       <c r="H512" s="10"/>
       <c r="J512" s="10"/>
     </row>
-    <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="54" t="s">
         <v>132</v>
       </c>
@@ -9782,7 +9803,7 @@
       <c r="E514" s="54"/>
       <c r="F514" s="54"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="2" t="s">
         <v>14</v>
@@ -9804,7 +9825,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A516" s="1" t="s">
         <v>1</v>
       </c>
@@ -9827,7 +9848,7 @@
       <c r="H516" s="13"/>
       <c r="I516" s="10"/>
     </row>
-    <row r="517" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A517" s="1" t="s">
         <v>2</v>
       </c>
@@ -9850,7 +9871,7 @@
       <c r="H517" s="10"/>
       <c r="I517" s="10"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="54" t="s">
         <v>134</v>
       </c>
@@ -9861,7 +9882,7 @@
       <c r="F518" s="34"/>
       <c r="I518" s="10"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="2" t="s">
         <v>16</v>
@@ -9878,7 +9899,7 @@
       <c r="F519" s="35"/>
       <c r="G519" s="10"/>
     </row>
-    <row r="520" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A520" s="1" t="s">
         <v>1</v>
       </c>
@@ -9901,7 +9922,7 @@
       </c>
       <c r="I520" s="10"/>
     </row>
-    <row r="521" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A521" s="1" t="s">
         <v>2</v>
       </c>
@@ -9922,8 +9943,8 @@
       <c r="H521" s="10"/>
       <c r="J521" s="10"/>
     </row>
-    <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="54" t="s">
         <v>135</v>
       </c>
@@ -9933,7 +9954,7 @@
       <c r="E523" s="54"/>
       <c r="F523" s="54"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="2" t="s">
         <v>14</v>
@@ -9951,7 +9972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A525" s="1" t="s">
         <v>1</v>
       </c>
@@ -9974,7 +9995,7 @@
       <c r="H525" s="13"/>
       <c r="I525" s="10"/>
     </row>
-    <row r="526" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A526" s="1" t="s">
         <v>2</v>
       </c>
@@ -9998,7 +10019,7 @@
       <c r="H526" s="10"/>
       <c r="I526" s="10"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="54" t="s">
         <v>136</v>
       </c>
@@ -10009,7 +10030,7 @@
       <c r="F527" s="34"/>
       <c r="I527" s="10"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="2" t="s">
         <v>16</v>
@@ -10026,7 +10047,7 @@
       <c r="F528" s="35"/>
       <c r="G528" s="10"/>
     </row>
-    <row r="529" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A529" s="1" t="s">
         <v>1</v>
       </c>
@@ -10046,7 +10067,7 @@
       <c r="H529" s="10"/>
       <c r="I529" s="10"/>
     </row>
-    <row r="530" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A530" s="1" t="s">
         <v>2</v>
       </c>
@@ -10067,8 +10088,8 @@
       <c r="H530" s="10"/>
       <c r="J530" s="10"/>
     </row>
-    <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="54" t="s">
         <v>137</v>
       </c>
@@ -10078,7 +10099,7 @@
       <c r="E534" s="54"/>
       <c r="F534" s="54"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="2" t="s">
         <v>14</v>
@@ -10096,7 +10117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A536" s="1" t="s">
         <v>1</v>
       </c>
@@ -10108,7 +10129,7 @@
       <c r="H536" s="13"/>
       <c r="I536" s="10"/>
     </row>
-    <row r="537" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A537" s="1" t="s">
         <v>2</v>
       </c>
@@ -10120,7 +10141,7 @@
       <c r="H537" s="10"/>
       <c r="I537" s="10"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="54" t="s">
         <v>138</v>
       </c>
@@ -10131,7 +10152,7 @@
       <c r="F538" s="34"/>
       <c r="I538" s="10"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="2" t="s">
         <v>16</v>
@@ -10148,7 +10169,7 @@
       <c r="F539" s="35"/>
       <c r="G539" s="10"/>
     </row>
-    <row r="540" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A540" s="1" t="s">
         <v>1</v>
       </c>
@@ -10160,7 +10181,7 @@
       <c r="H540" s="10"/>
       <c r="I540" s="10"/>
     </row>
-    <row r="541" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A541" s="1" t="s">
         <v>2</v>
       </c>
@@ -10173,8 +10194,8 @@
       <c r="H541" s="10"/>
       <c r="J541" s="10"/>
     </row>
-    <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="54" t="s">
         <v>139</v>
       </c>
@@ -10184,7 +10205,7 @@
       <c r="E545" s="54"/>
       <c r="F545" s="54"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="2" t="s">
         <v>14</v>
@@ -10202,7 +10223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A547" s="1" t="s">
         <v>1</v>
       </c>
@@ -10221,7 +10242,7 @@
       <c r="H547" s="13"/>
       <c r="I547" s="10"/>
     </row>
-    <row r="548" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A548" s="1" t="s">
         <v>2</v>
       </c>
@@ -10237,7 +10258,7 @@
       <c r="H548" s="10"/>
       <c r="I548" s="10"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="54" t="s">
         <v>140</v>
       </c>
@@ -10248,7 +10269,7 @@
       <c r="F549" s="34"/>
       <c r="I549" s="10"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="2" t="s">
         <v>16</v>
@@ -10265,7 +10286,7 @@
       <c r="F550" s="35"/>
       <c r="G550" s="10"/>
     </row>
-    <row r="551" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A551" s="1" t="s">
         <v>1</v>
       </c>
@@ -10281,7 +10302,7 @@
       <c r="H551" s="10"/>
       <c r="I551" s="10"/>
     </row>
-    <row r="552" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A552" s="1" t="s">
         <v>2</v>
       </c>
@@ -10298,8 +10319,8 @@
       <c r="H552" s="10"/>
       <c r="J552" s="10"/>
     </row>
-    <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="54" t="s">
         <v>141</v>
       </c>
@@ -10309,7 +10330,7 @@
       <c r="E556" s="54"/>
       <c r="F556" s="54"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="2" t="s">
         <v>14</v>
@@ -10335,7 +10356,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A558" s="1" t="s">
         <v>1</v>
       </c>
@@ -10358,7 +10379,7 @@
       <c r="H558" s="13"/>
       <c r="I558" s="10"/>
     </row>
-    <row r="559" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A559" s="1" t="s">
         <v>2</v>
       </c>
@@ -10382,7 +10403,7 @@
       <c r="H559" s="10"/>
       <c r="I559" s="10"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="54" t="s">
         <v>142</v>
       </c>
@@ -10393,7 +10414,7 @@
       <c r="F560" s="34"/>
       <c r="I560" s="10"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2" t="s">
         <v>16</v>
@@ -10410,7 +10431,7 @@
       <c r="F561" s="35"/>
       <c r="G561" s="10"/>
     </row>
-    <row r="562" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A562" s="1" t="s">
         <v>1</v>
       </c>
@@ -10430,7 +10451,7 @@
       <c r="H562" s="10"/>
       <c r="I562" s="10"/>
     </row>
-    <row r="563" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A563" s="1" t="s">
         <v>2</v>
       </c>
@@ -10451,8 +10472,8 @@
       <c r="H563" s="10"/>
       <c r="J563" s="10"/>
     </row>
-    <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="54" t="s">
         <v>143</v>
       </c>
@@ -10462,7 +10483,7 @@
       <c r="E566" s="54"/>
       <c r="F566" s="54"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="2" t="s">
         <v>14</v>
@@ -10480,7 +10501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A568" s="1" t="s">
         <v>1</v>
       </c>
@@ -10503,7 +10524,7 @@
       <c r="H568" s="13"/>
       <c r="I568" s="10"/>
     </row>
-    <row r="569" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A569" s="1" t="s">
         <v>2</v>
       </c>
@@ -10526,7 +10547,7 @@
       <c r="H569" s="10"/>
       <c r="I569" s="10"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="54" t="s">
         <v>144</v>
       </c>
@@ -10537,7 +10558,7 @@
       <c r="F570" s="34"/>
       <c r="I570" s="10"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="2" t="s">
         <v>16</v>
@@ -10554,7 +10575,7 @@
       <c r="F571" s="35"/>
       <c r="G571" s="10"/>
     </row>
-    <row r="572" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A572" s="1" t="s">
         <v>1</v>
       </c>
@@ -10574,7 +10595,7 @@
       <c r="H572" s="10"/>
       <c r="I572" s="10"/>
     </row>
-    <row r="573" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A573" s="1" t="s">
         <v>2</v>
       </c>
@@ -10595,8 +10616,8 @@
       <c r="H573" s="10"/>
       <c r="J573" s="10"/>
     </row>
-    <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="54" t="s">
         <v>145</v>
       </c>
@@ -10606,7 +10627,7 @@
       <c r="E576" s="54"/>
       <c r="F576" s="54"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="2" t="s">
         <v>14</v>
@@ -10624,7 +10645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A578" s="1" t="s">
         <v>1</v>
       </c>
@@ -10647,7 +10668,7 @@
       <c r="H578" s="13"/>
       <c r="I578" s="10"/>
     </row>
-    <row r="579" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A579" s="1" t="s">
         <v>2</v>
       </c>
@@ -10670,7 +10691,7 @@
       <c r="H579" s="10"/>
       <c r="I579" s="10"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="54" t="s">
         <v>146</v>
       </c>
@@ -10681,7 +10702,7 @@
       <c r="F580" s="34"/>
       <c r="I580" s="10"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="2" t="s">
         <v>16</v>
@@ -10698,7 +10719,7 @@
       <c r="F581" s="35"/>
       <c r="G581" s="10"/>
     </row>
-    <row r="582" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A582" s="1" t="s">
         <v>1</v>
       </c>
@@ -10718,7 +10739,7 @@
       <c r="H582" s="10"/>
       <c r="I582" s="10"/>
     </row>
-    <row r="583" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A583" s="1" t="s">
         <v>2</v>
       </c>
@@ -10739,8 +10760,8 @@
       <c r="H583" s="10"/>
       <c r="J583" s="10"/>
     </row>
-    <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="54" t="s">
         <v>147</v>
       </c>
@@ -10750,7 +10771,7 @@
       <c r="E586" s="54"/>
       <c r="F586" s="54"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="2" t="s">
         <v>14</v>
@@ -10768,7 +10789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A588" s="1" t="s">
         <v>1</v>
       </c>
@@ -10791,7 +10812,7 @@
       <c r="H588" s="13"/>
       <c r="I588" s="10"/>
     </row>
-    <row r="589" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A589" s="1" t="s">
         <v>2</v>
       </c>
@@ -10814,7 +10835,7 @@
       <c r="H589" s="10"/>
       <c r="I589" s="10"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="54" t="s">
         <v>148</v>
       </c>
@@ -10825,7 +10846,7 @@
       <c r="F590" s="34"/>
       <c r="I590" s="10"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="2" t="s">
         <v>16</v>
@@ -10842,7 +10863,7 @@
       <c r="F591" s="35"/>
       <c r="G591" s="10"/>
     </row>
-    <row r="592" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A592" s="1" t="s">
         <v>1</v>
       </c>
@@ -10862,7 +10883,7 @@
       <c r="H592" s="10"/>
       <c r="I592" s="10"/>
     </row>
-    <row r="593" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A593" s="1" t="s">
         <v>2</v>
       </c>
@@ -10883,8 +10904,8 @@
       <c r="H593" s="10"/>
       <c r="J593" s="10"/>
     </row>
-    <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="54" t="s">
         <v>149</v>
       </c>
@@ -10898,7 +10919,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="2" t="s">
         <v>14</v>
@@ -10920,7 +10941,7 @@
         <v>1.0597880423915218E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A598" s="1" t="s">
         <v>1</v>
       </c>
@@ -10943,7 +10964,7 @@
       <c r="H598" s="13"/>
       <c r="I598" s="10"/>
     </row>
-    <row r="599" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A599" s="1" t="s">
         <v>2</v>
       </c>
@@ -10966,7 +10987,7 @@
       <c r="H599" s="10"/>
       <c r="I599" s="10"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="54" t="s">
         <v>150</v>
       </c>
@@ -10984,7 +11005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="2" t="s">
         <v>16</v>
@@ -11001,7 +11022,7 @@
       <c r="F601" s="35"/>
       <c r="G601" s="10"/>
     </row>
-    <row r="602" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A602" s="1" t="s">
         <v>1</v>
       </c>
@@ -11021,7 +11042,7 @@
       <c r="H602" s="10"/>
       <c r="I602" s="10"/>
     </row>
-    <row r="603" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A603" s="1" t="s">
         <v>2</v>
       </c>
@@ -11042,8 +11063,8 @@
       <c r="H603" s="10"/>
       <c r="J603" s="10"/>
     </row>
-    <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" s="54" t="s">
         <v>151</v>
       </c>
@@ -11053,7 +11074,7 @@
       <c r="E606" s="54"/>
       <c r="F606" s="54"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="2" t="s">
         <v>14</v>
@@ -11071,7 +11092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A608" s="1" t="s">
         <v>1</v>
       </c>
@@ -11094,7 +11115,7 @@
       <c r="H608" s="13"/>
       <c r="I608" s="10"/>
     </row>
-    <row r="609" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A609" s="1" t="s">
         <v>2</v>
       </c>
@@ -11117,7 +11138,7 @@
       <c r="H609" s="10"/>
       <c r="I609" s="10"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" s="54" t="s">
         <v>152</v>
       </c>
@@ -11128,7 +11149,7 @@
       <c r="F610" s="34"/>
       <c r="I610" s="10"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="2" t="s">
         <v>16</v>
@@ -11145,7 +11166,7 @@
       <c r="F611" s="35"/>
       <c r="G611" s="10"/>
     </row>
-    <row r="612" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A612" s="1" t="s">
         <v>1</v>
       </c>
@@ -11165,7 +11186,7 @@
       <c r="H612" s="10"/>
       <c r="I612" s="10"/>
     </row>
-    <row r="613" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A613" s="1" t="s">
         <v>2</v>
       </c>
@@ -11186,8 +11207,8 @@
       <c r="H613" s="10"/>
       <c r="J613" s="10"/>
     </row>
-    <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" s="54" t="s">
         <v>153</v>
       </c>
@@ -11197,7 +11218,7 @@
       <c r="E616" s="54"/>
       <c r="F616" s="54"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="2" t="s">
         <v>14</v>
@@ -11215,7 +11236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A618" s="1" t="s">
         <v>1</v>
       </c>
@@ -11238,7 +11259,7 @@
       <c r="H618" s="13"/>
       <c r="I618" s="10"/>
     </row>
-    <row r="619" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A619" s="1" t="s">
         <v>2</v>
       </c>
@@ -11261,7 +11282,7 @@
       <c r="H619" s="10"/>
       <c r="I619" s="10"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" s="54" t="s">
         <v>154</v>
       </c>
@@ -11272,7 +11293,7 @@
       <c r="F620" s="34"/>
       <c r="I620" s="10"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="2" t="s">
         <v>16</v>
@@ -11289,7 +11310,7 @@
       <c r="F621" s="35"/>
       <c r="G621" s="10"/>
     </row>
-    <row r="622" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A622" s="1" t="s">
         <v>1</v>
       </c>
@@ -11309,7 +11330,7 @@
       <c r="H622" s="10"/>
       <c r="I622" s="10"/>
     </row>
-    <row r="623" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A623" s="1" t="s">
         <v>2</v>
       </c>
@@ -11330,8 +11351,8 @@
       <c r="H623" s="10"/>
       <c r="J623" s="10"/>
     </row>
-    <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" s="54" t="s">
         <v>155</v>
       </c>
@@ -11341,7 +11362,7 @@
       <c r="E626" s="54"/>
       <c r="F626" s="54"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="2" t="s">
         <v>14</v>
@@ -11359,7 +11380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A628" s="1" t="s">
         <v>1</v>
       </c>
@@ -11382,7 +11403,7 @@
       <c r="H628" s="13"/>
       <c r="I628" s="10"/>
     </row>
-    <row r="629" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A629" s="1" t="s">
         <v>2</v>
       </c>
@@ -11405,7 +11426,7 @@
       <c r="H629" s="10"/>
       <c r="I629" s="10"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" s="54" t="s">
         <v>156</v>
       </c>
@@ -11416,7 +11437,7 @@
       <c r="F630" s="34"/>
       <c r="I630" s="10"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="2" t="s">
         <v>16</v>
@@ -11433,7 +11454,7 @@
       <c r="F631" s="35"/>
       <c r="G631" s="10"/>
     </row>
-    <row r="632" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A632" s="1" t="s">
         <v>1</v>
       </c>
@@ -11453,7 +11474,7 @@
       <c r="H632" s="10"/>
       <c r="I632" s="10"/>
     </row>
-    <row r="633" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A633" s="1" t="s">
         <v>2</v>
       </c>
@@ -11474,8 +11495,8 @@
       <c r="H633" s="10"/>
       <c r="J633" s="10"/>
     </row>
-    <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" s="54" t="s">
         <v>157</v>
       </c>
@@ -11485,7 +11506,7 @@
       <c r="E636" s="54"/>
       <c r="F636" s="54"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="2" t="s">
         <v>14</v>
@@ -11503,7 +11524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A638" s="1" t="s">
         <v>1</v>
       </c>
@@ -11526,7 +11547,7 @@
       <c r="H638" s="13"/>
       <c r="I638" s="10"/>
     </row>
-    <row r="639" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A639" s="1" t="s">
         <v>2</v>
       </c>
@@ -11549,7 +11570,7 @@
       <c r="H639" s="10"/>
       <c r="I639" s="10"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" s="54" t="s">
         <v>158</v>
       </c>
@@ -11560,7 +11581,7 @@
       <c r="F640" s="34"/>
       <c r="I640" s="10"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="2" t="s">
         <v>16</v>
@@ -11577,7 +11598,7 @@
       <c r="F641" s="35"/>
       <c r="G641" s="10"/>
     </row>
-    <row r="642" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A642" s="1" t="s">
         <v>1</v>
       </c>
@@ -11597,7 +11618,7 @@
       <c r="H642" s="10"/>
       <c r="I642" s="10"/>
     </row>
-    <row r="643" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A643" s="1" t="s">
         <v>2</v>
       </c>
@@ -11618,8 +11639,8 @@
       <c r="H643" s="10"/>
       <c r="J643" s="10"/>
     </row>
-    <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" s="54" t="s">
         <v>159</v>
       </c>
@@ -11629,7 +11650,7 @@
       <c r="E646" s="54"/>
       <c r="F646" s="54"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="2" t="s">
         <v>14</v>
@@ -11647,7 +11668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A648" s="1" t="s">
         <v>1</v>
       </c>
@@ -11670,7 +11691,7 @@
       <c r="H648" s="13"/>
       <c r="I648" s="10"/>
     </row>
-    <row r="649" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A649" s="1" t="s">
         <v>2</v>
       </c>
@@ -11693,7 +11714,7 @@
       <c r="H649" s="10"/>
       <c r="I649" s="10"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" s="54" t="s">
         <v>160</v>
       </c>
@@ -11704,7 +11725,7 @@
       <c r="F650" s="34"/>
       <c r="I650" s="10"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="2" t="s">
         <v>16</v>
@@ -11721,7 +11742,7 @@
       <c r="F651" s="35"/>
       <c r="G651" s="10"/>
     </row>
-    <row r="652" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A652" s="1" t="s">
         <v>1</v>
       </c>
@@ -11741,7 +11762,7 @@
       <c r="H652" s="10"/>
       <c r="I652" s="10"/>
     </row>
-    <row r="653" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A653" s="1" t="s">
         <v>2</v>
       </c>
@@ -11762,8 +11783,8 @@
       <c r="H653" s="10"/>
       <c r="J653" s="10"/>
     </row>
-    <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="54" t="s">
         <v>161</v>
       </c>
@@ -11773,7 +11794,7 @@
       <c r="E656" s="54"/>
       <c r="F656" s="54"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="2" t="s">
         <v>14</v>
@@ -11791,7 +11812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A658" s="1" t="s">
         <v>1</v>
       </c>
@@ -11814,7 +11835,7 @@
       <c r="H658" s="13"/>
       <c r="I658" s="10"/>
     </row>
-    <row r="659" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A659" s="1" t="s">
         <v>2</v>
       </c>
@@ -11837,7 +11858,7 @@
       <c r="H659" s="10"/>
       <c r="I659" s="10"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="54" t="s">
         <v>162</v>
       </c>
@@ -11848,7 +11869,7 @@
       <c r="F660" s="34"/>
       <c r="I660" s="10"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="2" t="s">
         <v>16</v>
@@ -11865,7 +11886,7 @@
       <c r="F661" s="35"/>
       <c r="G661" s="10"/>
     </row>
-    <row r="662" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A662" s="1" t="s">
         <v>1</v>
       </c>
@@ -11885,7 +11906,7 @@
       <c r="H662" s="10"/>
       <c r="I662" s="10"/>
     </row>
-    <row r="663" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A663" s="1" t="s">
         <v>2</v>
       </c>
@@ -11906,7 +11927,7 @@
       <c r="H663" s="10"/>
       <c r="J663" s="10"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -11914,7 +11935,7 @@
       <c r="E665" s="6"/>
       <c r="F665" s="6"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="54" t="s">
         <v>163</v>
       </c>
@@ -11924,7 +11945,7 @@
       <c r="E666" s="54"/>
       <c r="F666" s="54"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="2" t="s">
         <v>14</v>
@@ -11942,7 +11963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A668" s="1" t="s">
         <v>1</v>
       </c>
@@ -11962,7 +11983,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A669" s="1" t="s">
         <v>2</v>
       </c>
@@ -11982,7 +12003,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="54" t="s">
         <v>164</v>
       </c>
@@ -11992,7 +12013,7 @@
       <c r="E670" s="54"/>
       <c r="F670" s="34"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="2" t="s">
         <v>16</v>
@@ -12008,7 +12029,7 @@
       </c>
       <c r="F671" s="35"/>
     </row>
-    <row r="672" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A672" s="1" t="s">
         <v>1</v>
       </c>
@@ -12026,7 +12047,7 @@
       </c>
       <c r="F672" s="35"/>
     </row>
-    <row r="673" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A673" s="1" t="s">
         <v>2</v>
       </c>
@@ -12044,7 +12065,7 @@
       </c>
       <c r="F673" s="35"/>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
@@ -12052,7 +12073,7 @@
       <c r="E675" s="6"/>
       <c r="F675" s="6"/>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="54" t="s">
         <v>165</v>
       </c>
@@ -12062,7 +12083,7 @@
       <c r="E676" s="54"/>
       <c r="F676" s="54"/>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="2" t="s">
         <v>14</v>
@@ -12080,7 +12101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A678" s="1" t="s">
         <v>1</v>
       </c>
@@ -12101,7 +12122,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A679" s="1" t="s">
         <v>2</v>
       </c>
@@ -12121,7 +12142,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="54" t="s">
         <v>166</v>
       </c>
@@ -12131,7 +12152,7 @@
       <c r="E680" s="54"/>
       <c r="F680" s="34"/>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="2" t="s">
         <v>16</v>
@@ -12147,7 +12168,7 @@
       </c>
       <c r="F681" s="35"/>
     </row>
-    <row r="682" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A682" s="1" t="s">
         <v>1</v>
       </c>
@@ -12169,7 +12190,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A683" s="1" t="s">
         <v>2</v>
       </c>
@@ -12187,7 +12208,7 @@
       </c>
       <c r="F683" s="35"/>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
@@ -12195,7 +12216,7 @@
       <c r="E685" s="6"/>
       <c r="F685" s="6"/>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="54" t="s">
         <v>167</v>
       </c>
@@ -12205,7 +12226,7 @@
       <c r="E686" s="54"/>
       <c r="F686" s="54"/>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="2" t="s">
         <v>14</v>
@@ -12223,7 +12244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A688" s="1" t="s">
         <v>1</v>
       </c>
@@ -12243,7 +12264,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A689" s="1" t="s">
         <v>2</v>
       </c>
@@ -12263,7 +12284,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" s="54" t="s">
         <v>168</v>
       </c>
@@ -12273,7 +12294,7 @@
       <c r="E690" s="54"/>
       <c r="F690" s="34"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="2" t="s">
         <v>16</v>
@@ -12289,7 +12310,7 @@
       </c>
       <c r="F691" s="35"/>
     </row>
-    <row r="692" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A692" s="1" t="s">
         <v>1</v>
       </c>
@@ -12307,7 +12328,7 @@
       </c>
       <c r="F692" s="35"/>
     </row>
-    <row r="693" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A693" s="1" t="s">
         <v>2</v>
       </c>
@@ -12325,7 +12346,7 @@
       </c>
       <c r="F693" s="35"/>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
@@ -12333,7 +12354,7 @@
       <c r="E695" s="6"/>
       <c r="F695" s="6"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" s="54" t="s">
         <v>169</v>
       </c>
@@ -12343,7 +12364,7 @@
       <c r="E696" s="54"/>
       <c r="F696" s="54"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="2" t="s">
         <v>14</v>
@@ -12361,7 +12382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A698" s="1" t="s">
         <v>1</v>
       </c>
@@ -12381,7 +12402,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A699" s="1" t="s">
         <v>2</v>
       </c>
@@ -12401,7 +12422,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" s="54" t="s">
         <v>170</v>
       </c>
@@ -12411,7 +12432,7 @@
       <c r="E700" s="54"/>
       <c r="F700" s="34"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="2" t="s">
         <v>16</v>
@@ -12427,7 +12448,7 @@
       </c>
       <c r="F701" s="35"/>
     </row>
-    <row r="702" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A702" s="1" t="s">
         <v>1</v>
       </c>
@@ -12445,7 +12466,7 @@
       </c>
       <c r="F702" s="35"/>
     </row>
-    <row r="703" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A703" s="1" t="s">
         <v>2</v>
       </c>
@@ -12467,7 +12488,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -12475,7 +12496,7 @@
       <c r="E705" s="6"/>
       <c r="F705" s="6"/>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706" s="54" t="s">
         <v>171</v>
       </c>
@@ -12485,7 +12506,7 @@
       <c r="E706" s="54"/>
       <c r="F706" s="54"/>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="2" t="s">
         <v>14</v>
@@ -12503,7 +12524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A708" s="1" t="s">
         <v>1</v>
       </c>
@@ -12523,7 +12544,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A709" s="1" t="s">
         <v>2</v>
       </c>
@@ -12543,7 +12564,7 @@
         <v>-117</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" s="54" t="s">
         <v>172</v>
       </c>
@@ -12553,7 +12574,7 @@
       <c r="E710" s="54"/>
       <c r="F710" s="34"/>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="2" t="s">
         <v>16</v>
@@ -12569,7 +12590,7 @@
       </c>
       <c r="F711" s="35"/>
     </row>
-    <row r="712" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A712" s="1" t="s">
         <v>1</v>
       </c>
@@ -12587,7 +12608,7 @@
       </c>
       <c r="F712" s="35"/>
     </row>
-    <row r="713" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A713" s="1" t="s">
         <v>2</v>
       </c>
@@ -12605,7 +12626,7 @@
       </c>
       <c r="F713" s="35"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -12613,7 +12634,7 @@
       <c r="E715" s="6"/>
       <c r="F715" s="6"/>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716" s="54" t="s">
         <v>173</v>
       </c>
@@ -12623,7 +12644,7 @@
       <c r="E716" s="54"/>
       <c r="F716" s="54"/>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="2" t="s">
         <v>14</v>
@@ -12641,7 +12662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A718" s="1" t="s">
         <v>1</v>
       </c>
@@ -12661,7 +12682,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A719" s="1" t="s">
         <v>2</v>
       </c>
@@ -12681,7 +12702,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720" s="54" t="s">
         <v>172</v>
       </c>
@@ -12691,7 +12712,7 @@
       <c r="E720" s="54"/>
       <c r="F720" s="34"/>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="2" t="s">
         <v>16</v>
@@ -12707,7 +12728,7 @@
       </c>
       <c r="F721" s="35"/>
     </row>
-    <row r="722" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A722" s="1" t="s">
         <v>1</v>
       </c>
@@ -12725,7 +12746,7 @@
       </c>
       <c r="F722" s="35"/>
     </row>
-    <row r="723" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A723" s="1" t="s">
         <v>2</v>
       </c>
@@ -12743,7 +12764,7 @@
       </c>
       <c r="F723" s="35"/>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -12751,7 +12772,7 @@
       <c r="E725" s="6"/>
       <c r="F725" s="6"/>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A726" s="54" t="s">
         <v>174</v>
       </c>
@@ -12761,7 +12782,7 @@
       <c r="E726" s="54"/>
       <c r="F726" s="54"/>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="2" t="s">
         <v>14</v>
@@ -12779,7 +12800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A728" s="1" t="s">
         <v>1</v>
       </c>
@@ -12799,7 +12820,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A729" s="1" t="s">
         <v>2</v>
       </c>
@@ -12819,7 +12840,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A730" s="54" t="s">
         <v>175</v>
       </c>
@@ -12829,7 +12850,7 @@
       <c r="E730" s="54"/>
       <c r="F730" s="34"/>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="2" t="s">
         <v>16</v>
@@ -12845,7 +12866,7 @@
       </c>
       <c r="F731" s="35"/>
     </row>
-    <row r="732" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A732" s="1" t="s">
         <v>1</v>
       </c>
@@ -12863,7 +12884,7 @@
       </c>
       <c r="F732" s="35"/>
     </row>
-    <row r="733" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A733" s="1" t="s">
         <v>2</v>
       </c>
@@ -12881,7 +12902,7 @@
       </c>
       <c r="F733" s="35"/>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -12889,7 +12910,7 @@
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A736" s="54" t="s">
         <v>176</v>
       </c>
@@ -12899,7 +12920,7 @@
       <c r="E736" s="54"/>
       <c r="F736" s="54"/>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="2" t="s">
         <v>14</v>
@@ -12917,7 +12938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A738" s="1" t="s">
         <v>1</v>
       </c>
@@ -12937,7 +12958,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A739" s="1" t="s">
         <v>2</v>
       </c>
@@ -12957,7 +12978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A740" s="54" t="s">
         <v>177</v>
       </c>
@@ -12967,7 +12988,7 @@
       <c r="E740" s="54"/>
       <c r="F740" s="34"/>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="2" t="s">
         <v>16</v>
@@ -12983,7 +13004,7 @@
       </c>
       <c r="F741" s="35"/>
     </row>
-    <row r="742" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A742" s="1" t="s">
         <v>1</v>
       </c>
@@ -13001,7 +13022,7 @@
       </c>
       <c r="F742" s="35"/>
     </row>
-    <row r="743" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A743" s="1" t="s">
         <v>2</v>
       </c>
@@ -13019,7 +13040,7 @@
       </c>
       <c r="F743" s="35"/>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -13027,7 +13048,7 @@
       <c r="E747" s="6"/>
       <c r="F747" s="6"/>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A748" s="54" t="s">
         <v>178</v>
       </c>
@@ -13037,7 +13058,7 @@
       <c r="E748" s="54"/>
       <c r="F748" s="54"/>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="2" t="s">
         <v>14</v>
@@ -13055,7 +13076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A750" s="1" t="s">
         <v>1</v>
       </c>
@@ -13075,7 +13096,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A751" s="1" t="s">
         <v>2</v>
       </c>
@@ -13095,7 +13116,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A752" s="54" t="s">
         <v>179</v>
       </c>
@@ -13105,7 +13126,7 @@
       <c r="E752" s="54"/>
       <c r="F752" s="34"/>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="2" t="s">
         <v>16</v>
@@ -13121,7 +13142,7 @@
       </c>
       <c r="F753" s="35"/>
     </row>
-    <row r="754" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A754" s="1" t="s">
         <v>1</v>
       </c>
@@ -13139,7 +13160,7 @@
       </c>
       <c r="F754" s="35"/>
     </row>
-    <row r="755" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A755" s="1" t="s">
         <v>2</v>
       </c>
@@ -13157,7 +13178,7 @@
       </c>
       <c r="F755" s="35"/>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -13165,7 +13186,7 @@
       <c r="E758" s="6"/>
       <c r="F758" s="6"/>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759" s="54" t="s">
         <v>180</v>
       </c>
@@ -13175,7 +13196,7 @@
       <c r="E759" s="54"/>
       <c r="F759" s="54"/>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="2" t="s">
         <v>14</v>
@@ -13193,7 +13214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A761" s="1" t="s">
         <v>1</v>
       </c>
@@ -13213,7 +13234,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A762" s="1" t="s">
         <v>2</v>
       </c>
@@ -13233,7 +13254,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763" s="54" t="s">
         <v>181</v>
       </c>
@@ -13243,7 +13264,7 @@
       <c r="E763" s="54"/>
       <c r="F763" s="34"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="2" t="s">
         <v>16</v>
@@ -13259,7 +13280,7 @@
       </c>
       <c r="F764" s="35"/>
     </row>
-    <row r="765" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A765" s="1" t="s">
         <v>1</v>
       </c>
@@ -13277,7 +13298,7 @@
       </c>
       <c r="F765" s="35"/>
     </row>
-    <row r="766" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A766" s="1" t="s">
         <v>2</v>
       </c>
@@ -13295,7 +13316,7 @@
       </c>
       <c r="F766" s="35"/>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
@@ -13303,7 +13324,7 @@
       <c r="E769" s="6"/>
       <c r="F769" s="6"/>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" s="54" t="s">
         <v>182</v>
       </c>
@@ -13313,7 +13334,7 @@
       <c r="E770" s="54"/>
       <c r="F770" s="54"/>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="2" t="s">
         <v>14</v>
@@ -13331,7 +13352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A772" s="1" t="s">
         <v>1</v>
       </c>
@@ -13351,7 +13372,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A773" s="1" t="s">
         <v>2</v>
       </c>
@@ -13371,7 +13392,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774" s="54" t="s">
         <v>183</v>
       </c>
@@ -13381,7 +13402,7 @@
       <c r="E774" s="54"/>
       <c r="F774" s="34"/>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="2" t="s">
         <v>16</v>
@@ -13397,7 +13418,7 @@
       </c>
       <c r="F775" s="35"/>
     </row>
-    <row r="776" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A776" s="1" t="s">
         <v>1</v>
       </c>
@@ -13415,7 +13436,7 @@
       </c>
       <c r="F776" s="35"/>
     </row>
-    <row r="777" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A777" s="1" t="s">
         <v>2</v>
       </c>
@@ -13433,7 +13454,7 @@
       </c>
       <c r="F777" s="35"/>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
@@ -13441,7 +13462,7 @@
       <c r="E780" s="6"/>
       <c r="F780" s="6"/>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781" s="54" t="s">
         <v>184</v>
       </c>
@@ -13451,7 +13472,7 @@
       <c r="E781" s="54"/>
       <c r="F781" s="54"/>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="2" t="s">
         <v>14</v>
@@ -13469,7 +13490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A783" s="1" t="s">
         <v>1</v>
       </c>
@@ -13489,7 +13510,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A784" s="1" t="s">
         <v>2</v>
       </c>
@@ -13509,7 +13530,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A785" s="54" t="s">
         <v>185</v>
       </c>
@@ -13519,7 +13540,7 @@
       <c r="E785" s="54"/>
       <c r="F785" s="34"/>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="2" t="s">
         <v>16</v>
@@ -13535,7 +13556,7 @@
       </c>
       <c r="F786" s="35"/>
     </row>
-    <row r="787" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A787" s="1" t="s">
         <v>1</v>
       </c>
@@ -13553,7 +13574,7 @@
       </c>
       <c r="F787" s="35"/>
     </row>
-    <row r="788" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A788" s="1" t="s">
         <v>2</v>
       </c>
@@ -13571,7 +13592,7 @@
       </c>
       <c r="F788" s="35"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -13579,7 +13600,7 @@
       <c r="E791" s="6"/>
       <c r="F791" s="6"/>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A792" s="54" t="s">
         <v>186</v>
       </c>
@@ -13589,7 +13610,7 @@
       <c r="E792" s="54"/>
       <c r="F792" s="54"/>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="2" t="s">
         <v>14</v>
@@ -13607,7 +13628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A794" s="1" t="s">
         <v>1</v>
       </c>
@@ -13627,7 +13648,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A795" s="1" t="s">
         <v>2</v>
       </c>
@@ -13647,7 +13668,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A796" s="54" t="s">
         <v>187</v>
       </c>
@@ -13657,7 +13678,7 @@
       <c r="E796" s="54"/>
       <c r="F796" s="34"/>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="2" t="s">
         <v>16</v>
@@ -13673,7 +13694,7 @@
       </c>
       <c r="F797" s="35"/>
     </row>
-    <row r="798" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A798" s="1" t="s">
         <v>1</v>
       </c>
@@ -13691,7 +13712,7 @@
       </c>
       <c r="F798" s="35"/>
     </row>
-    <row r="799" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A799" s="1" t="s">
         <v>2</v>
       </c>
@@ -13709,13 +13730,13 @@
       </c>
       <c r="F799" s="35"/>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G801">
         <f>E795-E784</f>
         <v>95</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -13723,7 +13744,7 @@
       <c r="E802" s="6"/>
       <c r="F802" s="6"/>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" s="54" t="s">
         <v>188</v>
       </c>
@@ -13733,7 +13754,7 @@
       <c r="E803" s="54"/>
       <c r="F803" s="54"/>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="2" t="s">
         <v>14</v>
@@ -13751,7 +13772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A805" s="1" t="s">
         <v>1</v>
       </c>
@@ -13771,7 +13792,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A806" s="1" t="s">
         <v>2</v>
       </c>
@@ -13791,7 +13812,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" s="54" t="s">
         <v>187</v>
       </c>
@@ -13801,7 +13822,7 @@
       <c r="E807" s="54"/>
       <c r="F807" s="34"/>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="2" t="s">
         <v>16</v>
@@ -13817,7 +13838,7 @@
       </c>
       <c r="F808" s="35"/>
     </row>
-    <row r="809" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A809" s="1" t="s">
         <v>1</v>
       </c>
@@ -13839,7 +13860,7 @@
         <v>-269</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A810" s="1" t="s">
         <v>2</v>
       </c>
@@ -13857,7 +13878,7 @@
       </c>
       <c r="F810" s="35"/>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -13865,7 +13886,7 @@
       <c r="E813" s="6"/>
       <c r="F813" s="6"/>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" s="54" t="s">
         <v>189</v>
       </c>
@@ -13875,7 +13896,7 @@
       <c r="E814" s="54"/>
       <c r="F814" s="54"/>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="2" t="s">
         <v>14</v>
@@ -13893,7 +13914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A816" s="1" t="s">
         <v>1</v>
       </c>
@@ -13913,7 +13934,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A817" s="1" t="s">
         <v>2</v>
       </c>
@@ -13933,7 +13954,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A818" s="54" t="s">
         <v>190</v>
       </c>
@@ -13943,7 +13964,7 @@
       <c r="E818" s="54"/>
       <c r="F818" s="34"/>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="2" t="s">
         <v>16</v>
@@ -13959,7 +13980,7 @@
       </c>
       <c r="F819" s="35"/>
     </row>
-    <row r="820" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A820" s="1" t="s">
         <v>1</v>
       </c>
@@ -13977,7 +13998,7 @@
       </c>
       <c r="F820" s="35"/>
     </row>
-    <row r="821" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A821" s="1" t="s">
         <v>2</v>
       </c>
@@ -13995,7 +14016,7 @@
       </c>
       <c r="F821" s="35"/>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -14003,7 +14024,7 @@
       <c r="E824" s="6"/>
       <c r="F824" s="6"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825" s="54" t="s">
         <v>191</v>
       </c>
@@ -14013,7 +14034,7 @@
       <c r="E825" s="54"/>
       <c r="F825" s="54"/>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="2" t="s">
         <v>14</v>
@@ -14031,7 +14052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A827" s="1" t="s">
         <v>1</v>
       </c>
@@ -14051,7 +14072,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A828" s="1" t="s">
         <v>2</v>
       </c>
@@ -14071,7 +14092,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829" s="54" t="s">
         <v>192</v>
       </c>
@@ -14081,7 +14102,7 @@
       <c r="E829" s="54"/>
       <c r="F829" s="34"/>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="2" t="s">
         <v>16</v>
@@ -14097,7 +14118,7 @@
       </c>
       <c r="F830" s="35"/>
     </row>
-    <row r="831" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A831" s="1" t="s">
         <v>1</v>
       </c>
@@ -14115,7 +14136,7 @@
       </c>
       <c r="F831" s="35"/>
     </row>
-    <row r="832" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A832" s="1" t="s">
         <v>2</v>
       </c>
@@ -14133,7 +14154,7 @@
       </c>
       <c r="F832" s="35"/>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -14141,7 +14162,7 @@
       <c r="E835" s="6"/>
       <c r="F835" s="6"/>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836" s="54" t="s">
         <v>193</v>
       </c>
@@ -14151,7 +14172,7 @@
       <c r="E836" s="54"/>
       <c r="F836" s="54"/>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="2" t="s">
         <v>14</v>
@@ -14169,7 +14190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A838" s="1" t="s">
         <v>1</v>
       </c>
@@ -14189,7 +14210,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A839" s="1" t="s">
         <v>2</v>
       </c>
@@ -14209,7 +14230,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840" s="54" t="s">
         <v>194</v>
       </c>
@@ -14219,7 +14240,7 @@
       <c r="E840" s="54"/>
       <c r="F840" s="34"/>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="2" t="s">
         <v>16</v>
@@ -14235,7 +14256,7 @@
       </c>
       <c r="F841" s="35"/>
     </row>
-    <row r="842" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A842" s="1" t="s">
         <v>1</v>
       </c>
@@ -14253,7 +14274,7 @@
       </c>
       <c r="F842" s="35"/>
     </row>
-    <row r="843" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A843" s="1" t="s">
         <v>2</v>
       </c>
@@ -14271,7 +14292,7 @@
       </c>
       <c r="F843" s="35"/>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -14279,7 +14300,7 @@
       <c r="E846" s="6"/>
       <c r="F846" s="6"/>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847" s="54" t="s">
         <v>195</v>
       </c>
@@ -14289,7 +14310,7 @@
       <c r="E847" s="54"/>
       <c r="F847" s="54"/>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="2" t="s">
         <v>14</v>
@@ -14307,7 +14328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A849" s="1" t="s">
         <v>1</v>
       </c>
@@ -14327,7 +14348,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A850" s="1" t="s">
         <v>2</v>
       </c>
@@ -14347,7 +14368,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851" s="54" t="s">
         <v>194</v>
       </c>
@@ -14357,7 +14378,7 @@
       <c r="E851" s="54"/>
       <c r="F851" s="34"/>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="2" t="s">
         <v>16</v>
@@ -14373,7 +14394,7 @@
       </c>
       <c r="F852" s="35"/>
     </row>
-    <row r="853" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A853" s="1" t="s">
         <v>1</v>
       </c>
@@ -14391,7 +14412,7 @@
       </c>
       <c r="F853" s="35"/>
     </row>
-    <row r="854" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A854" s="1" t="s">
         <v>2</v>
       </c>
@@ -14409,7 +14430,7 @@
       </c>
       <c r="F854" s="35"/>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -14417,7 +14438,7 @@
       <c r="E857" s="6"/>
       <c r="F857" s="6"/>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A858" s="54" t="s">
         <v>196</v>
       </c>
@@ -14427,7 +14448,7 @@
       <c r="E858" s="54"/>
       <c r="F858" s="54"/>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="2" t="s">
         <v>14</v>
@@ -14445,7 +14466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A860" s="1" t="s">
         <v>1</v>
       </c>
@@ -14465,7 +14486,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A861" s="1" t="s">
         <v>2</v>
       </c>
@@ -14485,7 +14506,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A862" s="54" t="s">
         <v>197</v>
       </c>
@@ -14495,7 +14516,7 @@
       <c r="E862" s="54"/>
       <c r="F862" s="34"/>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="2" t="s">
         <v>16</v>
@@ -14511,7 +14532,7 @@
       </c>
       <c r="F863" s="35"/>
     </row>
-    <row r="864" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A864" s="1" t="s">
         <v>1</v>
       </c>
@@ -14529,7 +14550,7 @@
       </c>
       <c r="F864" s="35"/>
     </row>
-    <row r="865" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A865" s="1" t="s">
         <v>2</v>
       </c>
@@ -14547,7 +14568,7 @@
       </c>
       <c r="F865" s="35"/>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -14555,7 +14576,7 @@
       <c r="E868" s="6"/>
       <c r="F868" s="6"/>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A869" s="54" t="s">
         <v>199</v>
       </c>
@@ -14565,7 +14586,7 @@
       <c r="E869" s="54"/>
       <c r="F869" s="54"/>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="2" t="s">
         <v>14</v>
@@ -14583,7 +14604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A871" s="1" t="s">
         <v>1</v>
       </c>
@@ -14603,7 +14624,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A872" s="1" t="s">
         <v>2</v>
       </c>
@@ -14623,7 +14644,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A873" s="54" t="s">
         <v>198</v>
       </c>
@@ -14633,7 +14654,7 @@
       <c r="E873" s="54"/>
       <c r="F873" s="50"/>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="2" t="s">
         <v>16</v>
@@ -14648,7 +14669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="875" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A875" s="1" t="s">
         <v>1</v>
       </c>
@@ -14665,7 +14686,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A876" s="1" t="s">
         <v>2</v>
       </c>
@@ -14682,7 +14703,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -14690,7 +14711,7 @@
       <c r="E879" s="6"/>
       <c r="F879" s="6"/>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A880" s="54" t="s">
         <v>200</v>
       </c>
@@ -14700,7 +14721,7 @@
       <c r="E880" s="54"/>
       <c r="F880" s="54"/>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="2" t="s">
         <v>14</v>
@@ -14718,7 +14739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A882" s="1" t="s">
         <v>1</v>
       </c>
@@ -14738,7 +14759,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A883" s="1" t="s">
         <v>2</v>
       </c>
@@ -14758,7 +14779,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A884" s="54" t="s">
         <v>201</v>
       </c>
@@ -14768,7 +14789,7 @@
       <c r="E884" s="54"/>
       <c r="F884" s="50"/>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="2" t="s">
         <v>16</v>
@@ -14783,7 +14804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A886" s="1" t="s">
         <v>1</v>
       </c>
@@ -14800,7 +14821,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A887" s="1" t="s">
         <v>2</v>
       </c>
@@ -14817,7 +14838,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
@@ -14825,7 +14846,7 @@
       <c r="E890" s="6"/>
       <c r="F890" s="6"/>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A891" s="54" t="s">
         <v>202</v>
       </c>
@@ -14835,7 +14856,7 @@
       <c r="E891" s="54"/>
       <c r="F891" s="54"/>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="2" t="s">
         <v>14</v>
@@ -14853,7 +14874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A893" s="1" t="s">
         <v>1</v>
       </c>
@@ -14873,7 +14894,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="894" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A894" s="1" t="s">
         <v>2</v>
       </c>
@@ -14893,7 +14914,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895" s="54" t="s">
         <v>203</v>
       </c>
@@ -14903,7 +14924,7 @@
       <c r="E895" s="54"/>
       <c r="F895" s="50"/>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="2" t="s">
         <v>16</v>
@@ -14918,7 +14939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A897" s="1" t="s">
         <v>1</v>
       </c>
@@ -14935,7 +14956,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A898" s="1" t="s">
         <v>2</v>
       </c>
@@ -14952,7 +14973,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
@@ -14960,7 +14981,7 @@
       <c r="E901" s="6"/>
       <c r="F901" s="6"/>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A902" s="54" t="s">
         <v>204</v>
       </c>
@@ -14970,7 +14991,7 @@
       <c r="E902" s="54"/>
       <c r="F902" s="54"/>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="2" t="s">
         <v>14</v>
@@ -14988,7 +15009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A904" s="1" t="s">
         <v>1</v>
       </c>
@@ -15008,7 +15029,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A905" s="1" t="s">
         <v>2</v>
       </c>
@@ -15028,7 +15049,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A906" s="54" t="s">
         <v>205</v>
       </c>
@@ -15038,7 +15059,7 @@
       <c r="E906" s="54"/>
       <c r="F906" s="50"/>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="2" t="s">
         <v>16</v>
@@ -15053,7 +15074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A908" s="1" t="s">
         <v>1</v>
       </c>
@@ -15070,7 +15091,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A909" s="1" t="s">
         <v>2</v>
       </c>
@@ -15087,7 +15108,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
@@ -15095,7 +15116,7 @@
       <c r="E912" s="6"/>
       <c r="F912" s="6"/>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913" s="54" t="s">
         <v>206</v>
       </c>
@@ -15105,7 +15126,7 @@
       <c r="E913" s="54"/>
       <c r="F913" s="54"/>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="2" t="s">
         <v>14</v>
@@ -15123,7 +15144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A915" s="1" t="s">
         <v>1</v>
       </c>
@@ -15143,7 +15164,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A916" s="1" t="s">
         <v>2</v>
       </c>
@@ -15163,7 +15184,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A917" s="54" t="s">
         <v>207</v>
       </c>
@@ -15173,7 +15194,7 @@
       <c r="E917" s="54"/>
       <c r="F917" s="50"/>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="2" t="s">
         <v>16</v>
@@ -15188,7 +15209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A919" s="1" t="s">
         <v>1</v>
       </c>
@@ -15205,7 +15226,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A920" s="1" t="s">
         <v>2</v>
       </c>
@@ -15222,7 +15243,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
@@ -15230,7 +15251,7 @@
       <c r="E924" s="6"/>
       <c r="F924" s="6"/>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A925" s="54" t="s">
         <v>208</v>
       </c>
@@ -15240,7 +15261,7 @@
       <c r="E925" s="54"/>
       <c r="F925" s="54"/>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="2" t="s">
         <v>14</v>
@@ -15258,7 +15279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A927" s="1" t="s">
         <v>1</v>
       </c>
@@ -15278,7 +15299,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A928" s="1" t="s">
         <v>2</v>
       </c>
@@ -15298,7 +15319,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" s="54" t="s">
         <v>209</v>
       </c>
@@ -15308,7 +15329,7 @@
       <c r="E929" s="54"/>
       <c r="F929" s="50"/>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="2" t="s">
         <v>16</v>
@@ -15323,7 +15344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="931" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A931" s="1" t="s">
         <v>1</v>
       </c>
@@ -15340,7 +15361,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="932" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A932" s="1" t="s">
         <v>2</v>
       </c>
@@ -15357,7 +15378,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
@@ -15365,7 +15386,7 @@
       <c r="E935" s="6"/>
       <c r="F935" s="6"/>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" s="54" t="s">
         <v>210</v>
       </c>
@@ -15375,7 +15396,7 @@
       <c r="E936" s="54"/>
       <c r="F936" s="54"/>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="2" t="s">
         <v>14</v>
@@ -15393,7 +15414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="938" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A938" s="1" t="s">
         <v>1</v>
       </c>
@@ -15413,7 +15434,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="939" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A939" s="1" t="s">
         <v>2</v>
       </c>
@@ -15433,7 +15454,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" s="54" t="s">
         <v>211</v>
       </c>
@@ -15443,7 +15464,7 @@
       <c r="E940" s="54"/>
       <c r="F940" s="50"/>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="2" t="s">
         <v>16</v>
@@ -15458,7 +15479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="942" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A942" s="1" t="s">
         <v>1</v>
       </c>
@@ -15475,7 +15496,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="943" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A943" s="1" t="s">
         <v>2</v>
       </c>
@@ -15496,7 +15517,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
@@ -15504,7 +15525,7 @@
       <c r="E946" s="6"/>
       <c r="F946" s="6"/>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A947" s="54" t="s">
         <v>212</v>
       </c>
@@ -15514,7 +15535,7 @@
       <c r="E947" s="54"/>
       <c r="F947" s="54"/>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="2" t="s">
         <v>14</v>
@@ -15532,7 +15553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="949" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A949" s="1" t="s">
         <v>1</v>
       </c>
@@ -15552,7 +15573,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="950" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A950" s="1" t="s">
         <v>2</v>
       </c>
@@ -15572,7 +15593,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A951" s="54" t="s">
         <v>213</v>
       </c>
@@ -15582,7 +15603,7 @@
       <c r="E951" s="54"/>
       <c r="F951" s="50"/>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="2" t="s">
         <v>16</v>
@@ -15597,7 +15618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="953" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A953" s="1" t="s">
         <v>1</v>
       </c>
@@ -15614,7 +15635,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A954" s="1" t="s">
         <v>2</v>
       </c>
@@ -15631,7 +15652,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
@@ -15639,7 +15660,7 @@
       <c r="E958" s="6"/>
       <c r="F958" s="6"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A959" s="54" t="s">
         <v>214</v>
       </c>
@@ -15649,7 +15670,7 @@
       <c r="E959" s="54"/>
       <c r="F959" s="54"/>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="2" t="s">
         <v>14</v>
@@ -15667,7 +15688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="961" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A961" s="1" t="s">
         <v>1</v>
       </c>
@@ -15687,7 +15708,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="962" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A962" s="1" t="s">
         <v>2</v>
       </c>
@@ -15707,7 +15728,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A963" s="54" t="s">
         <v>215</v>
       </c>
@@ -15717,7 +15738,7 @@
       <c r="E963" s="54"/>
       <c r="F963" s="50"/>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="2" t="s">
         <v>16</v>
@@ -15732,7 +15753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A965" s="1" t="s">
         <v>1</v>
       </c>
@@ -15749,7 +15770,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A966" s="1" t="s">
         <v>2</v>
       </c>
@@ -15766,7 +15787,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
       <c r="C969" s="6"/>
@@ -15774,7 +15795,7 @@
       <c r="E969" s="6"/>
       <c r="F969" s="6"/>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A970" s="54" t="s">
         <v>216</v>
       </c>
@@ -15784,7 +15805,7 @@
       <c r="E970" s="54"/>
       <c r="F970" s="54"/>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="2" t="s">
         <v>14</v>
@@ -15802,7 +15823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="972" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A972" s="1" t="s">
         <v>1</v>
       </c>
@@ -15822,7 +15843,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="973" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A973" s="1" t="s">
         <v>2</v>
       </c>
@@ -15842,7 +15863,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A974" s="54" t="s">
         <v>217</v>
       </c>
@@ -15852,7 +15873,7 @@
       <c r="E974" s="54"/>
       <c r="F974" s="50"/>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="2" t="s">
         <v>16</v>
@@ -15867,7 +15888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A976" s="1" t="s">
         <v>1</v>
       </c>
@@ -15884,7 +15905,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="977" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A977" s="1" t="s">
         <v>2</v>
       </c>
@@ -15901,7 +15922,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
       <c r="C981" s="6"/>
@@ -15909,7 +15930,7 @@
       <c r="E981" s="6"/>
       <c r="F981" s="6"/>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A982" s="54" t="s">
         <v>218</v>
       </c>
@@ -15919,7 +15940,7 @@
       <c r="E982" s="54"/>
       <c r="F982" s="54"/>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="2" t="s">
         <v>14</v>
@@ -15937,7 +15958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="984" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A984" s="1" t="s">
         <v>1</v>
       </c>
@@ -15957,7 +15978,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="985" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A985" s="1" t="s">
         <v>2</v>
       </c>
@@ -15977,7 +15998,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A986" s="54" t="s">
         <v>219</v>
       </c>
@@ -15987,7 +16008,7 @@
       <c r="E986" s="54"/>
       <c r="F986" s="50"/>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="2" t="s">
         <v>16</v>
@@ -16002,7 +16023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="988" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A988" s="1" t="s">
         <v>1</v>
       </c>
@@ -16019,7 +16040,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="989" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A989" s="1" t="s">
         <v>2</v>
       </c>
@@ -16036,7 +16057,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
       <c r="C993" s="6"/>
@@ -16044,7 +16065,7 @@
       <c r="E993" s="6"/>
       <c r="F993" s="6"/>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A994" s="54" t="s">
         <v>220</v>
       </c>
@@ -16054,7 +16075,7 @@
       <c r="E994" s="54"/>
       <c r="F994" s="54"/>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="2" t="s">
         <v>14</v>
@@ -16072,7 +16093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="996" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A996" s="1" t="s">
         <v>1</v>
       </c>
@@ -16092,7 +16113,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="997" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A997" s="1" t="s">
         <v>2</v>
       </c>
@@ -16112,7 +16133,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A998" s="54" t="s">
         <v>221</v>
       </c>
@@ -16122,7 +16143,7 @@
       <c r="E998" s="54"/>
       <c r="F998" s="50"/>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="B999" s="2" t="s">
         <v>16</v>
@@ -16137,7 +16158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1000" s="1" t="s">
         <v>1</v>
       </c>
@@ -16154,7 +16175,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1001" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1001" s="1" t="s">
         <v>2</v>
       </c>
@@ -16171,7 +16192,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1005" s="6"/>
       <c r="B1005" s="6"/>
       <c r="C1005" s="6"/>
@@ -16179,7 +16200,7 @@
       <c r="E1005" s="6"/>
       <c r="F1005" s="6"/>
     </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1006" s="54" t="s">
         <v>222</v>
       </c>
@@ -16189,7 +16210,7 @@
       <c r="E1006" s="54"/>
       <c r="F1006" s="54"/>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1007" s="1"/>
       <c r="B1007" s="2" t="s">
         <v>14</v>
@@ -16207,7 +16228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1008" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1008" s="1" t="s">
         <v>1</v>
       </c>
@@ -16227,7 +16248,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1009" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1009" s="1" t="s">
         <v>2</v>
       </c>
@@ -16247,7 +16268,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1010" s="54" t="s">
         <v>223</v>
       </c>
@@ -16257,7 +16278,7 @@
       <c r="E1010" s="54"/>
       <c r="F1010" s="50"/>
     </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1011" s="1"/>
       <c r="B1011" s="2" t="s">
         <v>16</v>
@@ -16272,7 +16293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1012" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1012" s="1" t="s">
         <v>1</v>
       </c>
@@ -16289,7 +16310,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1013" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1013" s="1" t="s">
         <v>2</v>
       </c>
@@ -16306,7 +16327,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1016" s="6"/>
       <c r="B1016" s="6"/>
       <c r="C1016" s="6"/>
@@ -16314,7 +16335,7 @@
       <c r="E1016" s="6"/>
       <c r="F1016" s="6"/>
     </row>
-    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1017" s="54" t="s">
         <v>224</v>
       </c>
@@ -16324,7 +16345,7 @@
       <c r="E1017" s="54"/>
       <c r="F1017" s="54"/>
     </row>
-    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1018" s="1"/>
       <c r="B1018" s="2" t="s">
         <v>14</v>
@@ -16342,7 +16363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1019" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1019" s="1" t="s">
         <v>1</v>
       </c>
@@ -16362,7 +16383,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1020" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1020" s="1" t="s">
         <v>2</v>
       </c>
@@ -16382,7 +16403,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1021" s="54" t="s">
         <v>225</v>
       </c>
@@ -16392,7 +16413,7 @@
       <c r="E1021" s="54"/>
       <c r="F1021" s="50"/>
     </row>
-    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1022" s="1"/>
       <c r="B1022" s="2" t="s">
         <v>16</v>
@@ -16407,7 +16428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1023" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1023" s="1" t="s">
         <v>1</v>
       </c>
@@ -16424,7 +16445,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1024" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1024" s="1" t="s">
         <v>2</v>
       </c>
@@ -16441,7 +16462,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1027" s="6"/>
       <c r="B1027" s="6"/>
       <c r="C1027" s="6"/>
@@ -16449,7 +16470,7 @@
       <c r="E1027" s="6"/>
       <c r="F1027" s="6"/>
     </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1028" s="54" t="s">
         <v>226</v>
       </c>
@@ -16459,7 +16480,7 @@
       <c r="E1028" s="54"/>
       <c r="F1028" s="54"/>
     </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029" s="1"/>
       <c r="B1029" s="2" t="s">
         <v>14</v>
@@ -16477,7 +16498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1030" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1030" s="1" t="s">
         <v>1</v>
       </c>
@@ -16497,7 +16518,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1031" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1031" s="1" t="s">
         <v>2</v>
       </c>
@@ -16521,7 +16542,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1032" s="54" t="s">
         <v>227</v>
       </c>
@@ -16531,7 +16552,7 @@
       <c r="E1032" s="54"/>
       <c r="F1032" s="50"/>
     </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1033" s="1"/>
       <c r="B1033" s="2" t="s">
         <v>16</v>
@@ -16546,7 +16567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1034" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1034" s="1" t="s">
         <v>1</v>
       </c>
@@ -16563,7 +16584,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1035" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1035" s="1" t="s">
         <v>2</v>
       </c>
@@ -16580,7 +16601,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1039" s="6"/>
       <c r="B1039" s="6"/>
       <c r="C1039" s="6"/>
@@ -16588,7 +16609,7 @@
       <c r="E1039" s="6"/>
       <c r="F1039" s="6"/>
     </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1040" s="54" t="s">
         <v>228</v>
       </c>
@@ -16598,7 +16619,7 @@
       <c r="E1040" s="54"/>
       <c r="F1040" s="54"/>
     </row>
-    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1041" s="1"/>
       <c r="B1041" s="2" t="s">
         <v>14</v>
@@ -16616,7 +16637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1042" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1042" s="1" t="s">
         <v>1</v>
       </c>
@@ -16636,7 +16657,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1043" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1043" s="1" t="s">
         <v>2</v>
       </c>
@@ -16656,7 +16677,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1044" s="54" t="s">
         <v>229</v>
       </c>
@@ -16666,7 +16687,7 @@
       <c r="E1044" s="54"/>
       <c r="F1044" s="50"/>
     </row>
-    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1045" s="1"/>
       <c r="B1045" s="2" t="s">
         <v>16</v>
@@ -16681,7 +16702,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1046" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1046" s="1" t="s">
         <v>1</v>
       </c>
@@ -16698,7 +16719,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1047" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1047" s="1" t="s">
         <v>2</v>
       </c>
@@ -16715,7 +16736,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1051" s="6"/>
       <c r="B1051" s="6"/>
       <c r="C1051" s="6"/>
@@ -16723,7 +16744,7 @@
       <c r="E1051" s="6"/>
       <c r="F1051" s="6"/>
     </row>
-    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1052" s="54" t="s">
         <v>230</v>
       </c>
@@ -16733,7 +16754,7 @@
       <c r="E1052" s="54"/>
       <c r="F1052" s="54"/>
     </row>
-    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1053" s="1"/>
       <c r="B1053" s="2" t="s">
         <v>14</v>
@@ -16751,7 +16772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1054" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1054" s="1" t="s">
         <v>1</v>
       </c>
@@ -16771,7 +16792,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1055" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1055" s="1" t="s">
         <v>2</v>
       </c>
@@ -16791,7 +16812,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1056" s="54" t="s">
         <v>231</v>
       </c>
@@ -16801,7 +16822,7 @@
       <c r="E1056" s="54"/>
       <c r="F1056" s="50"/>
     </row>
-    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1057" s="1"/>
       <c r="B1057" s="2" t="s">
         <v>16</v>
@@ -16816,7 +16837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1058" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1058" s="1" t="s">
         <v>1</v>
       </c>
@@ -16833,7 +16854,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1059" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1059" s="1" t="s">
         <v>2</v>
       </c>
@@ -16850,7 +16871,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1062" s="6"/>
       <c r="B1062" s="6"/>
       <c r="C1062" s="6"/>
@@ -16858,7 +16879,7 @@
       <c r="E1062" s="6"/>
       <c r="F1062" s="6"/>
     </row>
-    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1063" s="54" t="s">
         <v>232</v>
       </c>
@@ -16868,7 +16889,7 @@
       <c r="E1063" s="54"/>
       <c r="F1063" s="54"/>
     </row>
-    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1064" s="1"/>
       <c r="B1064" s="2" t="s">
         <v>14</v>
@@ -16886,7 +16907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1065" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1065" s="1" t="s">
         <v>1</v>
       </c>
@@ -16906,7 +16927,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1066" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1066" s="1" t="s">
         <v>2</v>
       </c>
@@ -16926,7 +16947,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1067" s="54" t="s">
         <v>233</v>
       </c>
@@ -16936,7 +16957,7 @@
       <c r="E1067" s="54"/>
       <c r="F1067" s="50"/>
     </row>
-    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1068" s="1"/>
       <c r="B1068" s="2" t="s">
         <v>16</v>
@@ -16951,7 +16972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1069" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1069" s="1" t="s">
         <v>1</v>
       </c>
@@ -16968,7 +16989,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1070" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1070" s="1" t="s">
         <v>2</v>
       </c>
@@ -16985,7 +17006,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1074" s="6"/>
       <c r="B1074" s="6"/>
       <c r="C1074" s="6"/>
@@ -16993,7 +17014,7 @@
       <c r="E1074" s="6"/>
       <c r="F1074" s="6"/>
     </row>
-    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1075" s="54" t="s">
         <v>234</v>
       </c>
@@ -17003,7 +17024,7 @@
       <c r="E1075" s="54"/>
       <c r="F1075" s="54"/>
     </row>
-    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1076" s="1"/>
       <c r="B1076" s="2" t="s">
         <v>14</v>
@@ -17021,7 +17042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1077" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1077" s="1" t="s">
         <v>1</v>
       </c>
@@ -17041,7 +17062,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1078" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1078" s="1" t="s">
         <v>2</v>
       </c>
@@ -17061,7 +17082,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1079" s="54" t="s">
         <v>235</v>
       </c>
@@ -17071,7 +17092,7 @@
       <c r="E1079" s="54"/>
       <c r="F1079" s="50"/>
     </row>
-    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1080" s="1"/>
       <c r="B1080" s="2" t="s">
         <v>16</v>
@@ -17086,7 +17107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1081" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1081" s="1" t="s">
         <v>1</v>
       </c>
@@ -17103,7 +17124,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1082" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1082" s="1" t="s">
         <v>2</v>
       </c>
@@ -17120,7 +17141,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1086" s="6"/>
       <c r="B1086" s="6"/>
       <c r="C1086" s="6"/>
@@ -17128,7 +17149,7 @@
       <c r="E1086" s="6"/>
       <c r="F1086" s="6"/>
     </row>
-    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1087" s="54" t="s">
         <v>236</v>
       </c>
@@ -17138,7 +17159,7 @@
       <c r="E1087" s="54"/>
       <c r="F1087" s="54"/>
     </row>
-    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1088" s="1"/>
       <c r="B1088" s="2" t="s">
         <v>14</v>
@@ -17156,7 +17177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1089" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1089" s="1" t="s">
         <v>1</v>
       </c>
@@ -17176,7 +17197,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1090" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1090" s="1" t="s">
         <v>2</v>
       </c>
@@ -17196,7 +17217,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1091" s="54" t="s">
         <v>237</v>
       </c>
@@ -17206,7 +17227,7 @@
       <c r="E1091" s="54"/>
       <c r="F1091" s="50"/>
     </row>
-    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1092" s="1"/>
       <c r="B1092" s="2" t="s">
         <v>16</v>
@@ -17221,7 +17242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1093" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1093" s="1" t="s">
         <v>1</v>
       </c>
@@ -17238,7 +17259,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1094" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1094" s="1" t="s">
         <v>2</v>
       </c>
@@ -17255,7 +17276,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1098" s="6"/>
       <c r="B1098" s="6"/>
       <c r="C1098" s="6"/>
@@ -17263,7 +17284,7 @@
       <c r="E1098" s="6"/>
       <c r="F1098" s="6"/>
     </row>
-    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1099" s="54" t="s">
         <v>238</v>
       </c>
@@ -17273,7 +17294,7 @@
       <c r="E1099" s="54"/>
       <c r="F1099" s="54"/>
     </row>
-    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1100" s="1"/>
       <c r="B1100" s="2" t="s">
         <v>14</v>
@@ -17291,7 +17312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1101" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1101" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1101" s="1" t="s">
         <v>1</v>
       </c>
@@ -17311,7 +17332,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="1102" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1102" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1102" s="1" t="s">
         <v>2</v>
       </c>
@@ -17331,7 +17352,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1103" s="54" t="s">
         <v>239</v>
       </c>
@@ -17341,7 +17362,7 @@
       <c r="E1103" s="54"/>
       <c r="F1103" s="50"/>
     </row>
-    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1104" s="1"/>
       <c r="B1104" s="2" t="s">
         <v>16</v>
@@ -17356,7 +17377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1105" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1105" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1105" s="1" t="s">
         <v>1</v>
       </c>
@@ -17373,7 +17394,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1106" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1106" s="1" t="s">
         <v>2</v>
       </c>
@@ -17390,7 +17411,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1109" s="6"/>
       <c r="B1109" s="6"/>
       <c r="C1109" s="6"/>
@@ -17398,7 +17419,7 @@
       <c r="E1109" s="6"/>
       <c r="F1109" s="6"/>
     </row>
-    <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1110" s="54" t="s">
         <v>240</v>
       </c>
@@ -17408,7 +17429,7 @@
       <c r="E1110" s="54"/>
       <c r="F1110" s="54"/>
     </row>
-    <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1111" s="1"/>
       <c r="B1111" s="2" t="s">
         <v>14</v>
@@ -17426,7 +17447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1112" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1112" s="1" t="s">
         <v>1</v>
       </c>
@@ -17446,7 +17467,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1113" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1113" s="1" t="s">
         <v>2</v>
       </c>
@@ -17466,7 +17487,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1114" s="54" t="s">
         <v>241</v>
       </c>
@@ -17476,7 +17497,7 @@
       <c r="E1114" s="54"/>
       <c r="F1114" s="50"/>
     </row>
-    <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1115" s="1"/>
       <c r="B1115" s="2" t="s">
         <v>16</v>
@@ -17495,7 +17516,7 @@
         <v>-770</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1116" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1116" s="1" t="s">
         <v>1</v>
       </c>
@@ -17512,7 +17533,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1117" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1117" s="1" t="s">
         <v>2</v>
       </c>
@@ -17529,7 +17550,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1120" s="6"/>
       <c r="B1120" s="6"/>
       <c r="C1120" s="6"/>
@@ -17537,7 +17558,7 @@
       <c r="E1120" s="6"/>
       <c r="F1120" s="6"/>
     </row>
-    <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1121" s="54" t="s">
         <v>242</v>
       </c>
@@ -17547,7 +17568,7 @@
       <c r="E1121" s="54"/>
       <c r="F1121" s="54"/>
     </row>
-    <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1122" s="1"/>
       <c r="B1122" s="2" t="s">
         <v>14</v>
@@ -17565,7 +17586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1123" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1123" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1123" s="1" t="s">
         <v>1</v>
       </c>
@@ -17585,7 +17606,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="1124" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1124" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1124" s="1" t="s">
         <v>2</v>
       </c>
@@ -17605,7 +17626,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1125" s="54" t="s">
         <v>243</v>
       </c>
@@ -17615,7 +17636,7 @@
       <c r="E1125" s="54"/>
       <c r="F1125" s="50"/>
     </row>
-    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1126" s="1"/>
       <c r="B1126" s="2" t="s">
         <v>16</v>
@@ -17630,7 +17651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1127" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1127" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1127" s="1" t="s">
         <v>1</v>
       </c>
@@ -17647,7 +17668,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="1128" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1128" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1128" s="1" t="s">
         <v>2</v>
       </c>
@@ -17664,7 +17685,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1132" s="6"/>
       <c r="B1132" s="6"/>
       <c r="C1132" s="6"/>
@@ -17672,7 +17693,7 @@
       <c r="E1132" s="6"/>
       <c r="F1132" s="6"/>
     </row>
-    <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1133" s="54" t="s">
         <v>244</v>
       </c>
@@ -17682,7 +17703,7 @@
       <c r="E1133" s="54"/>
       <c r="F1133" s="54"/>
     </row>
-    <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1134" s="1"/>
       <c r="B1134" s="2" t="s">
         <v>14</v>
@@ -17700,7 +17721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1135" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1135" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1135" s="1" t="s">
         <v>1</v>
       </c>
@@ -17720,7 +17741,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="1136" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1136" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1136" s="1" t="s">
         <v>2</v>
       </c>
@@ -17740,7 +17761,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1137" s="54" t="s">
         <v>245</v>
       </c>
@@ -17750,7 +17771,7 @@
       <c r="E1137" s="54"/>
       <c r="F1137" s="50"/>
     </row>
-    <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1138" s="1"/>
       <c r="B1138" s="2" t="s">
         <v>16</v>
@@ -17769,7 +17790,7 @@
         <v>-187</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1139" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1139" s="1" t="s">
         <v>1</v>
       </c>
@@ -17786,7 +17807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1140" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1140" s="1" t="s">
         <v>2</v>
       </c>
@@ -17803,8 +17824,351 @@
         <v>-0.44</v>
       </c>
     </row>
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1144" s="6"/>
+      <c r="B1144" s="6"/>
+      <c r="C1144" s="6"/>
+      <c r="D1144" s="6"/>
+      <c r="E1144" s="6"/>
+      <c r="F1144" s="6"/>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1145" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1145" s="54"/>
+      <c r="C1145" s="54"/>
+      <c r="D1145" s="54"/>
+      <c r="E1145" s="54"/>
+      <c r="F1145" s="54"/>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1146" s="1"/>
+      <c r="B1146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1146" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1146" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1147" s="55">
+        <v>26483</v>
+      </c>
+      <c r="C1147" s="56">
+        <v>26748</v>
+      </c>
+      <c r="D1147">
+        <v>112</v>
+      </c>
+      <c r="E1147" s="56">
+        <v>27220</v>
+      </c>
+      <c r="F1147" s="9">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1148" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1148" s="55">
+        <v>31085</v>
+      </c>
+      <c r="C1148" s="56">
+        <v>31396</v>
+      </c>
+      <c r="D1148">
+        <v>-141</v>
+      </c>
+      <c r="E1148" s="56">
+        <v>32187</v>
+      </c>
+      <c r="F1148" s="9">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1149" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1149" s="54"/>
+      <c r="C1149" s="54"/>
+      <c r="D1149" s="54"/>
+      <c r="E1149" s="54"/>
+      <c r="F1149" s="50"/>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1150" s="1"/>
+      <c r="B1150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1150" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1150" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1151" s="55">
+        <v>26393</v>
+      </c>
+      <c r="C1151" s="4">
+        <v>21</v>
+      </c>
+      <c r="D1151" s="55">
+        <v>5107400</v>
+      </c>
+      <c r="E1151" s="5">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1152" s="55">
+        <v>31114</v>
+      </c>
+      <c r="C1152" s="4">
+        <v>-216</v>
+      </c>
+      <c r="D1152" s="55">
+        <v>629100</v>
+      </c>
+      <c r="E1152" s="5">
+        <v>-0.13</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="230">
+  <mergeCells count="232">
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1133:F1133"/>
     <mergeCell ref="A1137:E1137"/>
     <mergeCell ref="A397:F397"/>
@@ -17829,212 +18193,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="252">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -774,6 +774,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 27 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 28 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 28 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1045,11 +1051,11 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1163"/>
+  <dimension ref="A1:J1175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1155" sqref="C1155"/>
+    <sheetView tabSelected="1" topLeftCell="A1156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1176" sqref="E1176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,13 +1353,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1406,13 +1412,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1465,12 +1471,12 @@
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,13 +1523,13 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1576,14 +1582,14 @@
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1644,13 +1650,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1703,14 +1709,14 @@
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1771,13 +1777,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1830,14 +1836,14 @@
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1898,13 +1904,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -1957,14 +1963,14 @@
     </row>
     <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2025,13 +2031,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -2084,14 +2090,14 @@
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2152,13 +2158,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -2211,14 +2217,14 @@
     </row>
     <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="56" t="s">
+      <c r="A64" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -2287,13 +2293,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
@@ -2346,14 +2352,14 @@
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="58"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="58"/>
+      <c r="F73" s="58"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -2422,13 +2428,13 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="58"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -2481,14 +2487,14 @@
     </row>
     <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="56" t="s">
+      <c r="A82" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -2557,13 +2563,13 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="56" t="s">
+      <c r="A86" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -2616,14 +2622,14 @@
     </row>
     <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="56"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -2689,13 +2695,13 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="56" t="s">
+      <c r="A95" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="58"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
@@ -2752,14 +2758,14 @@
     </row>
     <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="56" t="s">
+      <c r="A100" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="56"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="58"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -2825,13 +2831,13 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="56" t="s">
+      <c r="A104" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
@@ -2888,14 +2894,14 @@
     </row>
     <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="56" t="s">
+      <c r="A109" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B109" s="56"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="56"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="58"/>
+      <c r="F109" s="58"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
@@ -2961,13 +2967,13 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="56" t="s">
+      <c r="A113" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B113" s="56"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="58"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="58"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
@@ -3026,14 +3032,14 @@
     </row>
     <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="56" t="s">
+      <c r="A118" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B118" s="56"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
@@ -3099,13 +3105,13 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="56" t="s">
+      <c r="A122" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="56"/>
-      <c r="C122" s="56"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="58"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -3164,14 +3170,14 @@
     </row>
     <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="56" t="s">
+      <c r="A127" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B127" s="56"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="56"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
@@ -3238,13 +3244,13 @@
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="56" t="s">
+      <c r="A131" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B131" s="56"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
+      <c r="B131" s="58"/>
+      <c r="C131" s="58"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="58"/>
       <c r="I131" s="10"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -3305,14 +3311,14 @@
     </row>
     <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="56" t="s">
+      <c r="A136" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B136" s="56"/>
-      <c r="C136" s="56"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56"/>
+      <c r="B136" s="58"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="58"/>
+      <c r="F136" s="58"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3379,13 +3385,13 @@
       <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="56" t="s">
+      <c r="A140" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B140" s="56"/>
-      <c r="C140" s="56"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="56"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="58"/>
       <c r="I140" s="10"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -3447,14 +3453,14 @@
     </row>
     <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="56" t="s">
+      <c r="A145" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="56"/>
-      <c r="C145" s="56"/>
-      <c r="D145" s="56"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="58"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
@@ -3521,13 +3527,13 @@
       <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="56" t="s">
+      <c r="A149" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="56"/>
-      <c r="C149" s="56"/>
-      <c r="D149" s="56"/>
-      <c r="E149" s="56"/>
+      <c r="B149" s="58"/>
+      <c r="C149" s="58"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="58"/>
       <c r="G149">
         <f>F148/C148</f>
         <v>2.2416386163431928E-2</v>
@@ -3596,14 +3602,14 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="56" t="s">
+      <c r="A154" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="B154" s="56"/>
-      <c r="C154" s="56"/>
-      <c r="D154" s="56"/>
-      <c r="E154" s="56"/>
-      <c r="F154" s="56"/>
+      <c r="B154" s="58"/>
+      <c r="C154" s="58"/>
+      <c r="D154" s="58"/>
+      <c r="E154" s="58"/>
+      <c r="F154" s="58"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
@@ -3673,13 +3679,13 @@
       <c r="G157" s="10"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="56" t="s">
+      <c r="A158" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B158" s="56"/>
-      <c r="C158" s="56"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="56"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
       <c r="H158">
         <f>F157/C157</f>
         <v>2.5752148997134669E-2</v>
@@ -3746,14 +3752,14 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="56" t="s">
+      <c r="A163" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B163" s="56"/>
-      <c r="C163" s="56"/>
-      <c r="D163" s="56"/>
-      <c r="E163" s="56"/>
-      <c r="F163" s="56"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="58"/>
+      <c r="F163" s="58"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
@@ -3821,13 +3827,13 @@
       <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="56" t="s">
+      <c r="A167" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B167" s="56"/>
-      <c r="C167" s="56"/>
-      <c r="D167" s="56"/>
-      <c r="E167" s="56"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="58"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="58"/>
       <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -3895,14 +3901,14 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="56" t="s">
+      <c r="A172" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B172" s="56"/>
-      <c r="C172" s="56"/>
-      <c r="D172" s="56"/>
-      <c r="E172" s="56"/>
-      <c r="F172" s="56"/>
+      <c r="B172" s="58"/>
+      <c r="C172" s="58"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="58"/>
+      <c r="F172" s="58"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
@@ -3974,13 +3980,13 @@
       <c r="G175" s="10"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="56" t="s">
+      <c r="A176" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B176" s="56"/>
-      <c r="C176" s="56"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="56"/>
+      <c r="B176" s="58"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="58"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -4048,14 +4054,14 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="56" t="s">
+      <c r="A181" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B181" s="56"/>
-      <c r="C181" s="56"/>
-      <c r="D181" s="56"/>
-      <c r="E181" s="56"/>
-      <c r="F181" s="56"/>
+      <c r="B181" s="58"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
@@ -4123,13 +4129,13 @@
       <c r="G184" s="10"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="56" t="s">
+      <c r="A185" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B185" s="56"/>
-      <c r="C185" s="56"/>
-      <c r="D185" s="56"/>
-      <c r="E185" s="56"/>
+      <c r="B185" s="58"/>
+      <c r="C185" s="58"/>
+      <c r="D185" s="58"/>
+      <c r="E185" s="58"/>
       <c r="H185">
         <f>F184/C184</f>
         <v>3.0473475363100511E-2</v>
@@ -4197,14 +4203,14 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="56" t="s">
+      <c r="A190" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B190" s="56"/>
-      <c r="C190" s="56"/>
-      <c r="D190" s="56"/>
-      <c r="E190" s="56"/>
-      <c r="F190" s="56"/>
+      <c r="B190" s="58"/>
+      <c r="C190" s="58"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="58"/>
+      <c r="F190" s="58"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
@@ -4275,13 +4281,13 @@
       <c r="G193" s="10"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="56" t="s">
+      <c r="A194" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B194" s="56"/>
-      <c r="C194" s="56"/>
-      <c r="D194" s="56"/>
-      <c r="E194" s="56"/>
+      <c r="B194" s="58"/>
+      <c r="C194" s="58"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="58"/>
       <c r="H194">
         <f>F193/C193</f>
         <v>2.5228721929581369E-2</v>
@@ -4349,14 +4355,14 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="56" t="s">
+      <c r="A199" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B199" s="56"/>
-      <c r="C199" s="56"/>
-      <c r="D199" s="56"/>
-      <c r="E199" s="56"/>
-      <c r="F199" s="56"/>
+      <c r="B199" s="58"/>
+      <c r="C199" s="58"/>
+      <c r="D199" s="58"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="58"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
@@ -4427,13 +4433,13 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="56" t="s">
+      <c r="A203" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B203" s="56"/>
-      <c r="C203" s="56"/>
-      <c r="D203" s="56"/>
-      <c r="E203" s="56"/>
+      <c r="B203" s="58"/>
+      <c r="C203" s="58"/>
+      <c r="D203" s="58"/>
+      <c r="E203" s="58"/>
       <c r="I203" s="10"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -4496,14 +4502,14 @@
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="56" t="s">
+      <c r="A208" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B208" s="56"/>
-      <c r="C208" s="56"/>
-      <c r="D208" s="56"/>
-      <c r="E208" s="56"/>
-      <c r="F208" s="56"/>
+      <c r="B208" s="58"/>
+      <c r="C208" s="58"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="58"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
@@ -4579,13 +4585,13 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="56" t="s">
+      <c r="A212" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B212" s="56"/>
-      <c r="C212" s="56"/>
-      <c r="D212" s="56"/>
-      <c r="E212" s="56"/>
+      <c r="B212" s="58"/>
+      <c r="C212" s="58"/>
+      <c r="D212" s="58"/>
+      <c r="E212" s="58"/>
       <c r="F212">
         <f>F211/C211</f>
         <v>5.3257745129351643E-2</v>
@@ -4650,14 +4656,14 @@
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="56" t="s">
+      <c r="A217" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B217" s="56"/>
-      <c r="C217" s="56"/>
-      <c r="D217" s="56"/>
-      <c r="E217" s="56"/>
-      <c r="F217" s="56"/>
+      <c r="B217" s="58"/>
+      <c r="C217" s="58"/>
+      <c r="D217" s="58"/>
+      <c r="E217" s="58"/>
+      <c r="F217" s="58"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
@@ -4732,13 +4738,13 @@
       <c r="I220" s="10"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="56" t="s">
+      <c r="A221" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B221" s="56"/>
-      <c r="C221" s="56"/>
-      <c r="D221" s="56"/>
-      <c r="E221" s="56"/>
+      <c r="B221" s="58"/>
+      <c r="C221" s="58"/>
+      <c r="D221" s="58"/>
+      <c r="E221" s="58"/>
       <c r="G221">
         <f>F220/C220</f>
         <v>5.292938818814099E-2</v>
@@ -4803,14 +4809,14 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="56" t="s">
+      <c r="A226" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B226" s="56"/>
-      <c r="C226" s="56"/>
-      <c r="D226" s="56"/>
-      <c r="E226" s="56"/>
-      <c r="F226" s="56"/>
+      <c r="B226" s="58"/>
+      <c r="C226" s="58"/>
+      <c r="D226" s="58"/>
+      <c r="E226" s="58"/>
+      <c r="F226" s="58"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
@@ -4883,13 +4889,13 @@
       <c r="I229" s="10"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="56" t="s">
+      <c r="A230" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B230" s="56"/>
-      <c r="C230" s="56"/>
-      <c r="D230" s="56"/>
-      <c r="E230" s="56"/>
+      <c r="B230" s="58"/>
+      <c r="C230" s="58"/>
+      <c r="D230" s="58"/>
+      <c r="E230" s="58"/>
       <c r="G230">
         <f>F229/C229</f>
         <v>4.1247714808043873E-2</v>
@@ -4957,14 +4963,14 @@
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="56" t="s">
+      <c r="A235" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B235" s="56"/>
-      <c r="C235" s="56"/>
-      <c r="D235" s="56"/>
-      <c r="E235" s="56"/>
-      <c r="F235" s="56"/>
+      <c r="B235" s="58"/>
+      <c r="C235" s="58"/>
+      <c r="D235" s="58"/>
+      <c r="E235" s="58"/>
+      <c r="F235" s="58"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
@@ -5038,13 +5044,13 @@
       <c r="I238" s="10"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="56" t="s">
+      <c r="A239" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B239" s="56"/>
-      <c r="C239" s="56"/>
-      <c r="D239" s="56"/>
-      <c r="E239" s="56"/>
+      <c r="B239" s="58"/>
+      <c r="C239" s="58"/>
+      <c r="D239" s="58"/>
+      <c r="E239" s="58"/>
       <c r="I239" s="10"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -5112,14 +5118,14 @@
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="56" t="s">
+      <c r="A244" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B244" s="56"/>
-      <c r="C244" s="56"/>
-      <c r="D244" s="56"/>
-      <c r="E244" s="56"/>
-      <c r="F244" s="56"/>
+      <c r="B244" s="58"/>
+      <c r="C244" s="58"/>
+      <c r="D244" s="58"/>
+      <c r="E244" s="58"/>
+      <c r="F244" s="58"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
@@ -5194,13 +5200,13 @@
       <c r="I247" s="10"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="56" t="s">
+      <c r="A248" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B248" s="56"/>
-      <c r="C248" s="56"/>
-      <c r="D248" s="56"/>
-      <c r="E248" s="56"/>
+      <c r="B248" s="58"/>
+      <c r="C248" s="58"/>
+      <c r="D248" s="58"/>
+      <c r="E248" s="58"/>
       <c r="G248">
         <f>F247/C247</f>
         <v>4.4714828897338403E-2</v>
@@ -5265,14 +5271,14 @@
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="56" t="s">
+      <c r="A253" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B253" s="56"/>
-      <c r="C253" s="56"/>
-      <c r="D253" s="56"/>
-      <c r="E253" s="56"/>
-      <c r="F253" s="56"/>
+      <c r="B253" s="58"/>
+      <c r="C253" s="58"/>
+      <c r="D253" s="58"/>
+      <c r="E253" s="58"/>
+      <c r="F253" s="58"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
@@ -5348,13 +5354,13 @@
       <c r="I256" s="10"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="56" t="s">
+      <c r="A257" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B257" s="56"/>
-      <c r="C257" s="56"/>
-      <c r="D257" s="56"/>
-      <c r="E257" s="56"/>
+      <c r="B257" s="58"/>
+      <c r="C257" s="58"/>
+      <c r="D257" s="58"/>
+      <c r="E257" s="58"/>
       <c r="I257" s="10"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -5419,14 +5425,14 @@
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="56" t="s">
+      <c r="A262" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B262" s="56"/>
-      <c r="C262" s="56"/>
-      <c r="D262" s="56"/>
-      <c r="E262" s="56"/>
-      <c r="F262" s="56"/>
+      <c r="B262" s="58"/>
+      <c r="C262" s="58"/>
+      <c r="D262" s="58"/>
+      <c r="E262" s="58"/>
+      <c r="F262" s="58"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
@@ -5501,13 +5507,13 @@
       <c r="I265" s="10"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="56" t="s">
+      <c r="A266" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B266" s="56"/>
-      <c r="C266" s="56"/>
-      <c r="D266" s="56"/>
-      <c r="E266" s="56"/>
+      <c r="B266" s="58"/>
+      <c r="C266" s="58"/>
+      <c r="D266" s="58"/>
+      <c r="E266" s="58"/>
       <c r="F266">
         <f>F265/C265</f>
         <v>6.3093391837197865E-2</v>
@@ -5576,14 +5582,14 @@
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="56" t="s">
+      <c r="A271" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B271" s="56"/>
-      <c r="C271" s="56"/>
-      <c r="D271" s="56"/>
-      <c r="E271" s="56"/>
-      <c r="F271" s="56"/>
+      <c r="B271" s="58"/>
+      <c r="C271" s="58"/>
+      <c r="D271" s="58"/>
+      <c r="E271" s="58"/>
+      <c r="F271" s="58"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
@@ -5659,13 +5665,13 @@
       <c r="I274" s="10"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="56" t="s">
+      <c r="A275" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B275" s="56"/>
-      <c r="C275" s="56"/>
-      <c r="D275" s="56"/>
-      <c r="E275" s="56"/>
+      <c r="B275" s="58"/>
+      <c r="C275" s="58"/>
+      <c r="D275" s="58"/>
+      <c r="E275" s="58"/>
       <c r="G275">
         <f>F274/C274</f>
         <v>2.9095066007817687E-2</v>
@@ -5730,14 +5736,14 @@
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="56" t="s">
+      <c r="A280" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B280" s="56"/>
-      <c r="C280" s="56"/>
-      <c r="D280" s="56"/>
-      <c r="E280" s="56"/>
-      <c r="F280" s="56"/>
+      <c r="B280" s="58"/>
+      <c r="C280" s="58"/>
+      <c r="D280" s="58"/>
+      <c r="E280" s="58"/>
+      <c r="F280" s="58"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
@@ -5812,13 +5818,13 @@
       <c r="I283" s="10"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="56" t="s">
+      <c r="A284" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B284" s="56"/>
-      <c r="C284" s="56"/>
-      <c r="D284" s="56"/>
-      <c r="E284" s="56"/>
+      <c r="B284" s="58"/>
+      <c r="C284" s="58"/>
+      <c r="D284" s="58"/>
+      <c r="E284" s="58"/>
       <c r="G284">
         <f>F283/C283</f>
         <v>3.0301905009469346E-2</v>
@@ -5887,14 +5893,14 @@
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="56" t="s">
+      <c r="A289" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B289" s="56"/>
-      <c r="C289" s="56"/>
-      <c r="D289" s="56"/>
-      <c r="E289" s="56"/>
-      <c r="F289" s="56"/>
+      <c r="B289" s="58"/>
+      <c r="C289" s="58"/>
+      <c r="D289" s="58"/>
+      <c r="E289" s="58"/>
+      <c r="F289" s="58"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
@@ -5969,13 +5975,13 @@
       <c r="I292" s="10"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="56" t="s">
+      <c r="A293" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B293" s="56"/>
-      <c r="C293" s="56"/>
-      <c r="D293" s="56"/>
-      <c r="E293" s="56"/>
+      <c r="B293" s="58"/>
+      <c r="C293" s="58"/>
+      <c r="D293" s="58"/>
+      <c r="E293" s="58"/>
       <c r="G293">
         <f>F292/C292</f>
         <v>3.1772328989028792E-2</v>
@@ -6040,14 +6046,14 @@
     </row>
     <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="56" t="s">
+      <c r="A298" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B298" s="56"/>
-      <c r="C298" s="56"/>
-      <c r="D298" s="56"/>
-      <c r="E298" s="56"/>
-      <c r="F298" s="56"/>
+      <c r="B298" s="58"/>
+      <c r="C298" s="58"/>
+      <c r="D298" s="58"/>
+      <c r="E298" s="58"/>
+      <c r="F298" s="58"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
@@ -6121,13 +6127,13 @@
       <c r="I301" s="10"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" s="56" t="s">
+      <c r="A302" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B302" s="56"/>
-      <c r="C302" s="56"/>
-      <c r="D302" s="56"/>
-      <c r="E302" s="56"/>
+      <c r="B302" s="58"/>
+      <c r="C302" s="58"/>
+      <c r="D302" s="58"/>
+      <c r="E302" s="58"/>
       <c r="G302">
         <f>F301/C301</f>
         <v>1.9754619148470022E-2</v>
@@ -6196,14 +6202,14 @@
     </row>
     <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="56" t="s">
+      <c r="A307" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B307" s="56"/>
-      <c r="C307" s="56"/>
-      <c r="D307" s="56"/>
-      <c r="E307" s="56"/>
-      <c r="F307" s="56"/>
+      <c r="B307" s="58"/>
+      <c r="C307" s="58"/>
+      <c r="D307" s="58"/>
+      <c r="E307" s="58"/>
+      <c r="F307" s="58"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
@@ -6280,13 +6286,13 @@
       <c r="I310" s="10"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A311" s="56" t="s">
+      <c r="A311" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B311" s="56"/>
-      <c r="C311" s="56"/>
-      <c r="D311" s="56"/>
-      <c r="E311" s="56"/>
+      <c r="B311" s="58"/>
+      <c r="C311" s="58"/>
+      <c r="D311" s="58"/>
+      <c r="E311" s="58"/>
       <c r="G311">
         <f>F310/C310</f>
         <v>2.377202300282041E-2</v>
@@ -6351,14 +6357,14 @@
     </row>
     <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A316" s="56" t="s">
+      <c r="A316" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B316" s="56"/>
-      <c r="C316" s="56"/>
-      <c r="D316" s="56"/>
-      <c r="E316" s="56"/>
-      <c r="F316" s="56"/>
+      <c r="B316" s="58"/>
+      <c r="C316" s="58"/>
+      <c r="D316" s="58"/>
+      <c r="E316" s="58"/>
+      <c r="F316" s="58"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
@@ -6432,13 +6438,13 @@
       <c r="I319" s="10"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320" s="56" t="s">
+      <c r="A320" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="B320" s="56"/>
-      <c r="C320" s="56"/>
-      <c r="D320" s="56"/>
-      <c r="E320" s="56"/>
+      <c r="B320" s="58"/>
+      <c r="C320" s="58"/>
+      <c r="D320" s="58"/>
+      <c r="E320" s="58"/>
       <c r="G320">
         <f>F319/C319</f>
         <v>3.4446152719818435E-2</v>
@@ -6506,14 +6512,14 @@
     </row>
     <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A325" s="56" t="s">
+      <c r="A325" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B325" s="56"/>
-      <c r="C325" s="56"/>
-      <c r="D325" s="56"/>
-      <c r="E325" s="56"/>
-      <c r="F325" s="56"/>
+      <c r="B325" s="58"/>
+      <c r="C325" s="58"/>
+      <c r="D325" s="58"/>
+      <c r="E325" s="58"/>
+      <c r="F325" s="58"/>
       <c r="H325">
         <f>E327-E318</f>
         <v>-230</v>
@@ -6591,13 +6597,13 @@
       <c r="I328" s="10"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="56" t="s">
+      <c r="A329" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B329" s="56"/>
-      <c r="C329" s="56"/>
-      <c r="D329" s="56"/>
-      <c r="E329" s="56"/>
+      <c r="B329" s="58"/>
+      <c r="C329" s="58"/>
+      <c r="D329" s="58"/>
+      <c r="E329" s="58"/>
       <c r="G329">
         <f>F328/C328</f>
         <v>2.3426650098676997E-2</v>
@@ -6662,14 +6668,14 @@
     </row>
     <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A334" s="56" t="s">
+      <c r="A334" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B334" s="56"/>
-      <c r="C334" s="56"/>
-      <c r="D334" s="56"/>
-      <c r="E334" s="56"/>
-      <c r="F334" s="56"/>
+      <c r="B334" s="58"/>
+      <c r="C334" s="58"/>
+      <c r="D334" s="58"/>
+      <c r="E334" s="58"/>
+      <c r="F334" s="58"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
@@ -6743,13 +6749,13 @@
       <c r="I337" s="10"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" s="56" t="s">
+      <c r="A338" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B338" s="56"/>
-      <c r="C338" s="56"/>
-      <c r="D338" s="56"/>
-      <c r="E338" s="56"/>
+      <c r="B338" s="58"/>
+      <c r="C338" s="58"/>
+      <c r="D338" s="58"/>
+      <c r="E338" s="58"/>
       <c r="G338">
         <f>F337/C337</f>
         <v>3.330182505635134E-2</v>
@@ -6818,14 +6824,14 @@
     </row>
     <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="56" t="s">
+      <c r="A343" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B343" s="56"/>
-      <c r="C343" s="56"/>
-      <c r="D343" s="56"/>
-      <c r="E343" s="56"/>
-      <c r="F343" s="56"/>
+      <c r="B343" s="58"/>
+      <c r="C343" s="58"/>
+      <c r="D343" s="58"/>
+      <c r="E343" s="58"/>
+      <c r="F343" s="58"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
@@ -6903,13 +6909,13 @@
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="56" t="s">
+      <c r="A347" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B347" s="56"/>
-      <c r="C347" s="56"/>
-      <c r="D347" s="56"/>
-      <c r="E347" s="56"/>
+      <c r="B347" s="58"/>
+      <c r="C347" s="58"/>
+      <c r="D347" s="58"/>
+      <c r="E347" s="58"/>
       <c r="H347">
         <f>F346/C346</f>
         <v>3.1777737425095334E-2</v>
@@ -6974,14 +6980,14 @@
     </row>
     <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="56" t="s">
+      <c r="A352" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="B352" s="56"/>
-      <c r="C352" s="56"/>
-      <c r="D352" s="56"/>
-      <c r="E352" s="56"/>
-      <c r="F352" s="56"/>
+      <c r="B352" s="58"/>
+      <c r="C352" s="58"/>
+      <c r="D352" s="58"/>
+      <c r="E352" s="58"/>
+      <c r="F352" s="58"/>
       <c r="I352">
         <f>E354-E345</f>
         <v>750</v>
@@ -7056,13 +7062,13 @@
       <c r="I355" s="10"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" s="56" t="s">
+      <c r="A356" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B356" s="56"/>
-      <c r="C356" s="56"/>
-      <c r="D356" s="56"/>
-      <c r="E356" s="56"/>
+      <c r="B356" s="58"/>
+      <c r="C356" s="58"/>
+      <c r="D356" s="58"/>
+      <c r="E356" s="58"/>
       <c r="H356">
         <f>F355/C355</f>
         <v>3.1826209819851639E-2</v>
@@ -7130,14 +7136,14 @@
     </row>
     <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A361" s="56" t="s">
+      <c r="A361" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B361" s="56"/>
-      <c r="C361" s="56"/>
-      <c r="D361" s="56"/>
-      <c r="E361" s="56"/>
-      <c r="F361" s="56"/>
+      <c r="B361" s="58"/>
+      <c r="C361" s="58"/>
+      <c r="D361" s="58"/>
+      <c r="E361" s="58"/>
+      <c r="F361" s="58"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
@@ -7211,13 +7217,13 @@
       <c r="I364" s="10"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A365" s="56" t="s">
+      <c r="A365" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B365" s="56"/>
-      <c r="C365" s="56"/>
-      <c r="D365" s="56"/>
-      <c r="E365" s="56"/>
+      <c r="B365" s="58"/>
+      <c r="C365" s="58"/>
+      <c r="D365" s="58"/>
+      <c r="E365" s="58"/>
       <c r="I365" s="10"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -7286,14 +7292,14 @@
     </row>
     <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A370" s="56" t="s">
+      <c r="A370" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="B370" s="56"/>
-      <c r="C370" s="56"/>
-      <c r="D370" s="56"/>
-      <c r="E370" s="56"/>
-      <c r="F370" s="56"/>
+      <c r="B370" s="58"/>
+      <c r="C370" s="58"/>
+      <c r="D370" s="58"/>
+      <c r="E370" s="58"/>
+      <c r="F370" s="58"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
@@ -7367,13 +7373,13 @@
       <c r="I373" s="10"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="56" t="s">
+      <c r="A374" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="B374" s="56"/>
-      <c r="C374" s="56"/>
-      <c r="D374" s="56"/>
-      <c r="E374" s="56"/>
+      <c r="B374" s="58"/>
+      <c r="C374" s="58"/>
+      <c r="D374" s="58"/>
+      <c r="E374" s="58"/>
       <c r="G374">
         <f>F373/C373</f>
         <v>3.0363083020737491E-2</v>
@@ -7442,14 +7448,14 @@
     </row>
     <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A379" s="56" t="s">
+      <c r="A379" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="B379" s="56"/>
-      <c r="C379" s="56"/>
-      <c r="D379" s="56"/>
-      <c r="E379" s="56"/>
-      <c r="F379" s="56"/>
+      <c r="B379" s="58"/>
+      <c r="C379" s="58"/>
+      <c r="D379" s="58"/>
+      <c r="E379" s="58"/>
+      <c r="F379" s="58"/>
       <c r="I379">
         <f>E381-E372</f>
         <v>230</v>
@@ -7524,13 +7530,13 @@
       <c r="I382" s="10"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A383" s="56" t="s">
+      <c r="A383" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B383" s="56"/>
-      <c r="C383" s="56"/>
-      <c r="D383" s="56"/>
-      <c r="E383" s="56"/>
+      <c r="B383" s="58"/>
+      <c r="C383" s="58"/>
+      <c r="D383" s="58"/>
+      <c r="E383" s="58"/>
       <c r="H383">
         <f>F382/C382</f>
         <v>2.9669635968296276E-2</v>
@@ -7599,14 +7605,14 @@
     </row>
     <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A388" s="56" t="s">
+      <c r="A388" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="B388" s="56"/>
-      <c r="C388" s="56"/>
-      <c r="D388" s="56"/>
-      <c r="E388" s="56"/>
-      <c r="F388" s="56"/>
+      <c r="B388" s="58"/>
+      <c r="C388" s="58"/>
+      <c r="D388" s="58"/>
+      <c r="E388" s="58"/>
+      <c r="F388" s="58"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
@@ -7681,13 +7687,13 @@
       <c r="I391" s="10"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A392" s="56" t="s">
+      <c r="A392" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B392" s="56"/>
-      <c r="C392" s="56"/>
-      <c r="D392" s="56"/>
-      <c r="E392" s="56"/>
+      <c r="B392" s="58"/>
+      <c r="C392" s="58"/>
+      <c r="D392" s="58"/>
+      <c r="E392" s="58"/>
       <c r="G392">
         <f>F391/C391</f>
         <v>2.4687004055722096E-2</v>
@@ -7756,14 +7762,14 @@
     </row>
     <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A397" s="56" t="s">
+      <c r="A397" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="B397" s="56"/>
-      <c r="C397" s="56"/>
-      <c r="D397" s="56"/>
-      <c r="E397" s="56"/>
-      <c r="F397" s="56"/>
+      <c r="B397" s="58"/>
+      <c r="C397" s="58"/>
+      <c r="D397" s="58"/>
+      <c r="E397" s="58"/>
+      <c r="F397" s="58"/>
       <c r="H397">
         <f>F399/C399</f>
         <v>1.6681599044327831E-2</v>
@@ -7840,13 +7846,13 @@
       <c r="I400" s="10"/>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A401" s="56" t="s">
+      <c r="A401" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B401" s="56"/>
-      <c r="C401" s="56"/>
-      <c r="D401" s="56"/>
-      <c r="E401" s="56"/>
+      <c r="B401" s="58"/>
+      <c r="C401" s="58"/>
+      <c r="D401" s="58"/>
+      <c r="E401" s="58"/>
       <c r="H401">
         <f>F400/C400</f>
         <v>1.4285216542977597E-2</v>
@@ -7911,14 +7917,14 @@
     </row>
     <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A406" s="56" t="s">
+      <c r="A406" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="B406" s="56"/>
-      <c r="C406" s="56"/>
-      <c r="D406" s="56"/>
-      <c r="E406" s="56"/>
-      <c r="F406" s="56"/>
+      <c r="B406" s="58"/>
+      <c r="C406" s="58"/>
+      <c r="D406" s="58"/>
+      <c r="E406" s="58"/>
+      <c r="F406" s="58"/>
       <c r="H406">
         <f>E408-E399</f>
         <v>150</v>
@@ -7993,13 +7999,13 @@
       <c r="I409" s="10"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A410" s="56" t="s">
+      <c r="A410" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="B410" s="56"/>
-      <c r="C410" s="56"/>
-      <c r="D410" s="56"/>
-      <c r="E410" s="56"/>
+      <c r="B410" s="58"/>
+      <c r="C410" s="58"/>
+      <c r="D410" s="58"/>
+      <c r="E410" s="58"/>
       <c r="G410">
         <f>F409/C409</f>
         <v>1.5034453956984757E-2</v>
@@ -8068,14 +8074,14 @@
     </row>
     <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A415" s="56" t="s">
+      <c r="A415" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="B415" s="56"/>
-      <c r="C415" s="56"/>
-      <c r="D415" s="56"/>
-      <c r="E415" s="56"/>
-      <c r="F415" s="56"/>
+      <c r="B415" s="58"/>
+      <c r="C415" s="58"/>
+      <c r="D415" s="58"/>
+      <c r="E415" s="58"/>
+      <c r="F415" s="58"/>
       <c r="G415">
         <f>F417/C417</f>
         <v>1.4874628134296642E-2</v>
@@ -8153,13 +8159,13 @@
       <c r="I418" s="10"/>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A419" s="56" t="s">
+      <c r="A419" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="B419" s="56"/>
-      <c r="C419" s="56"/>
-      <c r="D419" s="56"/>
-      <c r="E419" s="56"/>
+      <c r="B419" s="58"/>
+      <c r="C419" s="58"/>
+      <c r="D419" s="58"/>
+      <c r="E419" s="58"/>
       <c r="G419">
         <f>F418/C418</f>
         <v>1.5932227025519455E-2</v>
@@ -8224,14 +8230,14 @@
     </row>
     <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A424" s="56" t="s">
+      <c r="A424" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="B424" s="56"/>
-      <c r="C424" s="56"/>
-      <c r="D424" s="56"/>
-      <c r="E424" s="56"/>
-      <c r="F424" s="56"/>
+      <c r="B424" s="58"/>
+      <c r="C424" s="58"/>
+      <c r="D424" s="58"/>
+      <c r="E424" s="58"/>
+      <c r="F424" s="58"/>
       <c r="I424">
         <f>E426-E417</f>
         <v>300</v>
@@ -8306,13 +8312,13 @@
       <c r="I427" s="10"/>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A428" s="56" t="s">
+      <c r="A428" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B428" s="56"/>
-      <c r="C428" s="56"/>
-      <c r="D428" s="56"/>
-      <c r="E428" s="56"/>
+      <c r="B428" s="58"/>
+      <c r="C428" s="58"/>
+      <c r="D428" s="58"/>
+      <c r="E428" s="58"/>
       <c r="I428" s="10"/>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -8380,14 +8386,14 @@
     </row>
     <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="56" t="s">
+      <c r="A433" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="B433" s="56"/>
-      <c r="C433" s="56"/>
-      <c r="D433" s="56"/>
-      <c r="E433" s="56"/>
-      <c r="F433" s="56"/>
+      <c r="B433" s="58"/>
+      <c r="C433" s="58"/>
+      <c r="D433" s="58"/>
+      <c r="E433" s="58"/>
+      <c r="F433" s="58"/>
       <c r="G433">
         <f>F435/C435</f>
         <v>1.7408615358549706E-2</v>
@@ -8462,13 +8468,13 @@
       <c r="I436" s="10"/>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A437" s="56" t="s">
+      <c r="A437" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B437" s="56"/>
-      <c r="C437" s="56"/>
-      <c r="D437" s="56"/>
-      <c r="E437" s="56"/>
+      <c r="B437" s="58"/>
+      <c r="C437" s="58"/>
+      <c r="D437" s="58"/>
+      <c r="E437" s="58"/>
       <c r="G437">
         <f>F436/C436</f>
         <v>9.4623061781261876E-3</v>
@@ -8537,14 +8543,14 @@
     </row>
     <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A442" s="56" t="s">
+      <c r="A442" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="B442" s="56"/>
-      <c r="C442" s="56"/>
-      <c r="D442" s="56"/>
-      <c r="E442" s="56"/>
-      <c r="F442" s="56"/>
+      <c r="B442" s="58"/>
+      <c r="C442" s="58"/>
+      <c r="D442" s="58"/>
+      <c r="E442" s="58"/>
+      <c r="F442" s="58"/>
       <c r="G442">
         <f>F444/C444</f>
         <v>1.0817975798520545E-2</v>
@@ -8624,13 +8630,13 @@
       <c r="I445" s="10"/>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A446" s="56" t="s">
+      <c r="A446" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B446" s="56"/>
-      <c r="C446" s="56"/>
-      <c r="D446" s="56"/>
-      <c r="E446" s="56"/>
+      <c r="B446" s="58"/>
+      <c r="C446" s="58"/>
+      <c r="D446" s="58"/>
+      <c r="E446" s="58"/>
       <c r="G446">
         <f>F445/C445</f>
         <v>1.6382373845060413E-2</v>
@@ -8695,14 +8701,14 @@
     </row>
     <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A451" s="56" t="s">
+      <c r="A451" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="B451" s="56"/>
-      <c r="C451" s="56"/>
-      <c r="D451" s="56"/>
-      <c r="E451" s="56"/>
-      <c r="F451" s="56"/>
+      <c r="B451" s="58"/>
+      <c r="C451" s="58"/>
+      <c r="D451" s="58"/>
+      <c r="E451" s="58"/>
+      <c r="F451" s="58"/>
       <c r="G451">
         <f>F453/C453</f>
         <v>1.8699532511687208E-2</v>
@@ -8777,13 +8783,13 @@
       <c r="I454" s="10"/>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A455" s="56" t="s">
+      <c r="A455" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B455" s="56"/>
-      <c r="C455" s="56"/>
-      <c r="D455" s="56"/>
-      <c r="E455" s="56"/>
+      <c r="B455" s="58"/>
+      <c r="C455" s="58"/>
+      <c r="D455" s="58"/>
+      <c r="E455" s="58"/>
       <c r="G455">
         <f>F454/C454</f>
         <v>8.4291187739463595E-3</v>
@@ -8851,14 +8857,14 @@
     </row>
     <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A460" s="56" t="s">
+      <c r="A460" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B460" s="56"/>
-      <c r="C460" s="56"/>
-      <c r="D460" s="56"/>
-      <c r="E460" s="56"/>
-      <c r="F460" s="56"/>
+      <c r="B460" s="58"/>
+      <c r="C460" s="58"/>
+      <c r="D460" s="58"/>
+      <c r="E460" s="58"/>
+      <c r="F460" s="58"/>
       <c r="G460">
         <f>F462/C462</f>
         <v>1.5754384474924624E-2</v>
@@ -8933,13 +8939,13 @@
       <c r="I463" s="10"/>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A464" s="56" t="s">
+      <c r="A464" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B464" s="56"/>
-      <c r="C464" s="56"/>
-      <c r="D464" s="56"/>
-      <c r="E464" s="56"/>
+      <c r="B464" s="58"/>
+      <c r="C464" s="58"/>
+      <c r="D464" s="58"/>
+      <c r="E464" s="58"/>
       <c r="G464">
         <f>F463/C463</f>
         <v>2.4972702617026523E-2</v>
@@ -9008,14 +9014,14 @@
     </row>
     <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A469" s="56" t="s">
+      <c r="A469" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B469" s="56"/>
-      <c r="C469" s="56"/>
-      <c r="D469" s="56"/>
-      <c r="E469" s="56"/>
-      <c r="F469" s="56"/>
+      <c r="B469" s="58"/>
+      <c r="C469" s="58"/>
+      <c r="D469" s="58"/>
+      <c r="E469" s="58"/>
+      <c r="F469" s="58"/>
       <c r="H469">
         <f>E471-E462</f>
         <v>120</v>
@@ -9090,13 +9096,13 @@
       <c r="I472" s="10"/>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A473" s="56" t="s">
+      <c r="A473" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B473" s="56"/>
-      <c r="C473" s="56"/>
-      <c r="D473" s="56"/>
-      <c r="E473" s="56"/>
+      <c r="B473" s="58"/>
+      <c r="C473" s="58"/>
+      <c r="D473" s="58"/>
+      <c r="E473" s="58"/>
       <c r="G473">
         <f>F472/C472</f>
         <v>2.6497085320614733E-2</v>
@@ -9165,14 +9171,14 @@
     </row>
     <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A478" s="56" t="s">
+      <c r="A478" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="B478" s="56"/>
-      <c r="C478" s="56"/>
-      <c r="D478" s="56"/>
-      <c r="E478" s="56"/>
-      <c r="F478" s="56"/>
+      <c r="B478" s="58"/>
+      <c r="C478" s="58"/>
+      <c r="D478" s="58"/>
+      <c r="E478" s="58"/>
+      <c r="F478" s="58"/>
       <c r="G478">
         <f>F480/C480</f>
         <v>2.2910479422995334E-2</v>
@@ -9247,13 +9253,13 @@
       <c r="I481" s="10"/>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A482" s="56" t="s">
+      <c r="A482" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B482" s="56"/>
-      <c r="C482" s="56"/>
-      <c r="D482" s="56"/>
-      <c r="E482" s="56"/>
+      <c r="B482" s="58"/>
+      <c r="C482" s="58"/>
+      <c r="D482" s="58"/>
+      <c r="E482" s="58"/>
       <c r="F482" s="34"/>
       <c r="G482">
         <f>F481/C481</f>
@@ -9325,14 +9331,14 @@
     </row>
     <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A487" s="56" t="s">
+      <c r="A487" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B487" s="56"/>
-      <c r="C487" s="56"/>
-      <c r="D487" s="56"/>
-      <c r="E487" s="56"/>
-      <c r="F487" s="56"/>
+      <c r="B487" s="58"/>
+      <c r="C487" s="58"/>
+      <c r="D487" s="58"/>
+      <c r="E487" s="58"/>
+      <c r="F487" s="58"/>
       <c r="I487">
         <f>E489-E480</f>
         <v>230</v>
@@ -9407,13 +9413,13 @@
       <c r="I490" s="10"/>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A491" s="56" t="s">
+      <c r="A491" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B491" s="56"/>
-      <c r="C491" s="56"/>
-      <c r="D491" s="56"/>
-      <c r="E491" s="56"/>
+      <c r="B491" s="58"/>
+      <c r="C491" s="58"/>
+      <c r="D491" s="58"/>
+      <c r="E491" s="58"/>
       <c r="F491" s="34"/>
       <c r="H491">
         <f>F490/C490</f>
@@ -9484,14 +9490,14 @@
     </row>
     <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A496" s="56" t="s">
+      <c r="A496" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="B496" s="56"/>
-      <c r="C496" s="56"/>
-      <c r="D496" s="56"/>
-      <c r="E496" s="56"/>
-      <c r="F496" s="56"/>
+      <c r="B496" s="58"/>
+      <c r="C496" s="58"/>
+      <c r="D496" s="58"/>
+      <c r="E496" s="58"/>
+      <c r="F496" s="58"/>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
@@ -9566,13 +9572,13 @@
       <c r="I499" s="10"/>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A500" s="56" t="s">
+      <c r="A500" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B500" s="56"/>
-      <c r="C500" s="56"/>
-      <c r="D500" s="56"/>
-      <c r="E500" s="56"/>
+      <c r="B500" s="58"/>
+      <c r="C500" s="58"/>
+      <c r="D500" s="58"/>
+      <c r="E500" s="58"/>
       <c r="F500" s="34"/>
       <c r="G500">
         <f>F499/C499</f>
@@ -9644,14 +9650,14 @@
     </row>
     <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A505" s="56" t="s">
+      <c r="A505" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B505" s="56"/>
-      <c r="C505" s="56"/>
-      <c r="D505" s="56"/>
-      <c r="E505" s="56"/>
-      <c r="F505" s="56"/>
+      <c r="B505" s="58"/>
+      <c r="C505" s="58"/>
+      <c r="D505" s="58"/>
+      <c r="E505" s="58"/>
+      <c r="F505" s="58"/>
       <c r="G505">
         <f>F507/C507</f>
         <v>8.3248386000679582E-3</v>
@@ -9727,13 +9733,13 @@
       <c r="I508" s="10"/>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A509" s="56" t="s">
+      <c r="A509" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B509" s="56"/>
-      <c r="C509" s="56"/>
-      <c r="D509" s="56"/>
-      <c r="E509" s="56"/>
+      <c r="B509" s="58"/>
+      <c r="C509" s="58"/>
+      <c r="D509" s="58"/>
+      <c r="E509" s="58"/>
       <c r="F509" s="34"/>
       <c r="G509">
         <f>F508/C508</f>
@@ -9808,14 +9814,14 @@
     </row>
     <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A514" s="56" t="s">
+      <c r="A514" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B514" s="56"/>
-      <c r="C514" s="56"/>
-      <c r="D514" s="56"/>
-      <c r="E514" s="56"/>
-      <c r="F514" s="56"/>
+      <c r="B514" s="58"/>
+      <c r="C514" s="58"/>
+      <c r="D514" s="58"/>
+      <c r="E514" s="58"/>
+      <c r="F514" s="58"/>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
@@ -9886,13 +9892,13 @@
       <c r="I517" s="10"/>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A518" s="56" t="s">
+      <c r="A518" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B518" s="56"/>
-      <c r="C518" s="56"/>
-      <c r="D518" s="56"/>
-      <c r="E518" s="56"/>
+      <c r="B518" s="58"/>
+      <c r="C518" s="58"/>
+      <c r="D518" s="58"/>
+      <c r="E518" s="58"/>
       <c r="F518" s="34"/>
       <c r="I518" s="10"/>
     </row>
@@ -9959,14 +9965,14 @@
     </row>
     <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A523" s="56" t="s">
+      <c r="A523" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B523" s="56"/>
-      <c r="C523" s="56"/>
-      <c r="D523" s="56"/>
-      <c r="E523" s="56"/>
-      <c r="F523" s="56"/>
+      <c r="B523" s="58"/>
+      <c r="C523" s="58"/>
+      <c r="D523" s="58"/>
+      <c r="E523" s="58"/>
+      <c r="F523" s="58"/>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
@@ -10034,13 +10040,13 @@
       <c r="I526" s="10"/>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A527" s="56" t="s">
+      <c r="A527" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B527" s="56"/>
-      <c r="C527" s="56"/>
-      <c r="D527" s="56"/>
-      <c r="E527" s="56"/>
+      <c r="B527" s="58"/>
+      <c r="C527" s="58"/>
+      <c r="D527" s="58"/>
+      <c r="E527" s="58"/>
       <c r="F527" s="34"/>
       <c r="I527" s="10"/>
     </row>
@@ -10104,14 +10110,14 @@
     </row>
     <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A534" s="56" t="s">
+      <c r="A534" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B534" s="56"/>
-      <c r="C534" s="56"/>
-      <c r="D534" s="56"/>
-      <c r="E534" s="56"/>
-      <c r="F534" s="56"/>
+      <c r="B534" s="58"/>
+      <c r="C534" s="58"/>
+      <c r="D534" s="58"/>
+      <c r="E534" s="58"/>
+      <c r="F534" s="58"/>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
@@ -10156,13 +10162,13 @@
       <c r="I537" s="10"/>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A538" s="56" t="s">
+      <c r="A538" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="B538" s="56"/>
-      <c r="C538" s="56"/>
-      <c r="D538" s="56"/>
-      <c r="E538" s="56"/>
+      <c r="B538" s="58"/>
+      <c r="C538" s="58"/>
+      <c r="D538" s="58"/>
+      <c r="E538" s="58"/>
       <c r="F538" s="34"/>
       <c r="I538" s="10"/>
     </row>
@@ -10210,14 +10216,14 @@
     </row>
     <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A545" s="56" t="s">
+      <c r="A545" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B545" s="56"/>
-      <c r="C545" s="56"/>
-      <c r="D545" s="56"/>
-      <c r="E545" s="56"/>
-      <c r="F545" s="56"/>
+      <c r="B545" s="58"/>
+      <c r="C545" s="58"/>
+      <c r="D545" s="58"/>
+      <c r="E545" s="58"/>
+      <c r="F545" s="58"/>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
@@ -10273,13 +10279,13 @@
       <c r="I548" s="10"/>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A549" s="56" t="s">
+      <c r="A549" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="B549" s="56"/>
-      <c r="C549" s="56"/>
-      <c r="D549" s="56"/>
-      <c r="E549" s="56"/>
+      <c r="B549" s="58"/>
+      <c r="C549" s="58"/>
+      <c r="D549" s="58"/>
+      <c r="E549" s="58"/>
       <c r="F549" s="34"/>
       <c r="I549" s="10"/>
     </row>
@@ -10335,14 +10341,14 @@
     </row>
     <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A556" s="56" t="s">
+      <c r="A556" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="B556" s="56"/>
-      <c r="C556" s="56"/>
-      <c r="D556" s="56"/>
-      <c r="E556" s="56"/>
-      <c r="F556" s="56"/>
+      <c r="B556" s="58"/>
+      <c r="C556" s="58"/>
+      <c r="D556" s="58"/>
+      <c r="E556" s="58"/>
+      <c r="F556" s="58"/>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
@@ -10418,13 +10424,13 @@
       <c r="I559" s="10"/>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A560" s="56" t="s">
+      <c r="A560" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="B560" s="56"/>
-      <c r="C560" s="56"/>
-      <c r="D560" s="56"/>
-      <c r="E560" s="56"/>
+      <c r="B560" s="58"/>
+      <c r="C560" s="58"/>
+      <c r="D560" s="58"/>
+      <c r="E560" s="58"/>
       <c r="F560" s="34"/>
       <c r="I560" s="10"/>
     </row>
@@ -10488,14 +10494,14 @@
     </row>
     <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A566" s="56" t="s">
+      <c r="A566" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="B566" s="56"/>
-      <c r="C566" s="56"/>
-      <c r="D566" s="56"/>
-      <c r="E566" s="56"/>
-      <c r="F566" s="56"/>
+      <c r="B566" s="58"/>
+      <c r="C566" s="58"/>
+      <c r="D566" s="58"/>
+      <c r="E566" s="58"/>
+      <c r="F566" s="58"/>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
@@ -10562,13 +10568,13 @@
       <c r="I569" s="10"/>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A570" s="56" t="s">
+      <c r="A570" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="B570" s="56"/>
-      <c r="C570" s="56"/>
-      <c r="D570" s="56"/>
-      <c r="E570" s="56"/>
+      <c r="B570" s="58"/>
+      <c r="C570" s="58"/>
+      <c r="D570" s="58"/>
+      <c r="E570" s="58"/>
       <c r="F570" s="34"/>
       <c r="I570" s="10"/>
     </row>
@@ -10632,14 +10638,14 @@
     </row>
     <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A576" s="56" t="s">
+      <c r="A576" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B576" s="56"/>
-      <c r="C576" s="56"/>
-      <c r="D576" s="56"/>
-      <c r="E576" s="56"/>
-      <c r="F576" s="56"/>
+      <c r="B576" s="58"/>
+      <c r="C576" s="58"/>
+      <c r="D576" s="58"/>
+      <c r="E576" s="58"/>
+      <c r="F576" s="58"/>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
@@ -10706,13 +10712,13 @@
       <c r="I579" s="10"/>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A580" s="56" t="s">
+      <c r="A580" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="B580" s="56"/>
-      <c r="C580" s="56"/>
-      <c r="D580" s="56"/>
-      <c r="E580" s="56"/>
+      <c r="B580" s="58"/>
+      <c r="C580" s="58"/>
+      <c r="D580" s="58"/>
+      <c r="E580" s="58"/>
       <c r="F580" s="34"/>
       <c r="I580" s="10"/>
     </row>
@@ -10776,14 +10782,14 @@
     </row>
     <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A586" s="56" t="s">
+      <c r="A586" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B586" s="56"/>
-      <c r="C586" s="56"/>
-      <c r="D586" s="56"/>
-      <c r="E586" s="56"/>
-      <c r="F586" s="56"/>
+      <c r="B586" s="58"/>
+      <c r="C586" s="58"/>
+      <c r="D586" s="58"/>
+      <c r="E586" s="58"/>
+      <c r="F586" s="58"/>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
@@ -10850,13 +10856,13 @@
       <c r="I589" s="10"/>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A590" s="56" t="s">
+      <c r="A590" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="B590" s="56"/>
-      <c r="C590" s="56"/>
-      <c r="D590" s="56"/>
-      <c r="E590" s="56"/>
+      <c r="B590" s="58"/>
+      <c r="C590" s="58"/>
+      <c r="D590" s="58"/>
+      <c r="E590" s="58"/>
       <c r="F590" s="34"/>
       <c r="I590" s="10"/>
     </row>
@@ -10920,14 +10926,14 @@
     </row>
     <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A596" s="56" t="s">
+      <c r="A596" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B596" s="56"/>
-      <c r="C596" s="56"/>
-      <c r="D596" s="56"/>
-      <c r="E596" s="56"/>
-      <c r="F596" s="56"/>
+      <c r="B596" s="58"/>
+      <c r="C596" s="58"/>
+      <c r="D596" s="58"/>
+      <c r="E596" s="58"/>
+      <c r="F596" s="58"/>
       <c r="I596">
         <f>E598-E588</f>
         <v>140</v>
@@ -11002,13 +11008,13 @@
       <c r="I599" s="10"/>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A600" s="56" t="s">
+      <c r="A600" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B600" s="56"/>
-      <c r="C600" s="56"/>
-      <c r="D600" s="56"/>
-      <c r="E600" s="56"/>
+      <c r="B600" s="58"/>
+      <c r="C600" s="58"/>
+      <c r="D600" s="58"/>
+      <c r="E600" s="58"/>
       <c r="F600" s="34"/>
       <c r="G600">
         <f>F599/C599</f>
@@ -11079,14 +11085,14 @@
     </row>
     <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A606" s="56" t="s">
+      <c r="A606" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="B606" s="56"/>
-      <c r="C606" s="56"/>
-      <c r="D606" s="56"/>
-      <c r="E606" s="56"/>
-      <c r="F606" s="56"/>
+      <c r="B606" s="58"/>
+      <c r="C606" s="58"/>
+      <c r="D606" s="58"/>
+      <c r="E606" s="58"/>
+      <c r="F606" s="58"/>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
@@ -11153,13 +11159,13 @@
       <c r="I609" s="10"/>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A610" s="56" t="s">
+      <c r="A610" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="B610" s="56"/>
-      <c r="C610" s="56"/>
-      <c r="D610" s="56"/>
-      <c r="E610" s="56"/>
+      <c r="B610" s="58"/>
+      <c r="C610" s="58"/>
+      <c r="D610" s="58"/>
+      <c r="E610" s="58"/>
       <c r="F610" s="34"/>
       <c r="I610" s="10"/>
     </row>
@@ -11223,14 +11229,14 @@
     </row>
     <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A616" s="56" t="s">
+      <c r="A616" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="B616" s="56"/>
-      <c r="C616" s="56"/>
-      <c r="D616" s="56"/>
-      <c r="E616" s="56"/>
-      <c r="F616" s="56"/>
+      <c r="B616" s="58"/>
+      <c r="C616" s="58"/>
+      <c r="D616" s="58"/>
+      <c r="E616" s="58"/>
+      <c r="F616" s="58"/>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
@@ -11297,13 +11303,13 @@
       <c r="I619" s="10"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A620" s="56" t="s">
+      <c r="A620" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="B620" s="56"/>
-      <c r="C620" s="56"/>
-      <c r="D620" s="56"/>
-      <c r="E620" s="56"/>
+      <c r="B620" s="58"/>
+      <c r="C620" s="58"/>
+      <c r="D620" s="58"/>
+      <c r="E620" s="58"/>
       <c r="F620" s="34"/>
       <c r="I620" s="10"/>
     </row>
@@ -11367,14 +11373,14 @@
     </row>
     <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A626" s="56" t="s">
+      <c r="A626" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="B626" s="56"/>
-      <c r="C626" s="56"/>
-      <c r="D626" s="56"/>
-      <c r="E626" s="56"/>
-      <c r="F626" s="56"/>
+      <c r="B626" s="58"/>
+      <c r="C626" s="58"/>
+      <c r="D626" s="58"/>
+      <c r="E626" s="58"/>
+      <c r="F626" s="58"/>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
@@ -11441,13 +11447,13 @@
       <c r="I629" s="10"/>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A630" s="56" t="s">
+      <c r="A630" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B630" s="56"/>
-      <c r="C630" s="56"/>
-      <c r="D630" s="56"/>
-      <c r="E630" s="56"/>
+      <c r="B630" s="58"/>
+      <c r="C630" s="58"/>
+      <c r="D630" s="58"/>
+      <c r="E630" s="58"/>
       <c r="F630" s="34"/>
       <c r="I630" s="10"/>
     </row>
@@ -11511,14 +11517,14 @@
     </row>
     <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A636" s="56" t="s">
+      <c r="A636" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="B636" s="56"/>
-      <c r="C636" s="56"/>
-      <c r="D636" s="56"/>
-      <c r="E636" s="56"/>
-      <c r="F636" s="56"/>
+      <c r="B636" s="58"/>
+      <c r="C636" s="58"/>
+      <c r="D636" s="58"/>
+      <c r="E636" s="58"/>
+      <c r="F636" s="58"/>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
@@ -11585,13 +11591,13 @@
       <c r="I639" s="10"/>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A640" s="56" t="s">
+      <c r="A640" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B640" s="56"/>
-      <c r="C640" s="56"/>
-      <c r="D640" s="56"/>
-      <c r="E640" s="56"/>
+      <c r="B640" s="58"/>
+      <c r="C640" s="58"/>
+      <c r="D640" s="58"/>
+      <c r="E640" s="58"/>
       <c r="F640" s="34"/>
       <c r="I640" s="10"/>
     </row>
@@ -11655,14 +11661,14 @@
     </row>
     <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A646" s="56" t="s">
+      <c r="A646" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B646" s="56"/>
-      <c r="C646" s="56"/>
-      <c r="D646" s="56"/>
-      <c r="E646" s="56"/>
-      <c r="F646" s="56"/>
+      <c r="B646" s="58"/>
+      <c r="C646" s="58"/>
+      <c r="D646" s="58"/>
+      <c r="E646" s="58"/>
+      <c r="F646" s="58"/>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
@@ -11729,13 +11735,13 @@
       <c r="I649" s="10"/>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A650" s="56" t="s">
+      <c r="A650" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B650" s="56"/>
-      <c r="C650" s="56"/>
-      <c r="D650" s="56"/>
-      <c r="E650" s="56"/>
+      <c r="B650" s="58"/>
+      <c r="C650" s="58"/>
+      <c r="D650" s="58"/>
+      <c r="E650" s="58"/>
       <c r="F650" s="34"/>
       <c r="I650" s="10"/>
     </row>
@@ -11799,14 +11805,14 @@
     </row>
     <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A656" s="56" t="s">
+      <c r="A656" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B656" s="56"/>
-      <c r="C656" s="56"/>
-      <c r="D656" s="56"/>
-      <c r="E656" s="56"/>
-      <c r="F656" s="56"/>
+      <c r="B656" s="58"/>
+      <c r="C656" s="58"/>
+      <c r="D656" s="58"/>
+      <c r="E656" s="58"/>
+      <c r="F656" s="58"/>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
@@ -11873,13 +11879,13 @@
       <c r="I659" s="10"/>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A660" s="56" t="s">
+      <c r="A660" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="B660" s="56"/>
-      <c r="C660" s="56"/>
-      <c r="D660" s="56"/>
-      <c r="E660" s="56"/>
+      <c r="B660" s="58"/>
+      <c r="C660" s="58"/>
+      <c r="D660" s="58"/>
+      <c r="E660" s="58"/>
       <c r="F660" s="34"/>
       <c r="I660" s="10"/>
     </row>
@@ -11950,14 +11956,14 @@
       <c r="F665" s="6"/>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A666" s="56" t="s">
+      <c r="A666" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="B666" s="56"/>
-      <c r="C666" s="56"/>
-      <c r="D666" s="56"/>
-      <c r="E666" s="56"/>
-      <c r="F666" s="56"/>
+      <c r="B666" s="58"/>
+      <c r="C666" s="58"/>
+      <c r="D666" s="58"/>
+      <c r="E666" s="58"/>
+      <c r="F666" s="58"/>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
@@ -12018,13 +12024,13 @@
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A670" s="56" t="s">
+      <c r="A670" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B670" s="56"/>
-      <c r="C670" s="56"/>
-      <c r="D670" s="56"/>
-      <c r="E670" s="56"/>
+      <c r="B670" s="58"/>
+      <c r="C670" s="58"/>
+      <c r="D670" s="58"/>
+      <c r="E670" s="58"/>
       <c r="F670" s="34"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
@@ -12088,14 +12094,14 @@
       <c r="F675" s="6"/>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A676" s="56" t="s">
+      <c r="A676" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="B676" s="56"/>
-      <c r="C676" s="56"/>
-      <c r="D676" s="56"/>
-      <c r="E676" s="56"/>
-      <c r="F676" s="56"/>
+      <c r="B676" s="58"/>
+      <c r="C676" s="58"/>
+      <c r="D676" s="58"/>
+      <c r="E676" s="58"/>
+      <c r="F676" s="58"/>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
@@ -12157,13 +12163,13 @@
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A680" s="56" t="s">
+      <c r="A680" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B680" s="56"/>
-      <c r="C680" s="56"/>
-      <c r="D680" s="56"/>
-      <c r="E680" s="56"/>
+      <c r="B680" s="58"/>
+      <c r="C680" s="58"/>
+      <c r="D680" s="58"/>
+      <c r="E680" s="58"/>
       <c r="F680" s="34"/>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
@@ -12231,14 +12237,14 @@
       <c r="F685" s="6"/>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A686" s="56" t="s">
+      <c r="A686" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="B686" s="56"/>
-      <c r="C686" s="56"/>
-      <c r="D686" s="56"/>
-      <c r="E686" s="56"/>
-      <c r="F686" s="56"/>
+      <c r="B686" s="58"/>
+      <c r="C686" s="58"/>
+      <c r="D686" s="58"/>
+      <c r="E686" s="58"/>
+      <c r="F686" s="58"/>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
@@ -12299,13 +12305,13 @@
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A690" s="56" t="s">
+      <c r="A690" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="B690" s="56"/>
-      <c r="C690" s="56"/>
-      <c r="D690" s="56"/>
-      <c r="E690" s="56"/>
+      <c r="B690" s="58"/>
+      <c r="C690" s="58"/>
+      <c r="D690" s="58"/>
+      <c r="E690" s="58"/>
       <c r="F690" s="34"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
@@ -12369,14 +12375,14 @@
       <c r="F695" s="6"/>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A696" s="56" t="s">
+      <c r="A696" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="B696" s="56"/>
-      <c r="C696" s="56"/>
-      <c r="D696" s="56"/>
-      <c r="E696" s="56"/>
-      <c r="F696" s="56"/>
+      <c r="B696" s="58"/>
+      <c r="C696" s="58"/>
+      <c r="D696" s="58"/>
+      <c r="E696" s="58"/>
+      <c r="F696" s="58"/>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
@@ -12437,13 +12443,13 @@
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A700" s="56" t="s">
+      <c r="A700" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="B700" s="56"/>
-      <c r="C700" s="56"/>
-      <c r="D700" s="56"/>
-      <c r="E700" s="56"/>
+      <c r="B700" s="58"/>
+      <c r="C700" s="58"/>
+      <c r="D700" s="58"/>
+      <c r="E700" s="58"/>
       <c r="F700" s="34"/>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
@@ -12511,14 +12517,14 @@
       <c r="F705" s="6"/>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A706" s="56" t="s">
+      <c r="A706" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="B706" s="56"/>
-      <c r="C706" s="56"/>
-      <c r="D706" s="56"/>
-      <c r="E706" s="56"/>
-      <c r="F706" s="56"/>
+      <c r="B706" s="58"/>
+      <c r="C706" s="58"/>
+      <c r="D706" s="58"/>
+      <c r="E706" s="58"/>
+      <c r="F706" s="58"/>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
@@ -12579,13 +12585,13 @@
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A710" s="56" t="s">
+      <c r="A710" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B710" s="56"/>
-      <c r="C710" s="56"/>
-      <c r="D710" s="56"/>
-      <c r="E710" s="56"/>
+      <c r="B710" s="58"/>
+      <c r="C710" s="58"/>
+      <c r="D710" s="58"/>
+      <c r="E710" s="58"/>
       <c r="F710" s="34"/>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -12649,14 +12655,14 @@
       <c r="F715" s="6"/>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A716" s="56" t="s">
+      <c r="A716" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="B716" s="56"/>
-      <c r="C716" s="56"/>
-      <c r="D716" s="56"/>
-      <c r="E716" s="56"/>
-      <c r="F716" s="56"/>
+      <c r="B716" s="58"/>
+      <c r="C716" s="58"/>
+      <c r="D716" s="58"/>
+      <c r="E716" s="58"/>
+      <c r="F716" s="58"/>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
@@ -12717,13 +12723,13 @@
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A720" s="56" t="s">
+      <c r="A720" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B720" s="56"/>
-      <c r="C720" s="56"/>
-      <c r="D720" s="56"/>
-      <c r="E720" s="56"/>
+      <c r="B720" s="58"/>
+      <c r="C720" s="58"/>
+      <c r="D720" s="58"/>
+      <c r="E720" s="58"/>
       <c r="F720" s="34"/>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
@@ -12787,14 +12793,14 @@
       <c r="F725" s="6"/>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A726" s="56" t="s">
+      <c r="A726" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="B726" s="56"/>
-      <c r="C726" s="56"/>
-      <c r="D726" s="56"/>
-      <c r="E726" s="56"/>
-      <c r="F726" s="56"/>
+      <c r="B726" s="58"/>
+      <c r="C726" s="58"/>
+      <c r="D726" s="58"/>
+      <c r="E726" s="58"/>
+      <c r="F726" s="58"/>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
@@ -12855,13 +12861,13 @@
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A730" s="56" t="s">
+      <c r="A730" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="B730" s="56"/>
-      <c r="C730" s="56"/>
-      <c r="D730" s="56"/>
-      <c r="E730" s="56"/>
+      <c r="B730" s="58"/>
+      <c r="C730" s="58"/>
+      <c r="D730" s="58"/>
+      <c r="E730" s="58"/>
       <c r="F730" s="34"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
@@ -12925,14 +12931,14 @@
       <c r="F735" s="6"/>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A736" s="56" t="s">
+      <c r="A736" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="B736" s="56"/>
-      <c r="C736" s="56"/>
-      <c r="D736" s="56"/>
-      <c r="E736" s="56"/>
-      <c r="F736" s="56"/>
+      <c r="B736" s="58"/>
+      <c r="C736" s="58"/>
+      <c r="D736" s="58"/>
+      <c r="E736" s="58"/>
+      <c r="F736" s="58"/>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
@@ -12993,13 +12999,13 @@
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A740" s="56" t="s">
+      <c r="A740" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="B740" s="56"/>
-      <c r="C740" s="56"/>
-      <c r="D740" s="56"/>
-      <c r="E740" s="56"/>
+      <c r="B740" s="58"/>
+      <c r="C740" s="58"/>
+      <c r="D740" s="58"/>
+      <c r="E740" s="58"/>
       <c r="F740" s="34"/>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
@@ -13063,14 +13069,14 @@
       <c r="F747" s="6"/>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A748" s="56" t="s">
+      <c r="A748" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="B748" s="56"/>
-      <c r="C748" s="56"/>
-      <c r="D748" s="56"/>
-      <c r="E748" s="56"/>
-      <c r="F748" s="56"/>
+      <c r="B748" s="58"/>
+      <c r="C748" s="58"/>
+      <c r="D748" s="58"/>
+      <c r="E748" s="58"/>
+      <c r="F748" s="58"/>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
@@ -13131,13 +13137,13 @@
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A752" s="56" t="s">
+      <c r="A752" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="B752" s="56"/>
-      <c r="C752" s="56"/>
-      <c r="D752" s="56"/>
-      <c r="E752" s="56"/>
+      <c r="B752" s="58"/>
+      <c r="C752" s="58"/>
+      <c r="D752" s="58"/>
+      <c r="E752" s="58"/>
       <c r="F752" s="34"/>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
@@ -13201,14 +13207,14 @@
       <c r="F758" s="6"/>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A759" s="56" t="s">
+      <c r="A759" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="B759" s="56"/>
-      <c r="C759" s="56"/>
-      <c r="D759" s="56"/>
-      <c r="E759" s="56"/>
-      <c r="F759" s="56"/>
+      <c r="B759" s="58"/>
+      <c r="C759" s="58"/>
+      <c r="D759" s="58"/>
+      <c r="E759" s="58"/>
+      <c r="F759" s="58"/>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
@@ -13269,13 +13275,13 @@
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A763" s="56" t="s">
+      <c r="A763" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B763" s="56"/>
-      <c r="C763" s="56"/>
-      <c r="D763" s="56"/>
-      <c r="E763" s="56"/>
+      <c r="B763" s="58"/>
+      <c r="C763" s="58"/>
+      <c r="D763" s="58"/>
+      <c r="E763" s="58"/>
       <c r="F763" s="34"/>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
@@ -13339,14 +13345,14 @@
       <c r="F769" s="6"/>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A770" s="56" t="s">
+      <c r="A770" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B770" s="56"/>
-      <c r="C770" s="56"/>
-      <c r="D770" s="56"/>
-      <c r="E770" s="56"/>
-      <c r="F770" s="56"/>
+      <c r="B770" s="58"/>
+      <c r="C770" s="58"/>
+      <c r="D770" s="58"/>
+      <c r="E770" s="58"/>
+      <c r="F770" s="58"/>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
@@ -13407,13 +13413,13 @@
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A774" s="56" t="s">
+      <c r="A774" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="B774" s="56"/>
-      <c r="C774" s="56"/>
-      <c r="D774" s="56"/>
-      <c r="E774" s="56"/>
+      <c r="B774" s="58"/>
+      <c r="C774" s="58"/>
+      <c r="D774" s="58"/>
+      <c r="E774" s="58"/>
       <c r="F774" s="34"/>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -13477,14 +13483,14 @@
       <c r="F780" s="6"/>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A781" s="56" t="s">
+      <c r="A781" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="B781" s="56"/>
-      <c r="C781" s="56"/>
-      <c r="D781" s="56"/>
-      <c r="E781" s="56"/>
-      <c r="F781" s="56"/>
+      <c r="B781" s="58"/>
+      <c r="C781" s="58"/>
+      <c r="D781" s="58"/>
+      <c r="E781" s="58"/>
+      <c r="F781" s="58"/>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
@@ -13545,13 +13551,13 @@
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785" s="56" t="s">
+      <c r="A785" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="B785" s="56"/>
-      <c r="C785" s="56"/>
-      <c r="D785" s="56"/>
-      <c r="E785" s="56"/>
+      <c r="B785" s="58"/>
+      <c r="C785" s="58"/>
+      <c r="D785" s="58"/>
+      <c r="E785" s="58"/>
       <c r="F785" s="34"/>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
@@ -13615,14 +13621,14 @@
       <c r="F791" s="6"/>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A792" s="56" t="s">
+      <c r="A792" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="B792" s="56"/>
-      <c r="C792" s="56"/>
-      <c r="D792" s="56"/>
-      <c r="E792" s="56"/>
-      <c r="F792" s="56"/>
+      <c r="B792" s="58"/>
+      <c r="C792" s="58"/>
+      <c r="D792" s="58"/>
+      <c r="E792" s="58"/>
+      <c r="F792" s="58"/>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
@@ -13683,13 +13689,13 @@
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A796" s="56" t="s">
+      <c r="A796" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="B796" s="56"/>
-      <c r="C796" s="56"/>
-      <c r="D796" s="56"/>
-      <c r="E796" s="56"/>
+      <c r="B796" s="58"/>
+      <c r="C796" s="58"/>
+      <c r="D796" s="58"/>
+      <c r="E796" s="58"/>
       <c r="F796" s="34"/>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
@@ -13759,14 +13765,14 @@
       <c r="F802" s="6"/>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A803" s="56" t="s">
+      <c r="A803" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="B803" s="56"/>
-      <c r="C803" s="56"/>
-      <c r="D803" s="56"/>
-      <c r="E803" s="56"/>
-      <c r="F803" s="56"/>
+      <c r="B803" s="58"/>
+      <c r="C803" s="58"/>
+      <c r="D803" s="58"/>
+      <c r="E803" s="58"/>
+      <c r="F803" s="58"/>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
@@ -13827,13 +13833,13 @@
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A807" s="56" t="s">
+      <c r="A807" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="B807" s="56"/>
-      <c r="C807" s="56"/>
-      <c r="D807" s="56"/>
-      <c r="E807" s="56"/>
+      <c r="B807" s="58"/>
+      <c r="C807" s="58"/>
+      <c r="D807" s="58"/>
+      <c r="E807" s="58"/>
       <c r="F807" s="34"/>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
@@ -13901,14 +13907,14 @@
       <c r="F813" s="6"/>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A814" s="56" t="s">
+      <c r="A814" s="58" t="s">
         <v>189</v>
       </c>
-      <c r="B814" s="56"/>
-      <c r="C814" s="56"/>
-      <c r="D814" s="56"/>
-      <c r="E814" s="56"/>
-      <c r="F814" s="56"/>
+      <c r="B814" s="58"/>
+      <c r="C814" s="58"/>
+      <c r="D814" s="58"/>
+      <c r="E814" s="58"/>
+      <c r="F814" s="58"/>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
@@ -13969,13 +13975,13 @@
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A818" s="56" t="s">
+      <c r="A818" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="B818" s="56"/>
-      <c r="C818" s="56"/>
-      <c r="D818" s="56"/>
-      <c r="E818" s="56"/>
+      <c r="B818" s="58"/>
+      <c r="C818" s="58"/>
+      <c r="D818" s="58"/>
+      <c r="E818" s="58"/>
       <c r="F818" s="34"/>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
@@ -14039,14 +14045,14 @@
       <c r="F824" s="6"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A825" s="56" t="s">
+      <c r="A825" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="B825" s="56"/>
-      <c r="C825" s="56"/>
-      <c r="D825" s="56"/>
-      <c r="E825" s="56"/>
-      <c r="F825" s="56"/>
+      <c r="B825" s="58"/>
+      <c r="C825" s="58"/>
+      <c r="D825" s="58"/>
+      <c r="E825" s="58"/>
+      <c r="F825" s="58"/>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
@@ -14107,13 +14113,13 @@
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A829" s="56" t="s">
+      <c r="A829" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="B829" s="56"/>
-      <c r="C829" s="56"/>
-      <c r="D829" s="56"/>
-      <c r="E829" s="56"/>
+      <c r="B829" s="58"/>
+      <c r="C829" s="58"/>
+      <c r="D829" s="58"/>
+      <c r="E829" s="58"/>
       <c r="F829" s="34"/>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -14177,14 +14183,14 @@
       <c r="F835" s="6"/>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A836" s="56" t="s">
+      <c r="A836" s="58" t="s">
         <v>193</v>
       </c>
-      <c r="B836" s="56"/>
-      <c r="C836" s="56"/>
-      <c r="D836" s="56"/>
-      <c r="E836" s="56"/>
-      <c r="F836" s="56"/>
+      <c r="B836" s="58"/>
+      <c r="C836" s="58"/>
+      <c r="D836" s="58"/>
+      <c r="E836" s="58"/>
+      <c r="F836" s="58"/>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
@@ -14245,13 +14251,13 @@
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" s="56" t="s">
+      <c r="A840" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B840" s="56"/>
-      <c r="C840" s="56"/>
-      <c r="D840" s="56"/>
-      <c r="E840" s="56"/>
+      <c r="B840" s="58"/>
+      <c r="C840" s="58"/>
+      <c r="D840" s="58"/>
+      <c r="E840" s="58"/>
       <c r="F840" s="34"/>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -14315,14 +14321,14 @@
       <c r="F846" s="6"/>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A847" s="56" t="s">
+      <c r="A847" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="B847" s="56"/>
-      <c r="C847" s="56"/>
-      <c r="D847" s="56"/>
-      <c r="E847" s="56"/>
-      <c r="F847" s="56"/>
+      <c r="B847" s="58"/>
+      <c r="C847" s="58"/>
+      <c r="D847" s="58"/>
+      <c r="E847" s="58"/>
+      <c r="F847" s="58"/>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
@@ -14383,13 +14389,13 @@
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A851" s="56" t="s">
+      <c r="A851" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B851" s="56"/>
-      <c r="C851" s="56"/>
-      <c r="D851" s="56"/>
-      <c r="E851" s="56"/>
+      <c r="B851" s="58"/>
+      <c r="C851" s="58"/>
+      <c r="D851" s="58"/>
+      <c r="E851" s="58"/>
       <c r="F851" s="34"/>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
@@ -14453,14 +14459,14 @@
       <c r="F857" s="6"/>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A858" s="56" t="s">
+      <c r="A858" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="B858" s="56"/>
-      <c r="C858" s="56"/>
-      <c r="D858" s="56"/>
-      <c r="E858" s="56"/>
-      <c r="F858" s="56"/>
+      <c r="B858" s="58"/>
+      <c r="C858" s="58"/>
+      <c r="D858" s="58"/>
+      <c r="E858" s="58"/>
+      <c r="F858" s="58"/>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
@@ -14521,13 +14527,13 @@
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A862" s="56" t="s">
+      <c r="A862" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="B862" s="56"/>
-      <c r="C862" s="56"/>
-      <c r="D862" s="56"/>
-      <c r="E862" s="56"/>
+      <c r="B862" s="58"/>
+      <c r="C862" s="58"/>
+      <c r="D862" s="58"/>
+      <c r="E862" s="58"/>
       <c r="F862" s="34"/>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
@@ -14591,14 +14597,14 @@
       <c r="F868" s="6"/>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A869" s="56" t="s">
+      <c r="A869" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="B869" s="56"/>
-      <c r="C869" s="56"/>
-      <c r="D869" s="56"/>
-      <c r="E869" s="56"/>
-      <c r="F869" s="56"/>
+      <c r="B869" s="58"/>
+      <c r="C869" s="58"/>
+      <c r="D869" s="58"/>
+      <c r="E869" s="58"/>
+      <c r="F869" s="58"/>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
@@ -14659,13 +14665,13 @@
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A873" s="56" t="s">
+      <c r="A873" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B873" s="56"/>
-      <c r="C873" s="56"/>
-      <c r="D873" s="56"/>
-      <c r="E873" s="56"/>
+      <c r="B873" s="58"/>
+      <c r="C873" s="58"/>
+      <c r="D873" s="58"/>
+      <c r="E873" s="58"/>
       <c r="F873" s="50"/>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
@@ -14726,14 +14732,14 @@
       <c r="F879" s="6"/>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A880" s="56" t="s">
+      <c r="A880" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="B880" s="56"/>
-      <c r="C880" s="56"/>
-      <c r="D880" s="56"/>
-      <c r="E880" s="56"/>
-      <c r="F880" s="56"/>
+      <c r="B880" s="58"/>
+      <c r="C880" s="58"/>
+      <c r="D880" s="58"/>
+      <c r="E880" s="58"/>
+      <c r="F880" s="58"/>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
@@ -14794,13 +14800,13 @@
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A884" s="56" t="s">
+      <c r="A884" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="B884" s="56"/>
-      <c r="C884" s="56"/>
-      <c r="D884" s="56"/>
-      <c r="E884" s="56"/>
+      <c r="B884" s="58"/>
+      <c r="C884" s="58"/>
+      <c r="D884" s="58"/>
+      <c r="E884" s="58"/>
       <c r="F884" s="50"/>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
@@ -14861,14 +14867,14 @@
       <c r="F890" s="6"/>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A891" s="56" t="s">
+      <c r="A891" s="58" t="s">
         <v>202</v>
       </c>
-      <c r="B891" s="56"/>
-      <c r="C891" s="56"/>
-      <c r="D891" s="56"/>
-      <c r="E891" s="56"/>
-      <c r="F891" s="56"/>
+      <c r="B891" s="58"/>
+      <c r="C891" s="58"/>
+      <c r="D891" s="58"/>
+      <c r="E891" s="58"/>
+      <c r="F891" s="58"/>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
@@ -14929,13 +14935,13 @@
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A895" s="56" t="s">
+      <c r="A895" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="B895" s="56"/>
-      <c r="C895" s="56"/>
-      <c r="D895" s="56"/>
-      <c r="E895" s="56"/>
+      <c r="B895" s="58"/>
+      <c r="C895" s="58"/>
+      <c r="D895" s="58"/>
+      <c r="E895" s="58"/>
       <c r="F895" s="50"/>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
@@ -14996,14 +15002,14 @@
       <c r="F901" s="6"/>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A902" s="56" t="s">
+      <c r="A902" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B902" s="56"/>
-      <c r="C902" s="56"/>
-      <c r="D902" s="56"/>
-      <c r="E902" s="56"/>
-      <c r="F902" s="56"/>
+      <c r="B902" s="58"/>
+      <c r="C902" s="58"/>
+      <c r="D902" s="58"/>
+      <c r="E902" s="58"/>
+      <c r="F902" s="58"/>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
@@ -15064,13 +15070,13 @@
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A906" s="56" t="s">
+      <c r="A906" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B906" s="56"/>
-      <c r="C906" s="56"/>
-      <c r="D906" s="56"/>
-      <c r="E906" s="56"/>
+      <c r="B906" s="58"/>
+      <c r="C906" s="58"/>
+      <c r="D906" s="58"/>
+      <c r="E906" s="58"/>
       <c r="F906" s="50"/>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -15131,14 +15137,14 @@
       <c r="F912" s="6"/>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A913" s="56" t="s">
+      <c r="A913" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="B913" s="56"/>
-      <c r="C913" s="56"/>
-      <c r="D913" s="56"/>
-      <c r="E913" s="56"/>
-      <c r="F913" s="56"/>
+      <c r="B913" s="58"/>
+      <c r="C913" s="58"/>
+      <c r="D913" s="58"/>
+      <c r="E913" s="58"/>
+      <c r="F913" s="58"/>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
@@ -15199,13 +15205,13 @@
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A917" s="56" t="s">
+      <c r="A917" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="B917" s="56"/>
-      <c r="C917" s="56"/>
-      <c r="D917" s="56"/>
-      <c r="E917" s="56"/>
+      <c r="B917" s="58"/>
+      <c r="C917" s="58"/>
+      <c r="D917" s="58"/>
+      <c r="E917" s="58"/>
       <c r="F917" s="50"/>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -15266,14 +15272,14 @@
       <c r="F924" s="6"/>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A925" s="56" t="s">
+      <c r="A925" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="B925" s="56"/>
-      <c r="C925" s="56"/>
-      <c r="D925" s="56"/>
-      <c r="E925" s="56"/>
-      <c r="F925" s="56"/>
+      <c r="B925" s="58"/>
+      <c r="C925" s="58"/>
+      <c r="D925" s="58"/>
+      <c r="E925" s="58"/>
+      <c r="F925" s="58"/>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
@@ -15334,13 +15340,13 @@
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A929" s="56" t="s">
+      <c r="A929" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="B929" s="56"/>
-      <c r="C929" s="56"/>
-      <c r="D929" s="56"/>
-      <c r="E929" s="56"/>
+      <c r="B929" s="58"/>
+      <c r="C929" s="58"/>
+      <c r="D929" s="58"/>
+      <c r="E929" s="58"/>
       <c r="F929" s="50"/>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.25">
@@ -15401,14 +15407,14 @@
       <c r="F935" s="6"/>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A936" s="56" t="s">
+      <c r="A936" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="B936" s="56"/>
-      <c r="C936" s="56"/>
-      <c r="D936" s="56"/>
-      <c r="E936" s="56"/>
-      <c r="F936" s="56"/>
+      <c r="B936" s="58"/>
+      <c r="C936" s="58"/>
+      <c r="D936" s="58"/>
+      <c r="E936" s="58"/>
+      <c r="F936" s="58"/>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
@@ -15469,13 +15475,13 @@
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A940" s="56" t="s">
+      <c r="A940" s="58" t="s">
         <v>211</v>
       </c>
-      <c r="B940" s="56"/>
-      <c r="C940" s="56"/>
-      <c r="D940" s="56"/>
-      <c r="E940" s="56"/>
+      <c r="B940" s="58"/>
+      <c r="C940" s="58"/>
+      <c r="D940" s="58"/>
+      <c r="E940" s="58"/>
       <c r="F940" s="50"/>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.25">
@@ -15540,14 +15546,14 @@
       <c r="F946" s="6"/>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A947" s="56" t="s">
+      <c r="A947" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B947" s="56"/>
-      <c r="C947" s="56"/>
-      <c r="D947" s="56"/>
-      <c r="E947" s="56"/>
-      <c r="F947" s="56"/>
+      <c r="B947" s="58"/>
+      <c r="C947" s="58"/>
+      <c r="D947" s="58"/>
+      <c r="E947" s="58"/>
+      <c r="F947" s="58"/>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
@@ -15608,13 +15614,13 @@
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A951" s="56" t="s">
+      <c r="A951" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B951" s="56"/>
-      <c r="C951" s="56"/>
-      <c r="D951" s="56"/>
-      <c r="E951" s="56"/>
+      <c r="B951" s="58"/>
+      <c r="C951" s="58"/>
+      <c r="D951" s="58"/>
+      <c r="E951" s="58"/>
       <c r="F951" s="50"/>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
@@ -15675,14 +15681,14 @@
       <c r="F958" s="6"/>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A959" s="56" t="s">
+      <c r="A959" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="B959" s="56"/>
-      <c r="C959" s="56"/>
-      <c r="D959" s="56"/>
-      <c r="E959" s="56"/>
-      <c r="F959" s="56"/>
+      <c r="B959" s="58"/>
+      <c r="C959" s="58"/>
+      <c r="D959" s="58"/>
+      <c r="E959" s="58"/>
+      <c r="F959" s="58"/>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
@@ -15743,13 +15749,13 @@
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A963" s="56" t="s">
+      <c r="A963" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="B963" s="56"/>
-      <c r="C963" s="56"/>
-      <c r="D963" s="56"/>
-      <c r="E963" s="56"/>
+      <c r="B963" s="58"/>
+      <c r="C963" s="58"/>
+      <c r="D963" s="58"/>
+      <c r="E963" s="58"/>
       <c r="F963" s="50"/>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
@@ -15810,14 +15816,14 @@
       <c r="F969" s="6"/>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A970" s="56" t="s">
+      <c r="A970" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="B970" s="56"/>
-      <c r="C970" s="56"/>
-      <c r="D970" s="56"/>
-      <c r="E970" s="56"/>
-      <c r="F970" s="56"/>
+      <c r="B970" s="58"/>
+      <c r="C970" s="58"/>
+      <c r="D970" s="58"/>
+      <c r="E970" s="58"/>
+      <c r="F970" s="58"/>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
@@ -15878,13 +15884,13 @@
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A974" s="56" t="s">
+      <c r="A974" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="B974" s="56"/>
-      <c r="C974" s="56"/>
-      <c r="D974" s="56"/>
-      <c r="E974" s="56"/>
+      <c r="B974" s="58"/>
+      <c r="C974" s="58"/>
+      <c r="D974" s="58"/>
+      <c r="E974" s="58"/>
       <c r="F974" s="50"/>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
@@ -15945,14 +15951,14 @@
       <c r="F981" s="6"/>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A982" s="56" t="s">
+      <c r="A982" s="58" t="s">
         <v>218</v>
       </c>
-      <c r="B982" s="56"/>
-      <c r="C982" s="56"/>
-      <c r="D982" s="56"/>
-      <c r="E982" s="56"/>
-      <c r="F982" s="56"/>
+      <c r="B982" s="58"/>
+      <c r="C982" s="58"/>
+      <c r="D982" s="58"/>
+      <c r="E982" s="58"/>
+      <c r="F982" s="58"/>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
@@ -16013,13 +16019,13 @@
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A986" s="56" t="s">
+      <c r="A986" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="B986" s="56"/>
-      <c r="C986" s="56"/>
-      <c r="D986" s="56"/>
-      <c r="E986" s="56"/>
+      <c r="B986" s="58"/>
+      <c r="C986" s="58"/>
+      <c r="D986" s="58"/>
+      <c r="E986" s="58"/>
       <c r="F986" s="50"/>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
@@ -16080,14 +16086,14 @@
       <c r="F993" s="6"/>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A994" s="56" t="s">
+      <c r="A994" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="B994" s="56"/>
-      <c r="C994" s="56"/>
-      <c r="D994" s="56"/>
-      <c r="E994" s="56"/>
-      <c r="F994" s="56"/>
+      <c r="B994" s="58"/>
+      <c r="C994" s="58"/>
+      <c r="D994" s="58"/>
+      <c r="E994" s="58"/>
+      <c r="F994" s="58"/>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
@@ -16148,13 +16154,13 @@
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A998" s="56" t="s">
+      <c r="A998" s="58" t="s">
         <v>221</v>
       </c>
-      <c r="B998" s="56"/>
-      <c r="C998" s="56"/>
-      <c r="D998" s="56"/>
-      <c r="E998" s="56"/>
+      <c r="B998" s="58"/>
+      <c r="C998" s="58"/>
+      <c r="D998" s="58"/>
+      <c r="E998" s="58"/>
       <c r="F998" s="50"/>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
@@ -16215,14 +16221,14 @@
       <c r="F1005" s="6"/>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1006" s="56" t="s">
+      <c r="A1006" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="B1006" s="56"/>
-      <c r="C1006" s="56"/>
-      <c r="D1006" s="56"/>
-      <c r="E1006" s="56"/>
-      <c r="F1006" s="56"/>
+      <c r="B1006" s="58"/>
+      <c r="C1006" s="58"/>
+      <c r="D1006" s="58"/>
+      <c r="E1006" s="58"/>
+      <c r="F1006" s="58"/>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1007" s="1"/>
@@ -16283,13 +16289,13 @@
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1010" s="56" t="s">
+      <c r="A1010" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="B1010" s="56"/>
-      <c r="C1010" s="56"/>
-      <c r="D1010" s="56"/>
-      <c r="E1010" s="56"/>
+      <c r="B1010" s="58"/>
+      <c r="C1010" s="58"/>
+      <c r="D1010" s="58"/>
+      <c r="E1010" s="58"/>
       <c r="F1010" s="50"/>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
@@ -16350,14 +16356,14 @@
       <c r="F1016" s="6"/>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1017" s="56" t="s">
+      <c r="A1017" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B1017" s="56"/>
-      <c r="C1017" s="56"/>
-      <c r="D1017" s="56"/>
-      <c r="E1017" s="56"/>
-      <c r="F1017" s="56"/>
+      <c r="B1017" s="58"/>
+      <c r="C1017" s="58"/>
+      <c r="D1017" s="58"/>
+      <c r="E1017" s="58"/>
+      <c r="F1017" s="58"/>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1018" s="1"/>
@@ -16418,13 +16424,13 @@
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1021" s="56" t="s">
+      <c r="A1021" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="B1021" s="56"/>
-      <c r="C1021" s="56"/>
-      <c r="D1021" s="56"/>
-      <c r="E1021" s="56"/>
+      <c r="B1021" s="58"/>
+      <c r="C1021" s="58"/>
+      <c r="D1021" s="58"/>
+      <c r="E1021" s="58"/>
       <c r="F1021" s="50"/>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -16485,14 +16491,14 @@
       <c r="F1027" s="6"/>
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1028" s="56" t="s">
+      <c r="A1028" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="B1028" s="56"/>
-      <c r="C1028" s="56"/>
-      <c r="D1028" s="56"/>
-      <c r="E1028" s="56"/>
-      <c r="F1028" s="56"/>
+      <c r="B1028" s="58"/>
+      <c r="C1028" s="58"/>
+      <c r="D1028" s="58"/>
+      <c r="E1028" s="58"/>
+      <c r="F1028" s="58"/>
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" s="1"/>
@@ -16557,13 +16563,13 @@
       </c>
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1032" s="56" t="s">
+      <c r="A1032" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="B1032" s="56"/>
-      <c r="C1032" s="56"/>
-      <c r="D1032" s="56"/>
-      <c r="E1032" s="56"/>
+      <c r="B1032" s="58"/>
+      <c r="C1032" s="58"/>
+      <c r="D1032" s="58"/>
+      <c r="E1032" s="58"/>
       <c r="F1032" s="50"/>
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
@@ -16624,14 +16630,14 @@
       <c r="F1039" s="6"/>
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1040" s="56" t="s">
+      <c r="A1040" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="B1040" s="56"/>
-      <c r="C1040" s="56"/>
-      <c r="D1040" s="56"/>
-      <c r="E1040" s="56"/>
-      <c r="F1040" s="56"/>
+      <c r="B1040" s="58"/>
+      <c r="C1040" s="58"/>
+      <c r="D1040" s="58"/>
+      <c r="E1040" s="58"/>
+      <c r="F1040" s="58"/>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1041" s="1"/>
@@ -16692,13 +16698,13 @@
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1044" s="56" t="s">
+      <c r="A1044" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="B1044" s="56"/>
-      <c r="C1044" s="56"/>
-      <c r="D1044" s="56"/>
-      <c r="E1044" s="56"/>
+      <c r="B1044" s="58"/>
+      <c r="C1044" s="58"/>
+      <c r="D1044" s="58"/>
+      <c r="E1044" s="58"/>
       <c r="F1044" s="50"/>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
@@ -16759,14 +16765,14 @@
       <c r="F1051" s="6"/>
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1052" s="56" t="s">
+      <c r="A1052" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="B1052" s="56"/>
-      <c r="C1052" s="56"/>
-      <c r="D1052" s="56"/>
-      <c r="E1052" s="56"/>
-      <c r="F1052" s="56"/>
+      <c r="B1052" s="58"/>
+      <c r="C1052" s="58"/>
+      <c r="D1052" s="58"/>
+      <c r="E1052" s="58"/>
+      <c r="F1052" s="58"/>
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1053" s="1"/>
@@ -16827,13 +16833,13 @@
       </c>
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1056" s="56" t="s">
+      <c r="A1056" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="B1056" s="56"/>
-      <c r="C1056" s="56"/>
-      <c r="D1056" s="56"/>
-      <c r="E1056" s="56"/>
+      <c r="B1056" s="58"/>
+      <c r="C1056" s="58"/>
+      <c r="D1056" s="58"/>
+      <c r="E1056" s="58"/>
       <c r="F1056" s="50"/>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
@@ -16894,14 +16900,14 @@
       <c r="F1062" s="6"/>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1063" s="56" t="s">
+      <c r="A1063" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="B1063" s="56"/>
-      <c r="C1063" s="56"/>
-      <c r="D1063" s="56"/>
-      <c r="E1063" s="56"/>
-      <c r="F1063" s="56"/>
+      <c r="B1063" s="58"/>
+      <c r="C1063" s="58"/>
+      <c r="D1063" s="58"/>
+      <c r="E1063" s="58"/>
+      <c r="F1063" s="58"/>
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" s="1"/>
@@ -16962,13 +16968,13 @@
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1067" s="56" t="s">
+      <c r="A1067" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="B1067" s="56"/>
-      <c r="C1067" s="56"/>
-      <c r="D1067" s="56"/>
-      <c r="E1067" s="56"/>
+      <c r="B1067" s="58"/>
+      <c r="C1067" s="58"/>
+      <c r="D1067" s="58"/>
+      <c r="E1067" s="58"/>
       <c r="F1067" s="50"/>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
@@ -17029,14 +17035,14 @@
       <c r="F1074" s="6"/>
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1075" s="56" t="s">
+      <c r="A1075" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="B1075" s="56"/>
-      <c r="C1075" s="56"/>
-      <c r="D1075" s="56"/>
-      <c r="E1075" s="56"/>
-      <c r="F1075" s="56"/>
+      <c r="B1075" s="58"/>
+      <c r="C1075" s="58"/>
+      <c r="D1075" s="58"/>
+      <c r="E1075" s="58"/>
+      <c r="F1075" s="58"/>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" s="1"/>
@@ -17097,13 +17103,13 @@
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1079" s="56" t="s">
+      <c r="A1079" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="B1079" s="56"/>
-      <c r="C1079" s="56"/>
-      <c r="D1079" s="56"/>
-      <c r="E1079" s="56"/>
+      <c r="B1079" s="58"/>
+      <c r="C1079" s="58"/>
+      <c r="D1079" s="58"/>
+      <c r="E1079" s="58"/>
       <c r="F1079" s="50"/>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
@@ -17164,14 +17170,14 @@
       <c r="F1086" s="6"/>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1087" s="56" t="s">
+      <c r="A1087" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="B1087" s="56"/>
-      <c r="C1087" s="56"/>
-      <c r="D1087" s="56"/>
-      <c r="E1087" s="56"/>
-      <c r="F1087" s="56"/>
+      <c r="B1087" s="58"/>
+      <c r="C1087" s="58"/>
+      <c r="D1087" s="58"/>
+      <c r="E1087" s="58"/>
+      <c r="F1087" s="58"/>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" s="1"/>
@@ -17232,13 +17238,13 @@
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1091" s="56" t="s">
+      <c r="A1091" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B1091" s="56"/>
-      <c r="C1091" s="56"/>
-      <c r="D1091" s="56"/>
-      <c r="E1091" s="56"/>
+      <c r="B1091" s="58"/>
+      <c r="C1091" s="58"/>
+      <c r="D1091" s="58"/>
+      <c r="E1091" s="58"/>
       <c r="F1091" s="50"/>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
@@ -17299,14 +17305,14 @@
       <c r="F1098" s="6"/>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1099" s="56" t="s">
+      <c r="A1099" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="B1099" s="56"/>
-      <c r="C1099" s="56"/>
-      <c r="D1099" s="56"/>
-      <c r="E1099" s="56"/>
-      <c r="F1099" s="56"/>
+      <c r="B1099" s="58"/>
+      <c r="C1099" s="58"/>
+      <c r="D1099" s="58"/>
+      <c r="E1099" s="58"/>
+      <c r="F1099" s="58"/>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1100" s="1"/>
@@ -17367,13 +17373,13 @@
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1103" s="56" t="s">
+      <c r="A1103" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="B1103" s="56"/>
-      <c r="C1103" s="56"/>
-      <c r="D1103" s="56"/>
-      <c r="E1103" s="56"/>
+      <c r="B1103" s="58"/>
+      <c r="C1103" s="58"/>
+      <c r="D1103" s="58"/>
+      <c r="E1103" s="58"/>
       <c r="F1103" s="50"/>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
@@ -17434,14 +17440,14 @@
       <c r="F1109" s="6"/>
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1110" s="56" t="s">
+      <c r="A1110" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="B1110" s="56"/>
-      <c r="C1110" s="56"/>
-      <c r="D1110" s="56"/>
-      <c r="E1110" s="56"/>
-      <c r="F1110" s="56"/>
+      <c r="B1110" s="58"/>
+      <c r="C1110" s="58"/>
+      <c r="D1110" s="58"/>
+      <c r="E1110" s="58"/>
+      <c r="F1110" s="58"/>
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1111" s="1"/>
@@ -17502,13 +17508,13 @@
       </c>
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1114" s="56" t="s">
+      <c r="A1114" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B1114" s="56"/>
-      <c r="C1114" s="56"/>
-      <c r="D1114" s="56"/>
-      <c r="E1114" s="56"/>
+      <c r="B1114" s="58"/>
+      <c r="C1114" s="58"/>
+      <c r="D1114" s="58"/>
+      <c r="E1114" s="58"/>
       <c r="F1114" s="50"/>
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
@@ -17573,14 +17579,14 @@
       <c r="F1120" s="6"/>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1121" s="56" t="s">
+      <c r="A1121" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="B1121" s="56"/>
-      <c r="C1121" s="56"/>
-      <c r="D1121" s="56"/>
-      <c r="E1121" s="56"/>
-      <c r="F1121" s="56"/>
+      <c r="B1121" s="58"/>
+      <c r="C1121" s="58"/>
+      <c r="D1121" s="58"/>
+      <c r="E1121" s="58"/>
+      <c r="F1121" s="58"/>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1"/>
@@ -17641,13 +17647,13 @@
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1125" s="56" t="s">
+      <c r="A1125" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="B1125" s="56"/>
-      <c r="C1125" s="56"/>
-      <c r="D1125" s="56"/>
-      <c r="E1125" s="56"/>
+      <c r="B1125" s="58"/>
+      <c r="C1125" s="58"/>
+      <c r="D1125" s="58"/>
+      <c r="E1125" s="58"/>
       <c r="F1125" s="50"/>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
@@ -17708,14 +17714,14 @@
       <c r="F1132" s="6"/>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1133" s="56" t="s">
+      <c r="A1133" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="B1133" s="56"/>
-      <c r="C1133" s="56"/>
-      <c r="D1133" s="56"/>
-      <c r="E1133" s="56"/>
-      <c r="F1133" s="56"/>
+      <c r="B1133" s="58"/>
+      <c r="C1133" s="58"/>
+      <c r="D1133" s="58"/>
+      <c r="E1133" s="58"/>
+      <c r="F1133" s="58"/>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1134" s="1"/>
@@ -17776,13 +17782,13 @@
       </c>
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1137" s="56" t="s">
+      <c r="A1137" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="B1137" s="56"/>
-      <c r="C1137" s="56"/>
-      <c r="D1137" s="56"/>
-      <c r="E1137" s="56"/>
+      <c r="B1137" s="58"/>
+      <c r="C1137" s="58"/>
+      <c r="D1137" s="58"/>
+      <c r="E1137" s="58"/>
       <c r="F1137" s="50"/>
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
@@ -17847,14 +17853,14 @@
       <c r="F1144" s="6"/>
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1145" s="56" t="s">
+      <c r="A1145" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="B1145" s="56"/>
-      <c r="C1145" s="56"/>
-      <c r="D1145" s="56"/>
-      <c r="E1145" s="56"/>
-      <c r="F1145" s="56"/>
+      <c r="B1145" s="58"/>
+      <c r="C1145" s="58"/>
+      <c r="D1145" s="58"/>
+      <c r="E1145" s="58"/>
+      <c r="F1145" s="58"/>
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1146" s="1"/>
@@ -17915,13 +17921,13 @@
       </c>
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1149" s="56" t="s">
+      <c r="A1149" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="B1149" s="56"/>
-      <c r="C1149" s="56"/>
-      <c r="D1149" s="56"/>
-      <c r="E1149" s="56"/>
+      <c r="B1149" s="58"/>
+      <c r="C1149" s="58"/>
+      <c r="D1149" s="58"/>
+      <c r="E1149" s="58"/>
       <c r="F1149" s="50"/>
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
@@ -17973,7 +17979,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="1155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1155" s="6"/>
       <c r="B1155" s="6"/>
       <c r="C1155" s="6"/>
@@ -17981,17 +17987,17 @@
       <c r="E1155" s="6"/>
       <c r="F1155" s="6"/>
     </row>
-    <row r="1156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1156" s="56" t="s">
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1156" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="B1156" s="56"/>
-      <c r="C1156" s="56"/>
-      <c r="D1156" s="56"/>
-      <c r="E1156" s="56"/>
-      <c r="F1156" s="56"/>
-    </row>
-    <row r="1157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1156" s="58"/>
+      <c r="C1156" s="58"/>
+      <c r="D1156" s="58"/>
+      <c r="E1156" s="58"/>
+      <c r="F1156" s="58"/>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1157" s="1"/>
       <c r="B1157" s="2" t="s">
         <v>14</v>
@@ -18009,61 +18015,57 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1158" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1158" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A1158" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1158" s="57">
+      <c r="B1158" s="56">
         <v>26507</v>
       </c>
-      <c r="C1158" s="58">
+      <c r="C1158" s="57">
         <v>26772</v>
       </c>
       <c r="D1158">
         <v>24</v>
       </c>
-      <c r="E1158" s="58">
+      <c r="E1158" s="57">
         <v>27600</v>
       </c>
       <c r="F1158" s="9">
         <v>828</v>
       </c>
     </row>
-    <row r="1159" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1159" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A1159" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1159" s="57">
+      <c r="B1159" s="56">
         <v>31039</v>
       </c>
-      <c r="C1159" s="58">
+      <c r="C1159" s="57">
         <v>31349</v>
       </c>
       <c r="D1159">
         <v>-47</v>
       </c>
-      <c r="E1159" s="58">
+      <c r="E1159" s="57">
         <v>32263</v>
       </c>
       <c r="F1159" s="9">
         <v>914</v>
       </c>
     </row>
-    <row r="1160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1160" s="56" t="s">
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1160" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="B1160" s="56"/>
-      <c r="C1160" s="56"/>
-      <c r="D1160" s="56"/>
-      <c r="E1160" s="56"/>
+      <c r="B1160" s="58"/>
+      <c r="C1160" s="58"/>
+      <c r="D1160" s="58"/>
+      <c r="E1160" s="58"/>
       <c r="F1160" s="50"/>
-      <c r="G1160">
-        <f>E1159-E1148</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1161" s="1"/>
       <c r="B1161" s="2" t="s">
         <v>16</v>
@@ -18078,42 +18080,389 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1162" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1162" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A1162" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1162" s="57">
+      <c r="B1162" s="56">
         <v>26561</v>
       </c>
       <c r="C1162" s="4">
         <v>168</v>
       </c>
-      <c r="D1162" s="57">
+      <c r="D1162" s="56">
         <v>8861800</v>
       </c>
       <c r="E1162" s="5">
         <v>0.74</v>
       </c>
     </row>
-    <row r="1163" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1163" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A1163" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1163" s="57">
+      <c r="B1163" s="56">
         <v>31112</v>
       </c>
       <c r="C1163" s="4">
         <v>-2</v>
       </c>
-      <c r="D1163" s="57">
+      <c r="D1163" s="56">
         <v>1048900</v>
       </c>
       <c r="E1163" s="5">
         <v>0.67</v>
       </c>
     </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1167" s="6"/>
+      <c r="B1167" s="6"/>
+      <c r="C1167" s="6"/>
+      <c r="D1167" s="6"/>
+      <c r="E1167" s="6"/>
+      <c r="F1167" s="6"/>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1168" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1168" s="58"/>
+      <c r="C1168" s="58"/>
+      <c r="D1168" s="58"/>
+      <c r="E1168" s="58"/>
+      <c r="F1168" s="58"/>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1169" s="1"/>
+      <c r="B1169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1169" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1169" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1169" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1170" s="56">
+        <v>26395</v>
+      </c>
+      <c r="C1170" s="57">
+        <v>26659</v>
+      </c>
+      <c r="D1170">
+        <v>-113</v>
+      </c>
+      <c r="E1170" s="57">
+        <v>27340</v>
+      </c>
+      <c r="F1170" s="9">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1171" s="56">
+        <v>31069</v>
+      </c>
+      <c r="C1171" s="57">
+        <v>31380</v>
+      </c>
+      <c r="D1171">
+        <v>31</v>
+      </c>
+      <c r="E1171" s="57">
+        <v>32028</v>
+      </c>
+      <c r="F1171" s="9">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1172" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1172" s="58"/>
+      <c r="C1172" s="58"/>
+      <c r="D1172" s="58"/>
+      <c r="E1172" s="58"/>
+      <c r="F1172" s="50"/>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1173" s="1"/>
+      <c r="B1173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1173" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1173" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1174" s="56">
+        <v>26391</v>
+      </c>
+      <c r="C1174" s="4">
+        <v>-170</v>
+      </c>
+      <c r="D1174" s="56">
+        <v>8230700</v>
+      </c>
+      <c r="E1174" s="5">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1175" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1175" s="56">
+        <v>31097</v>
+      </c>
+      <c r="C1175" s="4">
+        <v>-15</v>
+      </c>
+      <c r="D1175" s="56">
+        <v>482400</v>
+      </c>
+      <c r="E1175" s="5">
+        <v>-0.54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="234">
+  <mergeCells count="236">
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1156:F1156"/>
     <mergeCell ref="A1160:E1160"/>
     <mergeCell ref="A397:F397"/>
@@ -18138,216 +18487,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="254">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -780,6 +780,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 28 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 29 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 29 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1175"/>
+  <dimension ref="A1:J1187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1176" sqref="E1176"/>
+    <sheetView tabSelected="1" topLeftCell="D1171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1185" sqref="F1185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18249,27 +18255,335 @@
         <v>-0.54</v>
       </c>
     </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1179" s="6"/>
+      <c r="B1179" s="6"/>
+      <c r="C1179" s="6"/>
+      <c r="D1179" s="6"/>
+      <c r="E1179" s="6"/>
+      <c r="F1179" s="6"/>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1180" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1180" s="58"/>
+      <c r="C1180" s="58"/>
+      <c r="D1180" s="58"/>
+      <c r="E1180" s="58"/>
+      <c r="F1180" s="58"/>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1181" s="1"/>
+      <c r="B1181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1181" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1181" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1181" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1182" s="56">
+        <v>26232</v>
+      </c>
+      <c r="C1182" s="57">
+        <v>26494</v>
+      </c>
+      <c r="D1182">
+        <v>-165</v>
+      </c>
+      <c r="E1182" s="57">
+        <v>27380</v>
+      </c>
+      <c r="F1182" s="9">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1183" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1183" s="56">
+        <v>31447</v>
+      </c>
+      <c r="C1183" s="57">
+        <v>31761</v>
+      </c>
+      <c r="D1183">
+        <v>381</v>
+      </c>
+      <c r="E1183" s="57">
+        <v>32093</v>
+      </c>
+      <c r="F1183" s="9">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1184" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1184" s="58"/>
+      <c r="C1184" s="58"/>
+      <c r="D1184" s="58"/>
+      <c r="E1184" s="58"/>
+      <c r="F1184" s="50"/>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1185" s="1"/>
+      <c r="B1185" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1185" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1186" s="56">
+        <v>26276</v>
+      </c>
+      <c r="C1186" s="4">
+        <v>-115</v>
+      </c>
+      <c r="D1186" s="56">
+        <v>8995300</v>
+      </c>
+      <c r="E1186" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1187" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1187" s="56">
+        <v>31304</v>
+      </c>
+      <c r="C1187" s="4">
+        <v>207</v>
+      </c>
+      <c r="D1187" s="56">
+        <v>356800</v>
+      </c>
+      <c r="E1187" s="5">
+        <v>-0.26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="236">
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
+  <mergeCells count="238">
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
     <mergeCell ref="A959:F959"/>
     <mergeCell ref="A963:E963"/>
     <mergeCell ref="A1145:F1145"/>
@@ -18294,199 +18608,28 @@
     <mergeCell ref="A982:F982"/>
     <mergeCell ref="A986:E986"/>
     <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
     <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
     <mergeCell ref="A1156:F1156"/>
     <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="256">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -786,6 +786,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 29 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 30 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 30 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1342,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1187"/>
+  <dimension ref="A1:J1199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1185" sqref="F1185"/>
+    <sheetView tabSelected="1" topLeftCell="C1180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1198" sqref="D1198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18341,7 +18347,7 @@
       <c r="E1184" s="58"/>
       <c r="F1184" s="50"/>
     </row>
-    <row r="1185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1185" s="1"/>
       <c r="B1185" s="2" t="s">
         <v>16</v>
@@ -18356,7 +18362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1186" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1186" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A1186" s="1" t="s">
         <v>1</v>
       </c>
@@ -18373,7 +18379,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="1187" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1187" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A1187" s="1" t="s">
         <v>2</v>
       </c>
@@ -18390,8 +18396,359 @@
         <v>-0.26</v>
       </c>
     </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1191" s="6"/>
+      <c r="B1191" s="6"/>
+      <c r="C1191" s="6"/>
+      <c r="D1191" s="6"/>
+      <c r="E1191" s="6"/>
+      <c r="F1191" s="6"/>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1192" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1192" s="58"/>
+      <c r="C1192" s="58"/>
+      <c r="D1192" s="58"/>
+      <c r="E1192" s="58"/>
+      <c r="F1192" s="58"/>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1193" s="1"/>
+      <c r="B1193" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1193" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1193" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1193" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1194" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1194" s="56">
+        <v>26232</v>
+      </c>
+      <c r="C1194" s="57">
+        <v>26494</v>
+      </c>
+      <c r="D1194">
+        <v>0</v>
+      </c>
+      <c r="E1194" s="57">
+        <v>27540</v>
+      </c>
+      <c r="F1194" s="9">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1195" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1195" s="56">
+        <v>31280</v>
+      </c>
+      <c r="C1195" s="57">
+        <v>31593</v>
+      </c>
+      <c r="D1195">
+        <v>-168</v>
+      </c>
+      <c r="E1195" s="57">
+        <v>32181</v>
+      </c>
+      <c r="F1195" s="9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1196" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1196" s="58"/>
+      <c r="C1196" s="58"/>
+      <c r="D1196" s="58"/>
+      <c r="E1196" s="58"/>
+      <c r="F1196" s="50"/>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1197" s="1"/>
+      <c r="B1197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1197" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1197" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1198" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1198" s="56">
+        <v>26287</v>
+      </c>
+      <c r="C1198" s="4">
+        <v>11</v>
+      </c>
+      <c r="D1198" s="56">
+        <v>10062100</v>
+      </c>
+      <c r="E1198" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1199" s="56">
+        <v>31273</v>
+      </c>
+      <c r="C1199" s="4">
+        <v>-31</v>
+      </c>
+      <c r="D1199" s="56">
+        <v>878800</v>
+      </c>
+      <c r="E1199" s="5">
+        <v>1.46</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="238">
+  <mergeCells count="240">
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1180:F1180"/>
     <mergeCell ref="A1184:E1184"/>
     <mergeCell ref="A397:F397"/>
@@ -18416,220 +18773,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680"/>
+    <workbookView minimized="1" showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="258">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -792,6 +792,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 30 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 31 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 31 شهریور سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1348,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1199"/>
+  <dimension ref="A1:J1210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1198" sqref="D1198"/>
+    <sheetView tabSelected="1" topLeftCell="A1192" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1206" sqref="D1206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18531,128 +18537,243 @@
         <v>1.46</v>
       </c>
     </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1202" s="6"/>
+      <c r="B1202" s="6"/>
+      <c r="C1202" s="6"/>
+      <c r="D1202" s="6"/>
+      <c r="E1202" s="6"/>
+      <c r="F1202" s="6"/>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1203" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1203" s="58"/>
+      <c r="C1203" s="58"/>
+      <c r="D1203" s="58"/>
+      <c r="E1203" s="58"/>
+      <c r="F1203" s="58"/>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1204" s="1"/>
+      <c r="B1204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1204" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1204" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1204" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1205" s="56">
+        <v>26260</v>
+      </c>
+      <c r="C1205" s="57">
+        <v>26523</v>
+      </c>
+      <c r="D1205">
+        <v>29</v>
+      </c>
+      <c r="E1205" s="57">
+        <v>27520</v>
+      </c>
+      <c r="F1205" s="9">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1206" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1206" s="56">
+        <v>31084</v>
+      </c>
+      <c r="C1206" s="57">
+        <v>31394</v>
+      </c>
+      <c r="D1206">
+        <v>-199</v>
+      </c>
+      <c r="E1206" s="57">
+        <v>32347</v>
+      </c>
+      <c r="F1206" s="9">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1207" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1207" s="58"/>
+      <c r="C1207" s="58"/>
+      <c r="D1207" s="58"/>
+      <c r="E1207" s="58"/>
+      <c r="F1207" s="50"/>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1208" s="1"/>
+      <c r="B1208" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1208" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1208" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1209" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1209" s="56">
+        <v>26260</v>
+      </c>
+      <c r="C1209" s="4">
+        <v>-27</v>
+      </c>
+      <c r="D1209" s="56">
+        <v>8462400</v>
+      </c>
+      <c r="E1209" s="5">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1210" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1210" s="56">
+        <v>31147</v>
+      </c>
+      <c r="C1210" s="4">
+        <v>-126</v>
+      </c>
+      <c r="D1210" s="56">
+        <v>412100</v>
+      </c>
+      <c r="E1210" s="5">
+        <v>-0.53</v>
+      </c>
+      <c r="F1210">
+        <f>E1206-E1195</f>
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="240">
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
+  <mergeCells count="242">
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A410:E410"/>
     <mergeCell ref="A696:F696"/>
     <mergeCell ref="A660:E660"/>
@@ -18677,102 +18798,128 @@
     <mergeCell ref="A686:F686"/>
     <mergeCell ref="A428:E428"/>
     <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
     <mergeCell ref="A1180:F1180"/>
     <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\den\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9224C3AB-99DD-4DAA-9CB0-C75B73557111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="259">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -798,12 +799,15 @@
   </si>
   <si>
     <t>بازار ارز متشکل 31 شهریور سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 01 مهر سال 1400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1353,24 +1357,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1192" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1206" sqref="D1206"/>
+    <sheetView tabSelected="1" topLeftCell="A1204" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1206" sqref="I1206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1383,7 @@
       <c r="D1" s="58"/>
       <c r="E1" s="58"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1394,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1442,7 @@
       <c r="D5" s="58"/>
       <c r="E5" s="58"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1453,7 +1457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -1487,8 +1491,8 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="58" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1501,7 @@
       <c r="D10" s="58"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -1510,7 +1514,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1525,7 +1529,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1540,7 +1544,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="58" t="s">
         <v>13</v>
       </c>
@@ -1549,7 +1553,7 @@
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
@@ -1564,7 +1568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1598,8 +1602,8 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="58" t="s">
         <v>23</v>
       </c>
@@ -1609,7 +1613,7 @@
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -1627,7 +1631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="58" t="s">
         <v>24</v>
       </c>
@@ -1676,7 +1680,7 @@
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -1691,7 +1695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1725,8 +1729,8 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="58" t="s">
         <v>25</v>
       </c>
@@ -1736,7 +1740,7 @@
       <c r="E28" s="58"/>
       <c r="F28" s="58"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>14</v>
@@ -1754,7 +1758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1794,7 +1798,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="58" t="s">
         <v>26</v>
       </c>
@@ -1803,7 +1807,7 @@
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -1818,7 +1822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1852,8 +1856,8 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="58" t="s">
         <v>28</v>
       </c>
@@ -1863,7 +1867,7 @@
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>14</v>
@@ -1881,7 +1885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1901,7 +1905,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="58" t="s">
         <v>29</v>
       </c>
@@ -1930,7 +1934,7 @@
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -1945,7 +1949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -1979,8 +1983,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="58" t="s">
         <v>31</v>
       </c>
@@ -1990,7 +1994,7 @@
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>14</v>
@@ -2008,7 +2012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -2028,7 +2032,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="58" t="s">
         <v>30</v>
       </c>
@@ -2057,7 +2061,7 @@
       <c r="D50" s="58"/>
       <c r="E50" s="58"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
         <v>16</v>
@@ -2072,7 +2076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>2</v>
       </c>
@@ -2106,8 +2110,8 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="58" t="s">
         <v>32</v>
       </c>
@@ -2117,7 +2121,7 @@
       <c r="E55" s="58"/>
       <c r="F55" s="58"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>14</v>
@@ -2135,7 +2139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -2155,7 +2159,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -2175,7 +2179,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="58" t="s">
         <v>33</v>
       </c>
@@ -2184,7 +2188,7 @@
       <c r="D59" s="58"/>
       <c r="E59" s="58"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>16</v>
@@ -2199,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>2</v>
       </c>
@@ -2233,8 +2237,8 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="58" t="s">
         <v>34</v>
       </c>
@@ -2244,7 +2248,7 @@
       <c r="E64" s="58"/>
       <c r="F64" s="58"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>14</v>
@@ -2262,7 +2266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>2.4563480319621189E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>4.260961810466761E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="58" t="s">
         <v>35</v>
       </c>
@@ -2319,7 +2323,7 @@
       <c r="D68" s="58"/>
       <c r="E68" s="58"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>16</v>
@@ -2334,7 +2338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -2368,8 +2372,8 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="58" t="s">
         <v>36</v>
       </c>
@@ -2379,7 +2383,7 @@
       <c r="E73" s="58"/>
       <c r="F73" s="58"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
         <v>14</v>
@@ -2397,7 +2401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>2.7493307270641226E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>4.582743988684583E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="58" t="s">
         <v>37</v>
       </c>
@@ -2454,7 +2458,7 @@
       <c r="D77" s="58"/>
       <c r="E77" s="58"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>16</v>
@@ -2469,7 +2473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -2486,7 +2490,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2503,8 +2507,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="58" t="s">
         <v>38</v>
       </c>
@@ -2514,7 +2518,7 @@
       <c r="E82" s="58"/>
       <c r="F82" s="58"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="2" t="s">
         <v>14</v>
@@ -2532,7 +2536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>1.6347141389934955E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>2.4877578010508633E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="58" t="s">
         <v>39</v>
       </c>
@@ -2589,7 +2593,7 @@
       <c r="D86" s="58"/>
       <c r="E86" s="58"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="2" t="s">
         <v>16</v>
@@ -2604,7 +2608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>-0.56999999999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
@@ -2638,8 +2642,8 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="58" t="s">
         <v>40</v>
       </c>
@@ -2649,7 +2653,7 @@
       <c r="E91" s="58"/>
       <c r="F91" s="58"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="2" t="s">
         <v>14</v>
@@ -2667,7 +2671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>2.7921494847564888E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -2712,7 +2716,7 @@
       </c>
       <c r="G94" s="10"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="58" t="s">
         <v>41</v>
       </c>
@@ -2721,7 +2725,7 @@
       <c r="D95" s="58"/>
       <c r="E95" s="58"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="2" t="s">
         <v>16</v>
@@ -2740,7 +2744,7 @@
         <v>3.5987420484597243E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -2757,7 +2761,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -2774,8 +2778,8 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="58" t="s">
         <v>42</v>
       </c>
@@ -2785,7 +2789,7 @@
       <c r="E100" s="58"/>
       <c r="F100" s="58"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="2" t="s">
         <v>14</v>
@@ -2803,7 +2807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>2.0547945205479451E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -2848,7 +2852,7 @@
       </c>
       <c r="G103" s="10"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="58" t="s">
         <v>43</v>
       </c>
@@ -2857,7 +2861,7 @@
       <c r="D104" s="58"/>
       <c r="E104" s="58"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="2" t="s">
         <v>16</v>
@@ -2872,7 +2876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -2893,7 +2897,7 @@
         <v>2.6812242706282442E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -2910,8 +2914,8 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="58" t="s">
         <v>44</v>
       </c>
@@ -2921,7 +2925,7 @@
       <c r="E109" s="58"/>
       <c r="F109" s="58"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="2" t="s">
         <v>14</v>
@@ -2939,7 +2943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2967,7 @@
         <v>1.9211843737965854E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +2988,7 @@
       </c>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="58" t="s">
         <v>45</v>
       </c>
@@ -2993,7 +2997,7 @@
       <c r="D113" s="58"/>
       <c r="E113" s="58"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="2" t="s">
         <v>16</v>
@@ -3009,7 +3013,7 @@
       </c>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -3031,7 +3035,7 @@
         <v>2.8919711160363196E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -3048,8 +3052,8 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="58" t="s">
         <v>46</v>
       </c>
@@ -3059,7 +3063,7 @@
       <c r="E118" s="58"/>
       <c r="F118" s="58"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="2" t="s">
         <v>14</v>
@@ -3077,7 +3081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>2.1263851452530697E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
@@ -3122,7 +3126,7 @@
       </c>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="58" t="s">
         <v>47</v>
       </c>
@@ -3131,7 +3135,7 @@
       <c r="D122" s="58"/>
       <c r="E122" s="58"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="2" t="s">
         <v>16</v>
@@ -3147,7 +3151,7 @@
       </c>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>3.0525074168066626E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -3186,8 +3190,8 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="58" t="s">
         <v>48</v>
       </c>
@@ -3197,7 +3201,7 @@
       <c r="E127" s="58"/>
       <c r="F127" s="58"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="2" t="s">
         <v>14</v>
@@ -3219,7 +3223,7 @@
         <v>1.4604810996563574E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -3240,7 +3244,7 @@
       </c>
       <c r="G129" s="10"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -3261,7 +3265,7 @@
       </c>
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="58" t="s">
         <v>49</v>
       </c>
@@ -3271,7 +3275,7 @@
       <c r="E131" s="58"/>
       <c r="I131" s="10"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="2" t="s">
         <v>16</v>
@@ -3287,7 +3291,7 @@
       </c>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>2.8913760941311522E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
@@ -3327,8 +3331,8 @@
       </c>
       <c r="J134" s="10"/>
     </row>
-    <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="58" t="s">
         <v>50</v>
       </c>
@@ -3338,7 +3342,7 @@
       <c r="E136" s="58"/>
       <c r="F136" s="58"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="2" t="s">
         <v>14</v>
@@ -3360,7 +3364,7 @@
         <v>1.8916595012897677E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -3381,7 +3385,7 @@
       </c>
       <c r="G138" s="10"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
@@ -3402,7 +3406,7 @@
       </c>
       <c r="G139" s="10"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="58" t="s">
         <v>51</v>
       </c>
@@ -3412,7 +3416,7 @@
       <c r="E140" s="58"/>
       <c r="I140" s="10"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="2" t="s">
         <v>16</v>
@@ -3432,7 +3436,7 @@
       </c>
       <c r="G141" s="10"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -3451,7 +3455,7 @@
       <c r="F142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>2</v>
       </c>
@@ -3469,8 +3473,8 @@
       </c>
       <c r="J143" s="10"/>
     </row>
-    <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="58" t="s">
         <v>52</v>
       </c>
@@ -3480,7 +3484,7 @@
       <c r="E145" s="58"/>
       <c r="F145" s="58"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="2" t="s">
         <v>14</v>
@@ -3502,7 +3506,7 @@
         <v>1.6723270710631528E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3527,7 @@
       </c>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>2</v>
       </c>
@@ -3544,7 +3548,7 @@
       </c>
       <c r="G148" s="10"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="58" t="s">
         <v>53</v>
       </c>
@@ -3558,7 +3562,7 @@
       </c>
       <c r="I149" s="10"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="2" t="s">
         <v>16</v>
@@ -3574,7 +3578,7 @@
       </c>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -3596,7 +3600,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>2</v>
       </c>
@@ -3618,8 +3622,8 @@
       </c>
       <c r="J152" s="10"/>
     </row>
-    <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="58" t="s">
         <v>54</v>
       </c>
@@ -3629,7 +3633,7 @@
       <c r="E154" s="58"/>
       <c r="F154" s="58"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="2" t="s">
         <v>14</v>
@@ -3651,7 +3655,7 @@
         <v>1.0318142734307825E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -3675,7 +3679,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>2</v>
       </c>
@@ -3696,7 +3700,7 @@
       </c>
       <c r="G157" s="10"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="58" t="s">
         <v>55</v>
       </c>
@@ -3710,7 +3714,7 @@
       </c>
       <c r="I158" s="10"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="2" t="s">
         <v>16</v>
@@ -3726,7 +3730,7 @@
       </c>
       <c r="G159" s="10"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
@@ -3768,8 +3772,8 @@
       <c r="H161" s="10"/>
       <c r="J161" s="10"/>
     </row>
-    <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="58" t="s">
         <v>56</v>
       </c>
@@ -3779,7 +3783,7 @@
       <c r="E163" s="58"/>
       <c r="F163" s="58"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="2" t="s">
         <v>14</v>
@@ -3801,7 +3805,7 @@
         <v>3.1867987951281268E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -3823,7 +3827,7 @@
       <c r="G165" s="10"/>
       <c r="I165" s="10"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -3844,7 +3848,7 @@
       </c>
       <c r="G166" s="10"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="58" t="s">
         <v>57</v>
       </c>
@@ -3854,7 +3858,7 @@
       <c r="E167" s="58"/>
       <c r="I167" s="10"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="2" t="s">
         <v>16</v>
@@ -3874,7 +3878,7 @@
         <v>1.6155264013878349E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>1</v>
       </c>
@@ -3894,7 +3898,7 @@
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>2</v>
       </c>
@@ -3917,8 +3921,8 @@
       <c r="H170" s="10"/>
       <c r="J170" s="10"/>
     </row>
-    <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="58" t="s">
         <v>58</v>
       </c>
@@ -3928,7 +3932,7 @@
       <c r="E172" s="58"/>
       <c r="F172" s="58"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="2" t="s">
         <v>14</v>
@@ -3950,7 +3954,7 @@
         <v>5.814219658471822E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>-1010</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>2</v>
       </c>
@@ -3997,7 +4001,7 @@
       </c>
       <c r="G175" s="10"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="58" t="s">
         <v>59</v>
       </c>
@@ -4007,7 +4011,7 @@
       <c r="E176" s="58"/>
       <c r="I176" s="10"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="2" t="s">
         <v>16</v>
@@ -4027,7 +4031,7 @@
         <v>1.9689625371059255E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -4050,7 +4054,7 @@
         <v>-979</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>2</v>
       </c>
@@ -4070,8 +4074,8 @@
       <c r="H179" s="10"/>
       <c r="J179" s="10"/>
     </row>
-    <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="58" t="s">
         <v>60</v>
       </c>
@@ -4081,7 +4085,7 @@
       <c r="E181" s="58"/>
       <c r="F181" s="58"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="2" t="s">
         <v>14</v>
@@ -4099,7 +4103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -4125,7 +4129,7 @@
       </c>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>2</v>
       </c>
@@ -4146,7 +4150,7 @@
       </c>
       <c r="G184" s="10"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="58" t="s">
         <v>61</v>
       </c>
@@ -4160,7 +4164,7 @@
       </c>
       <c r="I185" s="10"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="2" t="s">
         <v>16</v>
@@ -4179,7 +4183,7 @@
         <v>-170</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -4199,7 +4203,7 @@
       <c r="H187" s="10"/>
       <c r="I187" s="10"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
@@ -4219,8 +4223,8 @@
       <c r="H188" s="10"/>
       <c r="J188" s="10"/>
     </row>
-    <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="58" t="s">
         <v>62</v>
       </c>
@@ -4230,7 +4234,7 @@
       <c r="E190" s="58"/>
       <c r="F190" s="58"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="2" t="s">
         <v>14</v>
@@ -4252,7 +4256,7 @@
         <v>8.3469250695577084E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -4277,7 +4281,7 @@
         <v>-980</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
@@ -4298,7 +4302,7 @@
       </c>
       <c r="G193" s="10"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="58" t="s">
         <v>63</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>-862</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="2" t="s">
         <v>16</v>
@@ -4331,7 +4335,7 @@
       </c>
       <c r="G195" s="10"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -4351,7 +4355,7 @@
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>2</v>
       </c>
@@ -4371,8 +4375,8 @@
       <c r="H197" s="10"/>
       <c r="J197" s="10"/>
     </row>
-    <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="58" t="s">
         <v>64</v>
       </c>
@@ -4382,7 +4386,7 @@
       <c r="E199" s="58"/>
       <c r="F199" s="58"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="2" t="s">
         <v>14</v>
@@ -4404,7 +4408,7 @@
         <v>2.0032904287235073E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -4426,7 +4430,7 @@
       <c r="G201" s="10"/>
       <c r="I201" s="10"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>2</v>
       </c>
@@ -4450,7 +4454,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="58" t="s">
         <v>65</v>
       </c>
@@ -4460,7 +4464,7 @@
       <c r="E203" s="58"/>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="2" t="s">
         <v>16</v>
@@ -4476,7 +4480,7 @@
       </c>
       <c r="G204" s="10"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -4498,7 +4502,7 @@
       </c>
       <c r="I205" s="10"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
@@ -4518,8 +4522,8 @@
       <c r="H206" s="10"/>
       <c r="J206" s="10"/>
     </row>
-    <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="58" t="s">
         <v>66</v>
       </c>
@@ -4529,7 +4533,7 @@
       <c r="E208" s="58"/>
       <c r="F208" s="58"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="2" t="s">
         <v>14</v>
@@ -4551,7 +4555,7 @@
         <v>3.6279428791972212E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A211" s="1" t="s">
         <v>2</v>
       </c>
@@ -4602,7 +4606,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="58" t="s">
         <v>67</v>
       </c>
@@ -4616,7 +4620,7 @@
       </c>
       <c r="I212" s="10"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="2" t="s">
         <v>16</v>
@@ -4632,7 +4636,7 @@
       </c>
       <c r="G213" s="10"/>
     </row>
-    <row r="214" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
@@ -4652,7 +4656,7 @@
       <c r="H214" s="10"/>
       <c r="I214" s="10"/>
     </row>
-    <row r="215" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -4672,8 +4676,8 @@
       <c r="H215" s="10"/>
       <c r="J215" s="10"/>
     </row>
-    <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="58" t="s">
         <v>68</v>
       </c>
@@ -4683,7 +4687,7 @@
       <c r="E217" s="58"/>
       <c r="F217" s="58"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
       <c r="B218" s="2" t="s">
         <v>14</v>
@@ -4705,7 +4709,7 @@
         <v>9.5799557848194553E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A219" s="1" t="s">
         <v>1</v>
       </c>
@@ -4730,7 +4734,7 @@
       </c>
       <c r="I219" s="10"/>
     </row>
-    <row r="220" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
@@ -4755,7 +4759,7 @@
       </c>
       <c r="I220" s="10"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="58" t="s">
         <v>69</v>
       </c>
@@ -4769,7 +4773,7 @@
       </c>
       <c r="I221" s="10"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1"/>
       <c r="B222" s="2" t="s">
         <v>16</v>
@@ -4785,7 +4789,7 @@
       </c>
       <c r="G222" s="10"/>
     </row>
-    <row r="223" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
@@ -4805,7 +4809,7 @@
       <c r="H223" s="10"/>
       <c r="I223" s="10"/>
     </row>
-    <row r="224" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
@@ -4825,8 +4829,8 @@
       <c r="H224" s="10"/>
       <c r="J224" s="10"/>
     </row>
-    <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="58" t="s">
         <v>70</v>
       </c>
@@ -4836,7 +4840,7 @@
       <c r="E226" s="58"/>
       <c r="F226" s="58"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1"/>
       <c r="B227" s="2" t="s">
         <v>14</v>
@@ -4858,7 +4862,7 @@
         <v>1.7531176576902223E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A228" s="1" t="s">
         <v>1</v>
       </c>
@@ -4883,7 +4887,7 @@
       </c>
       <c r="I228" s="10"/>
     </row>
-    <row r="229" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A229" s="1" t="s">
         <v>2</v>
       </c>
@@ -4906,7 +4910,7 @@
       <c r="H229" s="10"/>
       <c r="I229" s="10"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="58" t="s">
         <v>71</v>
       </c>
@@ -4920,7 +4924,7 @@
       </c>
       <c r="I230" s="10"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="2" t="s">
         <v>16</v>
@@ -4939,7 +4943,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
@@ -4959,7 +4963,7 @@
       <c r="H232" s="10"/>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A233" s="1" t="s">
         <v>2</v>
       </c>
@@ -4979,8 +4983,8 @@
       <c r="H233" s="10"/>
       <c r="J233" s="10"/>
     </row>
-    <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="58" t="s">
         <v>72</v>
       </c>
@@ -4990,7 +4994,7 @@
       <c r="E235" s="58"/>
       <c r="F235" s="58"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1"/>
       <c r="B236" s="2" t="s">
         <v>14</v>
@@ -5012,7 +5016,7 @@
         <v>8.2526013634732689E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A237" s="1" t="s">
         <v>1</v>
       </c>
@@ -5035,7 +5039,7 @@
       <c r="H237" s="13"/>
       <c r="I237" s="10"/>
     </row>
-    <row r="238" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
@@ -5061,7 +5065,7 @@
       </c>
       <c r="I238" s="10"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="58" t="s">
         <v>73</v>
       </c>
@@ -5071,7 +5075,7 @@
       <c r="E239" s="58"/>
       <c r="I239" s="10"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="2" t="s">
         <v>16</v>
@@ -5091,7 +5095,7 @@
       </c>
       <c r="G240" s="10"/>
     </row>
-    <row r="241" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -5114,7 +5118,7 @@
       </c>
       <c r="I241" s="10"/>
     </row>
-    <row r="242" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
@@ -5134,8 +5138,8 @@
       <c r="H242" s="10"/>
       <c r="J242" s="10"/>
     </row>
-    <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="58" t="s">
         <v>74</v>
       </c>
@@ -5145,7 +5149,7 @@
       <c r="E244" s="58"/>
       <c r="F244" s="58"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="2" t="s">
         <v>14</v>
@@ -5167,7 +5171,7 @@
         <v>2.0225523536781816E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A246" s="1" t="s">
         <v>1</v>
       </c>
@@ -5192,7 +5196,7 @@
       </c>
       <c r="I246" s="10"/>
     </row>
-    <row r="247" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
@@ -5217,7 +5221,7 @@
       </c>
       <c r="I247" s="10"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="58" t="s">
         <v>75</v>
       </c>
@@ -5231,7 +5235,7 @@
       </c>
       <c r="I248" s="10"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="2" t="s">
         <v>16</v>
@@ -5247,7 +5251,7 @@
       </c>
       <c r="G249" s="10"/>
     </row>
-    <row r="250" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A250" s="1" t="s">
         <v>1</v>
       </c>
@@ -5267,7 +5271,7 @@
       <c r="H250" s="10"/>
       <c r="I250" s="10"/>
     </row>
-    <row r="251" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -5287,8 +5291,8 @@
       <c r="H251" s="10"/>
       <c r="J251" s="10"/>
     </row>
-    <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="58" t="s">
         <v>76</v>
       </c>
@@ -5298,7 +5302,7 @@
       <c r="E253" s="58"/>
       <c r="F253" s="58"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="2" t="s">
         <v>14</v>
@@ -5323,7 +5327,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A255" s="1" t="s">
         <v>1</v>
       </c>
@@ -5346,7 +5350,7 @@
       <c r="H255" s="13"/>
       <c r="I255" s="10"/>
     </row>
-    <row r="256" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A256" s="1" t="s">
         <v>2</v>
       </c>
@@ -5371,7 +5375,7 @@
       </c>
       <c r="I256" s="10"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="58" t="s">
         <v>77</v>
       </c>
@@ -5381,7 +5385,7 @@
       <c r="E257" s="58"/>
       <c r="I257" s="10"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="2" t="s">
         <v>16</v>
@@ -5401,7 +5405,7 @@
       </c>
       <c r="G258" s="10"/>
     </row>
-    <row r="259" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A259" s="1" t="s">
         <v>1</v>
       </c>
@@ -5421,7 +5425,7 @@
       <c r="H259" s="10"/>
       <c r="I259" s="10"/>
     </row>
-    <row r="260" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A260" s="1" t="s">
         <v>2</v>
       </c>
@@ -5441,8 +5445,8 @@
       <c r="H260" s="10"/>
       <c r="J260" s="10"/>
     </row>
-    <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="58" t="s">
         <v>78</v>
       </c>
@@ -5452,7 +5456,7 @@
       <c r="E262" s="58"/>
       <c r="F262" s="58"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="2" t="s">
         <v>14</v>
@@ -5478,7 +5482,7 @@
         <v>-390</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A264" s="1" t="s">
         <v>1</v>
       </c>
@@ -5501,7 +5505,7 @@
       <c r="H264" s="13"/>
       <c r="I264" s="10"/>
     </row>
-    <row r="265" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A265" s="1" t="s">
         <v>2</v>
       </c>
@@ -5524,7 +5528,7 @@
       <c r="H265" s="10"/>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="58" t="s">
         <v>79</v>
       </c>
@@ -5542,7 +5546,7 @@
       </c>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="2" t="s">
         <v>16</v>
@@ -5558,7 +5562,7 @@
       </c>
       <c r="G267" s="10"/>
     </row>
-    <row r="268" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A268" s="1" t="s">
         <v>1</v>
       </c>
@@ -5578,7 +5582,7 @@
       <c r="H268" s="10"/>
       <c r="I268" s="10"/>
     </row>
-    <row r="269" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A269" s="1" t="s">
         <v>2</v>
       </c>
@@ -5598,8 +5602,8 @@
       <c r="H269" s="10"/>
       <c r="J269" s="10"/>
     </row>
-    <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="58" t="s">
         <v>80</v>
       </c>
@@ -5609,7 +5613,7 @@
       <c r="E271" s="58"/>
       <c r="F271" s="58"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="2" t="s">
         <v>14</v>
@@ -5631,7 +5635,7 @@
         <v>2.4131060438344034E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A273" s="1" t="s">
         <v>1</v>
       </c>
@@ -5657,7 +5661,7 @@
       </c>
       <c r="I273" s="10"/>
     </row>
-    <row r="274" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
@@ -5682,7 +5686,7 @@
       </c>
       <c r="I274" s="10"/>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="58" t="s">
         <v>81</v>
       </c>
@@ -5696,7 +5700,7 @@
       </c>
       <c r="I275" s="10"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="2" t="s">
         <v>16</v>
@@ -5712,7 +5716,7 @@
       </c>
       <c r="G276" s="10"/>
     </row>
-    <row r="277" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A277" s="1" t="s">
         <v>1</v>
       </c>
@@ -5732,7 +5736,7 @@
       <c r="H277" s="10"/>
       <c r="I277" s="10"/>
     </row>
-    <row r="278" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A278" s="1" t="s">
         <v>2</v>
       </c>
@@ -5752,8 +5756,8 @@
       <c r="H278" s="10"/>
       <c r="J278" s="10"/>
     </row>
-    <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="58" t="s">
         <v>82</v>
       </c>
@@ -5763,7 +5767,7 @@
       <c r="E280" s="58"/>
       <c r="F280" s="58"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="2" t="s">
         <v>14</v>
@@ -5789,7 +5793,7 @@
         <v>-530</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A282" s="1" t="s">
         <v>1</v>
       </c>
@@ -5812,7 +5816,7 @@
       <c r="H282" s="13"/>
       <c r="I282" s="10"/>
     </row>
-    <row r="283" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A283" s="1" t="s">
         <v>2</v>
       </c>
@@ -5835,7 +5839,7 @@
       <c r="H283" s="10"/>
       <c r="I283" s="10"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="58" t="s">
         <v>83</v>
       </c>
@@ -5853,7 +5857,7 @@
       </c>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="2" t="s">
         <v>16</v>
@@ -5869,7 +5873,7 @@
       </c>
       <c r="G285" s="10"/>
     </row>
-    <row r="286" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A286" s="1" t="s">
         <v>1</v>
       </c>
@@ -5889,7 +5893,7 @@
       <c r="H286" s="10"/>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
@@ -5909,8 +5913,8 @@
       <c r="H287" s="10"/>
       <c r="J287" s="10"/>
     </row>
-    <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="58" t="s">
         <v>84</v>
       </c>
@@ -5920,7 +5924,7 @@
       <c r="E289" s="58"/>
       <c r="F289" s="58"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="2" t="s">
         <v>14</v>
@@ -5942,7 +5946,7 @@
         <v>2.888410477215644E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A291" s="1" t="s">
         <v>1</v>
       </c>
@@ -5967,7 +5971,7 @@
       </c>
       <c r="I291" s="10"/>
     </row>
-    <row r="292" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A292" s="1" t="s">
         <v>2</v>
       </c>
@@ -5992,7 +5996,7 @@
       </c>
       <c r="I292" s="10"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="58" t="s">
         <v>85</v>
       </c>
@@ -6006,7 +6010,7 @@
       </c>
       <c r="I293" s="10"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="2" t="s">
         <v>16</v>
@@ -6022,7 +6026,7 @@
       </c>
       <c r="G294" s="10"/>
     </row>
-    <row r="295" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A295" s="1" t="s">
         <v>1</v>
       </c>
@@ -6042,7 +6046,7 @@
       <c r="H295" s="10"/>
       <c r="I295" s="10"/>
     </row>
-    <row r="296" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A296" s="1" t="s">
         <v>2</v>
       </c>
@@ -6062,8 +6066,8 @@
       <c r="H296" s="10"/>
       <c r="J296" s="10"/>
     </row>
-    <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="58" t="s">
         <v>86</v>
       </c>
@@ -6073,7 +6077,7 @@
       <c r="E298" s="58"/>
       <c r="F298" s="58"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="2" t="s">
         <v>14</v>
@@ -6095,7 +6099,7 @@
         <v>2.2706955122474521E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A300" s="1" t="s">
         <v>1</v>
       </c>
@@ -6121,7 +6125,7 @@
       </c>
       <c r="I300" s="10"/>
     </row>
-    <row r="301" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A301" s="1" t="s">
         <v>2</v>
       </c>
@@ -6144,7 +6148,7 @@
       <c r="H301" s="10"/>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="58" t="s">
         <v>87</v>
       </c>
@@ -6162,7 +6166,7 @@
       </c>
       <c r="I302" s="10"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="2" t="s">
         <v>16</v>
@@ -6178,7 +6182,7 @@
       </c>
       <c r="G303" s="10"/>
     </row>
-    <row r="304" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A304" s="1" t="s">
         <v>1</v>
       </c>
@@ -6198,7 +6202,7 @@
       <c r="H304" s="10"/>
       <c r="I304" s="10"/>
     </row>
-    <row r="305" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A305" s="1" t="s">
         <v>2</v>
       </c>
@@ -6218,8 +6222,8 @@
       <c r="H305" s="10"/>
       <c r="J305" s="10"/>
     </row>
-    <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="58" t="s">
         <v>89</v>
       </c>
@@ -6229,7 +6233,7 @@
       <c r="E307" s="58"/>
       <c r="F307" s="58"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="2" t="s">
         <v>14</v>
@@ -6251,7 +6255,7 @@
         <v>2.284898250624777E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A309" s="1" t="s">
         <v>1</v>
       </c>
@@ -6277,7 +6281,7 @@
       </c>
       <c r="I309" s="10"/>
     </row>
-    <row r="310" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A310" s="1" t="s">
         <v>2</v>
       </c>
@@ -6303,7 +6307,7 @@
       </c>
       <c r="I310" s="10"/>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="58" t="s">
         <v>88</v>
       </c>
@@ -6317,7 +6321,7 @@
       </c>
       <c r="I311" s="10"/>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="2" t="s">
         <v>16</v>
@@ -6333,7 +6337,7 @@
       </c>
       <c r="G312" s="10"/>
     </row>
-    <row r="313" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A313" s="1" t="s">
         <v>1</v>
       </c>
@@ -6353,7 +6357,7 @@
       <c r="H313" s="10"/>
       <c r="I313" s="10"/>
     </row>
-    <row r="314" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A314" s="1" t="s">
         <v>2</v>
       </c>
@@ -6373,8 +6377,8 @@
       <c r="H314" s="10"/>
       <c r="J314" s="10"/>
     </row>
-    <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="58" t="s">
         <v>90</v>
       </c>
@@ -6384,7 +6388,7 @@
       <c r="E316" s="58"/>
       <c r="F316" s="58"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="2" t="s">
         <v>14</v>
@@ -6406,7 +6410,7 @@
         <v>3.5097890558801234E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A318" s="1" t="s">
         <v>1</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A319" s="1" t="s">
         <v>2</v>
       </c>
@@ -6455,7 +6459,7 @@
       <c r="H319" s="10"/>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="58" t="s">
         <v>91</v>
       </c>
@@ -6472,7 +6476,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="2" t="s">
         <v>16</v>
@@ -6488,7 +6492,7 @@
       </c>
       <c r="G321" s="10"/>
     </row>
-    <row r="322" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A322" s="1" t="s">
         <v>1</v>
       </c>
@@ -6508,7 +6512,7 @@
       <c r="H322" s="10"/>
       <c r="I322" s="10"/>
     </row>
-    <row r="323" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A323" s="1" t="s">
         <v>2</v>
       </c>
@@ -6528,8 +6532,8 @@
       <c r="H323" s="10"/>
       <c r="J323" s="10"/>
     </row>
-    <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="58" t="s">
         <v>92</v>
       </c>
@@ -6543,7 +6547,7 @@
         <v>-230</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="2" t="s">
         <v>14</v>
@@ -6565,7 +6569,7 @@
         <v>2.4383720411893194E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A327" s="1" t="s">
         <v>1</v>
       </c>
@@ -6588,7 +6592,7 @@
       <c r="H327" s="13"/>
       <c r="I327" s="10"/>
     </row>
-    <row r="328" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A328" s="1" t="s">
         <v>2</v>
       </c>
@@ -6614,7 +6618,7 @@
       </c>
       <c r="I328" s="10"/>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="58" t="s">
         <v>93</v>
       </c>
@@ -6628,7 +6632,7 @@
       </c>
       <c r="I329" s="10"/>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="2" t="s">
         <v>16</v>
@@ -6644,7 +6648,7 @@
       </c>
       <c r="G330" s="10"/>
     </row>
-    <row r="331" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A331" s="1" t="s">
         <v>1</v>
       </c>
@@ -6664,7 +6668,7 @@
       <c r="H331" s="10"/>
       <c r="I331" s="10"/>
     </row>
-    <row r="332" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A332" s="1" t="s">
         <v>2</v>
       </c>
@@ -6684,8 +6688,8 @@
       <c r="H332" s="10"/>
       <c r="J332" s="10"/>
     </row>
-    <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="58" t="s">
         <v>94</v>
       </c>
@@ -6695,7 +6699,7 @@
       <c r="E334" s="58"/>
       <c r="F334" s="58"/>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="2" t="s">
         <v>14</v>
@@ -6717,7 +6721,7 @@
         <v>3.5830040403143457E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A336" s="1" t="s">
         <v>1</v>
       </c>
@@ -6743,7 +6747,7 @@
       </c>
       <c r="I336" s="10"/>
     </row>
-    <row r="337" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A337" s="1" t="s">
         <v>2</v>
       </c>
@@ -6766,7 +6770,7 @@
       <c r="H337" s="10"/>
       <c r="I337" s="10"/>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="58" t="s">
         <v>95</v>
       </c>
@@ -6780,7 +6784,7 @@
       </c>
       <c r="I338" s="10"/>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="2" t="s">
         <v>16</v>
@@ -6800,7 +6804,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A340" s="1" t="s">
         <v>1</v>
       </c>
@@ -6820,7 +6824,7 @@
       <c r="H340" s="10"/>
       <c r="I340" s="10"/>
     </row>
-    <row r="341" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A341" s="1" t="s">
         <v>2</v>
       </c>
@@ -6840,8 +6844,8 @@
       <c r="H341" s="10"/>
       <c r="J341" s="10"/>
     </row>
-    <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="58" t="s">
         <v>96</v>
       </c>
@@ -6851,7 +6855,7 @@
       <c r="E343" s="58"/>
       <c r="F343" s="58"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="2" t="s">
         <v>14</v>
@@ -6873,7 +6877,7 @@
         <v>2.3243505491112777E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A345" s="1" t="s">
         <v>1</v>
       </c>
@@ -6899,7 +6903,7 @@
         <v>-130</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A346" s="1" t="s">
         <v>2</v>
       </c>
@@ -6926,7 +6930,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="58" t="s">
         <v>97</v>
       </c>
@@ -6940,7 +6944,7 @@
       </c>
       <c r="I347" s="10"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="2" t="s">
         <v>16</v>
@@ -6956,7 +6960,7 @@
       </c>
       <c r="G348" s="10"/>
     </row>
-    <row r="349" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A349" s="1" t="s">
         <v>1</v>
       </c>
@@ -6976,7 +6980,7 @@
       <c r="H349" s="10"/>
       <c r="I349" s="10"/>
     </row>
-    <row r="350" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A350" s="1" t="s">
         <v>2</v>
       </c>
@@ -6996,8 +7000,8 @@
       <c r="H350" s="10"/>
       <c r="J350" s="10"/>
     </row>
-    <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="58" t="s">
         <v>98</v>
       </c>
@@ -7011,7 +7015,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="2" t="s">
         <v>14</v>
@@ -7033,7 +7037,7 @@
         <v>2.0843101317079407E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A354" s="1" t="s">
         <v>1</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="H354" s="13"/>
       <c r="I354" s="10"/>
     </row>
-    <row r="355" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A355" s="1" t="s">
         <v>2</v>
       </c>
@@ -7079,7 +7083,7 @@
       <c r="H355" s="10"/>
       <c r="I355" s="10"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="58" t="s">
         <v>99</v>
       </c>
@@ -7093,7 +7097,7 @@
       </c>
       <c r="I356" s="10"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="2" t="s">
         <v>16</v>
@@ -7109,7 +7113,7 @@
       </c>
       <c r="G357" s="10"/>
     </row>
-    <row r="358" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A358" s="1" t="s">
         <v>1</v>
       </c>
@@ -7132,7 +7136,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A359" s="1" t="s">
         <v>2</v>
       </c>
@@ -7152,8 +7156,8 @@
       <c r="H359" s="10"/>
       <c r="J359" s="10"/>
     </row>
-    <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="58" t="s">
         <v>100</v>
       </c>
@@ -7163,7 +7167,7 @@
       <c r="E361" s="58"/>
       <c r="F361" s="58"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="2" t="s">
         <v>14</v>
@@ -7185,7 +7189,7 @@
         <v>4.1835472728048106E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A363" s="1" t="s">
         <v>1</v>
       </c>
@@ -7211,7 +7215,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A364" s="1" t="s">
         <v>2</v>
       </c>
@@ -7234,7 +7238,7 @@
       <c r="H364" s="10"/>
       <c r="I364" s="10"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="58" t="s">
         <v>99</v>
       </c>
@@ -7244,7 +7248,7 @@
       <c r="E365" s="58"/>
       <c r="I365" s="10"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="2" t="s">
         <v>16</v>
@@ -7264,7 +7268,7 @@
       </c>
       <c r="G366" s="10"/>
     </row>
-    <row r="367" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A367" s="1" t="s">
         <v>1</v>
       </c>
@@ -7284,7 +7288,7 @@
       <c r="H367" s="10"/>
       <c r="I367" s="10"/>
     </row>
-    <row r="368" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A368" s="1" t="s">
         <v>2</v>
       </c>
@@ -7308,8 +7312,8 @@
       </c>
       <c r="J368" s="10"/>
     </row>
-    <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="58" t="s">
         <v>101</v>
       </c>
@@ -7319,7 +7323,7 @@
       <c r="E370" s="58"/>
       <c r="F370" s="58"/>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="1"/>
       <c r="B371" s="2" t="s">
         <v>14</v>
@@ -7341,7 +7345,7 @@
         <v>1.4783797641428816E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A372" s="1" t="s">
         <v>1</v>
       </c>
@@ -7367,7 +7371,7 @@
       </c>
       <c r="I372" s="10"/>
     </row>
-    <row r="373" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A373" s="1" t="s">
         <v>2</v>
       </c>
@@ -7390,7 +7394,7 @@
       <c r="H373" s="10"/>
       <c r="I373" s="10"/>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="58" t="s">
         <v>102</v>
       </c>
@@ -7404,7 +7408,7 @@
       </c>
       <c r="I374" s="10"/>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
       <c r="B375" s="2" t="s">
         <v>16</v>
@@ -7424,7 +7428,7 @@
         <v>-961</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A376" s="1" t="s">
         <v>1</v>
       </c>
@@ -7444,7 +7448,7 @@
       <c r="H376" s="10"/>
       <c r="I376" s="10"/>
     </row>
-    <row r="377" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A377" s="1" t="s">
         <v>2</v>
       </c>
@@ -7464,8 +7468,8 @@
       <c r="H377" s="10"/>
       <c r="J377" s="10"/>
     </row>
-    <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="58" t="s">
         <v>103</v>
       </c>
@@ -7479,7 +7483,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="1"/>
       <c r="B380" s="2" t="s">
         <v>14</v>
@@ -7501,7 +7505,7 @@
         <v>2.0599250936329586E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A381" s="1" t="s">
         <v>1</v>
       </c>
@@ -7524,7 +7528,7 @@
       <c r="H381" s="13"/>
       <c r="I381" s="10"/>
     </row>
-    <row r="382" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A382" s="1" t="s">
         <v>2</v>
       </c>
@@ -7547,7 +7551,7 @@
       <c r="H382" s="10"/>
       <c r="I382" s="10"/>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="58" t="s">
         <v>104</v>
       </c>
@@ -7561,7 +7565,7 @@
       </c>
       <c r="I383" s="10"/>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="2" t="s">
         <v>16</v>
@@ -7581,7 +7585,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A385" s="1" t="s">
         <v>1</v>
       </c>
@@ -7601,7 +7605,7 @@
       <c r="H385" s="10"/>
       <c r="I385" s="10"/>
     </row>
-    <row r="386" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A386" s="1" t="s">
         <v>2</v>
       </c>
@@ -7621,8 +7625,8 @@
       <c r="H386" s="10"/>
       <c r="J386" s="10"/>
     </row>
-    <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="58" t="s">
         <v>105</v>
       </c>
@@ -7632,7 +7636,7 @@
       <c r="E388" s="58"/>
       <c r="F388" s="58"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="1"/>
       <c r="B389" s="2" t="s">
         <v>14</v>
@@ -7658,7 +7662,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A390" s="1" t="s">
         <v>1</v>
       </c>
@@ -7681,7 +7685,7 @@
       <c r="H390" s="13"/>
       <c r="I390" s="10"/>
     </row>
-    <row r="391" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A391" s="1" t="s">
         <v>2</v>
       </c>
@@ -7704,7 +7708,7 @@
       <c r="H391" s="10"/>
       <c r="I391" s="10"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="58" t="s">
         <v>106</v>
       </c>
@@ -7722,7 +7726,7 @@
       </c>
       <c r="I392" s="10"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="1"/>
       <c r="B393" s="2" t="s">
         <v>16</v>
@@ -7738,7 +7742,7 @@
       </c>
       <c r="G393" s="10"/>
     </row>
-    <row r="394" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A394" s="1" t="s">
         <v>1</v>
       </c>
@@ -7758,7 +7762,7 @@
       <c r="H394" s="10"/>
       <c r="I394" s="10"/>
     </row>
-    <row r="395" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A395" s="1" t="s">
         <v>2</v>
       </c>
@@ -7778,8 +7782,8 @@
       <c r="H395" s="10"/>
       <c r="J395" s="10"/>
     </row>
-    <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="58" t="s">
         <v>107</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>1.6681599044327831E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="1"/>
       <c r="B398" s="2" t="s">
         <v>14</v>
@@ -7814,7 +7818,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A399" s="1" t="s">
         <v>1</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A400" s="1" t="s">
         <v>2</v>
       </c>
@@ -7863,7 +7867,7 @@
       <c r="H400" s="10"/>
       <c r="I400" s="10"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="58" t="s">
         <v>108</v>
       </c>
@@ -7877,7 +7881,7 @@
       </c>
       <c r="I401" s="10"/>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
       <c r="B402" s="2" t="s">
         <v>16</v>
@@ -7893,7 +7897,7 @@
       </c>
       <c r="G402" s="10"/>
     </row>
-    <row r="403" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A403" s="1" t="s">
         <v>1</v>
       </c>
@@ -7913,7 +7917,7 @@
       <c r="H403" s="10"/>
       <c r="I403" s="10"/>
     </row>
-    <row r="404" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A404" s="1" t="s">
         <v>2</v>
       </c>
@@ -7933,8 +7937,8 @@
       <c r="H404" s="10"/>
       <c r="J404" s="10"/>
     </row>
-    <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="58" t="s">
         <v>109</v>
       </c>
@@ -7948,7 +7952,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
       <c r="B407" s="2" t="s">
         <v>14</v>
@@ -7970,7 +7974,7 @@
         <v>1.6791044776119403E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A408" s="1" t="s">
         <v>1</v>
       </c>
@@ -7993,7 +7997,7 @@
       <c r="H408" s="13"/>
       <c r="I408" s="10"/>
     </row>
-    <row r="409" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A409" s="1" t="s">
         <v>2</v>
       </c>
@@ -8016,7 +8020,7 @@
       <c r="H409" s="10"/>
       <c r="I409" s="10"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="58" t="s">
         <v>110</v>
       </c>
@@ -8030,7 +8034,7 @@
       </c>
       <c r="I410" s="10"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2" t="s">
         <v>16</v>
@@ -8050,7 +8054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A412" s="1" t="s">
         <v>1</v>
       </c>
@@ -8070,7 +8074,7 @@
       <c r="H412" s="10"/>
       <c r="I412" s="10"/>
     </row>
-    <row r="413" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A413" s="1" t="s">
         <v>2</v>
       </c>
@@ -8090,8 +8094,8 @@
       <c r="H413" s="10"/>
       <c r="J413" s="10"/>
     </row>
-    <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="58" t="s">
         <v>111</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>1.4874628134296642E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="1"/>
       <c r="B416" s="2" t="s">
         <v>14</v>
@@ -8127,7 +8131,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A417" s="1" t="s">
         <v>1</v>
       </c>
@@ -8150,7 +8154,7 @@
       <c r="H417" s="13"/>
       <c r="I417" s="10"/>
     </row>
-    <row r="418" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A418" s="1" t="s">
         <v>2</v>
       </c>
@@ -8176,7 +8180,7 @@
       </c>
       <c r="I418" s="10"/>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="58" t="s">
         <v>112</v>
       </c>
@@ -8190,7 +8194,7 @@
       </c>
       <c r="I419" s="10"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="1"/>
       <c r="B420" s="2" t="s">
         <v>16</v>
@@ -8206,7 +8210,7 @@
       </c>
       <c r="G420" s="10"/>
     </row>
-    <row r="421" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A421" s="1" t="s">
         <v>1</v>
       </c>
@@ -8226,7 +8230,7 @@
       <c r="H421" s="10"/>
       <c r="I421" s="10"/>
     </row>
-    <row r="422" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A422" s="1" t="s">
         <v>2</v>
       </c>
@@ -8246,8 +8250,8 @@
       <c r="H422" s="10"/>
       <c r="J422" s="10"/>
     </row>
-    <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="58" t="s">
         <v>113</v>
       </c>
@@ -8261,7 +8265,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2" t="s">
         <v>14</v>
@@ -8283,7 +8287,7 @@
         <v>2.5662778366914104E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A426" s="1" t="s">
         <v>1</v>
       </c>
@@ -8306,7 +8310,7 @@
       <c r="H426" s="13"/>
       <c r="I426" s="10"/>
     </row>
-    <row r="427" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A427" s="1" t="s">
         <v>2</v>
       </c>
@@ -8329,7 +8333,7 @@
       <c r="H427" s="10"/>
       <c r="I427" s="10"/>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="58" t="s">
         <v>114</v>
       </c>
@@ -8339,7 +8343,7 @@
       <c r="E428" s="58"/>
       <c r="I428" s="10"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="1"/>
       <c r="B429" s="2" t="s">
         <v>16</v>
@@ -8359,7 +8363,7 @@
         <v>1.994153267905617E-2</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A430" s="1" t="s">
         <v>1</v>
       </c>
@@ -8382,7 +8386,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A431" s="1" t="s">
         <v>2</v>
       </c>
@@ -8402,8 +8406,8 @@
       <c r="H431" s="10"/>
       <c r="J431" s="10"/>
     </row>
-    <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="58" t="s">
         <v>115</v>
       </c>
@@ -8417,7 +8421,7 @@
         <v>1.7408615358549706E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="1"/>
       <c r="B434" s="2" t="s">
         <v>14</v>
@@ -8439,7 +8443,7 @@
         <v>-160</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A435" s="1" t="s">
         <v>1</v>
       </c>
@@ -8462,7 +8466,7 @@
       <c r="H435" s="13"/>
       <c r="I435" s="10"/>
     </row>
-    <row r="436" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A436" s="1" t="s">
         <v>2</v>
       </c>
@@ -8485,7 +8489,7 @@
       <c r="H436" s="10"/>
       <c r="I436" s="10"/>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="58" t="s">
         <v>116</v>
       </c>
@@ -8499,7 +8503,7 @@
       </c>
       <c r="I437" s="10"/>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="1"/>
       <c r="B438" s="2" t="s">
         <v>16</v>
@@ -8519,7 +8523,7 @@
         <v>-76</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A439" s="1" t="s">
         <v>1</v>
       </c>
@@ -8539,7 +8543,7 @@
       <c r="H439" s="10"/>
       <c r="I439" s="10"/>
     </row>
-    <row r="440" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A440" s="1" t="s">
         <v>2</v>
       </c>
@@ -8559,8 +8563,8 @@
       <c r="H440" s="10"/>
       <c r="J440" s="10"/>
     </row>
-    <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="58" t="s">
         <v>117</v>
       </c>
@@ -8574,7 +8578,7 @@
         <v>1.0817975798520545E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="1"/>
       <c r="B443" s="2" t="s">
         <v>14</v>
@@ -8596,7 +8600,7 @@
         <v>-380</v>
       </c>
     </row>
-    <row r="444" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A444" s="1" t="s">
         <v>1</v>
       </c>
@@ -8620,7 +8624,7 @@
       <c r="H444" s="13"/>
       <c r="I444" s="10"/>
     </row>
-    <row r="445" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A445" s="1" t="s">
         <v>2</v>
       </c>
@@ -8647,7 +8651,7 @@
       </c>
       <c r="I445" s="10"/>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="58" t="s">
         <v>118</v>
       </c>
@@ -8661,7 +8665,7 @@
       </c>
       <c r="I446" s="10"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="1"/>
       <c r="B447" s="2" t="s">
         <v>16</v>
@@ -8677,7 +8681,7 @@
       </c>
       <c r="G447" s="10"/>
     </row>
-    <row r="448" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A448" s="1" t="s">
         <v>1</v>
       </c>
@@ -8697,7 +8701,7 @@
       <c r="H448" s="10"/>
       <c r="I448" s="10"/>
     </row>
-    <row r="449" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A449" s="1" t="s">
         <v>2</v>
       </c>
@@ -8717,8 +8721,8 @@
       <c r="H449" s="10"/>
       <c r="J449" s="10"/>
     </row>
-    <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="58" t="s">
         <v>119</v>
       </c>
@@ -8736,7 +8740,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="1"/>
       <c r="B452" s="2" t="s">
         <v>14</v>
@@ -8754,7 +8758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A453" s="1" t="s">
         <v>1</v>
       </c>
@@ -8777,7 +8781,7 @@
       <c r="H453" s="13"/>
       <c r="I453" s="10"/>
     </row>
-    <row r="454" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A454" s="1" t="s">
         <v>2</v>
       </c>
@@ -8800,7 +8804,7 @@
       <c r="H454" s="10"/>
       <c r="I454" s="10"/>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="58" t="s">
         <v>120</v>
       </c>
@@ -8814,7 +8818,7 @@
       </c>
       <c r="I455" s="10"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="1"/>
       <c r="B456" s="2" t="s">
         <v>16</v>
@@ -8830,7 +8834,7 @@
       </c>
       <c r="G456" s="10"/>
     </row>
-    <row r="457" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A457" s="1" t="s">
         <v>1</v>
       </c>
@@ -8853,7 +8857,7 @@
       </c>
       <c r="I457" s="10"/>
     </row>
-    <row r="458" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A458" s="1" t="s">
         <v>2</v>
       </c>
@@ -8873,8 +8877,8 @@
       <c r="H458" s="10"/>
       <c r="J458" s="10"/>
     </row>
-    <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="58" t="s">
         <v>121</v>
       </c>
@@ -8888,7 +8892,7 @@
         <v>1.5754384474924624E-2</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="1"/>
       <c r="B461" s="2" t="s">
         <v>14</v>
@@ -8910,7 +8914,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="462" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A462" s="1" t="s">
         <v>1</v>
       </c>
@@ -8933,7 +8937,7 @@
       <c r="H462" s="13"/>
       <c r="I462" s="10"/>
     </row>
-    <row r="463" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A463" s="1" t="s">
         <v>2</v>
       </c>
@@ -8956,7 +8960,7 @@
       <c r="H463" s="10"/>
       <c r="I463" s="10"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="58" t="s">
         <v>122</v>
       </c>
@@ -8970,7 +8974,7 @@
       </c>
       <c r="I464" s="10"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="1"/>
       <c r="B465" s="2" t="s">
         <v>16</v>
@@ -8990,7 +8994,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="466" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A466" s="1" t="s">
         <v>1</v>
       </c>
@@ -9010,7 +9014,7 @@
       <c r="H466" s="10"/>
       <c r="I466" s="10"/>
     </row>
-    <row r="467" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A467" s="1" t="s">
         <v>2</v>
       </c>
@@ -9030,8 +9034,8 @@
       <c r="H467" s="10"/>
       <c r="J467" s="10"/>
     </row>
-    <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="58" t="s">
         <v>123</v>
       </c>
@@ -9045,7 +9049,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2" t="s">
         <v>14</v>
@@ -9067,7 +9071,7 @@
         <v>1.9594537280515734E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A471" s="1" t="s">
         <v>1</v>
       </c>
@@ -9090,7 +9094,7 @@
       <c r="H471" s="13"/>
       <c r="I471" s="10"/>
     </row>
-    <row r="472" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A472" s="1" t="s">
         <v>2</v>
       </c>
@@ -9113,7 +9117,7 @@
       <c r="H472" s="10"/>
       <c r="I472" s="10"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="58" t="s">
         <v>124</v>
       </c>
@@ -9127,7 +9131,7 @@
       </c>
       <c r="I473" s="10"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="1"/>
       <c r="B474" s="2" t="s">
         <v>16</v>
@@ -9147,7 +9151,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="475" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A475" s="1" t="s">
         <v>1</v>
       </c>
@@ -9167,7 +9171,7 @@
       <c r="H475" s="10"/>
       <c r="I475" s="10"/>
     </row>
-    <row r="476" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A476" s="1" t="s">
         <v>2</v>
       </c>
@@ -9187,8 +9191,8 @@
       <c r="H476" s="10"/>
       <c r="J476" s="10"/>
     </row>
-    <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="58" t="s">
         <v>125</v>
       </c>
@@ -9202,7 +9206,7 @@
         <v>2.2910479422995334E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="1"/>
       <c r="B479" s="2" t="s">
         <v>14</v>
@@ -9224,7 +9228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="480" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A480" s="1" t="s">
         <v>1</v>
       </c>
@@ -9247,7 +9251,7 @@
       <c r="H480" s="13"/>
       <c r="I480" s="10"/>
     </row>
-    <row r="481" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A481" s="1" t="s">
         <v>2</v>
       </c>
@@ -9270,7 +9274,7 @@
       <c r="H481" s="10"/>
       <c r="I481" s="10"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="58" t="s">
         <v>126</v>
       </c>
@@ -9285,7 +9289,7 @@
       </c>
       <c r="I482" s="10"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="1"/>
       <c r="B483" s="2" t="s">
         <v>16</v>
@@ -9306,7 +9310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="484" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A484" s="1" t="s">
         <v>1</v>
       </c>
@@ -9326,7 +9330,7 @@
       <c r="H484" s="10"/>
       <c r="I484" s="10"/>
     </row>
-    <row r="485" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A485" s="1" t="s">
         <v>2</v>
       </c>
@@ -9347,8 +9351,8 @@
       <c r="H485" s="10"/>
       <c r="J485" s="10"/>
     </row>
-    <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="58" t="s">
         <v>127</v>
       </c>
@@ -9362,7 +9366,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="1"/>
       <c r="B488" s="2" t="s">
         <v>14</v>
@@ -9384,7 +9388,7 @@
         <v>2.6571067060312106E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A489" s="1" t="s">
         <v>1</v>
       </c>
@@ -9407,7 +9411,7 @@
       <c r="H489" s="13"/>
       <c r="I489" s="10"/>
     </row>
-    <row r="490" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A490" s="1" t="s">
         <v>2</v>
       </c>
@@ -9430,7 +9434,7 @@
       <c r="H490" s="10"/>
       <c r="I490" s="10"/>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="58" t="s">
         <v>130</v>
       </c>
@@ -9445,7 +9449,7 @@
       </c>
       <c r="I491" s="10"/>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="1"/>
       <c r="B492" s="2" t="s">
         <v>16</v>
@@ -9462,7 +9466,7 @@
       <c r="F492" s="35"/>
       <c r="G492" s="10"/>
     </row>
-    <row r="493" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A493" s="1" t="s">
         <v>1</v>
       </c>
@@ -9485,7 +9489,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="494" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A494" s="1" t="s">
         <v>2</v>
       </c>
@@ -9506,8 +9510,8 @@
       <c r="H494" s="10"/>
       <c r="J494" s="10"/>
     </row>
-    <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="58" t="s">
         <v>128</v>
       </c>
@@ -9517,7 +9521,7 @@
       <c r="E496" s="58"/>
       <c r="F496" s="58"/>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="1"/>
       <c r="B497" s="2" t="s">
         <v>14</v>
@@ -9543,7 +9547,7 @@
         <v>-140</v>
       </c>
     </row>
-    <row r="498" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A498" s="1" t="s">
         <v>1</v>
       </c>
@@ -9566,7 +9570,7 @@
       <c r="H498" s="13"/>
       <c r="I498" s="10"/>
     </row>
-    <row r="499" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A499" s="1" t="s">
         <v>2</v>
       </c>
@@ -9589,7 +9593,7 @@
       <c r="H499" s="10"/>
       <c r="I499" s="10"/>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="58" t="s">
         <v>129</v>
       </c>
@@ -9604,7 +9608,7 @@
       </c>
       <c r="I500" s="10"/>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="1"/>
       <c r="B501" s="2" t="s">
         <v>16</v>
@@ -9625,7 +9629,7 @@
         <v>-351</v>
       </c>
     </row>
-    <row r="502" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A502" s="1" t="s">
         <v>1</v>
       </c>
@@ -9645,7 +9649,7 @@
       <c r="H502" s="10"/>
       <c r="I502" s="10"/>
     </row>
-    <row r="503" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A503" s="1" t="s">
         <v>2</v>
       </c>
@@ -9666,8 +9670,8 @@
       <c r="H503" s="10"/>
       <c r="J503" s="10"/>
     </row>
-    <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="58" t="s">
         <v>131</v>
       </c>
@@ -9685,7 +9689,7 @@
         <v>-460</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
       <c r="B506" s="2" t="s">
         <v>14</v>
@@ -9703,7 +9707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="507" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A507" s="1" t="s">
         <v>1</v>
       </c>
@@ -9726,7 +9730,7 @@
       <c r="H507" s="13"/>
       <c r="I507" s="10"/>
     </row>
-    <row r="508" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A508" s="1" t="s">
         <v>2</v>
       </c>
@@ -9750,7 +9754,7 @@
       <c r="H508" s="10"/>
       <c r="I508" s="10"/>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="58" t="s">
         <v>133</v>
       </c>
@@ -9765,7 +9769,7 @@
       </c>
       <c r="I509" s="10"/>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="1"/>
       <c r="B510" s="2" t="s">
         <v>16</v>
@@ -9782,7 +9786,7 @@
       <c r="F510" s="35"/>
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A511" s="1" t="s">
         <v>1</v>
       </c>
@@ -9809,7 +9813,7 @@
         <v>-3.2072596287060127E-2</v>
       </c>
     </row>
-    <row r="512" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A512" s="1" t="s">
         <v>2</v>
       </c>
@@ -9830,8 +9834,8 @@
       <c r="H512" s="10"/>
       <c r="J512" s="10"/>
     </row>
-    <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="58" t="s">
         <v>132</v>
       </c>
@@ -9841,7 +9845,7 @@
       <c r="E514" s="58"/>
       <c r="F514" s="58"/>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="1"/>
       <c r="B515" s="2" t="s">
         <v>14</v>
@@ -9863,7 +9867,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A516" s="1" t="s">
         <v>1</v>
       </c>
@@ -9886,7 +9890,7 @@
       <c r="H516" s="13"/>
       <c r="I516" s="10"/>
     </row>
-    <row r="517" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A517" s="1" t="s">
         <v>2</v>
       </c>
@@ -9909,7 +9913,7 @@
       <c r="H517" s="10"/>
       <c r="I517" s="10"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="58" t="s">
         <v>134</v>
       </c>
@@ -9920,7 +9924,7 @@
       <c r="F518" s="34"/>
       <c r="I518" s="10"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="1"/>
       <c r="B519" s="2" t="s">
         <v>16</v>
@@ -9937,7 +9941,7 @@
       <c r="F519" s="35"/>
       <c r="G519" s="10"/>
     </row>
-    <row r="520" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A520" s="1" t="s">
         <v>1</v>
       </c>
@@ -9960,7 +9964,7 @@
       </c>
       <c r="I520" s="10"/>
     </row>
-    <row r="521" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A521" s="1" t="s">
         <v>2</v>
       </c>
@@ -9981,8 +9985,8 @@
       <c r="H521" s="10"/>
       <c r="J521" s="10"/>
     </row>
-    <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="58" t="s">
         <v>135</v>
       </c>
@@ -9992,7 +9996,7 @@
       <c r="E523" s="58"/>
       <c r="F523" s="58"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="2" t="s">
         <v>14</v>
@@ -10010,7 +10014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A525" s="1" t="s">
         <v>1</v>
       </c>
@@ -10033,7 +10037,7 @@
       <c r="H525" s="13"/>
       <c r="I525" s="10"/>
     </row>
-    <row r="526" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A526" s="1" t="s">
         <v>2</v>
       </c>
@@ -10057,7 +10061,7 @@
       <c r="H526" s="10"/>
       <c r="I526" s="10"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="58" t="s">
         <v>136</v>
       </c>
@@ -10068,7 +10072,7 @@
       <c r="F527" s="34"/>
       <c r="I527" s="10"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
       <c r="B528" s="2" t="s">
         <v>16</v>
@@ -10085,7 +10089,7 @@
       <c r="F528" s="35"/>
       <c r="G528" s="10"/>
     </row>
-    <row r="529" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A529" s="1" t="s">
         <v>1</v>
       </c>
@@ -10105,7 +10109,7 @@
       <c r="H529" s="10"/>
       <c r="I529" s="10"/>
     </row>
-    <row r="530" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A530" s="1" t="s">
         <v>2</v>
       </c>
@@ -10126,8 +10130,8 @@
       <c r="H530" s="10"/>
       <c r="J530" s="10"/>
     </row>
-    <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="58" t="s">
         <v>137</v>
       </c>
@@ -10137,7 +10141,7 @@
       <c r="E534" s="58"/>
       <c r="F534" s="58"/>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="1"/>
       <c r="B535" s="2" t="s">
         <v>14</v>
@@ -10155,7 +10159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A536" s="1" t="s">
         <v>1</v>
       </c>
@@ -10167,7 +10171,7 @@
       <c r="H536" s="13"/>
       <c r="I536" s="10"/>
     </row>
-    <row r="537" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A537" s="1" t="s">
         <v>2</v>
       </c>
@@ -10179,7 +10183,7 @@
       <c r="H537" s="10"/>
       <c r="I537" s="10"/>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="58" t="s">
         <v>138</v>
       </c>
@@ -10190,7 +10194,7 @@
       <c r="F538" s="34"/>
       <c r="I538" s="10"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
       <c r="B539" s="2" t="s">
         <v>16</v>
@@ -10207,7 +10211,7 @@
       <c r="F539" s="35"/>
       <c r="G539" s="10"/>
     </row>
-    <row r="540" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A540" s="1" t="s">
         <v>1</v>
       </c>
@@ -10219,7 +10223,7 @@
       <c r="H540" s="10"/>
       <c r="I540" s="10"/>
     </row>
-    <row r="541" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A541" s="1" t="s">
         <v>2</v>
       </c>
@@ -10232,8 +10236,8 @@
       <c r="H541" s="10"/>
       <c r="J541" s="10"/>
     </row>
-    <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="58" t="s">
         <v>139</v>
       </c>
@@ -10243,7 +10247,7 @@
       <c r="E545" s="58"/>
       <c r="F545" s="58"/>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="1"/>
       <c r="B546" s="2" t="s">
         <v>14</v>
@@ -10261,7 +10265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A547" s="1" t="s">
         <v>1</v>
       </c>
@@ -10280,7 +10284,7 @@
       <c r="H547" s="13"/>
       <c r="I547" s="10"/>
     </row>
-    <row r="548" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A548" s="1" t="s">
         <v>2</v>
       </c>
@@ -10296,7 +10300,7 @@
       <c r="H548" s="10"/>
       <c r="I548" s="10"/>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="58" t="s">
         <v>140</v>
       </c>
@@ -10307,7 +10311,7 @@
       <c r="F549" s="34"/>
       <c r="I549" s="10"/>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="2" t="s">
         <v>16</v>
@@ -10324,7 +10328,7 @@
       <c r="F550" s="35"/>
       <c r="G550" s="10"/>
     </row>
-    <row r="551" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A551" s="1" t="s">
         <v>1</v>
       </c>
@@ -10340,7 +10344,7 @@
       <c r="H551" s="10"/>
       <c r="I551" s="10"/>
     </row>
-    <row r="552" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A552" s="1" t="s">
         <v>2</v>
       </c>
@@ -10357,8 +10361,8 @@
       <c r="H552" s="10"/>
       <c r="J552" s="10"/>
     </row>
-    <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="58" t="s">
         <v>141</v>
       </c>
@@ -10368,7 +10372,7 @@
       <c r="E556" s="58"/>
       <c r="F556" s="58"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="1"/>
       <c r="B557" s="2" t="s">
         <v>14</v>
@@ -10394,7 +10398,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A558" s="1" t="s">
         <v>1</v>
       </c>
@@ -10417,7 +10421,7 @@
       <c r="H558" s="13"/>
       <c r="I558" s="10"/>
     </row>
-    <row r="559" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A559" s="1" t="s">
         <v>2</v>
       </c>
@@ -10441,7 +10445,7 @@
       <c r="H559" s="10"/>
       <c r="I559" s="10"/>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="58" t="s">
         <v>142</v>
       </c>
@@ -10452,7 +10456,7 @@
       <c r="F560" s="34"/>
       <c r="I560" s="10"/>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2" t="s">
         <v>16</v>
@@ -10469,7 +10473,7 @@
       <c r="F561" s="35"/>
       <c r="G561" s="10"/>
     </row>
-    <row r="562" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A562" s="1" t="s">
         <v>1</v>
       </c>
@@ -10489,7 +10493,7 @@
       <c r="H562" s="10"/>
       <c r="I562" s="10"/>
     </row>
-    <row r="563" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A563" s="1" t="s">
         <v>2</v>
       </c>
@@ -10510,8 +10514,8 @@
       <c r="H563" s="10"/>
       <c r="J563" s="10"/>
     </row>
-    <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="58" t="s">
         <v>143</v>
       </c>
@@ -10521,7 +10525,7 @@
       <c r="E566" s="58"/>
       <c r="F566" s="58"/>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
       <c r="B567" s="2" t="s">
         <v>14</v>
@@ -10539,7 +10543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A568" s="1" t="s">
         <v>1</v>
       </c>
@@ -10562,7 +10566,7 @@
       <c r="H568" s="13"/>
       <c r="I568" s="10"/>
     </row>
-    <row r="569" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A569" s="1" t="s">
         <v>2</v>
       </c>
@@ -10585,7 +10589,7 @@
       <c r="H569" s="10"/>
       <c r="I569" s="10"/>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="58" t="s">
         <v>144</v>
       </c>
@@ -10596,7 +10600,7 @@
       <c r="F570" s="34"/>
       <c r="I570" s="10"/>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="1"/>
       <c r="B571" s="2" t="s">
         <v>16</v>
@@ -10613,7 +10617,7 @@
       <c r="F571" s="35"/>
       <c r="G571" s="10"/>
     </row>
-    <row r="572" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A572" s="1" t="s">
         <v>1</v>
       </c>
@@ -10633,7 +10637,7 @@
       <c r="H572" s="10"/>
       <c r="I572" s="10"/>
     </row>
-    <row r="573" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A573" s="1" t="s">
         <v>2</v>
       </c>
@@ -10654,8 +10658,8 @@
       <c r="H573" s="10"/>
       <c r="J573" s="10"/>
     </row>
-    <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="58" t="s">
         <v>145</v>
       </c>
@@ -10665,7 +10669,7 @@
       <c r="E576" s="58"/>
       <c r="F576" s="58"/>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="1"/>
       <c r="B577" s="2" t="s">
         <v>14</v>
@@ -10683,7 +10687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A578" s="1" t="s">
         <v>1</v>
       </c>
@@ -10706,7 +10710,7 @@
       <c r="H578" s="13"/>
       <c r="I578" s="10"/>
     </row>
-    <row r="579" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A579" s="1" t="s">
         <v>2</v>
       </c>
@@ -10729,7 +10733,7 @@
       <c r="H579" s="10"/>
       <c r="I579" s="10"/>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="58" t="s">
         <v>146</v>
       </c>
@@ -10740,7 +10744,7 @@
       <c r="F580" s="34"/>
       <c r="I580" s="10"/>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="1"/>
       <c r="B581" s="2" t="s">
         <v>16</v>
@@ -10757,7 +10761,7 @@
       <c r="F581" s="35"/>
       <c r="G581" s="10"/>
     </row>
-    <row r="582" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A582" s="1" t="s">
         <v>1</v>
       </c>
@@ -10777,7 +10781,7 @@
       <c r="H582" s="10"/>
       <c r="I582" s="10"/>
     </row>
-    <row r="583" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A583" s="1" t="s">
         <v>2</v>
       </c>
@@ -10798,8 +10802,8 @@
       <c r="H583" s="10"/>
       <c r="J583" s="10"/>
     </row>
-    <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="58" t="s">
         <v>147</v>
       </c>
@@ -10809,7 +10813,7 @@
       <c r="E586" s="58"/>
       <c r="F586" s="58"/>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="1"/>
       <c r="B587" s="2" t="s">
         <v>14</v>
@@ -10827,7 +10831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="588" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A588" s="1" t="s">
         <v>1</v>
       </c>
@@ -10850,7 +10854,7 @@
       <c r="H588" s="13"/>
       <c r="I588" s="10"/>
     </row>
-    <row r="589" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A589" s="1" t="s">
         <v>2</v>
       </c>
@@ -10873,7 +10877,7 @@
       <c r="H589" s="10"/>
       <c r="I589" s="10"/>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="58" t="s">
         <v>148</v>
       </c>
@@ -10884,7 +10888,7 @@
       <c r="F590" s="34"/>
       <c r="I590" s="10"/>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="1"/>
       <c r="B591" s="2" t="s">
         <v>16</v>
@@ -10901,7 +10905,7 @@
       <c r="F591" s="35"/>
       <c r="G591" s="10"/>
     </row>
-    <row r="592" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A592" s="1" t="s">
         <v>1</v>
       </c>
@@ -10921,7 +10925,7 @@
       <c r="H592" s="10"/>
       <c r="I592" s="10"/>
     </row>
-    <row r="593" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A593" s="1" t="s">
         <v>2</v>
       </c>
@@ -10942,8 +10946,8 @@
       <c r="H593" s="10"/>
       <c r="J593" s="10"/>
     </row>
-    <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="58" t="s">
         <v>149</v>
       </c>
@@ -10957,7 +10961,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="1"/>
       <c r="B597" s="2" t="s">
         <v>14</v>
@@ -10979,7 +10983,7 @@
         <v>1.0597880423915218E-2</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A598" s="1" t="s">
         <v>1</v>
       </c>
@@ -11002,7 +11006,7 @@
       <c r="H598" s="13"/>
       <c r="I598" s="10"/>
     </row>
-    <row r="599" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A599" s="1" t="s">
         <v>2</v>
       </c>
@@ -11025,7 +11029,7 @@
       <c r="H599" s="10"/>
       <c r="I599" s="10"/>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="58" t="s">
         <v>150</v>
       </c>
@@ -11043,7 +11047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="1"/>
       <c r="B601" s="2" t="s">
         <v>16</v>
@@ -11060,7 +11064,7 @@
       <c r="F601" s="35"/>
       <c r="G601" s="10"/>
     </row>
-    <row r="602" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A602" s="1" t="s">
         <v>1</v>
       </c>
@@ -11080,7 +11084,7 @@
       <c r="H602" s="10"/>
       <c r="I602" s="10"/>
     </row>
-    <row r="603" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A603" s="1" t="s">
         <v>2</v>
       </c>
@@ -11101,8 +11105,8 @@
       <c r="H603" s="10"/>
       <c r="J603" s="10"/>
     </row>
-    <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" s="58" t="s">
         <v>151</v>
       </c>
@@ -11112,7 +11116,7 @@
       <c r="E606" s="58"/>
       <c r="F606" s="58"/>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" s="1"/>
       <c r="B607" s="2" t="s">
         <v>14</v>
@@ -11130,7 +11134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A608" s="1" t="s">
         <v>1</v>
       </c>
@@ -11153,7 +11157,7 @@
       <c r="H608" s="13"/>
       <c r="I608" s="10"/>
     </row>
-    <row r="609" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A609" s="1" t="s">
         <v>2</v>
       </c>
@@ -11176,7 +11180,7 @@
       <c r="H609" s="10"/>
       <c r="I609" s="10"/>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" s="58" t="s">
         <v>152</v>
       </c>
@@ -11187,7 +11191,7 @@
       <c r="F610" s="34"/>
       <c r="I610" s="10"/>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" s="1"/>
       <c r="B611" s="2" t="s">
         <v>16</v>
@@ -11204,7 +11208,7 @@
       <c r="F611" s="35"/>
       <c r="G611" s="10"/>
     </row>
-    <row r="612" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A612" s="1" t="s">
         <v>1</v>
       </c>
@@ -11224,7 +11228,7 @@
       <c r="H612" s="10"/>
       <c r="I612" s="10"/>
     </row>
-    <row r="613" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A613" s="1" t="s">
         <v>2</v>
       </c>
@@ -11245,8 +11249,8 @@
       <c r="H613" s="10"/>
       <c r="J613" s="10"/>
     </row>
-    <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" s="58" t="s">
         <v>153</v>
       </c>
@@ -11256,7 +11260,7 @@
       <c r="E616" s="58"/>
       <c r="F616" s="58"/>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" s="1"/>
       <c r="B617" s="2" t="s">
         <v>14</v>
@@ -11274,7 +11278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="618" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A618" s="1" t="s">
         <v>1</v>
       </c>
@@ -11297,7 +11301,7 @@
       <c r="H618" s="13"/>
       <c r="I618" s="10"/>
     </row>
-    <row r="619" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A619" s="1" t="s">
         <v>2</v>
       </c>
@@ -11320,7 +11324,7 @@
       <c r="H619" s="10"/>
       <c r="I619" s="10"/>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" s="58" t="s">
         <v>154</v>
       </c>
@@ -11331,7 +11335,7 @@
       <c r="F620" s="34"/>
       <c r="I620" s="10"/>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" s="1"/>
       <c r="B621" s="2" t="s">
         <v>16</v>
@@ -11348,7 +11352,7 @@
       <c r="F621" s="35"/>
       <c r="G621" s="10"/>
     </row>
-    <row r="622" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A622" s="1" t="s">
         <v>1</v>
       </c>
@@ -11368,7 +11372,7 @@
       <c r="H622" s="10"/>
       <c r="I622" s="10"/>
     </row>
-    <row r="623" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A623" s="1" t="s">
         <v>2</v>
       </c>
@@ -11389,8 +11393,8 @@
       <c r="H623" s="10"/>
       <c r="J623" s="10"/>
     </row>
-    <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" s="58" t="s">
         <v>155</v>
       </c>
@@ -11400,7 +11404,7 @@
       <c r="E626" s="58"/>
       <c r="F626" s="58"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" s="1"/>
       <c r="B627" s="2" t="s">
         <v>14</v>
@@ -11418,7 +11422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="628" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A628" s="1" t="s">
         <v>1</v>
       </c>
@@ -11441,7 +11445,7 @@
       <c r="H628" s="13"/>
       <c r="I628" s="10"/>
     </row>
-    <row r="629" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A629" s="1" t="s">
         <v>2</v>
       </c>
@@ -11464,7 +11468,7 @@
       <c r="H629" s="10"/>
       <c r="I629" s="10"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" s="58" t="s">
         <v>156</v>
       </c>
@@ -11475,7 +11479,7 @@
       <c r="F630" s="34"/>
       <c r="I630" s="10"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" s="1"/>
       <c r="B631" s="2" t="s">
         <v>16</v>
@@ -11492,7 +11496,7 @@
       <c r="F631" s="35"/>
       <c r="G631" s="10"/>
     </row>
-    <row r="632" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A632" s="1" t="s">
         <v>1</v>
       </c>
@@ -11512,7 +11516,7 @@
       <c r="H632" s="10"/>
       <c r="I632" s="10"/>
     </row>
-    <row r="633" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A633" s="1" t="s">
         <v>2</v>
       </c>
@@ -11533,8 +11537,8 @@
       <c r="H633" s="10"/>
       <c r="J633" s="10"/>
     </row>
-    <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" s="58" t="s">
         <v>157</v>
       </c>
@@ -11544,7 +11548,7 @@
       <c r="E636" s="58"/>
       <c r="F636" s="58"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" s="1"/>
       <c r="B637" s="2" t="s">
         <v>14</v>
@@ -11562,7 +11566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="638" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A638" s="1" t="s">
         <v>1</v>
       </c>
@@ -11585,7 +11589,7 @@
       <c r="H638" s="13"/>
       <c r="I638" s="10"/>
     </row>
-    <row r="639" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A639" s="1" t="s">
         <v>2</v>
       </c>
@@ -11608,7 +11612,7 @@
       <c r="H639" s="10"/>
       <c r="I639" s="10"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" s="58" t="s">
         <v>158</v>
       </c>
@@ -11619,7 +11623,7 @@
       <c r="F640" s="34"/>
       <c r="I640" s="10"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" s="1"/>
       <c r="B641" s="2" t="s">
         <v>16</v>
@@ -11636,7 +11640,7 @@
       <c r="F641" s="35"/>
       <c r="G641" s="10"/>
     </row>
-    <row r="642" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A642" s="1" t="s">
         <v>1</v>
       </c>
@@ -11656,7 +11660,7 @@
       <c r="H642" s="10"/>
       <c r="I642" s="10"/>
     </row>
-    <row r="643" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A643" s="1" t="s">
         <v>2</v>
       </c>
@@ -11677,8 +11681,8 @@
       <c r="H643" s="10"/>
       <c r="J643" s="10"/>
     </row>
-    <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" s="58" t="s">
         <v>159</v>
       </c>
@@ -11688,7 +11692,7 @@
       <c r="E646" s="58"/>
       <c r="F646" s="58"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" s="1"/>
       <c r="B647" s="2" t="s">
         <v>14</v>
@@ -11706,7 +11710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="648" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A648" s="1" t="s">
         <v>1</v>
       </c>
@@ -11729,7 +11733,7 @@
       <c r="H648" s="13"/>
       <c r="I648" s="10"/>
     </row>
-    <row r="649" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A649" s="1" t="s">
         <v>2</v>
       </c>
@@ -11752,7 +11756,7 @@
       <c r="H649" s="10"/>
       <c r="I649" s="10"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" s="58" t="s">
         <v>160</v>
       </c>
@@ -11763,7 +11767,7 @@
       <c r="F650" s="34"/>
       <c r="I650" s="10"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" s="1"/>
       <c r="B651" s="2" t="s">
         <v>16</v>
@@ -11780,7 +11784,7 @@
       <c r="F651" s="35"/>
       <c r="G651" s="10"/>
     </row>
-    <row r="652" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A652" s="1" t="s">
         <v>1</v>
       </c>
@@ -11800,7 +11804,7 @@
       <c r="H652" s="10"/>
       <c r="I652" s="10"/>
     </row>
-    <row r="653" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A653" s="1" t="s">
         <v>2</v>
       </c>
@@ -11821,8 +11825,8 @@
       <c r="H653" s="10"/>
       <c r="J653" s="10"/>
     </row>
-    <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="58" t="s">
         <v>161</v>
       </c>
@@ -11832,7 +11836,7 @@
       <c r="E656" s="58"/>
       <c r="F656" s="58"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="1"/>
       <c r="B657" s="2" t="s">
         <v>14</v>
@@ -11850,7 +11854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="658" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A658" s="1" t="s">
         <v>1</v>
       </c>
@@ -11873,7 +11877,7 @@
       <c r="H658" s="13"/>
       <c r="I658" s="10"/>
     </row>
-    <row r="659" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A659" s="1" t="s">
         <v>2</v>
       </c>
@@ -11896,7 +11900,7 @@
       <c r="H659" s="10"/>
       <c r="I659" s="10"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="58" t="s">
         <v>162</v>
       </c>
@@ -11907,7 +11911,7 @@
       <c r="F660" s="34"/>
       <c r="I660" s="10"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="1"/>
       <c r="B661" s="2" t="s">
         <v>16</v>
@@ -11924,7 +11928,7 @@
       <c r="F661" s="35"/>
       <c r="G661" s="10"/>
     </row>
-    <row r="662" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A662" s="1" t="s">
         <v>1</v>
       </c>
@@ -11944,7 +11948,7 @@
       <c r="H662" s="10"/>
       <c r="I662" s="10"/>
     </row>
-    <row r="663" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A663" s="1" t="s">
         <v>2</v>
       </c>
@@ -11965,7 +11969,7 @@
       <c r="H663" s="10"/>
       <c r="J663" s="10"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="6"/>
       <c r="B665" s="6"/>
       <c r="C665" s="6"/>
@@ -11973,7 +11977,7 @@
       <c r="E665" s="6"/>
       <c r="F665" s="6"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="58" t="s">
         <v>163</v>
       </c>
@@ -11983,7 +11987,7 @@
       <c r="E666" s="58"/>
       <c r="F666" s="58"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="1"/>
       <c r="B667" s="2" t="s">
         <v>14</v>
@@ -12001,7 +12005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="668" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A668" s="1" t="s">
         <v>1</v>
       </c>
@@ -12021,7 +12025,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="669" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A669" s="1" t="s">
         <v>2</v>
       </c>
@@ -12041,7 +12045,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="58" t="s">
         <v>164</v>
       </c>
@@ -12051,7 +12055,7 @@
       <c r="E670" s="58"/>
       <c r="F670" s="34"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="1"/>
       <c r="B671" s="2" t="s">
         <v>16</v>
@@ -12067,7 +12071,7 @@
       </c>
       <c r="F671" s="35"/>
     </row>
-    <row r="672" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:10" ht="18" x14ac:dyDescent="0.5">
       <c r="A672" s="1" t="s">
         <v>1</v>
       </c>
@@ -12085,7 +12089,7 @@
       </c>
       <c r="F672" s="35"/>
     </row>
-    <row r="673" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A673" s="1" t="s">
         <v>2</v>
       </c>
@@ -12103,7 +12107,7 @@
       </c>
       <c r="F673" s="35"/>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="6"/>
       <c r="B675" s="6"/>
       <c r="C675" s="6"/>
@@ -12111,7 +12115,7 @@
       <c r="E675" s="6"/>
       <c r="F675" s="6"/>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="58" t="s">
         <v>165</v>
       </c>
@@ -12121,7 +12125,7 @@
       <c r="E676" s="58"/>
       <c r="F676" s="58"/>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="1"/>
       <c r="B677" s="2" t="s">
         <v>14</v>
@@ -12139,7 +12143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A678" s="1" t="s">
         <v>1</v>
       </c>
@@ -12160,7 +12164,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A679" s="1" t="s">
         <v>2</v>
       </c>
@@ -12180,7 +12184,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="58" t="s">
         <v>166</v>
       </c>
@@ -12190,7 +12194,7 @@
       <c r="E680" s="58"/>
       <c r="F680" s="34"/>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="1"/>
       <c r="B681" s="2" t="s">
         <v>16</v>
@@ -12206,7 +12210,7 @@
       </c>
       <c r="F681" s="35"/>
     </row>
-    <row r="682" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A682" s="1" t="s">
         <v>1</v>
       </c>
@@ -12228,7 +12232,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A683" s="1" t="s">
         <v>2</v>
       </c>
@@ -12246,7 +12250,7 @@
       </c>
       <c r="F683" s="35"/>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="6"/>
@@ -12254,7 +12258,7 @@
       <c r="E685" s="6"/>
       <c r="F685" s="6"/>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="58" t="s">
         <v>167</v>
       </c>
@@ -12264,7 +12268,7 @@
       <c r="E686" s="58"/>
       <c r="F686" s="58"/>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="1"/>
       <c r="B687" s="2" t="s">
         <v>14</v>
@@ -12282,7 +12286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A688" s="1" t="s">
         <v>1</v>
       </c>
@@ -12302,7 +12306,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="689" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A689" s="1" t="s">
         <v>2</v>
       </c>
@@ -12322,7 +12326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690" s="58" t="s">
         <v>168</v>
       </c>
@@ -12332,7 +12336,7 @@
       <c r="E690" s="58"/>
       <c r="F690" s="34"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691" s="1"/>
       <c r="B691" s="2" t="s">
         <v>16</v>
@@ -12348,7 +12352,7 @@
       </c>
       <c r="F691" s="35"/>
     </row>
-    <row r="692" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A692" s="1" t="s">
         <v>1</v>
       </c>
@@ -12366,7 +12370,7 @@
       </c>
       <c r="F692" s="35"/>
     </row>
-    <row r="693" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A693" s="1" t="s">
         <v>2</v>
       </c>
@@ -12384,7 +12388,7 @@
       </c>
       <c r="F693" s="35"/>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="6"/>
@@ -12392,7 +12396,7 @@
       <c r="E695" s="6"/>
       <c r="F695" s="6"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" s="58" t="s">
         <v>169</v>
       </c>
@@ -12402,7 +12406,7 @@
       <c r="E696" s="58"/>
       <c r="F696" s="58"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" s="1"/>
       <c r="B697" s="2" t="s">
         <v>14</v>
@@ -12420,7 +12424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="698" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A698" s="1" t="s">
         <v>1</v>
       </c>
@@ -12440,7 +12444,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="699" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A699" s="1" t="s">
         <v>2</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" s="58" t="s">
         <v>170</v>
       </c>
@@ -12470,7 +12474,7 @@
       <c r="E700" s="58"/>
       <c r="F700" s="34"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" s="1"/>
       <c r="B701" s="2" t="s">
         <v>16</v>
@@ -12486,7 +12490,7 @@
       </c>
       <c r="F701" s="35"/>
     </row>
-    <row r="702" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A702" s="1" t="s">
         <v>1</v>
       </c>
@@ -12504,7 +12508,7 @@
       </c>
       <c r="F702" s="35"/>
     </row>
-    <row r="703" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A703" s="1" t="s">
         <v>2</v>
       </c>
@@ -12526,7 +12530,7 @@
         <v>-81</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="6"/>
@@ -12534,7 +12538,7 @@
       <c r="E705" s="6"/>
       <c r="F705" s="6"/>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706" s="58" t="s">
         <v>171</v>
       </c>
@@ -12544,7 +12548,7 @@
       <c r="E706" s="58"/>
       <c r="F706" s="58"/>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" s="1"/>
       <c r="B707" s="2" t="s">
         <v>14</v>
@@ -12562,7 +12566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A708" s="1" t="s">
         <v>1</v>
       </c>
@@ -12582,7 +12586,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A709" s="1" t="s">
         <v>2</v>
       </c>
@@ -12602,7 +12606,7 @@
         <v>-117</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" s="58" t="s">
         <v>172</v>
       </c>
@@ -12612,7 +12616,7 @@
       <c r="E710" s="58"/>
       <c r="F710" s="34"/>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" s="1"/>
       <c r="B711" s="2" t="s">
         <v>16</v>
@@ -12628,7 +12632,7 @@
       </c>
       <c r="F711" s="35"/>
     </row>
-    <row r="712" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A712" s="1" t="s">
         <v>1</v>
       </c>
@@ -12646,7 +12650,7 @@
       </c>
       <c r="F712" s="35"/>
     </row>
-    <row r="713" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A713" s="1" t="s">
         <v>2</v>
       </c>
@@ -12664,7 +12668,7 @@
       </c>
       <c r="F713" s="35"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="6"/>
@@ -12672,7 +12676,7 @@
       <c r="E715" s="6"/>
       <c r="F715" s="6"/>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716" s="58" t="s">
         <v>173</v>
       </c>
@@ -12682,7 +12686,7 @@
       <c r="E716" s="58"/>
       <c r="F716" s="58"/>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717" s="1"/>
       <c r="B717" s="2" t="s">
         <v>14</v>
@@ -12700,7 +12704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A718" s="1" t="s">
         <v>1</v>
       </c>
@@ -12720,7 +12724,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A719" s="1" t="s">
         <v>2</v>
       </c>
@@ -12740,7 +12744,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720" s="58" t="s">
         <v>172</v>
       </c>
@@ -12750,7 +12754,7 @@
       <c r="E720" s="58"/>
       <c r="F720" s="34"/>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A721" s="1"/>
       <c r="B721" s="2" t="s">
         <v>16</v>
@@ -12766,7 +12770,7 @@
       </c>
       <c r="F721" s="35"/>
     </row>
-    <row r="722" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A722" s="1" t="s">
         <v>1</v>
       </c>
@@ -12784,7 +12788,7 @@
       </c>
       <c r="F722" s="35"/>
     </row>
-    <row r="723" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A723" s="1" t="s">
         <v>2</v>
       </c>
@@ -12802,7 +12806,7 @@
       </c>
       <c r="F723" s="35"/>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="6"/>
@@ -12810,7 +12814,7 @@
       <c r="E725" s="6"/>
       <c r="F725" s="6"/>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A726" s="58" t="s">
         <v>174</v>
       </c>
@@ -12820,7 +12824,7 @@
       <c r="E726" s="58"/>
       <c r="F726" s="58"/>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A727" s="1"/>
       <c r="B727" s="2" t="s">
         <v>14</v>
@@ -12838,7 +12842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A728" s="1" t="s">
         <v>1</v>
       </c>
@@ -12858,7 +12862,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A729" s="1" t="s">
         <v>2</v>
       </c>
@@ -12878,7 +12882,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A730" s="58" t="s">
         <v>175</v>
       </c>
@@ -12888,7 +12892,7 @@
       <c r="E730" s="58"/>
       <c r="F730" s="34"/>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A731" s="1"/>
       <c r="B731" s="2" t="s">
         <v>16</v>
@@ -12904,7 +12908,7 @@
       </c>
       <c r="F731" s="35"/>
     </row>
-    <row r="732" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A732" s="1" t="s">
         <v>1</v>
       </c>
@@ -12922,7 +12926,7 @@
       </c>
       <c r="F732" s="35"/>
     </row>
-    <row r="733" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A733" s="1" t="s">
         <v>2</v>
       </c>
@@ -12940,7 +12944,7 @@
       </c>
       <c r="F733" s="35"/>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="6"/>
@@ -12948,7 +12952,7 @@
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A736" s="58" t="s">
         <v>176</v>
       </c>
@@ -12958,7 +12962,7 @@
       <c r="E736" s="58"/>
       <c r="F736" s="58"/>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A737" s="1"/>
       <c r="B737" s="2" t="s">
         <v>14</v>
@@ -12976,7 +12980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A738" s="1" t="s">
         <v>1</v>
       </c>
@@ -12996,7 +13000,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A739" s="1" t="s">
         <v>2</v>
       </c>
@@ -13016,7 +13020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A740" s="58" t="s">
         <v>177</v>
       </c>
@@ -13026,7 +13030,7 @@
       <c r="E740" s="58"/>
       <c r="F740" s="34"/>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A741" s="1"/>
       <c r="B741" s="2" t="s">
         <v>16</v>
@@ -13042,7 +13046,7 @@
       </c>
       <c r="F741" s="35"/>
     </row>
-    <row r="742" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A742" s="1" t="s">
         <v>1</v>
       </c>
@@ -13060,7 +13064,7 @@
       </c>
       <c r="F742" s="35"/>
     </row>
-    <row r="743" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A743" s="1" t="s">
         <v>2</v>
       </c>
@@ -13078,7 +13082,7 @@
       </c>
       <c r="F743" s="35"/>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="6"/>
@@ -13086,7 +13090,7 @@
       <c r="E747" s="6"/>
       <c r="F747" s="6"/>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A748" s="58" t="s">
         <v>178</v>
       </c>
@@ -13096,7 +13100,7 @@
       <c r="E748" s="58"/>
       <c r="F748" s="58"/>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A749" s="1"/>
       <c r="B749" s="2" t="s">
         <v>14</v>
@@ -13114,7 +13118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A750" s="1" t="s">
         <v>1</v>
       </c>
@@ -13134,7 +13138,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A751" s="1" t="s">
         <v>2</v>
       </c>
@@ -13154,7 +13158,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A752" s="58" t="s">
         <v>179</v>
       </c>
@@ -13164,7 +13168,7 @@
       <c r="E752" s="58"/>
       <c r="F752" s="34"/>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753" s="1"/>
       <c r="B753" s="2" t="s">
         <v>16</v>
@@ -13180,7 +13184,7 @@
       </c>
       <c r="F753" s="35"/>
     </row>
-    <row r="754" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A754" s="1" t="s">
         <v>1</v>
       </c>
@@ -13198,7 +13202,7 @@
       </c>
       <c r="F754" s="35"/>
     </row>
-    <row r="755" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A755" s="1" t="s">
         <v>2</v>
       </c>
@@ -13216,7 +13220,7 @@
       </c>
       <c r="F755" s="35"/>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="6"/>
@@ -13224,7 +13228,7 @@
       <c r="E758" s="6"/>
       <c r="F758" s="6"/>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759" s="58" t="s">
         <v>180</v>
       </c>
@@ -13234,7 +13238,7 @@
       <c r="E759" s="58"/>
       <c r="F759" s="58"/>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A760" s="1"/>
       <c r="B760" s="2" t="s">
         <v>14</v>
@@ -13252,7 +13256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A761" s="1" t="s">
         <v>1</v>
       </c>
@@ -13272,7 +13276,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A762" s="1" t="s">
         <v>2</v>
       </c>
@@ -13292,7 +13296,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763" s="58" t="s">
         <v>181</v>
       </c>
@@ -13302,7 +13306,7 @@
       <c r="E763" s="58"/>
       <c r="F763" s="34"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764" s="1"/>
       <c r="B764" s="2" t="s">
         <v>16</v>
@@ -13318,7 +13322,7 @@
       </c>
       <c r="F764" s="35"/>
     </row>
-    <row r="765" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A765" s="1" t="s">
         <v>1</v>
       </c>
@@ -13336,7 +13340,7 @@
       </c>
       <c r="F765" s="35"/>
     </row>
-    <row r="766" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A766" s="1" t="s">
         <v>2</v>
       </c>
@@ -13354,7 +13358,7 @@
       </c>
       <c r="F766" s="35"/>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="6"/>
@@ -13362,7 +13366,7 @@
       <c r="E769" s="6"/>
       <c r="F769" s="6"/>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" s="58" t="s">
         <v>182</v>
       </c>
@@ -13372,7 +13376,7 @@
       <c r="E770" s="58"/>
       <c r="F770" s="58"/>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771" s="1"/>
       <c r="B771" s="2" t="s">
         <v>14</v>
@@ -13390,7 +13394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A772" s="1" t="s">
         <v>1</v>
       </c>
@@ -13410,7 +13414,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A773" s="1" t="s">
         <v>2</v>
       </c>
@@ -13430,7 +13434,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774" s="58" t="s">
         <v>183</v>
       </c>
@@ -13440,7 +13444,7 @@
       <c r="E774" s="58"/>
       <c r="F774" s="34"/>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775" s="1"/>
       <c r="B775" s="2" t="s">
         <v>16</v>
@@ -13456,7 +13460,7 @@
       </c>
       <c r="F775" s="35"/>
     </row>
-    <row r="776" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A776" s="1" t="s">
         <v>1</v>
       </c>
@@ -13474,7 +13478,7 @@
       </c>
       <c r="F776" s="35"/>
     </row>
-    <row r="777" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A777" s="1" t="s">
         <v>2</v>
       </c>
@@ -13492,7 +13496,7 @@
       </c>
       <c r="F777" s="35"/>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="6"/>
@@ -13500,7 +13504,7 @@
       <c r="E780" s="6"/>
       <c r="F780" s="6"/>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781" s="58" t="s">
         <v>184</v>
       </c>
@@ -13510,7 +13514,7 @@
       <c r="E781" s="58"/>
       <c r="F781" s="58"/>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782" s="1"/>
       <c r="B782" s="2" t="s">
         <v>14</v>
@@ -13528,7 +13532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A783" s="1" t="s">
         <v>1</v>
       </c>
@@ -13548,7 +13552,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A784" s="1" t="s">
         <v>2</v>
       </c>
@@ -13568,7 +13572,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A785" s="58" t="s">
         <v>185</v>
       </c>
@@ -13578,7 +13582,7 @@
       <c r="E785" s="58"/>
       <c r="F785" s="34"/>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A786" s="1"/>
       <c r="B786" s="2" t="s">
         <v>16</v>
@@ -13594,7 +13598,7 @@
       </c>
       <c r="F786" s="35"/>
     </row>
-    <row r="787" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A787" s="1" t="s">
         <v>1</v>
       </c>
@@ -13612,7 +13616,7 @@
       </c>
       <c r="F787" s="35"/>
     </row>
-    <row r="788" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A788" s="1" t="s">
         <v>2</v>
       </c>
@@ -13630,7 +13634,7 @@
       </c>
       <c r="F788" s="35"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="6"/>
@@ -13638,7 +13642,7 @@
       <c r="E791" s="6"/>
       <c r="F791" s="6"/>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A792" s="58" t="s">
         <v>186</v>
       </c>
@@ -13648,7 +13652,7 @@
       <c r="E792" s="58"/>
       <c r="F792" s="58"/>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A793" s="1"/>
       <c r="B793" s="2" t="s">
         <v>14</v>
@@ -13666,7 +13670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A794" s="1" t="s">
         <v>1</v>
       </c>
@@ -13686,7 +13690,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A795" s="1" t="s">
         <v>2</v>
       </c>
@@ -13706,7 +13710,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A796" s="58" t="s">
         <v>187</v>
       </c>
@@ -13716,7 +13720,7 @@
       <c r="E796" s="58"/>
       <c r="F796" s="34"/>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A797" s="1"/>
       <c r="B797" s="2" t="s">
         <v>16</v>
@@ -13732,7 +13736,7 @@
       </c>
       <c r="F797" s="35"/>
     </row>
-    <row r="798" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A798" s="1" t="s">
         <v>1</v>
       </c>
@@ -13750,7 +13754,7 @@
       </c>
       <c r="F798" s="35"/>
     </row>
-    <row r="799" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A799" s="1" t="s">
         <v>2</v>
       </c>
@@ -13768,13 +13772,13 @@
       </c>
       <c r="F799" s="35"/>
     </row>
-    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G801">
         <f>E795-E784</f>
         <v>95</v>
       </c>
     </row>
-    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="6"/>
@@ -13782,7 +13786,7 @@
       <c r="E802" s="6"/>
       <c r="F802" s="6"/>
     </row>
-    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" s="58" t="s">
         <v>188</v>
       </c>
@@ -13792,7 +13796,7 @@
       <c r="E803" s="58"/>
       <c r="F803" s="58"/>
     </row>
-    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" s="1"/>
       <c r="B804" s="2" t="s">
         <v>14</v>
@@ -13810,7 +13814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="805" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A805" s="1" t="s">
         <v>1</v>
       </c>
@@ -13830,7 +13834,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="806" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A806" s="1" t="s">
         <v>2</v>
       </c>
@@ -13850,7 +13854,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" s="58" t="s">
         <v>187</v>
       </c>
@@ -13860,7 +13864,7 @@
       <c r="E807" s="58"/>
       <c r="F807" s="34"/>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" s="1"/>
       <c r="B808" s="2" t="s">
         <v>16</v>
@@ -13876,7 +13880,7 @@
       </c>
       <c r="F808" s="35"/>
     </row>
-    <row r="809" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A809" s="1" t="s">
         <v>1</v>
       </c>
@@ -13898,7 +13902,7 @@
         <v>-269</v>
       </c>
     </row>
-    <row r="810" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A810" s="1" t="s">
         <v>2</v>
       </c>
@@ -13916,7 +13920,7 @@
       </c>
       <c r="F810" s="35"/>
     </row>
-    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="6"/>
@@ -13924,7 +13928,7 @@
       <c r="E813" s="6"/>
       <c r="F813" s="6"/>
     </row>
-    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" s="58" t="s">
         <v>189</v>
       </c>
@@ -13934,7 +13938,7 @@
       <c r="E814" s="58"/>
       <c r="F814" s="58"/>
     </row>
-    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" s="1"/>
       <c r="B815" s="2" t="s">
         <v>14</v>
@@ -13952,7 +13956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="816" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A816" s="1" t="s">
         <v>1</v>
       </c>
@@ -13972,7 +13976,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A817" s="1" t="s">
         <v>2</v>
       </c>
@@ -13992,7 +13996,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A818" s="58" t="s">
         <v>190</v>
       </c>
@@ -14002,7 +14006,7 @@
       <c r="E818" s="58"/>
       <c r="F818" s="34"/>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A819" s="1"/>
       <c r="B819" s="2" t="s">
         <v>16</v>
@@ -14018,7 +14022,7 @@
       </c>
       <c r="F819" s="35"/>
     </row>
-    <row r="820" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A820" s="1" t="s">
         <v>1</v>
       </c>
@@ -14036,7 +14040,7 @@
       </c>
       <c r="F820" s="35"/>
     </row>
-    <row r="821" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A821" s="1" t="s">
         <v>2</v>
       </c>
@@ -14054,7 +14058,7 @@
       </c>
       <c r="F821" s="35"/>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824" s="6"/>
       <c r="B824" s="6"/>
       <c r="C824" s="6"/>
@@ -14062,7 +14066,7 @@
       <c r="E824" s="6"/>
       <c r="F824" s="6"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825" s="58" t="s">
         <v>191</v>
       </c>
@@ -14072,7 +14076,7 @@
       <c r="E825" s="58"/>
       <c r="F825" s="58"/>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A826" s="1"/>
       <c r="B826" s="2" t="s">
         <v>14</v>
@@ -14090,7 +14094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A827" s="1" t="s">
         <v>1</v>
       </c>
@@ -14110,7 +14114,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A828" s="1" t="s">
         <v>2</v>
       </c>
@@ -14130,7 +14134,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829" s="58" t="s">
         <v>192</v>
       </c>
@@ -14140,7 +14144,7 @@
       <c r="E829" s="58"/>
       <c r="F829" s="34"/>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830" s="1"/>
       <c r="B830" s="2" t="s">
         <v>16</v>
@@ -14156,7 +14160,7 @@
       </c>
       <c r="F830" s="35"/>
     </row>
-    <row r="831" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A831" s="1" t="s">
         <v>1</v>
       </c>
@@ -14174,7 +14178,7 @@
       </c>
       <c r="F831" s="35"/>
     </row>
-    <row r="832" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A832" s="1" t="s">
         <v>2</v>
       </c>
@@ -14192,7 +14196,7 @@
       </c>
       <c r="F832" s="35"/>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835" s="6"/>
       <c r="B835" s="6"/>
       <c r="C835" s="6"/>
@@ -14200,7 +14204,7 @@
       <c r="E835" s="6"/>
       <c r="F835" s="6"/>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836" s="58" t="s">
         <v>193</v>
       </c>
@@ -14210,7 +14214,7 @@
       <c r="E836" s="58"/>
       <c r="F836" s="58"/>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837" s="1"/>
       <c r="B837" s="2" t="s">
         <v>14</v>
@@ -14228,7 +14232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A838" s="1" t="s">
         <v>1</v>
       </c>
@@ -14248,7 +14252,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A839" s="1" t="s">
         <v>2</v>
       </c>
@@ -14268,7 +14272,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840" s="58" t="s">
         <v>194</v>
       </c>
@@ -14278,7 +14282,7 @@
       <c r="E840" s="58"/>
       <c r="F840" s="34"/>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841" s="1"/>
       <c r="B841" s="2" t="s">
         <v>16</v>
@@ -14294,7 +14298,7 @@
       </c>
       <c r="F841" s="35"/>
     </row>
-    <row r="842" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A842" s="1" t="s">
         <v>1</v>
       </c>
@@ -14312,7 +14316,7 @@
       </c>
       <c r="F842" s="35"/>
     </row>
-    <row r="843" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A843" s="1" t="s">
         <v>2</v>
       </c>
@@ -14330,7 +14334,7 @@
       </c>
       <c r="F843" s="35"/>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846" s="6"/>
       <c r="B846" s="6"/>
       <c r="C846" s="6"/>
@@ -14338,7 +14342,7 @@
       <c r="E846" s="6"/>
       <c r="F846" s="6"/>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847" s="58" t="s">
         <v>195</v>
       </c>
@@ -14348,7 +14352,7 @@
       <c r="E847" s="58"/>
       <c r="F847" s="58"/>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848" s="1"/>
       <c r="B848" s="2" t="s">
         <v>14</v>
@@ -14366,7 +14370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A849" s="1" t="s">
         <v>1</v>
       </c>
@@ -14386,7 +14390,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A850" s="1" t="s">
         <v>2</v>
       </c>
@@ -14406,7 +14410,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851" s="58" t="s">
         <v>194</v>
       </c>
@@ -14416,7 +14420,7 @@
       <c r="E851" s="58"/>
       <c r="F851" s="34"/>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852" s="1"/>
       <c r="B852" s="2" t="s">
         <v>16</v>
@@ -14432,7 +14436,7 @@
       </c>
       <c r="F852" s="35"/>
     </row>
-    <row r="853" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A853" s="1" t="s">
         <v>1</v>
       </c>
@@ -14450,7 +14454,7 @@
       </c>
       <c r="F853" s="35"/>
     </row>
-    <row r="854" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A854" s="1" t="s">
         <v>2</v>
       </c>
@@ -14468,7 +14472,7 @@
       </c>
       <c r="F854" s="35"/>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A857" s="6"/>
       <c r="B857" s="6"/>
       <c r="C857" s="6"/>
@@ -14476,7 +14480,7 @@
       <c r="E857" s="6"/>
       <c r="F857" s="6"/>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A858" s="58" t="s">
         <v>196</v>
       </c>
@@ -14486,7 +14490,7 @@
       <c r="E858" s="58"/>
       <c r="F858" s="58"/>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A859" s="1"/>
       <c r="B859" s="2" t="s">
         <v>14</v>
@@ -14504,7 +14508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A860" s="1" t="s">
         <v>1</v>
       </c>
@@ -14524,7 +14528,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A861" s="1" t="s">
         <v>2</v>
       </c>
@@ -14544,7 +14548,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A862" s="58" t="s">
         <v>197</v>
       </c>
@@ -14554,7 +14558,7 @@
       <c r="E862" s="58"/>
       <c r="F862" s="34"/>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863" s="1"/>
       <c r="B863" s="2" t="s">
         <v>16</v>
@@ -14570,7 +14574,7 @@
       </c>
       <c r="F863" s="35"/>
     </row>
-    <row r="864" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A864" s="1" t="s">
         <v>1</v>
       </c>
@@ -14588,7 +14592,7 @@
       </c>
       <c r="F864" s="35"/>
     </row>
-    <row r="865" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A865" s="1" t="s">
         <v>2</v>
       </c>
@@ -14606,7 +14610,7 @@
       </c>
       <c r="F865" s="35"/>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A868" s="6"/>
       <c r="B868" s="6"/>
       <c r="C868" s="6"/>
@@ -14614,7 +14618,7 @@
       <c r="E868" s="6"/>
       <c r="F868" s="6"/>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A869" s="58" t="s">
         <v>199</v>
       </c>
@@ -14624,7 +14628,7 @@
       <c r="E869" s="58"/>
       <c r="F869" s="58"/>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A870" s="1"/>
       <c r="B870" s="2" t="s">
         <v>14</v>
@@ -14642,7 +14646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A871" s="1" t="s">
         <v>1</v>
       </c>
@@ -14662,7 +14666,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A872" s="1" t="s">
         <v>2</v>
       </c>
@@ -14682,7 +14686,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A873" s="58" t="s">
         <v>198</v>
       </c>
@@ -14692,7 +14696,7 @@
       <c r="E873" s="58"/>
       <c r="F873" s="50"/>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A874" s="1"/>
       <c r="B874" s="2" t="s">
         <v>16</v>
@@ -14707,7 +14711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="875" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A875" s="1" t="s">
         <v>1</v>
       </c>
@@ -14724,7 +14728,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A876" s="1" t="s">
         <v>2</v>
       </c>
@@ -14741,7 +14745,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A879" s="6"/>
       <c r="B879" s="6"/>
       <c r="C879" s="6"/>
@@ -14749,7 +14753,7 @@
       <c r="E879" s="6"/>
       <c r="F879" s="6"/>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A880" s="58" t="s">
         <v>200</v>
       </c>
@@ -14759,7 +14763,7 @@
       <c r="E880" s="58"/>
       <c r="F880" s="58"/>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A881" s="1"/>
       <c r="B881" s="2" t="s">
         <v>14</v>
@@ -14777,7 +14781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A882" s="1" t="s">
         <v>1</v>
       </c>
@@ -14797,7 +14801,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A883" s="1" t="s">
         <v>2</v>
       </c>
@@ -14817,7 +14821,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A884" s="58" t="s">
         <v>201</v>
       </c>
@@ -14827,7 +14831,7 @@
       <c r="E884" s="58"/>
       <c r="F884" s="50"/>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A885" s="1"/>
       <c r="B885" s="2" t="s">
         <v>16</v>
@@ -14842,7 +14846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A886" s="1" t="s">
         <v>1</v>
       </c>
@@ -14859,7 +14863,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A887" s="1" t="s">
         <v>2</v>
       </c>
@@ -14876,7 +14880,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A890" s="6"/>
       <c r="B890" s="6"/>
       <c r="C890" s="6"/>
@@ -14884,7 +14888,7 @@
       <c r="E890" s="6"/>
       <c r="F890" s="6"/>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A891" s="58" t="s">
         <v>202</v>
       </c>
@@ -14894,7 +14898,7 @@
       <c r="E891" s="58"/>
       <c r="F891" s="58"/>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A892" s="1"/>
       <c r="B892" s="2" t="s">
         <v>14</v>
@@ -14912,7 +14916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A893" s="1" t="s">
         <v>1</v>
       </c>
@@ -14932,7 +14936,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="894" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A894" s="1" t="s">
         <v>2</v>
       </c>
@@ -14952,7 +14956,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895" s="58" t="s">
         <v>203</v>
       </c>
@@ -14962,7 +14966,7 @@
       <c r="E895" s="58"/>
       <c r="F895" s="50"/>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896" s="1"/>
       <c r="B896" s="2" t="s">
         <v>16</v>
@@ -14977,7 +14981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A897" s="1" t="s">
         <v>1</v>
       </c>
@@ -14994,7 +14998,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A898" s="1" t="s">
         <v>2</v>
       </c>
@@ -15011,7 +15015,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A901" s="6"/>
       <c r="B901" s="6"/>
       <c r="C901" s="6"/>
@@ -15019,7 +15023,7 @@
       <c r="E901" s="6"/>
       <c r="F901" s="6"/>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A902" s="58" t="s">
         <v>204</v>
       </c>
@@ -15029,7 +15033,7 @@
       <c r="E902" s="58"/>
       <c r="F902" s="58"/>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A903" s="1"/>
       <c r="B903" s="2" t="s">
         <v>14</v>
@@ -15047,7 +15051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A904" s="1" t="s">
         <v>1</v>
       </c>
@@ -15067,7 +15071,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A905" s="1" t="s">
         <v>2</v>
       </c>
@@ -15087,7 +15091,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A906" s="58" t="s">
         <v>205</v>
       </c>
@@ -15097,7 +15101,7 @@
       <c r="E906" s="58"/>
       <c r="F906" s="50"/>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A907" s="1"/>
       <c r="B907" s="2" t="s">
         <v>16</v>
@@ -15112,7 +15116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A908" s="1" t="s">
         <v>1</v>
       </c>
@@ -15129,7 +15133,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A909" s="1" t="s">
         <v>2</v>
       </c>
@@ -15146,7 +15150,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A912" s="6"/>
       <c r="B912" s="6"/>
       <c r="C912" s="6"/>
@@ -15154,7 +15158,7 @@
       <c r="E912" s="6"/>
       <c r="F912" s="6"/>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913" s="58" t="s">
         <v>206</v>
       </c>
@@ -15164,7 +15168,7 @@
       <c r="E913" s="58"/>
       <c r="F913" s="58"/>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A914" s="1"/>
       <c r="B914" s="2" t="s">
         <v>14</v>
@@ -15182,7 +15186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A915" s="1" t="s">
         <v>1</v>
       </c>
@@ -15202,7 +15206,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A916" s="1" t="s">
         <v>2</v>
       </c>
@@ -15222,7 +15226,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A917" s="58" t="s">
         <v>207</v>
       </c>
@@ -15232,7 +15236,7 @@
       <c r="E917" s="58"/>
       <c r="F917" s="50"/>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A918" s="1"/>
       <c r="B918" s="2" t="s">
         <v>16</v>
@@ -15247,7 +15251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A919" s="1" t="s">
         <v>1</v>
       </c>
@@ -15264,7 +15268,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A920" s="1" t="s">
         <v>2</v>
       </c>
@@ -15281,7 +15285,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924" s="6"/>
       <c r="B924" s="6"/>
       <c r="C924" s="6"/>
@@ -15289,7 +15293,7 @@
       <c r="E924" s="6"/>
       <c r="F924" s="6"/>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A925" s="58" t="s">
         <v>208</v>
       </c>
@@ -15299,7 +15303,7 @@
       <c r="E925" s="58"/>
       <c r="F925" s="58"/>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A926" s="1"/>
       <c r="B926" s="2" t="s">
         <v>14</v>
@@ -15317,7 +15321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A927" s="1" t="s">
         <v>1</v>
       </c>
@@ -15337,7 +15341,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A928" s="1" t="s">
         <v>2</v>
       </c>
@@ -15357,7 +15361,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A929" s="58" t="s">
         <v>209</v>
       </c>
@@ -15367,7 +15371,7 @@
       <c r="E929" s="58"/>
       <c r="F929" s="50"/>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A930" s="1"/>
       <c r="B930" s="2" t="s">
         <v>16</v>
@@ -15382,7 +15386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="931" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A931" s="1" t="s">
         <v>1</v>
       </c>
@@ -15399,7 +15403,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="932" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A932" s="1" t="s">
         <v>2</v>
       </c>
@@ -15416,7 +15420,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="935" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A935" s="6"/>
       <c r="B935" s="6"/>
       <c r="C935" s="6"/>
@@ -15424,7 +15428,7 @@
       <c r="E935" s="6"/>
       <c r="F935" s="6"/>
     </row>
-    <row r="936" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A936" s="58" t="s">
         <v>210</v>
       </c>
@@ -15434,7 +15438,7 @@
       <c r="E936" s="58"/>
       <c r="F936" s="58"/>
     </row>
-    <row r="937" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A937" s="1"/>
       <c r="B937" s="2" t="s">
         <v>14</v>
@@ -15452,7 +15456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="938" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A938" s="1" t="s">
         <v>1</v>
       </c>
@@ -15472,7 +15476,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="939" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A939" s="1" t="s">
         <v>2</v>
       </c>
@@ -15492,7 +15496,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="940" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A940" s="58" t="s">
         <v>211</v>
       </c>
@@ -15502,7 +15506,7 @@
       <c r="E940" s="58"/>
       <c r="F940" s="50"/>
     </row>
-    <row r="941" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A941" s="1"/>
       <c r="B941" s="2" t="s">
         <v>16</v>
@@ -15517,7 +15521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="942" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A942" s="1" t="s">
         <v>1</v>
       </c>
@@ -15534,7 +15538,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="943" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:8" ht="18" x14ac:dyDescent="0.5">
       <c r="A943" s="1" t="s">
         <v>2</v>
       </c>
@@ -15555,7 +15559,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A946" s="6"/>
       <c r="B946" s="6"/>
       <c r="C946" s="6"/>
@@ -15563,7 +15567,7 @@
       <c r="E946" s="6"/>
       <c r="F946" s="6"/>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A947" s="58" t="s">
         <v>212</v>
       </c>
@@ -15573,7 +15577,7 @@
       <c r="E947" s="58"/>
       <c r="F947" s="58"/>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A948" s="1"/>
       <c r="B948" s="2" t="s">
         <v>14</v>
@@ -15591,7 +15595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="949" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A949" s="1" t="s">
         <v>1</v>
       </c>
@@ -15611,7 +15615,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="950" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A950" s="1" t="s">
         <v>2</v>
       </c>
@@ -15631,7 +15635,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A951" s="58" t="s">
         <v>213</v>
       </c>
@@ -15641,7 +15645,7 @@
       <c r="E951" s="58"/>
       <c r="F951" s="50"/>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A952" s="1"/>
       <c r="B952" s="2" t="s">
         <v>16</v>
@@ -15656,7 +15660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="953" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A953" s="1" t="s">
         <v>1</v>
       </c>
@@ -15673,7 +15677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A954" s="1" t="s">
         <v>2</v>
       </c>
@@ -15690,7 +15694,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A958" s="6"/>
       <c r="B958" s="6"/>
       <c r="C958" s="6"/>
@@ -15698,7 +15702,7 @@
       <c r="E958" s="6"/>
       <c r="F958" s="6"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A959" s="58" t="s">
         <v>214</v>
       </c>
@@ -15708,7 +15712,7 @@
       <c r="E959" s="58"/>
       <c r="F959" s="58"/>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A960" s="1"/>
       <c r="B960" s="2" t="s">
         <v>14</v>
@@ -15726,7 +15730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="961" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A961" s="1" t="s">
         <v>1</v>
       </c>
@@ -15746,7 +15750,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="962" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A962" s="1" t="s">
         <v>2</v>
       </c>
@@ -15766,7 +15770,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A963" s="58" t="s">
         <v>215</v>
       </c>
@@ -15776,7 +15780,7 @@
       <c r="E963" s="58"/>
       <c r="F963" s="50"/>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A964" s="1"/>
       <c r="B964" s="2" t="s">
         <v>16</v>
@@ -15791,7 +15795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A965" s="1" t="s">
         <v>1</v>
       </c>
@@ -15808,7 +15812,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A966" s="1" t="s">
         <v>2</v>
       </c>
@@ -15825,7 +15829,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A969" s="6"/>
       <c r="B969" s="6"/>
       <c r="C969" s="6"/>
@@ -15833,7 +15837,7 @@
       <c r="E969" s="6"/>
       <c r="F969" s="6"/>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A970" s="58" t="s">
         <v>216</v>
       </c>
@@ -15843,7 +15847,7 @@
       <c r="E970" s="58"/>
       <c r="F970" s="58"/>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A971" s="1"/>
       <c r="B971" s="2" t="s">
         <v>14</v>
@@ -15861,7 +15865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="972" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A972" s="1" t="s">
         <v>1</v>
       </c>
@@ -15881,7 +15885,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="973" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A973" s="1" t="s">
         <v>2</v>
       </c>
@@ -15901,7 +15905,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A974" s="58" t="s">
         <v>217</v>
       </c>
@@ -15911,7 +15915,7 @@
       <c r="E974" s="58"/>
       <c r="F974" s="50"/>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A975" s="1"/>
       <c r="B975" s="2" t="s">
         <v>16</v>
@@ -15926,7 +15930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A976" s="1" t="s">
         <v>1</v>
       </c>
@@ -15943,7 +15947,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="977" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A977" s="1" t="s">
         <v>2</v>
       </c>
@@ -15960,7 +15964,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A981" s="6"/>
       <c r="B981" s="6"/>
       <c r="C981" s="6"/>
@@ -15968,7 +15972,7 @@
       <c r="E981" s="6"/>
       <c r="F981" s="6"/>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A982" s="58" t="s">
         <v>218</v>
       </c>
@@ -15978,7 +15982,7 @@
       <c r="E982" s="58"/>
       <c r="F982" s="58"/>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A983" s="1"/>
       <c r="B983" s="2" t="s">
         <v>14</v>
@@ -15996,7 +16000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="984" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A984" s="1" t="s">
         <v>1</v>
       </c>
@@ -16016,7 +16020,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="985" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A985" s="1" t="s">
         <v>2</v>
       </c>
@@ -16036,7 +16040,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A986" s="58" t="s">
         <v>219</v>
       </c>
@@ -16046,7 +16050,7 @@
       <c r="E986" s="58"/>
       <c r="F986" s="50"/>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A987" s="1"/>
       <c r="B987" s="2" t="s">
         <v>16</v>
@@ -16061,7 +16065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="988" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A988" s="1" t="s">
         <v>1</v>
       </c>
@@ -16078,7 +16082,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="989" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A989" s="1" t="s">
         <v>2</v>
       </c>
@@ -16095,7 +16099,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A993" s="6"/>
       <c r="B993" s="6"/>
       <c r="C993" s="6"/>
@@ -16103,7 +16107,7 @@
       <c r="E993" s="6"/>
       <c r="F993" s="6"/>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A994" s="58" t="s">
         <v>220</v>
       </c>
@@ -16113,7 +16117,7 @@
       <c r="E994" s="58"/>
       <c r="F994" s="58"/>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A995" s="1"/>
       <c r="B995" s="2" t="s">
         <v>14</v>
@@ -16131,7 +16135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="996" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A996" s="1" t="s">
         <v>1</v>
       </c>
@@ -16151,7 +16155,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="997" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A997" s="1" t="s">
         <v>2</v>
       </c>
@@ -16171,7 +16175,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A998" s="58" t="s">
         <v>221</v>
       </c>
@@ -16181,7 +16185,7 @@
       <c r="E998" s="58"/>
       <c r="F998" s="50"/>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A999" s="1"/>
       <c r="B999" s="2" t="s">
         <v>16</v>
@@ -16196,7 +16200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1000" s="1" t="s">
         <v>1</v>
       </c>
@@ -16213,7 +16217,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1001" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1001" s="1" t="s">
         <v>2</v>
       </c>
@@ -16230,7 +16234,7 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1005" s="6"/>
       <c r="B1005" s="6"/>
       <c r="C1005" s="6"/>
@@ -16238,7 +16242,7 @@
       <c r="E1005" s="6"/>
       <c r="F1005" s="6"/>
     </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1006" s="58" t="s">
         <v>222</v>
       </c>
@@ -16248,7 +16252,7 @@
       <c r="E1006" s="58"/>
       <c r="F1006" s="58"/>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1007" s="1"/>
       <c r="B1007" s="2" t="s">
         <v>14</v>
@@ -16266,7 +16270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1008" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1008" s="1" t="s">
         <v>1</v>
       </c>
@@ -16286,7 +16290,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1009" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1009" s="1" t="s">
         <v>2</v>
       </c>
@@ -16306,7 +16310,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1010" s="58" t="s">
         <v>223</v>
       </c>
@@ -16316,7 +16320,7 @@
       <c r="E1010" s="58"/>
       <c r="F1010" s="50"/>
     </row>
-    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1011" s="1"/>
       <c r="B1011" s="2" t="s">
         <v>16</v>
@@ -16331,7 +16335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1012" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1012" s="1" t="s">
         <v>1</v>
       </c>
@@ -16348,7 +16352,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1013" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1013" s="1" t="s">
         <v>2</v>
       </c>
@@ -16365,7 +16369,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1016" s="6"/>
       <c r="B1016" s="6"/>
       <c r="C1016" s="6"/>
@@ -16373,7 +16377,7 @@
       <c r="E1016" s="6"/>
       <c r="F1016" s="6"/>
     </row>
-    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1017" s="58" t="s">
         <v>224</v>
       </c>
@@ -16383,7 +16387,7 @@
       <c r="E1017" s="58"/>
       <c r="F1017" s="58"/>
     </row>
-    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1018" s="1"/>
       <c r="B1018" s="2" t="s">
         <v>14</v>
@@ -16401,7 +16405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1019" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1019" s="1" t="s">
         <v>1</v>
       </c>
@@ -16421,7 +16425,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1020" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1020" s="1" t="s">
         <v>2</v>
       </c>
@@ -16441,7 +16445,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1021" s="58" t="s">
         <v>225</v>
       </c>
@@ -16451,7 +16455,7 @@
       <c r="E1021" s="58"/>
       <c r="F1021" s="50"/>
     </row>
-    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1022" s="1"/>
       <c r="B1022" s="2" t="s">
         <v>16</v>
@@ -16466,7 +16470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1023" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1023" s="1" t="s">
         <v>1</v>
       </c>
@@ -16483,7 +16487,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1024" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1024" s="1" t="s">
         <v>2</v>
       </c>
@@ -16500,7 +16504,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1027" s="6"/>
       <c r="B1027" s="6"/>
       <c r="C1027" s="6"/>
@@ -16508,7 +16512,7 @@
       <c r="E1027" s="6"/>
       <c r="F1027" s="6"/>
     </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1028" s="58" t="s">
         <v>226</v>
       </c>
@@ -16518,7 +16522,7 @@
       <c r="E1028" s="58"/>
       <c r="F1028" s="58"/>
     </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1029" s="1"/>
       <c r="B1029" s="2" t="s">
         <v>14</v>
@@ -16536,7 +16540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1030" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1030" s="1" t="s">
         <v>1</v>
       </c>
@@ -16556,7 +16560,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="1031" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1031" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1031" s="1" t="s">
         <v>2</v>
       </c>
@@ -16580,7 +16584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1032" s="58" t="s">
         <v>227</v>
       </c>
@@ -16590,7 +16594,7 @@
       <c r="E1032" s="58"/>
       <c r="F1032" s="50"/>
     </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1033" s="1"/>
       <c r="B1033" s="2" t="s">
         <v>16</v>
@@ -16605,7 +16609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1034" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1034" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1034" s="1" t="s">
         <v>1</v>
       </c>
@@ -16622,7 +16626,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="1035" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1035" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1035" s="1" t="s">
         <v>2</v>
       </c>
@@ -16639,7 +16643,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1039" s="6"/>
       <c r="B1039" s="6"/>
       <c r="C1039" s="6"/>
@@ -16647,7 +16651,7 @@
       <c r="E1039" s="6"/>
       <c r="F1039" s="6"/>
     </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1040" s="58" t="s">
         <v>228</v>
       </c>
@@ -16657,7 +16661,7 @@
       <c r="E1040" s="58"/>
       <c r="F1040" s="58"/>
     </row>
-    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1041" s="1"/>
       <c r="B1041" s="2" t="s">
         <v>14</v>
@@ -16675,7 +16679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1042" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1042" s="1" t="s">
         <v>1</v>
       </c>
@@ -16695,7 +16699,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1043" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1043" s="1" t="s">
         <v>2</v>
       </c>
@@ -16715,7 +16719,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1044" s="58" t="s">
         <v>229</v>
       </c>
@@ -16725,7 +16729,7 @@
       <c r="E1044" s="58"/>
       <c r="F1044" s="50"/>
     </row>
-    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1045" s="1"/>
       <c r="B1045" s="2" t="s">
         <v>16</v>
@@ -16740,7 +16744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1046" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1046" s="1" t="s">
         <v>1</v>
       </c>
@@ -16757,7 +16761,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1047" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1047" s="1" t="s">
         <v>2</v>
       </c>
@@ -16774,7 +16778,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1051" s="6"/>
       <c r="B1051" s="6"/>
       <c r="C1051" s="6"/>
@@ -16782,7 +16786,7 @@
       <c r="E1051" s="6"/>
       <c r="F1051" s="6"/>
     </row>
-    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1052" s="58" t="s">
         <v>230</v>
       </c>
@@ -16792,7 +16796,7 @@
       <c r="E1052" s="58"/>
       <c r="F1052" s="58"/>
     </row>
-    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1053" s="1"/>
       <c r="B1053" s="2" t="s">
         <v>14</v>
@@ -16810,7 +16814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1054" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1054" s="1" t="s">
         <v>1</v>
       </c>
@@ -16830,7 +16834,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1055" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1055" s="1" t="s">
         <v>2</v>
       </c>
@@ -16850,7 +16854,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1056" s="58" t="s">
         <v>231</v>
       </c>
@@ -16860,7 +16864,7 @@
       <c r="E1056" s="58"/>
       <c r="F1056" s="50"/>
     </row>
-    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1057" s="1"/>
       <c r="B1057" s="2" t="s">
         <v>16</v>
@@ -16875,7 +16879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1058" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1058" s="1" t="s">
         <v>1</v>
       </c>
@@ -16892,7 +16896,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1059" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1059" s="1" t="s">
         <v>2</v>
       </c>
@@ -16909,7 +16913,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1062" s="6"/>
       <c r="B1062" s="6"/>
       <c r="C1062" s="6"/>
@@ -16917,7 +16921,7 @@
       <c r="E1062" s="6"/>
       <c r="F1062" s="6"/>
     </row>
-    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1063" s="58" t="s">
         <v>232</v>
       </c>
@@ -16927,7 +16931,7 @@
       <c r="E1063" s="58"/>
       <c r="F1063" s="58"/>
     </row>
-    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1064" s="1"/>
       <c r="B1064" s="2" t="s">
         <v>14</v>
@@ -16945,7 +16949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1065" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1065" s="1" t="s">
         <v>1</v>
       </c>
@@ -16965,7 +16969,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1066" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1066" s="1" t="s">
         <v>2</v>
       </c>
@@ -16985,7 +16989,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1067" s="58" t="s">
         <v>233</v>
       </c>
@@ -16995,7 +16999,7 @@
       <c r="E1067" s="58"/>
       <c r="F1067" s="50"/>
     </row>
-    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1068" s="1"/>
       <c r="B1068" s="2" t="s">
         <v>16</v>
@@ -17010,7 +17014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1069" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1069" s="1" t="s">
         <v>1</v>
       </c>
@@ -17027,7 +17031,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1070" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1070" s="1" t="s">
         <v>2</v>
       </c>
@@ -17044,7 +17048,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1074" s="6"/>
       <c r="B1074" s="6"/>
       <c r="C1074" s="6"/>
@@ -17052,7 +17056,7 @@
       <c r="E1074" s="6"/>
       <c r="F1074" s="6"/>
     </row>
-    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1075" s="58" t="s">
         <v>234</v>
       </c>
@@ -17062,7 +17066,7 @@
       <c r="E1075" s="58"/>
       <c r="F1075" s="58"/>
     </row>
-    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1076" s="1"/>
       <c r="B1076" s="2" t="s">
         <v>14</v>
@@ -17080,7 +17084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1077" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1077" s="1" t="s">
         <v>1</v>
       </c>
@@ -17100,7 +17104,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1078" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1078" s="1" t="s">
         <v>2</v>
       </c>
@@ -17120,7 +17124,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1079" s="58" t="s">
         <v>235</v>
       </c>
@@ -17130,7 +17134,7 @@
       <c r="E1079" s="58"/>
       <c r="F1079" s="50"/>
     </row>
-    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1080" s="1"/>
       <c r="B1080" s="2" t="s">
         <v>16</v>
@@ -17145,7 +17149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1081" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1081" s="1" t="s">
         <v>1</v>
       </c>
@@ -17162,7 +17166,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1082" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1082" s="1" t="s">
         <v>2</v>
       </c>
@@ -17179,7 +17183,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1086" s="6"/>
       <c r="B1086" s="6"/>
       <c r="C1086" s="6"/>
@@ -17187,7 +17191,7 @@
       <c r="E1086" s="6"/>
       <c r="F1086" s="6"/>
     </row>
-    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1087" s="58" t="s">
         <v>236</v>
       </c>
@@ -17197,7 +17201,7 @@
       <c r="E1087" s="58"/>
       <c r="F1087" s="58"/>
     </row>
-    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1088" s="1"/>
       <c r="B1088" s="2" t="s">
         <v>14</v>
@@ -17215,7 +17219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1089" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1089" s="1" t="s">
         <v>1</v>
       </c>
@@ -17235,7 +17239,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1090" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1090" s="1" t="s">
         <v>2</v>
       </c>
@@ -17255,7 +17259,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1091" s="58" t="s">
         <v>237</v>
       </c>
@@ -17265,7 +17269,7 @@
       <c r="E1091" s="58"/>
       <c r="F1091" s="50"/>
     </row>
-    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1092" s="1"/>
       <c r="B1092" s="2" t="s">
         <v>16</v>
@@ -17280,7 +17284,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1093" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1093" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1093" s="1" t="s">
         <v>1</v>
       </c>
@@ -17297,7 +17301,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="1094" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1094" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1094" s="1" t="s">
         <v>2</v>
       </c>
@@ -17314,7 +17318,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1098" s="6"/>
       <c r="B1098" s="6"/>
       <c r="C1098" s="6"/>
@@ -17322,7 +17326,7 @@
       <c r="E1098" s="6"/>
       <c r="F1098" s="6"/>
     </row>
-    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1099" s="58" t="s">
         <v>238</v>
       </c>
@@ -17332,7 +17336,7 @@
       <c r="E1099" s="58"/>
       <c r="F1099" s="58"/>
     </row>
-    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1100" s="1"/>
       <c r="B1100" s="2" t="s">
         <v>14</v>
@@ -17350,7 +17354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1101" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1101" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1101" s="1" t="s">
         <v>1</v>
       </c>
@@ -17370,7 +17374,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="1102" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1102" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1102" s="1" t="s">
         <v>2</v>
       </c>
@@ -17390,7 +17394,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1103" s="58" t="s">
         <v>239</v>
       </c>
@@ -17400,7 +17404,7 @@
       <c r="E1103" s="58"/>
       <c r="F1103" s="50"/>
     </row>
-    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1104" s="1"/>
       <c r="B1104" s="2" t="s">
         <v>16</v>
@@ -17415,7 +17419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1105" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1105" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1105" s="1" t="s">
         <v>1</v>
       </c>
@@ -17432,7 +17436,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="1106" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1106" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1106" s="1" t="s">
         <v>2</v>
       </c>
@@ -17449,7 +17453,7 @@
         <v>-0.21</v>
       </c>
     </row>
-    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1109" s="6"/>
       <c r="B1109" s="6"/>
       <c r="C1109" s="6"/>
@@ -17457,7 +17461,7 @@
       <c r="E1109" s="6"/>
       <c r="F1109" s="6"/>
     </row>
-    <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1110" s="58" t="s">
         <v>240</v>
       </c>
@@ -17467,7 +17471,7 @@
       <c r="E1110" s="58"/>
       <c r="F1110" s="58"/>
     </row>
-    <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1111" s="1"/>
       <c r="B1111" s="2" t="s">
         <v>14</v>
@@ -17485,7 +17489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1112" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1112" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1112" s="1" t="s">
         <v>1</v>
       </c>
@@ -17505,7 +17509,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="1113" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1113" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1113" s="1" t="s">
         <v>2</v>
       </c>
@@ -17525,7 +17529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1114" s="58" t="s">
         <v>241</v>
       </c>
@@ -17535,7 +17539,7 @@
       <c r="E1114" s="58"/>
       <c r="F1114" s="50"/>
     </row>
-    <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1115" s="1"/>
       <c r="B1115" s="2" t="s">
         <v>16</v>
@@ -17554,7 +17558,7 @@
         <v>-770</v>
       </c>
     </row>
-    <row r="1116" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1116" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1116" s="1" t="s">
         <v>1</v>
       </c>
@@ -17571,7 +17575,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="1117" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1117" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1117" s="1" t="s">
         <v>2</v>
       </c>
@@ -17588,7 +17592,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1120" s="6"/>
       <c r="B1120" s="6"/>
       <c r="C1120" s="6"/>
@@ -17596,7 +17600,7 @@
       <c r="E1120" s="6"/>
       <c r="F1120" s="6"/>
     </row>
-    <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1121" s="58" t="s">
         <v>242</v>
       </c>
@@ -17606,7 +17610,7 @@
       <c r="E1121" s="58"/>
       <c r="F1121" s="58"/>
     </row>
-    <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1122" s="1"/>
       <c r="B1122" s="2" t="s">
         <v>14</v>
@@ -17624,7 +17628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1123" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1123" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1123" s="1" t="s">
         <v>1</v>
       </c>
@@ -17644,7 +17648,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="1124" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1124" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1124" s="1" t="s">
         <v>2</v>
       </c>
@@ -17664,7 +17668,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1125" s="58" t="s">
         <v>243</v>
       </c>
@@ -17674,7 +17678,7 @@
       <c r="E1125" s="58"/>
       <c r="F1125" s="50"/>
     </row>
-    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1126" s="1"/>
       <c r="B1126" s="2" t="s">
         <v>16</v>
@@ -17689,7 +17693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1127" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1127" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1127" s="1" t="s">
         <v>1</v>
       </c>
@@ -17706,7 +17710,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="1128" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1128" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1128" s="1" t="s">
         <v>2</v>
       </c>
@@ -17723,7 +17727,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1132" s="6"/>
       <c r="B1132" s="6"/>
       <c r="C1132" s="6"/>
@@ -17731,7 +17735,7 @@
       <c r="E1132" s="6"/>
       <c r="F1132" s="6"/>
     </row>
-    <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1133" s="58" t="s">
         <v>244</v>
       </c>
@@ -17741,7 +17745,7 @@
       <c r="E1133" s="58"/>
       <c r="F1133" s="58"/>
     </row>
-    <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1134" s="1"/>
       <c r="B1134" s="2" t="s">
         <v>14</v>
@@ -17759,7 +17763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1135" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1135" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1135" s="1" t="s">
         <v>1</v>
       </c>
@@ -17779,7 +17783,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="1136" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1136" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1136" s="1" t="s">
         <v>2</v>
       </c>
@@ -17799,7 +17803,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1137" s="58" t="s">
         <v>245</v>
       </c>
@@ -17809,7 +17813,7 @@
       <c r="E1137" s="58"/>
       <c r="F1137" s="50"/>
     </row>
-    <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1138" s="1"/>
       <c r="B1138" s="2" t="s">
         <v>16</v>
@@ -17828,7 +17832,7 @@
         <v>-187</v>
       </c>
     </row>
-    <row r="1139" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1139" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1139" s="1" t="s">
         <v>1</v>
       </c>
@@ -17845,7 +17849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1140" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1140" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1140" s="1" t="s">
         <v>2</v>
       </c>
@@ -17862,7 +17866,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1144" s="6"/>
       <c r="B1144" s="6"/>
       <c r="C1144" s="6"/>
@@ -17870,7 +17874,7 @@
       <c r="E1144" s="6"/>
       <c r="F1144" s="6"/>
     </row>
-    <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1145" s="58" t="s">
         <v>246</v>
       </c>
@@ -17880,7 +17884,7 @@
       <c r="E1145" s="58"/>
       <c r="F1145" s="58"/>
     </row>
-    <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1146" s="1"/>
       <c r="B1146" s="2" t="s">
         <v>14</v>
@@ -17898,7 +17902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1147" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1147" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1147" s="1" t="s">
         <v>1</v>
       </c>
@@ -17918,7 +17922,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="1148" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1148" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1148" s="1" t="s">
         <v>2</v>
       </c>
@@ -17938,7 +17942,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1149" s="58" t="s">
         <v>247</v>
       </c>
@@ -17948,7 +17952,7 @@
       <c r="E1149" s="58"/>
       <c r="F1149" s="50"/>
     </row>
-    <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1150" s="1"/>
       <c r="B1150" s="2" t="s">
         <v>16</v>
@@ -17963,7 +17967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1151" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1151" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1151" s="1" t="s">
         <v>1</v>
       </c>
@@ -17980,7 +17984,7 @@
         <v>-0.44</v>
       </c>
     </row>
-    <row r="1152" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="1152" spans="1:7" ht="18" x14ac:dyDescent="0.5">
       <c r="A1152" s="1" t="s">
         <v>2</v>
       </c>
@@ -17997,7 +18001,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1155" s="6"/>
       <c r="B1155" s="6"/>
       <c r="C1155" s="6"/>
@@ -18005,7 +18009,7 @@
       <c r="E1155" s="6"/>
       <c r="F1155" s="6"/>
     </row>
-    <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1156" s="58" t="s">
         <v>248</v>
       </c>
@@ -18015,7 +18019,7 @@
       <c r="E1156" s="58"/>
       <c r="F1156" s="58"/>
     </row>
-    <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1157" s="1"/>
       <c r="B1157" s="2" t="s">
         <v>14</v>
@@ -18033,7 +18037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1158" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1158" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1158" s="1" t="s">
         <v>1</v>
       </c>
@@ -18053,7 +18057,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="1159" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1159" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1159" s="1" t="s">
         <v>2</v>
       </c>
@@ -18073,7 +18077,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1160" s="58" t="s">
         <v>249</v>
       </c>
@@ -18083,7 +18087,7 @@
       <c r="E1160" s="58"/>
       <c r="F1160" s="50"/>
     </row>
-    <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1161" s="1"/>
       <c r="B1161" s="2" t="s">
         <v>16</v>
@@ -18098,7 +18102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1162" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1162" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1162" s="1" t="s">
         <v>1</v>
       </c>
@@ -18115,7 +18119,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="1163" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1163" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1163" s="1" t="s">
         <v>2</v>
       </c>
@@ -18132,7 +18136,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1167" s="6"/>
       <c r="B1167" s="6"/>
       <c r="C1167" s="6"/>
@@ -18140,7 +18144,7 @@
       <c r="E1167" s="6"/>
       <c r="F1167" s="6"/>
     </row>
-    <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1168" s="58" t="s">
         <v>250</v>
       </c>
@@ -18150,7 +18154,7 @@
       <c r="E1168" s="58"/>
       <c r="F1168" s="58"/>
     </row>
-    <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1169" s="1"/>
       <c r="B1169" s="2" t="s">
         <v>14</v>
@@ -18168,7 +18172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1170" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1170" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1170" s="1" t="s">
         <v>1</v>
       </c>
@@ -18188,7 +18192,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1171" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1171" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1171" s="1" t="s">
         <v>2</v>
       </c>
@@ -18208,7 +18212,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1172" s="58" t="s">
         <v>251</v>
       </c>
@@ -18218,7 +18222,7 @@
       <c r="E1172" s="58"/>
       <c r="F1172" s="50"/>
     </row>
-    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1173" s="1"/>
       <c r="B1173" s="2" t="s">
         <v>16</v>
@@ -18233,7 +18237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1174" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1174" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1174" s="1" t="s">
         <v>1</v>
       </c>
@@ -18250,7 +18254,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="1175" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1175" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1175" s="1" t="s">
         <v>2</v>
       </c>
@@ -18267,7 +18271,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1179" s="6"/>
       <c r="B1179" s="6"/>
       <c r="C1179" s="6"/>
@@ -18275,7 +18279,7 @@
       <c r="E1179" s="6"/>
       <c r="F1179" s="6"/>
     </row>
-    <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1180" s="58" t="s">
         <v>252</v>
       </c>
@@ -18285,7 +18289,7 @@
       <c r="E1180" s="58"/>
       <c r="F1180" s="58"/>
     </row>
-    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1181" s="1"/>
       <c r="B1181" s="2" t="s">
         <v>14</v>
@@ -18303,7 +18307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1182" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1182" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1182" s="1" t="s">
         <v>1</v>
       </c>
@@ -18323,7 +18327,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="1183" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1183" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1183" s="1" t="s">
         <v>2</v>
       </c>
@@ -18343,7 +18347,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1184" s="58" t="s">
         <v>253</v>
       </c>
@@ -18353,7 +18357,7 @@
       <c r="E1184" s="58"/>
       <c r="F1184" s="50"/>
     </row>
-    <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1185" s="1"/>
       <c r="B1185" s="2" t="s">
         <v>16</v>
@@ -18368,7 +18372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1186" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1186" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1186" s="1" t="s">
         <v>1</v>
       </c>
@@ -18385,7 +18389,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="1187" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1187" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1187" s="1" t="s">
         <v>2</v>
       </c>
@@ -18402,7 +18406,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1191" s="6"/>
       <c r="B1191" s="6"/>
       <c r="C1191" s="6"/>
@@ -18410,7 +18414,7 @@
       <c r="E1191" s="6"/>
       <c r="F1191" s="6"/>
     </row>
-    <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1192" s="58" t="s">
         <v>254</v>
       </c>
@@ -18420,7 +18424,7 @@
       <c r="E1192" s="58"/>
       <c r="F1192" s="58"/>
     </row>
-    <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1193" s="1"/>
       <c r="B1193" s="2" t="s">
         <v>14</v>
@@ -18438,7 +18442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1194" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1194" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1194" s="1" t="s">
         <v>1</v>
       </c>
@@ -18458,7 +18462,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="1195" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1195" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1195" s="1" t="s">
         <v>2</v>
       </c>
@@ -18478,7 +18482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1196" s="58" t="s">
         <v>255</v>
       </c>
@@ -18488,7 +18492,7 @@
       <c r="E1196" s="58"/>
       <c r="F1196" s="50"/>
     </row>
-    <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1197" s="1"/>
       <c r="B1197" s="2" t="s">
         <v>16</v>
@@ -18503,7 +18507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1198" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1198" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1198" s="1" t="s">
         <v>1</v>
       </c>
@@ -18520,7 +18524,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="1199" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1199" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1199" s="1" t="s">
         <v>2</v>
       </c>
@@ -18537,7 +18541,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1202" s="6"/>
       <c r="B1202" s="6"/>
       <c r="C1202" s="6"/>
@@ -18545,7 +18549,7 @@
       <c r="E1202" s="6"/>
       <c r="F1202" s="6"/>
     </row>
-    <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1203" s="58" t="s">
         <v>256</v>
       </c>
@@ -18555,7 +18559,7 @@
       <c r="E1203" s="58"/>
       <c r="F1203" s="58"/>
     </row>
-    <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1204" s="1"/>
       <c r="B1204" s="2" t="s">
         <v>14</v>
@@ -18573,7 +18577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1205" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1205" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1205" s="1" t="s">
         <v>1</v>
       </c>
@@ -18593,7 +18597,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="1206" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1206" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1206" s="1" t="s">
         <v>2</v>
       </c>
@@ -18613,7 +18617,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1207" s="58" t="s">
         <v>257</v>
       </c>
@@ -18623,7 +18627,7 @@
       <c r="E1207" s="58"/>
       <c r="F1207" s="50"/>
     </row>
-    <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1208" s="1"/>
       <c r="B1208" s="2" t="s">
         <v>16</v>
@@ -18638,7 +18642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1209" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1209" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1209" s="1" t="s">
         <v>1</v>
       </c>
@@ -18655,7 +18659,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="1210" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1210" spans="1:6" ht="18" x14ac:dyDescent="0.5">
       <c r="A1210" s="1" t="s">
         <v>2</v>
       </c>
@@ -18676,8 +18680,363 @@
         <v>166</v>
       </c>
     </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1214" s="6"/>
+      <c r="B1214" s="6"/>
+      <c r="C1214" s="6"/>
+      <c r="D1214" s="6"/>
+      <c r="E1214" s="6"/>
+      <c r="F1214" s="6"/>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1215" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1215" s="58"/>
+      <c r="C1215" s="58"/>
+      <c r="D1215" s="58"/>
+      <c r="E1215" s="58"/>
+      <c r="F1215" s="58"/>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1216" s="1"/>
+      <c r="B1216" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1216" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1216" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1216" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1216" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1217" s="56">
+        <v>26472</v>
+      </c>
+      <c r="C1217" s="57">
+        <v>26736</v>
+      </c>
+      <c r="D1217">
+        <v>213</v>
+      </c>
+      <c r="E1217" s="57">
+        <v>27470</v>
+      </c>
+      <c r="F1217" s="9">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1218" s="56">
+        <v>31168</v>
+      </c>
+      <c r="C1218" s="57">
+        <v>31480</v>
+      </c>
+      <c r="D1218">
+        <v>86</v>
+      </c>
+      <c r="E1218" s="57">
+        <v>32242</v>
+      </c>
+      <c r="F1218" s="9">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1219" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1219" s="58"/>
+      <c r="C1219" s="58"/>
+      <c r="D1219" s="58"/>
+      <c r="E1219" s="58"/>
+      <c r="F1219" s="50"/>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1220" s="1"/>
+      <c r="B1220" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1220" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1220" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1220" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1221" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1221" s="56">
+        <v>26346</v>
+      </c>
+      <c r="C1221" s="4">
+        <v>86</v>
+      </c>
+      <c r="D1221" s="56">
+        <v>7327700</v>
+      </c>
+      <c r="E1221" s="5">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" ht="18" x14ac:dyDescent="0.5">
+      <c r="A1222" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1222" s="56">
+        <v>31073</v>
+      </c>
+      <c r="C1222" s="4">
+        <v>-74</v>
+      </c>
+      <c r="D1222" s="56">
+        <v>409200</v>
+      </c>
+      <c r="E1222" s="5">
+        <v>-0.01</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="244">
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1203:F1203"/>
     <mergeCell ref="A1207:E1207"/>
     <mergeCell ref="A397:F397"/>
@@ -18702,224 +19061,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="263">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -807,6 +807,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 03 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 04 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 04 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1234"/>
+  <dimension ref="A1:J1245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1208" sqref="A1208"/>
+    <sheetView tabSelected="1" topLeftCell="A1226" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1246" sqref="E1246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18917,7 +18923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1233" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1233" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A1233" s="1" t="s">
         <v>1</v>
       </c>
@@ -18934,7 +18940,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="1234" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1234" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A1234" s="1" t="s">
         <v>2</v>
       </c>
@@ -18951,8 +18957,367 @@
         <v>1.79</v>
       </c>
     </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1237" s="6"/>
+      <c r="B1237" s="6"/>
+      <c r="C1237" s="6"/>
+      <c r="D1237" s="6"/>
+      <c r="E1237" s="6"/>
+      <c r="F1237" s="6"/>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1238" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1238" s="58"/>
+      <c r="C1238" s="58"/>
+      <c r="D1238" s="58"/>
+      <c r="E1238" s="58"/>
+      <c r="F1238" s="58"/>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1239" s="1"/>
+      <c r="B1239" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1239" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1239" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1239" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1239" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1240" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1240" s="56">
+        <v>26763</v>
+      </c>
+      <c r="C1240" s="57">
+        <v>27030</v>
+      </c>
+      <c r="D1240">
+        <v>196</v>
+      </c>
+      <c r="E1240" s="57">
+        <v>27650</v>
+      </c>
+      <c r="F1240" s="9">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1241" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1241" s="56">
+        <v>31265</v>
+      </c>
+      <c r="C1241" s="57">
+        <v>31578</v>
+      </c>
+      <c r="D1241">
+        <v>81</v>
+      </c>
+      <c r="E1241" s="57">
+        <v>32256</v>
+      </c>
+      <c r="F1241" s="9">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1242" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1242" s="58"/>
+      <c r="C1242" s="58"/>
+      <c r="D1242" s="58"/>
+      <c r="E1242" s="58"/>
+      <c r="F1242" s="50"/>
+    </row>
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1243" s="1"/>
+      <c r="B1243" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1243" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1243" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1243" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1244" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1244" s="56">
+        <v>26641</v>
+      </c>
+      <c r="C1244" s="4">
+        <v>69</v>
+      </c>
+      <c r="D1244" s="56">
+        <v>9198200</v>
+      </c>
+      <c r="E1244" s="5">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1245" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1245" s="56">
+        <v>31207</v>
+      </c>
+      <c r="C1245" s="4">
+        <v>61</v>
+      </c>
+      <c r="D1245" s="56">
+        <v>800500</v>
+      </c>
+      <c r="E1245" s="5">
+        <v>-0.3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="246">
+  <mergeCells count="248">
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1227:F1227"/>
     <mergeCell ref="A1231:E1231"/>
     <mergeCell ref="A397:F397"/>
@@ -18977,228 +19342,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="265">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -813,6 +813,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 04 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 06 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 06 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1245"/>
+  <dimension ref="A1:J1257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1246" sqref="E1246"/>
+    <sheetView tabSelected="1" topLeftCell="A1238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1258" sqref="E1258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19092,35 +19098,340 @@
         <v>-0.3</v>
       </c>
     </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1249" s="6"/>
+      <c r="B1249" s="6"/>
+      <c r="C1249" s="6"/>
+      <c r="D1249" s="6"/>
+      <c r="E1249" s="6"/>
+      <c r="F1249" s="6"/>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1250" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1250" s="58"/>
+      <c r="C1250" s="58"/>
+      <c r="D1250" s="58"/>
+      <c r="E1250" s="58"/>
+      <c r="F1250" s="58"/>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1251" s="1"/>
+      <c r="B1251" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1251" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1251" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1251" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1251" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1252" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1252" s="56">
+        <v>27230</v>
+      </c>
+      <c r="C1252" s="57">
+        <v>27502</v>
+      </c>
+      <c r="D1252">
+        <v>472</v>
+      </c>
+      <c r="E1252" s="57">
+        <v>27900</v>
+      </c>
+      <c r="F1252" s="9">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1253" s="56">
+        <v>31900</v>
+      </c>
+      <c r="C1253" s="57">
+        <v>32219</v>
+      </c>
+      <c r="D1253">
+        <v>641</v>
+      </c>
+      <c r="E1253" s="57">
+        <v>32455</v>
+      </c>
+      <c r="F1253" s="9">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1254" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1254" s="58"/>
+      <c r="C1254" s="58"/>
+      <c r="D1254" s="58"/>
+      <c r="E1254" s="58"/>
+      <c r="F1254" s="50"/>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1255" s="1"/>
+      <c r="B1255" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1255" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1255" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1255" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1256" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1256" s="56">
+        <v>27169</v>
+      </c>
+      <c r="C1256" s="4">
+        <v>528</v>
+      </c>
+      <c r="D1256" s="56">
+        <v>7757800</v>
+      </c>
+      <c r="E1256" s="5">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1257" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1257" s="56">
+        <v>31623</v>
+      </c>
+      <c r="C1257" s="4">
+        <v>416</v>
+      </c>
+      <c r="D1257" s="56">
+        <v>961200</v>
+      </c>
+      <c r="E1257" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="248">
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
+  <mergeCells count="250">
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
     <mergeCell ref="A1044:E1044"/>
     <mergeCell ref="A959:F959"/>
     <mergeCell ref="A963:E963"/>
@@ -19145,203 +19456,35 @@
     <mergeCell ref="A925:F925"/>
     <mergeCell ref="A929:E929"/>
     <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
     <mergeCell ref="A1227:F1227"/>
     <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="267">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -819,6 +819,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 06 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 07 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 07 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1257"/>
+  <dimension ref="A1:J1269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1258" sqref="E1258"/>
+    <sheetView tabSelected="1" topLeftCell="A1250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1268" sqref="D1268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19233,8 +19239,371 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1261" s="6"/>
+      <c r="B1261" s="6"/>
+      <c r="C1261" s="6"/>
+      <c r="D1261" s="6"/>
+      <c r="E1261" s="6"/>
+      <c r="F1261" s="6"/>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1262" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1262" s="58"/>
+      <c r="C1262" s="58"/>
+      <c r="D1262" s="58"/>
+      <c r="E1262" s="58"/>
+      <c r="F1262" s="58"/>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1263" s="1"/>
+      <c r="B1263" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1263" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1263" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1263" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1263" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1264" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1264" s="56">
+        <v>27633</v>
+      </c>
+      <c r="C1264" s="57">
+        <v>27909</v>
+      </c>
+      <c r="D1264">
+        <v>407</v>
+      </c>
+      <c r="E1264" s="57">
+        <v>28300</v>
+      </c>
+      <c r="F1264" s="9">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1265" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1265" s="56">
+        <v>32220</v>
+      </c>
+      <c r="C1265" s="57">
+        <v>32543</v>
+      </c>
+      <c r="D1265">
+        <v>324</v>
+      </c>
+      <c r="E1265" s="57">
+        <v>32854</v>
+      </c>
+      <c r="F1265" s="9">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1266" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1266" s="58"/>
+      <c r="C1266" s="58"/>
+      <c r="D1266" s="58"/>
+      <c r="E1266" s="58"/>
+      <c r="F1266" s="50"/>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1267" s="1"/>
+      <c r="B1267" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1267" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1267" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1267" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1268" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1268" s="56">
+        <v>27449</v>
+      </c>
+      <c r="C1268" s="4">
+        <v>280</v>
+      </c>
+      <c r="D1268" s="56">
+        <v>9393600</v>
+      </c>
+      <c r="E1268" s="5">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1269" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1269" s="56">
+        <v>31790</v>
+      </c>
+      <c r="C1269" s="4">
+        <v>167</v>
+      </c>
+      <c r="D1269" s="56">
+        <v>863400</v>
+      </c>
+      <c r="E1269" s="5">
+        <v>-0.1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="250">
+  <mergeCells count="252">
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1250:F1250"/>
     <mergeCell ref="A1254:E1254"/>
     <mergeCell ref="A397:F397"/>
@@ -19259,232 +19628,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="273">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -837,6 +837,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 10 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 11 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 11 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1293"/>
+  <dimension ref="A1:J1305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1283" sqref="E1283"/>
+    <sheetView tabSelected="1" topLeftCell="A1286" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1306" sqref="E1306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19656,43 +19662,340 @@
         <v>0.81</v>
       </c>
     </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1297" s="6"/>
+      <c r="B1297" s="6"/>
+      <c r="C1297" s="6"/>
+      <c r="D1297" s="6"/>
+      <c r="E1297" s="6"/>
+      <c r="F1297" s="6"/>
+    </row>
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1298" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1298" s="58"/>
+      <c r="C1298" s="58"/>
+      <c r="D1298" s="58"/>
+      <c r="E1298" s="58"/>
+      <c r="F1298" s="58"/>
+    </row>
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1299" s="1"/>
+      <c r="B1299" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1299" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1299" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1299" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1299" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1300" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1300" s="56">
+        <v>27293</v>
+      </c>
+      <c r="C1300" s="57">
+        <v>27566</v>
+      </c>
+      <c r="D1300">
+        <v>-181</v>
+      </c>
+      <c r="E1300" s="57">
+        <v>28020</v>
+      </c>
+      <c r="F1300" s="9">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1301" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1301" s="56">
+        <v>31590</v>
+      </c>
+      <c r="C1301" s="57">
+        <v>31905</v>
+      </c>
+      <c r="D1301">
+        <v>-28</v>
+      </c>
+      <c r="E1301" s="57">
+        <v>32512</v>
+      </c>
+      <c r="F1301" s="9">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1302" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1302" s="58"/>
+      <c r="C1302" s="58"/>
+      <c r="D1302" s="58"/>
+      <c r="E1302" s="58"/>
+      <c r="F1302" s="50"/>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1303" s="1"/>
+      <c r="B1303" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1303" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1303" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1303" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1304" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1304" s="56">
+        <v>27250</v>
+      </c>
+      <c r="C1304" s="4">
+        <v>-281</v>
+      </c>
+      <c r="D1304" s="56">
+        <v>6807700</v>
+      </c>
+      <c r="E1304" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1305" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1305" s="56">
+        <v>31590</v>
+      </c>
+      <c r="C1305" s="4">
+        <v>-450</v>
+      </c>
+      <c r="D1305" s="56">
+        <v>803500</v>
+      </c>
+      <c r="E1305" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="256">
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
+  <mergeCells count="258">
+    <mergeCell ref="A1298:F1298"/>
+    <mergeCell ref="A1302:E1302"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
     <mergeCell ref="A1044:E1044"/>
     <mergeCell ref="A959:F959"/>
     <mergeCell ref="A963:E963"/>
@@ -19717,203 +20020,43 @@
     <mergeCell ref="A925:F925"/>
     <mergeCell ref="A929:E929"/>
     <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1196:E1196"/>
     <mergeCell ref="A1274:F1274"/>
     <mergeCell ref="A1278:E1278"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="275">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -843,6 +843,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 11 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 12 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 12 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1399,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1305"/>
+  <dimension ref="A1:J1317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1286" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1306" sqref="E1306"/>
+    <sheetView tabSelected="1" topLeftCell="A1298" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1305" sqref="E1305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19797,8 +19803,379 @@
         <v>0.32</v>
       </c>
     </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1309" s="6"/>
+      <c r="B1309" s="6"/>
+      <c r="C1309" s="6"/>
+      <c r="D1309" s="6"/>
+      <c r="E1309" s="6"/>
+      <c r="F1309" s="6"/>
+    </row>
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1310" s="58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1310" s="58"/>
+      <c r="C1310" s="58"/>
+      <c r="D1310" s="58"/>
+      <c r="E1310" s="58"/>
+      <c r="F1310" s="58"/>
+    </row>
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1311" s="1"/>
+      <c r="B1311" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1311" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1311" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1311" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1311" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1312" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1312" s="56">
+        <v>27249</v>
+      </c>
+      <c r="C1312" s="57">
+        <v>27522</v>
+      </c>
+      <c r="D1312">
+        <v>-44</v>
+      </c>
+      <c r="E1312" s="57">
+        <v>28110</v>
+      </c>
+      <c r="F1312" s="9">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1313" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1313" s="56">
+        <v>31582</v>
+      </c>
+      <c r="C1313" s="57">
+        <v>31898</v>
+      </c>
+      <c r="D1313">
+        <v>-7</v>
+      </c>
+      <c r="E1313" s="57">
+        <v>32600</v>
+      </c>
+      <c r="F1313" s="9">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1314" s="58" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1314" s="58"/>
+      <c r="C1314" s="58"/>
+      <c r="D1314" s="58"/>
+      <c r="E1314" s="58"/>
+      <c r="F1314" s="50"/>
+    </row>
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1315" s="1"/>
+      <c r="B1315" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1315" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1315" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1315" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1316" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1316" s="56">
+        <v>27229</v>
+      </c>
+      <c r="C1316" s="4">
+        <v>-21</v>
+      </c>
+      <c r="D1316" s="56">
+        <v>7875600</v>
+      </c>
+      <c r="E1316" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1317" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1317" s="56">
+        <v>31586</v>
+      </c>
+      <c r="C1317" s="4">
+        <v>-4</v>
+      </c>
+      <c r="D1317" s="56">
+        <v>813300</v>
+      </c>
+      <c r="E1317" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="258">
+  <mergeCells count="260">
+    <mergeCell ref="A1310:F1310"/>
+    <mergeCell ref="A1314:E1314"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1274:F1274"/>
+    <mergeCell ref="A1278:E1278"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1298:F1298"/>
     <mergeCell ref="A1302:E1302"/>
     <mergeCell ref="A397:F397"/>
@@ -19823,240 +20200,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1274:F1274"/>
-    <mergeCell ref="A1278:E1278"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="281">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -861,6 +861,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 17 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 18 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 18 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1140,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1341"/>
+  <dimension ref="A1:J1353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1322" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1329" sqref="F1329"/>
+    <sheetView tabSelected="1" topLeftCell="D1337" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1355" sqref="D1355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,13 +1441,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1494,13 +1500,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1553,12 +1559,12 @@
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,13 +1611,13 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1664,14 +1670,14 @@
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1732,13 +1738,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1791,14 +1797,14 @@
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1859,13 +1865,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1918,14 +1924,14 @@
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1986,13 +1992,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -2045,14 +2051,14 @@
     </row>
     <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2113,13 +2119,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -2172,14 +2178,14 @@
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2240,13 +2246,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -2299,14 +2305,14 @@
     </row>
     <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -2375,13 +2381,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
@@ -2434,14 +2440,14 @@
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="58" t="s">
+      <c r="A73" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -2510,13 +2516,13 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="58" t="s">
+      <c r="A77" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -2569,14 +2575,14 @@
     </row>
     <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="58" t="s">
+      <c r="A82" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -2645,13 +2651,13 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="58" t="s">
+      <c r="A86" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="58"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -2704,14 +2710,14 @@
     </row>
     <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
+      <c r="A91" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="58"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -2777,13 +2783,13 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="58" t="s">
+      <c r="A95" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="58"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="58"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
@@ -2840,14 +2846,14 @@
     </row>
     <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="58" t="s">
+      <c r="A100" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="58"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -2913,13 +2919,13 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="58" t="s">
+      <c r="A104" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
-      <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
@@ -2976,14 +2982,14 @@
     </row>
     <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="58" t="s">
+      <c r="A109" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58"/>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="59"/>
+      <c r="E109" s="59"/>
+      <c r="F109" s="59"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
@@ -3049,13 +3055,13 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="58" t="s">
+      <c r="A113" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="58"/>
-      <c r="E113" s="58"/>
+      <c r="B113" s="59"/>
+      <c r="C113" s="59"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="59"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
@@ -3114,14 +3120,14 @@
     </row>
     <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="58" t="s">
+      <c r="A118" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="58"/>
-      <c r="F118" s="58"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="59"/>
+      <c r="D118" s="59"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
@@ -3187,13 +3193,13 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="58" t="s">
+      <c r="A122" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="58"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="59"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -3252,14 +3258,14 @@
     </row>
     <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="58" t="s">
+      <c r="A127" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B127" s="58"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="59"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
@@ -3326,13 +3332,13 @@
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="58" t="s">
+      <c r="A131" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B131" s="58"/>
-      <c r="C131" s="58"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="58"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="59"/>
+      <c r="E131" s="59"/>
       <c r="I131" s="10"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -3393,14 +3399,14 @@
     </row>
     <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="58" t="s">
+      <c r="A136" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="B136" s="58"/>
-      <c r="C136" s="58"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="58"/>
-      <c r="F136" s="58"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="59"/>
+      <c r="F136" s="59"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3467,13 +3473,13 @@
       <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="58" t="s">
+      <c r="A140" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B140" s="58"/>
-      <c r="C140" s="58"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="58"/>
+      <c r="B140" s="59"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="59"/>
+      <c r="E140" s="59"/>
       <c r="I140" s="10"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -3535,14 +3541,14 @@
     </row>
     <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="58" t="s">
+      <c r="A145" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="58"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="59"/>
+      <c r="E145" s="59"/>
+      <c r="F145" s="59"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
@@ -3609,13 +3615,13 @@
       <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="58" t="s">
+      <c r="A149" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="58"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="58"/>
+      <c r="B149" s="59"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="59"/>
+      <c r="E149" s="59"/>
       <c r="G149">
         <f>F148/C148</f>
         <v>2.2416386163431928E-2</v>
@@ -3684,14 +3690,14 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="58" t="s">
+      <c r="A154" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B154" s="58"/>
-      <c r="C154" s="58"/>
-      <c r="D154" s="58"/>
-      <c r="E154" s="58"/>
-      <c r="F154" s="58"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="59"/>
+      <c r="E154" s="59"/>
+      <c r="F154" s="59"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
@@ -3761,13 +3767,13 @@
       <c r="G157" s="10"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="58" t="s">
+      <c r="A158" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="B158" s="58"/>
-      <c r="C158" s="58"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="58"/>
+      <c r="B158" s="59"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="59"/>
+      <c r="E158" s="59"/>
       <c r="H158">
         <f>F157/C157</f>
         <v>2.5752148997134669E-2</v>
@@ -3834,14 +3840,14 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="58" t="s">
+      <c r="A163" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="B163" s="58"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="58"/>
-      <c r="F163" s="58"/>
+      <c r="B163" s="59"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="59"/>
+      <c r="E163" s="59"/>
+      <c r="F163" s="59"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
@@ -3909,13 +3915,13 @@
       <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="58" t="s">
+      <c r="A167" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="B167" s="58"/>
-      <c r="C167" s="58"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="58"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="59"/>
+      <c r="E167" s="59"/>
       <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -3983,14 +3989,14 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="58" t="s">
+      <c r="A172" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="B172" s="58"/>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="58"/>
-      <c r="F172" s="58"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="59"/>
+      <c r="E172" s="59"/>
+      <c r="F172" s="59"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
@@ -4062,13 +4068,13 @@
       <c r="G175" s="10"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="58" t="s">
+      <c r="A176" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
-      <c r="D176" s="58"/>
-      <c r="E176" s="58"/>
+      <c r="B176" s="59"/>
+      <c r="C176" s="59"/>
+      <c r="D176" s="59"/>
+      <c r="E176" s="59"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -4136,14 +4142,14 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="58" t="s">
+      <c r="A181" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B181" s="58"/>
-      <c r="C181" s="58"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="58"/>
+      <c r="B181" s="59"/>
+      <c r="C181" s="59"/>
+      <c r="D181" s="59"/>
+      <c r="E181" s="59"/>
+      <c r="F181" s="59"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
@@ -4211,13 +4217,13 @@
       <c r="G184" s="10"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="58" t="s">
+      <c r="A185" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B185" s="58"/>
-      <c r="C185" s="58"/>
-      <c r="D185" s="58"/>
-      <c r="E185" s="58"/>
+      <c r="B185" s="59"/>
+      <c r="C185" s="59"/>
+      <c r="D185" s="59"/>
+      <c r="E185" s="59"/>
       <c r="H185">
         <f>F184/C184</f>
         <v>3.0473475363100511E-2</v>
@@ -4285,14 +4291,14 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="58" t="s">
+      <c r="A190" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B190" s="58"/>
-      <c r="C190" s="58"/>
-      <c r="D190" s="58"/>
-      <c r="E190" s="58"/>
-      <c r="F190" s="58"/>
+      <c r="B190" s="59"/>
+      <c r="C190" s="59"/>
+      <c r="D190" s="59"/>
+      <c r="E190" s="59"/>
+      <c r="F190" s="59"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
@@ -4363,13 +4369,13 @@
       <c r="G193" s="10"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="58" t="s">
+      <c r="A194" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B194" s="58"/>
-      <c r="C194" s="58"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="58"/>
+      <c r="B194" s="59"/>
+      <c r="C194" s="59"/>
+      <c r="D194" s="59"/>
+      <c r="E194" s="59"/>
       <c r="H194">
         <f>F193/C193</f>
         <v>2.5228721929581369E-2</v>
@@ -4437,14 +4443,14 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="58" t="s">
+      <c r="A199" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B199" s="58"/>
-      <c r="C199" s="58"/>
-      <c r="D199" s="58"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="58"/>
+      <c r="B199" s="59"/>
+      <c r="C199" s="59"/>
+      <c r="D199" s="59"/>
+      <c r="E199" s="59"/>
+      <c r="F199" s="59"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
@@ -4515,13 +4521,13 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="58" t="s">
+      <c r="A203" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B203" s="58"/>
-      <c r="C203" s="58"/>
-      <c r="D203" s="58"/>
-      <c r="E203" s="58"/>
+      <c r="B203" s="59"/>
+      <c r="C203" s="59"/>
+      <c r="D203" s="59"/>
+      <c r="E203" s="59"/>
       <c r="I203" s="10"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -4584,14 +4590,14 @@
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="58" t="s">
+      <c r="A208" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B208" s="58"/>
-      <c r="C208" s="58"/>
-      <c r="D208" s="58"/>
-      <c r="E208" s="58"/>
-      <c r="F208" s="58"/>
+      <c r="B208" s="59"/>
+      <c r="C208" s="59"/>
+      <c r="D208" s="59"/>
+      <c r="E208" s="59"/>
+      <c r="F208" s="59"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
@@ -4667,13 +4673,13 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="58" t="s">
+      <c r="A212" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B212" s="58"/>
-      <c r="C212" s="58"/>
-      <c r="D212" s="58"/>
-      <c r="E212" s="58"/>
+      <c r="B212" s="59"/>
+      <c r="C212" s="59"/>
+      <c r="D212" s="59"/>
+      <c r="E212" s="59"/>
       <c r="F212">
         <f>F211/C211</f>
         <v>5.3257745129351643E-2</v>
@@ -4738,14 +4744,14 @@
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="58" t="s">
+      <c r="A217" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B217" s="58"/>
-      <c r="C217" s="58"/>
-      <c r="D217" s="58"/>
-      <c r="E217" s="58"/>
-      <c r="F217" s="58"/>
+      <c r="B217" s="59"/>
+      <c r="C217" s="59"/>
+      <c r="D217" s="59"/>
+      <c r="E217" s="59"/>
+      <c r="F217" s="59"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
@@ -4820,13 +4826,13 @@
       <c r="I220" s="10"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="58" t="s">
+      <c r="A221" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B221" s="58"/>
-      <c r="C221" s="58"/>
-      <c r="D221" s="58"/>
-      <c r="E221" s="58"/>
+      <c r="B221" s="59"/>
+      <c r="C221" s="59"/>
+      <c r="D221" s="59"/>
+      <c r="E221" s="59"/>
       <c r="G221">
         <f>F220/C220</f>
         <v>5.292938818814099E-2</v>
@@ -4891,14 +4897,14 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="58" t="s">
+      <c r="A226" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B226" s="58"/>
-      <c r="C226" s="58"/>
-      <c r="D226" s="58"/>
-      <c r="E226" s="58"/>
-      <c r="F226" s="58"/>
+      <c r="B226" s="59"/>
+      <c r="C226" s="59"/>
+      <c r="D226" s="59"/>
+      <c r="E226" s="59"/>
+      <c r="F226" s="59"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
@@ -4971,13 +4977,13 @@
       <c r="I229" s="10"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="58" t="s">
+      <c r="A230" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B230" s="58"/>
-      <c r="C230" s="58"/>
-      <c r="D230" s="58"/>
-      <c r="E230" s="58"/>
+      <c r="B230" s="59"/>
+      <c r="C230" s="59"/>
+      <c r="D230" s="59"/>
+      <c r="E230" s="59"/>
       <c r="G230">
         <f>F229/C229</f>
         <v>4.1247714808043873E-2</v>
@@ -5045,14 +5051,14 @@
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="58" t="s">
+      <c r="A235" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B235" s="58"/>
-      <c r="C235" s="58"/>
-      <c r="D235" s="58"/>
-      <c r="E235" s="58"/>
-      <c r="F235" s="58"/>
+      <c r="B235" s="59"/>
+      <c r="C235" s="59"/>
+      <c r="D235" s="59"/>
+      <c r="E235" s="59"/>
+      <c r="F235" s="59"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
@@ -5126,13 +5132,13 @@
       <c r="I238" s="10"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="58" t="s">
+      <c r="A239" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B239" s="58"/>
-      <c r="C239" s="58"/>
-      <c r="D239" s="58"/>
-      <c r="E239" s="58"/>
+      <c r="B239" s="59"/>
+      <c r="C239" s="59"/>
+      <c r="D239" s="59"/>
+      <c r="E239" s="59"/>
       <c r="I239" s="10"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -5200,14 +5206,14 @@
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="58" t="s">
+      <c r="A244" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B244" s="58"/>
-      <c r="C244" s="58"/>
-      <c r="D244" s="58"/>
-      <c r="E244" s="58"/>
-      <c r="F244" s="58"/>
+      <c r="B244" s="59"/>
+      <c r="C244" s="59"/>
+      <c r="D244" s="59"/>
+      <c r="E244" s="59"/>
+      <c r="F244" s="59"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
@@ -5282,13 +5288,13 @@
       <c r="I247" s="10"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="58" t="s">
+      <c r="A248" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B248" s="58"/>
-      <c r="C248" s="58"/>
-      <c r="D248" s="58"/>
-      <c r="E248" s="58"/>
+      <c r="B248" s="59"/>
+      <c r="C248" s="59"/>
+      <c r="D248" s="59"/>
+      <c r="E248" s="59"/>
       <c r="G248">
         <f>F247/C247</f>
         <v>4.4714828897338403E-2</v>
@@ -5353,14 +5359,14 @@
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="58" t="s">
+      <c r="A253" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B253" s="58"/>
-      <c r="C253" s="58"/>
-      <c r="D253" s="58"/>
-      <c r="E253" s="58"/>
-      <c r="F253" s="58"/>
+      <c r="B253" s="59"/>
+      <c r="C253" s="59"/>
+      <c r="D253" s="59"/>
+      <c r="E253" s="59"/>
+      <c r="F253" s="59"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
@@ -5436,13 +5442,13 @@
       <c r="I256" s="10"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="58" t="s">
+      <c r="A257" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B257" s="58"/>
-      <c r="C257" s="58"/>
-      <c r="D257" s="58"/>
-      <c r="E257" s="58"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="59"/>
+      <c r="D257" s="59"/>
+      <c r="E257" s="59"/>
       <c r="I257" s="10"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -5507,14 +5513,14 @@
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="58" t="s">
+      <c r="A262" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B262" s="58"/>
-      <c r="C262" s="58"/>
-      <c r="D262" s="58"/>
-      <c r="E262" s="58"/>
-      <c r="F262" s="58"/>
+      <c r="B262" s="59"/>
+      <c r="C262" s="59"/>
+      <c r="D262" s="59"/>
+      <c r="E262" s="59"/>
+      <c r="F262" s="59"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
@@ -5589,13 +5595,13 @@
       <c r="I265" s="10"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="58" t="s">
+      <c r="A266" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B266" s="58"/>
-      <c r="C266" s="58"/>
-      <c r="D266" s="58"/>
-      <c r="E266" s="58"/>
+      <c r="B266" s="59"/>
+      <c r="C266" s="59"/>
+      <c r="D266" s="59"/>
+      <c r="E266" s="59"/>
       <c r="F266">
         <f>F265/C265</f>
         <v>6.3093391837197865E-2</v>
@@ -5664,14 +5670,14 @@
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="58" t="s">
+      <c r="A271" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B271" s="58"/>
-      <c r="C271" s="58"/>
-      <c r="D271" s="58"/>
-      <c r="E271" s="58"/>
-      <c r="F271" s="58"/>
+      <c r="B271" s="59"/>
+      <c r="C271" s="59"/>
+      <c r="D271" s="59"/>
+      <c r="E271" s="59"/>
+      <c r="F271" s="59"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
@@ -5747,13 +5753,13 @@
       <c r="I274" s="10"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="58" t="s">
+      <c r="A275" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="B275" s="58"/>
-      <c r="C275" s="58"/>
-      <c r="D275" s="58"/>
-      <c r="E275" s="58"/>
+      <c r="B275" s="59"/>
+      <c r="C275" s="59"/>
+      <c r="D275" s="59"/>
+      <c r="E275" s="59"/>
       <c r="G275">
         <f>F274/C274</f>
         <v>2.9095066007817687E-2</v>
@@ -5818,14 +5824,14 @@
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="58" t="s">
+      <c r="A280" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="B280" s="58"/>
-      <c r="C280" s="58"/>
-      <c r="D280" s="58"/>
-      <c r="E280" s="58"/>
-      <c r="F280" s="58"/>
+      <c r="B280" s="59"/>
+      <c r="C280" s="59"/>
+      <c r="D280" s="59"/>
+      <c r="E280" s="59"/>
+      <c r="F280" s="59"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
@@ -5900,13 +5906,13 @@
       <c r="I283" s="10"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="58" t="s">
+      <c r="A284" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B284" s="58"/>
-      <c r="C284" s="58"/>
-      <c r="D284" s="58"/>
-      <c r="E284" s="58"/>
+      <c r="B284" s="59"/>
+      <c r="C284" s="59"/>
+      <c r="D284" s="59"/>
+      <c r="E284" s="59"/>
       <c r="G284">
         <f>F283/C283</f>
         <v>3.0301905009469346E-2</v>
@@ -5975,14 +5981,14 @@
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="58" t="s">
+      <c r="A289" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B289" s="58"/>
-      <c r="C289" s="58"/>
-      <c r="D289" s="58"/>
-      <c r="E289" s="58"/>
-      <c r="F289" s="58"/>
+      <c r="B289" s="59"/>
+      <c r="C289" s="59"/>
+      <c r="D289" s="59"/>
+      <c r="E289" s="59"/>
+      <c r="F289" s="59"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
@@ -6057,13 +6063,13 @@
       <c r="I292" s="10"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="58" t="s">
+      <c r="A293" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="B293" s="58"/>
-      <c r="C293" s="58"/>
-      <c r="D293" s="58"/>
-      <c r="E293" s="58"/>
+      <c r="B293" s="59"/>
+      <c r="C293" s="59"/>
+      <c r="D293" s="59"/>
+      <c r="E293" s="59"/>
       <c r="G293">
         <f>F292/C292</f>
         <v>3.1772328989028792E-2</v>
@@ -6128,14 +6134,14 @@
     </row>
     <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="58" t="s">
+      <c r="A298" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B298" s="58"/>
-      <c r="C298" s="58"/>
-      <c r="D298" s="58"/>
-      <c r="E298" s="58"/>
-      <c r="F298" s="58"/>
+      <c r="B298" s="59"/>
+      <c r="C298" s="59"/>
+      <c r="D298" s="59"/>
+      <c r="E298" s="59"/>
+      <c r="F298" s="59"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
@@ -6209,13 +6215,13 @@
       <c r="I301" s="10"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" s="58" t="s">
+      <c r="A302" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="B302" s="58"/>
-      <c r="C302" s="58"/>
-      <c r="D302" s="58"/>
-      <c r="E302" s="58"/>
+      <c r="B302" s="59"/>
+      <c r="C302" s="59"/>
+      <c r="D302" s="59"/>
+      <c r="E302" s="59"/>
       <c r="G302">
         <f>F301/C301</f>
         <v>1.9754619148470022E-2</v>
@@ -6284,14 +6290,14 @@
     </row>
     <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="58" t="s">
+      <c r="A307" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B307" s="58"/>
-      <c r="C307" s="58"/>
-      <c r="D307" s="58"/>
-      <c r="E307" s="58"/>
-      <c r="F307" s="58"/>
+      <c r="B307" s="59"/>
+      <c r="C307" s="59"/>
+      <c r="D307" s="59"/>
+      <c r="E307" s="59"/>
+      <c r="F307" s="59"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
@@ -6368,13 +6374,13 @@
       <c r="I310" s="10"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A311" s="58" t="s">
+      <c r="A311" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B311" s="58"/>
-      <c r="C311" s="58"/>
-      <c r="D311" s="58"/>
-      <c r="E311" s="58"/>
+      <c r="B311" s="59"/>
+      <c r="C311" s="59"/>
+      <c r="D311" s="59"/>
+      <c r="E311" s="59"/>
       <c r="G311">
         <f>F310/C310</f>
         <v>2.377202300282041E-2</v>
@@ -6439,14 +6445,14 @@
     </row>
     <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A316" s="58" t="s">
+      <c r="A316" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B316" s="58"/>
-      <c r="C316" s="58"/>
-      <c r="D316" s="58"/>
-      <c r="E316" s="58"/>
-      <c r="F316" s="58"/>
+      <c r="B316" s="59"/>
+      <c r="C316" s="59"/>
+      <c r="D316" s="59"/>
+      <c r="E316" s="59"/>
+      <c r="F316" s="59"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
@@ -6520,13 +6526,13 @@
       <c r="I319" s="10"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320" s="58" t="s">
+      <c r="A320" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B320" s="58"/>
-      <c r="C320" s="58"/>
-      <c r="D320" s="58"/>
-      <c r="E320" s="58"/>
+      <c r="B320" s="59"/>
+      <c r="C320" s="59"/>
+      <c r="D320" s="59"/>
+      <c r="E320" s="59"/>
       <c r="G320">
         <f>F319/C319</f>
         <v>3.4446152719818435E-2</v>
@@ -6594,14 +6600,14 @@
     </row>
     <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A325" s="58" t="s">
+      <c r="A325" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B325" s="58"/>
-      <c r="C325" s="58"/>
-      <c r="D325" s="58"/>
-      <c r="E325" s="58"/>
-      <c r="F325" s="58"/>
+      <c r="B325" s="59"/>
+      <c r="C325" s="59"/>
+      <c r="D325" s="59"/>
+      <c r="E325" s="59"/>
+      <c r="F325" s="59"/>
       <c r="H325">
         <f>E327-E318</f>
         <v>-230</v>
@@ -6679,13 +6685,13 @@
       <c r="I328" s="10"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="58" t="s">
+      <c r="A329" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="B329" s="58"/>
-      <c r="C329" s="58"/>
-      <c r="D329" s="58"/>
-      <c r="E329" s="58"/>
+      <c r="B329" s="59"/>
+      <c r="C329" s="59"/>
+      <c r="D329" s="59"/>
+      <c r="E329" s="59"/>
       <c r="G329">
         <f>F328/C328</f>
         <v>2.3426650098676997E-2</v>
@@ -6750,14 +6756,14 @@
     </row>
     <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A334" s="58" t="s">
+      <c r="A334" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="B334" s="58"/>
-      <c r="C334" s="58"/>
-      <c r="D334" s="58"/>
-      <c r="E334" s="58"/>
-      <c r="F334" s="58"/>
+      <c r="B334" s="59"/>
+      <c r="C334" s="59"/>
+      <c r="D334" s="59"/>
+      <c r="E334" s="59"/>
+      <c r="F334" s="59"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
@@ -6831,13 +6837,13 @@
       <c r="I337" s="10"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" s="58" t="s">
+      <c r="A338" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="B338" s="58"/>
-      <c r="C338" s="58"/>
-      <c r="D338" s="58"/>
-      <c r="E338" s="58"/>
+      <c r="B338" s="59"/>
+      <c r="C338" s="59"/>
+      <c r="D338" s="59"/>
+      <c r="E338" s="59"/>
       <c r="G338">
         <f>F337/C337</f>
         <v>3.330182505635134E-2</v>
@@ -6906,14 +6912,14 @@
     </row>
     <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="58" t="s">
+      <c r="A343" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B343" s="58"/>
-      <c r="C343" s="58"/>
-      <c r="D343" s="58"/>
-      <c r="E343" s="58"/>
-      <c r="F343" s="58"/>
+      <c r="B343" s="59"/>
+      <c r="C343" s="59"/>
+      <c r="D343" s="59"/>
+      <c r="E343" s="59"/>
+      <c r="F343" s="59"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
@@ -6991,13 +6997,13 @@
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="58" t="s">
+      <c r="A347" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B347" s="58"/>
-      <c r="C347" s="58"/>
-      <c r="D347" s="58"/>
-      <c r="E347" s="58"/>
+      <c r="B347" s="59"/>
+      <c r="C347" s="59"/>
+      <c r="D347" s="59"/>
+      <c r="E347" s="59"/>
       <c r="H347">
         <f>F346/C346</f>
         <v>3.1777737425095334E-2</v>
@@ -7062,14 +7068,14 @@
     </row>
     <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="58" t="s">
+      <c r="A352" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B352" s="58"/>
-      <c r="C352" s="58"/>
-      <c r="D352" s="58"/>
-      <c r="E352" s="58"/>
-      <c r="F352" s="58"/>
+      <c r="B352" s="59"/>
+      <c r="C352" s="59"/>
+      <c r="D352" s="59"/>
+      <c r="E352" s="59"/>
+      <c r="F352" s="59"/>
       <c r="I352">
         <f>E354-E345</f>
         <v>750</v>
@@ -7144,13 +7150,13 @@
       <c r="I355" s="10"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" s="58" t="s">
+      <c r="A356" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B356" s="58"/>
-      <c r="C356" s="58"/>
-      <c r="D356" s="58"/>
-      <c r="E356" s="58"/>
+      <c r="B356" s="59"/>
+      <c r="C356" s="59"/>
+      <c r="D356" s="59"/>
+      <c r="E356" s="59"/>
       <c r="H356">
         <f>F355/C355</f>
         <v>3.1826209819851639E-2</v>
@@ -7218,14 +7224,14 @@
     </row>
     <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A361" s="58" t="s">
+      <c r="A361" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="B361" s="58"/>
-      <c r="C361" s="58"/>
-      <c r="D361" s="58"/>
-      <c r="E361" s="58"/>
-      <c r="F361" s="58"/>
+      <c r="B361" s="59"/>
+      <c r="C361" s="59"/>
+      <c r="D361" s="59"/>
+      <c r="E361" s="59"/>
+      <c r="F361" s="59"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
@@ -7299,13 +7305,13 @@
       <c r="I364" s="10"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A365" s="58" t="s">
+      <c r="A365" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="B365" s="58"/>
-      <c r="C365" s="58"/>
-      <c r="D365" s="58"/>
-      <c r="E365" s="58"/>
+      <c r="B365" s="59"/>
+      <c r="C365" s="59"/>
+      <c r="D365" s="59"/>
+      <c r="E365" s="59"/>
       <c r="I365" s="10"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -7374,14 +7380,14 @@
     </row>
     <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A370" s="58" t="s">
+      <c r="A370" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="B370" s="58"/>
-      <c r="C370" s="58"/>
-      <c r="D370" s="58"/>
-      <c r="E370" s="58"/>
-      <c r="F370" s="58"/>
+      <c r="B370" s="59"/>
+      <c r="C370" s="59"/>
+      <c r="D370" s="59"/>
+      <c r="E370" s="59"/>
+      <c r="F370" s="59"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
@@ -7455,13 +7461,13 @@
       <c r="I373" s="10"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="58" t="s">
+      <c r="A374" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B374" s="58"/>
-      <c r="C374" s="58"/>
-      <c r="D374" s="58"/>
-      <c r="E374" s="58"/>
+      <c r="B374" s="59"/>
+      <c r="C374" s="59"/>
+      <c r="D374" s="59"/>
+      <c r="E374" s="59"/>
       <c r="G374">
         <f>F373/C373</f>
         <v>3.0363083020737491E-2</v>
@@ -7530,14 +7536,14 @@
     </row>
     <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A379" s="58" t="s">
+      <c r="A379" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="B379" s="58"/>
-      <c r="C379" s="58"/>
-      <c r="D379" s="58"/>
-      <c r="E379" s="58"/>
-      <c r="F379" s="58"/>
+      <c r="B379" s="59"/>
+      <c r="C379" s="59"/>
+      <c r="D379" s="59"/>
+      <c r="E379" s="59"/>
+      <c r="F379" s="59"/>
       <c r="I379">
         <f>E381-E372</f>
         <v>230</v>
@@ -7612,13 +7618,13 @@
       <c r="I382" s="10"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A383" s="58" t="s">
+      <c r="A383" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B383" s="58"/>
-      <c r="C383" s="58"/>
-      <c r="D383" s="58"/>
-      <c r="E383" s="58"/>
+      <c r="B383" s="59"/>
+      <c r="C383" s="59"/>
+      <c r="D383" s="59"/>
+      <c r="E383" s="59"/>
       <c r="H383">
         <f>F382/C382</f>
         <v>2.9669635968296276E-2</v>
@@ -7687,14 +7693,14 @@
     </row>
     <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A388" s="58" t="s">
+      <c r="A388" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="B388" s="58"/>
-      <c r="C388" s="58"/>
-      <c r="D388" s="58"/>
-      <c r="E388" s="58"/>
-      <c r="F388" s="58"/>
+      <c r="B388" s="59"/>
+      <c r="C388" s="59"/>
+      <c r="D388" s="59"/>
+      <c r="E388" s="59"/>
+      <c r="F388" s="59"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
@@ -7769,13 +7775,13 @@
       <c r="I391" s="10"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A392" s="58" t="s">
+      <c r="A392" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B392" s="58"/>
-      <c r="C392" s="58"/>
-      <c r="D392" s="58"/>
-      <c r="E392" s="58"/>
+      <c r="B392" s="59"/>
+      <c r="C392" s="59"/>
+      <c r="D392" s="59"/>
+      <c r="E392" s="59"/>
       <c r="G392">
         <f>F391/C391</f>
         <v>2.4687004055722096E-2</v>
@@ -7844,14 +7850,14 @@
     </row>
     <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A397" s="58" t="s">
+      <c r="A397" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B397" s="58"/>
-      <c r="C397" s="58"/>
-      <c r="D397" s="58"/>
-      <c r="E397" s="58"/>
-      <c r="F397" s="58"/>
+      <c r="B397" s="59"/>
+      <c r="C397" s="59"/>
+      <c r="D397" s="59"/>
+      <c r="E397" s="59"/>
+      <c r="F397" s="59"/>
       <c r="H397">
         <f>F399/C399</f>
         <v>1.6681599044327831E-2</v>
@@ -7928,13 +7934,13 @@
       <c r="I400" s="10"/>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A401" s="58" t="s">
+      <c r="A401" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B401" s="58"/>
-      <c r="C401" s="58"/>
-      <c r="D401" s="58"/>
-      <c r="E401" s="58"/>
+      <c r="B401" s="59"/>
+      <c r="C401" s="59"/>
+      <c r="D401" s="59"/>
+      <c r="E401" s="59"/>
       <c r="H401">
         <f>F400/C400</f>
         <v>1.4285216542977597E-2</v>
@@ -7999,14 +8005,14 @@
     </row>
     <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A406" s="58" t="s">
+      <c r="A406" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="B406" s="58"/>
-      <c r="C406" s="58"/>
-      <c r="D406" s="58"/>
-      <c r="E406" s="58"/>
-      <c r="F406" s="58"/>
+      <c r="B406" s="59"/>
+      <c r="C406" s="59"/>
+      <c r="D406" s="59"/>
+      <c r="E406" s="59"/>
+      <c r="F406" s="59"/>
       <c r="H406">
         <f>E408-E399</f>
         <v>150</v>
@@ -8081,13 +8087,13 @@
       <c r="I409" s="10"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A410" s="58" t="s">
+      <c r="A410" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="B410" s="58"/>
-      <c r="C410" s="58"/>
-      <c r="D410" s="58"/>
-      <c r="E410" s="58"/>
+      <c r="B410" s="59"/>
+      <c r="C410" s="59"/>
+      <c r="D410" s="59"/>
+      <c r="E410" s="59"/>
       <c r="G410">
         <f>F409/C409</f>
         <v>1.5034453956984757E-2</v>
@@ -8156,14 +8162,14 @@
     </row>
     <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A415" s="58" t="s">
+      <c r="A415" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B415" s="58"/>
-      <c r="C415" s="58"/>
-      <c r="D415" s="58"/>
-      <c r="E415" s="58"/>
-      <c r="F415" s="58"/>
+      <c r="B415" s="59"/>
+      <c r="C415" s="59"/>
+      <c r="D415" s="59"/>
+      <c r="E415" s="59"/>
+      <c r="F415" s="59"/>
       <c r="G415">
         <f>F417/C417</f>
         <v>1.4874628134296642E-2</v>
@@ -8241,13 +8247,13 @@
       <c r="I418" s="10"/>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A419" s="58" t="s">
+      <c r="A419" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B419" s="58"/>
-      <c r="C419" s="58"/>
-      <c r="D419" s="58"/>
-      <c r="E419" s="58"/>
+      <c r="B419" s="59"/>
+      <c r="C419" s="59"/>
+      <c r="D419" s="59"/>
+      <c r="E419" s="59"/>
       <c r="G419">
         <f>F418/C418</f>
         <v>1.5932227025519455E-2</v>
@@ -8312,14 +8318,14 @@
     </row>
     <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A424" s="58" t="s">
+      <c r="A424" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="B424" s="58"/>
-      <c r="C424" s="58"/>
-      <c r="D424" s="58"/>
-      <c r="E424" s="58"/>
-      <c r="F424" s="58"/>
+      <c r="B424" s="59"/>
+      <c r="C424" s="59"/>
+      <c r="D424" s="59"/>
+      <c r="E424" s="59"/>
+      <c r="F424" s="59"/>
       <c r="I424">
         <f>E426-E417</f>
         <v>300</v>
@@ -8394,13 +8400,13 @@
       <c r="I427" s="10"/>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A428" s="58" t="s">
+      <c r="A428" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B428" s="58"/>
-      <c r="C428" s="58"/>
-      <c r="D428" s="58"/>
-      <c r="E428" s="58"/>
+      <c r="B428" s="59"/>
+      <c r="C428" s="59"/>
+      <c r="D428" s="59"/>
+      <c r="E428" s="59"/>
       <c r="I428" s="10"/>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -8468,14 +8474,14 @@
     </row>
     <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="58" t="s">
+      <c r="A433" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="B433" s="58"/>
-      <c r="C433" s="58"/>
-      <c r="D433" s="58"/>
-      <c r="E433" s="58"/>
-      <c r="F433" s="58"/>
+      <c r="B433" s="59"/>
+      <c r="C433" s="59"/>
+      <c r="D433" s="59"/>
+      <c r="E433" s="59"/>
+      <c r="F433" s="59"/>
       <c r="G433">
         <f>F435/C435</f>
         <v>1.7408615358549706E-2</v>
@@ -8550,13 +8556,13 @@
       <c r="I436" s="10"/>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A437" s="58" t="s">
+      <c r="A437" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="B437" s="58"/>
-      <c r="C437" s="58"/>
-      <c r="D437" s="58"/>
-      <c r="E437" s="58"/>
+      <c r="B437" s="59"/>
+      <c r="C437" s="59"/>
+      <c r="D437" s="59"/>
+      <c r="E437" s="59"/>
       <c r="G437">
         <f>F436/C436</f>
         <v>9.4623061781261876E-3</v>
@@ -8625,14 +8631,14 @@
     </row>
     <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A442" s="58" t="s">
+      <c r="A442" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B442" s="58"/>
-      <c r="C442" s="58"/>
-      <c r="D442" s="58"/>
-      <c r="E442" s="58"/>
-      <c r="F442" s="58"/>
+      <c r="B442" s="59"/>
+      <c r="C442" s="59"/>
+      <c r="D442" s="59"/>
+      <c r="E442" s="59"/>
+      <c r="F442" s="59"/>
       <c r="G442">
         <f>F444/C444</f>
         <v>1.0817975798520545E-2</v>
@@ -8712,13 +8718,13 @@
       <c r="I445" s="10"/>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A446" s="58" t="s">
+      <c r="A446" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B446" s="58"/>
-      <c r="C446" s="58"/>
-      <c r="D446" s="58"/>
-      <c r="E446" s="58"/>
+      <c r="B446" s="59"/>
+      <c r="C446" s="59"/>
+      <c r="D446" s="59"/>
+      <c r="E446" s="59"/>
       <c r="G446">
         <f>F445/C445</f>
         <v>1.6382373845060413E-2</v>
@@ -8783,14 +8789,14 @@
     </row>
     <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A451" s="58" t="s">
+      <c r="A451" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B451" s="58"/>
-      <c r="C451" s="58"/>
-      <c r="D451" s="58"/>
-      <c r="E451" s="58"/>
-      <c r="F451" s="58"/>
+      <c r="B451" s="59"/>
+      <c r="C451" s="59"/>
+      <c r="D451" s="59"/>
+      <c r="E451" s="59"/>
+      <c r="F451" s="59"/>
       <c r="G451">
         <f>F453/C453</f>
         <v>1.8699532511687208E-2</v>
@@ -8865,13 +8871,13 @@
       <c r="I454" s="10"/>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A455" s="58" t="s">
+      <c r="A455" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B455" s="58"/>
-      <c r="C455" s="58"/>
-      <c r="D455" s="58"/>
-      <c r="E455" s="58"/>
+      <c r="B455" s="59"/>
+      <c r="C455" s="59"/>
+      <c r="D455" s="59"/>
+      <c r="E455" s="59"/>
       <c r="G455">
         <f>F454/C454</f>
         <v>8.4291187739463595E-3</v>
@@ -8939,14 +8945,14 @@
     </row>
     <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A460" s="58" t="s">
+      <c r="A460" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="B460" s="58"/>
-      <c r="C460" s="58"/>
-      <c r="D460" s="58"/>
-      <c r="E460" s="58"/>
-      <c r="F460" s="58"/>
+      <c r="B460" s="59"/>
+      <c r="C460" s="59"/>
+      <c r="D460" s="59"/>
+      <c r="E460" s="59"/>
+      <c r="F460" s="59"/>
       <c r="G460">
         <f>F462/C462</f>
         <v>1.5754384474924624E-2</v>
@@ -9021,13 +9027,13 @@
       <c r="I463" s="10"/>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A464" s="58" t="s">
+      <c r="A464" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="B464" s="58"/>
-      <c r="C464" s="58"/>
-      <c r="D464" s="58"/>
-      <c r="E464" s="58"/>
+      <c r="B464" s="59"/>
+      <c r="C464" s="59"/>
+      <c r="D464" s="59"/>
+      <c r="E464" s="59"/>
       <c r="G464">
         <f>F463/C463</f>
         <v>2.4972702617026523E-2</v>
@@ -9096,14 +9102,14 @@
     </row>
     <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A469" s="58" t="s">
+      <c r="A469" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="B469" s="58"/>
-      <c r="C469" s="58"/>
-      <c r="D469" s="58"/>
-      <c r="E469" s="58"/>
-      <c r="F469" s="58"/>
+      <c r="B469" s="59"/>
+      <c r="C469" s="59"/>
+      <c r="D469" s="59"/>
+      <c r="E469" s="59"/>
+      <c r="F469" s="59"/>
       <c r="H469">
         <f>E471-E462</f>
         <v>120</v>
@@ -9178,13 +9184,13 @@
       <c r="I472" s="10"/>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A473" s="58" t="s">
+      <c r="A473" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="B473" s="58"/>
-      <c r="C473" s="58"/>
-      <c r="D473" s="58"/>
-      <c r="E473" s="58"/>
+      <c r="B473" s="59"/>
+      <c r="C473" s="59"/>
+      <c r="D473" s="59"/>
+      <c r="E473" s="59"/>
       <c r="G473">
         <f>F472/C472</f>
         <v>2.6497085320614733E-2</v>
@@ -9253,14 +9259,14 @@
     </row>
     <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A478" s="58" t="s">
+      <c r="A478" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="B478" s="58"/>
-      <c r="C478" s="58"/>
-      <c r="D478" s="58"/>
-      <c r="E478" s="58"/>
-      <c r="F478" s="58"/>
+      <c r="B478" s="59"/>
+      <c r="C478" s="59"/>
+      <c r="D478" s="59"/>
+      <c r="E478" s="59"/>
+      <c r="F478" s="59"/>
       <c r="G478">
         <f>F480/C480</f>
         <v>2.2910479422995334E-2</v>
@@ -9335,13 +9341,13 @@
       <c r="I481" s="10"/>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A482" s="58" t="s">
+      <c r="A482" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B482" s="58"/>
-      <c r="C482" s="58"/>
-      <c r="D482" s="58"/>
-      <c r="E482" s="58"/>
+      <c r="B482" s="59"/>
+      <c r="C482" s="59"/>
+      <c r="D482" s="59"/>
+      <c r="E482" s="59"/>
       <c r="F482" s="34"/>
       <c r="G482">
         <f>F481/C481</f>
@@ -9413,14 +9419,14 @@
     </row>
     <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A487" s="58" t="s">
+      <c r="A487" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="B487" s="58"/>
-      <c r="C487" s="58"/>
-      <c r="D487" s="58"/>
-      <c r="E487" s="58"/>
-      <c r="F487" s="58"/>
+      <c r="B487" s="59"/>
+      <c r="C487" s="59"/>
+      <c r="D487" s="59"/>
+      <c r="E487" s="59"/>
+      <c r="F487" s="59"/>
       <c r="I487">
         <f>E489-E480</f>
         <v>230</v>
@@ -9495,13 +9501,13 @@
       <c r="I490" s="10"/>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A491" s="58" t="s">
+      <c r="A491" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B491" s="58"/>
-      <c r="C491" s="58"/>
-      <c r="D491" s="58"/>
-      <c r="E491" s="58"/>
+      <c r="B491" s="59"/>
+      <c r="C491" s="59"/>
+      <c r="D491" s="59"/>
+      <c r="E491" s="59"/>
       <c r="F491" s="34"/>
       <c r="H491">
         <f>F490/C490</f>
@@ -9572,14 +9578,14 @@
     </row>
     <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A496" s="58" t="s">
+      <c r="A496" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="B496" s="58"/>
-      <c r="C496" s="58"/>
-      <c r="D496" s="58"/>
-      <c r="E496" s="58"/>
-      <c r="F496" s="58"/>
+      <c r="B496" s="59"/>
+      <c r="C496" s="59"/>
+      <c r="D496" s="59"/>
+      <c r="E496" s="59"/>
+      <c r="F496" s="59"/>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
@@ -9654,13 +9660,13 @@
       <c r="I499" s="10"/>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A500" s="58" t="s">
+      <c r="A500" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B500" s="58"/>
-      <c r="C500" s="58"/>
-      <c r="D500" s="58"/>
-      <c r="E500" s="58"/>
+      <c r="B500" s="59"/>
+      <c r="C500" s="59"/>
+      <c r="D500" s="59"/>
+      <c r="E500" s="59"/>
       <c r="F500" s="34"/>
       <c r="G500">
         <f>F499/C499</f>
@@ -9732,14 +9738,14 @@
     </row>
     <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A505" s="58" t="s">
+      <c r="A505" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="B505" s="58"/>
-      <c r="C505" s="58"/>
-      <c r="D505" s="58"/>
-      <c r="E505" s="58"/>
-      <c r="F505" s="58"/>
+      <c r="B505" s="59"/>
+      <c r="C505" s="59"/>
+      <c r="D505" s="59"/>
+      <c r="E505" s="59"/>
+      <c r="F505" s="59"/>
       <c r="G505">
         <f>F507/C507</f>
         <v>8.3248386000679582E-3</v>
@@ -9815,13 +9821,13 @@
       <c r="I508" s="10"/>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A509" s="58" t="s">
+      <c r="A509" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B509" s="58"/>
-      <c r="C509" s="58"/>
-      <c r="D509" s="58"/>
-      <c r="E509" s="58"/>
+      <c r="B509" s="59"/>
+      <c r="C509" s="59"/>
+      <c r="D509" s="59"/>
+      <c r="E509" s="59"/>
       <c r="F509" s="34"/>
       <c r="G509">
         <f>F508/C508</f>
@@ -9896,14 +9902,14 @@
     </row>
     <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A514" s="58" t="s">
+      <c r="A514" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="B514" s="58"/>
-      <c r="C514" s="58"/>
-      <c r="D514" s="58"/>
-      <c r="E514" s="58"/>
-      <c r="F514" s="58"/>
+      <c r="B514" s="59"/>
+      <c r="C514" s="59"/>
+      <c r="D514" s="59"/>
+      <c r="E514" s="59"/>
+      <c r="F514" s="59"/>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
@@ -9974,13 +9980,13 @@
       <c r="I517" s="10"/>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A518" s="58" t="s">
+      <c r="A518" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="B518" s="58"/>
-      <c r="C518" s="58"/>
-      <c r="D518" s="58"/>
-      <c r="E518" s="58"/>
+      <c r="B518" s="59"/>
+      <c r="C518" s="59"/>
+      <c r="D518" s="59"/>
+      <c r="E518" s="59"/>
       <c r="F518" s="34"/>
       <c r="I518" s="10"/>
     </row>
@@ -10047,14 +10053,14 @@
     </row>
     <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A523" s="58" t="s">
+      <c r="A523" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B523" s="58"/>
-      <c r="C523" s="58"/>
-      <c r="D523" s="58"/>
-      <c r="E523" s="58"/>
-      <c r="F523" s="58"/>
+      <c r="B523" s="59"/>
+      <c r="C523" s="59"/>
+      <c r="D523" s="59"/>
+      <c r="E523" s="59"/>
+      <c r="F523" s="59"/>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
@@ -10122,13 +10128,13 @@
       <c r="I526" s="10"/>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A527" s="58" t="s">
+      <c r="A527" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="B527" s="58"/>
-      <c r="C527" s="58"/>
-      <c r="D527" s="58"/>
-      <c r="E527" s="58"/>
+      <c r="B527" s="59"/>
+      <c r="C527" s="59"/>
+      <c r="D527" s="59"/>
+      <c r="E527" s="59"/>
       <c r="F527" s="34"/>
       <c r="I527" s="10"/>
     </row>
@@ -10192,14 +10198,14 @@
     </row>
     <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A534" s="58" t="s">
+      <c r="A534" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="B534" s="58"/>
-      <c r="C534" s="58"/>
-      <c r="D534" s="58"/>
-      <c r="E534" s="58"/>
-      <c r="F534" s="58"/>
+      <c r="B534" s="59"/>
+      <c r="C534" s="59"/>
+      <c r="D534" s="59"/>
+      <c r="E534" s="59"/>
+      <c r="F534" s="59"/>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
@@ -10244,13 +10250,13 @@
       <c r="I537" s="10"/>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A538" s="58" t="s">
+      <c r="A538" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="B538" s="58"/>
-      <c r="C538" s="58"/>
-      <c r="D538" s="58"/>
-      <c r="E538" s="58"/>
+      <c r="B538" s="59"/>
+      <c r="C538" s="59"/>
+      <c r="D538" s="59"/>
+      <c r="E538" s="59"/>
       <c r="F538" s="34"/>
       <c r="I538" s="10"/>
     </row>
@@ -10298,14 +10304,14 @@
     </row>
     <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A545" s="58" t="s">
+      <c r="A545" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B545" s="58"/>
-      <c r="C545" s="58"/>
-      <c r="D545" s="58"/>
-      <c r="E545" s="58"/>
-      <c r="F545" s="58"/>
+      <c r="B545" s="59"/>
+      <c r="C545" s="59"/>
+      <c r="D545" s="59"/>
+      <c r="E545" s="59"/>
+      <c r="F545" s="59"/>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
@@ -10361,13 +10367,13 @@
       <c r="I548" s="10"/>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A549" s="58" t="s">
+      <c r="A549" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B549" s="58"/>
-      <c r="C549" s="58"/>
-      <c r="D549" s="58"/>
-      <c r="E549" s="58"/>
+      <c r="B549" s="59"/>
+      <c r="C549" s="59"/>
+      <c r="D549" s="59"/>
+      <c r="E549" s="59"/>
       <c r="F549" s="34"/>
       <c r="I549" s="10"/>
     </row>
@@ -10423,14 +10429,14 @@
     </row>
     <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A556" s="58" t="s">
+      <c r="A556" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="B556" s="58"/>
-      <c r="C556" s="58"/>
-      <c r="D556" s="58"/>
-      <c r="E556" s="58"/>
-      <c r="F556" s="58"/>
+      <c r="B556" s="59"/>
+      <c r="C556" s="59"/>
+      <c r="D556" s="59"/>
+      <c r="E556" s="59"/>
+      <c r="F556" s="59"/>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
@@ -10506,13 +10512,13 @@
       <c r="I559" s="10"/>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A560" s="58" t="s">
+      <c r="A560" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B560" s="58"/>
-      <c r="C560" s="58"/>
-      <c r="D560" s="58"/>
-      <c r="E560" s="58"/>
+      <c r="B560" s="59"/>
+      <c r="C560" s="59"/>
+      <c r="D560" s="59"/>
+      <c r="E560" s="59"/>
       <c r="F560" s="34"/>
       <c r="I560" s="10"/>
     </row>
@@ -10576,14 +10582,14 @@
     </row>
     <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A566" s="58" t="s">
+      <c r="A566" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B566" s="58"/>
-      <c r="C566" s="58"/>
-      <c r="D566" s="58"/>
-      <c r="E566" s="58"/>
-      <c r="F566" s="58"/>
+      <c r="B566" s="59"/>
+      <c r="C566" s="59"/>
+      <c r="D566" s="59"/>
+      <c r="E566" s="59"/>
+      <c r="F566" s="59"/>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
@@ -10650,13 +10656,13 @@
       <c r="I569" s="10"/>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A570" s="58" t="s">
+      <c r="A570" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="B570" s="58"/>
-      <c r="C570" s="58"/>
-      <c r="D570" s="58"/>
-      <c r="E570" s="58"/>
+      <c r="B570" s="59"/>
+      <c r="C570" s="59"/>
+      <c r="D570" s="59"/>
+      <c r="E570" s="59"/>
       <c r="F570" s="34"/>
       <c r="I570" s="10"/>
     </row>
@@ -10720,14 +10726,14 @@
     </row>
     <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A576" s="58" t="s">
+      <c r="A576" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B576" s="58"/>
-      <c r="C576" s="58"/>
-      <c r="D576" s="58"/>
-      <c r="E576" s="58"/>
-      <c r="F576" s="58"/>
+      <c r="B576" s="59"/>
+      <c r="C576" s="59"/>
+      <c r="D576" s="59"/>
+      <c r="E576" s="59"/>
+      <c r="F576" s="59"/>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
@@ -10794,13 +10800,13 @@
       <c r="I579" s="10"/>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A580" s="58" t="s">
+      <c r="A580" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B580" s="58"/>
-      <c r="C580" s="58"/>
-      <c r="D580" s="58"/>
-      <c r="E580" s="58"/>
+      <c r="B580" s="59"/>
+      <c r="C580" s="59"/>
+      <c r="D580" s="59"/>
+      <c r="E580" s="59"/>
       <c r="F580" s="34"/>
       <c r="I580" s="10"/>
     </row>
@@ -10864,14 +10870,14 @@
     </row>
     <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A586" s="58" t="s">
+      <c r="A586" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B586" s="58"/>
-      <c r="C586" s="58"/>
-      <c r="D586" s="58"/>
-      <c r="E586" s="58"/>
-      <c r="F586" s="58"/>
+      <c r="B586" s="59"/>
+      <c r="C586" s="59"/>
+      <c r="D586" s="59"/>
+      <c r="E586" s="59"/>
+      <c r="F586" s="59"/>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
@@ -10938,13 +10944,13 @@
       <c r="I589" s="10"/>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A590" s="58" t="s">
+      <c r="A590" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="B590" s="58"/>
-      <c r="C590" s="58"/>
-      <c r="D590" s="58"/>
-      <c r="E590" s="58"/>
+      <c r="B590" s="59"/>
+      <c r="C590" s="59"/>
+      <c r="D590" s="59"/>
+      <c r="E590" s="59"/>
       <c r="F590" s="34"/>
       <c r="I590" s="10"/>
     </row>
@@ -11008,14 +11014,14 @@
     </row>
     <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A596" s="58" t="s">
+      <c r="A596" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="B596" s="58"/>
-      <c r="C596" s="58"/>
-      <c r="D596" s="58"/>
-      <c r="E596" s="58"/>
-      <c r="F596" s="58"/>
+      <c r="B596" s="59"/>
+      <c r="C596" s="59"/>
+      <c r="D596" s="59"/>
+      <c r="E596" s="59"/>
+      <c r="F596" s="59"/>
       <c r="I596">
         <f>E598-E588</f>
         <v>140</v>
@@ -11090,13 +11096,13 @@
       <c r="I599" s="10"/>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A600" s="58" t="s">
+      <c r="A600" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="B600" s="58"/>
-      <c r="C600" s="58"/>
-      <c r="D600" s="58"/>
-      <c r="E600" s="58"/>
+      <c r="B600" s="59"/>
+      <c r="C600" s="59"/>
+      <c r="D600" s="59"/>
+      <c r="E600" s="59"/>
       <c r="F600" s="34"/>
       <c r="G600">
         <f>F599/C599</f>
@@ -11167,14 +11173,14 @@
     </row>
     <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A606" s="58" t="s">
+      <c r="A606" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="B606" s="58"/>
-      <c r="C606" s="58"/>
-      <c r="D606" s="58"/>
-      <c r="E606" s="58"/>
-      <c r="F606" s="58"/>
+      <c r="B606" s="59"/>
+      <c r="C606" s="59"/>
+      <c r="D606" s="59"/>
+      <c r="E606" s="59"/>
+      <c r="F606" s="59"/>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
@@ -11241,13 +11247,13 @@
       <c r="I609" s="10"/>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A610" s="58" t="s">
+      <c r="A610" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="B610" s="58"/>
-      <c r="C610" s="58"/>
-      <c r="D610" s="58"/>
-      <c r="E610" s="58"/>
+      <c r="B610" s="59"/>
+      <c r="C610" s="59"/>
+      <c r="D610" s="59"/>
+      <c r="E610" s="59"/>
       <c r="F610" s="34"/>
       <c r="I610" s="10"/>
     </row>
@@ -11311,14 +11317,14 @@
     </row>
     <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A616" s="58" t="s">
+      <c r="A616" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="B616" s="58"/>
-      <c r="C616" s="58"/>
-      <c r="D616" s="58"/>
-      <c r="E616" s="58"/>
-      <c r="F616" s="58"/>
+      <c r="B616" s="59"/>
+      <c r="C616" s="59"/>
+      <c r="D616" s="59"/>
+      <c r="E616" s="59"/>
+      <c r="F616" s="59"/>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
@@ -11385,13 +11391,13 @@
       <c r="I619" s="10"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A620" s="58" t="s">
+      <c r="A620" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B620" s="58"/>
-      <c r="C620" s="58"/>
-      <c r="D620" s="58"/>
-      <c r="E620" s="58"/>
+      <c r="B620" s="59"/>
+      <c r="C620" s="59"/>
+      <c r="D620" s="59"/>
+      <c r="E620" s="59"/>
       <c r="F620" s="34"/>
       <c r="I620" s="10"/>
     </row>
@@ -11455,14 +11461,14 @@
     </row>
     <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A626" s="58" t="s">
+      <c r="A626" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="B626" s="58"/>
-      <c r="C626" s="58"/>
-      <c r="D626" s="58"/>
-      <c r="E626" s="58"/>
-      <c r="F626" s="58"/>
+      <c r="B626" s="59"/>
+      <c r="C626" s="59"/>
+      <c r="D626" s="59"/>
+      <c r="E626" s="59"/>
+      <c r="F626" s="59"/>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
@@ -11529,13 +11535,13 @@
       <c r="I629" s="10"/>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A630" s="58" t="s">
+      <c r="A630" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="B630" s="58"/>
-      <c r="C630" s="58"/>
-      <c r="D630" s="58"/>
-      <c r="E630" s="58"/>
+      <c r="B630" s="59"/>
+      <c r="C630" s="59"/>
+      <c r="D630" s="59"/>
+      <c r="E630" s="59"/>
       <c r="F630" s="34"/>
       <c r="I630" s="10"/>
     </row>
@@ -11599,14 +11605,14 @@
     </row>
     <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A636" s="58" t="s">
+      <c r="A636" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="B636" s="58"/>
-      <c r="C636" s="58"/>
-      <c r="D636" s="58"/>
-      <c r="E636" s="58"/>
-      <c r="F636" s="58"/>
+      <c r="B636" s="59"/>
+      <c r="C636" s="59"/>
+      <c r="D636" s="59"/>
+      <c r="E636" s="59"/>
+      <c r="F636" s="59"/>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
@@ -11673,13 +11679,13 @@
       <c r="I639" s="10"/>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A640" s="58" t="s">
+      <c r="A640" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="B640" s="58"/>
-      <c r="C640" s="58"/>
-      <c r="D640" s="58"/>
-      <c r="E640" s="58"/>
+      <c r="B640" s="59"/>
+      <c r="C640" s="59"/>
+      <c r="D640" s="59"/>
+      <c r="E640" s="59"/>
       <c r="F640" s="34"/>
       <c r="I640" s="10"/>
     </row>
@@ -11743,14 +11749,14 @@
     </row>
     <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A646" s="58" t="s">
+      <c r="A646" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="B646" s="58"/>
-      <c r="C646" s="58"/>
-      <c r="D646" s="58"/>
-      <c r="E646" s="58"/>
-      <c r="F646" s="58"/>
+      <c r="B646" s="59"/>
+      <c r="C646" s="59"/>
+      <c r="D646" s="59"/>
+      <c r="E646" s="59"/>
+      <c r="F646" s="59"/>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
@@ -11817,13 +11823,13 @@
       <c r="I649" s="10"/>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A650" s="58" t="s">
+      <c r="A650" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="B650" s="58"/>
-      <c r="C650" s="58"/>
-      <c r="D650" s="58"/>
-      <c r="E650" s="58"/>
+      <c r="B650" s="59"/>
+      <c r="C650" s="59"/>
+      <c r="D650" s="59"/>
+      <c r="E650" s="59"/>
       <c r="F650" s="34"/>
       <c r="I650" s="10"/>
     </row>
@@ -11887,14 +11893,14 @@
     </row>
     <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A656" s="58" t="s">
+      <c r="A656" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B656" s="58"/>
-      <c r="C656" s="58"/>
-      <c r="D656" s="58"/>
-      <c r="E656" s="58"/>
-      <c r="F656" s="58"/>
+      <c r="B656" s="59"/>
+      <c r="C656" s="59"/>
+      <c r="D656" s="59"/>
+      <c r="E656" s="59"/>
+      <c r="F656" s="59"/>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
@@ -11961,13 +11967,13 @@
       <c r="I659" s="10"/>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A660" s="58" t="s">
+      <c r="A660" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="B660" s="58"/>
-      <c r="C660" s="58"/>
-      <c r="D660" s="58"/>
-      <c r="E660" s="58"/>
+      <c r="B660" s="59"/>
+      <c r="C660" s="59"/>
+      <c r="D660" s="59"/>
+      <c r="E660" s="59"/>
       <c r="F660" s="34"/>
       <c r="I660" s="10"/>
     </row>
@@ -12038,14 +12044,14 @@
       <c r="F665" s="6"/>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A666" s="58" t="s">
+      <c r="A666" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B666" s="58"/>
-      <c r="C666" s="58"/>
-      <c r="D666" s="58"/>
-      <c r="E666" s="58"/>
-      <c r="F666" s="58"/>
+      <c r="B666" s="59"/>
+      <c r="C666" s="59"/>
+      <c r="D666" s="59"/>
+      <c r="E666" s="59"/>
+      <c r="F666" s="59"/>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
@@ -12106,13 +12112,13 @@
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A670" s="58" t="s">
+      <c r="A670" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B670" s="58"/>
-      <c r="C670" s="58"/>
-      <c r="D670" s="58"/>
-      <c r="E670" s="58"/>
+      <c r="B670" s="59"/>
+      <c r="C670" s="59"/>
+      <c r="D670" s="59"/>
+      <c r="E670" s="59"/>
       <c r="F670" s="34"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
@@ -12176,14 +12182,14 @@
       <c r="F675" s="6"/>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A676" s="58" t="s">
+      <c r="A676" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="B676" s="58"/>
-      <c r="C676" s="58"/>
-      <c r="D676" s="58"/>
-      <c r="E676" s="58"/>
-      <c r="F676" s="58"/>
+      <c r="B676" s="59"/>
+      <c r="C676" s="59"/>
+      <c r="D676" s="59"/>
+      <c r="E676" s="59"/>
+      <c r="F676" s="59"/>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
@@ -12245,13 +12251,13 @@
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A680" s="58" t="s">
+      <c r="A680" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="B680" s="58"/>
-      <c r="C680" s="58"/>
-      <c r="D680" s="58"/>
-      <c r="E680" s="58"/>
+      <c r="B680" s="59"/>
+      <c r="C680" s="59"/>
+      <c r="D680" s="59"/>
+      <c r="E680" s="59"/>
       <c r="F680" s="34"/>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
@@ -12319,14 +12325,14 @@
       <c r="F685" s="6"/>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A686" s="58" t="s">
+      <c r="A686" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="B686" s="58"/>
-      <c r="C686" s="58"/>
-      <c r="D686" s="58"/>
-      <c r="E686" s="58"/>
-      <c r="F686" s="58"/>
+      <c r="B686" s="59"/>
+      <c r="C686" s="59"/>
+      <c r="D686" s="59"/>
+      <c r="E686" s="59"/>
+      <c r="F686" s="59"/>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
@@ -12387,13 +12393,13 @@
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A690" s="58" t="s">
+      <c r="A690" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="B690" s="58"/>
-      <c r="C690" s="58"/>
-      <c r="D690" s="58"/>
-      <c r="E690" s="58"/>
+      <c r="B690" s="59"/>
+      <c r="C690" s="59"/>
+      <c r="D690" s="59"/>
+      <c r="E690" s="59"/>
       <c r="F690" s="34"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
@@ -12457,14 +12463,14 @@
       <c r="F695" s="6"/>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A696" s="58" t="s">
+      <c r="A696" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="B696" s="58"/>
-      <c r="C696" s="58"/>
-      <c r="D696" s="58"/>
-      <c r="E696" s="58"/>
-      <c r="F696" s="58"/>
+      <c r="B696" s="59"/>
+      <c r="C696" s="59"/>
+      <c r="D696" s="59"/>
+      <c r="E696" s="59"/>
+      <c r="F696" s="59"/>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
@@ -12525,13 +12531,13 @@
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A700" s="58" t="s">
+      <c r="A700" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="B700" s="58"/>
-      <c r="C700" s="58"/>
-      <c r="D700" s="58"/>
-      <c r="E700" s="58"/>
+      <c r="B700" s="59"/>
+      <c r="C700" s="59"/>
+      <c r="D700" s="59"/>
+      <c r="E700" s="59"/>
       <c r="F700" s="34"/>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
@@ -12599,14 +12605,14 @@
       <c r="F705" s="6"/>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A706" s="58" t="s">
+      <c r="A706" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="B706" s="58"/>
-      <c r="C706" s="58"/>
-      <c r="D706" s="58"/>
-      <c r="E706" s="58"/>
-      <c r="F706" s="58"/>
+      <c r="B706" s="59"/>
+      <c r="C706" s="59"/>
+      <c r="D706" s="59"/>
+      <c r="E706" s="59"/>
+      <c r="F706" s="59"/>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
@@ -12667,13 +12673,13 @@
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A710" s="58" t="s">
+      <c r="A710" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B710" s="58"/>
-      <c r="C710" s="58"/>
-      <c r="D710" s="58"/>
-      <c r="E710" s="58"/>
+      <c r="B710" s="59"/>
+      <c r="C710" s="59"/>
+      <c r="D710" s="59"/>
+      <c r="E710" s="59"/>
       <c r="F710" s="34"/>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -12737,14 +12743,14 @@
       <c r="F715" s="6"/>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A716" s="58" t="s">
+      <c r="A716" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="B716" s="58"/>
-      <c r="C716" s="58"/>
-      <c r="D716" s="58"/>
-      <c r="E716" s="58"/>
-      <c r="F716" s="58"/>
+      <c r="B716" s="59"/>
+      <c r="C716" s="59"/>
+      <c r="D716" s="59"/>
+      <c r="E716" s="59"/>
+      <c r="F716" s="59"/>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
@@ -12805,13 +12811,13 @@
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A720" s="58" t="s">
+      <c r="A720" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="B720" s="58"/>
-      <c r="C720" s="58"/>
-      <c r="D720" s="58"/>
-      <c r="E720" s="58"/>
+      <c r="B720" s="59"/>
+      <c r="C720" s="59"/>
+      <c r="D720" s="59"/>
+      <c r="E720" s="59"/>
       <c r="F720" s="34"/>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
@@ -12875,14 +12881,14 @@
       <c r="F725" s="6"/>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A726" s="58" t="s">
+      <c r="A726" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="B726" s="58"/>
-      <c r="C726" s="58"/>
-      <c r="D726" s="58"/>
-      <c r="E726" s="58"/>
-      <c r="F726" s="58"/>
+      <c r="B726" s="59"/>
+      <c r="C726" s="59"/>
+      <c r="D726" s="59"/>
+      <c r="E726" s="59"/>
+      <c r="F726" s="59"/>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
@@ -12943,13 +12949,13 @@
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A730" s="58" t="s">
+      <c r="A730" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B730" s="58"/>
-      <c r="C730" s="58"/>
-      <c r="D730" s="58"/>
-      <c r="E730" s="58"/>
+      <c r="B730" s="59"/>
+      <c r="C730" s="59"/>
+      <c r="D730" s="59"/>
+      <c r="E730" s="59"/>
       <c r="F730" s="34"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
@@ -13013,14 +13019,14 @@
       <c r="F735" s="6"/>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A736" s="58" t="s">
+      <c r="A736" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="B736" s="58"/>
-      <c r="C736" s="58"/>
-      <c r="D736" s="58"/>
-      <c r="E736" s="58"/>
-      <c r="F736" s="58"/>
+      <c r="B736" s="59"/>
+      <c r="C736" s="59"/>
+      <c r="D736" s="59"/>
+      <c r="E736" s="59"/>
+      <c r="F736" s="59"/>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
@@ -13081,13 +13087,13 @@
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A740" s="58" t="s">
+      <c r="A740" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="B740" s="58"/>
-      <c r="C740" s="58"/>
-      <c r="D740" s="58"/>
-      <c r="E740" s="58"/>
+      <c r="B740" s="59"/>
+      <c r="C740" s="59"/>
+      <c r="D740" s="59"/>
+      <c r="E740" s="59"/>
       <c r="F740" s="34"/>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
@@ -13151,14 +13157,14 @@
       <c r="F747" s="6"/>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A748" s="58" t="s">
+      <c r="A748" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="B748" s="58"/>
-      <c r="C748" s="58"/>
-      <c r="D748" s="58"/>
-      <c r="E748" s="58"/>
-      <c r="F748" s="58"/>
+      <c r="B748" s="59"/>
+      <c r="C748" s="59"/>
+      <c r="D748" s="59"/>
+      <c r="E748" s="59"/>
+      <c r="F748" s="59"/>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
@@ -13219,13 +13225,13 @@
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A752" s="58" t="s">
+      <c r="A752" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="B752" s="58"/>
-      <c r="C752" s="58"/>
-      <c r="D752" s="58"/>
-      <c r="E752" s="58"/>
+      <c r="B752" s="59"/>
+      <c r="C752" s="59"/>
+      <c r="D752" s="59"/>
+      <c r="E752" s="59"/>
       <c r="F752" s="34"/>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
@@ -13289,14 +13295,14 @@
       <c r="F758" s="6"/>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A759" s="58" t="s">
+      <c r="A759" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="B759" s="58"/>
-      <c r="C759" s="58"/>
-      <c r="D759" s="58"/>
-      <c r="E759" s="58"/>
-      <c r="F759" s="58"/>
+      <c r="B759" s="59"/>
+      <c r="C759" s="59"/>
+      <c r="D759" s="59"/>
+      <c r="E759" s="59"/>
+      <c r="F759" s="59"/>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
@@ -13357,13 +13363,13 @@
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A763" s="58" t="s">
+      <c r="A763" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="B763" s="58"/>
-      <c r="C763" s="58"/>
-      <c r="D763" s="58"/>
-      <c r="E763" s="58"/>
+      <c r="B763" s="59"/>
+      <c r="C763" s="59"/>
+      <c r="D763" s="59"/>
+      <c r="E763" s="59"/>
       <c r="F763" s="34"/>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
@@ -13427,14 +13433,14 @@
       <c r="F769" s="6"/>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A770" s="58" t="s">
+      <c r="A770" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="B770" s="58"/>
-      <c r="C770" s="58"/>
-      <c r="D770" s="58"/>
-      <c r="E770" s="58"/>
-      <c r="F770" s="58"/>
+      <c r="B770" s="59"/>
+      <c r="C770" s="59"/>
+      <c r="D770" s="59"/>
+      <c r="E770" s="59"/>
+      <c r="F770" s="59"/>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
@@ -13495,13 +13501,13 @@
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A774" s="58" t="s">
+      <c r="A774" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="B774" s="58"/>
-      <c r="C774" s="58"/>
-      <c r="D774" s="58"/>
-      <c r="E774" s="58"/>
+      <c r="B774" s="59"/>
+      <c r="C774" s="59"/>
+      <c r="D774" s="59"/>
+      <c r="E774" s="59"/>
       <c r="F774" s="34"/>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -13565,14 +13571,14 @@
       <c r="F780" s="6"/>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A781" s="58" t="s">
+      <c r="A781" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="B781" s="58"/>
-      <c r="C781" s="58"/>
-      <c r="D781" s="58"/>
-      <c r="E781" s="58"/>
-      <c r="F781" s="58"/>
+      <c r="B781" s="59"/>
+      <c r="C781" s="59"/>
+      <c r="D781" s="59"/>
+      <c r="E781" s="59"/>
+      <c r="F781" s="59"/>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
@@ -13633,13 +13639,13 @@
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785" s="58" t="s">
+      <c r="A785" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="B785" s="58"/>
-      <c r="C785" s="58"/>
-      <c r="D785" s="58"/>
-      <c r="E785" s="58"/>
+      <c r="B785" s="59"/>
+      <c r="C785" s="59"/>
+      <c r="D785" s="59"/>
+      <c r="E785" s="59"/>
       <c r="F785" s="34"/>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
@@ -13703,14 +13709,14 @@
       <c r="F791" s="6"/>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A792" s="58" t="s">
+      <c r="A792" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="B792" s="58"/>
-      <c r="C792" s="58"/>
-      <c r="D792" s="58"/>
-      <c r="E792" s="58"/>
-      <c r="F792" s="58"/>
+      <c r="B792" s="59"/>
+      <c r="C792" s="59"/>
+      <c r="D792" s="59"/>
+      <c r="E792" s="59"/>
+      <c r="F792" s="59"/>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
@@ -13771,13 +13777,13 @@
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A796" s="58" t="s">
+      <c r="A796" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B796" s="58"/>
-      <c r="C796" s="58"/>
-      <c r="D796" s="58"/>
-      <c r="E796" s="58"/>
+      <c r="B796" s="59"/>
+      <c r="C796" s="59"/>
+      <c r="D796" s="59"/>
+      <c r="E796" s="59"/>
       <c r="F796" s="34"/>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
@@ -13847,14 +13853,14 @@
       <c r="F802" s="6"/>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A803" s="58" t="s">
+      <c r="A803" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="B803" s="58"/>
-      <c r="C803" s="58"/>
-      <c r="D803" s="58"/>
-      <c r="E803" s="58"/>
-      <c r="F803" s="58"/>
+      <c r="B803" s="59"/>
+      <c r="C803" s="59"/>
+      <c r="D803" s="59"/>
+      <c r="E803" s="59"/>
+      <c r="F803" s="59"/>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
@@ -13915,13 +13921,13 @@
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A807" s="58" t="s">
+      <c r="A807" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B807" s="58"/>
-      <c r="C807" s="58"/>
-      <c r="D807" s="58"/>
-      <c r="E807" s="58"/>
+      <c r="B807" s="59"/>
+      <c r="C807" s="59"/>
+      <c r="D807" s="59"/>
+      <c r="E807" s="59"/>
       <c r="F807" s="34"/>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
@@ -13989,14 +13995,14 @@
       <c r="F813" s="6"/>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A814" s="58" t="s">
+      <c r="A814" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="B814" s="58"/>
-      <c r="C814" s="58"/>
-      <c r="D814" s="58"/>
-      <c r="E814" s="58"/>
-      <c r="F814" s="58"/>
+      <c r="B814" s="59"/>
+      <c r="C814" s="59"/>
+      <c r="D814" s="59"/>
+      <c r="E814" s="59"/>
+      <c r="F814" s="59"/>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
@@ -14057,13 +14063,13 @@
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A818" s="58" t="s">
+      <c r="A818" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="B818" s="58"/>
-      <c r="C818" s="58"/>
-      <c r="D818" s="58"/>
-      <c r="E818" s="58"/>
+      <c r="B818" s="59"/>
+      <c r="C818" s="59"/>
+      <c r="D818" s="59"/>
+      <c r="E818" s="59"/>
       <c r="F818" s="34"/>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
@@ -14127,14 +14133,14 @@
       <c r="F824" s="6"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A825" s="58" t="s">
+      <c r="A825" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="B825" s="58"/>
-      <c r="C825" s="58"/>
-      <c r="D825" s="58"/>
-      <c r="E825" s="58"/>
-      <c r="F825" s="58"/>
+      <c r="B825" s="59"/>
+      <c r="C825" s="59"/>
+      <c r="D825" s="59"/>
+      <c r="E825" s="59"/>
+      <c r="F825" s="59"/>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
@@ -14195,13 +14201,13 @@
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A829" s="58" t="s">
+      <c r="A829" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="B829" s="58"/>
-      <c r="C829" s="58"/>
-      <c r="D829" s="58"/>
-      <c r="E829" s="58"/>
+      <c r="B829" s="59"/>
+      <c r="C829" s="59"/>
+      <c r="D829" s="59"/>
+      <c r="E829" s="59"/>
       <c r="F829" s="34"/>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -14265,14 +14271,14 @@
       <c r="F835" s="6"/>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A836" s="58" t="s">
+      <c r="A836" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="B836" s="58"/>
-      <c r="C836" s="58"/>
-      <c r="D836" s="58"/>
-      <c r="E836" s="58"/>
-      <c r="F836" s="58"/>
+      <c r="B836" s="59"/>
+      <c r="C836" s="59"/>
+      <c r="D836" s="59"/>
+      <c r="E836" s="59"/>
+      <c r="F836" s="59"/>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
@@ -14333,13 +14339,13 @@
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" s="58" t="s">
+      <c r="A840" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="B840" s="58"/>
-      <c r="C840" s="58"/>
-      <c r="D840" s="58"/>
-      <c r="E840" s="58"/>
+      <c r="B840" s="59"/>
+      <c r="C840" s="59"/>
+      <c r="D840" s="59"/>
+      <c r="E840" s="59"/>
       <c r="F840" s="34"/>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -14403,14 +14409,14 @@
       <c r="F846" s="6"/>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A847" s="58" t="s">
+      <c r="A847" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="B847" s="58"/>
-      <c r="C847" s="58"/>
-      <c r="D847" s="58"/>
-      <c r="E847" s="58"/>
-      <c r="F847" s="58"/>
+      <c r="B847" s="59"/>
+      <c r="C847" s="59"/>
+      <c r="D847" s="59"/>
+      <c r="E847" s="59"/>
+      <c r="F847" s="59"/>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
@@ -14471,13 +14477,13 @@
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A851" s="58" t="s">
+      <c r="A851" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="B851" s="58"/>
-      <c r="C851" s="58"/>
-      <c r="D851" s="58"/>
-      <c r="E851" s="58"/>
+      <c r="B851" s="59"/>
+      <c r="C851" s="59"/>
+      <c r="D851" s="59"/>
+      <c r="E851" s="59"/>
       <c r="F851" s="34"/>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
@@ -14541,14 +14547,14 @@
       <c r="F857" s="6"/>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A858" s="58" t="s">
+      <c r="A858" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="B858" s="58"/>
-      <c r="C858" s="58"/>
-      <c r="D858" s="58"/>
-      <c r="E858" s="58"/>
-      <c r="F858" s="58"/>
+      <c r="B858" s="59"/>
+      <c r="C858" s="59"/>
+      <c r="D858" s="59"/>
+      <c r="E858" s="59"/>
+      <c r="F858" s="59"/>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
@@ -14609,13 +14615,13 @@
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A862" s="58" t="s">
+      <c r="A862" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="B862" s="58"/>
-      <c r="C862" s="58"/>
-      <c r="D862" s="58"/>
-      <c r="E862" s="58"/>
+      <c r="B862" s="59"/>
+      <c r="C862" s="59"/>
+      <c r="D862" s="59"/>
+      <c r="E862" s="59"/>
       <c r="F862" s="34"/>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
@@ -14679,14 +14685,14 @@
       <c r="F868" s="6"/>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A869" s="58" t="s">
+      <c r="A869" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="B869" s="58"/>
-      <c r="C869" s="58"/>
-      <c r="D869" s="58"/>
-      <c r="E869" s="58"/>
-      <c r="F869" s="58"/>
+      <c r="B869" s="59"/>
+      <c r="C869" s="59"/>
+      <c r="D869" s="59"/>
+      <c r="E869" s="59"/>
+      <c r="F869" s="59"/>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
@@ -14747,13 +14753,13 @@
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A873" s="58" t="s">
+      <c r="A873" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="B873" s="58"/>
-      <c r="C873" s="58"/>
-      <c r="D873" s="58"/>
-      <c r="E873" s="58"/>
+      <c r="B873" s="59"/>
+      <c r="C873" s="59"/>
+      <c r="D873" s="59"/>
+      <c r="E873" s="59"/>
       <c r="F873" s="50"/>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
@@ -14814,14 +14820,14 @@
       <c r="F879" s="6"/>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A880" s="58" t="s">
+      <c r="A880" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="B880" s="58"/>
-      <c r="C880" s="58"/>
-      <c r="D880" s="58"/>
-      <c r="E880" s="58"/>
-      <c r="F880" s="58"/>
+      <c r="B880" s="59"/>
+      <c r="C880" s="59"/>
+      <c r="D880" s="59"/>
+      <c r="E880" s="59"/>
+      <c r="F880" s="59"/>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
@@ -14882,13 +14888,13 @@
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A884" s="58" t="s">
+      <c r="A884" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="B884" s="58"/>
-      <c r="C884" s="58"/>
-      <c r="D884" s="58"/>
-      <c r="E884" s="58"/>
+      <c r="B884" s="59"/>
+      <c r="C884" s="59"/>
+      <c r="D884" s="59"/>
+      <c r="E884" s="59"/>
       <c r="F884" s="50"/>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
@@ -14949,14 +14955,14 @@
       <c r="F890" s="6"/>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A891" s="58" t="s">
+      <c r="A891" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="B891" s="58"/>
-      <c r="C891" s="58"/>
-      <c r="D891" s="58"/>
-      <c r="E891" s="58"/>
-      <c r="F891" s="58"/>
+      <c r="B891" s="59"/>
+      <c r="C891" s="59"/>
+      <c r="D891" s="59"/>
+      <c r="E891" s="59"/>
+      <c r="F891" s="59"/>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
@@ -15017,13 +15023,13 @@
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A895" s="58" t="s">
+      <c r="A895" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="B895" s="58"/>
-      <c r="C895" s="58"/>
-      <c r="D895" s="58"/>
-      <c r="E895" s="58"/>
+      <c r="B895" s="59"/>
+      <c r="C895" s="59"/>
+      <c r="D895" s="59"/>
+      <c r="E895" s="59"/>
       <c r="F895" s="50"/>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
@@ -15084,14 +15090,14 @@
       <c r="F901" s="6"/>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A902" s="58" t="s">
+      <c r="A902" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="B902" s="58"/>
-      <c r="C902" s="58"/>
-      <c r="D902" s="58"/>
-      <c r="E902" s="58"/>
-      <c r="F902" s="58"/>
+      <c r="B902" s="59"/>
+      <c r="C902" s="59"/>
+      <c r="D902" s="59"/>
+      <c r="E902" s="59"/>
+      <c r="F902" s="59"/>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
@@ -15152,13 +15158,13 @@
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A906" s="58" t="s">
+      <c r="A906" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="B906" s="58"/>
-      <c r="C906" s="58"/>
-      <c r="D906" s="58"/>
-      <c r="E906" s="58"/>
+      <c r="B906" s="59"/>
+      <c r="C906" s="59"/>
+      <c r="D906" s="59"/>
+      <c r="E906" s="59"/>
       <c r="F906" s="50"/>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -15219,14 +15225,14 @@
       <c r="F912" s="6"/>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A913" s="58" t="s">
+      <c r="A913" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="B913" s="58"/>
-      <c r="C913" s="58"/>
-      <c r="D913" s="58"/>
-      <c r="E913" s="58"/>
-      <c r="F913" s="58"/>
+      <c r="B913" s="59"/>
+      <c r="C913" s="59"/>
+      <c r="D913" s="59"/>
+      <c r="E913" s="59"/>
+      <c r="F913" s="59"/>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
@@ -15287,13 +15293,13 @@
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A917" s="58" t="s">
+      <c r="A917" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="B917" s="58"/>
-      <c r="C917" s="58"/>
-      <c r="D917" s="58"/>
-      <c r="E917" s="58"/>
+      <c r="B917" s="59"/>
+      <c r="C917" s="59"/>
+      <c r="D917" s="59"/>
+      <c r="E917" s="59"/>
       <c r="F917" s="50"/>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -15354,14 +15360,14 @@
       <c r="F924" s="6"/>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A925" s="58" t="s">
+      <c r="A925" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="B925" s="58"/>
-      <c r="C925" s="58"/>
-      <c r="D925" s="58"/>
-      <c r="E925" s="58"/>
-      <c r="F925" s="58"/>
+      <c r="B925" s="59"/>
+      <c r="C925" s="59"/>
+      <c r="D925" s="59"/>
+      <c r="E925" s="59"/>
+      <c r="F925" s="59"/>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
@@ -15422,13 +15428,13 @@
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A929" s="58" t="s">
+      <c r="A929" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="B929" s="58"/>
-      <c r="C929" s="58"/>
-      <c r="D929" s="58"/>
-      <c r="E929" s="58"/>
+      <c r="B929" s="59"/>
+      <c r="C929" s="59"/>
+      <c r="D929" s="59"/>
+      <c r="E929" s="59"/>
       <c r="F929" s="50"/>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.25">
@@ -15489,14 +15495,14 @@
       <c r="F935" s="6"/>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A936" s="58" t="s">
+      <c r="A936" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="B936" s="58"/>
-      <c r="C936" s="58"/>
-      <c r="D936" s="58"/>
-      <c r="E936" s="58"/>
-      <c r="F936" s="58"/>
+      <c r="B936" s="59"/>
+      <c r="C936" s="59"/>
+      <c r="D936" s="59"/>
+      <c r="E936" s="59"/>
+      <c r="F936" s="59"/>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
@@ -15557,13 +15563,13 @@
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A940" s="58" t="s">
+      <c r="A940" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="B940" s="58"/>
-      <c r="C940" s="58"/>
-      <c r="D940" s="58"/>
-      <c r="E940" s="58"/>
+      <c r="B940" s="59"/>
+      <c r="C940" s="59"/>
+      <c r="D940" s="59"/>
+      <c r="E940" s="59"/>
       <c r="F940" s="50"/>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.25">
@@ -15628,14 +15634,14 @@
       <c r="F946" s="6"/>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A947" s="58" t="s">
+      <c r="A947" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="B947" s="58"/>
-      <c r="C947" s="58"/>
-      <c r="D947" s="58"/>
-      <c r="E947" s="58"/>
-      <c r="F947" s="58"/>
+      <c r="B947" s="59"/>
+      <c r="C947" s="59"/>
+      <c r="D947" s="59"/>
+      <c r="E947" s="59"/>
+      <c r="F947" s="59"/>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
@@ -15696,13 +15702,13 @@
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A951" s="58" t="s">
+      <c r="A951" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="B951" s="58"/>
-      <c r="C951" s="58"/>
-      <c r="D951" s="58"/>
-      <c r="E951" s="58"/>
+      <c r="B951" s="59"/>
+      <c r="C951" s="59"/>
+      <c r="D951" s="59"/>
+      <c r="E951" s="59"/>
       <c r="F951" s="50"/>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
@@ -15763,14 +15769,14 @@
       <c r="F958" s="6"/>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A959" s="58" t="s">
+      <c r="A959" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="B959" s="58"/>
-      <c r="C959" s="58"/>
-      <c r="D959" s="58"/>
-      <c r="E959" s="58"/>
-      <c r="F959" s="58"/>
+      <c r="B959" s="59"/>
+      <c r="C959" s="59"/>
+      <c r="D959" s="59"/>
+      <c r="E959" s="59"/>
+      <c r="F959" s="59"/>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
@@ -15831,13 +15837,13 @@
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A963" s="58" t="s">
+      <c r="A963" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="B963" s="58"/>
-      <c r="C963" s="58"/>
-      <c r="D963" s="58"/>
-      <c r="E963" s="58"/>
+      <c r="B963" s="59"/>
+      <c r="C963" s="59"/>
+      <c r="D963" s="59"/>
+      <c r="E963" s="59"/>
       <c r="F963" s="50"/>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
@@ -15898,14 +15904,14 @@
       <c r="F969" s="6"/>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A970" s="58" t="s">
+      <c r="A970" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="B970" s="58"/>
-      <c r="C970" s="58"/>
-      <c r="D970" s="58"/>
-      <c r="E970" s="58"/>
-      <c r="F970" s="58"/>
+      <c r="B970" s="59"/>
+      <c r="C970" s="59"/>
+      <c r="D970" s="59"/>
+      <c r="E970" s="59"/>
+      <c r="F970" s="59"/>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
@@ -15966,13 +15972,13 @@
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A974" s="58" t="s">
+      <c r="A974" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="B974" s="58"/>
-      <c r="C974" s="58"/>
-      <c r="D974" s="58"/>
-      <c r="E974" s="58"/>
+      <c r="B974" s="59"/>
+      <c r="C974" s="59"/>
+      <c r="D974" s="59"/>
+      <c r="E974" s="59"/>
       <c r="F974" s="50"/>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
@@ -16033,14 +16039,14 @@
       <c r="F981" s="6"/>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A982" s="58" t="s">
+      <c r="A982" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="B982" s="58"/>
-      <c r="C982" s="58"/>
-      <c r="D982" s="58"/>
-      <c r="E982" s="58"/>
-      <c r="F982" s="58"/>
+      <c r="B982" s="59"/>
+      <c r="C982" s="59"/>
+      <c r="D982" s="59"/>
+      <c r="E982" s="59"/>
+      <c r="F982" s="59"/>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
@@ -16101,13 +16107,13 @@
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A986" s="58" t="s">
+      <c r="A986" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="B986" s="58"/>
-      <c r="C986" s="58"/>
-      <c r="D986" s="58"/>
-      <c r="E986" s="58"/>
+      <c r="B986" s="59"/>
+      <c r="C986" s="59"/>
+      <c r="D986" s="59"/>
+      <c r="E986" s="59"/>
       <c r="F986" s="50"/>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
@@ -16168,14 +16174,14 @@
       <c r="F993" s="6"/>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A994" s="58" t="s">
+      <c r="A994" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="B994" s="58"/>
-      <c r="C994" s="58"/>
-      <c r="D994" s="58"/>
-      <c r="E994" s="58"/>
-      <c r="F994" s="58"/>
+      <c r="B994" s="59"/>
+      <c r="C994" s="59"/>
+      <c r="D994" s="59"/>
+      <c r="E994" s="59"/>
+      <c r="F994" s="59"/>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
@@ -16236,13 +16242,13 @@
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A998" s="58" t="s">
+      <c r="A998" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="B998" s="58"/>
-      <c r="C998" s="58"/>
-      <c r="D998" s="58"/>
-      <c r="E998" s="58"/>
+      <c r="B998" s="59"/>
+      <c r="C998" s="59"/>
+      <c r="D998" s="59"/>
+      <c r="E998" s="59"/>
       <c r="F998" s="50"/>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
@@ -16303,14 +16309,14 @@
       <c r="F1005" s="6"/>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1006" s="58" t="s">
+      <c r="A1006" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="B1006" s="58"/>
-      <c r="C1006" s="58"/>
-      <c r="D1006" s="58"/>
-      <c r="E1006" s="58"/>
-      <c r="F1006" s="58"/>
+      <c r="B1006" s="59"/>
+      <c r="C1006" s="59"/>
+      <c r="D1006" s="59"/>
+      <c r="E1006" s="59"/>
+      <c r="F1006" s="59"/>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1007" s="1"/>
@@ -16371,13 +16377,13 @@
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1010" s="58" t="s">
+      <c r="A1010" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="B1010" s="58"/>
-      <c r="C1010" s="58"/>
-      <c r="D1010" s="58"/>
-      <c r="E1010" s="58"/>
+      <c r="B1010" s="59"/>
+      <c r="C1010" s="59"/>
+      <c r="D1010" s="59"/>
+      <c r="E1010" s="59"/>
       <c r="F1010" s="50"/>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
@@ -16438,14 +16444,14 @@
       <c r="F1016" s="6"/>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1017" s="58" t="s">
+      <c r="A1017" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="B1017" s="58"/>
-      <c r="C1017" s="58"/>
-      <c r="D1017" s="58"/>
-      <c r="E1017" s="58"/>
-      <c r="F1017" s="58"/>
+      <c r="B1017" s="59"/>
+      <c r="C1017" s="59"/>
+      <c r="D1017" s="59"/>
+      <c r="E1017" s="59"/>
+      <c r="F1017" s="59"/>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1018" s="1"/>
@@ -16506,13 +16512,13 @@
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1021" s="58" t="s">
+      <c r="A1021" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="B1021" s="58"/>
-      <c r="C1021" s="58"/>
-      <c r="D1021" s="58"/>
-      <c r="E1021" s="58"/>
+      <c r="B1021" s="59"/>
+      <c r="C1021" s="59"/>
+      <c r="D1021" s="59"/>
+      <c r="E1021" s="59"/>
       <c r="F1021" s="50"/>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -16573,14 +16579,14 @@
       <c r="F1027" s="6"/>
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1028" s="58" t="s">
+      <c r="A1028" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="B1028" s="58"/>
-      <c r="C1028" s="58"/>
-      <c r="D1028" s="58"/>
-      <c r="E1028" s="58"/>
-      <c r="F1028" s="58"/>
+      <c r="B1028" s="59"/>
+      <c r="C1028" s="59"/>
+      <c r="D1028" s="59"/>
+      <c r="E1028" s="59"/>
+      <c r="F1028" s="59"/>
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" s="1"/>
@@ -16645,13 +16651,13 @@
       </c>
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1032" s="58" t="s">
+      <c r="A1032" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="B1032" s="58"/>
-      <c r="C1032" s="58"/>
-      <c r="D1032" s="58"/>
-      <c r="E1032" s="58"/>
+      <c r="B1032" s="59"/>
+      <c r="C1032" s="59"/>
+      <c r="D1032" s="59"/>
+      <c r="E1032" s="59"/>
       <c r="F1032" s="50"/>
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
@@ -16712,14 +16718,14 @@
       <c r="F1039" s="6"/>
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1040" s="58" t="s">
+      <c r="A1040" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="B1040" s="58"/>
-      <c r="C1040" s="58"/>
-      <c r="D1040" s="58"/>
-      <c r="E1040" s="58"/>
-      <c r="F1040" s="58"/>
+      <c r="B1040" s="59"/>
+      <c r="C1040" s="59"/>
+      <c r="D1040" s="59"/>
+      <c r="E1040" s="59"/>
+      <c r="F1040" s="59"/>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1041" s="1"/>
@@ -16780,13 +16786,13 @@
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1044" s="58" t="s">
+      <c r="A1044" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="B1044" s="58"/>
-      <c r="C1044" s="58"/>
-      <c r="D1044" s="58"/>
-      <c r="E1044" s="58"/>
+      <c r="B1044" s="59"/>
+      <c r="C1044" s="59"/>
+      <c r="D1044" s="59"/>
+      <c r="E1044" s="59"/>
       <c r="F1044" s="50"/>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
@@ -16847,14 +16853,14 @@
       <c r="F1051" s="6"/>
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1052" s="58" t="s">
+      <c r="A1052" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="B1052" s="58"/>
-      <c r="C1052" s="58"/>
-      <c r="D1052" s="58"/>
-      <c r="E1052" s="58"/>
-      <c r="F1052" s="58"/>
+      <c r="B1052" s="59"/>
+      <c r="C1052" s="59"/>
+      <c r="D1052" s="59"/>
+      <c r="E1052" s="59"/>
+      <c r="F1052" s="59"/>
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1053" s="1"/>
@@ -16915,13 +16921,13 @@
       </c>
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1056" s="58" t="s">
+      <c r="A1056" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="B1056" s="58"/>
-      <c r="C1056" s="58"/>
-      <c r="D1056" s="58"/>
-      <c r="E1056" s="58"/>
+      <c r="B1056" s="59"/>
+      <c r="C1056" s="59"/>
+      <c r="D1056" s="59"/>
+      <c r="E1056" s="59"/>
       <c r="F1056" s="50"/>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
@@ -16982,14 +16988,14 @@
       <c r="F1062" s="6"/>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1063" s="58" t="s">
+      <c r="A1063" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="B1063" s="58"/>
-      <c r="C1063" s="58"/>
-      <c r="D1063" s="58"/>
-      <c r="E1063" s="58"/>
-      <c r="F1063" s="58"/>
+      <c r="B1063" s="59"/>
+      <c r="C1063" s="59"/>
+      <c r="D1063" s="59"/>
+      <c r="E1063" s="59"/>
+      <c r="F1063" s="59"/>
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" s="1"/>
@@ -17050,13 +17056,13 @@
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1067" s="58" t="s">
+      <c r="A1067" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="B1067" s="58"/>
-      <c r="C1067" s="58"/>
-      <c r="D1067" s="58"/>
-      <c r="E1067" s="58"/>
+      <c r="B1067" s="59"/>
+      <c r="C1067" s="59"/>
+      <c r="D1067" s="59"/>
+      <c r="E1067" s="59"/>
       <c r="F1067" s="50"/>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
@@ -17117,14 +17123,14 @@
       <c r="F1074" s="6"/>
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1075" s="58" t="s">
+      <c r="A1075" s="59" t="s">
         <v>234</v>
       </c>
-      <c r="B1075" s="58"/>
-      <c r="C1075" s="58"/>
-      <c r="D1075" s="58"/>
-      <c r="E1075" s="58"/>
-      <c r="F1075" s="58"/>
+      <c r="B1075" s="59"/>
+      <c r="C1075" s="59"/>
+      <c r="D1075" s="59"/>
+      <c r="E1075" s="59"/>
+      <c r="F1075" s="59"/>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" s="1"/>
@@ -17185,13 +17191,13 @@
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1079" s="58" t="s">
+      <c r="A1079" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="B1079" s="58"/>
-      <c r="C1079" s="58"/>
-      <c r="D1079" s="58"/>
-      <c r="E1079" s="58"/>
+      <c r="B1079" s="59"/>
+      <c r="C1079" s="59"/>
+      <c r="D1079" s="59"/>
+      <c r="E1079" s="59"/>
       <c r="F1079" s="50"/>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
@@ -17252,14 +17258,14 @@
       <c r="F1086" s="6"/>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1087" s="58" t="s">
+      <c r="A1087" s="59" t="s">
         <v>236</v>
       </c>
-      <c r="B1087" s="58"/>
-      <c r="C1087" s="58"/>
-      <c r="D1087" s="58"/>
-      <c r="E1087" s="58"/>
-      <c r="F1087" s="58"/>
+      <c r="B1087" s="59"/>
+      <c r="C1087" s="59"/>
+      <c r="D1087" s="59"/>
+      <c r="E1087" s="59"/>
+      <c r="F1087" s="59"/>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" s="1"/>
@@ -17320,13 +17326,13 @@
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1091" s="58" t="s">
+      <c r="A1091" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="B1091" s="58"/>
-      <c r="C1091" s="58"/>
-      <c r="D1091" s="58"/>
-      <c r="E1091" s="58"/>
+      <c r="B1091" s="59"/>
+      <c r="C1091" s="59"/>
+      <c r="D1091" s="59"/>
+      <c r="E1091" s="59"/>
       <c r="F1091" s="50"/>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
@@ -17387,14 +17393,14 @@
       <c r="F1098" s="6"/>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1099" s="58" t="s">
+      <c r="A1099" s="59" t="s">
         <v>238</v>
       </c>
-      <c r="B1099" s="58"/>
-      <c r="C1099" s="58"/>
-      <c r="D1099" s="58"/>
-      <c r="E1099" s="58"/>
-      <c r="F1099" s="58"/>
+      <c r="B1099" s="59"/>
+      <c r="C1099" s="59"/>
+      <c r="D1099" s="59"/>
+      <c r="E1099" s="59"/>
+      <c r="F1099" s="59"/>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1100" s="1"/>
@@ -17455,13 +17461,13 @@
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1103" s="58" t="s">
+      <c r="A1103" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="B1103" s="58"/>
-      <c r="C1103" s="58"/>
-      <c r="D1103" s="58"/>
-      <c r="E1103" s="58"/>
+      <c r="B1103" s="59"/>
+      <c r="C1103" s="59"/>
+      <c r="D1103" s="59"/>
+      <c r="E1103" s="59"/>
       <c r="F1103" s="50"/>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
@@ -17522,14 +17528,14 @@
       <c r="F1109" s="6"/>
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1110" s="58" t="s">
+      <c r="A1110" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="B1110" s="58"/>
-      <c r="C1110" s="58"/>
-      <c r="D1110" s="58"/>
-      <c r="E1110" s="58"/>
-      <c r="F1110" s="58"/>
+      <c r="B1110" s="59"/>
+      <c r="C1110" s="59"/>
+      <c r="D1110" s="59"/>
+      <c r="E1110" s="59"/>
+      <c r="F1110" s="59"/>
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1111" s="1"/>
@@ -17590,13 +17596,13 @@
       </c>
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1114" s="58" t="s">
+      <c r="A1114" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="B1114" s="58"/>
-      <c r="C1114" s="58"/>
-      <c r="D1114" s="58"/>
-      <c r="E1114" s="58"/>
+      <c r="B1114" s="59"/>
+      <c r="C1114" s="59"/>
+      <c r="D1114" s="59"/>
+      <c r="E1114" s="59"/>
       <c r="F1114" s="50"/>
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
@@ -17661,14 +17667,14 @@
       <c r="F1120" s="6"/>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1121" s="58" t="s">
+      <c r="A1121" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="B1121" s="58"/>
-      <c r="C1121" s="58"/>
-      <c r="D1121" s="58"/>
-      <c r="E1121" s="58"/>
-      <c r="F1121" s="58"/>
+      <c r="B1121" s="59"/>
+      <c r="C1121" s="59"/>
+      <c r="D1121" s="59"/>
+      <c r="E1121" s="59"/>
+      <c r="F1121" s="59"/>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1"/>
@@ -17729,13 +17735,13 @@
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1125" s="58" t="s">
+      <c r="A1125" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="B1125" s="58"/>
-      <c r="C1125" s="58"/>
-      <c r="D1125" s="58"/>
-      <c r="E1125" s="58"/>
+      <c r="B1125" s="59"/>
+      <c r="C1125" s="59"/>
+      <c r="D1125" s="59"/>
+      <c r="E1125" s="59"/>
       <c r="F1125" s="50"/>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
@@ -17796,14 +17802,14 @@
       <c r="F1132" s="6"/>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1133" s="58" t="s">
+      <c r="A1133" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="B1133" s="58"/>
-      <c r="C1133" s="58"/>
-      <c r="D1133" s="58"/>
-      <c r="E1133" s="58"/>
-      <c r="F1133" s="58"/>
+      <c r="B1133" s="59"/>
+      <c r="C1133" s="59"/>
+      <c r="D1133" s="59"/>
+      <c r="E1133" s="59"/>
+      <c r="F1133" s="59"/>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1134" s="1"/>
@@ -17864,13 +17870,13 @@
       </c>
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1137" s="58" t="s">
+      <c r="A1137" s="59" t="s">
         <v>245</v>
       </c>
-      <c r="B1137" s="58"/>
-      <c r="C1137" s="58"/>
-      <c r="D1137" s="58"/>
-      <c r="E1137" s="58"/>
+      <c r="B1137" s="59"/>
+      <c r="C1137" s="59"/>
+      <c r="D1137" s="59"/>
+      <c r="E1137" s="59"/>
       <c r="F1137" s="50"/>
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
@@ -17935,14 +17941,14 @@
       <c r="F1144" s="6"/>
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1145" s="58" t="s">
+      <c r="A1145" s="59" t="s">
         <v>246</v>
       </c>
-      <c r="B1145" s="58"/>
-      <c r="C1145" s="58"/>
-      <c r="D1145" s="58"/>
-      <c r="E1145" s="58"/>
-      <c r="F1145" s="58"/>
+      <c r="B1145" s="59"/>
+      <c r="C1145" s="59"/>
+      <c r="D1145" s="59"/>
+      <c r="E1145" s="59"/>
+      <c r="F1145" s="59"/>
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1146" s="1"/>
@@ -18003,13 +18009,13 @@
       </c>
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1149" s="58" t="s">
+      <c r="A1149" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="B1149" s="58"/>
-      <c r="C1149" s="58"/>
-      <c r="D1149" s="58"/>
-      <c r="E1149" s="58"/>
+      <c r="B1149" s="59"/>
+      <c r="C1149" s="59"/>
+      <c r="D1149" s="59"/>
+      <c r="E1149" s="59"/>
       <c r="F1149" s="50"/>
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
@@ -18070,14 +18076,14 @@
       <c r="F1155" s="6"/>
     </row>
     <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1156" s="58" t="s">
+      <c r="A1156" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="B1156" s="58"/>
-      <c r="C1156" s="58"/>
-      <c r="D1156" s="58"/>
-      <c r="E1156" s="58"/>
-      <c r="F1156" s="58"/>
+      <c r="B1156" s="59"/>
+      <c r="C1156" s="59"/>
+      <c r="D1156" s="59"/>
+      <c r="E1156" s="59"/>
+      <c r="F1156" s="59"/>
     </row>
     <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1157" s="1"/>
@@ -18138,13 +18144,13 @@
       </c>
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1160" s="58" t="s">
+      <c r="A1160" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="B1160" s="58"/>
-      <c r="C1160" s="58"/>
-      <c r="D1160" s="58"/>
-      <c r="E1160" s="58"/>
+      <c r="B1160" s="59"/>
+      <c r="C1160" s="59"/>
+      <c r="D1160" s="59"/>
+      <c r="E1160" s="59"/>
       <c r="F1160" s="50"/>
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
@@ -18205,14 +18211,14 @@
       <c r="F1167" s="6"/>
     </row>
     <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1168" s="58" t="s">
+      <c r="A1168" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="B1168" s="58"/>
-      <c r="C1168" s="58"/>
-      <c r="D1168" s="58"/>
-      <c r="E1168" s="58"/>
-      <c r="F1168" s="58"/>
+      <c r="B1168" s="59"/>
+      <c r="C1168" s="59"/>
+      <c r="D1168" s="59"/>
+      <c r="E1168" s="59"/>
+      <c r="F1168" s="59"/>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1169" s="1"/>
@@ -18273,13 +18279,13 @@
       </c>
     </row>
     <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1172" s="58" t="s">
+      <c r="A1172" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="B1172" s="58"/>
-      <c r="C1172" s="58"/>
-      <c r="D1172" s="58"/>
-      <c r="E1172" s="58"/>
+      <c r="B1172" s="59"/>
+      <c r="C1172" s="59"/>
+      <c r="D1172" s="59"/>
+      <c r="E1172" s="59"/>
       <c r="F1172" s="50"/>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
@@ -18340,14 +18346,14 @@
       <c r="F1179" s="6"/>
     </row>
     <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1180" s="58" t="s">
+      <c r="A1180" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="B1180" s="58"/>
-      <c r="C1180" s="58"/>
-      <c r="D1180" s="58"/>
-      <c r="E1180" s="58"/>
-      <c r="F1180" s="58"/>
+      <c r="B1180" s="59"/>
+      <c r="C1180" s="59"/>
+      <c r="D1180" s="59"/>
+      <c r="E1180" s="59"/>
+      <c r="F1180" s="59"/>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1181" s="1"/>
@@ -18408,13 +18414,13 @@
       </c>
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1184" s="58" t="s">
+      <c r="A1184" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="B1184" s="58"/>
-      <c r="C1184" s="58"/>
-      <c r="D1184" s="58"/>
-      <c r="E1184" s="58"/>
+      <c r="B1184" s="59"/>
+      <c r="C1184" s="59"/>
+      <c r="D1184" s="59"/>
+      <c r="E1184" s="59"/>
       <c r="F1184" s="50"/>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
@@ -18475,14 +18481,14 @@
       <c r="F1191" s="6"/>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1192" s="58" t="s">
+      <c r="A1192" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="B1192" s="58"/>
-      <c r="C1192" s="58"/>
-      <c r="D1192" s="58"/>
-      <c r="E1192" s="58"/>
-      <c r="F1192" s="58"/>
+      <c r="B1192" s="59"/>
+      <c r="C1192" s="59"/>
+      <c r="D1192" s="59"/>
+      <c r="E1192" s="59"/>
+      <c r="F1192" s="59"/>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1193" s="1"/>
@@ -18543,13 +18549,13 @@
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1196" s="58" t="s">
+      <c r="A1196" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="B1196" s="58"/>
-      <c r="C1196" s="58"/>
-      <c r="D1196" s="58"/>
-      <c r="E1196" s="58"/>
+      <c r="B1196" s="59"/>
+      <c r="C1196" s="59"/>
+      <c r="D1196" s="59"/>
+      <c r="E1196" s="59"/>
       <c r="F1196" s="50"/>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
@@ -18610,14 +18616,14 @@
       <c r="F1202" s="6"/>
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1203" s="58" t="s">
+      <c r="A1203" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="B1203" s="58"/>
-      <c r="C1203" s="58"/>
-      <c r="D1203" s="58"/>
-      <c r="E1203" s="58"/>
-      <c r="F1203" s="58"/>
+      <c r="B1203" s="59"/>
+      <c r="C1203" s="59"/>
+      <c r="D1203" s="59"/>
+      <c r="E1203" s="59"/>
+      <c r="F1203" s="59"/>
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1204" s="1"/>
@@ -18678,13 +18684,13 @@
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1207" s="58" t="s">
+      <c r="A1207" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="B1207" s="58"/>
-      <c r="C1207" s="58"/>
-      <c r="D1207" s="58"/>
-      <c r="E1207" s="58"/>
+      <c r="B1207" s="59"/>
+      <c r="C1207" s="59"/>
+      <c r="D1207" s="59"/>
+      <c r="E1207" s="59"/>
       <c r="F1207" s="50"/>
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
@@ -18749,14 +18755,14 @@
       <c r="F1214" s="6"/>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1215" s="58" t="s">
+      <c r="A1215" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B1215" s="58"/>
-      <c r="C1215" s="58"/>
-      <c r="D1215" s="58"/>
-      <c r="E1215" s="58"/>
-      <c r="F1215" s="58"/>
+      <c r="B1215" s="59"/>
+      <c r="C1215" s="59"/>
+      <c r="D1215" s="59"/>
+      <c r="E1215" s="59"/>
+      <c r="F1215" s="59"/>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1216" s="1"/>
@@ -18817,13 +18823,13 @@
       </c>
     </row>
     <row r="1219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1219" s="58" t="s">
+      <c r="A1219" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="B1219" s="58"/>
-      <c r="C1219" s="58"/>
-      <c r="D1219" s="58"/>
-      <c r="E1219" s="58"/>
+      <c r="B1219" s="59"/>
+      <c r="C1219" s="59"/>
+      <c r="D1219" s="59"/>
+      <c r="E1219" s="59"/>
       <c r="F1219" s="50"/>
     </row>
     <row r="1220" spans="1:6" x14ac:dyDescent="0.25">
@@ -18884,14 +18890,14 @@
       <c r="F1226" s="6"/>
     </row>
     <row r="1227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1227" s="58" t="s">
+      <c r="A1227" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="B1227" s="58"/>
-      <c r="C1227" s="58"/>
-      <c r="D1227" s="58"/>
-      <c r="E1227" s="58"/>
-      <c r="F1227" s="58"/>
+      <c r="B1227" s="59"/>
+      <c r="C1227" s="59"/>
+      <c r="D1227" s="59"/>
+      <c r="E1227" s="59"/>
+      <c r="F1227" s="59"/>
     </row>
     <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1228" s="1"/>
@@ -18948,13 +18954,13 @@
       <c r="F1230" s="9"/>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1231" s="58" t="s">
+      <c r="A1231" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="B1231" s="58"/>
-      <c r="C1231" s="58"/>
-      <c r="D1231" s="58"/>
-      <c r="E1231" s="58"/>
+      <c r="B1231" s="59"/>
+      <c r="C1231" s="59"/>
+      <c r="D1231" s="59"/>
+      <c r="E1231" s="59"/>
       <c r="F1231" s="50"/>
     </row>
     <row r="1232" spans="1:6" x14ac:dyDescent="0.25">
@@ -19015,14 +19021,14 @@
       <c r="F1237" s="6"/>
     </row>
     <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1238" s="58" t="s">
+      <c r="A1238" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="B1238" s="58"/>
-      <c r="C1238" s="58"/>
-      <c r="D1238" s="58"/>
-      <c r="E1238" s="58"/>
-      <c r="F1238" s="58"/>
+      <c r="B1238" s="59"/>
+      <c r="C1238" s="59"/>
+      <c r="D1238" s="59"/>
+      <c r="E1238" s="59"/>
+      <c r="F1238" s="59"/>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1239" s="1"/>
@@ -19083,13 +19089,13 @@
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1242" s="58" t="s">
+      <c r="A1242" s="59" t="s">
         <v>262</v>
       </c>
-      <c r="B1242" s="58"/>
-      <c r="C1242" s="58"/>
-      <c r="D1242" s="58"/>
-      <c r="E1242" s="58"/>
+      <c r="B1242" s="59"/>
+      <c r="C1242" s="59"/>
+      <c r="D1242" s="59"/>
+      <c r="E1242" s="59"/>
       <c r="F1242" s="50"/>
     </row>
     <row r="1243" spans="1:6" x14ac:dyDescent="0.25">
@@ -19150,14 +19156,14 @@
       <c r="F1249" s="6"/>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1250" s="58" t="s">
+      <c r="A1250" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="B1250" s="58"/>
-      <c r="C1250" s="58"/>
-      <c r="D1250" s="58"/>
-      <c r="E1250" s="58"/>
-      <c r="F1250" s="58"/>
+      <c r="B1250" s="59"/>
+      <c r="C1250" s="59"/>
+      <c r="D1250" s="59"/>
+      <c r="E1250" s="59"/>
+      <c r="F1250" s="59"/>
     </row>
     <row r="1251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1251" s="1"/>
@@ -19218,13 +19224,13 @@
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1254" s="58" t="s">
+      <c r="A1254" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="B1254" s="58"/>
-      <c r="C1254" s="58"/>
-      <c r="D1254" s="58"/>
-      <c r="E1254" s="58"/>
+      <c r="B1254" s="59"/>
+      <c r="C1254" s="59"/>
+      <c r="D1254" s="59"/>
+      <c r="E1254" s="59"/>
       <c r="F1254" s="50"/>
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.25">
@@ -19285,14 +19291,14 @@
       <c r="F1261" s="6"/>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1262" s="58" t="s">
+      <c r="A1262" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="B1262" s="58"/>
-      <c r="C1262" s="58"/>
-      <c r="D1262" s="58"/>
-      <c r="E1262" s="58"/>
-      <c r="F1262" s="58"/>
+      <c r="B1262" s="59"/>
+      <c r="C1262" s="59"/>
+      <c r="D1262" s="59"/>
+      <c r="E1262" s="59"/>
+      <c r="F1262" s="59"/>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1263" s="1"/>
@@ -19353,13 +19359,13 @@
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1266" s="58" t="s">
+      <c r="A1266" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="B1266" s="58"/>
-      <c r="C1266" s="58"/>
-      <c r="D1266" s="58"/>
-      <c r="E1266" s="58"/>
+      <c r="B1266" s="59"/>
+      <c r="C1266" s="59"/>
+      <c r="D1266" s="59"/>
+      <c r="E1266" s="59"/>
       <c r="F1266" s="50"/>
     </row>
     <row r="1267" spans="1:6" x14ac:dyDescent="0.25">
@@ -19420,14 +19426,14 @@
       <c r="F1273" s="6"/>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1274" s="58" t="s">
+      <c r="A1274" s="59" t="s">
         <v>267</v>
       </c>
-      <c r="B1274" s="58"/>
-      <c r="C1274" s="58"/>
-      <c r="D1274" s="58"/>
-      <c r="E1274" s="58"/>
-      <c r="F1274" s="58"/>
+      <c r="B1274" s="59"/>
+      <c r="C1274" s="59"/>
+      <c r="D1274" s="59"/>
+      <c r="E1274" s="59"/>
+      <c r="F1274" s="59"/>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1275" s="1"/>
@@ -19488,13 +19494,13 @@
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1278" s="58" t="s">
+      <c r="A1278" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="B1278" s="58"/>
-      <c r="C1278" s="58"/>
-      <c r="D1278" s="58"/>
-      <c r="E1278" s="58"/>
+      <c r="B1278" s="59"/>
+      <c r="C1278" s="59"/>
+      <c r="D1278" s="59"/>
+      <c r="E1278" s="59"/>
       <c r="F1278" s="50"/>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.25">
@@ -19555,14 +19561,14 @@
       <c r="F1285" s="6"/>
     </row>
     <row r="1286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1286" s="58" t="s">
+      <c r="A1286" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="B1286" s="58"/>
-      <c r="C1286" s="58"/>
-      <c r="D1286" s="58"/>
-      <c r="E1286" s="58"/>
-      <c r="F1286" s="58"/>
+      <c r="B1286" s="59"/>
+      <c r="C1286" s="59"/>
+      <c r="D1286" s="59"/>
+      <c r="E1286" s="59"/>
+      <c r="F1286" s="59"/>
     </row>
     <row r="1287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1287" s="1"/>
@@ -19623,13 +19629,13 @@
       </c>
     </row>
     <row r="1290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1290" s="58" t="s">
+      <c r="A1290" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="B1290" s="58"/>
-      <c r="C1290" s="58"/>
-      <c r="D1290" s="58"/>
-      <c r="E1290" s="58"/>
+      <c r="B1290" s="59"/>
+      <c r="C1290" s="59"/>
+      <c r="D1290" s="59"/>
+      <c r="E1290" s="59"/>
       <c r="F1290" s="50"/>
     </row>
     <row r="1291" spans="1:6" x14ac:dyDescent="0.25">
@@ -19690,14 +19696,14 @@
       <c r="F1297" s="6"/>
     </row>
     <row r="1298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1298" s="58" t="s">
+      <c r="A1298" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="B1298" s="58"/>
-      <c r="C1298" s="58"/>
-      <c r="D1298" s="58"/>
-      <c r="E1298" s="58"/>
-      <c r="F1298" s="58"/>
+      <c r="B1298" s="59"/>
+      <c r="C1298" s="59"/>
+      <c r="D1298" s="59"/>
+      <c r="E1298" s="59"/>
+      <c r="F1298" s="59"/>
     </row>
     <row r="1299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1299" s="1"/>
@@ -19758,13 +19764,13 @@
       </c>
     </row>
     <row r="1302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1302" s="58" t="s">
+      <c r="A1302" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="B1302" s="58"/>
-      <c r="C1302" s="58"/>
-      <c r="D1302" s="58"/>
-      <c r="E1302" s="58"/>
+      <c r="B1302" s="59"/>
+      <c r="C1302" s="59"/>
+      <c r="D1302" s="59"/>
+      <c r="E1302" s="59"/>
       <c r="F1302" s="50"/>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.25">
@@ -19825,14 +19831,14 @@
       <c r="F1309" s="6"/>
     </row>
     <row r="1310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1310" s="58" t="s">
+      <c r="A1310" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="B1310" s="58"/>
-      <c r="C1310" s="58"/>
-      <c r="D1310" s="58"/>
-      <c r="E1310" s="58"/>
-      <c r="F1310" s="58"/>
+      <c r="B1310" s="59"/>
+      <c r="C1310" s="59"/>
+      <c r="D1310" s="59"/>
+      <c r="E1310" s="59"/>
+      <c r="F1310" s="59"/>
     </row>
     <row r="1311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1311" s="1"/>
@@ -19893,13 +19899,13 @@
       </c>
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1314" s="58" t="s">
+      <c r="A1314" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="B1314" s="58"/>
-      <c r="C1314" s="58"/>
-      <c r="D1314" s="58"/>
-      <c r="E1314" s="58"/>
+      <c r="B1314" s="59"/>
+      <c r="C1314" s="59"/>
+      <c r="D1314" s="59"/>
+      <c r="E1314" s="59"/>
       <c r="F1314" s="50"/>
     </row>
     <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
@@ -19960,14 +19966,14 @@
       <c r="F1321" s="6"/>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1322" s="58" t="s">
+      <c r="A1322" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="B1322" s="58"/>
-      <c r="C1322" s="58"/>
-      <c r="D1322" s="58"/>
-      <c r="E1322" s="58"/>
-      <c r="F1322" s="58"/>
+      <c r="B1322" s="59"/>
+      <c r="C1322" s="59"/>
+      <c r="D1322" s="59"/>
+      <c r="E1322" s="59"/>
+      <c r="F1322" s="59"/>
     </row>
     <row r="1323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1323" s="1"/>
@@ -20028,13 +20034,13 @@
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1326" s="58" t="s">
+      <c r="A1326" s="59" t="s">
         <v>276</v>
       </c>
-      <c r="B1326" s="58"/>
-      <c r="C1326" s="58"/>
-      <c r="D1326" s="58"/>
-      <c r="E1326" s="58"/>
+      <c r="B1326" s="59"/>
+      <c r="C1326" s="59"/>
+      <c r="D1326" s="59"/>
+      <c r="E1326" s="59"/>
       <c r="F1326" s="50"/>
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
@@ -20095,14 +20101,14 @@
       <c r="F1333" s="6"/>
     </row>
     <row r="1334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1334" s="58" t="s">
+      <c r="A1334" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="B1334" s="58"/>
-      <c r="C1334" s="58"/>
-      <c r="D1334" s="58"/>
-      <c r="E1334" s="58"/>
-      <c r="F1334" s="58"/>
+      <c r="B1334" s="59"/>
+      <c r="C1334" s="59"/>
+      <c r="D1334" s="59"/>
+      <c r="E1334" s="59"/>
+      <c r="F1334" s="59"/>
     </row>
     <row r="1335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1335" s="1"/>
@@ -20129,13 +20135,13 @@
       <c r="B1336" s="54">
         <v>26869</v>
       </c>
-      <c r="C1336" s="59">
+      <c r="C1336" s="58">
         <v>27138</v>
       </c>
       <c r="D1336">
         <v>-406</v>
       </c>
-      <c r="E1336" s="59">
+      <c r="E1336" s="58">
         <v>27750</v>
       </c>
       <c r="F1336" s="9">
@@ -20149,13 +20155,13 @@
       <c r="B1337" s="54">
         <v>31495</v>
       </c>
-      <c r="C1337" s="59">
+      <c r="C1337" s="58">
         <v>31810</v>
       </c>
       <c r="D1337">
         <v>25</v>
       </c>
-      <c r="E1337" s="59">
+      <c r="E1337" s="58">
         <v>32224</v>
       </c>
       <c r="F1337" s="9">
@@ -20163,13 +20169,13 @@
       </c>
     </row>
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1338" s="58" t="s">
+      <c r="A1338" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="B1338" s="58"/>
-      <c r="C1338" s="58"/>
-      <c r="D1338" s="58"/>
-      <c r="E1338" s="58"/>
+      <c r="B1338" s="59"/>
+      <c r="C1338" s="59"/>
+      <c r="D1338" s="59"/>
+      <c r="E1338" s="59"/>
       <c r="F1338" s="50"/>
     </row>
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
@@ -20221,51 +20227,340 @@
         <v>0.34</v>
       </c>
     </row>
+    <row r="1345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1345" s="6"/>
+      <c r="B1345" s="6"/>
+      <c r="C1345" s="6"/>
+      <c r="D1345" s="6"/>
+      <c r="E1345" s="6"/>
+      <c r="F1345" s="6"/>
+    </row>
+    <row r="1346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1346" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1346" s="59"/>
+      <c r="C1346" s="59"/>
+      <c r="D1346" s="59"/>
+      <c r="E1346" s="59"/>
+      <c r="F1346" s="59"/>
+    </row>
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1347" s="1"/>
+      <c r="B1347" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1347" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1347" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1347" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1347" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1348" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1348" s="54">
+        <v>26617</v>
+      </c>
+      <c r="C1348" s="58">
+        <v>26883</v>
+      </c>
+      <c r="D1348">
+        <v>-255</v>
+      </c>
+      <c r="E1348" s="58">
+        <v>27550</v>
+      </c>
+      <c r="F1348" s="9">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1349" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1349" s="54">
+        <v>30450</v>
+      </c>
+      <c r="C1349" s="58">
+        <v>30754</v>
+      </c>
+      <c r="D1349">
+        <v>-1056</v>
+      </c>
+      <c r="E1349" s="58">
+        <v>31842</v>
+      </c>
+      <c r="F1349" s="9">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1350" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1350" s="59"/>
+      <c r="C1350" s="59"/>
+      <c r="D1350" s="59"/>
+      <c r="E1350" s="59"/>
+      <c r="F1350" s="50"/>
+    </row>
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1351" s="1"/>
+      <c r="B1351" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1351" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1351" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1351" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1352" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1352" s="54">
+        <v>26650</v>
+      </c>
+      <c r="C1352" s="4">
+        <v>-337</v>
+      </c>
+      <c r="D1352" s="54">
+        <v>6622400</v>
+      </c>
+      <c r="E1352" s="5">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1353" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1353" s="54">
+        <v>30816</v>
+      </c>
+      <c r="C1353" s="4">
+        <v>-620</v>
+      </c>
+      <c r="D1353" s="54">
+        <v>1092900</v>
+      </c>
+      <c r="E1353" s="5">
+        <v>1.17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="264">
-    <mergeCell ref="A1334:F1334"/>
-    <mergeCell ref="A1338:E1338"/>
-    <mergeCell ref="A1310:F1310"/>
-    <mergeCell ref="A1314:E1314"/>
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1298:F1298"/>
-    <mergeCell ref="A1302:E1302"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1274:F1274"/>
-    <mergeCell ref="A1278:E1278"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
+  <mergeCells count="266">
+    <mergeCell ref="A1346:F1346"/>
+    <mergeCell ref="A1350:E1350"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
     <mergeCell ref="A1044:E1044"/>
     <mergeCell ref="A959:F959"/>
     <mergeCell ref="A963:E963"/>
@@ -20290,203 +20585,51 @@
     <mergeCell ref="A925:F925"/>
     <mergeCell ref="A929:E929"/>
     <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1298:F1298"/>
+    <mergeCell ref="A1302:E1302"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1274:F1274"/>
+    <mergeCell ref="A1278:E1278"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1334:F1334"/>
+    <mergeCell ref="A1338:E1338"/>
+    <mergeCell ref="A1310:F1310"/>
+    <mergeCell ref="A1314:E1314"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
     <mergeCell ref="A1322:F1322"/>
     <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="283">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -867,6 +867,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 18 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 19 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 19 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1353"/>
+  <dimension ref="A1:J1365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1337" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1355" sqref="D1355"/>
+    <sheetView tabSelected="1" topLeftCell="D1346" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1354" sqref="E1354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20362,8 +20368,387 @@
         <v>1.17</v>
       </c>
     </row>
+    <row r="1357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1357" s="6"/>
+      <c r="B1357" s="6"/>
+      <c r="C1357" s="6"/>
+      <c r="D1357" s="6"/>
+      <c r="E1357" s="6"/>
+      <c r="F1357" s="6"/>
+    </row>
+    <row r="1358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1358" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1358" s="59"/>
+      <c r="C1358" s="59"/>
+      <c r="D1358" s="59"/>
+      <c r="E1358" s="59"/>
+      <c r="F1358" s="59"/>
+    </row>
+    <row r="1359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1359" s="1"/>
+      <c r="B1359" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1359" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1359" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1359" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1359" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1360" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1360" s="54">
+        <v>26572</v>
+      </c>
+      <c r="C1360" s="58">
+        <v>26838</v>
+      </c>
+      <c r="D1360">
+        <v>-45</v>
+      </c>
+      <c r="E1360" s="58">
+        <v>27470</v>
+      </c>
+      <c r="F1360" s="9">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1361" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1361" s="54">
+        <v>30400</v>
+      </c>
+      <c r="C1361" s="58">
+        <v>30704</v>
+      </c>
+      <c r="D1361">
+        <v>-50</v>
+      </c>
+      <c r="E1361" s="58">
+        <v>31856</v>
+      </c>
+      <c r="F1361" s="9">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1362" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1362" s="59"/>
+      <c r="C1362" s="59"/>
+      <c r="D1362" s="59"/>
+      <c r="E1362" s="59"/>
+      <c r="F1362" s="50"/>
+    </row>
+    <row r="1363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1363" s="1"/>
+      <c r="B1363" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1363" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1363" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1363" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1364" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1364" s="54">
+        <v>26650</v>
+      </c>
+      <c r="C1364" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1364" s="54">
+        <v>8283400</v>
+      </c>
+      <c r="E1364" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1365" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1365" s="54">
+        <v>30589</v>
+      </c>
+      <c r="C1365" s="4">
+        <v>-227</v>
+      </c>
+      <c r="D1365" s="54">
+        <v>1202500</v>
+      </c>
+      <c r="E1365" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="266">
+  <mergeCells count="268">
+    <mergeCell ref="A1358:F1358"/>
+    <mergeCell ref="A1362:E1362"/>
+    <mergeCell ref="A1334:F1334"/>
+    <mergeCell ref="A1338:E1338"/>
+    <mergeCell ref="A1310:F1310"/>
+    <mergeCell ref="A1314:E1314"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1322:F1322"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1298:F1298"/>
+    <mergeCell ref="A1302:E1302"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1274:F1274"/>
+    <mergeCell ref="A1278:E1278"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1346:F1346"/>
     <mergeCell ref="A1350:E1350"/>
     <mergeCell ref="A397:F397"/>
@@ -20388,248 +20773,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1298:F1298"/>
-    <mergeCell ref="A1302:E1302"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1274:F1274"/>
-    <mergeCell ref="A1278:E1278"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1334:F1334"/>
-    <mergeCell ref="A1338:E1338"/>
-    <mergeCell ref="A1310:F1310"/>
-    <mergeCell ref="A1314:E1314"/>
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1322:F1322"/>
-    <mergeCell ref="A1326:E1326"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="287">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -873,6 +873,18 @@
   </si>
   <si>
     <t>بازار ارز متشکل 19 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 20 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 20 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 21 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 21 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -920,7 +932,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1053,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1087,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1147,6 +1165,8 @@
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1430,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1365"/>
+  <dimension ref="A1:J1389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1346" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1354" sqref="E1354"/>
+    <sheetView tabSelected="1" topLeftCell="A1373" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1390" sqref="E1390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,13 +1467,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1506,13 +1526,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1565,12 +1585,12 @@
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,13 +1637,13 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1676,14 +1696,14 @@
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1744,13 +1764,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1803,14 +1823,14 @@
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1871,13 +1891,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1930,14 +1950,14 @@
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1998,13 +2018,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -2057,14 +2077,14 @@
     </row>
     <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2125,13 +2145,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -2184,14 +2204,14 @@
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2252,13 +2272,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="59" t="s">
+      <c r="A59" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -2311,14 +2331,14 @@
     </row>
     <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -2387,13 +2407,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
@@ -2446,14 +2466,14 @@
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="59" t="s">
+      <c r="A73" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -2522,13 +2542,13 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+      <c r="A77" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -2581,14 +2601,14 @@
     </row>
     <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="59" t="s">
+      <c r="A82" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -2657,13 +2677,13 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="s">
+      <c r="A86" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="59"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -2716,14 +2736,14 @@
     </row>
     <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="59" t="s">
+      <c r="A91" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="59"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -2789,13 +2809,13 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="59" t="s">
+      <c r="A95" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="59"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
@@ -2852,14 +2872,14 @@
     </row>
     <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="59" t="s">
+      <c r="A100" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="59"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="61"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -2925,13 +2945,13 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="59" t="s">
+      <c r="A104" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="59"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="61"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
@@ -2988,14 +3008,14 @@
     </row>
     <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
+      <c r="A109" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B109" s="59"/>
-      <c r="C109" s="59"/>
-      <c r="D109" s="59"/>
-      <c r="E109" s="59"/>
-      <c r="F109" s="59"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
@@ -3061,13 +3081,13 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="59" t="s">
+      <c r="A113" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B113" s="59"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="59"/>
-      <c r="E113" s="59"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
@@ -3126,14 +3146,14 @@
     </row>
     <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="59" t="s">
+      <c r="A118" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B118" s="59"/>
-      <c r="C118" s="59"/>
-      <c r="D118" s="59"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="59"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="61"/>
+      <c r="F118" s="61"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
@@ -3199,13 +3219,13 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="59" t="s">
+      <c r="A122" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="59"/>
-      <c r="C122" s="59"/>
-      <c r="D122" s="59"/>
-      <c r="E122" s="59"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -3264,14 +3284,14 @@
     </row>
     <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="59" t="s">
+      <c r="A127" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B127" s="59"/>
-      <c r="C127" s="59"/>
-      <c r="D127" s="59"/>
-      <c r="E127" s="59"/>
-      <c r="F127" s="59"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
@@ -3338,13 +3358,13 @@
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="59" t="s">
+      <c r="A131" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B131" s="59"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="59"/>
-      <c r="E131" s="59"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61"/>
       <c r="I131" s="10"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -3405,14 +3425,14 @@
     </row>
     <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="59" t="s">
+      <c r="A136" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B136" s="59"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="59"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="61"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="61"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3479,13 +3499,13 @@
       <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="59" t="s">
+      <c r="A140" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B140" s="59"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="59"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="61"/>
+      <c r="D140" s="61"/>
+      <c r="E140" s="61"/>
       <c r="I140" s="10"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -3547,14 +3567,14 @@
     </row>
     <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="59" t="s">
+      <c r="A145" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="59"/>
-      <c r="C145" s="59"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="61"/>
+      <c r="F145" s="61"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
@@ -3621,13 +3641,13 @@
       <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="59" t="s">
+      <c r="A149" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="59"/>
-      <c r="C149" s="59"/>
-      <c r="D149" s="59"/>
-      <c r="E149" s="59"/>
+      <c r="B149" s="61"/>
+      <c r="C149" s="61"/>
+      <c r="D149" s="61"/>
+      <c r="E149" s="61"/>
       <c r="G149">
         <f>F148/C148</f>
         <v>2.2416386163431928E-2</v>
@@ -3696,14 +3716,14 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="59" t="s">
+      <c r="A154" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B154" s="59"/>
-      <c r="C154" s="59"/>
-      <c r="D154" s="59"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="59"/>
+      <c r="B154" s="61"/>
+      <c r="C154" s="61"/>
+      <c r="D154" s="61"/>
+      <c r="E154" s="61"/>
+      <c r="F154" s="61"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
@@ -3773,13 +3793,13 @@
       <c r="G157" s="10"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="59" t="s">
+      <c r="A158" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B158" s="59"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="59"/>
-      <c r="E158" s="59"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="61"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="61"/>
       <c r="H158">
         <f>F157/C157</f>
         <v>2.5752148997134669E-2</v>
@@ -3846,14 +3866,14 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="59" t="s">
+      <c r="A163" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B163" s="59"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="59"/>
-      <c r="E163" s="59"/>
-      <c r="F163" s="59"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="61"/>
+      <c r="D163" s="61"/>
+      <c r="E163" s="61"/>
+      <c r="F163" s="61"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
@@ -3921,13 +3941,13 @@
       <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="59" t="s">
+      <c r="A167" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B167" s="59"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="59"/>
-      <c r="E167" s="59"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="61"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="61"/>
       <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -3995,14 +4015,14 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="59" t="s">
+      <c r="A172" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B172" s="59"/>
-      <c r="C172" s="59"/>
-      <c r="D172" s="59"/>
-      <c r="E172" s="59"/>
-      <c r="F172" s="59"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="61"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="61"/>
+      <c r="F172" s="61"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
@@ -4074,13 +4094,13 @@
       <c r="G175" s="10"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="59" t="s">
+      <c r="A176" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B176" s="59"/>
-      <c r="C176" s="59"/>
-      <c r="D176" s="59"/>
-      <c r="E176" s="59"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="61"/>
+      <c r="D176" s="61"/>
+      <c r="E176" s="61"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -4148,14 +4168,14 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="59" t="s">
+      <c r="A181" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B181" s="59"/>
-      <c r="C181" s="59"/>
-      <c r="D181" s="59"/>
-      <c r="E181" s="59"/>
-      <c r="F181" s="59"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="61"/>
+      <c r="D181" s="61"/>
+      <c r="E181" s="61"/>
+      <c r="F181" s="61"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
@@ -4223,13 +4243,13 @@
       <c r="G184" s="10"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="59" t="s">
+      <c r="A185" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B185" s="59"/>
-      <c r="C185" s="59"/>
-      <c r="D185" s="59"/>
-      <c r="E185" s="59"/>
+      <c r="B185" s="61"/>
+      <c r="C185" s="61"/>
+      <c r="D185" s="61"/>
+      <c r="E185" s="61"/>
       <c r="H185">
         <f>F184/C184</f>
         <v>3.0473475363100511E-2</v>
@@ -4297,14 +4317,14 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="59" t="s">
+      <c r="A190" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B190" s="59"/>
-      <c r="C190" s="59"/>
-      <c r="D190" s="59"/>
-      <c r="E190" s="59"/>
-      <c r="F190" s="59"/>
+      <c r="B190" s="61"/>
+      <c r="C190" s="61"/>
+      <c r="D190" s="61"/>
+      <c r="E190" s="61"/>
+      <c r="F190" s="61"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
@@ -4375,13 +4395,13 @@
       <c r="G193" s="10"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="59" t="s">
+      <c r="A194" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B194" s="59"/>
-      <c r="C194" s="59"/>
-      <c r="D194" s="59"/>
-      <c r="E194" s="59"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="61"/>
+      <c r="D194" s="61"/>
+      <c r="E194" s="61"/>
       <c r="H194">
         <f>F193/C193</f>
         <v>2.5228721929581369E-2</v>
@@ -4449,14 +4469,14 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="59" t="s">
+      <c r="A199" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B199" s="59"/>
-      <c r="C199" s="59"/>
-      <c r="D199" s="59"/>
-      <c r="E199" s="59"/>
-      <c r="F199" s="59"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="61"/>
+      <c r="D199" s="61"/>
+      <c r="E199" s="61"/>
+      <c r="F199" s="61"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
@@ -4527,13 +4547,13 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="59" t="s">
+      <c r="A203" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B203" s="59"/>
-      <c r="C203" s="59"/>
-      <c r="D203" s="59"/>
-      <c r="E203" s="59"/>
+      <c r="B203" s="61"/>
+      <c r="C203" s="61"/>
+      <c r="D203" s="61"/>
+      <c r="E203" s="61"/>
       <c r="I203" s="10"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -4596,14 +4616,14 @@
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="59" t="s">
+      <c r="A208" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B208" s="59"/>
-      <c r="C208" s="59"/>
-      <c r="D208" s="59"/>
-      <c r="E208" s="59"/>
-      <c r="F208" s="59"/>
+      <c r="B208" s="61"/>
+      <c r="C208" s="61"/>
+      <c r="D208" s="61"/>
+      <c r="E208" s="61"/>
+      <c r="F208" s="61"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
@@ -4679,13 +4699,13 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="59" t="s">
+      <c r="A212" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B212" s="59"/>
-      <c r="C212" s="59"/>
-      <c r="D212" s="59"/>
-      <c r="E212" s="59"/>
+      <c r="B212" s="61"/>
+      <c r="C212" s="61"/>
+      <c r="D212" s="61"/>
+      <c r="E212" s="61"/>
       <c r="F212">
         <f>F211/C211</f>
         <v>5.3257745129351643E-2</v>
@@ -4750,14 +4770,14 @@
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="59" t="s">
+      <c r="A217" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B217" s="59"/>
-      <c r="C217" s="59"/>
-      <c r="D217" s="59"/>
-      <c r="E217" s="59"/>
-      <c r="F217" s="59"/>
+      <c r="B217" s="61"/>
+      <c r="C217" s="61"/>
+      <c r="D217" s="61"/>
+      <c r="E217" s="61"/>
+      <c r="F217" s="61"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
@@ -4832,13 +4852,13 @@
       <c r="I220" s="10"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="59" t="s">
+      <c r="A221" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B221" s="59"/>
-      <c r="C221" s="59"/>
-      <c r="D221" s="59"/>
-      <c r="E221" s="59"/>
+      <c r="B221" s="61"/>
+      <c r="C221" s="61"/>
+      <c r="D221" s="61"/>
+      <c r="E221" s="61"/>
       <c r="G221">
         <f>F220/C220</f>
         <v>5.292938818814099E-2</v>
@@ -4903,14 +4923,14 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="59" t="s">
+      <c r="A226" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="B226" s="59"/>
-      <c r="C226" s="59"/>
-      <c r="D226" s="59"/>
-      <c r="E226" s="59"/>
-      <c r="F226" s="59"/>
+      <c r="B226" s="61"/>
+      <c r="C226" s="61"/>
+      <c r="D226" s="61"/>
+      <c r="E226" s="61"/>
+      <c r="F226" s="61"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
@@ -4983,13 +5003,13 @@
       <c r="I229" s="10"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="59" t="s">
+      <c r="A230" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B230" s="59"/>
-      <c r="C230" s="59"/>
-      <c r="D230" s="59"/>
-      <c r="E230" s="59"/>
+      <c r="B230" s="61"/>
+      <c r="C230" s="61"/>
+      <c r="D230" s="61"/>
+      <c r="E230" s="61"/>
       <c r="G230">
         <f>F229/C229</f>
         <v>4.1247714808043873E-2</v>
@@ -5057,14 +5077,14 @@
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="59" t="s">
+      <c r="A235" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="B235" s="59"/>
-      <c r="C235" s="59"/>
-      <c r="D235" s="59"/>
-      <c r="E235" s="59"/>
-      <c r="F235" s="59"/>
+      <c r="B235" s="61"/>
+      <c r="C235" s="61"/>
+      <c r="D235" s="61"/>
+      <c r="E235" s="61"/>
+      <c r="F235" s="61"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
@@ -5138,13 +5158,13 @@
       <c r="I238" s="10"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="59" t="s">
+      <c r="A239" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B239" s="59"/>
-      <c r="C239" s="59"/>
-      <c r="D239" s="59"/>
-      <c r="E239" s="59"/>
+      <c r="B239" s="61"/>
+      <c r="C239" s="61"/>
+      <c r="D239" s="61"/>
+      <c r="E239" s="61"/>
       <c r="I239" s="10"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -5212,14 +5232,14 @@
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="59" t="s">
+      <c r="A244" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B244" s="59"/>
-      <c r="C244" s="59"/>
-      <c r="D244" s="59"/>
-      <c r="E244" s="59"/>
-      <c r="F244" s="59"/>
+      <c r="B244" s="61"/>
+      <c r="C244" s="61"/>
+      <c r="D244" s="61"/>
+      <c r="E244" s="61"/>
+      <c r="F244" s="61"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
@@ -5294,13 +5314,13 @@
       <c r="I247" s="10"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="59" t="s">
+      <c r="A248" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="B248" s="59"/>
-      <c r="C248" s="59"/>
-      <c r="D248" s="59"/>
-      <c r="E248" s="59"/>
+      <c r="B248" s="61"/>
+      <c r="C248" s="61"/>
+      <c r="D248" s="61"/>
+      <c r="E248" s="61"/>
       <c r="G248">
         <f>F247/C247</f>
         <v>4.4714828897338403E-2</v>
@@ -5365,14 +5385,14 @@
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="59" t="s">
+      <c r="A253" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B253" s="59"/>
-      <c r="C253" s="59"/>
-      <c r="D253" s="59"/>
-      <c r="E253" s="59"/>
-      <c r="F253" s="59"/>
+      <c r="B253" s="61"/>
+      <c r="C253" s="61"/>
+      <c r="D253" s="61"/>
+      <c r="E253" s="61"/>
+      <c r="F253" s="61"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
@@ -5448,13 +5468,13 @@
       <c r="I256" s="10"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="59" t="s">
+      <c r="A257" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B257" s="59"/>
-      <c r="C257" s="59"/>
-      <c r="D257" s="59"/>
-      <c r="E257" s="59"/>
+      <c r="B257" s="61"/>
+      <c r="C257" s="61"/>
+      <c r="D257" s="61"/>
+      <c r="E257" s="61"/>
       <c r="I257" s="10"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -5519,14 +5539,14 @@
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="59" t="s">
+      <c r="A262" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="B262" s="59"/>
-      <c r="C262" s="59"/>
-      <c r="D262" s="59"/>
-      <c r="E262" s="59"/>
-      <c r="F262" s="59"/>
+      <c r="B262" s="61"/>
+      <c r="C262" s="61"/>
+      <c r="D262" s="61"/>
+      <c r="E262" s="61"/>
+      <c r="F262" s="61"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
@@ -5601,13 +5621,13 @@
       <c r="I265" s="10"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="59" t="s">
+      <c r="A266" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="B266" s="59"/>
-      <c r="C266" s="59"/>
-      <c r="D266" s="59"/>
-      <c r="E266" s="59"/>
+      <c r="B266" s="61"/>
+      <c r="C266" s="61"/>
+      <c r="D266" s="61"/>
+      <c r="E266" s="61"/>
       <c r="F266">
         <f>F265/C265</f>
         <v>6.3093391837197865E-2</v>
@@ -5676,14 +5696,14 @@
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="59" t="s">
+      <c r="A271" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="B271" s="59"/>
-      <c r="C271" s="59"/>
-      <c r="D271" s="59"/>
-      <c r="E271" s="59"/>
-      <c r="F271" s="59"/>
+      <c r="B271" s="61"/>
+      <c r="C271" s="61"/>
+      <c r="D271" s="61"/>
+      <c r="E271" s="61"/>
+      <c r="F271" s="61"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
@@ -5759,13 +5779,13 @@
       <c r="I274" s="10"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="59" t="s">
+      <c r="A275" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B275" s="59"/>
-      <c r="C275" s="59"/>
-      <c r="D275" s="59"/>
-      <c r="E275" s="59"/>
+      <c r="B275" s="61"/>
+      <c r="C275" s="61"/>
+      <c r="D275" s="61"/>
+      <c r="E275" s="61"/>
       <c r="G275">
         <f>F274/C274</f>
         <v>2.9095066007817687E-2</v>
@@ -5830,14 +5850,14 @@
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="59" t="s">
+      <c r="A280" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B280" s="59"/>
-      <c r="C280" s="59"/>
-      <c r="D280" s="59"/>
-      <c r="E280" s="59"/>
-      <c r="F280" s="59"/>
+      <c r="B280" s="61"/>
+      <c r="C280" s="61"/>
+      <c r="D280" s="61"/>
+      <c r="E280" s="61"/>
+      <c r="F280" s="61"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
@@ -5912,13 +5932,13 @@
       <c r="I283" s="10"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="59" t="s">
+      <c r="A284" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B284" s="59"/>
-      <c r="C284" s="59"/>
-      <c r="D284" s="59"/>
-      <c r="E284" s="59"/>
+      <c r="B284" s="61"/>
+      <c r="C284" s="61"/>
+      <c r="D284" s="61"/>
+      <c r="E284" s="61"/>
       <c r="G284">
         <f>F283/C283</f>
         <v>3.0301905009469346E-2</v>
@@ -5987,14 +6007,14 @@
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="59" t="s">
+      <c r="A289" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B289" s="59"/>
-      <c r="C289" s="59"/>
-      <c r="D289" s="59"/>
-      <c r="E289" s="59"/>
-      <c r="F289" s="59"/>
+      <c r="B289" s="61"/>
+      <c r="C289" s="61"/>
+      <c r="D289" s="61"/>
+      <c r="E289" s="61"/>
+      <c r="F289" s="61"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
@@ -6069,13 +6089,13 @@
       <c r="I292" s="10"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="59" t="s">
+      <c r="A293" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B293" s="59"/>
-      <c r="C293" s="59"/>
-      <c r="D293" s="59"/>
-      <c r="E293" s="59"/>
+      <c r="B293" s="61"/>
+      <c r="C293" s="61"/>
+      <c r="D293" s="61"/>
+      <c r="E293" s="61"/>
       <c r="G293">
         <f>F292/C292</f>
         <v>3.1772328989028792E-2</v>
@@ -6140,14 +6160,14 @@
     </row>
     <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="59" t="s">
+      <c r="A298" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B298" s="59"/>
-      <c r="C298" s="59"/>
-      <c r="D298" s="59"/>
-      <c r="E298" s="59"/>
-      <c r="F298" s="59"/>
+      <c r="B298" s="61"/>
+      <c r="C298" s="61"/>
+      <c r="D298" s="61"/>
+      <c r="E298" s="61"/>
+      <c r="F298" s="61"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
@@ -6221,13 +6241,13 @@
       <c r="I301" s="10"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" s="59" t="s">
+      <c r="A302" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B302" s="59"/>
-      <c r="C302" s="59"/>
-      <c r="D302" s="59"/>
-      <c r="E302" s="59"/>
+      <c r="B302" s="61"/>
+      <c r="C302" s="61"/>
+      <c r="D302" s="61"/>
+      <c r="E302" s="61"/>
       <c r="G302">
         <f>F301/C301</f>
         <v>1.9754619148470022E-2</v>
@@ -6296,14 +6316,14 @@
     </row>
     <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="59" t="s">
+      <c r="A307" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B307" s="59"/>
-      <c r="C307" s="59"/>
-      <c r="D307" s="59"/>
-      <c r="E307" s="59"/>
-      <c r="F307" s="59"/>
+      <c r="B307" s="61"/>
+      <c r="C307" s="61"/>
+      <c r="D307" s="61"/>
+      <c r="E307" s="61"/>
+      <c r="F307" s="61"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
@@ -6380,13 +6400,13 @@
       <c r="I310" s="10"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A311" s="59" t="s">
+      <c r="A311" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B311" s="59"/>
-      <c r="C311" s="59"/>
-      <c r="D311" s="59"/>
-      <c r="E311" s="59"/>
+      <c r="B311" s="61"/>
+      <c r="C311" s="61"/>
+      <c r="D311" s="61"/>
+      <c r="E311" s="61"/>
       <c r="G311">
         <f>F310/C310</f>
         <v>2.377202300282041E-2</v>
@@ -6451,14 +6471,14 @@
     </row>
     <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A316" s="59" t="s">
+      <c r="A316" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B316" s="59"/>
-      <c r="C316" s="59"/>
-      <c r="D316" s="59"/>
-      <c r="E316" s="59"/>
-      <c r="F316" s="59"/>
+      <c r="B316" s="61"/>
+      <c r="C316" s="61"/>
+      <c r="D316" s="61"/>
+      <c r="E316" s="61"/>
+      <c r="F316" s="61"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
@@ -6532,13 +6552,13 @@
       <c r="I319" s="10"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320" s="59" t="s">
+      <c r="A320" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="B320" s="59"/>
-      <c r="C320" s="59"/>
-      <c r="D320" s="59"/>
-      <c r="E320" s="59"/>
+      <c r="B320" s="61"/>
+      <c r="C320" s="61"/>
+      <c r="D320" s="61"/>
+      <c r="E320" s="61"/>
       <c r="G320">
         <f>F319/C319</f>
         <v>3.4446152719818435E-2</v>
@@ -6606,14 +6626,14 @@
     </row>
     <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A325" s="59" t="s">
+      <c r="A325" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B325" s="59"/>
-      <c r="C325" s="59"/>
-      <c r="D325" s="59"/>
-      <c r="E325" s="59"/>
-      <c r="F325" s="59"/>
+      <c r="B325" s="61"/>
+      <c r="C325" s="61"/>
+      <c r="D325" s="61"/>
+      <c r="E325" s="61"/>
+      <c r="F325" s="61"/>
       <c r="H325">
         <f>E327-E318</f>
         <v>-230</v>
@@ -6691,13 +6711,13 @@
       <c r="I328" s="10"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="59" t="s">
+      <c r="A329" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B329" s="59"/>
-      <c r="C329" s="59"/>
-      <c r="D329" s="59"/>
-      <c r="E329" s="59"/>
+      <c r="B329" s="61"/>
+      <c r="C329" s="61"/>
+      <c r="D329" s="61"/>
+      <c r="E329" s="61"/>
       <c r="G329">
         <f>F328/C328</f>
         <v>2.3426650098676997E-2</v>
@@ -6762,14 +6782,14 @@
     </row>
     <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A334" s="59" t="s">
+      <c r="A334" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B334" s="59"/>
-      <c r="C334" s="59"/>
-      <c r="D334" s="59"/>
-      <c r="E334" s="59"/>
-      <c r="F334" s="59"/>
+      <c r="B334" s="61"/>
+      <c r="C334" s="61"/>
+      <c r="D334" s="61"/>
+      <c r="E334" s="61"/>
+      <c r="F334" s="61"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
@@ -6843,13 +6863,13 @@
       <c r="I337" s="10"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" s="59" t="s">
+      <c r="A338" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B338" s="59"/>
-      <c r="C338" s="59"/>
-      <c r="D338" s="59"/>
-      <c r="E338" s="59"/>
+      <c r="B338" s="61"/>
+      <c r="C338" s="61"/>
+      <c r="D338" s="61"/>
+      <c r="E338" s="61"/>
       <c r="G338">
         <f>F337/C337</f>
         <v>3.330182505635134E-2</v>
@@ -6918,14 +6938,14 @@
     </row>
     <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="59" t="s">
+      <c r="A343" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B343" s="59"/>
-      <c r="C343" s="59"/>
-      <c r="D343" s="59"/>
-      <c r="E343" s="59"/>
-      <c r="F343" s="59"/>
+      <c r="B343" s="61"/>
+      <c r="C343" s="61"/>
+      <c r="D343" s="61"/>
+      <c r="E343" s="61"/>
+      <c r="F343" s="61"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
@@ -7003,13 +7023,13 @@
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="59" t="s">
+      <c r="A347" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B347" s="59"/>
-      <c r="C347" s="59"/>
-      <c r="D347" s="59"/>
-      <c r="E347" s="59"/>
+      <c r="B347" s="61"/>
+      <c r="C347" s="61"/>
+      <c r="D347" s="61"/>
+      <c r="E347" s="61"/>
       <c r="H347">
         <f>F346/C346</f>
         <v>3.1777737425095334E-2</v>
@@ -7074,14 +7094,14 @@
     </row>
     <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="59" t="s">
+      <c r="A352" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B352" s="59"/>
-      <c r="C352" s="59"/>
-      <c r="D352" s="59"/>
-      <c r="E352" s="59"/>
-      <c r="F352" s="59"/>
+      <c r="B352" s="61"/>
+      <c r="C352" s="61"/>
+      <c r="D352" s="61"/>
+      <c r="E352" s="61"/>
+      <c r="F352" s="61"/>
       <c r="I352">
         <f>E354-E345</f>
         <v>750</v>
@@ -7156,13 +7176,13 @@
       <c r="I355" s="10"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" s="59" t="s">
+      <c r="A356" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B356" s="59"/>
-      <c r="C356" s="59"/>
-      <c r="D356" s="59"/>
-      <c r="E356" s="59"/>
+      <c r="B356" s="61"/>
+      <c r="C356" s="61"/>
+      <c r="D356" s="61"/>
+      <c r="E356" s="61"/>
       <c r="H356">
         <f>F355/C355</f>
         <v>3.1826209819851639E-2</v>
@@ -7230,14 +7250,14 @@
     </row>
     <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A361" s="59" t="s">
+      <c r="A361" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B361" s="59"/>
-      <c r="C361" s="59"/>
-      <c r="D361" s="59"/>
-      <c r="E361" s="59"/>
-      <c r="F361" s="59"/>
+      <c r="B361" s="61"/>
+      <c r="C361" s="61"/>
+      <c r="D361" s="61"/>
+      <c r="E361" s="61"/>
+      <c r="F361" s="61"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
@@ -7311,13 +7331,13 @@
       <c r="I364" s="10"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A365" s="59" t="s">
+      <c r="A365" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B365" s="59"/>
-      <c r="C365" s="59"/>
-      <c r="D365" s="59"/>
-      <c r="E365" s="59"/>
+      <c r="B365" s="61"/>
+      <c r="C365" s="61"/>
+      <c r="D365" s="61"/>
+      <c r="E365" s="61"/>
       <c r="I365" s="10"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -7386,14 +7406,14 @@
     </row>
     <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A370" s="59" t="s">
+      <c r="A370" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="B370" s="59"/>
-      <c r="C370" s="59"/>
-      <c r="D370" s="59"/>
-      <c r="E370" s="59"/>
-      <c r="F370" s="59"/>
+      <c r="B370" s="61"/>
+      <c r="C370" s="61"/>
+      <c r="D370" s="61"/>
+      <c r="E370" s="61"/>
+      <c r="F370" s="61"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
@@ -7467,13 +7487,13 @@
       <c r="I373" s="10"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="59" t="s">
+      <c r="A374" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B374" s="59"/>
-      <c r="C374" s="59"/>
-      <c r="D374" s="59"/>
-      <c r="E374" s="59"/>
+      <c r="B374" s="61"/>
+      <c r="C374" s="61"/>
+      <c r="D374" s="61"/>
+      <c r="E374" s="61"/>
       <c r="G374">
         <f>F373/C373</f>
         <v>3.0363083020737491E-2</v>
@@ -7542,14 +7562,14 @@
     </row>
     <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A379" s="59" t="s">
+      <c r="A379" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B379" s="59"/>
-      <c r="C379" s="59"/>
-      <c r="D379" s="59"/>
-      <c r="E379" s="59"/>
-      <c r="F379" s="59"/>
+      <c r="B379" s="61"/>
+      <c r="C379" s="61"/>
+      <c r="D379" s="61"/>
+      <c r="E379" s="61"/>
+      <c r="F379" s="61"/>
       <c r="I379">
         <f>E381-E372</f>
         <v>230</v>
@@ -7624,13 +7644,13 @@
       <c r="I382" s="10"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A383" s="59" t="s">
+      <c r="A383" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="B383" s="59"/>
-      <c r="C383" s="59"/>
-      <c r="D383" s="59"/>
-      <c r="E383" s="59"/>
+      <c r="B383" s="61"/>
+      <c r="C383" s="61"/>
+      <c r="D383" s="61"/>
+      <c r="E383" s="61"/>
       <c r="H383">
         <f>F382/C382</f>
         <v>2.9669635968296276E-2</v>
@@ -7699,14 +7719,14 @@
     </row>
     <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A388" s="59" t="s">
+      <c r="A388" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="B388" s="59"/>
-      <c r="C388" s="59"/>
-      <c r="D388" s="59"/>
-      <c r="E388" s="59"/>
-      <c r="F388" s="59"/>
+      <c r="B388" s="61"/>
+      <c r="C388" s="61"/>
+      <c r="D388" s="61"/>
+      <c r="E388" s="61"/>
+      <c r="F388" s="61"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
@@ -7781,13 +7801,13 @@
       <c r="I391" s="10"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A392" s="59" t="s">
+      <c r="A392" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="B392" s="59"/>
-      <c r="C392" s="59"/>
-      <c r="D392" s="59"/>
-      <c r="E392" s="59"/>
+      <c r="B392" s="61"/>
+      <c r="C392" s="61"/>
+      <c r="D392" s="61"/>
+      <c r="E392" s="61"/>
       <c r="G392">
         <f>F391/C391</f>
         <v>2.4687004055722096E-2</v>
@@ -7856,14 +7876,14 @@
     </row>
     <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A397" s="59" t="s">
+      <c r="A397" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B397" s="59"/>
-      <c r="C397" s="59"/>
-      <c r="D397" s="59"/>
-      <c r="E397" s="59"/>
-      <c r="F397" s="59"/>
+      <c r="B397" s="61"/>
+      <c r="C397" s="61"/>
+      <c r="D397" s="61"/>
+      <c r="E397" s="61"/>
+      <c r="F397" s="61"/>
       <c r="H397">
         <f>F399/C399</f>
         <v>1.6681599044327831E-2</v>
@@ -7940,13 +7960,13 @@
       <c r="I400" s="10"/>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A401" s="59" t="s">
+      <c r="A401" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B401" s="59"/>
-      <c r="C401" s="59"/>
-      <c r="D401" s="59"/>
-      <c r="E401" s="59"/>
+      <c r="B401" s="61"/>
+      <c r="C401" s="61"/>
+      <c r="D401" s="61"/>
+      <c r="E401" s="61"/>
       <c r="H401">
         <f>F400/C400</f>
         <v>1.4285216542977597E-2</v>
@@ -8011,14 +8031,14 @@
     </row>
     <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A406" s="59" t="s">
+      <c r="A406" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="B406" s="59"/>
-      <c r="C406" s="59"/>
-      <c r="D406" s="59"/>
-      <c r="E406" s="59"/>
-      <c r="F406" s="59"/>
+      <c r="B406" s="61"/>
+      <c r="C406" s="61"/>
+      <c r="D406" s="61"/>
+      <c r="E406" s="61"/>
+      <c r="F406" s="61"/>
       <c r="H406">
         <f>E408-E399</f>
         <v>150</v>
@@ -8093,13 +8113,13 @@
       <c r="I409" s="10"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A410" s="59" t="s">
+      <c r="A410" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B410" s="59"/>
-      <c r="C410" s="59"/>
-      <c r="D410" s="59"/>
-      <c r="E410" s="59"/>
+      <c r="B410" s="61"/>
+      <c r="C410" s="61"/>
+      <c r="D410" s="61"/>
+      <c r="E410" s="61"/>
       <c r="G410">
         <f>F409/C409</f>
         <v>1.5034453956984757E-2</v>
@@ -8168,14 +8188,14 @@
     </row>
     <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A415" s="59" t="s">
+      <c r="A415" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="B415" s="59"/>
-      <c r="C415" s="59"/>
-      <c r="D415" s="59"/>
-      <c r="E415" s="59"/>
-      <c r="F415" s="59"/>
+      <c r="B415" s="61"/>
+      <c r="C415" s="61"/>
+      <c r="D415" s="61"/>
+      <c r="E415" s="61"/>
+      <c r="F415" s="61"/>
       <c r="G415">
         <f>F417/C417</f>
         <v>1.4874628134296642E-2</v>
@@ -8253,13 +8273,13 @@
       <c r="I418" s="10"/>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A419" s="59" t="s">
+      <c r="A419" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="B419" s="59"/>
-      <c r="C419" s="59"/>
-      <c r="D419" s="59"/>
-      <c r="E419" s="59"/>
+      <c r="B419" s="61"/>
+      <c r="C419" s="61"/>
+      <c r="D419" s="61"/>
+      <c r="E419" s="61"/>
       <c r="G419">
         <f>F418/C418</f>
         <v>1.5932227025519455E-2</v>
@@ -8324,14 +8344,14 @@
     </row>
     <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A424" s="59" t="s">
+      <c r="A424" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B424" s="59"/>
-      <c r="C424" s="59"/>
-      <c r="D424" s="59"/>
-      <c r="E424" s="59"/>
-      <c r="F424" s="59"/>
+      <c r="B424" s="61"/>
+      <c r="C424" s="61"/>
+      <c r="D424" s="61"/>
+      <c r="E424" s="61"/>
+      <c r="F424" s="61"/>
       <c r="I424">
         <f>E426-E417</f>
         <v>300</v>
@@ -8406,13 +8426,13 @@
       <c r="I427" s="10"/>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A428" s="59" t="s">
+      <c r="A428" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B428" s="59"/>
-      <c r="C428" s="59"/>
-      <c r="D428" s="59"/>
-      <c r="E428" s="59"/>
+      <c r="B428" s="61"/>
+      <c r="C428" s="61"/>
+      <c r="D428" s="61"/>
+      <c r="E428" s="61"/>
       <c r="I428" s="10"/>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -8480,14 +8500,14 @@
     </row>
     <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="59" t="s">
+      <c r="A433" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B433" s="59"/>
-      <c r="C433" s="59"/>
-      <c r="D433" s="59"/>
-      <c r="E433" s="59"/>
-      <c r="F433" s="59"/>
+      <c r="B433" s="61"/>
+      <c r="C433" s="61"/>
+      <c r="D433" s="61"/>
+      <c r="E433" s="61"/>
+      <c r="F433" s="61"/>
       <c r="G433">
         <f>F435/C435</f>
         <v>1.7408615358549706E-2</v>
@@ -8562,13 +8582,13 @@
       <c r="I436" s="10"/>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A437" s="59" t="s">
+      <c r="A437" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="B437" s="59"/>
-      <c r="C437" s="59"/>
-      <c r="D437" s="59"/>
-      <c r="E437" s="59"/>
+      <c r="B437" s="61"/>
+      <c r="C437" s="61"/>
+      <c r="D437" s="61"/>
+      <c r="E437" s="61"/>
       <c r="G437">
         <f>F436/C436</f>
         <v>9.4623061781261876E-3</v>
@@ -8637,14 +8657,14 @@
     </row>
     <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A442" s="59" t="s">
+      <c r="A442" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="B442" s="59"/>
-      <c r="C442" s="59"/>
-      <c r="D442" s="59"/>
-      <c r="E442" s="59"/>
-      <c r="F442" s="59"/>
+      <c r="B442" s="61"/>
+      <c r="C442" s="61"/>
+      <c r="D442" s="61"/>
+      <c r="E442" s="61"/>
+      <c r="F442" s="61"/>
       <c r="G442">
         <f>F444/C444</f>
         <v>1.0817975798520545E-2</v>
@@ -8724,13 +8744,13 @@
       <c r="I445" s="10"/>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A446" s="59" t="s">
+      <c r="A446" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="B446" s="59"/>
-      <c r="C446" s="59"/>
-      <c r="D446" s="59"/>
-      <c r="E446" s="59"/>
+      <c r="B446" s="61"/>
+      <c r="C446" s="61"/>
+      <c r="D446" s="61"/>
+      <c r="E446" s="61"/>
       <c r="G446">
         <f>F445/C445</f>
         <v>1.6382373845060413E-2</v>
@@ -8795,14 +8815,14 @@
     </row>
     <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A451" s="59" t="s">
+      <c r="A451" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="B451" s="59"/>
-      <c r="C451" s="59"/>
-      <c r="D451" s="59"/>
-      <c r="E451" s="59"/>
-      <c r="F451" s="59"/>
+      <c r="B451" s="61"/>
+      <c r="C451" s="61"/>
+      <c r="D451" s="61"/>
+      <c r="E451" s="61"/>
+      <c r="F451" s="61"/>
       <c r="G451">
         <f>F453/C453</f>
         <v>1.8699532511687208E-2</v>
@@ -8877,13 +8897,13 @@
       <c r="I454" s="10"/>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A455" s="59" t="s">
+      <c r="A455" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="B455" s="59"/>
-      <c r="C455" s="59"/>
-      <c r="D455" s="59"/>
-      <c r="E455" s="59"/>
+      <c r="B455" s="61"/>
+      <c r="C455" s="61"/>
+      <c r="D455" s="61"/>
+      <c r="E455" s="61"/>
       <c r="G455">
         <f>F454/C454</f>
         <v>8.4291187739463595E-3</v>
@@ -8951,14 +8971,14 @@
     </row>
     <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A460" s="59" t="s">
+      <c r="A460" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B460" s="59"/>
-      <c r="C460" s="59"/>
-      <c r="D460" s="59"/>
-      <c r="E460" s="59"/>
-      <c r="F460" s="59"/>
+      <c r="B460" s="61"/>
+      <c r="C460" s="61"/>
+      <c r="D460" s="61"/>
+      <c r="E460" s="61"/>
+      <c r="F460" s="61"/>
       <c r="G460">
         <f>F462/C462</f>
         <v>1.5754384474924624E-2</v>
@@ -9033,13 +9053,13 @@
       <c r="I463" s="10"/>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A464" s="59" t="s">
+      <c r="A464" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="B464" s="59"/>
-      <c r="C464" s="59"/>
-      <c r="D464" s="59"/>
-      <c r="E464" s="59"/>
+      <c r="B464" s="61"/>
+      <c r="C464" s="61"/>
+      <c r="D464" s="61"/>
+      <c r="E464" s="61"/>
       <c r="G464">
         <f>F463/C463</f>
         <v>2.4972702617026523E-2</v>
@@ -9108,14 +9128,14 @@
     </row>
     <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A469" s="59" t="s">
+      <c r="A469" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B469" s="59"/>
-      <c r="C469" s="59"/>
-      <c r="D469" s="59"/>
-      <c r="E469" s="59"/>
-      <c r="F469" s="59"/>
+      <c r="B469" s="61"/>
+      <c r="C469" s="61"/>
+      <c r="D469" s="61"/>
+      <c r="E469" s="61"/>
+      <c r="F469" s="61"/>
       <c r="H469">
         <f>E471-E462</f>
         <v>120</v>
@@ -9190,13 +9210,13 @@
       <c r="I472" s="10"/>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A473" s="59" t="s">
+      <c r="A473" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="B473" s="59"/>
-      <c r="C473" s="59"/>
-      <c r="D473" s="59"/>
-      <c r="E473" s="59"/>
+      <c r="B473" s="61"/>
+      <c r="C473" s="61"/>
+      <c r="D473" s="61"/>
+      <c r="E473" s="61"/>
       <c r="G473">
         <f>F472/C472</f>
         <v>2.6497085320614733E-2</v>
@@ -9265,14 +9285,14 @@
     </row>
     <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A478" s="59" t="s">
+      <c r="A478" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="B478" s="59"/>
-      <c r="C478" s="59"/>
-      <c r="D478" s="59"/>
-      <c r="E478" s="59"/>
-      <c r="F478" s="59"/>
+      <c r="B478" s="61"/>
+      <c r="C478" s="61"/>
+      <c r="D478" s="61"/>
+      <c r="E478" s="61"/>
+      <c r="F478" s="61"/>
       <c r="G478">
         <f>F480/C480</f>
         <v>2.2910479422995334E-2</v>
@@ -9347,13 +9367,13 @@
       <c r="I481" s="10"/>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A482" s="59" t="s">
+      <c r="A482" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="B482" s="59"/>
-      <c r="C482" s="59"/>
-      <c r="D482" s="59"/>
-      <c r="E482" s="59"/>
+      <c r="B482" s="61"/>
+      <c r="C482" s="61"/>
+      <c r="D482" s="61"/>
+      <c r="E482" s="61"/>
       <c r="F482" s="34"/>
       <c r="G482">
         <f>F481/C481</f>
@@ -9425,14 +9445,14 @@
     </row>
     <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A487" s="59" t="s">
+      <c r="A487" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="B487" s="59"/>
-      <c r="C487" s="59"/>
-      <c r="D487" s="59"/>
-      <c r="E487" s="59"/>
-      <c r="F487" s="59"/>
+      <c r="B487" s="61"/>
+      <c r="C487" s="61"/>
+      <c r="D487" s="61"/>
+      <c r="E487" s="61"/>
+      <c r="F487" s="61"/>
       <c r="I487">
         <f>E489-E480</f>
         <v>230</v>
@@ -9507,13 +9527,13 @@
       <c r="I490" s="10"/>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A491" s="59" t="s">
+      <c r="A491" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="B491" s="59"/>
-      <c r="C491" s="59"/>
-      <c r="D491" s="59"/>
-      <c r="E491" s="59"/>
+      <c r="B491" s="61"/>
+      <c r="C491" s="61"/>
+      <c r="D491" s="61"/>
+      <c r="E491" s="61"/>
       <c r="F491" s="34"/>
       <c r="H491">
         <f>F490/C490</f>
@@ -9584,14 +9604,14 @@
     </row>
     <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A496" s="59" t="s">
+      <c r="A496" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="B496" s="59"/>
-      <c r="C496" s="59"/>
-      <c r="D496" s="59"/>
-      <c r="E496" s="59"/>
-      <c r="F496" s="59"/>
+      <c r="B496" s="61"/>
+      <c r="C496" s="61"/>
+      <c r="D496" s="61"/>
+      <c r="E496" s="61"/>
+      <c r="F496" s="61"/>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
@@ -9666,13 +9686,13 @@
       <c r="I499" s="10"/>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A500" s="59" t="s">
+      <c r="A500" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="B500" s="59"/>
-      <c r="C500" s="59"/>
-      <c r="D500" s="59"/>
-      <c r="E500" s="59"/>
+      <c r="B500" s="61"/>
+      <c r="C500" s="61"/>
+      <c r="D500" s="61"/>
+      <c r="E500" s="61"/>
       <c r="F500" s="34"/>
       <c r="G500">
         <f>F499/C499</f>
@@ -9744,14 +9764,14 @@
     </row>
     <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A505" s="59" t="s">
+      <c r="A505" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="B505" s="59"/>
-      <c r="C505" s="59"/>
-      <c r="D505" s="59"/>
-      <c r="E505" s="59"/>
-      <c r="F505" s="59"/>
+      <c r="B505" s="61"/>
+      <c r="C505" s="61"/>
+      <c r="D505" s="61"/>
+      <c r="E505" s="61"/>
+      <c r="F505" s="61"/>
       <c r="G505">
         <f>F507/C507</f>
         <v>8.3248386000679582E-3</v>
@@ -9827,13 +9847,13 @@
       <c r="I508" s="10"/>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A509" s="59" t="s">
+      <c r="A509" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="B509" s="59"/>
-      <c r="C509" s="59"/>
-      <c r="D509" s="59"/>
-      <c r="E509" s="59"/>
+      <c r="B509" s="61"/>
+      <c r="C509" s="61"/>
+      <c r="D509" s="61"/>
+      <c r="E509" s="61"/>
       <c r="F509" s="34"/>
       <c r="G509">
         <f>F508/C508</f>
@@ -9908,14 +9928,14 @@
     </row>
     <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A514" s="59" t="s">
+      <c r="A514" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="B514" s="59"/>
-      <c r="C514" s="59"/>
-      <c r="D514" s="59"/>
-      <c r="E514" s="59"/>
-      <c r="F514" s="59"/>
+      <c r="B514" s="61"/>
+      <c r="C514" s="61"/>
+      <c r="D514" s="61"/>
+      <c r="E514" s="61"/>
+      <c r="F514" s="61"/>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
@@ -9986,13 +10006,13 @@
       <c r="I517" s="10"/>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A518" s="59" t="s">
+      <c r="A518" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="B518" s="59"/>
-      <c r="C518" s="59"/>
-      <c r="D518" s="59"/>
-      <c r="E518" s="59"/>
+      <c r="B518" s="61"/>
+      <c r="C518" s="61"/>
+      <c r="D518" s="61"/>
+      <c r="E518" s="61"/>
       <c r="F518" s="34"/>
       <c r="I518" s="10"/>
     </row>
@@ -10059,14 +10079,14 @@
     </row>
     <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A523" s="59" t="s">
+      <c r="A523" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="B523" s="59"/>
-      <c r="C523" s="59"/>
-      <c r="D523" s="59"/>
-      <c r="E523" s="59"/>
-      <c r="F523" s="59"/>
+      <c r="B523" s="61"/>
+      <c r="C523" s="61"/>
+      <c r="D523" s="61"/>
+      <c r="E523" s="61"/>
+      <c r="F523" s="61"/>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
@@ -10134,13 +10154,13 @@
       <c r="I526" s="10"/>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A527" s="59" t="s">
+      <c r="A527" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B527" s="59"/>
-      <c r="C527" s="59"/>
-      <c r="D527" s="59"/>
-      <c r="E527" s="59"/>
+      <c r="B527" s="61"/>
+      <c r="C527" s="61"/>
+      <c r="D527" s="61"/>
+      <c r="E527" s="61"/>
       <c r="F527" s="34"/>
       <c r="I527" s="10"/>
     </row>
@@ -10204,14 +10224,14 @@
     </row>
     <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A534" s="59" t="s">
+      <c r="A534" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B534" s="59"/>
-      <c r="C534" s="59"/>
-      <c r="D534" s="59"/>
-      <c r="E534" s="59"/>
-      <c r="F534" s="59"/>
+      <c r="B534" s="61"/>
+      <c r="C534" s="61"/>
+      <c r="D534" s="61"/>
+      <c r="E534" s="61"/>
+      <c r="F534" s="61"/>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
@@ -10256,13 +10276,13 @@
       <c r="I537" s="10"/>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A538" s="59" t="s">
+      <c r="A538" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B538" s="59"/>
-      <c r="C538" s="59"/>
-      <c r="D538" s="59"/>
-      <c r="E538" s="59"/>
+      <c r="B538" s="61"/>
+      <c r="C538" s="61"/>
+      <c r="D538" s="61"/>
+      <c r="E538" s="61"/>
       <c r="F538" s="34"/>
       <c r="I538" s="10"/>
     </row>
@@ -10310,14 +10330,14 @@
     </row>
     <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A545" s="59" t="s">
+      <c r="A545" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="B545" s="59"/>
-      <c r="C545" s="59"/>
-      <c r="D545" s="59"/>
-      <c r="E545" s="59"/>
-      <c r="F545" s="59"/>
+      <c r="B545" s="61"/>
+      <c r="C545" s="61"/>
+      <c r="D545" s="61"/>
+      <c r="E545" s="61"/>
+      <c r="F545" s="61"/>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
@@ -10373,13 +10393,13 @@
       <c r="I548" s="10"/>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A549" s="59" t="s">
+      <c r="A549" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B549" s="59"/>
-      <c r="C549" s="59"/>
-      <c r="D549" s="59"/>
-      <c r="E549" s="59"/>
+      <c r="B549" s="61"/>
+      <c r="C549" s="61"/>
+      <c r="D549" s="61"/>
+      <c r="E549" s="61"/>
       <c r="F549" s="34"/>
       <c r="I549" s="10"/>
     </row>
@@ -10435,14 +10455,14 @@
     </row>
     <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A556" s="59" t="s">
+      <c r="A556" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="B556" s="59"/>
-      <c r="C556" s="59"/>
-      <c r="D556" s="59"/>
-      <c r="E556" s="59"/>
-      <c r="F556" s="59"/>
+      <c r="B556" s="61"/>
+      <c r="C556" s="61"/>
+      <c r="D556" s="61"/>
+      <c r="E556" s="61"/>
+      <c r="F556" s="61"/>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
@@ -10518,13 +10538,13 @@
       <c r="I559" s="10"/>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A560" s="59" t="s">
+      <c r="A560" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="B560" s="59"/>
-      <c r="C560" s="59"/>
-      <c r="D560" s="59"/>
-      <c r="E560" s="59"/>
+      <c r="B560" s="61"/>
+      <c r="C560" s="61"/>
+      <c r="D560" s="61"/>
+      <c r="E560" s="61"/>
       <c r="F560" s="34"/>
       <c r="I560" s="10"/>
     </row>
@@ -10588,14 +10608,14 @@
     </row>
     <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A566" s="59" t="s">
+      <c r="A566" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="B566" s="59"/>
-      <c r="C566" s="59"/>
-      <c r="D566" s="59"/>
-      <c r="E566" s="59"/>
-      <c r="F566" s="59"/>
+      <c r="B566" s="61"/>
+      <c r="C566" s="61"/>
+      <c r="D566" s="61"/>
+      <c r="E566" s="61"/>
+      <c r="F566" s="61"/>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
@@ -10662,13 +10682,13 @@
       <c r="I569" s="10"/>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A570" s="59" t="s">
+      <c r="A570" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B570" s="59"/>
-      <c r="C570" s="59"/>
-      <c r="D570" s="59"/>
-      <c r="E570" s="59"/>
+      <c r="B570" s="61"/>
+      <c r="C570" s="61"/>
+      <c r="D570" s="61"/>
+      <c r="E570" s="61"/>
       <c r="F570" s="34"/>
       <c r="I570" s="10"/>
     </row>
@@ -10732,14 +10752,14 @@
     </row>
     <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A576" s="59" t="s">
+      <c r="A576" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="B576" s="59"/>
-      <c r="C576" s="59"/>
-      <c r="D576" s="59"/>
-      <c r="E576" s="59"/>
-      <c r="F576" s="59"/>
+      <c r="B576" s="61"/>
+      <c r="C576" s="61"/>
+      <c r="D576" s="61"/>
+      <c r="E576" s="61"/>
+      <c r="F576" s="61"/>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
@@ -10806,13 +10826,13 @@
       <c r="I579" s="10"/>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A580" s="59" t="s">
+      <c r="A580" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B580" s="59"/>
-      <c r="C580" s="59"/>
-      <c r="D580" s="59"/>
-      <c r="E580" s="59"/>
+      <c r="B580" s="61"/>
+      <c r="C580" s="61"/>
+      <c r="D580" s="61"/>
+      <c r="E580" s="61"/>
       <c r="F580" s="34"/>
       <c r="I580" s="10"/>
     </row>
@@ -10876,14 +10896,14 @@
     </row>
     <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A586" s="59" t="s">
+      <c r="A586" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="B586" s="59"/>
-      <c r="C586" s="59"/>
-      <c r="D586" s="59"/>
-      <c r="E586" s="59"/>
-      <c r="F586" s="59"/>
+      <c r="B586" s="61"/>
+      <c r="C586" s="61"/>
+      <c r="D586" s="61"/>
+      <c r="E586" s="61"/>
+      <c r="F586" s="61"/>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
@@ -10950,13 +10970,13 @@
       <c r="I589" s="10"/>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A590" s="59" t="s">
+      <c r="A590" s="61" t="s">
         <v>148</v>
       </c>
-      <c r="B590" s="59"/>
-      <c r="C590" s="59"/>
-      <c r="D590" s="59"/>
-      <c r="E590" s="59"/>
+      <c r="B590" s="61"/>
+      <c r="C590" s="61"/>
+      <c r="D590" s="61"/>
+      <c r="E590" s="61"/>
       <c r="F590" s="34"/>
       <c r="I590" s="10"/>
     </row>
@@ -11020,14 +11040,14 @@
     </row>
     <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A596" s="59" t="s">
+      <c r="A596" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="B596" s="59"/>
-      <c r="C596" s="59"/>
-      <c r="D596" s="59"/>
-      <c r="E596" s="59"/>
-      <c r="F596" s="59"/>
+      <c r="B596" s="61"/>
+      <c r="C596" s="61"/>
+      <c r="D596" s="61"/>
+      <c r="E596" s="61"/>
+      <c r="F596" s="61"/>
       <c r="I596">
         <f>E598-E588</f>
         <v>140</v>
@@ -11102,13 +11122,13 @@
       <c r="I599" s="10"/>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A600" s="59" t="s">
+      <c r="A600" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="B600" s="59"/>
-      <c r="C600" s="59"/>
-      <c r="D600" s="59"/>
-      <c r="E600" s="59"/>
+      <c r="B600" s="61"/>
+      <c r="C600" s="61"/>
+      <c r="D600" s="61"/>
+      <c r="E600" s="61"/>
       <c r="F600" s="34"/>
       <c r="G600">
         <f>F599/C599</f>
@@ -11179,14 +11199,14 @@
     </row>
     <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A606" s="59" t="s">
+      <c r="A606" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="B606" s="59"/>
-      <c r="C606" s="59"/>
-      <c r="D606" s="59"/>
-      <c r="E606" s="59"/>
-      <c r="F606" s="59"/>
+      <c r="B606" s="61"/>
+      <c r="C606" s="61"/>
+      <c r="D606" s="61"/>
+      <c r="E606" s="61"/>
+      <c r="F606" s="61"/>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
@@ -11253,13 +11273,13 @@
       <c r="I609" s="10"/>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A610" s="59" t="s">
+      <c r="A610" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="B610" s="59"/>
-      <c r="C610" s="59"/>
-      <c r="D610" s="59"/>
-      <c r="E610" s="59"/>
+      <c r="B610" s="61"/>
+      <c r="C610" s="61"/>
+      <c r="D610" s="61"/>
+      <c r="E610" s="61"/>
       <c r="F610" s="34"/>
       <c r="I610" s="10"/>
     </row>
@@ -11323,14 +11343,14 @@
     </row>
     <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A616" s="59" t="s">
+      <c r="A616" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="B616" s="59"/>
-      <c r="C616" s="59"/>
-      <c r="D616" s="59"/>
-      <c r="E616" s="59"/>
-      <c r="F616" s="59"/>
+      <c r="B616" s="61"/>
+      <c r="C616" s="61"/>
+      <c r="D616" s="61"/>
+      <c r="E616" s="61"/>
+      <c r="F616" s="61"/>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
@@ -11397,13 +11417,13 @@
       <c r="I619" s="10"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A620" s="59" t="s">
+      <c r="A620" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B620" s="59"/>
-      <c r="C620" s="59"/>
-      <c r="D620" s="59"/>
-      <c r="E620" s="59"/>
+      <c r="B620" s="61"/>
+      <c r="C620" s="61"/>
+      <c r="D620" s="61"/>
+      <c r="E620" s="61"/>
       <c r="F620" s="34"/>
       <c r="I620" s="10"/>
     </row>
@@ -11467,14 +11487,14 @@
     </row>
     <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A626" s="59" t="s">
+      <c r="A626" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="B626" s="59"/>
-      <c r="C626" s="59"/>
-      <c r="D626" s="59"/>
-      <c r="E626" s="59"/>
-      <c r="F626" s="59"/>
+      <c r="B626" s="61"/>
+      <c r="C626" s="61"/>
+      <c r="D626" s="61"/>
+      <c r="E626" s="61"/>
+      <c r="F626" s="61"/>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
@@ -11541,13 +11561,13 @@
       <c r="I629" s="10"/>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A630" s="59" t="s">
+      <c r="A630" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="B630" s="59"/>
-      <c r="C630" s="59"/>
-      <c r="D630" s="59"/>
-      <c r="E630" s="59"/>
+      <c r="B630" s="61"/>
+      <c r="C630" s="61"/>
+      <c r="D630" s="61"/>
+      <c r="E630" s="61"/>
       <c r="F630" s="34"/>
       <c r="I630" s="10"/>
     </row>
@@ -11611,14 +11631,14 @@
     </row>
     <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A636" s="59" t="s">
+      <c r="A636" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="B636" s="59"/>
-      <c r="C636" s="59"/>
-      <c r="D636" s="59"/>
-      <c r="E636" s="59"/>
-      <c r="F636" s="59"/>
+      <c r="B636" s="61"/>
+      <c r="C636" s="61"/>
+      <c r="D636" s="61"/>
+      <c r="E636" s="61"/>
+      <c r="F636" s="61"/>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
@@ -11685,13 +11705,13 @@
       <c r="I639" s="10"/>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A640" s="59" t="s">
+      <c r="A640" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="B640" s="59"/>
-      <c r="C640" s="59"/>
-      <c r="D640" s="59"/>
-      <c r="E640" s="59"/>
+      <c r="B640" s="61"/>
+      <c r="C640" s="61"/>
+      <c r="D640" s="61"/>
+      <c r="E640" s="61"/>
       <c r="F640" s="34"/>
       <c r="I640" s="10"/>
     </row>
@@ -11755,14 +11775,14 @@
     </row>
     <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A646" s="59" t="s">
+      <c r="A646" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="B646" s="59"/>
-      <c r="C646" s="59"/>
-      <c r="D646" s="59"/>
-      <c r="E646" s="59"/>
-      <c r="F646" s="59"/>
+      <c r="B646" s="61"/>
+      <c r="C646" s="61"/>
+      <c r="D646" s="61"/>
+      <c r="E646" s="61"/>
+      <c r="F646" s="61"/>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
@@ -11829,13 +11849,13 @@
       <c r="I649" s="10"/>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A650" s="59" t="s">
+      <c r="A650" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="B650" s="59"/>
-      <c r="C650" s="59"/>
-      <c r="D650" s="59"/>
-      <c r="E650" s="59"/>
+      <c r="B650" s="61"/>
+      <c r="C650" s="61"/>
+      <c r="D650" s="61"/>
+      <c r="E650" s="61"/>
       <c r="F650" s="34"/>
       <c r="I650" s="10"/>
     </row>
@@ -11899,14 +11919,14 @@
     </row>
     <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A656" s="59" t="s">
+      <c r="A656" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="B656" s="59"/>
-      <c r="C656" s="59"/>
-      <c r="D656" s="59"/>
-      <c r="E656" s="59"/>
-      <c r="F656" s="59"/>
+      <c r="B656" s="61"/>
+      <c r="C656" s="61"/>
+      <c r="D656" s="61"/>
+      <c r="E656" s="61"/>
+      <c r="F656" s="61"/>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
@@ -11973,13 +11993,13 @@
       <c r="I659" s="10"/>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A660" s="59" t="s">
+      <c r="A660" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="B660" s="59"/>
-      <c r="C660" s="59"/>
-      <c r="D660" s="59"/>
-      <c r="E660" s="59"/>
+      <c r="B660" s="61"/>
+      <c r="C660" s="61"/>
+      <c r="D660" s="61"/>
+      <c r="E660" s="61"/>
       <c r="F660" s="34"/>
       <c r="I660" s="10"/>
     </row>
@@ -12050,14 +12070,14 @@
       <c r="F665" s="6"/>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A666" s="59" t="s">
+      <c r="A666" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B666" s="59"/>
-      <c r="C666" s="59"/>
-      <c r="D666" s="59"/>
-      <c r="E666" s="59"/>
-      <c r="F666" s="59"/>
+      <c r="B666" s="61"/>
+      <c r="C666" s="61"/>
+      <c r="D666" s="61"/>
+      <c r="E666" s="61"/>
+      <c r="F666" s="61"/>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
@@ -12118,13 +12138,13 @@
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A670" s="59" t="s">
+      <c r="A670" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="B670" s="59"/>
-      <c r="C670" s="59"/>
-      <c r="D670" s="59"/>
-      <c r="E670" s="59"/>
+      <c r="B670" s="61"/>
+      <c r="C670" s="61"/>
+      <c r="D670" s="61"/>
+      <c r="E670" s="61"/>
       <c r="F670" s="34"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
@@ -12188,14 +12208,14 @@
       <c r="F675" s="6"/>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A676" s="59" t="s">
+      <c r="A676" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="B676" s="59"/>
-      <c r="C676" s="59"/>
-      <c r="D676" s="59"/>
-      <c r="E676" s="59"/>
-      <c r="F676" s="59"/>
+      <c r="B676" s="61"/>
+      <c r="C676" s="61"/>
+      <c r="D676" s="61"/>
+      <c r="E676" s="61"/>
+      <c r="F676" s="61"/>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
@@ -12257,13 +12277,13 @@
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A680" s="59" t="s">
+      <c r="A680" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="B680" s="59"/>
-      <c r="C680" s="59"/>
-      <c r="D680" s="59"/>
-      <c r="E680" s="59"/>
+      <c r="B680" s="61"/>
+      <c r="C680" s="61"/>
+      <c r="D680" s="61"/>
+      <c r="E680" s="61"/>
       <c r="F680" s="34"/>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
@@ -12331,14 +12351,14 @@
       <c r="F685" s="6"/>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A686" s="59" t="s">
+      <c r="A686" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="B686" s="59"/>
-      <c r="C686" s="59"/>
-      <c r="D686" s="59"/>
-      <c r="E686" s="59"/>
-      <c r="F686" s="59"/>
+      <c r="B686" s="61"/>
+      <c r="C686" s="61"/>
+      <c r="D686" s="61"/>
+      <c r="E686" s="61"/>
+      <c r="F686" s="61"/>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
@@ -12399,13 +12419,13 @@
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A690" s="59" t="s">
+      <c r="A690" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="B690" s="59"/>
-      <c r="C690" s="59"/>
-      <c r="D690" s="59"/>
-      <c r="E690" s="59"/>
+      <c r="B690" s="61"/>
+      <c r="C690" s="61"/>
+      <c r="D690" s="61"/>
+      <c r="E690" s="61"/>
       <c r="F690" s="34"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
@@ -12469,14 +12489,14 @@
       <c r="F695" s="6"/>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A696" s="59" t="s">
+      <c r="A696" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B696" s="59"/>
-      <c r="C696" s="59"/>
-      <c r="D696" s="59"/>
-      <c r="E696" s="59"/>
-      <c r="F696" s="59"/>
+      <c r="B696" s="61"/>
+      <c r="C696" s="61"/>
+      <c r="D696" s="61"/>
+      <c r="E696" s="61"/>
+      <c r="F696" s="61"/>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
@@ -12537,13 +12557,13 @@
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A700" s="59" t="s">
+      <c r="A700" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B700" s="59"/>
-      <c r="C700" s="59"/>
-      <c r="D700" s="59"/>
-      <c r="E700" s="59"/>
+      <c r="B700" s="61"/>
+      <c r="C700" s="61"/>
+      <c r="D700" s="61"/>
+      <c r="E700" s="61"/>
       <c r="F700" s="34"/>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
@@ -12611,14 +12631,14 @@
       <c r="F705" s="6"/>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A706" s="59" t="s">
+      <c r="A706" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="B706" s="59"/>
-      <c r="C706" s="59"/>
-      <c r="D706" s="59"/>
-      <c r="E706" s="59"/>
-      <c r="F706" s="59"/>
+      <c r="B706" s="61"/>
+      <c r="C706" s="61"/>
+      <c r="D706" s="61"/>
+      <c r="E706" s="61"/>
+      <c r="F706" s="61"/>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
@@ -12679,13 +12699,13 @@
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A710" s="59" t="s">
+      <c r="A710" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="B710" s="59"/>
-      <c r="C710" s="59"/>
-      <c r="D710" s="59"/>
-      <c r="E710" s="59"/>
+      <c r="B710" s="61"/>
+      <c r="C710" s="61"/>
+      <c r="D710" s="61"/>
+      <c r="E710" s="61"/>
       <c r="F710" s="34"/>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -12749,14 +12769,14 @@
       <c r="F715" s="6"/>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A716" s="59" t="s">
+      <c r="A716" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="B716" s="59"/>
-      <c r="C716" s="59"/>
-      <c r="D716" s="59"/>
-      <c r="E716" s="59"/>
-      <c r="F716" s="59"/>
+      <c r="B716" s="61"/>
+      <c r="C716" s="61"/>
+      <c r="D716" s="61"/>
+      <c r="E716" s="61"/>
+      <c r="F716" s="61"/>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
@@ -12817,13 +12837,13 @@
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A720" s="59" t="s">
+      <c r="A720" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="B720" s="59"/>
-      <c r="C720" s="59"/>
-      <c r="D720" s="59"/>
-      <c r="E720" s="59"/>
+      <c r="B720" s="61"/>
+      <c r="C720" s="61"/>
+      <c r="D720" s="61"/>
+      <c r="E720" s="61"/>
       <c r="F720" s="34"/>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
@@ -12887,14 +12907,14 @@
       <c r="F725" s="6"/>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A726" s="59" t="s">
+      <c r="A726" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="B726" s="59"/>
-      <c r="C726" s="59"/>
-      <c r="D726" s="59"/>
-      <c r="E726" s="59"/>
-      <c r="F726" s="59"/>
+      <c r="B726" s="61"/>
+      <c r="C726" s="61"/>
+      <c r="D726" s="61"/>
+      <c r="E726" s="61"/>
+      <c r="F726" s="61"/>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
@@ -12955,13 +12975,13 @@
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A730" s="59" t="s">
+      <c r="A730" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="B730" s="59"/>
-      <c r="C730" s="59"/>
-      <c r="D730" s="59"/>
-      <c r="E730" s="59"/>
+      <c r="B730" s="61"/>
+      <c r="C730" s="61"/>
+      <c r="D730" s="61"/>
+      <c r="E730" s="61"/>
       <c r="F730" s="34"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
@@ -13025,14 +13045,14 @@
       <c r="F735" s="6"/>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A736" s="59" t="s">
+      <c r="A736" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="B736" s="59"/>
-      <c r="C736" s="59"/>
-      <c r="D736" s="59"/>
-      <c r="E736" s="59"/>
-      <c r="F736" s="59"/>
+      <c r="B736" s="61"/>
+      <c r="C736" s="61"/>
+      <c r="D736" s="61"/>
+      <c r="E736" s="61"/>
+      <c r="F736" s="61"/>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
@@ -13093,13 +13113,13 @@
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A740" s="59" t="s">
+      <c r="A740" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="B740" s="59"/>
-      <c r="C740" s="59"/>
-      <c r="D740" s="59"/>
-      <c r="E740" s="59"/>
+      <c r="B740" s="61"/>
+      <c r="C740" s="61"/>
+      <c r="D740" s="61"/>
+      <c r="E740" s="61"/>
       <c r="F740" s="34"/>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
@@ -13163,14 +13183,14 @@
       <c r="F747" s="6"/>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A748" s="59" t="s">
+      <c r="A748" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="B748" s="59"/>
-      <c r="C748" s="59"/>
-      <c r="D748" s="59"/>
-      <c r="E748" s="59"/>
-      <c r="F748" s="59"/>
+      <c r="B748" s="61"/>
+      <c r="C748" s="61"/>
+      <c r="D748" s="61"/>
+      <c r="E748" s="61"/>
+      <c r="F748" s="61"/>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
@@ -13231,13 +13251,13 @@
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A752" s="59" t="s">
+      <c r="A752" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="B752" s="59"/>
-      <c r="C752" s="59"/>
-      <c r="D752" s="59"/>
-      <c r="E752" s="59"/>
+      <c r="B752" s="61"/>
+      <c r="C752" s="61"/>
+      <c r="D752" s="61"/>
+      <c r="E752" s="61"/>
       <c r="F752" s="34"/>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
@@ -13301,14 +13321,14 @@
       <c r="F758" s="6"/>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A759" s="59" t="s">
+      <c r="A759" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="B759" s="59"/>
-      <c r="C759" s="59"/>
-      <c r="D759" s="59"/>
-      <c r="E759" s="59"/>
-      <c r="F759" s="59"/>
+      <c r="B759" s="61"/>
+      <c r="C759" s="61"/>
+      <c r="D759" s="61"/>
+      <c r="E759" s="61"/>
+      <c r="F759" s="61"/>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
@@ -13369,13 +13389,13 @@
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A763" s="59" t="s">
+      <c r="A763" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="B763" s="59"/>
-      <c r="C763" s="59"/>
-      <c r="D763" s="59"/>
-      <c r="E763" s="59"/>
+      <c r="B763" s="61"/>
+      <c r="C763" s="61"/>
+      <c r="D763" s="61"/>
+      <c r="E763" s="61"/>
       <c r="F763" s="34"/>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
@@ -13439,14 +13459,14 @@
       <c r="F769" s="6"/>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A770" s="59" t="s">
+      <c r="A770" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="B770" s="59"/>
-      <c r="C770" s="59"/>
-      <c r="D770" s="59"/>
-      <c r="E770" s="59"/>
-      <c r="F770" s="59"/>
+      <c r="B770" s="61"/>
+      <c r="C770" s="61"/>
+      <c r="D770" s="61"/>
+      <c r="E770" s="61"/>
+      <c r="F770" s="61"/>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
@@ -13507,13 +13527,13 @@
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A774" s="59" t="s">
+      <c r="A774" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="B774" s="59"/>
-      <c r="C774" s="59"/>
-      <c r="D774" s="59"/>
-      <c r="E774" s="59"/>
+      <c r="B774" s="61"/>
+      <c r="C774" s="61"/>
+      <c r="D774" s="61"/>
+      <c r="E774" s="61"/>
       <c r="F774" s="34"/>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -13577,14 +13597,14 @@
       <c r="F780" s="6"/>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A781" s="59" t="s">
+      <c r="A781" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="B781" s="59"/>
-      <c r="C781" s="59"/>
-      <c r="D781" s="59"/>
-      <c r="E781" s="59"/>
-      <c r="F781" s="59"/>
+      <c r="B781" s="61"/>
+      <c r="C781" s="61"/>
+      <c r="D781" s="61"/>
+      <c r="E781" s="61"/>
+      <c r="F781" s="61"/>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
@@ -13645,13 +13665,13 @@
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785" s="59" t="s">
+      <c r="A785" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="B785" s="59"/>
-      <c r="C785" s="59"/>
-      <c r="D785" s="59"/>
-      <c r="E785" s="59"/>
+      <c r="B785" s="61"/>
+      <c r="C785" s="61"/>
+      <c r="D785" s="61"/>
+      <c r="E785" s="61"/>
       <c r="F785" s="34"/>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
@@ -13715,14 +13735,14 @@
       <c r="F791" s="6"/>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A792" s="59" t="s">
+      <c r="A792" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="B792" s="59"/>
-      <c r="C792" s="59"/>
-      <c r="D792" s="59"/>
-      <c r="E792" s="59"/>
-      <c r="F792" s="59"/>
+      <c r="B792" s="61"/>
+      <c r="C792" s="61"/>
+      <c r="D792" s="61"/>
+      <c r="E792" s="61"/>
+      <c r="F792" s="61"/>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
@@ -13783,13 +13803,13 @@
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A796" s="59" t="s">
+      <c r="A796" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="B796" s="59"/>
-      <c r="C796" s="59"/>
-      <c r="D796" s="59"/>
-      <c r="E796" s="59"/>
+      <c r="B796" s="61"/>
+      <c r="C796" s="61"/>
+      <c r="D796" s="61"/>
+      <c r="E796" s="61"/>
       <c r="F796" s="34"/>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
@@ -13859,14 +13879,14 @@
       <c r="F802" s="6"/>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A803" s="59" t="s">
+      <c r="A803" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="B803" s="59"/>
-      <c r="C803" s="59"/>
-      <c r="D803" s="59"/>
-      <c r="E803" s="59"/>
-      <c r="F803" s="59"/>
+      <c r="B803" s="61"/>
+      <c r="C803" s="61"/>
+      <c r="D803" s="61"/>
+      <c r="E803" s="61"/>
+      <c r="F803" s="61"/>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
@@ -13927,13 +13947,13 @@
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A807" s="59" t="s">
+      <c r="A807" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="B807" s="59"/>
-      <c r="C807" s="59"/>
-      <c r="D807" s="59"/>
-      <c r="E807" s="59"/>
+      <c r="B807" s="61"/>
+      <c r="C807" s="61"/>
+      <c r="D807" s="61"/>
+      <c r="E807" s="61"/>
       <c r="F807" s="34"/>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
@@ -14001,14 +14021,14 @@
       <c r="F813" s="6"/>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A814" s="59" t="s">
+      <c r="A814" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="B814" s="59"/>
-      <c r="C814" s="59"/>
-      <c r="D814" s="59"/>
-      <c r="E814" s="59"/>
-      <c r="F814" s="59"/>
+      <c r="B814" s="61"/>
+      <c r="C814" s="61"/>
+      <c r="D814" s="61"/>
+      <c r="E814" s="61"/>
+      <c r="F814" s="61"/>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
@@ -14069,13 +14089,13 @@
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A818" s="59" t="s">
+      <c r="A818" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="B818" s="59"/>
-      <c r="C818" s="59"/>
-      <c r="D818" s="59"/>
-      <c r="E818" s="59"/>
+      <c r="B818" s="61"/>
+      <c r="C818" s="61"/>
+      <c r="D818" s="61"/>
+      <c r="E818" s="61"/>
       <c r="F818" s="34"/>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
@@ -14139,14 +14159,14 @@
       <c r="F824" s="6"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A825" s="59" t="s">
+      <c r="A825" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="B825" s="59"/>
-      <c r="C825" s="59"/>
-      <c r="D825" s="59"/>
-      <c r="E825" s="59"/>
-      <c r="F825" s="59"/>
+      <c r="B825" s="61"/>
+      <c r="C825" s="61"/>
+      <c r="D825" s="61"/>
+      <c r="E825" s="61"/>
+      <c r="F825" s="61"/>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
@@ -14207,13 +14227,13 @@
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A829" s="59" t="s">
+      <c r="A829" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="B829" s="59"/>
-      <c r="C829" s="59"/>
-      <c r="D829" s="59"/>
-      <c r="E829" s="59"/>
+      <c r="B829" s="61"/>
+      <c r="C829" s="61"/>
+      <c r="D829" s="61"/>
+      <c r="E829" s="61"/>
       <c r="F829" s="34"/>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -14277,14 +14297,14 @@
       <c r="F835" s="6"/>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A836" s="59" t="s">
+      <c r="A836" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="B836" s="59"/>
-      <c r="C836" s="59"/>
-      <c r="D836" s="59"/>
-      <c r="E836" s="59"/>
-      <c r="F836" s="59"/>
+      <c r="B836" s="61"/>
+      <c r="C836" s="61"/>
+      <c r="D836" s="61"/>
+      <c r="E836" s="61"/>
+      <c r="F836" s="61"/>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
@@ -14345,13 +14365,13 @@
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" s="59" t="s">
+      <c r="A840" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B840" s="59"/>
-      <c r="C840" s="59"/>
-      <c r="D840" s="59"/>
-      <c r="E840" s="59"/>
+      <c r="B840" s="61"/>
+      <c r="C840" s="61"/>
+      <c r="D840" s="61"/>
+      <c r="E840" s="61"/>
       <c r="F840" s="34"/>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -14415,14 +14435,14 @@
       <c r="F846" s="6"/>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A847" s="59" t="s">
+      <c r="A847" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="B847" s="59"/>
-      <c r="C847" s="59"/>
-      <c r="D847" s="59"/>
-      <c r="E847" s="59"/>
-      <c r="F847" s="59"/>
+      <c r="B847" s="61"/>
+      <c r="C847" s="61"/>
+      <c r="D847" s="61"/>
+      <c r="E847" s="61"/>
+      <c r="F847" s="61"/>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
@@ -14483,13 +14503,13 @@
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A851" s="59" t="s">
+      <c r="A851" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B851" s="59"/>
-      <c r="C851" s="59"/>
-      <c r="D851" s="59"/>
-      <c r="E851" s="59"/>
+      <c r="B851" s="61"/>
+      <c r="C851" s="61"/>
+      <c r="D851" s="61"/>
+      <c r="E851" s="61"/>
       <c r="F851" s="34"/>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
@@ -14553,14 +14573,14 @@
       <c r="F857" s="6"/>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A858" s="59" t="s">
+      <c r="A858" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="B858" s="59"/>
-      <c r="C858" s="59"/>
-      <c r="D858" s="59"/>
-      <c r="E858" s="59"/>
-      <c r="F858" s="59"/>
+      <c r="B858" s="61"/>
+      <c r="C858" s="61"/>
+      <c r="D858" s="61"/>
+      <c r="E858" s="61"/>
+      <c r="F858" s="61"/>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
@@ -14621,13 +14641,13 @@
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A862" s="59" t="s">
+      <c r="A862" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="B862" s="59"/>
-      <c r="C862" s="59"/>
-      <c r="D862" s="59"/>
-      <c r="E862" s="59"/>
+      <c r="B862" s="61"/>
+      <c r="C862" s="61"/>
+      <c r="D862" s="61"/>
+      <c r="E862" s="61"/>
       <c r="F862" s="34"/>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
@@ -14691,14 +14711,14 @@
       <c r="F868" s="6"/>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A869" s="59" t="s">
+      <c r="A869" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="B869" s="59"/>
-      <c r="C869" s="59"/>
-      <c r="D869" s="59"/>
-      <c r="E869" s="59"/>
-      <c r="F869" s="59"/>
+      <c r="B869" s="61"/>
+      <c r="C869" s="61"/>
+      <c r="D869" s="61"/>
+      <c r="E869" s="61"/>
+      <c r="F869" s="61"/>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
@@ -14759,13 +14779,13 @@
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A873" s="59" t="s">
+      <c r="A873" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="B873" s="59"/>
-      <c r="C873" s="59"/>
-      <c r="D873" s="59"/>
-      <c r="E873" s="59"/>
+      <c r="B873" s="61"/>
+      <c r="C873" s="61"/>
+      <c r="D873" s="61"/>
+      <c r="E873" s="61"/>
       <c r="F873" s="50"/>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
@@ -14826,14 +14846,14 @@
       <c r="F879" s="6"/>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A880" s="59" t="s">
+      <c r="A880" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="B880" s="59"/>
-      <c r="C880" s="59"/>
-      <c r="D880" s="59"/>
-      <c r="E880" s="59"/>
-      <c r="F880" s="59"/>
+      <c r="B880" s="61"/>
+      <c r="C880" s="61"/>
+      <c r="D880" s="61"/>
+      <c r="E880" s="61"/>
+      <c r="F880" s="61"/>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
@@ -14894,13 +14914,13 @@
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A884" s="59" t="s">
+      <c r="A884" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="B884" s="59"/>
-      <c r="C884" s="59"/>
-      <c r="D884" s="59"/>
-      <c r="E884" s="59"/>
+      <c r="B884" s="61"/>
+      <c r="C884" s="61"/>
+      <c r="D884" s="61"/>
+      <c r="E884" s="61"/>
       <c r="F884" s="50"/>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
@@ -14961,14 +14981,14 @@
       <c r="F890" s="6"/>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A891" s="59" t="s">
+      <c r="A891" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="B891" s="59"/>
-      <c r="C891" s="59"/>
-      <c r="D891" s="59"/>
-      <c r="E891" s="59"/>
-      <c r="F891" s="59"/>
+      <c r="B891" s="61"/>
+      <c r="C891" s="61"/>
+      <c r="D891" s="61"/>
+      <c r="E891" s="61"/>
+      <c r="F891" s="61"/>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
@@ -15029,13 +15049,13 @@
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A895" s="59" t="s">
+      <c r="A895" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="B895" s="59"/>
-      <c r="C895" s="59"/>
-      <c r="D895" s="59"/>
-      <c r="E895" s="59"/>
+      <c r="B895" s="61"/>
+      <c r="C895" s="61"/>
+      <c r="D895" s="61"/>
+      <c r="E895" s="61"/>
       <c r="F895" s="50"/>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
@@ -15096,14 +15116,14 @@
       <c r="F901" s="6"/>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A902" s="59" t="s">
+      <c r="A902" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="B902" s="59"/>
-      <c r="C902" s="59"/>
-      <c r="D902" s="59"/>
-      <c r="E902" s="59"/>
-      <c r="F902" s="59"/>
+      <c r="B902" s="61"/>
+      <c r="C902" s="61"/>
+      <c r="D902" s="61"/>
+      <c r="E902" s="61"/>
+      <c r="F902" s="61"/>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
@@ -15164,13 +15184,13 @@
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A906" s="59" t="s">
+      <c r="A906" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="B906" s="59"/>
-      <c r="C906" s="59"/>
-      <c r="D906" s="59"/>
-      <c r="E906" s="59"/>
+      <c r="B906" s="61"/>
+      <c r="C906" s="61"/>
+      <c r="D906" s="61"/>
+      <c r="E906" s="61"/>
       <c r="F906" s="50"/>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -15231,14 +15251,14 @@
       <c r="F912" s="6"/>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A913" s="59" t="s">
+      <c r="A913" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="B913" s="59"/>
-      <c r="C913" s="59"/>
-      <c r="D913" s="59"/>
-      <c r="E913" s="59"/>
-      <c r="F913" s="59"/>
+      <c r="B913" s="61"/>
+      <c r="C913" s="61"/>
+      <c r="D913" s="61"/>
+      <c r="E913" s="61"/>
+      <c r="F913" s="61"/>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
@@ -15299,13 +15319,13 @@
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A917" s="59" t="s">
+      <c r="A917" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="B917" s="59"/>
-      <c r="C917" s="59"/>
-      <c r="D917" s="59"/>
-      <c r="E917" s="59"/>
+      <c r="B917" s="61"/>
+      <c r="C917" s="61"/>
+      <c r="D917" s="61"/>
+      <c r="E917" s="61"/>
       <c r="F917" s="50"/>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -15366,14 +15386,14 @@
       <c r="F924" s="6"/>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A925" s="59" t="s">
+      <c r="A925" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="B925" s="59"/>
-      <c r="C925" s="59"/>
-      <c r="D925" s="59"/>
-      <c r="E925" s="59"/>
-      <c r="F925" s="59"/>
+      <c r="B925" s="61"/>
+      <c r="C925" s="61"/>
+      <c r="D925" s="61"/>
+      <c r="E925" s="61"/>
+      <c r="F925" s="61"/>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
@@ -15434,13 +15454,13 @@
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A929" s="59" t="s">
+      <c r="A929" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="B929" s="59"/>
-      <c r="C929" s="59"/>
-      <c r="D929" s="59"/>
-      <c r="E929" s="59"/>
+      <c r="B929" s="61"/>
+      <c r="C929" s="61"/>
+      <c r="D929" s="61"/>
+      <c r="E929" s="61"/>
       <c r="F929" s="50"/>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.25">
@@ -15501,14 +15521,14 @@
       <c r="F935" s="6"/>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A936" s="59" t="s">
+      <c r="A936" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="B936" s="59"/>
-      <c r="C936" s="59"/>
-      <c r="D936" s="59"/>
-      <c r="E936" s="59"/>
-      <c r="F936" s="59"/>
+      <c r="B936" s="61"/>
+      <c r="C936" s="61"/>
+      <c r="D936" s="61"/>
+      <c r="E936" s="61"/>
+      <c r="F936" s="61"/>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
@@ -15569,13 +15589,13 @@
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A940" s="59" t="s">
+      <c r="A940" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="B940" s="59"/>
-      <c r="C940" s="59"/>
-      <c r="D940" s="59"/>
-      <c r="E940" s="59"/>
+      <c r="B940" s="61"/>
+      <c r="C940" s="61"/>
+      <c r="D940" s="61"/>
+      <c r="E940" s="61"/>
       <c r="F940" s="50"/>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.25">
@@ -15640,14 +15660,14 @@
       <c r="F946" s="6"/>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A947" s="59" t="s">
+      <c r="A947" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="B947" s="59"/>
-      <c r="C947" s="59"/>
-      <c r="D947" s="59"/>
-      <c r="E947" s="59"/>
-      <c r="F947" s="59"/>
+      <c r="B947" s="61"/>
+      <c r="C947" s="61"/>
+      <c r="D947" s="61"/>
+      <c r="E947" s="61"/>
+      <c r="F947" s="61"/>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
@@ -15708,13 +15728,13 @@
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A951" s="59" t="s">
+      <c r="A951" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="B951" s="59"/>
-      <c r="C951" s="59"/>
-      <c r="D951" s="59"/>
-      <c r="E951" s="59"/>
+      <c r="B951" s="61"/>
+      <c r="C951" s="61"/>
+      <c r="D951" s="61"/>
+      <c r="E951" s="61"/>
       <c r="F951" s="50"/>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
@@ -15775,14 +15795,14 @@
       <c r="F958" s="6"/>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A959" s="59" t="s">
+      <c r="A959" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="B959" s="59"/>
-      <c r="C959" s="59"/>
-      <c r="D959" s="59"/>
-      <c r="E959" s="59"/>
-      <c r="F959" s="59"/>
+      <c r="B959" s="61"/>
+      <c r="C959" s="61"/>
+      <c r="D959" s="61"/>
+      <c r="E959" s="61"/>
+      <c r="F959" s="61"/>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
@@ -15843,13 +15863,13 @@
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A963" s="59" t="s">
+      <c r="A963" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="B963" s="59"/>
-      <c r="C963" s="59"/>
-      <c r="D963" s="59"/>
-      <c r="E963" s="59"/>
+      <c r="B963" s="61"/>
+      <c r="C963" s="61"/>
+      <c r="D963" s="61"/>
+      <c r="E963" s="61"/>
       <c r="F963" s="50"/>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
@@ -15910,14 +15930,14 @@
       <c r="F969" s="6"/>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A970" s="59" t="s">
+      <c r="A970" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="B970" s="59"/>
-      <c r="C970" s="59"/>
-      <c r="D970" s="59"/>
-      <c r="E970" s="59"/>
-      <c r="F970" s="59"/>
+      <c r="B970" s="61"/>
+      <c r="C970" s="61"/>
+      <c r="D970" s="61"/>
+      <c r="E970" s="61"/>
+      <c r="F970" s="61"/>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
@@ -15978,13 +15998,13 @@
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A974" s="59" t="s">
+      <c r="A974" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="B974" s="59"/>
-      <c r="C974" s="59"/>
-      <c r="D974" s="59"/>
-      <c r="E974" s="59"/>
+      <c r="B974" s="61"/>
+      <c r="C974" s="61"/>
+      <c r="D974" s="61"/>
+      <c r="E974" s="61"/>
       <c r="F974" s="50"/>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
@@ -16045,14 +16065,14 @@
       <c r="F981" s="6"/>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A982" s="59" t="s">
+      <c r="A982" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="B982" s="59"/>
-      <c r="C982" s="59"/>
-      <c r="D982" s="59"/>
-      <c r="E982" s="59"/>
-      <c r="F982" s="59"/>
+      <c r="B982" s="61"/>
+      <c r="C982" s="61"/>
+      <c r="D982" s="61"/>
+      <c r="E982" s="61"/>
+      <c r="F982" s="61"/>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
@@ -16113,13 +16133,13 @@
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A986" s="59" t="s">
+      <c r="A986" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="B986" s="59"/>
-      <c r="C986" s="59"/>
-      <c r="D986" s="59"/>
-      <c r="E986" s="59"/>
+      <c r="B986" s="61"/>
+      <c r="C986" s="61"/>
+      <c r="D986" s="61"/>
+      <c r="E986" s="61"/>
       <c r="F986" s="50"/>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
@@ -16180,14 +16200,14 @@
       <c r="F993" s="6"/>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A994" s="59" t="s">
+      <c r="A994" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="B994" s="59"/>
-      <c r="C994" s="59"/>
-      <c r="D994" s="59"/>
-      <c r="E994" s="59"/>
-      <c r="F994" s="59"/>
+      <c r="B994" s="61"/>
+      <c r="C994" s="61"/>
+      <c r="D994" s="61"/>
+      <c r="E994" s="61"/>
+      <c r="F994" s="61"/>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
@@ -16248,13 +16268,13 @@
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A998" s="59" t="s">
+      <c r="A998" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B998" s="59"/>
-      <c r="C998" s="59"/>
-      <c r="D998" s="59"/>
-      <c r="E998" s="59"/>
+      <c r="B998" s="61"/>
+      <c r="C998" s="61"/>
+      <c r="D998" s="61"/>
+      <c r="E998" s="61"/>
       <c r="F998" s="50"/>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
@@ -16315,14 +16335,14 @@
       <c r="F1005" s="6"/>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1006" s="59" t="s">
+      <c r="A1006" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="B1006" s="59"/>
-      <c r="C1006" s="59"/>
-      <c r="D1006" s="59"/>
-      <c r="E1006" s="59"/>
-      <c r="F1006" s="59"/>
+      <c r="B1006" s="61"/>
+      <c r="C1006" s="61"/>
+      <c r="D1006" s="61"/>
+      <c r="E1006" s="61"/>
+      <c r="F1006" s="61"/>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1007" s="1"/>
@@ -16383,13 +16403,13 @@
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1010" s="59" t="s">
+      <c r="A1010" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="B1010" s="59"/>
-      <c r="C1010" s="59"/>
-      <c r="D1010" s="59"/>
-      <c r="E1010" s="59"/>
+      <c r="B1010" s="61"/>
+      <c r="C1010" s="61"/>
+      <c r="D1010" s="61"/>
+      <c r="E1010" s="61"/>
       <c r="F1010" s="50"/>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
@@ -16450,14 +16470,14 @@
       <c r="F1016" s="6"/>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1017" s="59" t="s">
+      <c r="A1017" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B1017" s="59"/>
-      <c r="C1017" s="59"/>
-      <c r="D1017" s="59"/>
-      <c r="E1017" s="59"/>
-      <c r="F1017" s="59"/>
+      <c r="B1017" s="61"/>
+      <c r="C1017" s="61"/>
+      <c r="D1017" s="61"/>
+      <c r="E1017" s="61"/>
+      <c r="F1017" s="61"/>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1018" s="1"/>
@@ -16518,13 +16538,13 @@
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1021" s="59" t="s">
+      <c r="A1021" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="B1021" s="59"/>
-      <c r="C1021" s="59"/>
-      <c r="D1021" s="59"/>
-      <c r="E1021" s="59"/>
+      <c r="B1021" s="61"/>
+      <c r="C1021" s="61"/>
+      <c r="D1021" s="61"/>
+      <c r="E1021" s="61"/>
       <c r="F1021" s="50"/>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -16585,14 +16605,14 @@
       <c r="F1027" s="6"/>
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1028" s="59" t="s">
+      <c r="A1028" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="B1028" s="59"/>
-      <c r="C1028" s="59"/>
-      <c r="D1028" s="59"/>
-      <c r="E1028" s="59"/>
-      <c r="F1028" s="59"/>
+      <c r="B1028" s="61"/>
+      <c r="C1028" s="61"/>
+      <c r="D1028" s="61"/>
+      <c r="E1028" s="61"/>
+      <c r="F1028" s="61"/>
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" s="1"/>
@@ -16657,13 +16677,13 @@
       </c>
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1032" s="59" t="s">
+      <c r="A1032" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="B1032" s="59"/>
-      <c r="C1032" s="59"/>
-      <c r="D1032" s="59"/>
-      <c r="E1032" s="59"/>
+      <c r="B1032" s="61"/>
+      <c r="C1032" s="61"/>
+      <c r="D1032" s="61"/>
+      <c r="E1032" s="61"/>
       <c r="F1032" s="50"/>
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
@@ -16724,14 +16744,14 @@
       <c r="F1039" s="6"/>
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1040" s="59" t="s">
+      <c r="A1040" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="B1040" s="59"/>
-      <c r="C1040" s="59"/>
-      <c r="D1040" s="59"/>
-      <c r="E1040" s="59"/>
-      <c r="F1040" s="59"/>
+      <c r="B1040" s="61"/>
+      <c r="C1040" s="61"/>
+      <c r="D1040" s="61"/>
+      <c r="E1040" s="61"/>
+      <c r="F1040" s="61"/>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1041" s="1"/>
@@ -16792,13 +16812,13 @@
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1044" s="59" t="s">
+      <c r="A1044" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="B1044" s="59"/>
-      <c r="C1044" s="59"/>
-      <c r="D1044" s="59"/>
-      <c r="E1044" s="59"/>
+      <c r="B1044" s="61"/>
+      <c r="C1044" s="61"/>
+      <c r="D1044" s="61"/>
+      <c r="E1044" s="61"/>
       <c r="F1044" s="50"/>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
@@ -16859,14 +16879,14 @@
       <c r="F1051" s="6"/>
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1052" s="59" t="s">
+      <c r="A1052" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="B1052" s="59"/>
-      <c r="C1052" s="59"/>
-      <c r="D1052" s="59"/>
-      <c r="E1052" s="59"/>
-      <c r="F1052" s="59"/>
+      <c r="B1052" s="61"/>
+      <c r="C1052" s="61"/>
+      <c r="D1052" s="61"/>
+      <c r="E1052" s="61"/>
+      <c r="F1052" s="61"/>
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1053" s="1"/>
@@ -16927,13 +16947,13 @@
       </c>
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1056" s="59" t="s">
+      <c r="A1056" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B1056" s="59"/>
-      <c r="C1056" s="59"/>
-      <c r="D1056" s="59"/>
-      <c r="E1056" s="59"/>
+      <c r="B1056" s="61"/>
+      <c r="C1056" s="61"/>
+      <c r="D1056" s="61"/>
+      <c r="E1056" s="61"/>
       <c r="F1056" s="50"/>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
@@ -16994,14 +17014,14 @@
       <c r="F1062" s="6"/>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1063" s="59" t="s">
+      <c r="A1063" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B1063" s="59"/>
-      <c r="C1063" s="59"/>
-      <c r="D1063" s="59"/>
-      <c r="E1063" s="59"/>
-      <c r="F1063" s="59"/>
+      <c r="B1063" s="61"/>
+      <c r="C1063" s="61"/>
+      <c r="D1063" s="61"/>
+      <c r="E1063" s="61"/>
+      <c r="F1063" s="61"/>
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" s="1"/>
@@ -17062,13 +17082,13 @@
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1067" s="59" t="s">
+      <c r="A1067" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="B1067" s="59"/>
-      <c r="C1067" s="59"/>
-      <c r="D1067" s="59"/>
-      <c r="E1067" s="59"/>
+      <c r="B1067" s="61"/>
+      <c r="C1067" s="61"/>
+      <c r="D1067" s="61"/>
+      <c r="E1067" s="61"/>
       <c r="F1067" s="50"/>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
@@ -17129,14 +17149,14 @@
       <c r="F1074" s="6"/>
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1075" s="59" t="s">
+      <c r="A1075" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="B1075" s="59"/>
-      <c r="C1075" s="59"/>
-      <c r="D1075" s="59"/>
-      <c r="E1075" s="59"/>
-      <c r="F1075" s="59"/>
+      <c r="B1075" s="61"/>
+      <c r="C1075" s="61"/>
+      <c r="D1075" s="61"/>
+      <c r="E1075" s="61"/>
+      <c r="F1075" s="61"/>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" s="1"/>
@@ -17197,13 +17217,13 @@
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1079" s="59" t="s">
+      <c r="A1079" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="B1079" s="59"/>
-      <c r="C1079" s="59"/>
-      <c r="D1079" s="59"/>
-      <c r="E1079" s="59"/>
+      <c r="B1079" s="61"/>
+      <c r="C1079" s="61"/>
+      <c r="D1079" s="61"/>
+      <c r="E1079" s="61"/>
       <c r="F1079" s="50"/>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
@@ -17264,14 +17284,14 @@
       <c r="F1086" s="6"/>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1087" s="59" t="s">
+      <c r="A1087" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="B1087" s="59"/>
-      <c r="C1087" s="59"/>
-      <c r="D1087" s="59"/>
-      <c r="E1087" s="59"/>
-      <c r="F1087" s="59"/>
+      <c r="B1087" s="61"/>
+      <c r="C1087" s="61"/>
+      <c r="D1087" s="61"/>
+      <c r="E1087" s="61"/>
+      <c r="F1087" s="61"/>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" s="1"/>
@@ -17332,13 +17352,13 @@
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1091" s="59" t="s">
+      <c r="A1091" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="B1091" s="59"/>
-      <c r="C1091" s="59"/>
-      <c r="D1091" s="59"/>
-      <c r="E1091" s="59"/>
+      <c r="B1091" s="61"/>
+      <c r="C1091" s="61"/>
+      <c r="D1091" s="61"/>
+      <c r="E1091" s="61"/>
       <c r="F1091" s="50"/>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
@@ -17399,14 +17419,14 @@
       <c r="F1098" s="6"/>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1099" s="59" t="s">
+      <c r="A1099" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="B1099" s="59"/>
-      <c r="C1099" s="59"/>
-      <c r="D1099" s="59"/>
-      <c r="E1099" s="59"/>
-      <c r="F1099" s="59"/>
+      <c r="B1099" s="61"/>
+      <c r="C1099" s="61"/>
+      <c r="D1099" s="61"/>
+      <c r="E1099" s="61"/>
+      <c r="F1099" s="61"/>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1100" s="1"/>
@@ -17467,13 +17487,13 @@
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1103" s="59" t="s">
+      <c r="A1103" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="B1103" s="59"/>
-      <c r="C1103" s="59"/>
-      <c r="D1103" s="59"/>
-      <c r="E1103" s="59"/>
+      <c r="B1103" s="61"/>
+      <c r="C1103" s="61"/>
+      <c r="D1103" s="61"/>
+      <c r="E1103" s="61"/>
       <c r="F1103" s="50"/>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
@@ -17534,14 +17554,14 @@
       <c r="F1109" s="6"/>
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1110" s="59" t="s">
+      <c r="A1110" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="B1110" s="59"/>
-      <c r="C1110" s="59"/>
-      <c r="D1110" s="59"/>
-      <c r="E1110" s="59"/>
-      <c r="F1110" s="59"/>
+      <c r="B1110" s="61"/>
+      <c r="C1110" s="61"/>
+      <c r="D1110" s="61"/>
+      <c r="E1110" s="61"/>
+      <c r="F1110" s="61"/>
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1111" s="1"/>
@@ -17602,13 +17622,13 @@
       </c>
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1114" s="59" t="s">
+      <c r="A1114" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="B1114" s="59"/>
-      <c r="C1114" s="59"/>
-      <c r="D1114" s="59"/>
-      <c r="E1114" s="59"/>
+      <c r="B1114" s="61"/>
+      <c r="C1114" s="61"/>
+      <c r="D1114" s="61"/>
+      <c r="E1114" s="61"/>
       <c r="F1114" s="50"/>
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
@@ -17673,14 +17693,14 @@
       <c r="F1120" s="6"/>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1121" s="59" t="s">
+      <c r="A1121" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="B1121" s="59"/>
-      <c r="C1121" s="59"/>
-      <c r="D1121" s="59"/>
-      <c r="E1121" s="59"/>
-      <c r="F1121" s="59"/>
+      <c r="B1121" s="61"/>
+      <c r="C1121" s="61"/>
+      <c r="D1121" s="61"/>
+      <c r="E1121" s="61"/>
+      <c r="F1121" s="61"/>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1"/>
@@ -17741,13 +17761,13 @@
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1125" s="59" t="s">
+      <c r="A1125" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="B1125" s="59"/>
-      <c r="C1125" s="59"/>
-      <c r="D1125" s="59"/>
-      <c r="E1125" s="59"/>
+      <c r="B1125" s="61"/>
+      <c r="C1125" s="61"/>
+      <c r="D1125" s="61"/>
+      <c r="E1125" s="61"/>
       <c r="F1125" s="50"/>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
@@ -17808,14 +17828,14 @@
       <c r="F1132" s="6"/>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1133" s="59" t="s">
+      <c r="A1133" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="B1133" s="59"/>
-      <c r="C1133" s="59"/>
-      <c r="D1133" s="59"/>
-      <c r="E1133" s="59"/>
-      <c r="F1133" s="59"/>
+      <c r="B1133" s="61"/>
+      <c r="C1133" s="61"/>
+      <c r="D1133" s="61"/>
+      <c r="E1133" s="61"/>
+      <c r="F1133" s="61"/>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1134" s="1"/>
@@ -17876,13 +17896,13 @@
       </c>
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1137" s="59" t="s">
+      <c r="A1137" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="B1137" s="59"/>
-      <c r="C1137" s="59"/>
-      <c r="D1137" s="59"/>
-      <c r="E1137" s="59"/>
+      <c r="B1137" s="61"/>
+      <c r="C1137" s="61"/>
+      <c r="D1137" s="61"/>
+      <c r="E1137" s="61"/>
       <c r="F1137" s="50"/>
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
@@ -17947,14 +17967,14 @@
       <c r="F1144" s="6"/>
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1145" s="59" t="s">
+      <c r="A1145" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="B1145" s="59"/>
-      <c r="C1145" s="59"/>
-      <c r="D1145" s="59"/>
-      <c r="E1145" s="59"/>
-      <c r="F1145" s="59"/>
+      <c r="B1145" s="61"/>
+      <c r="C1145" s="61"/>
+      <c r="D1145" s="61"/>
+      <c r="E1145" s="61"/>
+      <c r="F1145" s="61"/>
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1146" s="1"/>
@@ -18015,13 +18035,13 @@
       </c>
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1149" s="59" t="s">
+      <c r="A1149" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="B1149" s="59"/>
-      <c r="C1149" s="59"/>
-      <c r="D1149" s="59"/>
-      <c r="E1149" s="59"/>
+      <c r="B1149" s="61"/>
+      <c r="C1149" s="61"/>
+      <c r="D1149" s="61"/>
+      <c r="E1149" s="61"/>
       <c r="F1149" s="50"/>
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
@@ -18082,14 +18102,14 @@
       <c r="F1155" s="6"/>
     </row>
     <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1156" s="59" t="s">
+      <c r="A1156" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="B1156" s="59"/>
-      <c r="C1156" s="59"/>
-      <c r="D1156" s="59"/>
-      <c r="E1156" s="59"/>
-      <c r="F1156" s="59"/>
+      <c r="B1156" s="61"/>
+      <c r="C1156" s="61"/>
+      <c r="D1156" s="61"/>
+      <c r="E1156" s="61"/>
+      <c r="F1156" s="61"/>
     </row>
     <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1157" s="1"/>
@@ -18150,13 +18170,13 @@
       </c>
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1160" s="59" t="s">
+      <c r="A1160" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="B1160" s="59"/>
-      <c r="C1160" s="59"/>
-      <c r="D1160" s="59"/>
-      <c r="E1160" s="59"/>
+      <c r="B1160" s="61"/>
+      <c r="C1160" s="61"/>
+      <c r="D1160" s="61"/>
+      <c r="E1160" s="61"/>
       <c r="F1160" s="50"/>
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
@@ -18217,14 +18237,14 @@
       <c r="F1167" s="6"/>
     </row>
     <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1168" s="59" t="s">
+      <c r="A1168" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="B1168" s="59"/>
-      <c r="C1168" s="59"/>
-      <c r="D1168" s="59"/>
-      <c r="E1168" s="59"/>
-      <c r="F1168" s="59"/>
+      <c r="B1168" s="61"/>
+      <c r="C1168" s="61"/>
+      <c r="D1168" s="61"/>
+      <c r="E1168" s="61"/>
+      <c r="F1168" s="61"/>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1169" s="1"/>
@@ -18285,13 +18305,13 @@
       </c>
     </row>
     <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1172" s="59" t="s">
+      <c r="A1172" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="B1172" s="59"/>
-      <c r="C1172" s="59"/>
-      <c r="D1172" s="59"/>
-      <c r="E1172" s="59"/>
+      <c r="B1172" s="61"/>
+      <c r="C1172" s="61"/>
+      <c r="D1172" s="61"/>
+      <c r="E1172" s="61"/>
       <c r="F1172" s="50"/>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
@@ -18352,14 +18372,14 @@
       <c r="F1179" s="6"/>
     </row>
     <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1180" s="59" t="s">
+      <c r="A1180" s="61" t="s">
         <v>252</v>
       </c>
-      <c r="B1180" s="59"/>
-      <c r="C1180" s="59"/>
-      <c r="D1180" s="59"/>
-      <c r="E1180" s="59"/>
-      <c r="F1180" s="59"/>
+      <c r="B1180" s="61"/>
+      <c r="C1180" s="61"/>
+      <c r="D1180" s="61"/>
+      <c r="E1180" s="61"/>
+      <c r="F1180" s="61"/>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1181" s="1"/>
@@ -18420,13 +18440,13 @@
       </c>
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1184" s="59" t="s">
+      <c r="A1184" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="B1184" s="59"/>
-      <c r="C1184" s="59"/>
-      <c r="D1184" s="59"/>
-      <c r="E1184" s="59"/>
+      <c r="B1184" s="61"/>
+      <c r="C1184" s="61"/>
+      <c r="D1184" s="61"/>
+      <c r="E1184" s="61"/>
       <c r="F1184" s="50"/>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
@@ -18487,14 +18507,14 @@
       <c r="F1191" s="6"/>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1192" s="59" t="s">
+      <c r="A1192" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B1192" s="59"/>
-      <c r="C1192" s="59"/>
-      <c r="D1192" s="59"/>
-      <c r="E1192" s="59"/>
-      <c r="F1192" s="59"/>
+      <c r="B1192" s="61"/>
+      <c r="C1192" s="61"/>
+      <c r="D1192" s="61"/>
+      <c r="E1192" s="61"/>
+      <c r="F1192" s="61"/>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1193" s="1"/>
@@ -18555,13 +18575,13 @@
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1196" s="59" t="s">
+      <c r="A1196" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B1196" s="59"/>
-      <c r="C1196" s="59"/>
-      <c r="D1196" s="59"/>
-      <c r="E1196" s="59"/>
+      <c r="B1196" s="61"/>
+      <c r="C1196" s="61"/>
+      <c r="D1196" s="61"/>
+      <c r="E1196" s="61"/>
       <c r="F1196" s="50"/>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
@@ -18622,14 +18642,14 @@
       <c r="F1202" s="6"/>
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1203" s="59" t="s">
+      <c r="A1203" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B1203" s="59"/>
-      <c r="C1203" s="59"/>
-      <c r="D1203" s="59"/>
-      <c r="E1203" s="59"/>
-      <c r="F1203" s="59"/>
+      <c r="B1203" s="61"/>
+      <c r="C1203" s="61"/>
+      <c r="D1203" s="61"/>
+      <c r="E1203" s="61"/>
+      <c r="F1203" s="61"/>
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1204" s="1"/>
@@ -18690,13 +18710,13 @@
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1207" s="59" t="s">
+      <c r="A1207" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="B1207" s="59"/>
-      <c r="C1207" s="59"/>
-      <c r="D1207" s="59"/>
-      <c r="E1207" s="59"/>
+      <c r="B1207" s="61"/>
+      <c r="C1207" s="61"/>
+      <c r="D1207" s="61"/>
+      <c r="E1207" s="61"/>
       <c r="F1207" s="50"/>
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
@@ -18761,14 +18781,14 @@
       <c r="F1214" s="6"/>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1215" s="59" t="s">
+      <c r="A1215" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="B1215" s="59"/>
-      <c r="C1215" s="59"/>
-      <c r="D1215" s="59"/>
-      <c r="E1215" s="59"/>
-      <c r="F1215" s="59"/>
+      <c r="B1215" s="61"/>
+      <c r="C1215" s="61"/>
+      <c r="D1215" s="61"/>
+      <c r="E1215" s="61"/>
+      <c r="F1215" s="61"/>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1216" s="1"/>
@@ -18829,13 +18849,13 @@
       </c>
     </row>
     <row r="1219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1219" s="59" t="s">
+      <c r="A1219" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="B1219" s="59"/>
-      <c r="C1219" s="59"/>
-      <c r="D1219" s="59"/>
-      <c r="E1219" s="59"/>
+      <c r="B1219" s="61"/>
+      <c r="C1219" s="61"/>
+      <c r="D1219" s="61"/>
+      <c r="E1219" s="61"/>
       <c r="F1219" s="50"/>
     </row>
     <row r="1220" spans="1:6" x14ac:dyDescent="0.25">
@@ -18896,14 +18916,14 @@
       <c r="F1226" s="6"/>
     </row>
     <row r="1227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1227" s="59" t="s">
+      <c r="A1227" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="B1227" s="59"/>
-      <c r="C1227" s="59"/>
-      <c r="D1227" s="59"/>
-      <c r="E1227" s="59"/>
-      <c r="F1227" s="59"/>
+      <c r="B1227" s="61"/>
+      <c r="C1227" s="61"/>
+      <c r="D1227" s="61"/>
+      <c r="E1227" s="61"/>
+      <c r="F1227" s="61"/>
     </row>
     <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1228" s="1"/>
@@ -18960,13 +18980,13 @@
       <c r="F1230" s="9"/>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1231" s="59" t="s">
+      <c r="A1231" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="B1231" s="59"/>
-      <c r="C1231" s="59"/>
-      <c r="D1231" s="59"/>
-      <c r="E1231" s="59"/>
+      <c r="B1231" s="61"/>
+      <c r="C1231" s="61"/>
+      <c r="D1231" s="61"/>
+      <c r="E1231" s="61"/>
       <c r="F1231" s="50"/>
     </row>
     <row r="1232" spans="1:6" x14ac:dyDescent="0.25">
@@ -19027,14 +19047,14 @@
       <c r="F1237" s="6"/>
     </row>
     <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1238" s="59" t="s">
+      <c r="A1238" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B1238" s="59"/>
-      <c r="C1238" s="59"/>
-      <c r="D1238" s="59"/>
-      <c r="E1238" s="59"/>
-      <c r="F1238" s="59"/>
+      <c r="B1238" s="61"/>
+      <c r="C1238" s="61"/>
+      <c r="D1238" s="61"/>
+      <c r="E1238" s="61"/>
+      <c r="F1238" s="61"/>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1239" s="1"/>
@@ -19095,13 +19115,13 @@
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1242" s="59" t="s">
+      <c r="A1242" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="B1242" s="59"/>
-      <c r="C1242" s="59"/>
-      <c r="D1242" s="59"/>
-      <c r="E1242" s="59"/>
+      <c r="B1242" s="61"/>
+      <c r="C1242" s="61"/>
+      <c r="D1242" s="61"/>
+      <c r="E1242" s="61"/>
       <c r="F1242" s="50"/>
     </row>
     <row r="1243" spans="1:6" x14ac:dyDescent="0.25">
@@ -19162,14 +19182,14 @@
       <c r="F1249" s="6"/>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1250" s="59" t="s">
+      <c r="A1250" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B1250" s="59"/>
-      <c r="C1250" s="59"/>
-      <c r="D1250" s="59"/>
-      <c r="E1250" s="59"/>
-      <c r="F1250" s="59"/>
+      <c r="B1250" s="61"/>
+      <c r="C1250" s="61"/>
+      <c r="D1250" s="61"/>
+      <c r="E1250" s="61"/>
+      <c r="F1250" s="61"/>
     </row>
     <row r="1251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1251" s="1"/>
@@ -19230,13 +19250,13 @@
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1254" s="59" t="s">
+      <c r="A1254" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B1254" s="59"/>
-      <c r="C1254" s="59"/>
-      <c r="D1254" s="59"/>
-      <c r="E1254" s="59"/>
+      <c r="B1254" s="61"/>
+      <c r="C1254" s="61"/>
+      <c r="D1254" s="61"/>
+      <c r="E1254" s="61"/>
       <c r="F1254" s="50"/>
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.25">
@@ -19297,14 +19317,14 @@
       <c r="F1261" s="6"/>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1262" s="59" t="s">
+      <c r="A1262" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B1262" s="59"/>
-      <c r="C1262" s="59"/>
-      <c r="D1262" s="59"/>
-      <c r="E1262" s="59"/>
-      <c r="F1262" s="59"/>
+      <c r="B1262" s="61"/>
+      <c r="C1262" s="61"/>
+      <c r="D1262" s="61"/>
+      <c r="E1262" s="61"/>
+      <c r="F1262" s="61"/>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1263" s="1"/>
@@ -19365,13 +19385,13 @@
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1266" s="59" t="s">
+      <c r="A1266" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B1266" s="59"/>
-      <c r="C1266" s="59"/>
-      <c r="D1266" s="59"/>
-      <c r="E1266" s="59"/>
+      <c r="B1266" s="61"/>
+      <c r="C1266" s="61"/>
+      <c r="D1266" s="61"/>
+      <c r="E1266" s="61"/>
       <c r="F1266" s="50"/>
     </row>
     <row r="1267" spans="1:6" x14ac:dyDescent="0.25">
@@ -19432,14 +19452,14 @@
       <c r="F1273" s="6"/>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1274" s="59" t="s">
+      <c r="A1274" s="61" t="s">
         <v>267</v>
       </c>
-      <c r="B1274" s="59"/>
-      <c r="C1274" s="59"/>
-      <c r="D1274" s="59"/>
-      <c r="E1274" s="59"/>
-      <c r="F1274" s="59"/>
+      <c r="B1274" s="61"/>
+      <c r="C1274" s="61"/>
+      <c r="D1274" s="61"/>
+      <c r="E1274" s="61"/>
+      <c r="F1274" s="61"/>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1275" s="1"/>
@@ -19500,13 +19520,13 @@
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1278" s="59" t="s">
+      <c r="A1278" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="B1278" s="59"/>
-      <c r="C1278" s="59"/>
-      <c r="D1278" s="59"/>
-      <c r="E1278" s="59"/>
+      <c r="B1278" s="61"/>
+      <c r="C1278" s="61"/>
+      <c r="D1278" s="61"/>
+      <c r="E1278" s="61"/>
       <c r="F1278" s="50"/>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.25">
@@ -19567,14 +19587,14 @@
       <c r="F1285" s="6"/>
     </row>
     <row r="1286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1286" s="59" t="s">
+      <c r="A1286" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B1286" s="59"/>
-      <c r="C1286" s="59"/>
-      <c r="D1286" s="59"/>
-      <c r="E1286" s="59"/>
-      <c r="F1286" s="59"/>
+      <c r="B1286" s="61"/>
+      <c r="C1286" s="61"/>
+      <c r="D1286" s="61"/>
+      <c r="E1286" s="61"/>
+      <c r="F1286" s="61"/>
     </row>
     <row r="1287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1287" s="1"/>
@@ -19635,13 +19655,13 @@
       </c>
     </row>
     <row r="1290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1290" s="59" t="s">
+      <c r="A1290" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B1290" s="59"/>
-      <c r="C1290" s="59"/>
-      <c r="D1290" s="59"/>
-      <c r="E1290" s="59"/>
+      <c r="B1290" s="61"/>
+      <c r="C1290" s="61"/>
+      <c r="D1290" s="61"/>
+      <c r="E1290" s="61"/>
       <c r="F1290" s="50"/>
     </row>
     <row r="1291" spans="1:6" x14ac:dyDescent="0.25">
@@ -19702,14 +19722,14 @@
       <c r="F1297" s="6"/>
     </row>
     <row r="1298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1298" s="59" t="s">
+      <c r="A1298" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B1298" s="59"/>
-      <c r="C1298" s="59"/>
-      <c r="D1298" s="59"/>
-      <c r="E1298" s="59"/>
-      <c r="F1298" s="59"/>
+      <c r="B1298" s="61"/>
+      <c r="C1298" s="61"/>
+      <c r="D1298" s="61"/>
+      <c r="E1298" s="61"/>
+      <c r="F1298" s="61"/>
     </row>
     <row r="1299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1299" s="1"/>
@@ -19770,13 +19790,13 @@
       </c>
     </row>
     <row r="1302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1302" s="59" t="s">
+      <c r="A1302" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B1302" s="59"/>
-      <c r="C1302" s="59"/>
-      <c r="D1302" s="59"/>
-      <c r="E1302" s="59"/>
+      <c r="B1302" s="61"/>
+      <c r="C1302" s="61"/>
+      <c r="D1302" s="61"/>
+      <c r="E1302" s="61"/>
       <c r="F1302" s="50"/>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.25">
@@ -19837,14 +19857,14 @@
       <c r="F1309" s="6"/>
     </row>
     <row r="1310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1310" s="59" t="s">
+      <c r="A1310" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B1310" s="59"/>
-      <c r="C1310" s="59"/>
-      <c r="D1310" s="59"/>
-      <c r="E1310" s="59"/>
-      <c r="F1310" s="59"/>
+      <c r="B1310" s="61"/>
+      <c r="C1310" s="61"/>
+      <c r="D1310" s="61"/>
+      <c r="E1310" s="61"/>
+      <c r="F1310" s="61"/>
     </row>
     <row r="1311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1311" s="1"/>
@@ -19905,13 +19925,13 @@
       </c>
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1314" s="59" t="s">
+      <c r="A1314" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B1314" s="59"/>
-      <c r="C1314" s="59"/>
-      <c r="D1314" s="59"/>
-      <c r="E1314" s="59"/>
+      <c r="B1314" s="61"/>
+      <c r="C1314" s="61"/>
+      <c r="D1314" s="61"/>
+      <c r="E1314" s="61"/>
       <c r="F1314" s="50"/>
     </row>
     <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
@@ -19972,14 +19992,14 @@
       <c r="F1321" s="6"/>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1322" s="59" t="s">
+      <c r="A1322" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B1322" s="59"/>
-      <c r="C1322" s="59"/>
-      <c r="D1322" s="59"/>
-      <c r="E1322" s="59"/>
-      <c r="F1322" s="59"/>
+      <c r="B1322" s="61"/>
+      <c r="C1322" s="61"/>
+      <c r="D1322" s="61"/>
+      <c r="E1322" s="61"/>
+      <c r="F1322" s="61"/>
     </row>
     <row r="1323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1323" s="1"/>
@@ -20040,13 +20060,13 @@
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1326" s="59" t="s">
+      <c r="A1326" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B1326" s="59"/>
-      <c r="C1326" s="59"/>
-      <c r="D1326" s="59"/>
-      <c r="E1326" s="59"/>
+      <c r="B1326" s="61"/>
+      <c r="C1326" s="61"/>
+      <c r="D1326" s="61"/>
+      <c r="E1326" s="61"/>
       <c r="F1326" s="50"/>
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
@@ -20107,14 +20127,14 @@
       <c r="F1333" s="6"/>
     </row>
     <row r="1334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1334" s="59" t="s">
+      <c r="A1334" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B1334" s="59"/>
-      <c r="C1334" s="59"/>
-      <c r="D1334" s="59"/>
-      <c r="E1334" s="59"/>
-      <c r="F1334" s="59"/>
+      <c r="B1334" s="61"/>
+      <c r="C1334" s="61"/>
+      <c r="D1334" s="61"/>
+      <c r="E1334" s="61"/>
+      <c r="F1334" s="61"/>
     </row>
     <row r="1335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1335" s="1"/>
@@ -20175,13 +20195,13 @@
       </c>
     </row>
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1338" s="59" t="s">
+      <c r="A1338" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B1338" s="59"/>
-      <c r="C1338" s="59"/>
-      <c r="D1338" s="59"/>
-      <c r="E1338" s="59"/>
+      <c r="B1338" s="61"/>
+      <c r="C1338" s="61"/>
+      <c r="D1338" s="61"/>
+      <c r="E1338" s="61"/>
       <c r="F1338" s="50"/>
     </row>
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
@@ -20242,14 +20262,14 @@
       <c r="F1345" s="6"/>
     </row>
     <row r="1346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1346" s="59" t="s">
+      <c r="A1346" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="B1346" s="59"/>
-      <c r="C1346" s="59"/>
-      <c r="D1346" s="59"/>
-      <c r="E1346" s="59"/>
-      <c r="F1346" s="59"/>
+      <c r="B1346" s="61"/>
+      <c r="C1346" s="61"/>
+      <c r="D1346" s="61"/>
+      <c r="E1346" s="61"/>
+      <c r="F1346" s="61"/>
     </row>
     <row r="1347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1347" s="1"/>
@@ -20310,13 +20330,13 @@
       </c>
     </row>
     <row r="1350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1350" s="59" t="s">
+      <c r="A1350" s="61" t="s">
         <v>280</v>
       </c>
-      <c r="B1350" s="59"/>
-      <c r="C1350" s="59"/>
-      <c r="D1350" s="59"/>
-      <c r="E1350" s="59"/>
+      <c r="B1350" s="61"/>
+      <c r="C1350" s="61"/>
+      <c r="D1350" s="61"/>
+      <c r="E1350" s="61"/>
       <c r="F1350" s="50"/>
     </row>
     <row r="1351" spans="1:6" x14ac:dyDescent="0.25">
@@ -20377,14 +20397,14 @@
       <c r="F1357" s="6"/>
     </row>
     <row r="1358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1358" s="59" t="s">
+      <c r="A1358" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B1358" s="59"/>
-      <c r="C1358" s="59"/>
-      <c r="D1358" s="59"/>
-      <c r="E1358" s="59"/>
-      <c r="F1358" s="59"/>
+      <c r="B1358" s="61"/>
+      <c r="C1358" s="61"/>
+      <c r="D1358" s="61"/>
+      <c r="E1358" s="61"/>
+      <c r="F1358" s="61"/>
     </row>
     <row r="1359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1359" s="1"/>
@@ -20445,13 +20465,13 @@
       </c>
     </row>
     <row r="1362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1362" s="59" t="s">
+      <c r="A1362" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B1362" s="59"/>
-      <c r="C1362" s="59"/>
-      <c r="D1362" s="59"/>
-      <c r="E1362" s="59"/>
+      <c r="B1362" s="61"/>
+      <c r="C1362" s="61"/>
+      <c r="D1362" s="61"/>
+      <c r="E1362" s="61"/>
       <c r="F1362" s="50"/>
     </row>
     <row r="1363" spans="1:6" x14ac:dyDescent="0.25">
@@ -20503,8 +20523,280 @@
         <v>0.1</v>
       </c>
     </row>
+    <row r="1369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1369" s="6"/>
+      <c r="B1369" s="6"/>
+      <c r="C1369" s="6"/>
+      <c r="D1369" s="6"/>
+      <c r="E1369" s="6"/>
+      <c r="F1369" s="6"/>
+    </row>
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1370" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1370" s="61"/>
+      <c r="C1370" s="61"/>
+      <c r="D1370" s="61"/>
+      <c r="E1370" s="61"/>
+      <c r="F1370" s="61"/>
+    </row>
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1371" s="1"/>
+      <c r="B1371" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1371" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1371" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1371" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1371" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1372" s="59">
+        <v>26402</v>
+      </c>
+      <c r="C1372" s="60">
+        <v>26666</v>
+      </c>
+      <c r="D1372">
+        <v>-172</v>
+      </c>
+      <c r="E1372" s="60">
+        <v>27020</v>
+      </c>
+      <c r="F1372" s="9">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1373" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1373" s="59">
+        <v>30480</v>
+      </c>
+      <c r="C1373" s="60">
+        <v>30785</v>
+      </c>
+      <c r="D1373">
+        <v>81</v>
+      </c>
+      <c r="E1373" s="60">
+        <v>31466</v>
+      </c>
+      <c r="F1373" s="9">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1374" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1374" s="61"/>
+      <c r="C1374" s="61"/>
+      <c r="D1374" s="61"/>
+      <c r="E1374" s="61"/>
+      <c r="F1374" s="50"/>
+    </row>
+    <row r="1375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1375" s="1"/>
+      <c r="B1375" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1375" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1375" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1375" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1376" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1376" s="59">
+        <v>26410</v>
+      </c>
+      <c r="C1376" s="4">
+        <v>-240</v>
+      </c>
+      <c r="D1376" s="59">
+        <v>5931500</v>
+      </c>
+      <c r="E1376" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1377" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1377" s="59">
+        <v>30421</v>
+      </c>
+      <c r="C1377" s="4">
+        <v>-168</v>
+      </c>
+      <c r="D1377" s="59">
+        <v>1174100</v>
+      </c>
+      <c r="E1377" s="5">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1381" s="6"/>
+      <c r="B1381" s="6"/>
+      <c r="C1381" s="6"/>
+      <c r="D1381" s="6"/>
+      <c r="E1381" s="6"/>
+      <c r="F1381" s="6"/>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1382" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1382" s="61"/>
+      <c r="C1382" s="61"/>
+      <c r="D1382" s="61"/>
+      <c r="E1382" s="61"/>
+      <c r="F1382" s="61"/>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1383" s="1"/>
+      <c r="B1383" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1383" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1383" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1383" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1383" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1384" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1384" s="54">
+        <v>26306</v>
+      </c>
+      <c r="C1384" s="58">
+        <v>26569</v>
+      </c>
+      <c r="D1384">
+        <v>-97</v>
+      </c>
+      <c r="E1384" s="58">
+        <v>27210</v>
+      </c>
+      <c r="F1384" s="9">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1385" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1385" s="54">
+        <v>30106</v>
+      </c>
+      <c r="C1385" s="58">
+        <v>30407</v>
+      </c>
+      <c r="D1385">
+        <v>-378</v>
+      </c>
+      <c r="E1385" s="58">
+        <v>31246</v>
+      </c>
+      <c r="F1385" s="9">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1386" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1386" s="61"/>
+      <c r="C1386" s="61"/>
+      <c r="D1386" s="61"/>
+      <c r="E1386" s="61"/>
+      <c r="F1386" s="50"/>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1387" s="1"/>
+      <c r="B1387" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1387" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1387" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1387" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1388" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1388" s="54">
+        <v>26281</v>
+      </c>
+      <c r="C1388" s="4">
+        <v>-129</v>
+      </c>
+      <c r="D1388" s="54">
+        <v>8578700</v>
+      </c>
+      <c r="E1388" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1389" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1389" s="54">
+        <v>30342</v>
+      </c>
+      <c r="C1389" s="4">
+        <v>-79</v>
+      </c>
+      <c r="D1389" s="54">
+        <v>951900</v>
+      </c>
+      <c r="E1389" s="5">
+        <v>-0.19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="268">
+  <mergeCells count="272">
+    <mergeCell ref="A1382:F1382"/>
+    <mergeCell ref="A1386:E1386"/>
     <mergeCell ref="A1358:F1358"/>
     <mergeCell ref="A1362:E1362"/>
     <mergeCell ref="A1334:F1334"/>
@@ -20515,6 +20807,8 @@
     <mergeCell ref="A1290:E1290"/>
     <mergeCell ref="A1262:F1262"/>
     <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1346:F1346"/>
+    <mergeCell ref="A1350:E1350"/>
     <mergeCell ref="A1238:F1238"/>
     <mergeCell ref="A1242:E1242"/>
     <mergeCell ref="A1322:F1322"/>
@@ -20749,8 +21043,8 @@
     <mergeCell ref="A302:E302"/>
     <mergeCell ref="A325:F325"/>
     <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A1346:F1346"/>
-    <mergeCell ref="A1350:E1350"/>
+    <mergeCell ref="A1370:F1370"/>
+    <mergeCell ref="A1374:E1374"/>
     <mergeCell ref="A397:F397"/>
     <mergeCell ref="A401:E401"/>
     <mergeCell ref="A253:F253"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="293">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -904,6 +904,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 24 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 25 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 25 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,6 +1084,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1124,7 +1136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1190,6 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1470,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1414"/>
+  <dimension ref="A1:J1426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1395" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1413" sqref="C1413"/>
+    <sheetView tabSelected="1" topLeftCell="C1407" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1415" sqref="C1415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20984,7 +20997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1409" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1409" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A1409" s="1" t="s">
         <v>1</v>
       </c>
@@ -21004,7 +21017,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="1410" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1410" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A1410" s="1" t="s">
         <v>2</v>
       </c>
@@ -21024,7 +21037,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="1411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1411" s="62" t="s">
         <v>290</v>
       </c>
@@ -21034,7 +21047,7 @@
       <c r="E1411" s="62"/>
       <c r="F1411" s="50"/>
     </row>
-    <row r="1412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1412" s="1"/>
       <c r="B1412" s="2" t="s">
         <v>16</v>
@@ -21049,7 +21062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1413" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1413" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A1413" s="1" t="s">
         <v>1</v>
       </c>
@@ -21066,7 +21079,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="1414" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+    <row r="1414" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A1414" s="1" t="s">
         <v>2</v>
       </c>
@@ -21083,63 +21096,344 @@
         <v>0.31</v>
       </c>
     </row>
+    <row r="1418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1418" s="6"/>
+      <c r="B1418" s="6"/>
+      <c r="C1418" s="6"/>
+      <c r="D1418" s="6"/>
+      <c r="E1418" s="6"/>
+      <c r="F1418" s="6"/>
+    </row>
+    <row r="1419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1419" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1419" s="62"/>
+      <c r="C1419" s="62"/>
+      <c r="D1419" s="62"/>
+      <c r="E1419" s="62"/>
+      <c r="F1419" s="62"/>
+    </row>
+    <row r="1420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1420" s="1"/>
+      <c r="B1420" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1420" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1420" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1420" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1420" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1421" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1421" s="54">
+        <v>26293</v>
+      </c>
+      <c r="C1421" s="58">
+        <v>26556</v>
+      </c>
+      <c r="D1421">
+        <v>-7</v>
+      </c>
+      <c r="E1421" s="58">
+        <v>27150</v>
+      </c>
+      <c r="F1421" s="9">
+        <v>594</v>
+      </c>
+      <c r="H1421">
+        <f>E1422-E1410</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1422" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1422" s="54">
+        <v>30146</v>
+      </c>
+      <c r="C1422" s="58">
+        <v>30475</v>
+      </c>
+      <c r="D1422">
+        <v>57</v>
+      </c>
+      <c r="E1422" s="58">
+        <v>31599</v>
+      </c>
+      <c r="F1422" s="9">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1423" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1423" s="62"/>
+      <c r="C1423" s="62"/>
+      <c r="D1423" s="62"/>
+      <c r="E1423" s="62"/>
+      <c r="F1423" s="50"/>
+    </row>
+    <row r="1424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1424" s="1"/>
+      <c r="B1424" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1424" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1424" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1424" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1425" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1425" s="54">
+        <v>26313</v>
+      </c>
+      <c r="C1425" s="4">
+        <v>-25</v>
+      </c>
+      <c r="D1425" s="63">
+        <v>8987200</v>
+      </c>
+      <c r="E1425" s="5">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1426" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1426" s="54">
+        <v>30137</v>
+      </c>
+      <c r="C1426" s="4">
+        <v>-63</v>
+      </c>
+      <c r="D1426" s="63">
+        <v>2310500</v>
+      </c>
+      <c r="E1426" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="276">
-    <mergeCell ref="A1407:F1407"/>
-    <mergeCell ref="A1411:E1411"/>
-    <mergeCell ref="A1382:F1382"/>
-    <mergeCell ref="A1386:E1386"/>
-    <mergeCell ref="A1358:F1358"/>
-    <mergeCell ref="A1362:E1362"/>
-    <mergeCell ref="A1334:F1334"/>
-    <mergeCell ref="A1338:E1338"/>
-    <mergeCell ref="A1310:F1310"/>
-    <mergeCell ref="A1314:E1314"/>
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1370:F1370"/>
-    <mergeCell ref="A1374:E1374"/>
-    <mergeCell ref="A1346:F1346"/>
-    <mergeCell ref="A1350:E1350"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1322:F1322"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1298:F1298"/>
-    <mergeCell ref="A1302:E1302"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1274:F1274"/>
-    <mergeCell ref="A1278:E1278"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
+  <mergeCells count="278">
+    <mergeCell ref="A1419:F1419"/>
+    <mergeCell ref="A1423:E1423"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
     <mergeCell ref="A1044:E1044"/>
     <mergeCell ref="A959:F959"/>
     <mergeCell ref="A963:E963"/>
@@ -21164,203 +21458,63 @@
     <mergeCell ref="A925:F925"/>
     <mergeCell ref="A929:E929"/>
     <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1298:F1298"/>
+    <mergeCell ref="A1302:E1302"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1274:F1274"/>
+    <mergeCell ref="A1278:E1278"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1370:F1370"/>
+    <mergeCell ref="A1374:E1374"/>
+    <mergeCell ref="A1346:F1346"/>
+    <mergeCell ref="A1350:E1350"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1322:F1322"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1407:F1407"/>
+    <mergeCell ref="A1411:E1411"/>
+    <mergeCell ref="A1382:F1382"/>
+    <mergeCell ref="A1386:E1386"/>
+    <mergeCell ref="A1358:F1358"/>
+    <mergeCell ref="A1362:E1362"/>
+    <mergeCell ref="A1334:F1334"/>
+    <mergeCell ref="A1338:E1338"/>
+    <mergeCell ref="A1310:F1310"/>
+    <mergeCell ref="A1314:E1314"/>
     <mergeCell ref="A1395:F1395"/>
     <mergeCell ref="A1399:E1399"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="295">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -910,6 +910,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 25 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 26 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 26 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1199,10 +1205,10 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1426"/>
+  <dimension ref="A1:J1438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1407" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1415" sqref="C1415"/>
+    <sheetView tabSelected="1" topLeftCell="B1422" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1428" sqref="C1428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,13 +1506,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1559,13 +1565,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1618,12 +1624,12 @@
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,13 +1676,13 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1729,14 +1735,14 @@
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1797,13 +1803,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1856,14 +1862,14 @@
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1924,13 +1930,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -1983,14 +1989,14 @@
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -2051,13 +2057,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -2110,14 +2116,14 @@
     </row>
     <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2178,13 +2184,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -2237,14 +2243,14 @@
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2305,13 +2311,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -2364,14 +2370,14 @@
     </row>
     <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -2440,13 +2446,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
@@ -2499,14 +2505,14 @@
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="63"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -2575,13 +2581,13 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -2634,14 +2640,14 @@
     </row>
     <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -2710,13 +2716,13 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -2769,14 +2775,14 @@
     </row>
     <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="62" t="s">
+      <c r="A91" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -2842,13 +2848,13 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="62" t="s">
+      <c r="A95" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="62"/>
-      <c r="C95" s="62"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
@@ -2905,14 +2911,14 @@
     </row>
     <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="62" t="s">
+      <c r="A100" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="62"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="62"/>
-      <c r="F100" s="62"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -2978,13 +2984,13 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="62" t="s">
+      <c r="A104" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="62"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="62"/>
-      <c r="E104" s="62"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
@@ -3041,14 +3047,14 @@
     </row>
     <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="62" t="s">
+      <c r="A109" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="B109" s="62"/>
-      <c r="C109" s="62"/>
-      <c r="D109" s="62"/>
-      <c r="E109" s="62"/>
-      <c r="F109" s="62"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
@@ -3114,13 +3120,13 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
@@ -3179,14 +3185,14 @@
     </row>
     <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="62" t="s">
+      <c r="A118" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="B118" s="62"/>
-      <c r="C118" s="62"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="62"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="63"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="63"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
@@ -3252,13 +3258,13 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="62" t="s">
+      <c r="A122" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="62"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -3317,14 +3323,14 @@
     </row>
     <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="62" t="s">
+      <c r="A127" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B127" s="62"/>
-      <c r="C127" s="62"/>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="62"/>
+      <c r="B127" s="63"/>
+      <c r="C127" s="63"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="63"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
@@ -3391,13 +3397,13 @@
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="62" t="s">
+      <c r="A131" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="B131" s="62"/>
-      <c r="C131" s="62"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
+      <c r="B131" s="63"/>
+      <c r="C131" s="63"/>
+      <c r="D131" s="63"/>
+      <c r="E131" s="63"/>
       <c r="I131" s="10"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -3458,14 +3464,14 @@
     </row>
     <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="62" t="s">
+      <c r="A136" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B136" s="62"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="62"/>
-      <c r="E136" s="62"/>
-      <c r="F136" s="62"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3532,13 +3538,13 @@
       <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="62" t="s">
+      <c r="A140" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B140" s="62"/>
-      <c r="C140" s="62"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="63"/>
+      <c r="D140" s="63"/>
+      <c r="E140" s="63"/>
       <c r="I140" s="10"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -3600,14 +3606,14 @@
     </row>
     <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="62" t="s">
+      <c r="A145" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="62"/>
-      <c r="C145" s="62"/>
-      <c r="D145" s="62"/>
-      <c r="E145" s="62"/>
-      <c r="F145" s="62"/>
+      <c r="B145" s="63"/>
+      <c r="C145" s="63"/>
+      <c r="D145" s="63"/>
+      <c r="E145" s="63"/>
+      <c r="F145" s="63"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
@@ -3674,13 +3680,13 @@
       <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="62" t="s">
+      <c r="A149" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="62"/>
-      <c r="C149" s="62"/>
-      <c r="D149" s="62"/>
-      <c r="E149" s="62"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="63"/>
       <c r="G149">
         <f>F148/C148</f>
         <v>2.2416386163431928E-2</v>
@@ -3749,14 +3755,14 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="62" t="s">
+      <c r="A154" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B154" s="62"/>
-      <c r="C154" s="62"/>
-      <c r="D154" s="62"/>
-      <c r="E154" s="62"/>
-      <c r="F154" s="62"/>
+      <c r="B154" s="63"/>
+      <c r="C154" s="63"/>
+      <c r="D154" s="63"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="63"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
@@ -3826,13 +3832,13 @@
       <c r="G157" s="10"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="62" t="s">
+      <c r="A158" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B158" s="62"/>
-      <c r="C158" s="62"/>
-      <c r="D158" s="62"/>
-      <c r="E158" s="62"/>
+      <c r="B158" s="63"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
       <c r="H158">
         <f>F157/C157</f>
         <v>2.5752148997134669E-2</v>
@@ -3899,14 +3905,14 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="62" t="s">
+      <c r="A163" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B163" s="62"/>
-      <c r="C163" s="62"/>
-      <c r="D163" s="62"/>
-      <c r="E163" s="62"/>
-      <c r="F163" s="62"/>
+      <c r="B163" s="63"/>
+      <c r="C163" s="63"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="63"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
@@ -3974,13 +3980,13 @@
       <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="62" t="s">
+      <c r="A167" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B167" s="62"/>
-      <c r="C167" s="62"/>
-      <c r="D167" s="62"/>
-      <c r="E167" s="62"/>
+      <c r="B167" s="63"/>
+      <c r="C167" s="63"/>
+      <c r="D167" s="63"/>
+      <c r="E167" s="63"/>
       <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -4048,14 +4054,14 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="62" t="s">
+      <c r="A172" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B172" s="62"/>
-      <c r="C172" s="62"/>
-      <c r="D172" s="62"/>
-      <c r="E172" s="62"/>
-      <c r="F172" s="62"/>
+      <c r="B172" s="63"/>
+      <c r="C172" s="63"/>
+      <c r="D172" s="63"/>
+      <c r="E172" s="63"/>
+      <c r="F172" s="63"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
@@ -4127,13 +4133,13 @@
       <c r="G175" s="10"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="62" t="s">
+      <c r="A176" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B176" s="62"/>
-      <c r="C176" s="62"/>
-      <c r="D176" s="62"/>
-      <c r="E176" s="62"/>
+      <c r="B176" s="63"/>
+      <c r="C176" s="63"/>
+      <c r="D176" s="63"/>
+      <c r="E176" s="63"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -4201,14 +4207,14 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="62" t="s">
+      <c r="A181" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B181" s="62"/>
-      <c r="C181" s="62"/>
-      <c r="D181" s="62"/>
-      <c r="E181" s="62"/>
-      <c r="F181" s="62"/>
+      <c r="B181" s="63"/>
+      <c r="C181" s="63"/>
+      <c r="D181" s="63"/>
+      <c r="E181" s="63"/>
+      <c r="F181" s="63"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
@@ -4276,13 +4282,13 @@
       <c r="G184" s="10"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="62" t="s">
+      <c r="A185" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="B185" s="62"/>
-      <c r="C185" s="62"/>
-      <c r="D185" s="62"/>
-      <c r="E185" s="62"/>
+      <c r="B185" s="63"/>
+      <c r="C185" s="63"/>
+      <c r="D185" s="63"/>
+      <c r="E185" s="63"/>
       <c r="H185">
         <f>F184/C184</f>
         <v>3.0473475363100511E-2</v>
@@ -4350,14 +4356,14 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="62" t="s">
+      <c r="A190" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B190" s="62"/>
-      <c r="C190" s="62"/>
-      <c r="D190" s="62"/>
-      <c r="E190" s="62"/>
-      <c r="F190" s="62"/>
+      <c r="B190" s="63"/>
+      <c r="C190" s="63"/>
+      <c r="D190" s="63"/>
+      <c r="E190" s="63"/>
+      <c r="F190" s="63"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
@@ -4428,13 +4434,13 @@
       <c r="G193" s="10"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="62" t="s">
+      <c r="A194" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B194" s="62"/>
-      <c r="C194" s="62"/>
-      <c r="D194" s="62"/>
-      <c r="E194" s="62"/>
+      <c r="B194" s="63"/>
+      <c r="C194" s="63"/>
+      <c r="D194" s="63"/>
+      <c r="E194" s="63"/>
       <c r="H194">
         <f>F193/C193</f>
         <v>2.5228721929581369E-2</v>
@@ -4502,14 +4508,14 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="62" t="s">
+      <c r="A199" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B199" s="62"/>
-      <c r="C199" s="62"/>
-      <c r="D199" s="62"/>
-      <c r="E199" s="62"/>
-      <c r="F199" s="62"/>
+      <c r="B199" s="63"/>
+      <c r="C199" s="63"/>
+      <c r="D199" s="63"/>
+      <c r="E199" s="63"/>
+      <c r="F199" s="63"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
@@ -4580,13 +4586,13 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="62" t="s">
+      <c r="A203" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B203" s="62"/>
-      <c r="C203" s="62"/>
-      <c r="D203" s="62"/>
-      <c r="E203" s="62"/>
+      <c r="B203" s="63"/>
+      <c r="C203" s="63"/>
+      <c r="D203" s="63"/>
+      <c r="E203" s="63"/>
       <c r="I203" s="10"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -4649,14 +4655,14 @@
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="62" t="s">
+      <c r="A208" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B208" s="62"/>
-      <c r="C208" s="62"/>
-      <c r="D208" s="62"/>
-      <c r="E208" s="62"/>
-      <c r="F208" s="62"/>
+      <c r="B208" s="63"/>
+      <c r="C208" s="63"/>
+      <c r="D208" s="63"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
@@ -4732,13 +4738,13 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="62" t="s">
+      <c r="A212" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="B212" s="62"/>
-      <c r="C212" s="62"/>
-      <c r="D212" s="62"/>
-      <c r="E212" s="62"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="63"/>
       <c r="F212">
         <f>F211/C211</f>
         <v>5.3257745129351643E-2</v>
@@ -4803,14 +4809,14 @@
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="62" t="s">
+      <c r="A217" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B217" s="62"/>
-      <c r="C217" s="62"/>
-      <c r="D217" s="62"/>
-      <c r="E217" s="62"/>
-      <c r="F217" s="62"/>
+      <c r="B217" s="63"/>
+      <c r="C217" s="63"/>
+      <c r="D217" s="63"/>
+      <c r="E217" s="63"/>
+      <c r="F217" s="63"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
@@ -4885,13 +4891,13 @@
       <c r="I220" s="10"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="62" t="s">
+      <c r="A221" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B221" s="62"/>
-      <c r="C221" s="62"/>
-      <c r="D221" s="62"/>
-      <c r="E221" s="62"/>
+      <c r="B221" s="63"/>
+      <c r="C221" s="63"/>
+      <c r="D221" s="63"/>
+      <c r="E221" s="63"/>
       <c r="G221">
         <f>F220/C220</f>
         <v>5.292938818814099E-2</v>
@@ -4956,14 +4962,14 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="62" t="s">
+      <c r="A226" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B226" s="62"/>
-      <c r="C226" s="62"/>
-      <c r="D226" s="62"/>
-      <c r="E226" s="62"/>
-      <c r="F226" s="62"/>
+      <c r="B226" s="63"/>
+      <c r="C226" s="63"/>
+      <c r="D226" s="63"/>
+      <c r="E226" s="63"/>
+      <c r="F226" s="63"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
@@ -5036,13 +5042,13 @@
       <c r="I229" s="10"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="62" t="s">
+      <c r="A230" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="B230" s="62"/>
-      <c r="C230" s="62"/>
-      <c r="D230" s="62"/>
-      <c r="E230" s="62"/>
+      <c r="B230" s="63"/>
+      <c r="C230" s="63"/>
+      <c r="D230" s="63"/>
+      <c r="E230" s="63"/>
       <c r="G230">
         <f>F229/C229</f>
         <v>4.1247714808043873E-2</v>
@@ -5110,14 +5116,14 @@
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="62" t="s">
+      <c r="A235" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="B235" s="62"/>
-      <c r="C235" s="62"/>
-      <c r="D235" s="62"/>
-      <c r="E235" s="62"/>
-      <c r="F235" s="62"/>
+      <c r="B235" s="63"/>
+      <c r="C235" s="63"/>
+      <c r="D235" s="63"/>
+      <c r="E235" s="63"/>
+      <c r="F235" s="63"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
@@ -5191,13 +5197,13 @@
       <c r="I238" s="10"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="62" t="s">
+      <c r="A239" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B239" s="62"/>
-      <c r="C239" s="62"/>
-      <c r="D239" s="62"/>
-      <c r="E239" s="62"/>
+      <c r="B239" s="63"/>
+      <c r="C239" s="63"/>
+      <c r="D239" s="63"/>
+      <c r="E239" s="63"/>
       <c r="I239" s="10"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -5265,14 +5271,14 @@
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="62" t="s">
+      <c r="A244" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="B244" s="62"/>
-      <c r="C244" s="62"/>
-      <c r="D244" s="62"/>
-      <c r="E244" s="62"/>
-      <c r="F244" s="62"/>
+      <c r="B244" s="63"/>
+      <c r="C244" s="63"/>
+      <c r="D244" s="63"/>
+      <c r="E244" s="63"/>
+      <c r="F244" s="63"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
@@ -5347,13 +5353,13 @@
       <c r="I247" s="10"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="62" t="s">
+      <c r="A248" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="B248" s="62"/>
-      <c r="C248" s="62"/>
-      <c r="D248" s="62"/>
-      <c r="E248" s="62"/>
+      <c r="B248" s="63"/>
+      <c r="C248" s="63"/>
+      <c r="D248" s="63"/>
+      <c r="E248" s="63"/>
       <c r="G248">
         <f>F247/C247</f>
         <v>4.4714828897338403E-2</v>
@@ -5418,14 +5424,14 @@
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="62" t="s">
+      <c r="A253" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B253" s="62"/>
-      <c r="C253" s="62"/>
-      <c r="D253" s="62"/>
-      <c r="E253" s="62"/>
-      <c r="F253" s="62"/>
+      <c r="B253" s="63"/>
+      <c r="C253" s="63"/>
+      <c r="D253" s="63"/>
+      <c r="E253" s="63"/>
+      <c r="F253" s="63"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
@@ -5501,13 +5507,13 @@
       <c r="I256" s="10"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="62" t="s">
+      <c r="A257" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="B257" s="62"/>
-      <c r="C257" s="62"/>
-      <c r="D257" s="62"/>
-      <c r="E257" s="62"/>
+      <c r="B257" s="63"/>
+      <c r="C257" s="63"/>
+      <c r="D257" s="63"/>
+      <c r="E257" s="63"/>
       <c r="I257" s="10"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -5572,14 +5578,14 @@
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="62" t="s">
+      <c r="A262" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B262" s="62"/>
-      <c r="C262" s="62"/>
-      <c r="D262" s="62"/>
-      <c r="E262" s="62"/>
-      <c r="F262" s="62"/>
+      <c r="B262" s="63"/>
+      <c r="C262" s="63"/>
+      <c r="D262" s="63"/>
+      <c r="E262" s="63"/>
+      <c r="F262" s="63"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
@@ -5654,13 +5660,13 @@
       <c r="I265" s="10"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="62" t="s">
+      <c r="A266" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B266" s="62"/>
-      <c r="C266" s="62"/>
-      <c r="D266" s="62"/>
-      <c r="E266" s="62"/>
+      <c r="B266" s="63"/>
+      <c r="C266" s="63"/>
+      <c r="D266" s="63"/>
+      <c r="E266" s="63"/>
       <c r="F266">
         <f>F265/C265</f>
         <v>6.3093391837197865E-2</v>
@@ -5729,14 +5735,14 @@
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="62" t="s">
+      <c r="A271" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B271" s="62"/>
-      <c r="C271" s="62"/>
-      <c r="D271" s="62"/>
-      <c r="E271" s="62"/>
-      <c r="F271" s="62"/>
+      <c r="B271" s="63"/>
+      <c r="C271" s="63"/>
+      <c r="D271" s="63"/>
+      <c r="E271" s="63"/>
+      <c r="F271" s="63"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
@@ -5812,13 +5818,13 @@
       <c r="I274" s="10"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="62" t="s">
+      <c r="A275" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B275" s="62"/>
-      <c r="C275" s="62"/>
-      <c r="D275" s="62"/>
-      <c r="E275" s="62"/>
+      <c r="B275" s="63"/>
+      <c r="C275" s="63"/>
+      <c r="D275" s="63"/>
+      <c r="E275" s="63"/>
       <c r="G275">
         <f>F274/C274</f>
         <v>2.9095066007817687E-2</v>
@@ -5883,14 +5889,14 @@
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="62" t="s">
+      <c r="A280" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B280" s="62"/>
-      <c r="C280" s="62"/>
-      <c r="D280" s="62"/>
-      <c r="E280" s="62"/>
-      <c r="F280" s="62"/>
+      <c r="B280" s="63"/>
+      <c r="C280" s="63"/>
+      <c r="D280" s="63"/>
+      <c r="E280" s="63"/>
+      <c r="F280" s="63"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
@@ -5965,13 +5971,13 @@
       <c r="I283" s="10"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="62" t="s">
+      <c r="A284" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="B284" s="62"/>
-      <c r="C284" s="62"/>
-      <c r="D284" s="62"/>
-      <c r="E284" s="62"/>
+      <c r="B284" s="63"/>
+      <c r="C284" s="63"/>
+      <c r="D284" s="63"/>
+      <c r="E284" s="63"/>
       <c r="G284">
         <f>F283/C283</f>
         <v>3.0301905009469346E-2</v>
@@ -6040,14 +6046,14 @@
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="62" t="s">
+      <c r="A289" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="B289" s="62"/>
-      <c r="C289" s="62"/>
-      <c r="D289" s="62"/>
-      <c r="E289" s="62"/>
-      <c r="F289" s="62"/>
+      <c r="B289" s="63"/>
+      <c r="C289" s="63"/>
+      <c r="D289" s="63"/>
+      <c r="E289" s="63"/>
+      <c r="F289" s="63"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
@@ -6122,13 +6128,13 @@
       <c r="I292" s="10"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="62" t="s">
+      <c r="A293" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="B293" s="62"/>
-      <c r="C293" s="62"/>
-      <c r="D293" s="62"/>
-      <c r="E293" s="62"/>
+      <c r="B293" s="63"/>
+      <c r="C293" s="63"/>
+      <c r="D293" s="63"/>
+      <c r="E293" s="63"/>
       <c r="G293">
         <f>F292/C292</f>
         <v>3.1772328989028792E-2</v>
@@ -6193,14 +6199,14 @@
     </row>
     <row r="297" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="62" t="s">
+      <c r="A298" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="B298" s="62"/>
-      <c r="C298" s="62"/>
-      <c r="D298" s="62"/>
-      <c r="E298" s="62"/>
-      <c r="F298" s="62"/>
+      <c r="B298" s="63"/>
+      <c r="C298" s="63"/>
+      <c r="D298" s="63"/>
+      <c r="E298" s="63"/>
+      <c r="F298" s="63"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
@@ -6274,13 +6280,13 @@
       <c r="I301" s="10"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" s="62" t="s">
+      <c r="A302" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="B302" s="62"/>
-      <c r="C302" s="62"/>
-      <c r="D302" s="62"/>
-      <c r="E302" s="62"/>
+      <c r="B302" s="63"/>
+      <c r="C302" s="63"/>
+      <c r="D302" s="63"/>
+      <c r="E302" s="63"/>
       <c r="G302">
         <f>F301/C301</f>
         <v>1.9754619148470022E-2</v>
@@ -6349,14 +6355,14 @@
     </row>
     <row r="306" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="62" t="s">
+      <c r="A307" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="B307" s="62"/>
-      <c r="C307" s="62"/>
-      <c r="D307" s="62"/>
-      <c r="E307" s="62"/>
-      <c r="F307" s="62"/>
+      <c r="B307" s="63"/>
+      <c r="C307" s="63"/>
+      <c r="D307" s="63"/>
+      <c r="E307" s="63"/>
+      <c r="F307" s="63"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
@@ -6433,13 +6439,13 @@
       <c r="I310" s="10"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A311" s="62" t="s">
+      <c r="A311" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B311" s="62"/>
-      <c r="C311" s="62"/>
-      <c r="D311" s="62"/>
-      <c r="E311" s="62"/>
+      <c r="B311" s="63"/>
+      <c r="C311" s="63"/>
+      <c r="D311" s="63"/>
+      <c r="E311" s="63"/>
       <c r="G311">
         <f>F310/C310</f>
         <v>2.377202300282041E-2</v>
@@ -6504,14 +6510,14 @@
     </row>
     <row r="315" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A316" s="62" t="s">
+      <c r="A316" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="B316" s="62"/>
-      <c r="C316" s="62"/>
-      <c r="D316" s="62"/>
-      <c r="E316" s="62"/>
-      <c r="F316" s="62"/>
+      <c r="B316" s="63"/>
+      <c r="C316" s="63"/>
+      <c r="D316" s="63"/>
+      <c r="E316" s="63"/>
+      <c r="F316" s="63"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
@@ -6585,13 +6591,13 @@
       <c r="I319" s="10"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320" s="62" t="s">
+      <c r="A320" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B320" s="62"/>
-      <c r="C320" s="62"/>
-      <c r="D320" s="62"/>
-      <c r="E320" s="62"/>
+      <c r="B320" s="63"/>
+      <c r="C320" s="63"/>
+      <c r="D320" s="63"/>
+      <c r="E320" s="63"/>
       <c r="G320">
         <f>F319/C319</f>
         <v>3.4446152719818435E-2</v>
@@ -6659,14 +6665,14 @@
     </row>
     <row r="324" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A325" s="62" t="s">
+      <c r="A325" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="B325" s="62"/>
-      <c r="C325" s="62"/>
-      <c r="D325" s="62"/>
-      <c r="E325" s="62"/>
-      <c r="F325" s="62"/>
+      <c r="B325" s="63"/>
+      <c r="C325" s="63"/>
+      <c r="D325" s="63"/>
+      <c r="E325" s="63"/>
+      <c r="F325" s="63"/>
       <c r="H325">
         <f>E327-E318</f>
         <v>-230</v>
@@ -6744,13 +6750,13 @@
       <c r="I328" s="10"/>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="62" t="s">
+      <c r="A329" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B329" s="62"/>
-      <c r="C329" s="62"/>
-      <c r="D329" s="62"/>
-      <c r="E329" s="62"/>
+      <c r="B329" s="63"/>
+      <c r="C329" s="63"/>
+      <c r="D329" s="63"/>
+      <c r="E329" s="63"/>
       <c r="G329">
         <f>F328/C328</f>
         <v>2.3426650098676997E-2</v>
@@ -6815,14 +6821,14 @@
     </row>
     <row r="333" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A334" s="62" t="s">
+      <c r="A334" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B334" s="62"/>
-      <c r="C334" s="62"/>
-      <c r="D334" s="62"/>
-      <c r="E334" s="62"/>
-      <c r="F334" s="62"/>
+      <c r="B334" s="63"/>
+      <c r="C334" s="63"/>
+      <c r="D334" s="63"/>
+      <c r="E334" s="63"/>
+      <c r="F334" s="63"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
@@ -6896,13 +6902,13 @@
       <c r="I337" s="10"/>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" s="62" t="s">
+      <c r="A338" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B338" s="62"/>
-      <c r="C338" s="62"/>
-      <c r="D338" s="62"/>
-      <c r="E338" s="62"/>
+      <c r="B338" s="63"/>
+      <c r="C338" s="63"/>
+      <c r="D338" s="63"/>
+      <c r="E338" s="63"/>
       <c r="G338">
         <f>F337/C337</f>
         <v>3.330182505635134E-2</v>
@@ -6971,14 +6977,14 @@
     </row>
     <row r="342" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="62" t="s">
+      <c r="A343" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B343" s="62"/>
-      <c r="C343" s="62"/>
-      <c r="D343" s="62"/>
-      <c r="E343" s="62"/>
-      <c r="F343" s="62"/>
+      <c r="B343" s="63"/>
+      <c r="C343" s="63"/>
+      <c r="D343" s="63"/>
+      <c r="E343" s="63"/>
+      <c r="F343" s="63"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
@@ -7056,13 +7062,13 @@
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="62" t="s">
+      <c r="A347" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="B347" s="62"/>
-      <c r="C347" s="62"/>
-      <c r="D347" s="62"/>
-      <c r="E347" s="62"/>
+      <c r="B347" s="63"/>
+      <c r="C347" s="63"/>
+      <c r="D347" s="63"/>
+      <c r="E347" s="63"/>
       <c r="H347">
         <f>F346/C346</f>
         <v>3.1777737425095334E-2</v>
@@ -7127,14 +7133,14 @@
     </row>
     <row r="351" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="62" t="s">
+      <c r="A352" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="B352" s="62"/>
-      <c r="C352" s="62"/>
-      <c r="D352" s="62"/>
-      <c r="E352" s="62"/>
-      <c r="F352" s="62"/>
+      <c r="B352" s="63"/>
+      <c r="C352" s="63"/>
+      <c r="D352" s="63"/>
+      <c r="E352" s="63"/>
+      <c r="F352" s="63"/>
       <c r="I352">
         <f>E354-E345</f>
         <v>750</v>
@@ -7209,13 +7215,13 @@
       <c r="I355" s="10"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" s="62" t="s">
+      <c r="A356" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B356" s="62"/>
-      <c r="C356" s="62"/>
-      <c r="D356" s="62"/>
-      <c r="E356" s="62"/>
+      <c r="B356" s="63"/>
+      <c r="C356" s="63"/>
+      <c r="D356" s="63"/>
+      <c r="E356" s="63"/>
       <c r="H356">
         <f>F355/C355</f>
         <v>3.1826209819851639E-2</v>
@@ -7283,14 +7289,14 @@
     </row>
     <row r="360" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A361" s="62" t="s">
+      <c r="A361" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="B361" s="62"/>
-      <c r="C361" s="62"/>
-      <c r="D361" s="62"/>
-      <c r="E361" s="62"/>
-      <c r="F361" s="62"/>
+      <c r="B361" s="63"/>
+      <c r="C361" s="63"/>
+      <c r="D361" s="63"/>
+      <c r="E361" s="63"/>
+      <c r="F361" s="63"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
@@ -7364,13 +7370,13 @@
       <c r="I364" s="10"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A365" s="62" t="s">
+      <c r="A365" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B365" s="62"/>
-      <c r="C365" s="62"/>
-      <c r="D365" s="62"/>
-      <c r="E365" s="62"/>
+      <c r="B365" s="63"/>
+      <c r="C365" s="63"/>
+      <c r="D365" s="63"/>
+      <c r="E365" s="63"/>
       <c r="I365" s="10"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -7439,14 +7445,14 @@
     </row>
     <row r="369" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A370" s="62" t="s">
+      <c r="A370" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B370" s="62"/>
-      <c r="C370" s="62"/>
-      <c r="D370" s="62"/>
-      <c r="E370" s="62"/>
-      <c r="F370" s="62"/>
+      <c r="B370" s="63"/>
+      <c r="C370" s="63"/>
+      <c r="D370" s="63"/>
+      <c r="E370" s="63"/>
+      <c r="F370" s="63"/>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
@@ -7520,13 +7526,13 @@
       <c r="I373" s="10"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="62" t="s">
+      <c r="A374" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="B374" s="62"/>
-      <c r="C374" s="62"/>
-      <c r="D374" s="62"/>
-      <c r="E374" s="62"/>
+      <c r="B374" s="63"/>
+      <c r="C374" s="63"/>
+      <c r="D374" s="63"/>
+      <c r="E374" s="63"/>
       <c r="G374">
         <f>F373/C373</f>
         <v>3.0363083020737491E-2</v>
@@ -7595,14 +7601,14 @@
     </row>
     <row r="378" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A379" s="62" t="s">
+      <c r="A379" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B379" s="62"/>
-      <c r="C379" s="62"/>
-      <c r="D379" s="62"/>
-      <c r="E379" s="62"/>
-      <c r="F379" s="62"/>
+      <c r="B379" s="63"/>
+      <c r="C379" s="63"/>
+      <c r="D379" s="63"/>
+      <c r="E379" s="63"/>
+      <c r="F379" s="63"/>
       <c r="I379">
         <f>E381-E372</f>
         <v>230</v>
@@ -7677,13 +7683,13 @@
       <c r="I382" s="10"/>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A383" s="62" t="s">
+      <c r="A383" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="B383" s="62"/>
-      <c r="C383" s="62"/>
-      <c r="D383" s="62"/>
-      <c r="E383" s="62"/>
+      <c r="B383" s="63"/>
+      <c r="C383" s="63"/>
+      <c r="D383" s="63"/>
+      <c r="E383" s="63"/>
       <c r="H383">
         <f>F382/C382</f>
         <v>2.9669635968296276E-2</v>
@@ -7752,14 +7758,14 @@
     </row>
     <row r="387" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A388" s="62" t="s">
+      <c r="A388" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="B388" s="62"/>
-      <c r="C388" s="62"/>
-      <c r="D388" s="62"/>
-      <c r="E388" s="62"/>
-      <c r="F388" s="62"/>
+      <c r="B388" s="63"/>
+      <c r="C388" s="63"/>
+      <c r="D388" s="63"/>
+      <c r="E388" s="63"/>
+      <c r="F388" s="63"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
@@ -7834,13 +7840,13 @@
       <c r="I391" s="10"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A392" s="62" t="s">
+      <c r="A392" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="B392" s="62"/>
-      <c r="C392" s="62"/>
-      <c r="D392" s="62"/>
-      <c r="E392" s="62"/>
+      <c r="B392" s="63"/>
+      <c r="C392" s="63"/>
+      <c r="D392" s="63"/>
+      <c r="E392" s="63"/>
       <c r="G392">
         <f>F391/C391</f>
         <v>2.4687004055722096E-2</v>
@@ -7909,14 +7915,14 @@
     </row>
     <row r="396" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A397" s="62" t="s">
+      <c r="A397" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="B397" s="62"/>
-      <c r="C397" s="62"/>
-      <c r="D397" s="62"/>
-      <c r="E397" s="62"/>
-      <c r="F397" s="62"/>
+      <c r="B397" s="63"/>
+      <c r="C397" s="63"/>
+      <c r="D397" s="63"/>
+      <c r="E397" s="63"/>
+      <c r="F397" s="63"/>
       <c r="H397">
         <f>F399/C399</f>
         <v>1.6681599044327831E-2</v>
@@ -7993,13 +7999,13 @@
       <c r="I400" s="10"/>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A401" s="62" t="s">
+      <c r="A401" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="B401" s="62"/>
-      <c r="C401" s="62"/>
-      <c r="D401" s="62"/>
-      <c r="E401" s="62"/>
+      <c r="B401" s="63"/>
+      <c r="C401" s="63"/>
+      <c r="D401" s="63"/>
+      <c r="E401" s="63"/>
       <c r="H401">
         <f>F400/C400</f>
         <v>1.4285216542977597E-2</v>
@@ -8064,14 +8070,14 @@
     </row>
     <row r="405" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A406" s="62" t="s">
+      <c r="A406" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B406" s="62"/>
-      <c r="C406" s="62"/>
-      <c r="D406" s="62"/>
-      <c r="E406" s="62"/>
-      <c r="F406" s="62"/>
+      <c r="B406" s="63"/>
+      <c r="C406" s="63"/>
+      <c r="D406" s="63"/>
+      <c r="E406" s="63"/>
+      <c r="F406" s="63"/>
       <c r="H406">
         <f>E408-E399</f>
         <v>150</v>
@@ -8146,13 +8152,13 @@
       <c r="I409" s="10"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A410" s="62" t="s">
+      <c r="A410" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="B410" s="62"/>
-      <c r="C410" s="62"/>
-      <c r="D410" s="62"/>
-      <c r="E410" s="62"/>
+      <c r="B410" s="63"/>
+      <c r="C410" s="63"/>
+      <c r="D410" s="63"/>
+      <c r="E410" s="63"/>
       <c r="G410">
         <f>F409/C409</f>
         <v>1.5034453956984757E-2</v>
@@ -8221,14 +8227,14 @@
     </row>
     <row r="414" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A415" s="62" t="s">
+      <c r="A415" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B415" s="62"/>
-      <c r="C415" s="62"/>
-      <c r="D415" s="62"/>
-      <c r="E415" s="62"/>
-      <c r="F415" s="62"/>
+      <c r="B415" s="63"/>
+      <c r="C415" s="63"/>
+      <c r="D415" s="63"/>
+      <c r="E415" s="63"/>
+      <c r="F415" s="63"/>
       <c r="G415">
         <f>F417/C417</f>
         <v>1.4874628134296642E-2</v>
@@ -8306,13 +8312,13 @@
       <c r="I418" s="10"/>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A419" s="62" t="s">
+      <c r="A419" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="B419" s="62"/>
-      <c r="C419" s="62"/>
-      <c r="D419" s="62"/>
-      <c r="E419" s="62"/>
+      <c r="B419" s="63"/>
+      <c r="C419" s="63"/>
+      <c r="D419" s="63"/>
+      <c r="E419" s="63"/>
       <c r="G419">
         <f>F418/C418</f>
         <v>1.5932227025519455E-2</v>
@@ -8377,14 +8383,14 @@
     </row>
     <row r="423" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A424" s="62" t="s">
+      <c r="A424" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B424" s="62"/>
-      <c r="C424" s="62"/>
-      <c r="D424" s="62"/>
-      <c r="E424" s="62"/>
-      <c r="F424" s="62"/>
+      <c r="B424" s="63"/>
+      <c r="C424" s="63"/>
+      <c r="D424" s="63"/>
+      <c r="E424" s="63"/>
+      <c r="F424" s="63"/>
       <c r="I424">
         <f>E426-E417</f>
         <v>300</v>
@@ -8459,13 +8465,13 @@
       <c r="I427" s="10"/>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A428" s="62" t="s">
+      <c r="A428" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B428" s="62"/>
-      <c r="C428" s="62"/>
-      <c r="D428" s="62"/>
-      <c r="E428" s="62"/>
+      <c r="B428" s="63"/>
+      <c r="C428" s="63"/>
+      <c r="D428" s="63"/>
+      <c r="E428" s="63"/>
       <c r="I428" s="10"/>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -8533,14 +8539,14 @@
     </row>
     <row r="432" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="62" t="s">
+      <c r="A433" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B433" s="62"/>
-      <c r="C433" s="62"/>
-      <c r="D433" s="62"/>
-      <c r="E433" s="62"/>
-      <c r="F433" s="62"/>
+      <c r="B433" s="63"/>
+      <c r="C433" s="63"/>
+      <c r="D433" s="63"/>
+      <c r="E433" s="63"/>
+      <c r="F433" s="63"/>
       <c r="G433">
         <f>F435/C435</f>
         <v>1.7408615358549706E-2</v>
@@ -8615,13 +8621,13 @@
       <c r="I436" s="10"/>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A437" s="62" t="s">
+      <c r="A437" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="B437" s="62"/>
-      <c r="C437" s="62"/>
-      <c r="D437" s="62"/>
-      <c r="E437" s="62"/>
+      <c r="B437" s="63"/>
+      <c r="C437" s="63"/>
+      <c r="D437" s="63"/>
+      <c r="E437" s="63"/>
       <c r="G437">
         <f>F436/C436</f>
         <v>9.4623061781261876E-3</v>
@@ -8690,14 +8696,14 @@
     </row>
     <row r="441" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A442" s="62" t="s">
+      <c r="A442" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B442" s="62"/>
-      <c r="C442" s="62"/>
-      <c r="D442" s="62"/>
-      <c r="E442" s="62"/>
-      <c r="F442" s="62"/>
+      <c r="B442" s="63"/>
+      <c r="C442" s="63"/>
+      <c r="D442" s="63"/>
+      <c r="E442" s="63"/>
+      <c r="F442" s="63"/>
       <c r="G442">
         <f>F444/C444</f>
         <v>1.0817975798520545E-2</v>
@@ -8777,13 +8783,13 @@
       <c r="I445" s="10"/>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A446" s="62" t="s">
+      <c r="A446" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="B446" s="62"/>
-      <c r="C446" s="62"/>
-      <c r="D446" s="62"/>
-      <c r="E446" s="62"/>
+      <c r="B446" s="63"/>
+      <c r="C446" s="63"/>
+      <c r="D446" s="63"/>
+      <c r="E446" s="63"/>
       <c r="G446">
         <f>F445/C445</f>
         <v>1.6382373845060413E-2</v>
@@ -8848,14 +8854,14 @@
     </row>
     <row r="450" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A451" s="62" t="s">
+      <c r="A451" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B451" s="62"/>
-      <c r="C451" s="62"/>
-      <c r="D451" s="62"/>
-      <c r="E451" s="62"/>
-      <c r="F451" s="62"/>
+      <c r="B451" s="63"/>
+      <c r="C451" s="63"/>
+      <c r="D451" s="63"/>
+      <c r="E451" s="63"/>
+      <c r="F451" s="63"/>
       <c r="G451">
         <f>F453/C453</f>
         <v>1.8699532511687208E-2</v>
@@ -8930,13 +8936,13 @@
       <c r="I454" s="10"/>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A455" s="62" t="s">
+      <c r="A455" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="B455" s="62"/>
-      <c r="C455" s="62"/>
-      <c r="D455" s="62"/>
-      <c r="E455" s="62"/>
+      <c r="B455" s="63"/>
+      <c r="C455" s="63"/>
+      <c r="D455" s="63"/>
+      <c r="E455" s="63"/>
       <c r="G455">
         <f>F454/C454</f>
         <v>8.4291187739463595E-3</v>
@@ -9004,14 +9010,14 @@
     </row>
     <row r="459" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A460" s="62" t="s">
+      <c r="A460" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B460" s="62"/>
-      <c r="C460" s="62"/>
-      <c r="D460" s="62"/>
-      <c r="E460" s="62"/>
-      <c r="F460" s="62"/>
+      <c r="B460" s="63"/>
+      <c r="C460" s="63"/>
+      <c r="D460" s="63"/>
+      <c r="E460" s="63"/>
+      <c r="F460" s="63"/>
       <c r="G460">
         <f>F462/C462</f>
         <v>1.5754384474924624E-2</v>
@@ -9086,13 +9092,13 @@
       <c r="I463" s="10"/>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A464" s="62" t="s">
+      <c r="A464" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="B464" s="62"/>
-      <c r="C464" s="62"/>
-      <c r="D464" s="62"/>
-      <c r="E464" s="62"/>
+      <c r="B464" s="63"/>
+      <c r="C464" s="63"/>
+      <c r="D464" s="63"/>
+      <c r="E464" s="63"/>
       <c r="G464">
         <f>F463/C463</f>
         <v>2.4972702617026523E-2</v>
@@ -9161,14 +9167,14 @@
     </row>
     <row r="468" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A469" s="62" t="s">
+      <c r="A469" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B469" s="62"/>
-      <c r="C469" s="62"/>
-      <c r="D469" s="62"/>
-      <c r="E469" s="62"/>
-      <c r="F469" s="62"/>
+      <c r="B469" s="63"/>
+      <c r="C469" s="63"/>
+      <c r="D469" s="63"/>
+      <c r="E469" s="63"/>
+      <c r="F469" s="63"/>
       <c r="H469">
         <f>E471-E462</f>
         <v>120</v>
@@ -9243,13 +9249,13 @@
       <c r="I472" s="10"/>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A473" s="62" t="s">
+      <c r="A473" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="B473" s="62"/>
-      <c r="C473" s="62"/>
-      <c r="D473" s="62"/>
-      <c r="E473" s="62"/>
+      <c r="B473" s="63"/>
+      <c r="C473" s="63"/>
+      <c r="D473" s="63"/>
+      <c r="E473" s="63"/>
       <c r="G473">
         <f>F472/C472</f>
         <v>2.6497085320614733E-2</v>
@@ -9318,14 +9324,14 @@
     </row>
     <row r="477" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A478" s="62" t="s">
+      <c r="A478" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="B478" s="62"/>
-      <c r="C478" s="62"/>
-      <c r="D478" s="62"/>
-      <c r="E478" s="62"/>
-      <c r="F478" s="62"/>
+      <c r="B478" s="63"/>
+      <c r="C478" s="63"/>
+      <c r="D478" s="63"/>
+      <c r="E478" s="63"/>
+      <c r="F478" s="63"/>
       <c r="G478">
         <f>F480/C480</f>
         <v>2.2910479422995334E-2</v>
@@ -9400,13 +9406,13 @@
       <c r="I481" s="10"/>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A482" s="62" t="s">
+      <c r="A482" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="B482" s="62"/>
-      <c r="C482" s="62"/>
-      <c r="D482" s="62"/>
-      <c r="E482" s="62"/>
+      <c r="B482" s="63"/>
+      <c r="C482" s="63"/>
+      <c r="D482" s="63"/>
+      <c r="E482" s="63"/>
       <c r="F482" s="34"/>
       <c r="G482">
         <f>F481/C481</f>
@@ -9478,14 +9484,14 @@
     </row>
     <row r="486" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A487" s="62" t="s">
+      <c r="A487" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="B487" s="62"/>
-      <c r="C487" s="62"/>
-      <c r="D487" s="62"/>
-      <c r="E487" s="62"/>
-      <c r="F487" s="62"/>
+      <c r="B487" s="63"/>
+      <c r="C487" s="63"/>
+      <c r="D487" s="63"/>
+      <c r="E487" s="63"/>
+      <c r="F487" s="63"/>
       <c r="I487">
         <f>E489-E480</f>
         <v>230</v>
@@ -9560,13 +9566,13 @@
       <c r="I490" s="10"/>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A491" s="62" t="s">
+      <c r="A491" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="B491" s="62"/>
-      <c r="C491" s="62"/>
-      <c r="D491" s="62"/>
-      <c r="E491" s="62"/>
+      <c r="B491" s="63"/>
+      <c r="C491" s="63"/>
+      <c r="D491" s="63"/>
+      <c r="E491" s="63"/>
       <c r="F491" s="34"/>
       <c r="H491">
         <f>F490/C490</f>
@@ -9637,14 +9643,14 @@
     </row>
     <row r="495" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A496" s="62" t="s">
+      <c r="A496" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B496" s="62"/>
-      <c r="C496" s="62"/>
-      <c r="D496" s="62"/>
-      <c r="E496" s="62"/>
-      <c r="F496" s="62"/>
+      <c r="B496" s="63"/>
+      <c r="C496" s="63"/>
+      <c r="D496" s="63"/>
+      <c r="E496" s="63"/>
+      <c r="F496" s="63"/>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
@@ -9719,13 +9725,13 @@
       <c r="I499" s="10"/>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A500" s="62" t="s">
+      <c r="A500" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="B500" s="62"/>
-      <c r="C500" s="62"/>
-      <c r="D500" s="62"/>
-      <c r="E500" s="62"/>
+      <c r="B500" s="63"/>
+      <c r="C500" s="63"/>
+      <c r="D500" s="63"/>
+      <c r="E500" s="63"/>
       <c r="F500" s="34"/>
       <c r="G500">
         <f>F499/C499</f>
@@ -9797,14 +9803,14 @@
     </row>
     <row r="504" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A505" s="62" t="s">
+      <c r="A505" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="B505" s="62"/>
-      <c r="C505" s="62"/>
-      <c r="D505" s="62"/>
-      <c r="E505" s="62"/>
-      <c r="F505" s="62"/>
+      <c r="B505" s="63"/>
+      <c r="C505" s="63"/>
+      <c r="D505" s="63"/>
+      <c r="E505" s="63"/>
+      <c r="F505" s="63"/>
       <c r="G505">
         <f>F507/C507</f>
         <v>8.3248386000679582E-3</v>
@@ -9880,13 +9886,13 @@
       <c r="I508" s="10"/>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A509" s="62" t="s">
+      <c r="A509" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="B509" s="62"/>
-      <c r="C509" s="62"/>
-      <c r="D509" s="62"/>
-      <c r="E509" s="62"/>
+      <c r="B509" s="63"/>
+      <c r="C509" s="63"/>
+      <c r="D509" s="63"/>
+      <c r="E509" s="63"/>
       <c r="F509" s="34"/>
       <c r="G509">
         <f>F508/C508</f>
@@ -9961,14 +9967,14 @@
     </row>
     <row r="513" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A514" s="62" t="s">
+      <c r="A514" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="B514" s="62"/>
-      <c r="C514" s="62"/>
-      <c r="D514" s="62"/>
-      <c r="E514" s="62"/>
-      <c r="F514" s="62"/>
+      <c r="B514" s="63"/>
+      <c r="C514" s="63"/>
+      <c r="D514" s="63"/>
+      <c r="E514" s="63"/>
+      <c r="F514" s="63"/>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
@@ -10039,13 +10045,13 @@
       <c r="I517" s="10"/>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A518" s="62" t="s">
+      <c r="A518" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="B518" s="62"/>
-      <c r="C518" s="62"/>
-      <c r="D518" s="62"/>
-      <c r="E518" s="62"/>
+      <c r="B518" s="63"/>
+      <c r="C518" s="63"/>
+      <c r="D518" s="63"/>
+      <c r="E518" s="63"/>
       <c r="F518" s="34"/>
       <c r="I518" s="10"/>
     </row>
@@ -10112,14 +10118,14 @@
     </row>
     <row r="522" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A523" s="62" t="s">
+      <c r="A523" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="B523" s="62"/>
-      <c r="C523" s="62"/>
-      <c r="D523" s="62"/>
-      <c r="E523" s="62"/>
-      <c r="F523" s="62"/>
+      <c r="B523" s="63"/>
+      <c r="C523" s="63"/>
+      <c r="D523" s="63"/>
+      <c r="E523" s="63"/>
+      <c r="F523" s="63"/>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
@@ -10187,13 +10193,13 @@
       <c r="I526" s="10"/>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A527" s="62" t="s">
+      <c r="A527" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="B527" s="62"/>
-      <c r="C527" s="62"/>
-      <c r="D527" s="62"/>
-      <c r="E527" s="62"/>
+      <c r="B527" s="63"/>
+      <c r="C527" s="63"/>
+      <c r="D527" s="63"/>
+      <c r="E527" s="63"/>
       <c r="F527" s="34"/>
       <c r="I527" s="10"/>
     </row>
@@ -10257,14 +10263,14 @@
     </row>
     <row r="533" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A534" s="62" t="s">
+      <c r="A534" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="B534" s="62"/>
-      <c r="C534" s="62"/>
-      <c r="D534" s="62"/>
-      <c r="E534" s="62"/>
-      <c r="F534" s="62"/>
+      <c r="B534" s="63"/>
+      <c r="C534" s="63"/>
+      <c r="D534" s="63"/>
+      <c r="E534" s="63"/>
+      <c r="F534" s="63"/>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
@@ -10309,13 +10315,13 @@
       <c r="I537" s="10"/>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A538" s="62" t="s">
+      <c r="A538" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="B538" s="62"/>
-      <c r="C538" s="62"/>
-      <c r="D538" s="62"/>
-      <c r="E538" s="62"/>
+      <c r="B538" s="63"/>
+      <c r="C538" s="63"/>
+      <c r="D538" s="63"/>
+      <c r="E538" s="63"/>
       <c r="F538" s="34"/>
       <c r="I538" s="10"/>
     </row>
@@ -10363,14 +10369,14 @@
     </row>
     <row r="544" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A545" s="62" t="s">
+      <c r="A545" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="B545" s="62"/>
-      <c r="C545" s="62"/>
-      <c r="D545" s="62"/>
-      <c r="E545" s="62"/>
-      <c r="F545" s="62"/>
+      <c r="B545" s="63"/>
+      <c r="C545" s="63"/>
+      <c r="D545" s="63"/>
+      <c r="E545" s="63"/>
+      <c r="F545" s="63"/>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
@@ -10426,13 +10432,13 @@
       <c r="I548" s="10"/>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A549" s="62" t="s">
+      <c r="A549" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="B549" s="62"/>
-      <c r="C549" s="62"/>
-      <c r="D549" s="62"/>
-      <c r="E549" s="62"/>
+      <c r="B549" s="63"/>
+      <c r="C549" s="63"/>
+      <c r="D549" s="63"/>
+      <c r="E549" s="63"/>
       <c r="F549" s="34"/>
       <c r="I549" s="10"/>
     </row>
@@ -10488,14 +10494,14 @@
     </row>
     <row r="555" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A556" s="62" t="s">
+      <c r="A556" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="B556" s="62"/>
-      <c r="C556" s="62"/>
-      <c r="D556" s="62"/>
-      <c r="E556" s="62"/>
-      <c r="F556" s="62"/>
+      <c r="B556" s="63"/>
+      <c r="C556" s="63"/>
+      <c r="D556" s="63"/>
+      <c r="E556" s="63"/>
+      <c r="F556" s="63"/>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
@@ -10571,13 +10577,13 @@
       <c r="I559" s="10"/>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A560" s="62" t="s">
+      <c r="A560" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="B560" s="62"/>
-      <c r="C560" s="62"/>
-      <c r="D560" s="62"/>
-      <c r="E560" s="62"/>
+      <c r="B560" s="63"/>
+      <c r="C560" s="63"/>
+      <c r="D560" s="63"/>
+      <c r="E560" s="63"/>
       <c r="F560" s="34"/>
       <c r="I560" s="10"/>
     </row>
@@ -10641,14 +10647,14 @@
     </row>
     <row r="565" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A566" s="62" t="s">
+      <c r="A566" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="B566" s="62"/>
-      <c r="C566" s="62"/>
-      <c r="D566" s="62"/>
-      <c r="E566" s="62"/>
-      <c r="F566" s="62"/>
+      <c r="B566" s="63"/>
+      <c r="C566" s="63"/>
+      <c r="D566" s="63"/>
+      <c r="E566" s="63"/>
+      <c r="F566" s="63"/>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
@@ -10715,13 +10721,13 @@
       <c r="I569" s="10"/>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A570" s="62" t="s">
+      <c r="A570" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="B570" s="62"/>
-      <c r="C570" s="62"/>
-      <c r="D570" s="62"/>
-      <c r="E570" s="62"/>
+      <c r="B570" s="63"/>
+      <c r="C570" s="63"/>
+      <c r="D570" s="63"/>
+      <c r="E570" s="63"/>
       <c r="F570" s="34"/>
       <c r="I570" s="10"/>
     </row>
@@ -10785,14 +10791,14 @@
     </row>
     <row r="575" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A576" s="62" t="s">
+      <c r="A576" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="B576" s="62"/>
-      <c r="C576" s="62"/>
-      <c r="D576" s="62"/>
-      <c r="E576" s="62"/>
-      <c r="F576" s="62"/>
+      <c r="B576" s="63"/>
+      <c r="C576" s="63"/>
+      <c r="D576" s="63"/>
+      <c r="E576" s="63"/>
+      <c r="F576" s="63"/>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
@@ -10859,13 +10865,13 @@
       <c r="I579" s="10"/>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A580" s="62" t="s">
+      <c r="A580" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B580" s="62"/>
-      <c r="C580" s="62"/>
-      <c r="D580" s="62"/>
-      <c r="E580" s="62"/>
+      <c r="B580" s="63"/>
+      <c r="C580" s="63"/>
+      <c r="D580" s="63"/>
+      <c r="E580" s="63"/>
       <c r="F580" s="34"/>
       <c r="I580" s="10"/>
     </row>
@@ -10929,14 +10935,14 @@
     </row>
     <row r="585" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A586" s="62" t="s">
+      <c r="A586" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B586" s="62"/>
-      <c r="C586" s="62"/>
-      <c r="D586" s="62"/>
-      <c r="E586" s="62"/>
-      <c r="F586" s="62"/>
+      <c r="B586" s="63"/>
+      <c r="C586" s="63"/>
+      <c r="D586" s="63"/>
+      <c r="E586" s="63"/>
+      <c r="F586" s="63"/>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
@@ -11003,13 +11009,13 @@
       <c r="I589" s="10"/>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A590" s="62" t="s">
+      <c r="A590" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="B590" s="62"/>
-      <c r="C590" s="62"/>
-      <c r="D590" s="62"/>
-      <c r="E590" s="62"/>
+      <c r="B590" s="63"/>
+      <c r="C590" s="63"/>
+      <c r="D590" s="63"/>
+      <c r="E590" s="63"/>
       <c r="F590" s="34"/>
       <c r="I590" s="10"/>
     </row>
@@ -11073,14 +11079,14 @@
     </row>
     <row r="595" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A596" s="62" t="s">
+      <c r="A596" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="B596" s="62"/>
-      <c r="C596" s="62"/>
-      <c r="D596" s="62"/>
-      <c r="E596" s="62"/>
-      <c r="F596" s="62"/>
+      <c r="B596" s="63"/>
+      <c r="C596" s="63"/>
+      <c r="D596" s="63"/>
+      <c r="E596" s="63"/>
+      <c r="F596" s="63"/>
       <c r="I596">
         <f>E598-E588</f>
         <v>140</v>
@@ -11155,13 +11161,13 @@
       <c r="I599" s="10"/>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A600" s="62" t="s">
+      <c r="A600" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="B600" s="62"/>
-      <c r="C600" s="62"/>
-      <c r="D600" s="62"/>
-      <c r="E600" s="62"/>
+      <c r="B600" s="63"/>
+      <c r="C600" s="63"/>
+      <c r="D600" s="63"/>
+      <c r="E600" s="63"/>
       <c r="F600" s="34"/>
       <c r="G600">
         <f>F599/C599</f>
@@ -11232,14 +11238,14 @@
     </row>
     <row r="605" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A606" s="62" t="s">
+      <c r="A606" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="B606" s="62"/>
-      <c r="C606" s="62"/>
-      <c r="D606" s="62"/>
-      <c r="E606" s="62"/>
-      <c r="F606" s="62"/>
+      <c r="B606" s="63"/>
+      <c r="C606" s="63"/>
+      <c r="D606" s="63"/>
+      <c r="E606" s="63"/>
+      <c r="F606" s="63"/>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
@@ -11306,13 +11312,13 @@
       <c r="I609" s="10"/>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A610" s="62" t="s">
+      <c r="A610" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="B610" s="62"/>
-      <c r="C610" s="62"/>
-      <c r="D610" s="62"/>
-      <c r="E610" s="62"/>
+      <c r="B610" s="63"/>
+      <c r="C610" s="63"/>
+      <c r="D610" s="63"/>
+      <c r="E610" s="63"/>
       <c r="F610" s="34"/>
       <c r="I610" s="10"/>
     </row>
@@ -11376,14 +11382,14 @@
     </row>
     <row r="615" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A616" s="62" t="s">
+      <c r="A616" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="B616" s="62"/>
-      <c r="C616" s="62"/>
-      <c r="D616" s="62"/>
-      <c r="E616" s="62"/>
-      <c r="F616" s="62"/>
+      <c r="B616" s="63"/>
+      <c r="C616" s="63"/>
+      <c r="D616" s="63"/>
+      <c r="E616" s="63"/>
+      <c r="F616" s="63"/>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
@@ -11450,13 +11456,13 @@
       <c r="I619" s="10"/>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A620" s="62" t="s">
+      <c r="A620" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="B620" s="62"/>
-      <c r="C620" s="62"/>
-      <c r="D620" s="62"/>
-      <c r="E620" s="62"/>
+      <c r="B620" s="63"/>
+      <c r="C620" s="63"/>
+      <c r="D620" s="63"/>
+      <c r="E620" s="63"/>
       <c r="F620" s="34"/>
       <c r="I620" s="10"/>
     </row>
@@ -11520,14 +11526,14 @@
     </row>
     <row r="625" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A626" s="62" t="s">
+      <c r="A626" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="B626" s="62"/>
-      <c r="C626" s="62"/>
-      <c r="D626" s="62"/>
-      <c r="E626" s="62"/>
-      <c r="F626" s="62"/>
+      <c r="B626" s="63"/>
+      <c r="C626" s="63"/>
+      <c r="D626" s="63"/>
+      <c r="E626" s="63"/>
+      <c r="F626" s="63"/>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
@@ -11594,13 +11600,13 @@
       <c r="I629" s="10"/>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A630" s="62" t="s">
+      <c r="A630" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B630" s="62"/>
-      <c r="C630" s="62"/>
-      <c r="D630" s="62"/>
-      <c r="E630" s="62"/>
+      <c r="B630" s="63"/>
+      <c r="C630" s="63"/>
+      <c r="D630" s="63"/>
+      <c r="E630" s="63"/>
       <c r="F630" s="34"/>
       <c r="I630" s="10"/>
     </row>
@@ -11664,14 +11670,14 @@
     </row>
     <row r="635" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A636" s="62" t="s">
+      <c r="A636" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="B636" s="62"/>
-      <c r="C636" s="62"/>
-      <c r="D636" s="62"/>
-      <c r="E636" s="62"/>
-      <c r="F636" s="62"/>
+      <c r="B636" s="63"/>
+      <c r="C636" s="63"/>
+      <c r="D636" s="63"/>
+      <c r="E636" s="63"/>
+      <c r="F636" s="63"/>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
@@ -11738,13 +11744,13 @@
       <c r="I639" s="10"/>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A640" s="62" t="s">
+      <c r="A640" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="B640" s="62"/>
-      <c r="C640" s="62"/>
-      <c r="D640" s="62"/>
-      <c r="E640" s="62"/>
+      <c r="B640" s="63"/>
+      <c r="C640" s="63"/>
+      <c r="D640" s="63"/>
+      <c r="E640" s="63"/>
       <c r="F640" s="34"/>
       <c r="I640" s="10"/>
     </row>
@@ -11808,14 +11814,14 @@
     </row>
     <row r="645" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A646" s="62" t="s">
+      <c r="A646" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="B646" s="62"/>
-      <c r="C646" s="62"/>
-      <c r="D646" s="62"/>
-      <c r="E646" s="62"/>
-      <c r="F646" s="62"/>
+      <c r="B646" s="63"/>
+      <c r="C646" s="63"/>
+      <c r="D646" s="63"/>
+      <c r="E646" s="63"/>
+      <c r="F646" s="63"/>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
@@ -11882,13 +11888,13 @@
       <c r="I649" s="10"/>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A650" s="62" t="s">
+      <c r="A650" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="B650" s="62"/>
-      <c r="C650" s="62"/>
-      <c r="D650" s="62"/>
-      <c r="E650" s="62"/>
+      <c r="B650" s="63"/>
+      <c r="C650" s="63"/>
+      <c r="D650" s="63"/>
+      <c r="E650" s="63"/>
       <c r="F650" s="34"/>
       <c r="I650" s="10"/>
     </row>
@@ -11952,14 +11958,14 @@
     </row>
     <row r="655" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A656" s="62" t="s">
+      <c r="A656" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="B656" s="62"/>
-      <c r="C656" s="62"/>
-      <c r="D656" s="62"/>
-      <c r="E656" s="62"/>
-      <c r="F656" s="62"/>
+      <c r="B656" s="63"/>
+      <c r="C656" s="63"/>
+      <c r="D656" s="63"/>
+      <c r="E656" s="63"/>
+      <c r="F656" s="63"/>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
@@ -12026,13 +12032,13 @@
       <c r="I659" s="10"/>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A660" s="62" t="s">
+      <c r="A660" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="B660" s="62"/>
-      <c r="C660" s="62"/>
-      <c r="D660" s="62"/>
-      <c r="E660" s="62"/>
+      <c r="B660" s="63"/>
+      <c r="C660" s="63"/>
+      <c r="D660" s="63"/>
+      <c r="E660" s="63"/>
       <c r="F660" s="34"/>
       <c r="I660" s="10"/>
     </row>
@@ -12103,14 +12109,14 @@
       <c r="F665" s="6"/>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A666" s="62" t="s">
+      <c r="A666" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="B666" s="62"/>
-      <c r="C666" s="62"/>
-      <c r="D666" s="62"/>
-      <c r="E666" s="62"/>
-      <c r="F666" s="62"/>
+      <c r="B666" s="63"/>
+      <c r="C666" s="63"/>
+      <c r="D666" s="63"/>
+      <c r="E666" s="63"/>
+      <c r="F666" s="63"/>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
@@ -12171,13 +12177,13 @@
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A670" s="62" t="s">
+      <c r="A670" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="B670" s="62"/>
-      <c r="C670" s="62"/>
-      <c r="D670" s="62"/>
-      <c r="E670" s="62"/>
+      <c r="B670" s="63"/>
+      <c r="C670" s="63"/>
+      <c r="D670" s="63"/>
+      <c r="E670" s="63"/>
       <c r="F670" s="34"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
@@ -12241,14 +12247,14 @@
       <c r="F675" s="6"/>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A676" s="62" t="s">
+      <c r="A676" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="B676" s="62"/>
-      <c r="C676" s="62"/>
-      <c r="D676" s="62"/>
-      <c r="E676" s="62"/>
-      <c r="F676" s="62"/>
+      <c r="B676" s="63"/>
+      <c r="C676" s="63"/>
+      <c r="D676" s="63"/>
+      <c r="E676" s="63"/>
+      <c r="F676" s="63"/>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
@@ -12310,13 +12316,13 @@
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A680" s="62" t="s">
+      <c r="A680" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="B680" s="62"/>
-      <c r="C680" s="62"/>
-      <c r="D680" s="62"/>
-      <c r="E680" s="62"/>
+      <c r="B680" s="63"/>
+      <c r="C680" s="63"/>
+      <c r="D680" s="63"/>
+      <c r="E680" s="63"/>
       <c r="F680" s="34"/>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
@@ -12384,14 +12390,14 @@
       <c r="F685" s="6"/>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A686" s="62" t="s">
+      <c r="A686" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="B686" s="62"/>
-      <c r="C686" s="62"/>
-      <c r="D686" s="62"/>
-      <c r="E686" s="62"/>
-      <c r="F686" s="62"/>
+      <c r="B686" s="63"/>
+      <c r="C686" s="63"/>
+      <c r="D686" s="63"/>
+      <c r="E686" s="63"/>
+      <c r="F686" s="63"/>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
@@ -12452,13 +12458,13 @@
       </c>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A690" s="62" t="s">
+      <c r="A690" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="B690" s="62"/>
-      <c r="C690" s="62"/>
-      <c r="D690" s="62"/>
-      <c r="E690" s="62"/>
+      <c r="B690" s="63"/>
+      <c r="C690" s="63"/>
+      <c r="D690" s="63"/>
+      <c r="E690" s="63"/>
       <c r="F690" s="34"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
@@ -12522,14 +12528,14 @@
       <c r="F695" s="6"/>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A696" s="62" t="s">
+      <c r="A696" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="B696" s="62"/>
-      <c r="C696" s="62"/>
-      <c r="D696" s="62"/>
-      <c r="E696" s="62"/>
-      <c r="F696" s="62"/>
+      <c r="B696" s="63"/>
+      <c r="C696" s="63"/>
+      <c r="D696" s="63"/>
+      <c r="E696" s="63"/>
+      <c r="F696" s="63"/>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
@@ -12590,13 +12596,13 @@
       </c>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A700" s="62" t="s">
+      <c r="A700" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="B700" s="62"/>
-      <c r="C700" s="62"/>
-      <c r="D700" s="62"/>
-      <c r="E700" s="62"/>
+      <c r="B700" s="63"/>
+      <c r="C700" s="63"/>
+      <c r="D700" s="63"/>
+      <c r="E700" s="63"/>
       <c r="F700" s="34"/>
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
@@ -12664,14 +12670,14 @@
       <c r="F705" s="6"/>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A706" s="62" t="s">
+      <c r="A706" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="B706" s="62"/>
-      <c r="C706" s="62"/>
-      <c r="D706" s="62"/>
-      <c r="E706" s="62"/>
-      <c r="F706" s="62"/>
+      <c r="B706" s="63"/>
+      <c r="C706" s="63"/>
+      <c r="D706" s="63"/>
+      <c r="E706" s="63"/>
+      <c r="F706" s="63"/>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
@@ -12732,13 +12738,13 @@
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A710" s="62" t="s">
+      <c r="A710" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="B710" s="62"/>
-      <c r="C710" s="62"/>
-      <c r="D710" s="62"/>
-      <c r="E710" s="62"/>
+      <c r="B710" s="63"/>
+      <c r="C710" s="63"/>
+      <c r="D710" s="63"/>
+      <c r="E710" s="63"/>
       <c r="F710" s="34"/>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
@@ -12802,14 +12808,14 @@
       <c r="F715" s="6"/>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A716" s="62" t="s">
+      <c r="A716" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="B716" s="62"/>
-      <c r="C716" s="62"/>
-      <c r="D716" s="62"/>
-      <c r="E716" s="62"/>
-      <c r="F716" s="62"/>
+      <c r="B716" s="63"/>
+      <c r="C716" s="63"/>
+      <c r="D716" s="63"/>
+      <c r="E716" s="63"/>
+      <c r="F716" s="63"/>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
@@ -12870,13 +12876,13 @@
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A720" s="62" t="s">
+      <c r="A720" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="B720" s="62"/>
-      <c r="C720" s="62"/>
-      <c r="D720" s="62"/>
-      <c r="E720" s="62"/>
+      <c r="B720" s="63"/>
+      <c r="C720" s="63"/>
+      <c r="D720" s="63"/>
+      <c r="E720" s="63"/>
       <c r="F720" s="34"/>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
@@ -12940,14 +12946,14 @@
       <c r="F725" s="6"/>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A726" s="62" t="s">
+      <c r="A726" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="B726" s="62"/>
-      <c r="C726" s="62"/>
-      <c r="D726" s="62"/>
-      <c r="E726" s="62"/>
-      <c r="F726" s="62"/>
+      <c r="B726" s="63"/>
+      <c r="C726" s="63"/>
+      <c r="D726" s="63"/>
+      <c r="E726" s="63"/>
+      <c r="F726" s="63"/>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
@@ -13008,13 +13014,13 @@
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A730" s="62" t="s">
+      <c r="A730" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="B730" s="62"/>
-      <c r="C730" s="62"/>
-      <c r="D730" s="62"/>
-      <c r="E730" s="62"/>
+      <c r="B730" s="63"/>
+      <c r="C730" s="63"/>
+      <c r="D730" s="63"/>
+      <c r="E730" s="63"/>
       <c r="F730" s="34"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
@@ -13078,14 +13084,14 @@
       <c r="F735" s="6"/>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A736" s="62" t="s">
+      <c r="A736" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="B736" s="62"/>
-      <c r="C736" s="62"/>
-      <c r="D736" s="62"/>
-      <c r="E736" s="62"/>
-      <c r="F736" s="62"/>
+      <c r="B736" s="63"/>
+      <c r="C736" s="63"/>
+      <c r="D736" s="63"/>
+      <c r="E736" s="63"/>
+      <c r="F736" s="63"/>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
@@ -13146,13 +13152,13 @@
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A740" s="62" t="s">
+      <c r="A740" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="B740" s="62"/>
-      <c r="C740" s="62"/>
-      <c r="D740" s="62"/>
-      <c r="E740" s="62"/>
+      <c r="B740" s="63"/>
+      <c r="C740" s="63"/>
+      <c r="D740" s="63"/>
+      <c r="E740" s="63"/>
       <c r="F740" s="34"/>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
@@ -13216,14 +13222,14 @@
       <c r="F747" s="6"/>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A748" s="62" t="s">
+      <c r="A748" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="B748" s="62"/>
-      <c r="C748" s="62"/>
-      <c r="D748" s="62"/>
-      <c r="E748" s="62"/>
-      <c r="F748" s="62"/>
+      <c r="B748" s="63"/>
+      <c r="C748" s="63"/>
+      <c r="D748" s="63"/>
+      <c r="E748" s="63"/>
+      <c r="F748" s="63"/>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
@@ -13284,13 +13290,13 @@
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A752" s="62" t="s">
+      <c r="A752" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="B752" s="62"/>
-      <c r="C752" s="62"/>
-      <c r="D752" s="62"/>
-      <c r="E752" s="62"/>
+      <c r="B752" s="63"/>
+      <c r="C752" s="63"/>
+      <c r="D752" s="63"/>
+      <c r="E752" s="63"/>
       <c r="F752" s="34"/>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
@@ -13354,14 +13360,14 @@
       <c r="F758" s="6"/>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A759" s="62" t="s">
+      <c r="A759" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="B759" s="62"/>
-      <c r="C759" s="62"/>
-      <c r="D759" s="62"/>
-      <c r="E759" s="62"/>
-      <c r="F759" s="62"/>
+      <c r="B759" s="63"/>
+      <c r="C759" s="63"/>
+      <c r="D759" s="63"/>
+      <c r="E759" s="63"/>
+      <c r="F759" s="63"/>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
@@ -13422,13 +13428,13 @@
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A763" s="62" t="s">
+      <c r="A763" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="B763" s="62"/>
-      <c r="C763" s="62"/>
-      <c r="D763" s="62"/>
-      <c r="E763" s="62"/>
+      <c r="B763" s="63"/>
+      <c r="C763" s="63"/>
+      <c r="D763" s="63"/>
+      <c r="E763" s="63"/>
       <c r="F763" s="34"/>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
@@ -13492,14 +13498,14 @@
       <c r="F769" s="6"/>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A770" s="62" t="s">
+      <c r="A770" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B770" s="62"/>
-      <c r="C770" s="62"/>
-      <c r="D770" s="62"/>
-      <c r="E770" s="62"/>
-      <c r="F770" s="62"/>
+      <c r="B770" s="63"/>
+      <c r="C770" s="63"/>
+      <c r="D770" s="63"/>
+      <c r="E770" s="63"/>
+      <c r="F770" s="63"/>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
@@ -13560,13 +13566,13 @@
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A774" s="62" t="s">
+      <c r="A774" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="B774" s="62"/>
-      <c r="C774" s="62"/>
-      <c r="D774" s="62"/>
-      <c r="E774" s="62"/>
+      <c r="B774" s="63"/>
+      <c r="C774" s="63"/>
+      <c r="D774" s="63"/>
+      <c r="E774" s="63"/>
       <c r="F774" s="34"/>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -13630,14 +13636,14 @@
       <c r="F780" s="6"/>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A781" s="62" t="s">
+      <c r="A781" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="B781" s="62"/>
-      <c r="C781" s="62"/>
-      <c r="D781" s="62"/>
-      <c r="E781" s="62"/>
-      <c r="F781" s="62"/>
+      <c r="B781" s="63"/>
+      <c r="C781" s="63"/>
+      <c r="D781" s="63"/>
+      <c r="E781" s="63"/>
+      <c r="F781" s="63"/>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
@@ -13698,13 +13704,13 @@
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785" s="62" t="s">
+      <c r="A785" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="B785" s="62"/>
-      <c r="C785" s="62"/>
-      <c r="D785" s="62"/>
-      <c r="E785" s="62"/>
+      <c r="B785" s="63"/>
+      <c r="C785" s="63"/>
+      <c r="D785" s="63"/>
+      <c r="E785" s="63"/>
       <c r="F785" s="34"/>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
@@ -13768,14 +13774,14 @@
       <c r="F791" s="6"/>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A792" s="62" t="s">
+      <c r="A792" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="B792" s="62"/>
-      <c r="C792" s="62"/>
-      <c r="D792" s="62"/>
-      <c r="E792" s="62"/>
-      <c r="F792" s="62"/>
+      <c r="B792" s="63"/>
+      <c r="C792" s="63"/>
+      <c r="D792" s="63"/>
+      <c r="E792" s="63"/>
+      <c r="F792" s="63"/>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
@@ -13836,13 +13842,13 @@
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A796" s="62" t="s">
+      <c r="A796" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="B796" s="62"/>
-      <c r="C796" s="62"/>
-      <c r="D796" s="62"/>
-      <c r="E796" s="62"/>
+      <c r="B796" s="63"/>
+      <c r="C796" s="63"/>
+      <c r="D796" s="63"/>
+      <c r="E796" s="63"/>
       <c r="F796" s="34"/>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
@@ -13912,14 +13918,14 @@
       <c r="F802" s="6"/>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A803" s="62" t="s">
+      <c r="A803" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="B803" s="62"/>
-      <c r="C803" s="62"/>
-      <c r="D803" s="62"/>
-      <c r="E803" s="62"/>
-      <c r="F803" s="62"/>
+      <c r="B803" s="63"/>
+      <c r="C803" s="63"/>
+      <c r="D803" s="63"/>
+      <c r="E803" s="63"/>
+      <c r="F803" s="63"/>
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
@@ -13980,13 +13986,13 @@
       </c>
     </row>
     <row r="807" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A807" s="62" t="s">
+      <c r="A807" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="B807" s="62"/>
-      <c r="C807" s="62"/>
-      <c r="D807" s="62"/>
-      <c r="E807" s="62"/>
+      <c r="B807" s="63"/>
+      <c r="C807" s="63"/>
+      <c r="D807" s="63"/>
+      <c r="E807" s="63"/>
       <c r="F807" s="34"/>
     </row>
     <row r="808" spans="1:7" x14ac:dyDescent="0.25">
@@ -14054,14 +14060,14 @@
       <c r="F813" s="6"/>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A814" s="62" t="s">
+      <c r="A814" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="B814" s="62"/>
-      <c r="C814" s="62"/>
-      <c r="D814" s="62"/>
-      <c r="E814" s="62"/>
-      <c r="F814" s="62"/>
+      <c r="B814" s="63"/>
+      <c r="C814" s="63"/>
+      <c r="D814" s="63"/>
+      <c r="E814" s="63"/>
+      <c r="F814" s="63"/>
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
@@ -14122,13 +14128,13 @@
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A818" s="62" t="s">
+      <c r="A818" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="B818" s="62"/>
-      <c r="C818" s="62"/>
-      <c r="D818" s="62"/>
-      <c r="E818" s="62"/>
+      <c r="B818" s="63"/>
+      <c r="C818" s="63"/>
+      <c r="D818" s="63"/>
+      <c r="E818" s="63"/>
       <c r="F818" s="34"/>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
@@ -14192,14 +14198,14 @@
       <c r="F824" s="6"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A825" s="62" t="s">
+      <c r="A825" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="B825" s="62"/>
-      <c r="C825" s="62"/>
-      <c r="D825" s="62"/>
-      <c r="E825" s="62"/>
-      <c r="F825" s="62"/>
+      <c r="B825" s="63"/>
+      <c r="C825" s="63"/>
+      <c r="D825" s="63"/>
+      <c r="E825" s="63"/>
+      <c r="F825" s="63"/>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
@@ -14260,13 +14266,13 @@
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A829" s="62" t="s">
+      <c r="A829" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B829" s="62"/>
-      <c r="C829" s="62"/>
-      <c r="D829" s="62"/>
-      <c r="E829" s="62"/>
+      <c r="B829" s="63"/>
+      <c r="C829" s="63"/>
+      <c r="D829" s="63"/>
+      <c r="E829" s="63"/>
       <c r="F829" s="34"/>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -14330,14 +14336,14 @@
       <c r="F835" s="6"/>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A836" s="62" t="s">
+      <c r="A836" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="B836" s="62"/>
-      <c r="C836" s="62"/>
-      <c r="D836" s="62"/>
-      <c r="E836" s="62"/>
-      <c r="F836" s="62"/>
+      <c r="B836" s="63"/>
+      <c r="C836" s="63"/>
+      <c r="D836" s="63"/>
+      <c r="E836" s="63"/>
+      <c r="F836" s="63"/>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
@@ -14398,13 +14404,13 @@
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" s="62" t="s">
+      <c r="A840" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="B840" s="62"/>
-      <c r="C840" s="62"/>
-      <c r="D840" s="62"/>
-      <c r="E840" s="62"/>
+      <c r="B840" s="63"/>
+      <c r="C840" s="63"/>
+      <c r="D840" s="63"/>
+      <c r="E840" s="63"/>
       <c r="F840" s="34"/>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -14468,14 +14474,14 @@
       <c r="F846" s="6"/>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A847" s="62" t="s">
+      <c r="A847" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="B847" s="62"/>
-      <c r="C847" s="62"/>
-      <c r="D847" s="62"/>
-      <c r="E847" s="62"/>
-      <c r="F847" s="62"/>
+      <c r="B847" s="63"/>
+      <c r="C847" s="63"/>
+      <c r="D847" s="63"/>
+      <c r="E847" s="63"/>
+      <c r="F847" s="63"/>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
@@ -14536,13 +14542,13 @@
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A851" s="62" t="s">
+      <c r="A851" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="B851" s="62"/>
-      <c r="C851" s="62"/>
-      <c r="D851" s="62"/>
-      <c r="E851" s="62"/>
+      <c r="B851" s="63"/>
+      <c r="C851" s="63"/>
+      <c r="D851" s="63"/>
+      <c r="E851" s="63"/>
       <c r="F851" s="34"/>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
@@ -14606,14 +14612,14 @@
       <c r="F857" s="6"/>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A858" s="62" t="s">
+      <c r="A858" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="B858" s="62"/>
-      <c r="C858" s="62"/>
-      <c r="D858" s="62"/>
-      <c r="E858" s="62"/>
-      <c r="F858" s="62"/>
+      <c r="B858" s="63"/>
+      <c r="C858" s="63"/>
+      <c r="D858" s="63"/>
+      <c r="E858" s="63"/>
+      <c r="F858" s="63"/>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
@@ -14674,13 +14680,13 @@
       </c>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A862" s="62" t="s">
+      <c r="A862" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B862" s="62"/>
-      <c r="C862" s="62"/>
-      <c r="D862" s="62"/>
-      <c r="E862" s="62"/>
+      <c r="B862" s="63"/>
+      <c r="C862" s="63"/>
+      <c r="D862" s="63"/>
+      <c r="E862" s="63"/>
       <c r="F862" s="34"/>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
@@ -14744,14 +14750,14 @@
       <c r="F868" s="6"/>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A869" s="62" t="s">
+      <c r="A869" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="B869" s="62"/>
-      <c r="C869" s="62"/>
-      <c r="D869" s="62"/>
-      <c r="E869" s="62"/>
-      <c r="F869" s="62"/>
+      <c r="B869" s="63"/>
+      <c r="C869" s="63"/>
+      <c r="D869" s="63"/>
+      <c r="E869" s="63"/>
+      <c r="F869" s="63"/>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
@@ -14812,13 +14818,13 @@
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A873" s="62" t="s">
+      <c r="A873" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="B873" s="62"/>
-      <c r="C873" s="62"/>
-      <c r="D873" s="62"/>
-      <c r="E873" s="62"/>
+      <c r="B873" s="63"/>
+      <c r="C873" s="63"/>
+      <c r="D873" s="63"/>
+      <c r="E873" s="63"/>
       <c r="F873" s="50"/>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
@@ -14879,14 +14885,14 @@
       <c r="F879" s="6"/>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A880" s="62" t="s">
+      <c r="A880" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="B880" s="62"/>
-      <c r="C880" s="62"/>
-      <c r="D880" s="62"/>
-      <c r="E880" s="62"/>
-      <c r="F880" s="62"/>
+      <c r="B880" s="63"/>
+      <c r="C880" s="63"/>
+      <c r="D880" s="63"/>
+      <c r="E880" s="63"/>
+      <c r="F880" s="63"/>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
@@ -14947,13 +14953,13 @@
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A884" s="62" t="s">
+      <c r="A884" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B884" s="62"/>
-      <c r="C884" s="62"/>
-      <c r="D884" s="62"/>
-      <c r="E884" s="62"/>
+      <c r="B884" s="63"/>
+      <c r="C884" s="63"/>
+      <c r="D884" s="63"/>
+      <c r="E884" s="63"/>
       <c r="F884" s="50"/>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
@@ -15014,14 +15020,14 @@
       <c r="F890" s="6"/>
     </row>
     <row r="891" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A891" s="62" t="s">
+      <c r="A891" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="B891" s="62"/>
-      <c r="C891" s="62"/>
-      <c r="D891" s="62"/>
-      <c r="E891" s="62"/>
-      <c r="F891" s="62"/>
+      <c r="B891" s="63"/>
+      <c r="C891" s="63"/>
+      <c r="D891" s="63"/>
+      <c r="E891" s="63"/>
+      <c r="F891" s="63"/>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
@@ -15082,13 +15088,13 @@
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A895" s="62" t="s">
+      <c r="A895" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="B895" s="62"/>
-      <c r="C895" s="62"/>
-      <c r="D895" s="62"/>
-      <c r="E895" s="62"/>
+      <c r="B895" s="63"/>
+      <c r="C895" s="63"/>
+      <c r="D895" s="63"/>
+      <c r="E895" s="63"/>
       <c r="F895" s="50"/>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
@@ -15149,14 +15155,14 @@
       <c r="F901" s="6"/>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A902" s="62" t="s">
+      <c r="A902" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="B902" s="62"/>
-      <c r="C902" s="62"/>
-      <c r="D902" s="62"/>
-      <c r="E902" s="62"/>
-      <c r="F902" s="62"/>
+      <c r="B902" s="63"/>
+      <c r="C902" s="63"/>
+      <c r="D902" s="63"/>
+      <c r="E902" s="63"/>
+      <c r="F902" s="63"/>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
@@ -15217,13 +15223,13 @@
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A906" s="62" t="s">
+      <c r="A906" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="B906" s="62"/>
-      <c r="C906" s="62"/>
-      <c r="D906" s="62"/>
-      <c r="E906" s="62"/>
+      <c r="B906" s="63"/>
+      <c r="C906" s="63"/>
+      <c r="D906" s="63"/>
+      <c r="E906" s="63"/>
       <c r="F906" s="50"/>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -15284,14 +15290,14 @@
       <c r="F912" s="6"/>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A913" s="62" t="s">
+      <c r="A913" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="B913" s="62"/>
-      <c r="C913" s="62"/>
-      <c r="D913" s="62"/>
-      <c r="E913" s="62"/>
-      <c r="F913" s="62"/>
+      <c r="B913" s="63"/>
+      <c r="C913" s="63"/>
+      <c r="D913" s="63"/>
+      <c r="E913" s="63"/>
+      <c r="F913" s="63"/>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
@@ -15352,13 +15358,13 @@
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A917" s="62" t="s">
+      <c r="A917" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="B917" s="62"/>
-      <c r="C917" s="62"/>
-      <c r="D917" s="62"/>
-      <c r="E917" s="62"/>
+      <c r="B917" s="63"/>
+      <c r="C917" s="63"/>
+      <c r="D917" s="63"/>
+      <c r="E917" s="63"/>
       <c r="F917" s="50"/>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -15419,14 +15425,14 @@
       <c r="F924" s="6"/>
     </row>
     <row r="925" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A925" s="62" t="s">
+      <c r="A925" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="B925" s="62"/>
-      <c r="C925" s="62"/>
-      <c r="D925" s="62"/>
-      <c r="E925" s="62"/>
-      <c r="F925" s="62"/>
+      <c r="B925" s="63"/>
+      <c r="C925" s="63"/>
+      <c r="D925" s="63"/>
+      <c r="E925" s="63"/>
+      <c r="F925" s="63"/>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
@@ -15487,13 +15493,13 @@
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A929" s="62" t="s">
+      <c r="A929" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="B929" s="62"/>
-      <c r="C929" s="62"/>
-      <c r="D929" s="62"/>
-      <c r="E929" s="62"/>
+      <c r="B929" s="63"/>
+      <c r="C929" s="63"/>
+      <c r="D929" s="63"/>
+      <c r="E929" s="63"/>
       <c r="F929" s="50"/>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.25">
@@ -15554,14 +15560,14 @@
       <c r="F935" s="6"/>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A936" s="62" t="s">
+      <c r="A936" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="B936" s="62"/>
-      <c r="C936" s="62"/>
-      <c r="D936" s="62"/>
-      <c r="E936" s="62"/>
-      <c r="F936" s="62"/>
+      <c r="B936" s="63"/>
+      <c r="C936" s="63"/>
+      <c r="D936" s="63"/>
+      <c r="E936" s="63"/>
+      <c r="F936" s="63"/>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
@@ -15622,13 +15628,13 @@
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A940" s="62" t="s">
+      <c r="A940" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="B940" s="62"/>
-      <c r="C940" s="62"/>
-      <c r="D940" s="62"/>
-      <c r="E940" s="62"/>
+      <c r="B940" s="63"/>
+      <c r="C940" s="63"/>
+      <c r="D940" s="63"/>
+      <c r="E940" s="63"/>
       <c r="F940" s="50"/>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.25">
@@ -15693,14 +15699,14 @@
       <c r="F946" s="6"/>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A947" s="62" t="s">
+      <c r="A947" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="B947" s="62"/>
-      <c r="C947" s="62"/>
-      <c r="D947" s="62"/>
-      <c r="E947" s="62"/>
-      <c r="F947" s="62"/>
+      <c r="B947" s="63"/>
+      <c r="C947" s="63"/>
+      <c r="D947" s="63"/>
+      <c r="E947" s="63"/>
+      <c r="F947" s="63"/>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
@@ -15761,13 +15767,13 @@
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A951" s="62" t="s">
+      <c r="A951" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="B951" s="62"/>
-      <c r="C951" s="62"/>
-      <c r="D951" s="62"/>
-      <c r="E951" s="62"/>
+      <c r="B951" s="63"/>
+      <c r="C951" s="63"/>
+      <c r="D951" s="63"/>
+      <c r="E951" s="63"/>
       <c r="F951" s="50"/>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.25">
@@ -15828,14 +15834,14 @@
       <c r="F958" s="6"/>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A959" s="62" t="s">
+      <c r="A959" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="B959" s="62"/>
-      <c r="C959" s="62"/>
-      <c r="D959" s="62"/>
-      <c r="E959" s="62"/>
-      <c r="F959" s="62"/>
+      <c r="B959" s="63"/>
+      <c r="C959" s="63"/>
+      <c r="D959" s="63"/>
+      <c r="E959" s="63"/>
+      <c r="F959" s="63"/>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
@@ -15896,13 +15902,13 @@
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A963" s="62" t="s">
+      <c r="A963" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="B963" s="62"/>
-      <c r="C963" s="62"/>
-      <c r="D963" s="62"/>
-      <c r="E963" s="62"/>
+      <c r="B963" s="63"/>
+      <c r="C963" s="63"/>
+      <c r="D963" s="63"/>
+      <c r="E963" s="63"/>
       <c r="F963" s="50"/>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
@@ -15963,14 +15969,14 @@
       <c r="F969" s="6"/>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A970" s="62" t="s">
+      <c r="A970" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="B970" s="62"/>
-      <c r="C970" s="62"/>
-      <c r="D970" s="62"/>
-      <c r="E970" s="62"/>
-      <c r="F970" s="62"/>
+      <c r="B970" s="63"/>
+      <c r="C970" s="63"/>
+      <c r="D970" s="63"/>
+      <c r="E970" s="63"/>
+      <c r="F970" s="63"/>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
@@ -16031,13 +16037,13 @@
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A974" s="62" t="s">
+      <c r="A974" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="B974" s="62"/>
-      <c r="C974" s="62"/>
-      <c r="D974" s="62"/>
-      <c r="E974" s="62"/>
+      <c r="B974" s="63"/>
+      <c r="C974" s="63"/>
+      <c r="D974" s="63"/>
+      <c r="E974" s="63"/>
       <c r="F974" s="50"/>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.25">
@@ -16098,14 +16104,14 @@
       <c r="F981" s="6"/>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A982" s="62" t="s">
+      <c r="A982" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="B982" s="62"/>
-      <c r="C982" s="62"/>
-      <c r="D982" s="62"/>
-      <c r="E982" s="62"/>
-      <c r="F982" s="62"/>
+      <c r="B982" s="63"/>
+      <c r="C982" s="63"/>
+      <c r="D982" s="63"/>
+      <c r="E982" s="63"/>
+      <c r="F982" s="63"/>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983" s="1"/>
@@ -16166,13 +16172,13 @@
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A986" s="62" t="s">
+      <c r="A986" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="B986" s="62"/>
-      <c r="C986" s="62"/>
-      <c r="D986" s="62"/>
-      <c r="E986" s="62"/>
+      <c r="B986" s="63"/>
+      <c r="C986" s="63"/>
+      <c r="D986" s="63"/>
+      <c r="E986" s="63"/>
       <c r="F986" s="50"/>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.25">
@@ -16233,14 +16239,14 @@
       <c r="F993" s="6"/>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A994" s="62" t="s">
+      <c r="A994" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="B994" s="62"/>
-      <c r="C994" s="62"/>
-      <c r="D994" s="62"/>
-      <c r="E994" s="62"/>
-      <c r="F994" s="62"/>
+      <c r="B994" s="63"/>
+      <c r="C994" s="63"/>
+      <c r="D994" s="63"/>
+      <c r="E994" s="63"/>
+      <c r="F994" s="63"/>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995" s="1"/>
@@ -16301,13 +16307,13 @@
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A998" s="62" t="s">
+      <c r="A998" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="B998" s="62"/>
-      <c r="C998" s="62"/>
-      <c r="D998" s="62"/>
-      <c r="E998" s="62"/>
+      <c r="B998" s="63"/>
+      <c r="C998" s="63"/>
+      <c r="D998" s="63"/>
+      <c r="E998" s="63"/>
       <c r="F998" s="50"/>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
@@ -16368,14 +16374,14 @@
       <c r="F1005" s="6"/>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1006" s="62" t="s">
+      <c r="A1006" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="B1006" s="62"/>
-      <c r="C1006" s="62"/>
-      <c r="D1006" s="62"/>
-      <c r="E1006" s="62"/>
-      <c r="F1006" s="62"/>
+      <c r="B1006" s="63"/>
+      <c r="C1006" s="63"/>
+      <c r="D1006" s="63"/>
+      <c r="E1006" s="63"/>
+      <c r="F1006" s="63"/>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1007" s="1"/>
@@ -16436,13 +16442,13 @@
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1010" s="62" t="s">
+      <c r="A1010" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="B1010" s="62"/>
-      <c r="C1010" s="62"/>
-      <c r="D1010" s="62"/>
-      <c r="E1010" s="62"/>
+      <c r="B1010" s="63"/>
+      <c r="C1010" s="63"/>
+      <c r="D1010" s="63"/>
+      <c r="E1010" s="63"/>
       <c r="F1010" s="50"/>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
@@ -16503,14 +16509,14 @@
       <c r="F1016" s="6"/>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1017" s="62" t="s">
+      <c r="A1017" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="B1017" s="62"/>
-      <c r="C1017" s="62"/>
-      <c r="D1017" s="62"/>
-      <c r="E1017" s="62"/>
-      <c r="F1017" s="62"/>
+      <c r="B1017" s="63"/>
+      <c r="C1017" s="63"/>
+      <c r="D1017" s="63"/>
+      <c r="E1017" s="63"/>
+      <c r="F1017" s="63"/>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1018" s="1"/>
@@ -16571,13 +16577,13 @@
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1021" s="62" t="s">
+      <c r="A1021" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="B1021" s="62"/>
-      <c r="C1021" s="62"/>
-      <c r="D1021" s="62"/>
-      <c r="E1021" s="62"/>
+      <c r="B1021" s="63"/>
+      <c r="C1021" s="63"/>
+      <c r="D1021" s="63"/>
+      <c r="E1021" s="63"/>
       <c r="F1021" s="50"/>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -16638,14 +16644,14 @@
       <c r="F1027" s="6"/>
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1028" s="62" t="s">
+      <c r="A1028" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="B1028" s="62"/>
-      <c r="C1028" s="62"/>
-      <c r="D1028" s="62"/>
-      <c r="E1028" s="62"/>
-      <c r="F1028" s="62"/>
+      <c r="B1028" s="63"/>
+      <c r="C1028" s="63"/>
+      <c r="D1028" s="63"/>
+      <c r="E1028" s="63"/>
+      <c r="F1028" s="63"/>
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" s="1"/>
@@ -16710,13 +16716,13 @@
       </c>
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1032" s="62" t="s">
+      <c r="A1032" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="B1032" s="62"/>
-      <c r="C1032" s="62"/>
-      <c r="D1032" s="62"/>
-      <c r="E1032" s="62"/>
+      <c r="B1032" s="63"/>
+      <c r="C1032" s="63"/>
+      <c r="D1032" s="63"/>
+      <c r="E1032" s="63"/>
       <c r="F1032" s="50"/>
     </row>
     <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
@@ -16777,14 +16783,14 @@
       <c r="F1039" s="6"/>
     </row>
     <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1040" s="62" t="s">
+      <c r="A1040" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="B1040" s="62"/>
-      <c r="C1040" s="62"/>
-      <c r="D1040" s="62"/>
-      <c r="E1040" s="62"/>
-      <c r="F1040" s="62"/>
+      <c r="B1040" s="63"/>
+      <c r="C1040" s="63"/>
+      <c r="D1040" s="63"/>
+      <c r="E1040" s="63"/>
+      <c r="F1040" s="63"/>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1041" s="1"/>
@@ -16845,13 +16851,13 @@
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1044" s="62" t="s">
+      <c r="A1044" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="B1044" s="62"/>
-      <c r="C1044" s="62"/>
-      <c r="D1044" s="62"/>
-      <c r="E1044" s="62"/>
+      <c r="B1044" s="63"/>
+      <c r="C1044" s="63"/>
+      <c r="D1044" s="63"/>
+      <c r="E1044" s="63"/>
       <c r="F1044" s="50"/>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
@@ -16912,14 +16918,14 @@
       <c r="F1051" s="6"/>
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1052" s="62" t="s">
+      <c r="A1052" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="B1052" s="62"/>
-      <c r="C1052" s="62"/>
-      <c r="D1052" s="62"/>
-      <c r="E1052" s="62"/>
-      <c r="F1052" s="62"/>
+      <c r="B1052" s="63"/>
+      <c r="C1052" s="63"/>
+      <c r="D1052" s="63"/>
+      <c r="E1052" s="63"/>
+      <c r="F1052" s="63"/>
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1053" s="1"/>
@@ -16980,13 +16986,13 @@
       </c>
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1056" s="62" t="s">
+      <c r="A1056" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="B1056" s="62"/>
-      <c r="C1056" s="62"/>
-      <c r="D1056" s="62"/>
-      <c r="E1056" s="62"/>
+      <c r="B1056" s="63"/>
+      <c r="C1056" s="63"/>
+      <c r="D1056" s="63"/>
+      <c r="E1056" s="63"/>
       <c r="F1056" s="50"/>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
@@ -17047,14 +17053,14 @@
       <c r="F1062" s="6"/>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1063" s="62" t="s">
+      <c r="A1063" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="B1063" s="62"/>
-      <c r="C1063" s="62"/>
-      <c r="D1063" s="62"/>
-      <c r="E1063" s="62"/>
-      <c r="F1063" s="62"/>
+      <c r="B1063" s="63"/>
+      <c r="C1063" s="63"/>
+      <c r="D1063" s="63"/>
+      <c r="E1063" s="63"/>
+      <c r="F1063" s="63"/>
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064" s="1"/>
@@ -17115,13 +17121,13 @@
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1067" s="62" t="s">
+      <c r="A1067" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="B1067" s="62"/>
-      <c r="C1067" s="62"/>
-      <c r="D1067" s="62"/>
-      <c r="E1067" s="62"/>
+      <c r="B1067" s="63"/>
+      <c r="C1067" s="63"/>
+      <c r="D1067" s="63"/>
+      <c r="E1067" s="63"/>
       <c r="F1067" s="50"/>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
@@ -17182,14 +17188,14 @@
       <c r="F1074" s="6"/>
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1075" s="62" t="s">
+      <c r="A1075" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="B1075" s="62"/>
-      <c r="C1075" s="62"/>
-      <c r="D1075" s="62"/>
-      <c r="E1075" s="62"/>
-      <c r="F1075" s="62"/>
+      <c r="B1075" s="63"/>
+      <c r="C1075" s="63"/>
+      <c r="D1075" s="63"/>
+      <c r="E1075" s="63"/>
+      <c r="F1075" s="63"/>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076" s="1"/>
@@ -17250,13 +17256,13 @@
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1079" s="62" t="s">
+      <c r="A1079" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="B1079" s="62"/>
-      <c r="C1079" s="62"/>
-      <c r="D1079" s="62"/>
-      <c r="E1079" s="62"/>
+      <c r="B1079" s="63"/>
+      <c r="C1079" s="63"/>
+      <c r="D1079" s="63"/>
+      <c r="E1079" s="63"/>
       <c r="F1079" s="50"/>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
@@ -17317,14 +17323,14 @@
       <c r="F1086" s="6"/>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1087" s="62" t="s">
+      <c r="A1087" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="B1087" s="62"/>
-      <c r="C1087" s="62"/>
-      <c r="D1087" s="62"/>
-      <c r="E1087" s="62"/>
-      <c r="F1087" s="62"/>
+      <c r="B1087" s="63"/>
+      <c r="C1087" s="63"/>
+      <c r="D1087" s="63"/>
+      <c r="E1087" s="63"/>
+      <c r="F1087" s="63"/>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088" s="1"/>
@@ -17385,13 +17391,13 @@
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1091" s="62" t="s">
+      <c r="A1091" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="B1091" s="62"/>
-      <c r="C1091" s="62"/>
-      <c r="D1091" s="62"/>
-      <c r="E1091" s="62"/>
+      <c r="B1091" s="63"/>
+      <c r="C1091" s="63"/>
+      <c r="D1091" s="63"/>
+      <c r="E1091" s="63"/>
       <c r="F1091" s="50"/>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
@@ -17452,14 +17458,14 @@
       <c r="F1098" s="6"/>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1099" s="62" t="s">
+      <c r="A1099" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="B1099" s="62"/>
-      <c r="C1099" s="62"/>
-      <c r="D1099" s="62"/>
-      <c r="E1099" s="62"/>
-      <c r="F1099" s="62"/>
+      <c r="B1099" s="63"/>
+      <c r="C1099" s="63"/>
+      <c r="D1099" s="63"/>
+      <c r="E1099" s="63"/>
+      <c r="F1099" s="63"/>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1100" s="1"/>
@@ -17520,13 +17526,13 @@
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1103" s="62" t="s">
+      <c r="A1103" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="B1103" s="62"/>
-      <c r="C1103" s="62"/>
-      <c r="D1103" s="62"/>
-      <c r="E1103" s="62"/>
+      <c r="B1103" s="63"/>
+      <c r="C1103" s="63"/>
+      <c r="D1103" s="63"/>
+      <c r="E1103" s="63"/>
       <c r="F1103" s="50"/>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
@@ -17587,14 +17593,14 @@
       <c r="F1109" s="6"/>
     </row>
     <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1110" s="62" t="s">
+      <c r="A1110" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="B1110" s="62"/>
-      <c r="C1110" s="62"/>
-      <c r="D1110" s="62"/>
-      <c r="E1110" s="62"/>
-      <c r="F1110" s="62"/>
+      <c r="B1110" s="63"/>
+      <c r="C1110" s="63"/>
+      <c r="D1110" s="63"/>
+      <c r="E1110" s="63"/>
+      <c r="F1110" s="63"/>
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1111" s="1"/>
@@ -17655,13 +17661,13 @@
       </c>
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1114" s="62" t="s">
+      <c r="A1114" s="63" t="s">
         <v>241</v>
       </c>
-      <c r="B1114" s="62"/>
-      <c r="C1114" s="62"/>
-      <c r="D1114" s="62"/>
-      <c r="E1114" s="62"/>
+      <c r="B1114" s="63"/>
+      <c r="C1114" s="63"/>
+      <c r="D1114" s="63"/>
+      <c r="E1114" s="63"/>
       <c r="F1114" s="50"/>
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
@@ -17726,14 +17732,14 @@
       <c r="F1120" s="6"/>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1121" s="62" t="s">
+      <c r="A1121" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="B1121" s="62"/>
-      <c r="C1121" s="62"/>
-      <c r="D1121" s="62"/>
-      <c r="E1121" s="62"/>
-      <c r="F1121" s="62"/>
+      <c r="B1121" s="63"/>
+      <c r="C1121" s="63"/>
+      <c r="D1121" s="63"/>
+      <c r="E1121" s="63"/>
+      <c r="F1121" s="63"/>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122" s="1"/>
@@ -17794,13 +17800,13 @@
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1125" s="62" t="s">
+      <c r="A1125" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="B1125" s="62"/>
-      <c r="C1125" s="62"/>
-      <c r="D1125" s="62"/>
-      <c r="E1125" s="62"/>
+      <c r="B1125" s="63"/>
+      <c r="C1125" s="63"/>
+      <c r="D1125" s="63"/>
+      <c r="E1125" s="63"/>
       <c r="F1125" s="50"/>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
@@ -17861,14 +17867,14 @@
       <c r="F1132" s="6"/>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1133" s="62" t="s">
+      <c r="A1133" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="B1133" s="62"/>
-      <c r="C1133" s="62"/>
-      <c r="D1133" s="62"/>
-      <c r="E1133" s="62"/>
-      <c r="F1133" s="62"/>
+      <c r="B1133" s="63"/>
+      <c r="C1133" s="63"/>
+      <c r="D1133" s="63"/>
+      <c r="E1133" s="63"/>
+      <c r="F1133" s="63"/>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1134" s="1"/>
@@ -17929,13 +17935,13 @@
       </c>
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1137" s="62" t="s">
+      <c r="A1137" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="B1137" s="62"/>
-      <c r="C1137" s="62"/>
-      <c r="D1137" s="62"/>
-      <c r="E1137" s="62"/>
+      <c r="B1137" s="63"/>
+      <c r="C1137" s="63"/>
+      <c r="D1137" s="63"/>
+      <c r="E1137" s="63"/>
       <c r="F1137" s="50"/>
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
@@ -18000,14 +18006,14 @@
       <c r="F1144" s="6"/>
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1145" s="62" t="s">
+      <c r="A1145" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="B1145" s="62"/>
-      <c r="C1145" s="62"/>
-      <c r="D1145" s="62"/>
-      <c r="E1145" s="62"/>
-      <c r="F1145" s="62"/>
+      <c r="B1145" s="63"/>
+      <c r="C1145" s="63"/>
+      <c r="D1145" s="63"/>
+      <c r="E1145" s="63"/>
+      <c r="F1145" s="63"/>
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1146" s="1"/>
@@ -18068,13 +18074,13 @@
       </c>
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1149" s="62" t="s">
+      <c r="A1149" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="B1149" s="62"/>
-      <c r="C1149" s="62"/>
-      <c r="D1149" s="62"/>
-      <c r="E1149" s="62"/>
+      <c r="B1149" s="63"/>
+      <c r="C1149" s="63"/>
+      <c r="D1149" s="63"/>
+      <c r="E1149" s="63"/>
       <c r="F1149" s="50"/>
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
@@ -18135,14 +18141,14 @@
       <c r="F1155" s="6"/>
     </row>
     <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1156" s="62" t="s">
+      <c r="A1156" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="B1156" s="62"/>
-      <c r="C1156" s="62"/>
-      <c r="D1156" s="62"/>
-      <c r="E1156" s="62"/>
-      <c r="F1156" s="62"/>
+      <c r="B1156" s="63"/>
+      <c r="C1156" s="63"/>
+      <c r="D1156" s="63"/>
+      <c r="E1156" s="63"/>
+      <c r="F1156" s="63"/>
     </row>
     <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1157" s="1"/>
@@ -18203,13 +18209,13 @@
       </c>
     </row>
     <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1160" s="62" t="s">
+      <c r="A1160" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="B1160" s="62"/>
-      <c r="C1160" s="62"/>
-      <c r="D1160" s="62"/>
-      <c r="E1160" s="62"/>
+      <c r="B1160" s="63"/>
+      <c r="C1160" s="63"/>
+      <c r="D1160" s="63"/>
+      <c r="E1160" s="63"/>
       <c r="F1160" s="50"/>
     </row>
     <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
@@ -18270,14 +18276,14 @@
       <c r="F1167" s="6"/>
     </row>
     <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1168" s="62" t="s">
+      <c r="A1168" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="B1168" s="62"/>
-      <c r="C1168" s="62"/>
-      <c r="D1168" s="62"/>
-      <c r="E1168" s="62"/>
-      <c r="F1168" s="62"/>
+      <c r="B1168" s="63"/>
+      <c r="C1168" s="63"/>
+      <c r="D1168" s="63"/>
+      <c r="E1168" s="63"/>
+      <c r="F1168" s="63"/>
     </row>
     <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1169" s="1"/>
@@ -18338,13 +18344,13 @@
       </c>
     </row>
     <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1172" s="62" t="s">
+      <c r="A1172" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="B1172" s="62"/>
-      <c r="C1172" s="62"/>
-      <c r="D1172" s="62"/>
-      <c r="E1172" s="62"/>
+      <c r="B1172" s="63"/>
+      <c r="C1172" s="63"/>
+      <c r="D1172" s="63"/>
+      <c r="E1172" s="63"/>
       <c r="F1172" s="50"/>
     </row>
     <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
@@ -18405,14 +18411,14 @@
       <c r="F1179" s="6"/>
     </row>
     <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1180" s="62" t="s">
+      <c r="A1180" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="B1180" s="62"/>
-      <c r="C1180" s="62"/>
-      <c r="D1180" s="62"/>
-      <c r="E1180" s="62"/>
-      <c r="F1180" s="62"/>
+      <c r="B1180" s="63"/>
+      <c r="C1180" s="63"/>
+      <c r="D1180" s="63"/>
+      <c r="E1180" s="63"/>
+      <c r="F1180" s="63"/>
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1181" s="1"/>
@@ -18473,13 +18479,13 @@
       </c>
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1184" s="62" t="s">
+      <c r="A1184" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="B1184" s="62"/>
-      <c r="C1184" s="62"/>
-      <c r="D1184" s="62"/>
-      <c r="E1184" s="62"/>
+      <c r="B1184" s="63"/>
+      <c r="C1184" s="63"/>
+      <c r="D1184" s="63"/>
+      <c r="E1184" s="63"/>
       <c r="F1184" s="50"/>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
@@ -18540,14 +18546,14 @@
       <c r="F1191" s="6"/>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1192" s="62" t="s">
+      <c r="A1192" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B1192" s="62"/>
-      <c r="C1192" s="62"/>
-      <c r="D1192" s="62"/>
-      <c r="E1192" s="62"/>
-      <c r="F1192" s="62"/>
+      <c r="B1192" s="63"/>
+      <c r="C1192" s="63"/>
+      <c r="D1192" s="63"/>
+      <c r="E1192" s="63"/>
+      <c r="F1192" s="63"/>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1193" s="1"/>
@@ -18608,13 +18614,13 @@
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1196" s="62" t="s">
+      <c r="A1196" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="B1196" s="62"/>
-      <c r="C1196" s="62"/>
-      <c r="D1196" s="62"/>
-      <c r="E1196" s="62"/>
+      <c r="B1196" s="63"/>
+      <c r="C1196" s="63"/>
+      <c r="D1196" s="63"/>
+      <c r="E1196" s="63"/>
       <c r="F1196" s="50"/>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
@@ -18675,14 +18681,14 @@
       <c r="F1202" s="6"/>
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1203" s="62" t="s">
+      <c r="A1203" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="B1203" s="62"/>
-      <c r="C1203" s="62"/>
-      <c r="D1203" s="62"/>
-      <c r="E1203" s="62"/>
-      <c r="F1203" s="62"/>
+      <c r="B1203" s="63"/>
+      <c r="C1203" s="63"/>
+      <c r="D1203" s="63"/>
+      <c r="E1203" s="63"/>
+      <c r="F1203" s="63"/>
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1204" s="1"/>
@@ -18743,13 +18749,13 @@
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1207" s="62" t="s">
+      <c r="A1207" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="B1207" s="62"/>
-      <c r="C1207" s="62"/>
-      <c r="D1207" s="62"/>
-      <c r="E1207" s="62"/>
+      <c r="B1207" s="63"/>
+      <c r="C1207" s="63"/>
+      <c r="D1207" s="63"/>
+      <c r="E1207" s="63"/>
       <c r="F1207" s="50"/>
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
@@ -18814,14 +18820,14 @@
       <c r="F1214" s="6"/>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1215" s="62" t="s">
+      <c r="A1215" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="B1215" s="62"/>
-      <c r="C1215" s="62"/>
-      <c r="D1215" s="62"/>
-      <c r="E1215" s="62"/>
-      <c r="F1215" s="62"/>
+      <c r="B1215" s="63"/>
+      <c r="C1215" s="63"/>
+      <c r="D1215" s="63"/>
+      <c r="E1215" s="63"/>
+      <c r="F1215" s="63"/>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1216" s="1"/>
@@ -18882,13 +18888,13 @@
       </c>
     </row>
     <row r="1219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1219" s="62" t="s">
+      <c r="A1219" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="B1219" s="62"/>
-      <c r="C1219" s="62"/>
-      <c r="D1219" s="62"/>
-      <c r="E1219" s="62"/>
+      <c r="B1219" s="63"/>
+      <c r="C1219" s="63"/>
+      <c r="D1219" s="63"/>
+      <c r="E1219" s="63"/>
       <c r="F1219" s="50"/>
     </row>
     <row r="1220" spans="1:6" x14ac:dyDescent="0.25">
@@ -18949,14 +18955,14 @@
       <c r="F1226" s="6"/>
     </row>
     <row r="1227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1227" s="62" t="s">
+      <c r="A1227" s="63" t="s">
         <v>259</v>
       </c>
-      <c r="B1227" s="62"/>
-      <c r="C1227" s="62"/>
-      <c r="D1227" s="62"/>
-      <c r="E1227" s="62"/>
-      <c r="F1227" s="62"/>
+      <c r="B1227" s="63"/>
+      <c r="C1227" s="63"/>
+      <c r="D1227" s="63"/>
+      <c r="E1227" s="63"/>
+      <c r="F1227" s="63"/>
     </row>
     <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1228" s="1"/>
@@ -19013,13 +19019,13 @@
       <c r="F1230" s="9"/>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1231" s="62" t="s">
+      <c r="A1231" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B1231" s="62"/>
-      <c r="C1231" s="62"/>
-      <c r="D1231" s="62"/>
-      <c r="E1231" s="62"/>
+      <c r="B1231" s="63"/>
+      <c r="C1231" s="63"/>
+      <c r="D1231" s="63"/>
+      <c r="E1231" s="63"/>
       <c r="F1231" s="50"/>
     </row>
     <row r="1232" spans="1:6" x14ac:dyDescent="0.25">
@@ -19080,14 +19086,14 @@
       <c r="F1237" s="6"/>
     </row>
     <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1238" s="62" t="s">
+      <c r="A1238" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="B1238" s="62"/>
-      <c r="C1238" s="62"/>
-      <c r="D1238" s="62"/>
-      <c r="E1238" s="62"/>
-      <c r="F1238" s="62"/>
+      <c r="B1238" s="63"/>
+      <c r="C1238" s="63"/>
+      <c r="D1238" s="63"/>
+      <c r="E1238" s="63"/>
+      <c r="F1238" s="63"/>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1239" s="1"/>
@@ -19148,13 +19154,13 @@
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1242" s="62" t="s">
+      <c r="A1242" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="B1242" s="62"/>
-      <c r="C1242" s="62"/>
-      <c r="D1242" s="62"/>
-      <c r="E1242" s="62"/>
+      <c r="B1242" s="63"/>
+      <c r="C1242" s="63"/>
+      <c r="D1242" s="63"/>
+      <c r="E1242" s="63"/>
       <c r="F1242" s="50"/>
     </row>
     <row r="1243" spans="1:6" x14ac:dyDescent="0.25">
@@ -19215,14 +19221,14 @@
       <c r="F1249" s="6"/>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1250" s="62" t="s">
+      <c r="A1250" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="B1250" s="62"/>
-      <c r="C1250" s="62"/>
-      <c r="D1250" s="62"/>
-      <c r="E1250" s="62"/>
-      <c r="F1250" s="62"/>
+      <c r="B1250" s="63"/>
+      <c r="C1250" s="63"/>
+      <c r="D1250" s="63"/>
+      <c r="E1250" s="63"/>
+      <c r="F1250" s="63"/>
     </row>
     <row r="1251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1251" s="1"/>
@@ -19283,13 +19289,13 @@
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1254" s="62" t="s">
+      <c r="A1254" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="B1254" s="62"/>
-      <c r="C1254" s="62"/>
-      <c r="D1254" s="62"/>
-      <c r="E1254" s="62"/>
+      <c r="B1254" s="63"/>
+      <c r="C1254" s="63"/>
+      <c r="D1254" s="63"/>
+      <c r="E1254" s="63"/>
       <c r="F1254" s="50"/>
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.25">
@@ -19350,14 +19356,14 @@
       <c r="F1261" s="6"/>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1262" s="62" t="s">
+      <c r="A1262" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="B1262" s="62"/>
-      <c r="C1262" s="62"/>
-      <c r="D1262" s="62"/>
-      <c r="E1262" s="62"/>
-      <c r="F1262" s="62"/>
+      <c r="B1262" s="63"/>
+      <c r="C1262" s="63"/>
+      <c r="D1262" s="63"/>
+      <c r="E1262" s="63"/>
+      <c r="F1262" s="63"/>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1263" s="1"/>
@@ -19418,13 +19424,13 @@
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1266" s="62" t="s">
+      <c r="A1266" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="B1266" s="62"/>
-      <c r="C1266" s="62"/>
-      <c r="D1266" s="62"/>
-      <c r="E1266" s="62"/>
+      <c r="B1266" s="63"/>
+      <c r="C1266" s="63"/>
+      <c r="D1266" s="63"/>
+      <c r="E1266" s="63"/>
       <c r="F1266" s="50"/>
     </row>
     <row r="1267" spans="1:6" x14ac:dyDescent="0.25">
@@ -19485,14 +19491,14 @@
       <c r="F1273" s="6"/>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1274" s="62" t="s">
+      <c r="A1274" s="63" t="s">
         <v>267</v>
       </c>
-      <c r="B1274" s="62"/>
-      <c r="C1274" s="62"/>
-      <c r="D1274" s="62"/>
-      <c r="E1274" s="62"/>
-      <c r="F1274" s="62"/>
+      <c r="B1274" s="63"/>
+      <c r="C1274" s="63"/>
+      <c r="D1274" s="63"/>
+      <c r="E1274" s="63"/>
+      <c r="F1274" s="63"/>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1275" s="1"/>
@@ -19553,13 +19559,13 @@
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1278" s="62" t="s">
+      <c r="A1278" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="B1278" s="62"/>
-      <c r="C1278" s="62"/>
-      <c r="D1278" s="62"/>
-      <c r="E1278" s="62"/>
+      <c r="B1278" s="63"/>
+      <c r="C1278" s="63"/>
+      <c r="D1278" s="63"/>
+      <c r="E1278" s="63"/>
       <c r="F1278" s="50"/>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.25">
@@ -19620,14 +19626,14 @@
       <c r="F1285" s="6"/>
     </row>
     <row r="1286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1286" s="62" t="s">
+      <c r="A1286" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="B1286" s="62"/>
-      <c r="C1286" s="62"/>
-      <c r="D1286" s="62"/>
-      <c r="E1286" s="62"/>
-      <c r="F1286" s="62"/>
+      <c r="B1286" s="63"/>
+      <c r="C1286" s="63"/>
+      <c r="D1286" s="63"/>
+      <c r="E1286" s="63"/>
+      <c r="F1286" s="63"/>
     </row>
     <row r="1287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1287" s="1"/>
@@ -19688,13 +19694,13 @@
       </c>
     </row>
     <row r="1290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1290" s="62" t="s">
+      <c r="A1290" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="B1290" s="62"/>
-      <c r="C1290" s="62"/>
-      <c r="D1290" s="62"/>
-      <c r="E1290" s="62"/>
+      <c r="B1290" s="63"/>
+      <c r="C1290" s="63"/>
+      <c r="D1290" s="63"/>
+      <c r="E1290" s="63"/>
       <c r="F1290" s="50"/>
     </row>
     <row r="1291" spans="1:6" x14ac:dyDescent="0.25">
@@ -19755,14 +19761,14 @@
       <c r="F1297" s="6"/>
     </row>
     <row r="1298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1298" s="62" t="s">
+      <c r="A1298" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="B1298" s="62"/>
-      <c r="C1298" s="62"/>
-      <c r="D1298" s="62"/>
-      <c r="E1298" s="62"/>
-      <c r="F1298" s="62"/>
+      <c r="B1298" s="63"/>
+      <c r="C1298" s="63"/>
+      <c r="D1298" s="63"/>
+      <c r="E1298" s="63"/>
+      <c r="F1298" s="63"/>
     </row>
     <row r="1299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1299" s="1"/>
@@ -19823,13 +19829,13 @@
       </c>
     </row>
     <row r="1302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1302" s="62" t="s">
+      <c r="A1302" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="B1302" s="62"/>
-      <c r="C1302" s="62"/>
-      <c r="D1302" s="62"/>
-      <c r="E1302" s="62"/>
+      <c r="B1302" s="63"/>
+      <c r="C1302" s="63"/>
+      <c r="D1302" s="63"/>
+      <c r="E1302" s="63"/>
       <c r="F1302" s="50"/>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.25">
@@ -19890,14 +19896,14 @@
       <c r="F1309" s="6"/>
     </row>
     <row r="1310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1310" s="62" t="s">
+      <c r="A1310" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="B1310" s="62"/>
-      <c r="C1310" s="62"/>
-      <c r="D1310" s="62"/>
-      <c r="E1310" s="62"/>
-      <c r="F1310" s="62"/>
+      <c r="B1310" s="63"/>
+      <c r="C1310" s="63"/>
+      <c r="D1310" s="63"/>
+      <c r="E1310" s="63"/>
+      <c r="F1310" s="63"/>
     </row>
     <row r="1311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1311" s="1"/>
@@ -19958,13 +19964,13 @@
       </c>
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1314" s="62" t="s">
+      <c r="A1314" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="B1314" s="62"/>
-      <c r="C1314" s="62"/>
-      <c r="D1314" s="62"/>
-      <c r="E1314" s="62"/>
+      <c r="B1314" s="63"/>
+      <c r="C1314" s="63"/>
+      <c r="D1314" s="63"/>
+      <c r="E1314" s="63"/>
       <c r="F1314" s="50"/>
     </row>
     <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
@@ -20025,14 +20031,14 @@
       <c r="F1321" s="6"/>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1322" s="62" t="s">
+      <c r="A1322" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="B1322" s="62"/>
-      <c r="C1322" s="62"/>
-      <c r="D1322" s="62"/>
-      <c r="E1322" s="62"/>
-      <c r="F1322" s="62"/>
+      <c r="B1322" s="63"/>
+      <c r="C1322" s="63"/>
+      <c r="D1322" s="63"/>
+      <c r="E1322" s="63"/>
+      <c r="F1322" s="63"/>
     </row>
     <row r="1323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1323" s="1"/>
@@ -20093,13 +20099,13 @@
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1326" s="62" t="s">
+      <c r="A1326" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B1326" s="62"/>
-      <c r="C1326" s="62"/>
-      <c r="D1326" s="62"/>
-      <c r="E1326" s="62"/>
+      <c r="B1326" s="63"/>
+      <c r="C1326" s="63"/>
+      <c r="D1326" s="63"/>
+      <c r="E1326" s="63"/>
       <c r="F1326" s="50"/>
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
@@ -20160,14 +20166,14 @@
       <c r="F1333" s="6"/>
     </row>
     <row r="1334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1334" s="62" t="s">
+      <c r="A1334" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="B1334" s="62"/>
-      <c r="C1334" s="62"/>
-      <c r="D1334" s="62"/>
-      <c r="E1334" s="62"/>
-      <c r="F1334" s="62"/>
+      <c r="B1334" s="63"/>
+      <c r="C1334" s="63"/>
+      <c r="D1334" s="63"/>
+      <c r="E1334" s="63"/>
+      <c r="F1334" s="63"/>
     </row>
     <row r="1335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1335" s="1"/>
@@ -20228,13 +20234,13 @@
       </c>
     </row>
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1338" s="62" t="s">
+      <c r="A1338" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="B1338" s="62"/>
-      <c r="C1338" s="62"/>
-      <c r="D1338" s="62"/>
-      <c r="E1338" s="62"/>
+      <c r="B1338" s="63"/>
+      <c r="C1338" s="63"/>
+      <c r="D1338" s="63"/>
+      <c r="E1338" s="63"/>
       <c r="F1338" s="50"/>
     </row>
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
@@ -20295,14 +20301,14 @@
       <c r="F1345" s="6"/>
     </row>
     <row r="1346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1346" s="62" t="s">
+      <c r="A1346" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="B1346" s="62"/>
-      <c r="C1346" s="62"/>
-      <c r="D1346" s="62"/>
-      <c r="E1346" s="62"/>
-      <c r="F1346" s="62"/>
+      <c r="B1346" s="63"/>
+      <c r="C1346" s="63"/>
+      <c r="D1346" s="63"/>
+      <c r="E1346" s="63"/>
+      <c r="F1346" s="63"/>
     </row>
     <row r="1347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1347" s="1"/>
@@ -20363,13 +20369,13 @@
       </c>
     </row>
     <row r="1350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1350" s="62" t="s">
+      <c r="A1350" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="B1350" s="62"/>
-      <c r="C1350" s="62"/>
-      <c r="D1350" s="62"/>
-      <c r="E1350" s="62"/>
+      <c r="B1350" s="63"/>
+      <c r="C1350" s="63"/>
+      <c r="D1350" s="63"/>
+      <c r="E1350" s="63"/>
       <c r="F1350" s="50"/>
     </row>
     <row r="1351" spans="1:6" x14ac:dyDescent="0.25">
@@ -20430,14 +20436,14 @@
       <c r="F1357" s="6"/>
     </row>
     <row r="1358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1358" s="62" t="s">
+      <c r="A1358" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="B1358" s="62"/>
-      <c r="C1358" s="62"/>
-      <c r="D1358" s="62"/>
-      <c r="E1358" s="62"/>
-      <c r="F1358" s="62"/>
+      <c r="B1358" s="63"/>
+      <c r="C1358" s="63"/>
+      <c r="D1358" s="63"/>
+      <c r="E1358" s="63"/>
+      <c r="F1358" s="63"/>
     </row>
     <row r="1359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1359" s="1"/>
@@ -20498,13 +20504,13 @@
       </c>
     </row>
     <row r="1362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1362" s="62" t="s">
+      <c r="A1362" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="B1362" s="62"/>
-      <c r="C1362" s="62"/>
-      <c r="D1362" s="62"/>
-      <c r="E1362" s="62"/>
+      <c r="B1362" s="63"/>
+      <c r="C1362" s="63"/>
+      <c r="D1362" s="63"/>
+      <c r="E1362" s="63"/>
       <c r="F1362" s="50"/>
     </row>
     <row r="1363" spans="1:6" x14ac:dyDescent="0.25">
@@ -20565,14 +20571,14 @@
       <c r="F1369" s="6"/>
     </row>
     <row r="1370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1370" s="62" t="s">
+      <c r="A1370" s="63" t="s">
         <v>283</v>
       </c>
-      <c r="B1370" s="62"/>
-      <c r="C1370" s="62"/>
-      <c r="D1370" s="62"/>
-      <c r="E1370" s="62"/>
-      <c r="F1370" s="62"/>
+      <c r="B1370" s="63"/>
+      <c r="C1370" s="63"/>
+      <c r="D1370" s="63"/>
+      <c r="E1370" s="63"/>
+      <c r="F1370" s="63"/>
     </row>
     <row r="1371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1371" s="1"/>
@@ -20633,13 +20639,13 @@
       </c>
     </row>
     <row r="1374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1374" s="62" t="s">
+      <c r="A1374" s="63" t="s">
         <v>284</v>
       </c>
-      <c r="B1374" s="62"/>
-      <c r="C1374" s="62"/>
-      <c r="D1374" s="62"/>
-      <c r="E1374" s="62"/>
+      <c r="B1374" s="63"/>
+      <c r="C1374" s="63"/>
+      <c r="D1374" s="63"/>
+      <c r="E1374" s="63"/>
       <c r="F1374" s="50"/>
     </row>
     <row r="1375" spans="1:6" x14ac:dyDescent="0.25">
@@ -20700,14 +20706,14 @@
       <c r="F1381" s="6"/>
     </row>
     <row r="1382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1382" s="62" t="s">
+      <c r="A1382" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="B1382" s="62"/>
-      <c r="C1382" s="62"/>
-      <c r="D1382" s="62"/>
-      <c r="E1382" s="62"/>
-      <c r="F1382" s="62"/>
+      <c r="B1382" s="63"/>
+      <c r="C1382" s="63"/>
+      <c r="D1382" s="63"/>
+      <c r="E1382" s="63"/>
+      <c r="F1382" s="63"/>
     </row>
     <row r="1383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1383" s="1"/>
@@ -20768,13 +20774,13 @@
       </c>
     </row>
     <row r="1386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1386" s="62" t="s">
+      <c r="A1386" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="B1386" s="62"/>
-      <c r="C1386" s="62"/>
-      <c r="D1386" s="62"/>
-      <c r="E1386" s="62"/>
+      <c r="B1386" s="63"/>
+      <c r="C1386" s="63"/>
+      <c r="D1386" s="63"/>
+      <c r="E1386" s="63"/>
       <c r="F1386" s="50"/>
     </row>
     <row r="1387" spans="1:6" x14ac:dyDescent="0.25">
@@ -20835,14 +20841,14 @@
       <c r="F1394" s="6"/>
     </row>
     <row r="1395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1395" s="62" t="s">
+      <c r="A1395" s="63" t="s">
         <v>287</v>
       </c>
-      <c r="B1395" s="62"/>
-      <c r="C1395" s="62"/>
-      <c r="D1395" s="62"/>
-      <c r="E1395" s="62"/>
-      <c r="F1395" s="62"/>
+      <c r="B1395" s="63"/>
+      <c r="C1395" s="63"/>
+      <c r="D1395" s="63"/>
+      <c r="E1395" s="63"/>
+      <c r="F1395" s="63"/>
     </row>
     <row r="1396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1396" s="1"/>
@@ -20903,13 +20909,13 @@
       </c>
     </row>
     <row r="1399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1399" s="62" t="s">
+      <c r="A1399" s="63" t="s">
         <v>288</v>
       </c>
-      <c r="B1399" s="62"/>
-      <c r="C1399" s="62"/>
-      <c r="D1399" s="62"/>
-      <c r="E1399" s="62"/>
+      <c r="B1399" s="63"/>
+      <c r="C1399" s="63"/>
+      <c r="D1399" s="63"/>
+      <c r="E1399" s="63"/>
       <c r="F1399" s="50"/>
     </row>
     <row r="1400" spans="1:6" x14ac:dyDescent="0.25">
@@ -20970,14 +20976,14 @@
       <c r="F1406" s="6"/>
     </row>
     <row r="1407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1407" s="62" t="s">
+      <c r="A1407" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="B1407" s="62"/>
-      <c r="C1407" s="62"/>
-      <c r="D1407" s="62"/>
-      <c r="E1407" s="62"/>
-      <c r="F1407" s="62"/>
+      <c r="B1407" s="63"/>
+      <c r="C1407" s="63"/>
+      <c r="D1407" s="63"/>
+      <c r="E1407" s="63"/>
+      <c r="F1407" s="63"/>
     </row>
     <row r="1408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1408" s="1"/>
@@ -21038,13 +21044,13 @@
       </c>
     </row>
     <row r="1411" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1411" s="62" t="s">
+      <c r="A1411" s="63" t="s">
         <v>290</v>
       </c>
-      <c r="B1411" s="62"/>
-      <c r="C1411" s="62"/>
-      <c r="D1411" s="62"/>
-      <c r="E1411" s="62"/>
+      <c r="B1411" s="63"/>
+      <c r="C1411" s="63"/>
+      <c r="D1411" s="63"/>
+      <c r="E1411" s="63"/>
       <c r="F1411" s="50"/>
     </row>
     <row r="1412" spans="1:8" x14ac:dyDescent="0.25">
@@ -21105,14 +21111,14 @@
       <c r="F1418" s="6"/>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1419" s="62" t="s">
+      <c r="A1419" s="63" t="s">
         <v>291</v>
       </c>
-      <c r="B1419" s="62"/>
-      <c r="C1419" s="62"/>
-      <c r="D1419" s="62"/>
-      <c r="E1419" s="62"/>
-      <c r="F1419" s="62"/>
+      <c r="B1419" s="63"/>
+      <c r="C1419" s="63"/>
+      <c r="D1419" s="63"/>
+      <c r="E1419" s="63"/>
+      <c r="F1419" s="63"/>
     </row>
     <row r="1420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1420" s="1"/>
@@ -21177,13 +21183,13 @@
       </c>
     </row>
     <row r="1423" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1423" s="62" t="s">
+      <c r="A1423" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="B1423" s="62"/>
-      <c r="C1423" s="62"/>
-      <c r="D1423" s="62"/>
-      <c r="E1423" s="62"/>
+      <c r="B1423" s="63"/>
+      <c r="C1423" s="63"/>
+      <c r="D1423" s="63"/>
+      <c r="E1423" s="63"/>
       <c r="F1423" s="50"/>
     </row>
     <row r="1424" spans="1:8" x14ac:dyDescent="0.25">
@@ -21201,7 +21207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1425" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1425" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A1425" s="1" t="s">
         <v>1</v>
       </c>
@@ -21211,14 +21217,14 @@
       <c r="C1425" s="4">
         <v>-25</v>
       </c>
-      <c r="D1425" s="63">
+      <c r="D1425" s="62">
         <v>8987200</v>
       </c>
       <c r="E1425" s="5">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="1426" spans="1:5" ht="18" x14ac:dyDescent="0.4">
+    <row r="1426" spans="1:8" ht="18" x14ac:dyDescent="0.4">
       <c r="A1426" s="1" t="s">
         <v>2</v>
       </c>
@@ -21228,15 +21234,410 @@
       <c r="C1426" s="4">
         <v>-63</v>
       </c>
-      <c r="D1426" s="63">
+      <c r="D1426" s="62">
         <v>2310500</v>
       </c>
       <c r="E1426" s="5">
         <v>0.65</v>
       </c>
     </row>
+    <row r="1430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1430" s="6"/>
+      <c r="B1430" s="6"/>
+      <c r="C1430" s="6"/>
+      <c r="D1430" s="6"/>
+      <c r="E1430" s="6"/>
+      <c r="F1430" s="6"/>
+    </row>
+    <row r="1431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1431" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1431" s="63"/>
+      <c r="C1431" s="63"/>
+      <c r="D1431" s="63"/>
+      <c r="E1431" s="63"/>
+      <c r="F1431" s="63"/>
+    </row>
+    <row r="1432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1432" s="1"/>
+      <c r="B1432" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1432" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1432" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1432" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1432" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1433" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1433" s="54">
+        <v>26389</v>
+      </c>
+      <c r="C1433" s="58">
+        <v>26653</v>
+      </c>
+      <c r="D1433">
+        <v>97</v>
+      </c>
+      <c r="E1433" s="58">
+        <v>27080</v>
+      </c>
+      <c r="F1433" s="9">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1434" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1434" s="54">
+        <v>30345</v>
+      </c>
+      <c r="C1434" s="58">
+        <v>30649</v>
+      </c>
+      <c r="D1434">
+        <v>174</v>
+      </c>
+      <c r="E1434" s="58">
+        <v>31395</v>
+      </c>
+      <c r="F1434" s="9">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1435" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1435" s="63"/>
+      <c r="C1435" s="63"/>
+      <c r="D1435" s="63"/>
+      <c r="E1435" s="63"/>
+      <c r="F1435" s="50"/>
+    </row>
+    <row r="1436" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1436" s="1"/>
+      <c r="B1436" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1436" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1436" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1436" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1437" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1437" s="54">
+        <v>26265</v>
+      </c>
+      <c r="C1437" s="4">
+        <v>-48</v>
+      </c>
+      <c r="D1437" s="54">
+        <v>8590100</v>
+      </c>
+      <c r="E1437" s="5">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1438" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1438" s="54">
+        <v>30252</v>
+      </c>
+      <c r="C1438" s="4">
+        <v>115</v>
+      </c>
+      <c r="D1438" s="54">
+        <v>2397900</v>
+      </c>
+      <c r="E1438" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="H1438">
+        <f>E1434-E1422</f>
+        <v>-204</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="278">
+  <mergeCells count="280">
+    <mergeCell ref="A1431:F1431"/>
+    <mergeCell ref="A1435:E1435"/>
+    <mergeCell ref="A1411:E1411"/>
+    <mergeCell ref="A1382:F1382"/>
+    <mergeCell ref="A1386:E1386"/>
+    <mergeCell ref="A1358:F1358"/>
+    <mergeCell ref="A1362:E1362"/>
+    <mergeCell ref="A1334:F1334"/>
+    <mergeCell ref="A1338:E1338"/>
+    <mergeCell ref="A1310:F1310"/>
+    <mergeCell ref="A1314:E1314"/>
+    <mergeCell ref="A1395:F1395"/>
+    <mergeCell ref="A1399:E1399"/>
+    <mergeCell ref="A1370:F1370"/>
+    <mergeCell ref="A1374:E1374"/>
+    <mergeCell ref="A1346:F1346"/>
+    <mergeCell ref="A1350:E1350"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1322:F1322"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1407:F1407"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1298:F1298"/>
+    <mergeCell ref="A1302:E1302"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1274:F1274"/>
+    <mergeCell ref="A1278:E1278"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1419:F1419"/>
     <mergeCell ref="A1423:E1423"/>
     <mergeCell ref="A397:F397"/>
@@ -21261,260 +21662,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1298:F1298"/>
-    <mergeCell ref="A1302:E1302"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1274:F1274"/>
-    <mergeCell ref="A1278:E1278"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1370:F1370"/>
-    <mergeCell ref="A1374:E1374"/>
-    <mergeCell ref="A1346:F1346"/>
-    <mergeCell ref="A1350:E1350"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1322:F1322"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1407:F1407"/>
-    <mergeCell ref="A1411:E1411"/>
-    <mergeCell ref="A1382:F1382"/>
-    <mergeCell ref="A1386:E1386"/>
-    <mergeCell ref="A1358:F1358"/>
-    <mergeCell ref="A1362:E1362"/>
-    <mergeCell ref="A1334:F1334"/>
-    <mergeCell ref="A1338:E1338"/>
-    <mergeCell ref="A1310:F1310"/>
-    <mergeCell ref="A1314:E1314"/>
-    <mergeCell ref="A1395:F1395"/>
-    <mergeCell ref="A1399:E1399"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="297">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -916,6 +916,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 26 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 27 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 27 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1489,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1438"/>
+  <dimension ref="A1:J1450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1422" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1428" sqref="C1428"/>
+    <sheetView tabSelected="1" topLeftCell="D1431" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1446" sqref="D1446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21380,67 +21386,340 @@
         <v>-204</v>
       </c>
     </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1442" s="6"/>
+      <c r="B1442" s="6"/>
+      <c r="C1442" s="6"/>
+      <c r="D1442" s="6"/>
+      <c r="E1442" s="6"/>
+      <c r="F1442" s="6"/>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1443" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1443" s="63"/>
+      <c r="C1443" s="63"/>
+      <c r="D1443" s="63"/>
+      <c r="E1443" s="63"/>
+      <c r="F1443" s="63"/>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1444" s="1"/>
+      <c r="B1444" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1444" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1444" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1444" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1444" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1445" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1445" s="54">
+        <v>26519</v>
+      </c>
+      <c r="C1445" s="58">
+        <v>26784</v>
+      </c>
+      <c r="D1445">
+        <v>131</v>
+      </c>
+      <c r="E1445" s="58">
+        <v>27380</v>
+      </c>
+      <c r="F1445" s="9">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1446" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1446" s="54">
+        <v>30755</v>
+      </c>
+      <c r="C1446" s="58">
+        <v>31062</v>
+      </c>
+      <c r="D1446">
+        <v>413</v>
+      </c>
+      <c r="E1446" s="58">
+        <v>31899</v>
+      </c>
+      <c r="F1446" s="9">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1447" s="63" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1447" s="63"/>
+      <c r="C1447" s="63"/>
+      <c r="D1447" s="63"/>
+      <c r="E1447" s="63"/>
+      <c r="F1447" s="50"/>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1448" s="1"/>
+      <c r="B1448" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1448" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1448" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1448" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1449" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1449" s="54">
+        <v>26481</v>
+      </c>
+      <c r="C1449" s="4">
+        <v>216</v>
+      </c>
+      <c r="D1449" s="54">
+        <v>9341400</v>
+      </c>
+      <c r="E1449" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1450" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1450" s="54">
+        <v>30553</v>
+      </c>
+      <c r="C1450" s="4">
+        <v>301</v>
+      </c>
+      <c r="D1450" s="54">
+        <v>1963000</v>
+      </c>
+      <c r="E1450" s="5">
+        <v>-0.18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="280">
-    <mergeCell ref="A1431:F1431"/>
-    <mergeCell ref="A1435:E1435"/>
-    <mergeCell ref="A1411:E1411"/>
-    <mergeCell ref="A1382:F1382"/>
-    <mergeCell ref="A1386:E1386"/>
-    <mergeCell ref="A1358:F1358"/>
-    <mergeCell ref="A1362:E1362"/>
-    <mergeCell ref="A1334:F1334"/>
-    <mergeCell ref="A1338:E1338"/>
-    <mergeCell ref="A1310:F1310"/>
-    <mergeCell ref="A1314:E1314"/>
-    <mergeCell ref="A1395:F1395"/>
-    <mergeCell ref="A1399:E1399"/>
-    <mergeCell ref="A1370:F1370"/>
-    <mergeCell ref="A1374:E1374"/>
-    <mergeCell ref="A1346:F1346"/>
-    <mergeCell ref="A1350:E1350"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1322:F1322"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1407:F1407"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1298:F1298"/>
-    <mergeCell ref="A1302:E1302"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1274:F1274"/>
-    <mergeCell ref="A1278:E1278"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
+  <mergeCells count="282">
+    <mergeCell ref="A1443:F1443"/>
+    <mergeCell ref="A1447:E1447"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
     <mergeCell ref="A1044:E1044"/>
     <mergeCell ref="A959:F959"/>
     <mergeCell ref="A963:E963"/>
@@ -21465,203 +21744,67 @@
     <mergeCell ref="A925:F925"/>
     <mergeCell ref="A929:E929"/>
     <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1298:F1298"/>
+    <mergeCell ref="A1302:E1302"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1274:F1274"/>
+    <mergeCell ref="A1278:E1278"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1310:F1310"/>
+    <mergeCell ref="A1314:E1314"/>
+    <mergeCell ref="A1395:F1395"/>
+    <mergeCell ref="A1399:E1399"/>
+    <mergeCell ref="A1370:F1370"/>
+    <mergeCell ref="A1374:E1374"/>
+    <mergeCell ref="A1346:F1346"/>
+    <mergeCell ref="A1350:E1350"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1322:F1322"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1431:F1431"/>
+    <mergeCell ref="A1435:E1435"/>
+    <mergeCell ref="A1411:E1411"/>
+    <mergeCell ref="A1382:F1382"/>
+    <mergeCell ref="A1386:E1386"/>
+    <mergeCell ref="A1358:F1358"/>
+    <mergeCell ref="A1362:E1362"/>
+    <mergeCell ref="A1334:F1334"/>
+    <mergeCell ref="A1338:E1338"/>
+    <mergeCell ref="A1407:F1407"/>
     <mergeCell ref="A1419:F1419"/>
     <mergeCell ref="A1423:E1423"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="299">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -922,6 +922,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 27 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 28 مهر سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 28 مهر سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1495,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1450"/>
+  <dimension ref="A1:J1463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1431" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1446" sqref="D1446"/>
+    <sheetView tabSelected="1" topLeftCell="D1443" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1453" sqref="E1453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21521,8 +21527,403 @@
         <v>-0.18</v>
       </c>
     </row>
+    <row r="1455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1455" s="6"/>
+      <c r="B1455" s="6"/>
+      <c r="C1455" s="6"/>
+      <c r="D1455" s="6"/>
+      <c r="E1455" s="6"/>
+      <c r="F1455" s="6"/>
+    </row>
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1456" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1456" s="63"/>
+      <c r="C1456" s="63"/>
+      <c r="D1456" s="63"/>
+      <c r="E1456" s="63"/>
+      <c r="F1456" s="63"/>
+    </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1457" s="1"/>
+      <c r="B1457" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1457" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1457" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1457" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1457" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1458" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1458" s="54">
+        <v>26569</v>
+      </c>
+      <c r="C1458" s="58">
+        <v>26834</v>
+      </c>
+      <c r="D1458">
+        <v>50</v>
+      </c>
+      <c r="E1458" s="58">
+        <v>27320</v>
+      </c>
+      <c r="F1458" s="9">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1459" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1459" s="54">
+        <v>30650</v>
+      </c>
+      <c r="C1459" s="58">
+        <v>30956</v>
+      </c>
+      <c r="D1459">
+        <v>-106</v>
+      </c>
+      <c r="E1459" s="58">
+        <v>31773</v>
+      </c>
+      <c r="F1459" s="9">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1460" s="63" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1460" s="63"/>
+      <c r="C1460" s="63"/>
+      <c r="D1460" s="63"/>
+      <c r="E1460" s="63"/>
+      <c r="F1460" s="50"/>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1461" s="1"/>
+      <c r="B1461" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1461" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1461" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1461" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1462" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1462" s="54">
+        <v>26483</v>
+      </c>
+      <c r="C1462" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1462" s="54">
+        <v>9658300</v>
+      </c>
+      <c r="E1462" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1463" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1463" s="54">
+        <v>30661</v>
+      </c>
+      <c r="C1463" s="4">
+        <v>108</v>
+      </c>
+      <c r="D1463" s="54">
+        <v>1623100</v>
+      </c>
+      <c r="E1463" s="5">
+        <v>-0.17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="284">
+    <mergeCell ref="A1456:F1456"/>
+    <mergeCell ref="A1460:E1460"/>
+    <mergeCell ref="A1431:F1431"/>
+    <mergeCell ref="A1435:E1435"/>
+    <mergeCell ref="A1411:E1411"/>
+    <mergeCell ref="A1382:F1382"/>
+    <mergeCell ref="A1386:E1386"/>
+    <mergeCell ref="A1358:F1358"/>
+    <mergeCell ref="A1362:E1362"/>
+    <mergeCell ref="A1334:F1334"/>
+    <mergeCell ref="A1338:E1338"/>
+    <mergeCell ref="A1407:F1407"/>
+    <mergeCell ref="A1419:F1419"/>
+    <mergeCell ref="A1423:E1423"/>
+    <mergeCell ref="A1310:F1310"/>
+    <mergeCell ref="A1314:E1314"/>
+    <mergeCell ref="A1395:F1395"/>
+    <mergeCell ref="A1399:E1399"/>
+    <mergeCell ref="A1370:F1370"/>
+    <mergeCell ref="A1374:E1374"/>
+    <mergeCell ref="A1346:F1346"/>
+    <mergeCell ref="A1350:E1350"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1322:F1322"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1298:F1298"/>
+    <mergeCell ref="A1302:E1302"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1274:F1274"/>
+    <mergeCell ref="A1278:E1278"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
     <mergeCell ref="A1443:F1443"/>
     <mergeCell ref="A1447:E1447"/>
     <mergeCell ref="A397:F397"/>
@@ -21547,264 +21948,6 @@
     <mergeCell ref="A392:E392"/>
     <mergeCell ref="A379:F379"/>
     <mergeCell ref="A406:F406"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1298:F1298"/>
-    <mergeCell ref="A1302:E1302"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1274:F1274"/>
-    <mergeCell ref="A1278:E1278"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1310:F1310"/>
-    <mergeCell ref="A1314:E1314"/>
-    <mergeCell ref="A1395:F1395"/>
-    <mergeCell ref="A1399:E1399"/>
-    <mergeCell ref="A1370:F1370"/>
-    <mergeCell ref="A1374:E1374"/>
-    <mergeCell ref="A1346:F1346"/>
-    <mergeCell ref="A1350:E1350"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1322:F1322"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1431:F1431"/>
-    <mergeCell ref="A1435:E1435"/>
-    <mergeCell ref="A1411:E1411"/>
-    <mergeCell ref="A1382:F1382"/>
-    <mergeCell ref="A1386:E1386"/>
-    <mergeCell ref="A1358:F1358"/>
-    <mergeCell ref="A1362:E1362"/>
-    <mergeCell ref="A1334:F1334"/>
-    <mergeCell ref="A1338:E1338"/>
-    <mergeCell ref="A1407:F1407"/>
-    <mergeCell ref="A1419:F1419"/>
-    <mergeCell ref="A1423:E1423"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="305">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -940,6 +940,12 @@
   </si>
   <si>
     <t>بازار ارز متشکل 01 آبان سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 03 آبان سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 03 آبان سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1513,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1487"/>
+  <dimension ref="A1:J1499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1470" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1482" sqref="C1482"/>
+    <sheetView tabSelected="1" topLeftCell="A1479" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1489" sqref="C1489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21944,75 +21950,344 @@
         <v>0.09</v>
       </c>
     </row>
+    <row r="1491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1491" s="6"/>
+      <c r="B1491" s="6"/>
+      <c r="C1491" s="6"/>
+      <c r="D1491" s="6"/>
+      <c r="E1491" s="6"/>
+      <c r="F1491" s="6"/>
+    </row>
+    <row r="1492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1492" s="63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1492" s="63"/>
+      <c r="C1492" s="63"/>
+      <c r="D1492" s="63"/>
+      <c r="E1492" s="63"/>
+      <c r="F1492" s="63"/>
+    </row>
+    <row r="1493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1493" s="1"/>
+      <c r="B1493" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1493" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1493" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1493" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1493" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1494" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1494" s="54">
+        <v>27009</v>
+      </c>
+      <c r="C1494" s="58">
+        <v>27279</v>
+      </c>
+      <c r="D1494">
+        <v>232</v>
+      </c>
+      <c r="E1494" s="58">
+        <v>27620</v>
+      </c>
+      <c r="F1494" s="9">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1495" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1495" s="54">
+        <v>31011</v>
+      </c>
+      <c r="C1495" s="58">
+        <v>31321</v>
+      </c>
+      <c r="D1495">
+        <v>349</v>
+      </c>
+      <c r="E1495" s="58">
+        <v>32250</v>
+      </c>
+      <c r="F1495" s="9">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1496" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1496" s="63"/>
+      <c r="C1496" s="63"/>
+      <c r="D1496" s="63"/>
+      <c r="E1496" s="63"/>
+      <c r="F1496" s="50"/>
+    </row>
+    <row r="1497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1497" s="1"/>
+      <c r="B1497" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1497" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1497" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1497" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1498" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1498" s="54">
+        <v>26923</v>
+      </c>
+      <c r="C1498" s="4">
+        <v>347</v>
+      </c>
+      <c r="D1498" s="54">
+        <v>7622400</v>
+      </c>
+      <c r="E1498" s="5">
+        <v>-0.19</v>
+      </c>
+      <c r="G1498">
+        <f>E1495-E1483</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1499" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1499" s="58">
+        <v>31026</v>
+      </c>
+      <c r="C1499" s="4">
+        <v>240</v>
+      </c>
+      <c r="D1499" s="54">
+        <v>1492500</v>
+      </c>
+      <c r="E1499" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="288">
-    <mergeCell ref="A1480:F1480"/>
-    <mergeCell ref="A1484:E1484"/>
-    <mergeCell ref="A1456:F1456"/>
-    <mergeCell ref="A1460:E1460"/>
-    <mergeCell ref="A1431:F1431"/>
-    <mergeCell ref="A1435:E1435"/>
-    <mergeCell ref="A1411:E1411"/>
-    <mergeCell ref="A1382:F1382"/>
-    <mergeCell ref="A1386:E1386"/>
-    <mergeCell ref="A1358:F1358"/>
-    <mergeCell ref="A1362:E1362"/>
-    <mergeCell ref="A1443:F1443"/>
-    <mergeCell ref="A1447:E1447"/>
-    <mergeCell ref="A1334:F1334"/>
-    <mergeCell ref="A1338:E1338"/>
-    <mergeCell ref="A1407:F1407"/>
-    <mergeCell ref="A1419:F1419"/>
-    <mergeCell ref="A1423:E1423"/>
-    <mergeCell ref="A1310:F1310"/>
-    <mergeCell ref="A1314:E1314"/>
-    <mergeCell ref="A1395:F1395"/>
-    <mergeCell ref="A1399:E1399"/>
-    <mergeCell ref="A1370:F1370"/>
-    <mergeCell ref="A1374:E1374"/>
-    <mergeCell ref="A1346:F1346"/>
-    <mergeCell ref="A1350:E1350"/>
-    <mergeCell ref="A1322:F1322"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1298:F1298"/>
-    <mergeCell ref="A1302:E1302"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1274:F1274"/>
-    <mergeCell ref="A1278:E1278"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
+  <mergeCells count="290">
+    <mergeCell ref="A1492:F1492"/>
+    <mergeCell ref="A1496:E1496"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A343:F343"/>
+    <mergeCell ref="A347:E347"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A352:F352"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A235:F235"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A244:F244"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A325:F325"/>
+    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
     <mergeCell ref="A1044:E1044"/>
     <mergeCell ref="A959:F959"/>
     <mergeCell ref="A963:E963"/>
@@ -22037,203 +22312,75 @@
     <mergeCell ref="A925:F925"/>
     <mergeCell ref="A929:E929"/>
     <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A343:F343"/>
-    <mergeCell ref="A347:E347"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A352:F352"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A235:F235"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A244:F244"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A325:F325"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1298:F1298"/>
+    <mergeCell ref="A1302:E1302"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1274:F1274"/>
+    <mergeCell ref="A1278:E1278"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1310:F1310"/>
+    <mergeCell ref="A1314:E1314"/>
+    <mergeCell ref="A1395:F1395"/>
+    <mergeCell ref="A1399:E1399"/>
+    <mergeCell ref="A1370:F1370"/>
+    <mergeCell ref="A1374:E1374"/>
+    <mergeCell ref="A1346:F1346"/>
+    <mergeCell ref="A1350:E1350"/>
+    <mergeCell ref="A1322:F1322"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1358:F1358"/>
+    <mergeCell ref="A1362:E1362"/>
+    <mergeCell ref="A1443:F1443"/>
+    <mergeCell ref="A1447:E1447"/>
+    <mergeCell ref="A1334:F1334"/>
+    <mergeCell ref="A1338:E1338"/>
+    <mergeCell ref="A1407:F1407"/>
+    <mergeCell ref="A1419:F1419"/>
+    <mergeCell ref="A1423:E1423"/>
+    <mergeCell ref="A1480:F1480"/>
+    <mergeCell ref="A1484:E1484"/>
+    <mergeCell ref="A1456:F1456"/>
+    <mergeCell ref="A1460:E1460"/>
+    <mergeCell ref="A1431:F1431"/>
+    <mergeCell ref="A1435:E1435"/>
+    <mergeCell ref="A1411:E1411"/>
+    <mergeCell ref="A1382:F1382"/>
+    <mergeCell ref="A1386:E1386"/>
     <mergeCell ref="A1468:F1468"/>
     <mergeCell ref="A1472:E1472"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="309">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -946,6 +946,18 @@
   </si>
   <si>
     <t>بازار ارز متشکل 03 آبان سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 04 آبان سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 04 آبان سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 05 آبان سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 05 آبان سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1499"/>
+  <dimension ref="A1:J1524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1479" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1489" sqref="C1489"/>
+    <sheetView tabSelected="1" topLeftCell="A1505" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1514" sqref="C1514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22089,32 +22101,530 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="1503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1503" s="6"/>
+      <c r="B1503" s="6"/>
+      <c r="C1503" s="6"/>
+      <c r="D1503" s="6"/>
+      <c r="E1503" s="6"/>
+      <c r="F1503" s="6"/>
+    </row>
+    <row r="1504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1504" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1504" s="63"/>
+      <c r="C1504" s="63"/>
+      <c r="D1504" s="63"/>
+      <c r="E1504" s="63"/>
+      <c r="F1504" s="63"/>
+    </row>
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1505" s="1"/>
+      <c r="B1505" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1505" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1505" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1505" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1505" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1506" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1506" s="54">
+        <v>26690</v>
+      </c>
+      <c r="C1506" s="58">
+        <v>26957</v>
+      </c>
+      <c r="D1506">
+        <v>-322</v>
+      </c>
+      <c r="E1506" s="58">
+        <v>27440</v>
+      </c>
+      <c r="F1506" s="9">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1507" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1507" s="54">
+        <v>31298</v>
+      </c>
+      <c r="C1507" s="58">
+        <v>31611</v>
+      </c>
+      <c r="D1507">
+        <v>290</v>
+      </c>
+      <c r="E1507" s="58">
+        <v>31902</v>
+      </c>
+      <c r="F1507" s="9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1508" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1508" s="63"/>
+      <c r="C1508" s="63"/>
+      <c r="D1508" s="63"/>
+      <c r="E1508" s="63"/>
+      <c r="F1508" s="50"/>
+    </row>
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1509" s="1"/>
+      <c r="B1509" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1509" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1509" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1509" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1510" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1510" s="54">
+        <v>26679</v>
+      </c>
+      <c r="C1510" s="4">
+        <v>-244</v>
+      </c>
+      <c r="D1510" s="54">
+        <v>9805000</v>
+      </c>
+      <c r="E1510" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1511" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1511" s="58">
+        <v>31231</v>
+      </c>
+      <c r="C1511" s="4">
+        <v>205</v>
+      </c>
+      <c r="D1511" s="54">
+        <v>752700</v>
+      </c>
+      <c r="E1511" s="5">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1513">
+        <f>E1507-E1495</f>
+        <v>-348</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1516" s="6"/>
+      <c r="B1516" s="6"/>
+      <c r="C1516" s="6"/>
+      <c r="D1516" s="6"/>
+      <c r="E1516" s="6"/>
+      <c r="F1516" s="6"/>
+    </row>
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1517" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1517" s="63"/>
+      <c r="C1517" s="63"/>
+      <c r="D1517" s="63"/>
+      <c r="E1517" s="63"/>
+      <c r="F1517" s="63"/>
+    </row>
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1518" s="1"/>
+      <c r="B1518" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1518" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1518" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1518" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1518" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1519" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1519" s="54">
+        <v>26659</v>
+      </c>
+      <c r="C1519" s="58">
+        <v>26925</v>
+      </c>
+      <c r="D1519">
+        <v>-32</v>
+      </c>
+      <c r="E1519" s="58">
+        <v>27680</v>
+      </c>
+      <c r="F1519" s="9">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1520" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1520" s="54">
+        <v>31150</v>
+      </c>
+      <c r="C1520" s="58">
+        <v>31461</v>
+      </c>
+      <c r="D1520">
+        <v>-150</v>
+      </c>
+      <c r="E1520" s="58">
+        <v>31958</v>
+      </c>
+      <c r="F1520" s="9">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1521" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1521" s="63"/>
+      <c r="C1521" s="63"/>
+      <c r="D1521" s="63"/>
+      <c r="E1521" s="63"/>
+      <c r="F1521" s="50"/>
+    </row>
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1522" s="1"/>
+      <c r="B1522" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1522" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1522" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1522" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1523" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1523" s="54">
+        <v>26626</v>
+      </c>
+      <c r="C1523" s="4">
+        <v>-53</v>
+      </c>
+      <c r="D1523" s="54">
+        <v>12098700</v>
+      </c>
+      <c r="E1523" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1524" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1524" s="58">
+        <v>31224</v>
+      </c>
+      <c r="C1524" s="4">
+        <v>-7</v>
+      </c>
+      <c r="D1524" s="54">
+        <v>754800</v>
+      </c>
+      <c r="E1524" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="290">
+  <mergeCells count="294">
+    <mergeCell ref="A1504:F1504"/>
+    <mergeCell ref="A1508:E1508"/>
+    <mergeCell ref="A1443:F1443"/>
+    <mergeCell ref="A1447:E1447"/>
+    <mergeCell ref="A1334:F1334"/>
+    <mergeCell ref="A1338:E1338"/>
+    <mergeCell ref="A1407:F1407"/>
+    <mergeCell ref="A1419:F1419"/>
+    <mergeCell ref="A1423:E1423"/>
+    <mergeCell ref="A1480:F1480"/>
+    <mergeCell ref="A1484:E1484"/>
+    <mergeCell ref="A1456:F1456"/>
+    <mergeCell ref="A1460:E1460"/>
+    <mergeCell ref="A1431:F1431"/>
+    <mergeCell ref="A1435:E1435"/>
+    <mergeCell ref="A1411:E1411"/>
+    <mergeCell ref="A1382:F1382"/>
+    <mergeCell ref="A1386:E1386"/>
+    <mergeCell ref="A1468:F1468"/>
+    <mergeCell ref="A1472:E1472"/>
     <mergeCell ref="A1492:F1492"/>
     <mergeCell ref="A1496:E1496"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A401:E401"/>
-    <mergeCell ref="A253:F253"/>
-    <mergeCell ref="A257:E257"/>
-    <mergeCell ref="A388:F388"/>
-    <mergeCell ref="A415:F415"/>
-    <mergeCell ref="A419:E419"/>
-    <mergeCell ref="A361:F361"/>
-    <mergeCell ref="A424:F424"/>
-    <mergeCell ref="A307:F307"/>
-    <mergeCell ref="A311:E311"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="A383:E383"/>
-    <mergeCell ref="A370:F370"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A365:E365"/>
-    <mergeCell ref="A320:E320"/>
-    <mergeCell ref="A298:F298"/>
-    <mergeCell ref="A356:E356"/>
-    <mergeCell ref="A392:E392"/>
-    <mergeCell ref="A379:F379"/>
-    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="A1310:F1310"/>
+    <mergeCell ref="A1314:E1314"/>
+    <mergeCell ref="A1395:F1395"/>
+    <mergeCell ref="A1399:E1399"/>
+    <mergeCell ref="A1370:F1370"/>
+    <mergeCell ref="A1374:E1374"/>
+    <mergeCell ref="A1346:F1346"/>
+    <mergeCell ref="A1350:E1350"/>
+    <mergeCell ref="A1322:F1322"/>
+    <mergeCell ref="A1326:E1326"/>
+    <mergeCell ref="A1358:F1358"/>
+    <mergeCell ref="A1362:E1362"/>
+    <mergeCell ref="A1203:F1203"/>
+    <mergeCell ref="A1207:E1207"/>
+    <mergeCell ref="A1262:F1262"/>
+    <mergeCell ref="A1215:F1215"/>
+    <mergeCell ref="A1219:E1219"/>
+    <mergeCell ref="A1298:F1298"/>
+    <mergeCell ref="A1302:E1302"/>
+    <mergeCell ref="A1290:E1290"/>
+    <mergeCell ref="A1196:E1196"/>
+    <mergeCell ref="A1274:F1274"/>
+    <mergeCell ref="A1278:E1278"/>
+    <mergeCell ref="A1250:F1250"/>
+    <mergeCell ref="A1254:E1254"/>
+    <mergeCell ref="A1227:F1227"/>
+    <mergeCell ref="A1231:E1231"/>
+    <mergeCell ref="A1266:E1266"/>
+    <mergeCell ref="A1286:F1286"/>
+    <mergeCell ref="A1238:F1238"/>
+    <mergeCell ref="A1242:E1242"/>
+    <mergeCell ref="A1063:F1063"/>
+    <mergeCell ref="A1067:E1067"/>
+    <mergeCell ref="A1133:F1133"/>
+    <mergeCell ref="A1137:E1137"/>
+    <mergeCell ref="A1110:F1110"/>
+    <mergeCell ref="A1114:E1114"/>
+    <mergeCell ref="A1192:F1192"/>
+    <mergeCell ref="A1075:F1075"/>
+    <mergeCell ref="A1079:E1079"/>
+    <mergeCell ref="A1149:E1149"/>
+    <mergeCell ref="A1121:F1121"/>
+    <mergeCell ref="A1125:E1125"/>
+    <mergeCell ref="A1168:F1168"/>
+    <mergeCell ref="A1172:E1172"/>
+    <mergeCell ref="A1099:F1099"/>
+    <mergeCell ref="A1103:E1103"/>
+    <mergeCell ref="A1180:F1180"/>
+    <mergeCell ref="A1184:E1184"/>
+    <mergeCell ref="A1156:F1156"/>
+    <mergeCell ref="A1160:E1160"/>
+    <mergeCell ref="A1044:E1044"/>
+    <mergeCell ref="A959:F959"/>
+    <mergeCell ref="A963:E963"/>
+    <mergeCell ref="A1145:F1145"/>
+    <mergeCell ref="A940:E940"/>
+    <mergeCell ref="A1087:F1087"/>
+    <mergeCell ref="A1091:E1091"/>
+    <mergeCell ref="A913:F913"/>
+    <mergeCell ref="A917:E917"/>
+    <mergeCell ref="A994:F994"/>
+    <mergeCell ref="A998:E998"/>
+    <mergeCell ref="A1052:F1052"/>
+    <mergeCell ref="A1056:E1056"/>
+    <mergeCell ref="A1028:F1028"/>
+    <mergeCell ref="A1032:E1032"/>
+    <mergeCell ref="A1017:F1017"/>
+    <mergeCell ref="A1021:E1021"/>
+    <mergeCell ref="A974:E974"/>
+    <mergeCell ref="A936:F936"/>
+    <mergeCell ref="A947:F947"/>
+    <mergeCell ref="A951:E951"/>
+    <mergeCell ref="A925:F925"/>
+    <mergeCell ref="A929:E929"/>
+    <mergeCell ref="A970:F970"/>
+    <mergeCell ref="A982:F982"/>
+    <mergeCell ref="A986:E986"/>
+    <mergeCell ref="A1040:F1040"/>
+    <mergeCell ref="A1006:F1006"/>
+    <mergeCell ref="A1010:E1010"/>
+    <mergeCell ref="A847:F847"/>
+    <mergeCell ref="A851:E851"/>
+    <mergeCell ref="A902:F902"/>
+    <mergeCell ref="A906:E906"/>
+    <mergeCell ref="A891:F891"/>
+    <mergeCell ref="A895:E895"/>
+    <mergeCell ref="A803:F803"/>
+    <mergeCell ref="A807:E807"/>
+    <mergeCell ref="A880:F880"/>
+    <mergeCell ref="A884:E884"/>
+    <mergeCell ref="A858:F858"/>
+    <mergeCell ref="A862:E862"/>
+    <mergeCell ref="A836:F836"/>
+    <mergeCell ref="A840:E840"/>
+    <mergeCell ref="A814:F814"/>
+    <mergeCell ref="A818:E818"/>
+    <mergeCell ref="A825:F825"/>
+    <mergeCell ref="A829:E829"/>
+    <mergeCell ref="A869:F869"/>
+    <mergeCell ref="A873:E873"/>
+    <mergeCell ref="A792:F792"/>
+    <mergeCell ref="A796:E796"/>
+    <mergeCell ref="A700:E700"/>
+    <mergeCell ref="A770:F770"/>
+    <mergeCell ref="A774:E774"/>
+    <mergeCell ref="A748:F748"/>
+    <mergeCell ref="A759:F759"/>
+    <mergeCell ref="A763:E763"/>
+    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A781:F781"/>
+    <mergeCell ref="A752:E752"/>
+    <mergeCell ref="A726:F726"/>
+    <mergeCell ref="A730:E730"/>
+    <mergeCell ref="A706:F706"/>
+    <mergeCell ref="A710:E710"/>
+    <mergeCell ref="A736:F736"/>
+    <mergeCell ref="A740:E740"/>
+    <mergeCell ref="A716:F716"/>
+    <mergeCell ref="A720:E720"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A556:F556"/>
+    <mergeCell ref="A560:E560"/>
+    <mergeCell ref="A576:F576"/>
+    <mergeCell ref="A473:E473"/>
+    <mergeCell ref="A433:F433"/>
+    <mergeCell ref="A451:F451"/>
+    <mergeCell ref="A455:E455"/>
+    <mergeCell ref="A549:E549"/>
+    <mergeCell ref="A478:F478"/>
+    <mergeCell ref="A482:E482"/>
+    <mergeCell ref="A496:F496"/>
+    <mergeCell ref="A437:E437"/>
+    <mergeCell ref="A570:E570"/>
+    <mergeCell ref="A446:E446"/>
+    <mergeCell ref="A442:F442"/>
+    <mergeCell ref="A538:E538"/>
+    <mergeCell ref="A545:F545"/>
+    <mergeCell ref="A514:F514"/>
+    <mergeCell ref="A518:E518"/>
+    <mergeCell ref="A534:F534"/>
+    <mergeCell ref="A640:E640"/>
+    <mergeCell ref="A656:F656"/>
+    <mergeCell ref="A606:F606"/>
+    <mergeCell ref="A610:E610"/>
+    <mergeCell ref="A636:F636"/>
+    <mergeCell ref="A616:F616"/>
+    <mergeCell ref="A620:E620"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A676:F676"/>
+    <mergeCell ref="A626:F626"/>
+    <mergeCell ref="A630:E630"/>
+    <mergeCell ref="A410:E410"/>
+    <mergeCell ref="A696:F696"/>
+    <mergeCell ref="A660:E660"/>
+    <mergeCell ref="A666:F666"/>
+    <mergeCell ref="A670:E670"/>
+    <mergeCell ref="A580:E580"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A464:E464"/>
+    <mergeCell ref="A469:F469"/>
+    <mergeCell ref="A527:E527"/>
+    <mergeCell ref="A566:F566"/>
+    <mergeCell ref="A505:F505"/>
+    <mergeCell ref="A509:E509"/>
+    <mergeCell ref="A596:F596"/>
+    <mergeCell ref="A586:F586"/>
+    <mergeCell ref="A590:E590"/>
+    <mergeCell ref="A500:E500"/>
+    <mergeCell ref="A523:F523"/>
+    <mergeCell ref="A600:E600"/>
+    <mergeCell ref="A646:F646"/>
+    <mergeCell ref="A680:E680"/>
+    <mergeCell ref="A686:F686"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A487:F487"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A271:F271"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A266:E266"/>
+    <mergeCell ref="A289:F289"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A334:F334"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A262:F262"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A280:F280"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A212:E212"/>
+    <mergeCell ref="A131:E131"/>
     <mergeCell ref="A118:F118"/>
     <mergeCell ref="A122:E122"/>
     <mergeCell ref="A154:F154"/>
@@ -22139,248 +22649,30 @@
     <mergeCell ref="A302:E302"/>
     <mergeCell ref="A325:F325"/>
     <mergeCell ref="A338:E338"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A271:F271"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A266:E266"/>
-    <mergeCell ref="A289:F289"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A334:F334"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A262:F262"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A280:F280"/>
-    <mergeCell ref="A284:E284"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A212:E212"/>
-    <mergeCell ref="A131:E131"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A410:E410"/>
-    <mergeCell ref="A696:F696"/>
-    <mergeCell ref="A660:E660"/>
-    <mergeCell ref="A666:F666"/>
-    <mergeCell ref="A670:E670"/>
-    <mergeCell ref="A580:E580"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A464:E464"/>
-    <mergeCell ref="A469:F469"/>
-    <mergeCell ref="A527:E527"/>
-    <mergeCell ref="A566:F566"/>
-    <mergeCell ref="A505:F505"/>
-    <mergeCell ref="A509:E509"/>
-    <mergeCell ref="A596:F596"/>
-    <mergeCell ref="A586:F586"/>
-    <mergeCell ref="A590:E590"/>
-    <mergeCell ref="A500:E500"/>
-    <mergeCell ref="A523:F523"/>
-    <mergeCell ref="A600:E600"/>
-    <mergeCell ref="A646:F646"/>
-    <mergeCell ref="A680:E680"/>
-    <mergeCell ref="A686:F686"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A487:F487"/>
-    <mergeCell ref="A640:E640"/>
-    <mergeCell ref="A656:F656"/>
-    <mergeCell ref="A606:F606"/>
-    <mergeCell ref="A610:E610"/>
-    <mergeCell ref="A636:F636"/>
-    <mergeCell ref="A616:F616"/>
-    <mergeCell ref="A620:E620"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A676:F676"/>
-    <mergeCell ref="A626:F626"/>
-    <mergeCell ref="A630:E630"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A556:F556"/>
-    <mergeCell ref="A560:E560"/>
-    <mergeCell ref="A576:F576"/>
-    <mergeCell ref="A473:E473"/>
-    <mergeCell ref="A433:F433"/>
-    <mergeCell ref="A451:F451"/>
-    <mergeCell ref="A455:E455"/>
-    <mergeCell ref="A549:E549"/>
-    <mergeCell ref="A478:F478"/>
-    <mergeCell ref="A482:E482"/>
-    <mergeCell ref="A496:F496"/>
-    <mergeCell ref="A437:E437"/>
-    <mergeCell ref="A570:E570"/>
-    <mergeCell ref="A446:E446"/>
-    <mergeCell ref="A442:F442"/>
-    <mergeCell ref="A538:E538"/>
-    <mergeCell ref="A545:F545"/>
-    <mergeCell ref="A514:F514"/>
-    <mergeCell ref="A518:E518"/>
-    <mergeCell ref="A534:F534"/>
-    <mergeCell ref="A792:F792"/>
-    <mergeCell ref="A796:E796"/>
-    <mergeCell ref="A700:E700"/>
-    <mergeCell ref="A770:F770"/>
-    <mergeCell ref="A774:E774"/>
-    <mergeCell ref="A748:F748"/>
-    <mergeCell ref="A759:F759"/>
-    <mergeCell ref="A763:E763"/>
-    <mergeCell ref="A785:E785"/>
-    <mergeCell ref="A781:F781"/>
-    <mergeCell ref="A752:E752"/>
-    <mergeCell ref="A726:F726"/>
-    <mergeCell ref="A730:E730"/>
-    <mergeCell ref="A706:F706"/>
-    <mergeCell ref="A710:E710"/>
-    <mergeCell ref="A736:F736"/>
-    <mergeCell ref="A740:E740"/>
-    <mergeCell ref="A716:F716"/>
-    <mergeCell ref="A720:E720"/>
-    <mergeCell ref="A803:F803"/>
-    <mergeCell ref="A807:E807"/>
-    <mergeCell ref="A880:F880"/>
-    <mergeCell ref="A884:E884"/>
-    <mergeCell ref="A858:F858"/>
-    <mergeCell ref="A862:E862"/>
-    <mergeCell ref="A836:F836"/>
-    <mergeCell ref="A840:E840"/>
-    <mergeCell ref="A814:F814"/>
-    <mergeCell ref="A818:E818"/>
-    <mergeCell ref="A825:F825"/>
-    <mergeCell ref="A829:E829"/>
-    <mergeCell ref="A869:F869"/>
-    <mergeCell ref="A873:E873"/>
-    <mergeCell ref="A982:F982"/>
-    <mergeCell ref="A986:E986"/>
-    <mergeCell ref="A1040:F1040"/>
-    <mergeCell ref="A1006:F1006"/>
-    <mergeCell ref="A1010:E1010"/>
-    <mergeCell ref="A847:F847"/>
-    <mergeCell ref="A851:E851"/>
-    <mergeCell ref="A902:F902"/>
-    <mergeCell ref="A906:E906"/>
-    <mergeCell ref="A891:F891"/>
-    <mergeCell ref="A895:E895"/>
-    <mergeCell ref="A1044:E1044"/>
-    <mergeCell ref="A959:F959"/>
-    <mergeCell ref="A963:E963"/>
-    <mergeCell ref="A1145:F1145"/>
-    <mergeCell ref="A940:E940"/>
-    <mergeCell ref="A1087:F1087"/>
-    <mergeCell ref="A1091:E1091"/>
-    <mergeCell ref="A913:F913"/>
-    <mergeCell ref="A917:E917"/>
-    <mergeCell ref="A994:F994"/>
-    <mergeCell ref="A998:E998"/>
-    <mergeCell ref="A1052:F1052"/>
-    <mergeCell ref="A1056:E1056"/>
-    <mergeCell ref="A1028:F1028"/>
-    <mergeCell ref="A1032:E1032"/>
-    <mergeCell ref="A1017:F1017"/>
-    <mergeCell ref="A1021:E1021"/>
-    <mergeCell ref="A974:E974"/>
-    <mergeCell ref="A936:F936"/>
-    <mergeCell ref="A947:F947"/>
-    <mergeCell ref="A951:E951"/>
-    <mergeCell ref="A925:F925"/>
-    <mergeCell ref="A929:E929"/>
-    <mergeCell ref="A970:F970"/>
-    <mergeCell ref="A1063:F1063"/>
-    <mergeCell ref="A1067:E1067"/>
-    <mergeCell ref="A1133:F1133"/>
-    <mergeCell ref="A1137:E1137"/>
-    <mergeCell ref="A1110:F1110"/>
-    <mergeCell ref="A1114:E1114"/>
-    <mergeCell ref="A1192:F1192"/>
-    <mergeCell ref="A1075:F1075"/>
-    <mergeCell ref="A1079:E1079"/>
-    <mergeCell ref="A1149:E1149"/>
-    <mergeCell ref="A1121:F1121"/>
-    <mergeCell ref="A1125:E1125"/>
-    <mergeCell ref="A1168:F1168"/>
-    <mergeCell ref="A1172:E1172"/>
-    <mergeCell ref="A1099:F1099"/>
-    <mergeCell ref="A1103:E1103"/>
-    <mergeCell ref="A1180:F1180"/>
-    <mergeCell ref="A1184:E1184"/>
-    <mergeCell ref="A1156:F1156"/>
-    <mergeCell ref="A1160:E1160"/>
-    <mergeCell ref="A1203:F1203"/>
-    <mergeCell ref="A1207:E1207"/>
-    <mergeCell ref="A1262:F1262"/>
-    <mergeCell ref="A1215:F1215"/>
-    <mergeCell ref="A1219:E1219"/>
-    <mergeCell ref="A1298:F1298"/>
-    <mergeCell ref="A1302:E1302"/>
-    <mergeCell ref="A1290:E1290"/>
-    <mergeCell ref="A1196:E1196"/>
-    <mergeCell ref="A1274:F1274"/>
-    <mergeCell ref="A1278:E1278"/>
-    <mergeCell ref="A1250:F1250"/>
-    <mergeCell ref="A1254:E1254"/>
-    <mergeCell ref="A1227:F1227"/>
-    <mergeCell ref="A1231:E1231"/>
-    <mergeCell ref="A1266:E1266"/>
-    <mergeCell ref="A1286:F1286"/>
-    <mergeCell ref="A1238:F1238"/>
-    <mergeCell ref="A1242:E1242"/>
-    <mergeCell ref="A1310:F1310"/>
-    <mergeCell ref="A1314:E1314"/>
-    <mergeCell ref="A1395:F1395"/>
-    <mergeCell ref="A1399:E1399"/>
-    <mergeCell ref="A1370:F1370"/>
-    <mergeCell ref="A1374:E1374"/>
-    <mergeCell ref="A1346:F1346"/>
-    <mergeCell ref="A1350:E1350"/>
-    <mergeCell ref="A1322:F1322"/>
-    <mergeCell ref="A1326:E1326"/>
-    <mergeCell ref="A1358:F1358"/>
-    <mergeCell ref="A1362:E1362"/>
-    <mergeCell ref="A1443:F1443"/>
-    <mergeCell ref="A1447:E1447"/>
-    <mergeCell ref="A1334:F1334"/>
-    <mergeCell ref="A1338:E1338"/>
-    <mergeCell ref="A1407:F1407"/>
-    <mergeCell ref="A1419:F1419"/>
-    <mergeCell ref="A1423:E1423"/>
-    <mergeCell ref="A1480:F1480"/>
-    <mergeCell ref="A1484:E1484"/>
-    <mergeCell ref="A1456:F1456"/>
-    <mergeCell ref="A1460:E1460"/>
-    <mergeCell ref="A1431:F1431"/>
-    <mergeCell ref="A1435:E1435"/>
-    <mergeCell ref="A1411:E1411"/>
-    <mergeCell ref="A1382:F1382"/>
-    <mergeCell ref="A1386:E1386"/>
-    <mergeCell ref="A1468:F1468"/>
-    <mergeCell ref="A1472:E1472"/>
+    <mergeCell ref="A1517:F1517"/>
+    <mergeCell ref="A1521:E1521"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A401:E401"/>
+    <mergeCell ref="A253:F253"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="A388:F388"/>
+    <mergeCell ref="A415:F415"/>
+    <mergeCell ref="A419:E419"/>
+    <mergeCell ref="A361:F361"/>
+    <mergeCell ref="A424:F424"/>
+    <mergeCell ref="A307:F307"/>
+    <mergeCell ref="A311:E311"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="A383:E383"/>
+    <mergeCell ref="A370:F370"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A365:E365"/>
+    <mergeCell ref="A320:E320"/>
+    <mergeCell ref="A298:F298"/>
+    <mergeCell ref="A356:E356"/>
+    <mergeCell ref="A392:E392"/>
+    <mergeCell ref="A379:F379"/>
+    <mergeCell ref="A406:F406"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/format.xlsx
+++ b/format.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="315">
   <si>
     <t>نرخ خرده فروشی در بازار سنا (ریال)</t>
   </si>
@@ -967,6 +967,15 @@
   </si>
   <si>
     <t>بازار ارز متشکل و سامانه سنا در 09 آبان سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل و سامانه سنا در 10 آبان سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 10 آبان سال 1400</t>
+  </si>
+  <si>
+    <t>بازار ارز متشکل 09 آبان سال 1400</t>
   </si>
 </sst>
 </file>
@@ -1263,11 +1272,11 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1548,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1551"/>
+  <dimension ref="A1:J1563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1532" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1541" sqref="D1541"/>
+    <sheetView tabSelected="1" topLeftCell="A1547" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1559" sqref="C1559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,13 +1574,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1624,13 +1633,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1683,12 +1692,12 @@
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1735,13 +1744,13 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1794,14 +1803,14 @@
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1862,13 +1871,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1921,14 +1930,14 @@
     </row>
     <row r="27" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
@@ -1989,13 +1998,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
@@ -2048,14 +2057,14 @@
     </row>
     <row r="36" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -2116,13 +2125,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="63" t="s">
+      <c r="A41" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -2175,14 +2184,14 @@
     </row>
     <row r="45" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="63" t="s">
+      <c r="A46" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
@@ -2243,13 +2252,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="63" t="s">
+      <c r="A50" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -2302,14 +2311,14 @@
     </row>
     <row r="54" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -2370,13 +2379,13 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
@@ -2429,14 +2438,14 @@
     </row>
     <row r="63" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -2505,13 +2514,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
@@ -2564,14 +2573,14 @@
     </row>
     <row r="72" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="63" t="s">
+      <c r="A73" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="63"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
@@ -2640,13 +2649,13 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="63" t="s">
+      <c r="A77" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="63"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
@@ -2699,14 +2708,14 @@
     </row>
     <row r="81" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="63" t="s">
+      <c r="A82" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="63"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -2775,13 +2784,13 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="63" t="s">
+      <c r="A86" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="65"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
@@ -2834,14 +2843,14 @@
     </row>
     <row r="90" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="63" t="s">
+      <c r="A91" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B91" s="63"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -2907,13 +2916,13 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="63" t="s">
+      <c r="A95" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B95" s="63"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="63"/>
-      <c r="E95" s="63"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
@@ -2970,14 +2979,14 @@
     </row>
     <row r="99" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="63" t="s">
+      <c r="A100" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
@@ -3043,13 +3052,13 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="63" t="s">
+      <c r="A104" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="63"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="63"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
@@ -3106,14 +3115,14 @@
     </row>
     <row r="108" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="63" t="s">
+      <c r="A109" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B109" s="63"/>
-      <c r="C109" s="63"/>
-      <c r="D109" s="63"/>
-      <c r="E109" s="63"/>
-      <c r="F109" s="63"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
@@ -3179,13 +3188,13 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="63" t="s">
+      <c r="A113" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B113" s="63"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
@@ -3244,14 +3253,14 @@
     </row>
     <row r="117" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="63" t="s">
+      <c r="A118" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B118" s="63"/>
-      <c r="C118" s="63"/>
-      <c r="D118" s="63"/>
-      <c r="E118" s="63"/>
-      <c r="F118" s="63"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
@@ -3317,13 +3326,13 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="63" t="s">
+      <c r="A122" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B122" s="63"/>
-      <c r="C122" s="63"/>
-      <c r="D122" s="63"/>
-      <c r="E122" s="63"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
@@ -3382,14 +3391,14 @@
     </row>
     <row r="126" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="63" t="s">
+      <c r="A127" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B127" s="63"/>
-      <c r="C127" s="63"/>
-      <c r="D127" s="63"/>
-      <c r="E127" s="63"/>
-      <c r="F127" s="63"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
@@ -3456,13 +3465,13 @@
       <c r="G130" s="10"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="63" t="s">
+      <c r="A131" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B131" s="63"/>
-      <c r="C131" s="63"/>
-      <c r="D131" s="63"/>
-      <c r="E131" s="63"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="65"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
       <c r="I131" s="10"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -3523,14 +3532,14 @@
     </row>
     <row r="135" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="63" t="s">
+      <c r="A136" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B136" s="63"/>
-      <c r="C136" s="63"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="63"/>
-      <c r="F136" s="63"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
@@ -3597,13 +3606,13 @@
       <c r="G139" s="10"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="63" t="s">
+      <c r="A140" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B140" s="63"/>
-      <c r="C140" s="63"/>
-      <c r="D140" s="63"/>
-      <c r="E140" s="63"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
       <c r="I140" s="10"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -3665,14 +3674,14 @@
     </row>
     <row r="144" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="63" t="s">
+      <c r="A145" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="63"/>
-      <c r="C145" s="63"/>
-      <c r="D145" s="63"/>
-      <c r="E145" s="63"/>
-      <c r="F145" s="63"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="65"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
@@ -3739,13 +3748,13 @@
       <c r="G148" s="10"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="63" t="s">
+      <c r="A149" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="63"/>
-      <c r="C149" s="63"/>
-      <c r="D149" s="63"/>
-      <c r="E149" s="63"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="65"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="65"/>
       <c r="G149">
         <f>F148/C148</f>
         <v>2.2416386163431928E-2</v>
@@ -3814,14 +3823,14 @@
     </row>
     <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="63" t="s">
+      <c r="A154" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B154" s="63"/>
-      <c r="C154" s="63"/>
-      <c r="D154" s="63"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="63"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="65"/>
+      <c r="D154" s="65"/>
+      <c r="E154" s="65"/>
+      <c r="F154" s="65"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
@@ -3891,13 +3900,13 @@
       <c r="G157" s="10"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="63" t="s">
+      <c r="A158" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B158" s="63"/>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="63"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="65"/>
+      <c r="D158" s="65"/>
+      <c r="E158" s="65"/>
       <c r="H158">
         <f>F157/C157</f>
         <v>2.5752148997134669E-2</v>
@@ -3964,14 +3973,14 @@
     </row>
     <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="63" t="s">
+      <c r="A163" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B163" s="63"/>
-      <c r="C163" s="63"/>
-      <c r="D163" s="63"/>
-      <c r="E163" s="63"/>
-      <c r="F163" s="63"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="65"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="65"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
@@ -4039,13 +4048,13 @@
       <c r="G166" s="10"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="63" t="s">
+      <c r="A167" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B167" s="63"/>
-      <c r="C167" s="63"/>
-      <c r="D167" s="63"/>
-      <c r="E167" s="63"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="65"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="65"/>
       <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -4113,14 +4122,14 @@
     </row>
     <row r="171" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="63" t="s">
+      <c r="A172" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B172" s="63"/>
-      <c r="C172" s="63"/>
-      <c r="D172" s="63"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="63"/>
+      <c r="B172" s="65"/>
+      <c r="C172" s="65"/>
+      <c r="D172" s="65"/>
+      <c r="E172" s="65"/>
+      <c r="F172" s="65"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
@@ -4192,13 +4201,13 @@
       <c r="G175" s="10"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="63" t="s">
+      <c r="A176" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B176" s="63"/>
-      <c r="C176" s="63"/>
-      <c r="D176" s="63"/>
-      <c r="E176" s="63"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="65"/>
+      <c r="D176" s="65"/>
+      <c r="E176" s="65"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -4266,14 +4275,14 @@
     </row>
     <row r="180" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="63" t="s">
+      <c r="A181" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B181" s="63"/>
-      <c r="C181" s="63"/>
-      <c r="D181" s="63"/>
-      <c r="E181" s="63"/>
-      <c r="F181" s="63"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="65"/>
+      <c r="D181" s="65"/>
+      <c r="E181" s="65"/>
+      <c r="F181" s="65"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
@@ -4341,13 +4350,13 @@
       <c r="G184" s="10"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="63" t="s">
+      <c r="A185" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B185" s="63"/>
-      <c r="C185" s="63"/>
-      <c r="D185" s="63"/>
-      <c r="E185" s="63"/>
+      <c r="B185" s="65"/>
+      <c r="C185" s="65"/>
+      <c r="D185" s="65"/>
+      <c r="E185" s="65"/>
       <c r="H185">
         <f>F184/C184</f>
         <v>3.0473475363100511E-2</v>
@@ -4415,14 +4424,14 @@
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="63" t="s">
+      <c r="A190" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B190" s="63"/>
-      <c r="C190" s="63"/>
-      <c r="D190" s="63"/>
-      <c r="E190" s="63"/>
-      <c r="F190" s="63"/>
+      <c r="B190" s="65"/>
+      <c r="C190" s="65"/>
+      <c r="D190" s="65"/>
+      <c r="E190" s="65"/>
+      <c r="F190" s="65"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
@@ -4493,13 +4502,13 @@
       <c r="G193" s="10"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="63" t="s">
+      <c r="A194" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B194" s="63"/>
-      <c r="C194" s="63"/>
-      <c r="D194" s="63"/>
-      <c r="E194" s="63"/>
+      <c r="B194" s="65"/>
+      <c r="C194" s="65"/>
+      <c r="D194" s="65"/>
+      <c r="E194" s="65"/>
       <c r="H194">
         <f>F193/C193</f>
         <v>2.5228721929581369E-2</v>
@@ -4567,14 +4576,14 @@
     </row>
     <row r="198" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="63" t="s">
+      <c r="A199" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B199" s="63"/>
-      <c r="C199" s="63"/>
-      <c r="D199" s="63"/>
-      <c r="E199" s="63"/>
-      <c r="F199" s="63"/>
+      <c r="B199" s="65"/>
+      <c r="C199" s="65"/>
+      <c r="D199" s="65"/>
+      <c r="E199" s="65"/>
+      <c r="F199" s="65"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
@@ -4645,13 +4654,13 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="63" t="s">
+      <c r="A203" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B203" s="63"/>
-      <c r="C203" s="63"/>
-      <c r="D203" s="63"/>
-      <c r="E203" s="63"/>
+      <c r="B203" s="65"/>
+      <c r="C203" s="65"/>
+      <c r="D203" s="65"/>
+      <c r="E203" s="65"/>
       <c r="I203" s="10"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -4714,14 +4723,14 @@
     </row>
     <row r="207" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="63" t="s">
+      <c r="A208" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B208" s="63"/>
-      <c r="C208" s="63"/>
-      <c r="D208" s="63"/>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
+      <c r="B208" s="65"/>
+      <c r="C208" s="65"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="65"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
@@ -4797,13 +4806,13 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="63" t="s">
+      <c r="A212" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B212" s="63"/>
-      <c r="C212" s="63"/>
-      <c r="D212" s="63"/>
-      <c r="E212" s="63"/>
+      <c r="B212" s="65"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
       <c r="F212">
         <f>F211/C211</f>
         <v>5.3257745129351643E-2</v>
@@ -4868,14 +4877,14 @@
     </row>
     <row r="216" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="63" t="s">
+      <c r="A217" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B217" s="63"/>
-      <c r="C217" s="63"/>
-      <c r="D217" s="63"/>
-      <c r="E217" s="63"/>
-      <c r="F217" s="63"/>
+      <c r="B217" s="65"/>
+      <c r="C217" s="65"/>
+      <c r="D217" s="65"/>
+      <c r="E217" s="65"/>
+      <c r="F217" s="65"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
@@ -4950,13 +4959,13 @@
       <c r="I220" s="10"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="63" t="s">
+      <c r="A221" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B221" s="63"/>
-      <c r="C221" s="63"/>
-      <c r="D221" s="63"/>
-      <c r="E221" s="63"/>
+      <c r="B221" s="65"/>
+      <c r="C221" s="65"/>
+      <c r="D221" s="65"/>
+      <c r="E221" s="65"/>
       <c r="G221">
         <f>F220/C220</f>
         <v>5.292938818814099E-2</v>
@@ -5021,14 +5030,14 @@
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="63" t="s">
+      <c r="A226" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B226" s="63"/>
-      <c r="C226" s="63"/>
-      <c r="D226" s="63"/>
-      <c r="E226" s="63"/>
-      <c r="F226" s="63"/>
+      <c r="B226" s="65"/>
+      <c r="C226" s="65"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="65"/>
+      <c r="F226" s="65"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
@@ -5101,13 +5110,13 @@
       <c r="I229" s="10"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="63" t="s">
+      <c r="A230" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="B230" s="63"/>
-      <c r="C230" s="63"/>
-      <c r="D230" s="63"/>
-      <c r="E230" s="63"/>
+      <c r="B230" s="65"/>
+      <c r="C230" s="65"/>
+      <c r="D230" s="65"/>
+      <c r="E230" s="65"/>
       <c r="G230">
         <f>F229/C229</f>
         <v>4.1247714808043873E-2</v>
@@ -5175,14 +5184,14 @@
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="63" t="s">
+      <c r="A235" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="B235" s="63"/>
-      <c r="C235" s="63"/>
-      <c r="D235" s="63"/>
-      <c r="E235" s="63"/>
-      <c r="F235" s="63"/>
+      <c r="B235" s="65"/>
+      <c r="C235" s="65"/>
+      <c r="D235" s="65"/>
+      <c r="E235" s="65"/>
+      <c r="F235" s="65"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
@@ -5256,13 +5265,13 @@
       <c r="I238" s="10"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="63" t="s">
+      <c r="A239" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B239" s="63"/>
-      <c r="C239" s="63"/>
-      <c r="D239" s="63"/>
-      <c r="E239" s="63"/>
+      <c r="B239" s="65"/>
+      <c r="C239" s="65"/>
+      <c r="D239" s="65"/>
+      <c r="E239" s="65"/>
       <c r="I239" s="10"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -5330,14 +5339,14 @@
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="63" t="s">
+      <c r="A244" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B244" s="63"/>
-      <c r="C244" s="63"/>
-      <c r="D244" s="63"/>
-      <c r="E244" s="63"/>
-      <c r="F244" s="63"/>
+      <c r="B244" s="65"/>
+      <c r="C244" s="65"/>
+      <c r="D244" s="65"/>
+      <c r="E244" s="65"/>
+      <c r="F244" s="65"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
@@ -5412,13 +5421,13 @@
       <c r="I247" s="10"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="63" t="s">
+      <c r="A248" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B248" s="63"/>
-      <c r="C248" s="63"/>
-      <c r="D248" s="63"/>
-      <c r="E248" s="63"/>
+      <c r="B248" s="65"/>
+      <c r="C248" s="65"/>
+      <c r="D248" s="65"/>
+      <c r="E248" s="65"/>
       <c r="G248">
         <f>F247/C247</f>
         <v>4.4714828897338403E-2</v>
@@ -5483,14 +5492,14 @@
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="63" t="s">
+      <c r="A253" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="B253" s="63"/>
-      <c r="C253" s="63"/>
-      <c r="D253" s="63"/>
-      <c r="E253" s="63"/>
-      <c r="F253" s="63"/>
+      <c r="B253" s="65"/>
+      <c r="C253" s="65"/>
+      <c r="D253" s="65"/>
+      <c r="E253" s="65"/>
+      <c r="F253" s="65"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
@@ -5566,13 +5575,13 @@
       <c r="I256" s="10"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="63" t="s">
+      <c r="A257" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="B257" s="63"/>
-      <c r="C257" s="63"/>
-      <c r="D257" s="63"/>
-      <c r="E257" s="63"/>
+      <c r="B257" s="65"/>
+      <c r="C257" s="65"/>
+      <c r="D257" s="65"/>
+      <c r="E257" s="65"/>
       <c r="I257" s="10"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -5637,14 +5646,14 @@
     </row>
     <row r="261" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="63" t="s">
+      <c r="A262" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B262" s="63"/>
-      <c r="C262" s="63"/>
-      <c r="D262" s="63"/>
-      <c r="E262" s="63"/>
-      <c r="F262" s="63"/>
+      <c r="B262" s="65"/>
+      <c r="C262" s="65"/>
+      <c r="D262" s="65"/>
+      <c r="E262" s="65"/>
+      <c r="F262" s="65"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
@@ -5719,13 +5728,13 @@
       <c r="I265" s="10"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="63" t="s">
+      <c r="A266" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B266" s="63"/>
-      <c r="C266" s="63"/>
-      <c r="D266" s="63"/>
-      <c r="E266" s="63"/>
+      <c r="B266" s="65"/>
+      <c r="C266" s="65"/>
+      <c r="D266" s="65"/>
+      <c r="E266" s="65"/>
       <c r="F266">
         <f>F265/C265</f>
         <v>6.3093391837197865E-2</v>
@@ -5794,14 +5803,14 @@
     </row>
     <row r="270" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="63" t="s">
+      <c r="A271" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B271" s="63"/>
-      <c r="C271" s="63"/>
-      <c r="D271" s="63"/>
-      <c r="E271" s="63"/>
-      <c r="F271" s="63"/>
+      <c r="B271" s="65"/>
+      <c r="C271" s="65"/>
+      <c r="D271" s="65"/>
+      <c r="E271" s="65"/>
+      <c r="F271" s="65"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
@@ -5877,13 +5886,13 @@
       <c r="I274" s="10"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="63" t="s">
+      <c r="A275" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B275" s="63"/>
-      <c r="C275" s="63"/>
-      <c r="D275" s="63"/>
-      <c r="E275" s="63"/>
+      <c r="B275" s="65"/>
+      <c r="C275" s="65"/>
+      <c r="D275" s="65"/>
+      <c r="E275" s="65"/>
       <c r="G275">
         <f>F274/C274</f>
         <v>2.9095066007817687E-2</v>
@@ -5948,14 +5957,14 @@
     </row>
     <row r="279" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="63" t="s">
+      <c r="A280" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B280" s="63"/>
-      <c r="C280" s="63"/>
-      <c r="D280" s="63"/>
-      <c r="E280" s="63"/>
-      <c r="F280" s="63"/>
+      <c r="B280" s="65"/>
+      <c r="C280" s="65"/>
+      <c r="D280" s="65"/>
+      <c r="E280" s="65"/>
+      <c r="F280" s="65"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
@@ -6030,13 +6039,13 @@
       <c r="I283" s="10"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="63" t="s">
+      <c r="A284" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B284" s="63"/>
-      <c r="C284" s="63"/>
-      <c r="D284" s="63"/>
-      <c r="E284" s="63"/>
+      <c r="B284" s="65"/>
+      <c r="C284" s="65"/>
+      <c r="D284" s="65"/>
+      <c r="E284" s="65"/>
       <c r="G284">
         <f>F283/C283</f>
         <v>3.0301905009469346E-2</v>
@@ -6105,14 +6114,14 @@
     </row>
     <row r="288" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="63" t="s">
+      <c r="A289" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="B289" s="63"/>
-      <c r="C289" s="63"/>
-      <c r="D289" s="63"/>
-      <c r="E289" s="63"/>
-      <c r="F289" s="63"/>
+      <c r="B289" s="65"/>
+      <c r="C289" s="65"/>
+      <c r="D289" s="65"/>
+      <c r="E289" s="65"/>
+      <c r="F289" s="65"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
@@ -6187,13 +6196,13 @@
       <c r="I292" s="10"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="63" t="s">
+      <c r="A293" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="B293" s="63"/>
-      <c r="C293" s="63"/>
-      <c r="D293" s="63"/>
-      <c r="E293" s="63"/>
+      <c r="B293" s="65"/>
+      <c r="C293" s="65"/>
+      <c r="D293" s="65"/>
+      <c r="E293" s="65"/>
       <c r="G293">
         <f>F292/C292</f>
         <v>3.